--- a/CasosColombia.xlsx
+++ b/CasosColombia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Matlab\MATLAB_R2019a\fitVirusCV19_v07_v17\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B4C36F2-4009-4EA5-9D64-4E1AFF7E5E29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6217B1DD-006B-4E05-9ED3-614E6C60ACF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3435" yWindow="375" windowWidth="21600" windowHeight="11505" xr2:uid="{6C56C21C-B00B-4C62-A627-74DAE246E91A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="128">
   <si>
     <t>Fecha</t>
   </si>
@@ -1456,13 +1456,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13133E2-69F7-478D-A001-FD6CB4FB0C80}">
-  <dimension ref="A1:DX165"/>
+  <dimension ref="A1:DX166"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B137" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B129" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A165" sqref="A165:XFD165"/>
+      <selection pane="bottomRight" activeCell="B166" sqref="B166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4773,11 +4773,11 @@
       <c r="BS9" s="4">
         <v>0</v>
       </c>
-      <c r="BT9" s="4">
-        <v>1</v>
-      </c>
-      <c r="BU9" s="4">
-        <v>1</v>
+      <c r="BT9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="BU9" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="BV9" s="4">
         <v>0</v>
@@ -5940,8 +5940,8 @@
       <c r="BV12" s="4">
         <v>0</v>
       </c>
-      <c r="BW12" s="4">
-        <v>1</v>
+      <c r="BW12" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="BX12" s="4">
         <v>0</v>
@@ -12023,8 +12023,8 @@
       <c r="AQ28">
         <v>39</v>
       </c>
-      <c r="AR28" s="7" t="s">
-        <v>68</v>
+      <c r="AR28" s="7">
+        <v>1</v>
       </c>
       <c r="AS28">
         <v>15</v>
@@ -32559,8 +32559,8 @@
       <c r="BQ81">
         <v>63</v>
       </c>
-      <c r="BR81">
-        <v>1</v>
+      <c r="BR81" t="s">
+        <v>68</v>
       </c>
       <c r="BS81" s="4">
         <v>22</v>
@@ -38935,8 +38935,8 @@
       <c r="G98">
         <v>4483</v>
       </c>
-      <c r="H98">
-        <v>20</v>
+      <c r="H98" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="I98">
         <v>185</v>
@@ -39022,8 +39022,8 @@
       <c r="AJ98">
         <v>109</v>
       </c>
-      <c r="AK98">
-        <v>74</v>
+      <c r="AK98" t="s">
+        <v>68</v>
       </c>
       <c r="AL98">
         <v>3927</v>
@@ -41251,8 +41251,8 @@
       <c r="G104">
         <v>5406</v>
       </c>
-      <c r="H104">
-        <v>44</v>
+      <c r="H104" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="I104">
         <v>205</v>
@@ -42409,8 +42409,8 @@
       <c r="G107">
         <v>6245</v>
       </c>
-      <c r="H107">
-        <v>78</v>
+      <c r="H107" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="I107">
         <v>211</v>
@@ -63436,8 +63436,8 @@
       <c r="BP161">
         <v>684</v>
       </c>
-      <c r="BQ161">
-        <v>3456</v>
+      <c r="BQ161" t="s">
+        <v>68</v>
       </c>
       <c r="BR161">
         <v>3053</v>
@@ -63822,8 +63822,8 @@
       <c r="BP162">
         <v>692</v>
       </c>
-      <c r="BQ162">
-        <v>3629</v>
+      <c r="BQ162" t="s">
+        <v>68</v>
       </c>
       <c r="BR162">
         <v>3138</v>
@@ -65159,6 +65159,392 @@
       </c>
       <c r="DX165">
         <v>5720</v>
+      </c>
+    </row>
+    <row r="166" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>44060</v>
+      </c>
+      <c r="B166">
+        <v>476660</v>
+      </c>
+      <c r="C166">
+        <v>2662</v>
+      </c>
+      <c r="D166">
+        <v>62846</v>
+      </c>
+      <c r="E166">
+        <v>61074</v>
+      </c>
+      <c r="F166">
+        <v>166685</v>
+      </c>
+      <c r="G166">
+        <v>21865</v>
+      </c>
+      <c r="H166">
+        <v>2038</v>
+      </c>
+      <c r="I166">
+        <v>1686</v>
+      </c>
+      <c r="J166">
+        <v>3922</v>
+      </c>
+      <c r="K166">
+        <v>3334</v>
+      </c>
+      <c r="L166">
+        <v>5891</v>
+      </c>
+      <c r="M166">
+        <v>3494</v>
+      </c>
+      <c r="N166">
+        <v>14557</v>
+      </c>
+      <c r="O166">
+        <v>15375</v>
+      </c>
+      <c r="P166">
+        <v>3596</v>
+      </c>
+      <c r="Q166">
+        <v>2441</v>
+      </c>
+      <c r="R166">
+        <v>10305</v>
+      </c>
+      <c r="S166">
+        <v>4370</v>
+      </c>
+      <c r="T166">
+        <v>11578</v>
+      </c>
+      <c r="U166">
+        <v>7051</v>
+      </c>
+      <c r="V166">
+        <v>2062</v>
+      </c>
+      <c r="W166">
+        <v>637</v>
+      </c>
+      <c r="X166">
+        <v>3411</v>
+      </c>
+      <c r="Y166">
+        <v>10198</v>
+      </c>
+      <c r="Z166">
+        <v>8797</v>
+      </c>
+      <c r="AA166">
+        <v>4627</v>
+      </c>
+      <c r="AB166">
+        <v>37938</v>
+      </c>
+      <c r="AC166">
+        <v>670</v>
+      </c>
+      <c r="AD166">
+        <v>109</v>
+      </c>
+      <c r="AE166">
+        <v>141</v>
+      </c>
+      <c r="AF166">
+        <v>433</v>
+      </c>
+      <c r="AG166">
+        <v>16</v>
+      </c>
+      <c r="AH166">
+        <v>12</v>
+      </c>
+      <c r="AI166">
+        <v>197</v>
+      </c>
+      <c r="AJ166">
+        <v>1874</v>
+      </c>
+      <c r="AK166">
+        <v>1835</v>
+      </c>
+      <c r="AL166">
+        <v>34413</v>
+      </c>
+      <c r="AM166">
+        <v>5131</v>
+      </c>
+      <c r="AN166">
+        <v>2278</v>
+      </c>
+      <c r="AO166">
+        <v>29894</v>
+      </c>
+      <c r="AP166">
+        <v>753</v>
+      </c>
+      <c r="AQ166">
+        <v>18235</v>
+      </c>
+      <c r="AR166">
+        <v>1359</v>
+      </c>
+      <c r="AS166">
+        <v>4923</v>
+      </c>
+      <c r="AT166">
+        <v>1326</v>
+      </c>
+      <c r="AU166">
+        <v>1512</v>
+      </c>
+      <c r="AV166">
+        <v>2544</v>
+      </c>
+      <c r="AW166">
+        <v>1253</v>
+      </c>
+      <c r="AX166">
+        <v>925</v>
+      </c>
+      <c r="AY166">
+        <v>2432</v>
+      </c>
+      <c r="AZ166">
+        <v>2527</v>
+      </c>
+      <c r="BA166">
+        <v>35801</v>
+      </c>
+      <c r="BB166">
+        <v>9462</v>
+      </c>
+      <c r="BC166">
+        <v>1355</v>
+      </c>
+      <c r="BD166">
+        <v>5973</v>
+      </c>
+      <c r="BE166">
+        <v>2178</v>
+      </c>
+      <c r="BF166">
+        <v>272</v>
+      </c>
+      <c r="BG166">
+        <v>1341</v>
+      </c>
+      <c r="BH166">
+        <v>2420</v>
+      </c>
+      <c r="BI166">
+        <v>722</v>
+      </c>
+      <c r="BJ166">
+        <v>1787</v>
+      </c>
+      <c r="BK166">
+        <v>6970</v>
+      </c>
+      <c r="BL166">
+        <v>6375</v>
+      </c>
+      <c r="BM166">
+        <v>5893</v>
+      </c>
+      <c r="BN166">
+        <v>13314</v>
+      </c>
+      <c r="BO166">
+        <v>1824</v>
+      </c>
+      <c r="BP166">
+        <v>704</v>
+      </c>
+      <c r="BQ166">
+        <v>4248</v>
+      </c>
+      <c r="BR166">
+        <v>3660</v>
+      </c>
+      <c r="BS166" s="4">
+        <v>4116</v>
+      </c>
+      <c r="BT166" s="4">
+        <v>876</v>
+      </c>
+      <c r="BU166" s="4">
+        <v>1095</v>
+      </c>
+      <c r="BV166" s="4">
+        <v>1659</v>
+      </c>
+      <c r="BW166" s="4">
+        <v>1921</v>
+      </c>
+      <c r="BX166" s="4">
+        <v>471</v>
+      </c>
+      <c r="BY166" s="4">
+        <v>3435</v>
+      </c>
+      <c r="BZ166" s="4">
+        <v>1952</v>
+      </c>
+      <c r="CA166" s="4">
+        <v>786</v>
+      </c>
+      <c r="CB166" s="4">
+        <v>528</v>
+      </c>
+      <c r="CC166" s="4">
+        <v>1399</v>
+      </c>
+      <c r="CD166" s="4">
+        <v>1544</v>
+      </c>
+      <c r="CE166" s="4">
+        <v>670</v>
+      </c>
+      <c r="CF166" s="4">
+        <v>624</v>
+      </c>
+      <c r="CG166" s="4">
+        <v>3324</v>
+      </c>
+      <c r="CH166" s="4">
+        <v>802</v>
+      </c>
+      <c r="CI166" s="4">
+        <v>883</v>
+      </c>
+      <c r="CJ166" s="4">
+        <v>891</v>
+      </c>
+      <c r="CK166" s="4">
+        <v>1168</v>
+      </c>
+      <c r="CL166" s="4">
+        <v>964</v>
+      </c>
+      <c r="CM166" s="4">
+        <v>926</v>
+      </c>
+      <c r="CN166" s="4">
+        <v>907</v>
+      </c>
+      <c r="CO166" s="4">
+        <v>871</v>
+      </c>
+      <c r="CP166" s="4">
+        <v>993</v>
+      </c>
+      <c r="CQ166" s="4">
+        <v>420</v>
+      </c>
+      <c r="CR166" s="4">
+        <v>2670</v>
+      </c>
+      <c r="CS166" s="4">
+        <v>683</v>
+      </c>
+      <c r="CT166" s="4">
+        <v>694</v>
+      </c>
+      <c r="CU166" s="4">
+        <v>573</v>
+      </c>
+      <c r="CV166" s="4">
+        <v>941</v>
+      </c>
+      <c r="CW166" s="4">
+        <v>831</v>
+      </c>
+      <c r="CX166" s="4">
+        <v>506</v>
+      </c>
+      <c r="CY166" s="4">
+        <v>610</v>
+      </c>
+      <c r="CZ166" s="4">
+        <v>618</v>
+      </c>
+      <c r="DA166" s="4">
+        <v>941</v>
+      </c>
+      <c r="DB166" s="4">
+        <v>756</v>
+      </c>
+      <c r="DC166" s="4">
+        <v>847</v>
+      </c>
+      <c r="DD166" s="4">
+        <v>680</v>
+      </c>
+      <c r="DE166" s="4">
+        <v>307</v>
+      </c>
+      <c r="DF166" s="4">
+        <v>307</v>
+      </c>
+      <c r="DG166" s="4">
+        <v>540</v>
+      </c>
+      <c r="DH166" s="4">
+        <v>448</v>
+      </c>
+      <c r="DI166" s="4">
+        <v>334</v>
+      </c>
+      <c r="DJ166" s="4">
+        <v>500</v>
+      </c>
+      <c r="DK166" s="4">
+        <v>286</v>
+      </c>
+      <c r="DL166" s="4">
+        <v>473</v>
+      </c>
+      <c r="DM166" s="4">
+        <v>682</v>
+      </c>
+      <c r="DN166" s="4">
+        <v>490</v>
+      </c>
+      <c r="DO166" s="4">
+        <v>428</v>
+      </c>
+      <c r="DP166" s="4">
+        <v>334</v>
+      </c>
+      <c r="DQ166" s="4">
+        <v>499</v>
+      </c>
+      <c r="DR166">
+        <v>102731</v>
+      </c>
+      <c r="DS166">
+        <v>197257</v>
+      </c>
+      <c r="DT166">
+        <v>6007</v>
+      </c>
+      <c r="DU166">
+        <v>86190</v>
+      </c>
+      <c r="DV166">
+        <v>56344</v>
+      </c>
+      <c r="DW166">
+        <v>17298</v>
+      </c>
+      <c r="DX166">
+        <v>6000</v>
       </c>
     </row>
   </sheetData>

--- a/CasosColombia.xlsx
+++ b/CasosColombia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Matlab\MATLAB_R2019a\fitVirusCV19_v07_v17\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6217B1DD-006B-4E05-9ED3-614E6C60ACF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EFA37F4-7ACE-4AFE-AE19-20F8C3A51688}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3435" yWindow="375" windowWidth="21600" windowHeight="11505" xr2:uid="{6C56C21C-B00B-4C62-A627-74DAE246E91A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="128">
   <si>
     <t>Fecha</t>
   </si>
@@ -354,9 +354,6 @@
     <t>ColCandelaria</t>
   </si>
   <si>
-    <t>ColCajicá</t>
-  </si>
-  <si>
     <t>ColSabaneta</t>
   </si>
   <si>
@@ -409,6 +406,9 @@
   </si>
   <si>
     <t>ColBog</t>
+  </si>
+  <si>
+    <t>ColCajica</t>
   </si>
 </sst>
 </file>
@@ -1456,13 +1456,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13133E2-69F7-478D-A001-FD6CB4FB0C80}">
-  <dimension ref="A1:DX166"/>
+  <dimension ref="A1:DX167"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B129" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="DI147" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B166" sqref="B166"/>
+      <selection pane="bottomRight" activeCell="DX167" sqref="DX167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1488,7 +1488,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -1782,58 +1782,58 @@
         <v>108</v>
       </c>
       <c r="CZ1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="DA1" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="DA1" s="4" t="s">
+      <c r="DB1" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="DB1" s="4" t="s">
+      <c r="DC1" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="DC1" s="4" t="s">
+      <c r="DD1" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="DD1" s="4" t="s">
+      <c r="DE1" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="DE1" s="4" t="s">
+      <c r="DF1" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="DF1" s="4" t="s">
+      <c r="DG1" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="DG1" s="4" t="s">
+      <c r="DH1" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="DH1" s="4" t="s">
+      <c r="DI1" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="DI1" s="4" t="s">
+      <c r="DJ1" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="DJ1" s="4" t="s">
+      <c r="DK1" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="DK1" s="4" t="s">
+      <c r="DL1" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="DL1" s="4" t="s">
+      <c r="DM1" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="DM1" s="4" t="s">
+      <c r="DN1" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="DN1" s="4" t="s">
+      <c r="DO1" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="DO1" s="4" t="s">
+      <c r="DP1" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="DP1" s="4" t="s">
+      <c r="DQ1" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="DQ1" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="DR1" t="s">
         <v>69</v>
@@ -13932,8 +13932,8 @@
       <c r="AJ33">
         <v>0</v>
       </c>
-      <c r="AK33" t="s">
-        <v>68</v>
+      <c r="AK33">
+        <v>1</v>
       </c>
       <c r="AL33">
         <v>43</v>
@@ -14318,8 +14318,8 @@
       <c r="AJ34">
         <v>0</v>
       </c>
-      <c r="AK34" t="s">
-        <v>68</v>
+      <c r="AK34">
+        <v>1</v>
       </c>
       <c r="AL34">
         <v>46</v>
@@ -14704,8 +14704,8 @@
       <c r="AJ35">
         <v>0</v>
       </c>
-      <c r="AK35" t="s">
-        <v>68</v>
+      <c r="AK35">
+        <v>1</v>
       </c>
       <c r="AL35">
         <v>49</v>
@@ -14854,8 +14854,8 @@
       <c r="CH35" s="4">
         <v>0</v>
       </c>
-      <c r="CI35" s="4">
-        <v>3</v>
+      <c r="CI35" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="CJ35" s="4">
         <v>0</v>
@@ -14944,8 +14944,8 @@
       <c r="DL35" s="4">
         <v>0</v>
       </c>
-      <c r="DM35" s="4">
-        <v>1</v>
+      <c r="DM35" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="DN35" s="4">
         <v>0</v>
@@ -17020,8 +17020,8 @@
       <c r="AJ41">
         <v>2</v>
       </c>
-      <c r="AK41" t="s">
-        <v>68</v>
+      <c r="AK41">
+        <v>5</v>
       </c>
       <c r="AL41">
         <v>69</v>
@@ -17406,8 +17406,8 @@
       <c r="AJ42">
         <v>2</v>
       </c>
-      <c r="AK42" t="s">
-        <v>68</v>
+      <c r="AK42">
+        <v>5</v>
       </c>
       <c r="AL42">
         <v>69</v>
@@ -29372,8 +29372,8 @@
       <c r="AJ73">
         <v>15</v>
       </c>
-      <c r="AK73" t="s">
-        <v>68</v>
+      <c r="AK73">
+        <v>13</v>
       </c>
       <c r="AL73">
         <v>753</v>
@@ -29758,8 +29758,8 @@
       <c r="AJ74">
         <v>16</v>
       </c>
-      <c r="AK74" t="s">
-        <v>68</v>
+      <c r="AK74">
+        <v>13</v>
       </c>
       <c r="AL74">
         <v>846</v>
@@ -33394,8 +33394,8 @@
       <c r="CL83" s="4">
         <v>36</v>
       </c>
-      <c r="CM83" s="4">
-        <v>25</v>
+      <c r="CM83" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="CN83" s="4">
         <v>13</v>
@@ -35102,8 +35102,8 @@
       <c r="P88">
         <v>61</v>
       </c>
-      <c r="Q88" s="2">
-        <v>2</v>
+      <c r="Q88" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="R88">
         <v>613</v>
@@ -35847,8 +35847,8 @@
       <c r="G90">
         <v>3364</v>
       </c>
-      <c r="H90" s="10">
-        <v>1</v>
+      <c r="H90" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="I90">
         <v>147</v>
@@ -36721,8 +36721,8 @@
       <c r="AO92">
         <v>2983</v>
       </c>
-      <c r="AP92">
-        <v>67</v>
+      <c r="AP92" t="s">
+        <v>68</v>
       </c>
       <c r="AQ92">
         <v>3468</v>
@@ -38056,8 +38056,8 @@
       <c r="CV95" s="4">
         <v>12</v>
       </c>
-      <c r="CW95" s="4">
-        <v>54</v>
+      <c r="CW95" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="CX95" s="4">
         <v>3</v>
@@ -38442,8 +38442,8 @@
       <c r="CV96" s="4">
         <v>12</v>
       </c>
-      <c r="CW96" s="4">
-        <v>64</v>
+      <c r="CW96" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="CX96" s="4">
         <v>3</v>
@@ -39794,8 +39794,8 @@
       <c r="AJ100">
         <v>122</v>
       </c>
-      <c r="AK100">
-        <v>77</v>
+      <c r="AK100" t="s">
+        <v>68</v>
       </c>
       <c r="AL100">
         <v>4521</v>
@@ -47294,7 +47294,7 @@
         <v>142</v>
       </c>
       <c r="CN119" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="CO119" s="4">
         <v>144</v>
@@ -47680,7 +47680,7 @@
         <v>151</v>
       </c>
       <c r="CN120" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="CO120" s="4">
         <v>145</v>
@@ -48066,7 +48066,7 @@
         <v>158</v>
       </c>
       <c r="CN121" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="CO121" s="4">
         <v>147</v>
@@ -48452,7 +48452,7 @@
         <v>159</v>
       </c>
       <c r="CN122" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="CO122" s="4">
         <v>149</v>
@@ -48838,7 +48838,7 @@
         <v>160</v>
       </c>
       <c r="CN123" s="4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="CO123" s="4">
         <v>153</v>
@@ -49224,7 +49224,7 @@
         <v>160</v>
       </c>
       <c r="CN124" s="4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="CO124" s="4">
         <v>170</v>
@@ -50382,7 +50382,7 @@
         <v>175</v>
       </c>
       <c r="CN127" s="4">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="CO127" s="4">
         <v>181</v>
@@ -50768,7 +50768,7 @@
         <v>194</v>
       </c>
       <c r="CN128" s="4">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CO128" s="4">
         <v>190</v>
@@ -51154,7 +51154,7 @@
         <v>197</v>
       </c>
       <c r="CN129" s="4">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CO129" s="4">
         <v>202</v>
@@ -51518,8 +51518,8 @@
       <c r="CF130" s="4">
         <v>91</v>
       </c>
-      <c r="CG130" s="10" t="s">
-        <v>68</v>
+      <c r="CG130" s="10">
+        <v>100</v>
       </c>
       <c r="CH130" s="4">
         <v>96</v>
@@ -51540,7 +51540,7 @@
         <v>208</v>
       </c>
       <c r="CN130" s="4">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="CO130" s="4">
         <v>220</v>
@@ -51926,7 +51926,7 @@
         <v>211</v>
       </c>
       <c r="CN131" s="4">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="CO131" s="4">
         <v>225</v>
@@ -52266,8 +52266,8 @@
       <c r="BX132" s="4">
         <v>137</v>
       </c>
-      <c r="BY132" s="4">
-        <v>603</v>
+      <c r="BY132" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="BZ132" s="4">
         <v>253</v>
@@ -52312,7 +52312,7 @@
         <v>219</v>
       </c>
       <c r="CN132" s="4">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="CO132" s="4">
         <v>226</v>
@@ -52698,7 +52698,7 @@
         <v>221</v>
       </c>
       <c r="CN133" s="4">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="CO133" s="4">
         <v>243</v>
@@ -53084,7 +53084,7 @@
         <v>231</v>
       </c>
       <c r="CN134" s="4">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="CO134" s="4">
         <v>263</v>
@@ -53470,7 +53470,7 @@
         <v>243</v>
       </c>
       <c r="CN135" s="4">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="CO135" s="4">
         <v>291</v>
@@ -54242,7 +54242,7 @@
         <v>264</v>
       </c>
       <c r="CN137" s="4">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="CO137" s="4">
         <v>316</v>
@@ -54628,7 +54628,7 @@
         <v>275</v>
       </c>
       <c r="CN138" s="4">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="CO138" s="4">
         <v>318</v>
@@ -55014,7 +55014,7 @@
         <v>275</v>
       </c>
       <c r="CN139" s="4">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="CO139" s="4">
         <v>337</v>
@@ -55400,7 +55400,7 @@
         <v>287</v>
       </c>
       <c r="CN140" s="4">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="CO140" s="4">
         <v>351</v>
@@ -55486,8 +55486,8 @@
       <c r="DP140" s="4">
         <v>199</v>
       </c>
-      <c r="DQ140" s="4">
-        <v>150</v>
+      <c r="DQ140" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="DR140">
         <v>70166</v>
@@ -55786,7 +55786,7 @@
         <v>302</v>
       </c>
       <c r="CN141" s="4">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="CO141" s="4">
         <v>375</v>
@@ -56172,7 +56172,7 @@
         <v>323</v>
       </c>
       <c r="CN142" s="4">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="CO142" s="4">
         <v>386</v>
@@ -56558,7 +56558,7 @@
         <v>325</v>
       </c>
       <c r="CN143" s="4">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="CO143" s="4">
         <v>399</v>
@@ -56944,7 +56944,7 @@
         <v>334</v>
       </c>
       <c r="CN144" s="4">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="CO144" s="4">
         <v>419</v>
@@ -57330,7 +57330,7 @@
         <v>343</v>
       </c>
       <c r="CN145" s="4">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="CO145" s="4">
         <v>426</v>
@@ -57716,7 +57716,7 @@
         <v>354</v>
       </c>
       <c r="CN146" s="4">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="CO146" s="4">
         <v>447</v>
@@ -58102,7 +58102,7 @@
         <v>373</v>
       </c>
       <c r="CN147" s="4">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="CO147" s="4">
         <v>497</v>
@@ -58188,8 +58188,8 @@
       <c r="DP147" s="4">
         <v>254</v>
       </c>
-      <c r="DQ147" s="4">
-        <v>277</v>
+      <c r="DQ147" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="DR147">
         <v>79065</v>
@@ -58488,7 +58488,7 @@
         <v>407</v>
       </c>
       <c r="CN148" s="4">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="CO148" s="4">
         <v>515</v>
@@ -58874,7 +58874,7 @@
         <v>423</v>
       </c>
       <c r="CN149" s="4">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="CO149" s="4">
         <v>517</v>
@@ -59260,7 +59260,7 @@
         <v>464</v>
       </c>
       <c r="CN150" s="4">
-        <v>399</v>
+        <v>380</v>
       </c>
       <c r="CO150" s="4">
         <v>531</v>
@@ -59646,7 +59646,7 @@
         <v>486</v>
       </c>
       <c r="CN151" s="4">
-        <v>424</v>
+        <v>403</v>
       </c>
       <c r="CO151" s="4">
         <v>546</v>
@@ -60032,7 +60032,7 @@
         <v>499</v>
       </c>
       <c r="CN152" s="4">
-        <v>462</v>
+        <v>427</v>
       </c>
       <c r="CO152" s="4">
         <v>614</v>
@@ -60418,7 +60418,7 @@
         <v>507</v>
       </c>
       <c r="CN153" s="4">
-        <v>483</v>
+        <v>448</v>
       </c>
       <c r="CO153" s="4">
         <v>621</v>
@@ -60804,7 +60804,7 @@
         <v>521</v>
       </c>
       <c r="CN154" s="4">
-        <v>499</v>
+        <v>471</v>
       </c>
       <c r="CO154" s="4">
         <v>626</v>
@@ -61190,7 +61190,7 @@
         <v>547</v>
       </c>
       <c r="CN155" s="4">
-        <v>504</v>
+        <v>476</v>
       </c>
       <c r="CO155" s="4">
         <v>637</v>
@@ -61576,7 +61576,7 @@
         <v>580</v>
       </c>
       <c r="CN156" s="4">
-        <v>582</v>
+        <v>552</v>
       </c>
       <c r="CO156" s="4">
         <v>639</v>
@@ -61962,7 +61962,7 @@
         <v>608</v>
       </c>
       <c r="CN157" s="4">
-        <v>597</v>
+        <v>566</v>
       </c>
       <c r="CO157" s="4">
         <v>647</v>
@@ -62348,7 +62348,7 @@
         <v>637</v>
       </c>
       <c r="CN158" s="4">
-        <v>618</v>
+        <v>584</v>
       </c>
       <c r="CO158" s="4">
         <v>652</v>
@@ -62734,7 +62734,7 @@
         <v>670</v>
       </c>
       <c r="CN159" s="4">
-        <v>703</v>
+        <v>603</v>
       </c>
       <c r="CO159" s="4">
         <v>665</v>
@@ -63120,7 +63120,7 @@
         <v>722</v>
       </c>
       <c r="CN160" s="4">
-        <v>835</v>
+        <v>737</v>
       </c>
       <c r="CO160" s="4">
         <v>683</v>
@@ -63506,7 +63506,7 @@
         <v>748</v>
       </c>
       <c r="CN161" s="4">
-        <v>888</v>
+        <v>790</v>
       </c>
       <c r="CO161" s="4">
         <v>694</v>
@@ -63892,7 +63892,7 @@
         <v>762</v>
       </c>
       <c r="CN162" s="4">
-        <v>841</v>
+        <v>814</v>
       </c>
       <c r="CO162" s="4">
         <v>720</v>
@@ -64278,7 +64278,7 @@
         <v>798</v>
       </c>
       <c r="CN163" s="4">
-        <v>868</v>
+        <v>841</v>
       </c>
       <c r="CO163" s="4">
         <v>804</v>
@@ -64664,7 +64664,7 @@
         <v>869</v>
       </c>
       <c r="CN164" s="4">
-        <v>1017</v>
+        <v>874</v>
       </c>
       <c r="CO164" s="4">
         <v>838</v>
@@ -65050,7 +65050,7 @@
         <v>895</v>
       </c>
       <c r="CN165" s="4">
-        <v>918</v>
+        <v>892</v>
       </c>
       <c r="CO165" s="4">
         <v>860</v>
@@ -65545,6 +65545,392 @@
       </c>
       <c r="DX166">
         <v>6000</v>
+      </c>
+    </row>
+    <row r="167" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>44061</v>
+      </c>
+      <c r="B167">
+        <v>489122</v>
+      </c>
+      <c r="C167">
+        <v>2669</v>
+      </c>
+      <c r="D167">
+        <v>64259</v>
+      </c>
+      <c r="E167">
+        <v>61571</v>
+      </c>
+      <c r="F167">
+        <v>171312</v>
+      </c>
+      <c r="G167">
+        <v>22244</v>
+      </c>
+      <c r="H167">
+        <v>2158</v>
+      </c>
+      <c r="I167">
+        <v>1737</v>
+      </c>
+      <c r="J167">
+        <v>4129</v>
+      </c>
+      <c r="K167">
+        <v>3435</v>
+      </c>
+      <c r="L167">
+        <v>6060</v>
+      </c>
+      <c r="M167">
+        <v>3524</v>
+      </c>
+      <c r="N167">
+        <v>15181</v>
+      </c>
+      <c r="O167">
+        <v>16087</v>
+      </c>
+      <c r="P167">
+        <v>3751</v>
+      </c>
+      <c r="Q167">
+        <v>2598</v>
+      </c>
+      <c r="R167">
+        <v>10549</v>
+      </c>
+      <c r="S167">
+        <v>4680</v>
+      </c>
+      <c r="T167">
+        <v>11763</v>
+      </c>
+      <c r="U167">
+        <v>7293</v>
+      </c>
+      <c r="V167">
+        <v>2181</v>
+      </c>
+      <c r="W167">
+        <v>657</v>
+      </c>
+      <c r="X167">
+        <v>3487</v>
+      </c>
+      <c r="Y167">
+        <v>10653</v>
+      </c>
+      <c r="Z167">
+        <v>9015</v>
+      </c>
+      <c r="AA167">
+        <v>4791</v>
+      </c>
+      <c r="AB167">
+        <v>39020</v>
+      </c>
+      <c r="AC167">
+        <v>691</v>
+      </c>
+      <c r="AD167">
+        <v>100</v>
+      </c>
+      <c r="AE167">
+        <v>154</v>
+      </c>
+      <c r="AF167">
+        <v>434</v>
+      </c>
+      <c r="AG167">
+        <v>20</v>
+      </c>
+      <c r="AH167">
+        <v>14</v>
+      </c>
+      <c r="AI167">
+        <v>198</v>
+      </c>
+      <c r="AJ167">
+        <v>1910</v>
+      </c>
+      <c r="AK167">
+        <v>1850</v>
+      </c>
+      <c r="AL167">
+        <v>34617</v>
+      </c>
+      <c r="AM167">
+        <v>5249</v>
+      </c>
+      <c r="AN167">
+        <v>2305</v>
+      </c>
+      <c r="AO167">
+        <v>30714</v>
+      </c>
+      <c r="AP167">
+        <v>765</v>
+      </c>
+      <c r="AQ167">
+        <v>18443</v>
+      </c>
+      <c r="AR167">
+        <v>1364</v>
+      </c>
+      <c r="AS167">
+        <v>5089</v>
+      </c>
+      <c r="AT167">
+        <v>1338</v>
+      </c>
+      <c r="AU167">
+        <v>1523</v>
+      </c>
+      <c r="AV167">
+        <v>2659</v>
+      </c>
+      <c r="AW167">
+        <v>1280</v>
+      </c>
+      <c r="AX167">
+        <v>925</v>
+      </c>
+      <c r="AY167">
+        <v>2438</v>
+      </c>
+      <c r="AZ167">
+        <v>2542</v>
+      </c>
+      <c r="BA167">
+        <v>36702</v>
+      </c>
+      <c r="BB167">
+        <v>9848</v>
+      </c>
+      <c r="BC167">
+        <v>1444</v>
+      </c>
+      <c r="BD167">
+        <v>6108</v>
+      </c>
+      <c r="BE167">
+        <v>2232</v>
+      </c>
+      <c r="BF167">
+        <v>272</v>
+      </c>
+      <c r="BG167">
+        <v>1346</v>
+      </c>
+      <c r="BH167">
+        <v>2447</v>
+      </c>
+      <c r="BI167">
+        <v>723</v>
+      </c>
+      <c r="BJ167">
+        <v>1857</v>
+      </c>
+      <c r="BK167">
+        <v>7154</v>
+      </c>
+      <c r="BL167">
+        <v>6508</v>
+      </c>
+      <c r="BM167">
+        <v>6173</v>
+      </c>
+      <c r="BN167">
+        <v>13358</v>
+      </c>
+      <c r="BO167">
+        <v>1829</v>
+      </c>
+      <c r="BP167">
+        <v>722</v>
+      </c>
+      <c r="BQ167">
+        <v>4348</v>
+      </c>
+      <c r="BR167">
+        <v>3925</v>
+      </c>
+      <c r="BS167" s="4">
+        <v>4357</v>
+      </c>
+      <c r="BT167" s="4">
+        <v>894</v>
+      </c>
+      <c r="BU167" s="4">
+        <v>1168</v>
+      </c>
+      <c r="BV167" s="4">
+        <v>1710</v>
+      </c>
+      <c r="BW167" s="4">
+        <v>1997</v>
+      </c>
+      <c r="BX167" s="4">
+        <v>483</v>
+      </c>
+      <c r="BY167" s="4">
+        <v>3531</v>
+      </c>
+      <c r="BZ167" s="4">
+        <v>1992</v>
+      </c>
+      <c r="CA167" s="4">
+        <v>791</v>
+      </c>
+      <c r="CB167" s="4">
+        <v>545</v>
+      </c>
+      <c r="CC167" s="4">
+        <v>1483</v>
+      </c>
+      <c r="CD167" s="4">
+        <v>1580</v>
+      </c>
+      <c r="CE167" s="4">
+        <v>706</v>
+      </c>
+      <c r="CF167" s="4">
+        <v>651</v>
+      </c>
+      <c r="CG167" s="4">
+        <v>3467</v>
+      </c>
+      <c r="CH167" s="4">
+        <v>862</v>
+      </c>
+      <c r="CI167" s="4">
+        <v>921</v>
+      </c>
+      <c r="CJ167" s="4">
+        <v>939</v>
+      </c>
+      <c r="CK167" s="4">
+        <v>1214</v>
+      </c>
+      <c r="CL167" s="4">
+        <v>1009</v>
+      </c>
+      <c r="CM167" s="4">
+        <v>957</v>
+      </c>
+      <c r="CN167" s="4">
+        <v>927</v>
+      </c>
+      <c r="CO167" s="4">
+        <v>887</v>
+      </c>
+      <c r="CP167" s="4">
+        <v>1000</v>
+      </c>
+      <c r="CQ167" s="4">
+        <v>438</v>
+      </c>
+      <c r="CR167" s="4">
+        <v>2686</v>
+      </c>
+      <c r="CS167" s="4">
+        <v>704</v>
+      </c>
+      <c r="CT167" s="4">
+        <v>705</v>
+      </c>
+      <c r="CU167" s="4">
+        <v>597</v>
+      </c>
+      <c r="CV167" s="4">
+        <v>975</v>
+      </c>
+      <c r="CW167" s="4">
+        <v>861</v>
+      </c>
+      <c r="CX167" s="4">
+        <v>514</v>
+      </c>
+      <c r="CY167" s="4">
+        <v>623</v>
+      </c>
+      <c r="CZ167" s="4">
+        <v>648</v>
+      </c>
+      <c r="DA167" s="4">
+        <v>953</v>
+      </c>
+      <c r="DB167" s="4">
+        <v>773</v>
+      </c>
+      <c r="DC167" s="4">
+        <v>858</v>
+      </c>
+      <c r="DD167" s="4">
+        <v>688</v>
+      </c>
+      <c r="DE167" s="4">
+        <v>309</v>
+      </c>
+      <c r="DF167" s="4">
+        <v>312</v>
+      </c>
+      <c r="DG167" s="4">
+        <v>565</v>
+      </c>
+      <c r="DH167" s="4">
+        <v>453</v>
+      </c>
+      <c r="DI167" s="4">
+        <v>356</v>
+      </c>
+      <c r="DJ167" s="4">
+        <v>500</v>
+      </c>
+      <c r="DK167" s="4">
+        <v>288</v>
+      </c>
+      <c r="DL167" s="4">
+        <v>488</v>
+      </c>
+      <c r="DM167" s="4">
+        <v>685</v>
+      </c>
+      <c r="DN167" s="4">
+        <v>494</v>
+      </c>
+      <c r="DO167" s="4">
+        <v>465</v>
+      </c>
+      <c r="DP167" s="4">
+        <v>339</v>
+      </c>
+      <c r="DQ167" s="4">
+        <v>506</v>
+      </c>
+      <c r="DR167">
+        <v>104175</v>
+      </c>
+      <c r="DS167">
+        <v>203347</v>
+      </c>
+      <c r="DT167">
+        <v>6154</v>
+      </c>
+      <c r="DU167">
+        <v>88445</v>
+      </c>
+      <c r="DV167">
+        <v>57742</v>
+      </c>
+      <c r="DW167">
+        <v>17995</v>
+      </c>
+      <c r="DX167">
+        <v>6330</v>
       </c>
     </row>
   </sheetData>

--- a/CasosColombia.xlsx
+++ b/CasosColombia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Matlab\MATLAB_R2019a\fitVirusCV19_v07_v17\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EFA37F4-7ACE-4AFE-AE19-20F8C3A51688}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{68857C14-EB31-4E8B-978D-12341CE66E35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3435" yWindow="375" windowWidth="21600" windowHeight="11505" xr2:uid="{6C56C21C-B00B-4C62-A627-74DAE246E91A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="128">
   <si>
     <t>Fecha</t>
   </si>
@@ -1456,13 +1456,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13133E2-69F7-478D-A001-FD6CB4FB0C80}">
-  <dimension ref="A1:DX167"/>
+  <dimension ref="A1:DX168"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="DI147" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="DJ127" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="DX167" sqref="DX167"/>
+      <selection pane="bottomRight" activeCell="DX168" sqref="DX168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4776,8 +4776,8 @@
       <c r="BT9" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="BU9" s="10" t="s">
-        <v>68</v>
+      <c r="BU9" s="10">
+        <v>1</v>
       </c>
       <c r="BV9" s="4">
         <v>0</v>
@@ -7942,8 +7942,8 @@
       <c r="CT17" s="4">
         <v>0</v>
       </c>
-      <c r="CU17" s="4">
-        <v>1</v>
+      <c r="CU17" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="CV17" s="4">
         <v>0</v>
@@ -8067,8 +8067,8 @@
       <c r="K18" t="s">
         <v>68</v>
       </c>
-      <c r="L18">
-        <v>1</v>
+      <c r="L18" t="s">
+        <v>68</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -8238,8 +8238,8 @@
       <c r="BP18">
         <v>0</v>
       </c>
-      <c r="BQ18">
-        <v>1</v>
+      <c r="BQ18" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="BR18">
         <v>0</v>
@@ -13367,8 +13367,8 @@
       <c r="DA31" s="4">
         <v>6</v>
       </c>
-      <c r="DB31" s="4">
-        <v>1</v>
+      <c r="DB31" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="DC31" s="4">
         <v>0</v>
@@ -13932,8 +13932,8 @@
       <c r="AJ33">
         <v>0</v>
       </c>
-      <c r="AK33">
-        <v>1</v>
+      <c r="AK33" t="s">
+        <v>68</v>
       </c>
       <c r="AL33">
         <v>43</v>
@@ -14318,8 +14318,8 @@
       <c r="AJ34">
         <v>0</v>
       </c>
-      <c r="AK34">
-        <v>1</v>
+      <c r="AK34" t="s">
+        <v>68</v>
       </c>
       <c r="AL34">
         <v>46</v>
@@ -14704,8 +14704,8 @@
       <c r="AJ35">
         <v>0</v>
       </c>
-      <c r="AK35">
-        <v>1</v>
+      <c r="AK35" t="s">
+        <v>68</v>
       </c>
       <c r="AL35">
         <v>49</v>
@@ -15243,8 +15243,8 @@
       <c r="CI36" s="4">
         <v>4</v>
       </c>
-      <c r="CJ36" s="4">
-        <v>1</v>
+      <c r="CJ36" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="CK36" s="4">
         <v>5</v>
@@ -18672,8 +18672,8 @@
       <c r="BT45" s="4">
         <v>12</v>
       </c>
-      <c r="BU45" s="4">
-        <v>43</v>
+      <c r="BU45" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="BV45" s="4">
         <v>14</v>
@@ -23217,8 +23217,8 @@
       <c r="AQ57">
         <v>270</v>
       </c>
-      <c r="AR57">
-        <v>41</v>
+      <c r="AR57" t="s">
+        <v>68</v>
       </c>
       <c r="AS57">
         <v>60</v>
@@ -23603,8 +23603,8 @@
       <c r="AQ58">
         <v>284</v>
       </c>
-      <c r="AR58">
-        <v>47</v>
+      <c r="AR58" t="s">
+        <v>68</v>
       </c>
       <c r="AS58">
         <v>64</v>
@@ -30315,8 +30315,8 @@
       <c r="CO75" s="4">
         <v>2</v>
       </c>
-      <c r="CP75" s="4">
-        <v>1</v>
+      <c r="CP75" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="CQ75" s="4">
         <v>11</v>
@@ -35847,8 +35847,8 @@
       <c r="G90">
         <v>3364</v>
       </c>
-      <c r="H90" s="10" t="s">
-        <v>68</v>
+      <c r="H90" s="10">
+        <v>1</v>
       </c>
       <c r="I90">
         <v>147</v>
@@ -37317,8 +37317,8 @@
       <c r="DG93" s="4">
         <v>3</v>
       </c>
-      <c r="DH93" s="4">
-        <v>2</v>
+      <c r="DH93" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="DI93" s="4">
         <v>23</v>
@@ -37703,8 +37703,8 @@
       <c r="DG94" s="4">
         <v>4</v>
       </c>
-      <c r="DH94" s="4">
-        <v>2</v>
+      <c r="DH94" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="DI94" s="4">
         <v>24</v>
@@ -40581,8 +40581,8 @@
       <c r="AO102">
         <v>4296</v>
       </c>
-      <c r="AP102">
-        <v>195</v>
+      <c r="AP102" t="s">
+        <v>68</v>
       </c>
       <c r="AQ102">
         <v>4777</v>
@@ -42218,8 +42218,8 @@
       <c r="BT106" s="4">
         <v>93</v>
       </c>
-      <c r="BU106" s="4">
-        <v>107</v>
+      <c r="BU106" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="BV106" s="4">
         <v>74</v>
@@ -57921,8 +57921,8 @@
       <c r="AE147">
         <v>61</v>
       </c>
-      <c r="AF147">
-        <v>72</v>
+      <c r="AF147" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="AG147">
         <v>14</v>
@@ -65931,6 +65931,392 @@
       </c>
       <c r="DX167">
         <v>6330</v>
+      </c>
+    </row>
+    <row r="168" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>44062</v>
+      </c>
+      <c r="B168">
+        <v>502178</v>
+      </c>
+      <c r="C168">
+        <v>2673</v>
+      </c>
+      <c r="D168">
+        <v>65786</v>
+      </c>
+      <c r="E168">
+        <v>62009</v>
+      </c>
+      <c r="F168">
+        <v>176336</v>
+      </c>
+      <c r="G168">
+        <v>22485</v>
+      </c>
+      <c r="H168">
+        <v>2230</v>
+      </c>
+      <c r="I168">
+        <v>1825</v>
+      </c>
+      <c r="J168">
+        <v>4339</v>
+      </c>
+      <c r="K168">
+        <v>3512</v>
+      </c>
+      <c r="L168">
+        <v>6439</v>
+      </c>
+      <c r="M168">
+        <v>3547</v>
+      </c>
+      <c r="N168">
+        <v>15786</v>
+      </c>
+      <c r="O168">
+        <v>16756</v>
+      </c>
+      <c r="P168">
+        <v>3891</v>
+      </c>
+      <c r="Q168">
+        <v>2793</v>
+      </c>
+      <c r="R168">
+        <v>10666</v>
+      </c>
+      <c r="S168">
+        <v>4943</v>
+      </c>
+      <c r="T168">
+        <v>11875</v>
+      </c>
+      <c r="U168">
+        <v>7501</v>
+      </c>
+      <c r="V168">
+        <v>2207</v>
+      </c>
+      <c r="W168">
+        <v>681</v>
+      </c>
+      <c r="X168">
+        <v>3718</v>
+      </c>
+      <c r="Y168">
+        <v>11283</v>
+      </c>
+      <c r="Z168">
+        <v>9440</v>
+      </c>
+      <c r="AA168">
+        <v>4970</v>
+      </c>
+      <c r="AB168">
+        <v>40073</v>
+      </c>
+      <c r="AC168">
+        <v>745</v>
+      </c>
+      <c r="AD168">
+        <v>112</v>
+      </c>
+      <c r="AE168">
+        <v>163</v>
+      </c>
+      <c r="AF168">
+        <v>435</v>
+      </c>
+      <c r="AG168">
+        <v>20</v>
+      </c>
+      <c r="AH168">
+        <v>14</v>
+      </c>
+      <c r="AI168">
+        <v>198</v>
+      </c>
+      <c r="AJ168">
+        <v>1917</v>
+      </c>
+      <c r="AK168">
+        <v>1973</v>
+      </c>
+      <c r="AL168">
+        <v>34965</v>
+      </c>
+      <c r="AM168">
+        <v>5440</v>
+      </c>
+      <c r="AN168">
+        <v>2330</v>
+      </c>
+      <c r="AO168">
+        <v>31545</v>
+      </c>
+      <c r="AP168">
+        <v>771</v>
+      </c>
+      <c r="AQ168">
+        <v>18565</v>
+      </c>
+      <c r="AR168">
+        <v>1374</v>
+      </c>
+      <c r="AS168">
+        <v>5228</v>
+      </c>
+      <c r="AT168">
+        <v>1346</v>
+      </c>
+      <c r="AU168">
+        <v>1525</v>
+      </c>
+      <c r="AV168">
+        <v>2793</v>
+      </c>
+      <c r="AW168">
+        <v>1282</v>
+      </c>
+      <c r="AX168">
+        <v>925</v>
+      </c>
+      <c r="AY168">
+        <v>2441</v>
+      </c>
+      <c r="AZ168">
+        <v>2544</v>
+      </c>
+      <c r="BA168">
+        <v>37674</v>
+      </c>
+      <c r="BB168">
+        <v>10258</v>
+      </c>
+      <c r="BC168">
+        <v>1553</v>
+      </c>
+      <c r="BD168">
+        <v>6213</v>
+      </c>
+      <c r="BE168">
+        <v>2396</v>
+      </c>
+      <c r="BF168">
+        <v>273</v>
+      </c>
+      <c r="BG168">
+        <v>1353</v>
+      </c>
+      <c r="BH168">
+        <v>2472</v>
+      </c>
+      <c r="BI168">
+        <v>723</v>
+      </c>
+      <c r="BJ168">
+        <v>1869</v>
+      </c>
+      <c r="BK168">
+        <v>7248</v>
+      </c>
+      <c r="BL168">
+        <v>6781</v>
+      </c>
+      <c r="BM168">
+        <v>6375</v>
+      </c>
+      <c r="BN168">
+        <v>13393</v>
+      </c>
+      <c r="BO168">
+        <v>1830</v>
+      </c>
+      <c r="BP168">
+        <v>727</v>
+      </c>
+      <c r="BQ168">
+        <v>4657</v>
+      </c>
+      <c r="BR168">
+        <v>4134</v>
+      </c>
+      <c r="BS168" s="4">
+        <v>4620</v>
+      </c>
+      <c r="BT168" s="4">
+        <v>960</v>
+      </c>
+      <c r="BU168" s="4">
+        <v>1200</v>
+      </c>
+      <c r="BV168" s="4">
+        <v>1770</v>
+      </c>
+      <c r="BW168" s="4">
+        <v>2098</v>
+      </c>
+      <c r="BX168" s="4">
+        <v>505</v>
+      </c>
+      <c r="BY168" s="4">
+        <v>3601</v>
+      </c>
+      <c r="BZ168" s="4">
+        <v>2023</v>
+      </c>
+      <c r="CA168" s="4">
+        <v>832</v>
+      </c>
+      <c r="CB168" s="4">
+        <v>567</v>
+      </c>
+      <c r="CC168" s="4">
+        <v>1556</v>
+      </c>
+      <c r="CD168" s="4">
+        <v>1615</v>
+      </c>
+      <c r="CE168" s="4">
+        <v>748</v>
+      </c>
+      <c r="CF168" s="4">
+        <v>670</v>
+      </c>
+      <c r="CG168" s="4">
+        <v>3650</v>
+      </c>
+      <c r="CH168" s="4">
+        <v>893</v>
+      </c>
+      <c r="CI168" s="4">
+        <v>971</v>
+      </c>
+      <c r="CJ168" s="4">
+        <v>969</v>
+      </c>
+      <c r="CK168" s="4">
+        <v>1266</v>
+      </c>
+      <c r="CL168" s="4">
+        <v>1084</v>
+      </c>
+      <c r="CM168" s="4">
+        <v>1011</v>
+      </c>
+      <c r="CN168" s="4">
+        <v>942</v>
+      </c>
+      <c r="CO168" s="4">
+        <v>912</v>
+      </c>
+      <c r="CP168" s="4">
+        <v>1006</v>
+      </c>
+      <c r="CQ168" s="4">
+        <v>459</v>
+      </c>
+      <c r="CR168" s="4">
+        <v>2727</v>
+      </c>
+      <c r="CS168" s="4">
+        <v>741</v>
+      </c>
+      <c r="CT168" s="4">
+        <v>707</v>
+      </c>
+      <c r="CU168" s="4">
+        <v>619</v>
+      </c>
+      <c r="CV168" s="4">
+        <v>1004</v>
+      </c>
+      <c r="CW168" s="4">
+        <v>893</v>
+      </c>
+      <c r="CX168" s="4">
+        <v>520</v>
+      </c>
+      <c r="CY168" s="4">
+        <v>635</v>
+      </c>
+      <c r="CZ168" s="4">
+        <v>667</v>
+      </c>
+      <c r="DA168" s="4">
+        <v>970</v>
+      </c>
+      <c r="DB168" s="4">
+        <v>803</v>
+      </c>
+      <c r="DC168" s="4">
+        <v>884</v>
+      </c>
+      <c r="DD168" s="4">
+        <v>710</v>
+      </c>
+      <c r="DE168" s="4">
+        <v>309</v>
+      </c>
+      <c r="DF168" s="4">
+        <v>318</v>
+      </c>
+      <c r="DG168" s="4">
+        <v>597</v>
+      </c>
+      <c r="DH168" s="4">
+        <v>466</v>
+      </c>
+      <c r="DI168" s="4">
+        <v>360</v>
+      </c>
+      <c r="DJ168" s="4">
+        <v>500</v>
+      </c>
+      <c r="DK168" s="4">
+        <v>289</v>
+      </c>
+      <c r="DL168" s="4">
+        <v>496</v>
+      </c>
+      <c r="DM168" s="4">
+        <v>686</v>
+      </c>
+      <c r="DN168" s="4">
+        <v>495</v>
+      </c>
+      <c r="DO168" s="4">
+        <v>466</v>
+      </c>
+      <c r="DP168" s="4">
+        <v>341</v>
+      </c>
+      <c r="DQ168" s="4">
+        <v>507</v>
+      </c>
+      <c r="DR168">
+        <v>105490</v>
+      </c>
+      <c r="DS168">
+        <v>209749</v>
+      </c>
+      <c r="DT168">
+        <v>6497</v>
+      </c>
+      <c r="DU168">
+        <v>91002</v>
+      </c>
+      <c r="DV168">
+        <v>59007</v>
+      </c>
+      <c r="DW168">
+        <v>18833</v>
+      </c>
+      <c r="DX168">
+        <v>6566</v>
       </c>
     </row>
   </sheetData>

--- a/CasosColombia.xlsx
+++ b/CasosColombia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Matlab\MATLAB_R2019a\fitVirusCV19_v07_v17\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68857C14-EB31-4E8B-978D-12341CE66E35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE67D023-B186-48D5-BE9B-AD0CFE059B16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3435" yWindow="375" windowWidth="21600" windowHeight="11505" xr2:uid="{6C56C21C-B00B-4C62-A627-74DAE246E91A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="129">
   <si>
     <t>Fecha</t>
   </si>
@@ -409,6 +409,9 @@
   </si>
   <si>
     <t>ColCajica</t>
+  </si>
+  <si>
+    <t>ColRisaralda</t>
   </si>
 </sst>
 </file>
@@ -1456,13 +1459,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13133E2-69F7-478D-A001-FD6CB4FB0C80}">
-  <dimension ref="A1:DX168"/>
+  <dimension ref="A1:DX169"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="DJ127" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="DX168" sqref="DX168"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1542,7 +1545,7 @@
         <v>21</v>
       </c>
       <c r="X1" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="Y1" t="s">
         <v>22</v>
@@ -7313,8 +7316,8 @@
       <c r="Q16">
         <v>0</v>
       </c>
-      <c r="R16" t="s">
-        <v>68</v>
+      <c r="R16">
+        <v>2</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -8238,8 +8241,8 @@
       <c r="BP18">
         <v>0</v>
       </c>
-      <c r="BQ18" s="10" t="s">
-        <v>68</v>
+      <c r="BQ18" s="10">
+        <v>1</v>
       </c>
       <c r="BR18">
         <v>0</v>
@@ -8504,8 +8507,8 @@
       <c r="AB19">
         <v>38</v>
       </c>
-      <c r="AC19">
-        <v>1</v>
+      <c r="AC19" t="s">
+        <v>68</v>
       </c>
       <c r="AD19">
         <v>1</v>
@@ -10228,8 +10231,8 @@
       <c r="CJ23" s="4">
         <v>0</v>
       </c>
-      <c r="CK23" s="4">
-        <v>1</v>
+      <c r="CK23" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="CL23" s="4">
         <v>3</v>
@@ -10940,8 +10943,8 @@
       <c r="BP25">
         <v>1</v>
       </c>
-      <c r="BQ25" s="4">
-        <v>4</v>
+      <c r="BQ25" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="BR25">
         <v>0</v>
@@ -11338,8 +11341,8 @@
       <c r="BT26" s="4">
         <v>5</v>
       </c>
-      <c r="BU26" s="4">
-        <v>20</v>
+      <c r="BU26" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="BV26" s="4">
         <v>9</v>
@@ -11808,8 +11811,8 @@
       <c r="CV27" s="4">
         <v>0</v>
       </c>
-      <c r="CW27" s="4">
-        <v>1</v>
+      <c r="CW27" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="CX27" s="4">
         <v>0</v>
@@ -11978,8 +11981,8 @@
       <c r="AB28">
         <v>148</v>
       </c>
-      <c r="AC28" t="s">
-        <v>68</v>
+      <c r="AC28">
+        <v>2</v>
       </c>
       <c r="AD28">
         <v>2</v>
@@ -12936,8 +12939,8 @@
       <c r="CL30" s="4">
         <v>5</v>
       </c>
-      <c r="CM30" s="4">
-        <v>1</v>
+      <c r="CM30" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="CN30" s="4">
         <v>8</v>
@@ -13322,8 +13325,8 @@
       <c r="CL31" s="4">
         <v>8</v>
       </c>
-      <c r="CM31" s="4">
-        <v>1</v>
+      <c r="CM31" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="CN31" s="4">
         <v>8</v>
@@ -13367,8 +13370,8 @@
       <c r="DA31" s="4">
         <v>6</v>
       </c>
-      <c r="DB31" s="4" t="s">
-        <v>68</v>
+      <c r="DB31" s="4">
+        <v>1</v>
       </c>
       <c r="DC31" s="4">
         <v>0</v>
@@ -15090,8 +15093,8 @@
       <c r="AJ36">
         <v>0</v>
       </c>
-      <c r="AK36">
-        <v>2</v>
+      <c r="AK36" t="s">
+        <v>68</v>
       </c>
       <c r="AL36">
         <v>55</v>
@@ -15476,8 +15479,8 @@
       <c r="AJ37">
         <v>0</v>
       </c>
-      <c r="AK37">
-        <v>2</v>
+      <c r="AK37" t="s">
+        <v>68</v>
       </c>
       <c r="AL37">
         <v>60</v>
@@ -15584,8 +15587,8 @@
       <c r="BT37" s="4">
         <v>7</v>
       </c>
-      <c r="BU37" s="4">
-        <v>33</v>
+      <c r="BU37" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="BV37" s="4">
         <v>14</v>
@@ -16996,8 +16999,8 @@
       <c r="AB41">
         <v>509</v>
       </c>
-      <c r="AC41">
-        <v>9</v>
+      <c r="AC41" t="s">
+        <v>68</v>
       </c>
       <c r="AD41">
         <v>5</v>
@@ -28947,8 +28950,8 @@
       <c r="W72">
         <v>38</v>
       </c>
-      <c r="X72" s="7">
-        <v>3</v>
+      <c r="X72" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="Y72" s="9">
         <v>0</v>
@@ -29333,8 +29336,8 @@
       <c r="W73">
         <v>39</v>
       </c>
-      <c r="X73">
-        <v>3</v>
+      <c r="X73" t="s">
+        <v>68</v>
       </c>
       <c r="Y73" s="9">
         <v>0</v>
@@ -33394,8 +33397,8 @@
       <c r="CL83" s="4">
         <v>36</v>
       </c>
-      <c r="CM83" s="4" t="s">
-        <v>68</v>
+      <c r="CM83" s="4">
+        <v>25</v>
       </c>
       <c r="CN83" s="4">
         <v>13</v>
@@ -35414,8 +35417,8 @@
       <c r="DP88" s="4">
         <v>4</v>
       </c>
-      <c r="DQ88" s="4">
-        <v>1</v>
+      <c r="DQ88" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="DR88">
         <v>8049</v>
@@ -36545,8 +36548,8 @@
       <c r="DG91" s="4">
         <v>1</v>
       </c>
-      <c r="DH91" s="4">
-        <v>2</v>
+      <c r="DH91" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="DI91" s="4">
         <v>22</v>
@@ -36931,8 +36934,8 @@
       <c r="DG92" s="4">
         <v>2</v>
       </c>
-      <c r="DH92" s="4">
-        <v>2</v>
+      <c r="DH92" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="DI92" s="4">
         <v>22</v>
@@ -41832,8 +41835,8 @@
       <c r="BT105" s="4">
         <v>92</v>
       </c>
-      <c r="BU105" s="4">
-        <v>105</v>
+      <c r="BU105" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="BV105" s="4">
         <v>72</v>
@@ -42086,8 +42089,8 @@
       <c r="AB106">
         <v>6789</v>
       </c>
-      <c r="AC106" s="10" t="s">
-        <v>68</v>
+      <c r="AC106" s="10">
+        <v>41</v>
       </c>
       <c r="AD106">
         <v>20</v>
@@ -42604,8 +42607,8 @@
       <c r="BT107" s="4">
         <v>96</v>
       </c>
-      <c r="BU107" s="4">
-        <v>108</v>
+      <c r="BU107" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="BV107" s="4">
         <v>79</v>
@@ -42978,8 +42981,8 @@
       <c r="BP108">
         <v>158</v>
       </c>
-      <c r="BQ108">
-        <v>467</v>
+      <c r="BQ108" t="s">
+        <v>68</v>
       </c>
       <c r="BR108">
         <v>73</v>
@@ -49974,8 +49977,8 @@
       <c r="CF126" s="4">
         <v>77</v>
       </c>
-      <c r="CG126" s="4">
-        <v>72</v>
+      <c r="CG126" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="CH126" s="4">
         <v>75</v>
@@ -50375,8 +50378,8 @@
       <c r="CK127" s="4">
         <v>275</v>
       </c>
-      <c r="CL127" s="4">
-        <v>187</v>
+      <c r="CL127" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="CM127" s="4">
         <v>175</v>
@@ -55780,7 +55783,7 @@
         <v>489</v>
       </c>
       <c r="CL141" s="4">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="CM141" s="4">
         <v>302</v>
@@ -56166,7 +56169,7 @@
         <v>507</v>
       </c>
       <c r="CL142" s="4">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="CM142" s="4">
         <v>323</v>
@@ -56552,7 +56555,7 @@
         <v>513</v>
       </c>
       <c r="CL143" s="4">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="CM143" s="4">
         <v>325</v>
@@ -56938,7 +56941,7 @@
         <v>520</v>
       </c>
       <c r="CL144" s="4">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="CM144" s="4">
         <v>334</v>
@@ -57324,7 +57327,7 @@
         <v>529</v>
       </c>
       <c r="CL145" s="4">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="CM145" s="4">
         <v>343</v>
@@ -57710,7 +57713,7 @@
         <v>533</v>
       </c>
       <c r="CL146" s="4">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="CM146" s="4">
         <v>354</v>
@@ -58096,7 +58099,7 @@
         <v>539</v>
       </c>
       <c r="CL147" s="4">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="CM147" s="4">
         <v>373</v>
@@ -58482,7 +58485,7 @@
         <v>568</v>
       </c>
       <c r="CL148" s="4">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="CM148" s="4">
         <v>407</v>
@@ -58868,7 +58871,7 @@
         <v>596</v>
       </c>
       <c r="CL149" s="4">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="CM149" s="4">
         <v>423</v>
@@ -59254,10 +59257,10 @@
         <v>620</v>
       </c>
       <c r="CL150" s="4">
-        <v>542</v>
-      </c>
-      <c r="CM150" s="4">
-        <v>464</v>
+        <v>540</v>
+      </c>
+      <c r="CM150" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="CN150" s="4">
         <v>380</v>
@@ -59639,11 +59642,11 @@
       <c r="CK151" s="4">
         <v>641</v>
       </c>
-      <c r="CL151" s="4">
-        <v>578</v>
-      </c>
-      <c r="CM151" s="4">
-        <v>486</v>
+      <c r="CL151" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="CM151" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="CN151" s="4">
         <v>403</v>
@@ -60026,7 +60029,7 @@
         <v>673</v>
       </c>
       <c r="CL152" s="4">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="CM152" s="4">
         <v>499</v>
@@ -60412,7 +60415,7 @@
         <v>694</v>
       </c>
       <c r="CL153" s="4">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="CM153" s="4">
         <v>507</v>
@@ -60438,8 +60441,8 @@
       <c r="CT153" s="4">
         <v>502</v>
       </c>
-      <c r="CU153" s="4">
-        <v>401</v>
+      <c r="CU153" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="CV153" s="4">
         <v>534</v>
@@ -60798,7 +60801,7 @@
         <v>722</v>
       </c>
       <c r="CL154" s="4">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="CM154" s="4">
         <v>521</v>
@@ -60824,8 +60827,8 @@
       <c r="CT154" s="4">
         <v>514</v>
       </c>
-      <c r="CU154" s="4">
-        <v>417</v>
+      <c r="CU154" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="CV154" s="4">
         <v>553</v>
@@ -61009,8 +61012,8 @@
       <c r="AE155">
         <v>61</v>
       </c>
-      <c r="AF155">
-        <v>176</v>
+      <c r="AF155" t="s">
+        <v>68</v>
       </c>
       <c r="AG155">
         <v>14</v>
@@ -61570,7 +61573,7 @@
         <v>818</v>
       </c>
       <c r="CL156" s="4">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="CM156" s="4">
         <v>580</v>
@@ -61893,7 +61896,7 @@
         <v>669</v>
       </c>
       <c r="BQ157">
-        <v>3050</v>
+        <v>3048</v>
       </c>
       <c r="BR157">
         <v>2305</v>
@@ -61956,7 +61959,7 @@
         <v>865</v>
       </c>
       <c r="CL157" s="4">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="CM157" s="4">
         <v>608</v>
@@ -62279,7 +62282,7 @@
         <v>674</v>
       </c>
       <c r="BQ158">
-        <v>3121</v>
+        <v>3119</v>
       </c>
       <c r="BR158">
         <v>2469</v>
@@ -62342,7 +62345,7 @@
         <v>877</v>
       </c>
       <c r="CL158" s="4">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="CM158" s="4">
         <v>637</v>
@@ -62665,7 +62668,7 @@
         <v>674</v>
       </c>
       <c r="BQ159">
-        <v>3158</v>
+        <v>3156</v>
       </c>
       <c r="BR159">
         <v>2643</v>
@@ -62728,7 +62731,7 @@
         <v>891</v>
       </c>
       <c r="CL159" s="4">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="CM159" s="4">
         <v>670</v>
@@ -63051,7 +63054,7 @@
         <v>679</v>
       </c>
       <c r="BQ160">
-        <v>3406</v>
+        <v>3404</v>
       </c>
       <c r="BR160">
         <v>2826</v>
@@ -63886,7 +63889,7 @@
         <v>985</v>
       </c>
       <c r="CL162" s="4">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="CM162" s="4">
         <v>762</v>
@@ -64209,7 +64212,7 @@
         <v>698</v>
       </c>
       <c r="BQ163">
-        <v>3767</v>
+        <v>3765</v>
       </c>
       <c r="BR163">
         <v>3240</v>
@@ -64595,7 +64598,7 @@
         <v>700</v>
       </c>
       <c r="BQ164">
-        <v>3884</v>
+        <v>3882</v>
       </c>
       <c r="BR164">
         <v>3412</v>
@@ -64981,7 +64984,7 @@
         <v>702</v>
       </c>
       <c r="BQ165">
-        <v>4110</v>
+        <v>4108</v>
       </c>
       <c r="BR165">
         <v>3580</v>
@@ -65044,7 +65047,7 @@
         <v>1136</v>
       </c>
       <c r="CL165" s="4">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="CM165" s="4">
         <v>895</v>
@@ -65367,7 +65370,7 @@
         <v>704</v>
       </c>
       <c r="BQ166">
-        <v>4248</v>
+        <v>4246</v>
       </c>
       <c r="BR166">
         <v>3660</v>
@@ -65430,7 +65433,7 @@
         <v>1168</v>
       </c>
       <c r="CL166" s="4">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="CM166" s="4">
         <v>926</v>
@@ -66317,6 +66320,392 @@
       </c>
       <c r="DX168">
         <v>6566</v>
+      </c>
+    </row>
+    <row r="169" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>44063</v>
+      </c>
+      <c r="B169">
+        <v>513719</v>
+      </c>
+      <c r="C169">
+        <v>2677</v>
+      </c>
+      <c r="D169">
+        <v>66613</v>
+      </c>
+      <c r="E169">
+        <v>62271</v>
+      </c>
+      <c r="F169">
+        <v>179540</v>
+      </c>
+      <c r="G169">
+        <v>22615</v>
+      </c>
+      <c r="H169">
+        <v>2416</v>
+      </c>
+      <c r="I169">
+        <v>2024</v>
+      </c>
+      <c r="J169">
+        <v>4428</v>
+      </c>
+      <c r="K169">
+        <v>3703</v>
+      </c>
+      <c r="L169">
+        <v>6968</v>
+      </c>
+      <c r="M169">
+        <v>3571</v>
+      </c>
+      <c r="N169">
+        <v>16351</v>
+      </c>
+      <c r="O169">
+        <v>17924</v>
+      </c>
+      <c r="P169">
+        <v>4006</v>
+      </c>
+      <c r="Q169">
+        <v>2901</v>
+      </c>
+      <c r="R169">
+        <v>10815</v>
+      </c>
+      <c r="S169">
+        <v>5287</v>
+      </c>
+      <c r="T169">
+        <v>12091</v>
+      </c>
+      <c r="U169">
+        <v>8103</v>
+      </c>
+      <c r="V169">
+        <v>2282</v>
+      </c>
+      <c r="W169">
+        <v>716</v>
+      </c>
+      <c r="X169">
+        <v>3865</v>
+      </c>
+      <c r="Y169">
+        <v>11806</v>
+      </c>
+      <c r="Z169">
+        <v>9827</v>
+      </c>
+      <c r="AA169">
+        <v>5142</v>
+      </c>
+      <c r="AB169">
+        <v>41259</v>
+      </c>
+      <c r="AC169">
+        <v>780</v>
+      </c>
+      <c r="AD169">
+        <v>115</v>
+      </c>
+      <c r="AE169">
+        <v>165</v>
+      </c>
+      <c r="AF169">
+        <v>436</v>
+      </c>
+      <c r="AG169">
+        <v>28</v>
+      </c>
+      <c r="AH169">
+        <v>15</v>
+      </c>
+      <c r="AI169">
+        <v>205</v>
+      </c>
+      <c r="AJ169">
+        <v>1920</v>
+      </c>
+      <c r="AK169">
+        <v>2022</v>
+      </c>
+      <c r="AL169">
+        <v>35127</v>
+      </c>
+      <c r="AM169">
+        <v>5527</v>
+      </c>
+      <c r="AN169">
+        <v>2351</v>
+      </c>
+      <c r="AO169">
+        <v>32537</v>
+      </c>
+      <c r="AP169">
+        <v>775</v>
+      </c>
+      <c r="AQ169">
+        <v>18631</v>
+      </c>
+      <c r="AR169">
+        <v>1390</v>
+      </c>
+      <c r="AS169">
+        <v>5672</v>
+      </c>
+      <c r="AT169">
+        <v>1352</v>
+      </c>
+      <c r="AU169">
+        <v>1527</v>
+      </c>
+      <c r="AV169">
+        <v>2923</v>
+      </c>
+      <c r="AW169">
+        <v>1318</v>
+      </c>
+      <c r="AX169">
+        <v>925</v>
+      </c>
+      <c r="AY169">
+        <v>2445</v>
+      </c>
+      <c r="AZ169">
+        <v>2559</v>
+      </c>
+      <c r="BA169">
+        <v>38124</v>
+      </c>
+      <c r="BB169">
+        <v>10546</v>
+      </c>
+      <c r="BC169">
+        <v>1621</v>
+      </c>
+      <c r="BD169">
+        <v>6342</v>
+      </c>
+      <c r="BE169">
+        <v>2480</v>
+      </c>
+      <c r="BF169">
+        <v>273</v>
+      </c>
+      <c r="BG169">
+        <v>1360</v>
+      </c>
+      <c r="BH169">
+        <v>2491</v>
+      </c>
+      <c r="BI169">
+        <v>724</v>
+      </c>
+      <c r="BJ169">
+        <v>1884</v>
+      </c>
+      <c r="BK169">
+        <v>7346</v>
+      </c>
+      <c r="BL169">
+        <v>7075</v>
+      </c>
+      <c r="BM169">
+        <v>6846</v>
+      </c>
+      <c r="BN169">
+        <v>13438</v>
+      </c>
+      <c r="BO169">
+        <v>1838</v>
+      </c>
+      <c r="BP169">
+        <v>732</v>
+      </c>
+      <c r="BQ169">
+        <v>5023</v>
+      </c>
+      <c r="BR169">
+        <v>4407</v>
+      </c>
+      <c r="BS169" s="4">
+        <v>4849</v>
+      </c>
+      <c r="BT169" s="4">
+        <v>1074</v>
+      </c>
+      <c r="BU169" s="4">
+        <v>1246</v>
+      </c>
+      <c r="BV169" s="4">
+        <v>1900</v>
+      </c>
+      <c r="BW169" s="4">
+        <v>2216</v>
+      </c>
+      <c r="BX169" s="4">
+        <v>535</v>
+      </c>
+      <c r="BY169" s="4">
+        <v>3621</v>
+      </c>
+      <c r="BZ169" s="4">
+        <v>2056</v>
+      </c>
+      <c r="CA169" s="4">
+        <v>864</v>
+      </c>
+      <c r="CB169" s="4">
+        <v>583</v>
+      </c>
+      <c r="CC169" s="4">
+        <v>1608</v>
+      </c>
+      <c r="CD169" s="4">
+        <v>1641</v>
+      </c>
+      <c r="CE169" s="4">
+        <v>788</v>
+      </c>
+      <c r="CF169" s="4">
+        <v>696</v>
+      </c>
+      <c r="CG169" s="4">
+        <v>3724</v>
+      </c>
+      <c r="CH169" s="4">
+        <v>928</v>
+      </c>
+      <c r="CI169" s="4">
+        <v>995</v>
+      </c>
+      <c r="CJ169" s="4">
+        <v>1005</v>
+      </c>
+      <c r="CK169" s="4">
+        <v>1320</v>
+      </c>
+      <c r="CL169" s="4">
+        <v>1183</v>
+      </c>
+      <c r="CM169" s="4">
+        <v>1114</v>
+      </c>
+      <c r="CN169" s="4">
+        <v>956</v>
+      </c>
+      <c r="CO169" s="4">
+        <v>927</v>
+      </c>
+      <c r="CP169" s="4">
+        <v>1011</v>
+      </c>
+      <c r="CQ169" s="4">
+        <v>474</v>
+      </c>
+      <c r="CR169" s="4">
+        <v>2759</v>
+      </c>
+      <c r="CS169" s="4">
+        <v>781</v>
+      </c>
+      <c r="CT169" s="4">
+        <v>718</v>
+      </c>
+      <c r="CU169" s="4">
+        <v>629</v>
+      </c>
+      <c r="CV169" s="4">
+        <v>1059</v>
+      </c>
+      <c r="CW169" s="4">
+        <v>954</v>
+      </c>
+      <c r="CX169" s="4">
+        <v>525</v>
+      </c>
+      <c r="CY169" s="4">
+        <v>646</v>
+      </c>
+      <c r="CZ169" s="4">
+        <v>710</v>
+      </c>
+      <c r="DA169" s="4">
+        <v>992</v>
+      </c>
+      <c r="DB169" s="4">
+        <v>814</v>
+      </c>
+      <c r="DC169" s="4">
+        <v>900</v>
+      </c>
+      <c r="DD169" s="4">
+        <v>720</v>
+      </c>
+      <c r="DE169" s="4">
+        <v>309</v>
+      </c>
+      <c r="DF169" s="4">
+        <v>319</v>
+      </c>
+      <c r="DG169" s="4">
+        <v>611</v>
+      </c>
+      <c r="DH169" s="4">
+        <v>486</v>
+      </c>
+      <c r="DI169" s="4">
+        <v>365</v>
+      </c>
+      <c r="DJ169" s="4">
+        <v>513</v>
+      </c>
+      <c r="DK169" s="4">
+        <v>299</v>
+      </c>
+      <c r="DL169" s="4">
+        <v>510</v>
+      </c>
+      <c r="DM169" s="4">
+        <v>689</v>
+      </c>
+      <c r="DN169" s="4">
+        <v>497</v>
+      </c>
+      <c r="DO169" s="4">
+        <v>466</v>
+      </c>
+      <c r="DP169" s="4">
+        <v>343</v>
+      </c>
+      <c r="DQ169" s="4">
+        <v>508</v>
+      </c>
+      <c r="DR169">
+        <v>106675</v>
+      </c>
+      <c r="DS169">
+        <v>214931</v>
+      </c>
+      <c r="DT169">
+        <v>6878</v>
+      </c>
+      <c r="DU169">
+        <v>92781</v>
+      </c>
+      <c r="DV169">
+        <v>60624</v>
+      </c>
+      <c r="DW169">
+        <v>19958</v>
+      </c>
+      <c r="DX169">
+        <v>6738</v>
       </c>
     </row>
   </sheetData>

--- a/CasosColombia.xlsx
+++ b/CasosColombia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Matlab\MATLAB_R2019a\fitVirusCV19_v07_v17\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE67D023-B186-48D5-BE9B-AD0CFE059B16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD43465A-1A98-44EB-B146-B7A61B125699}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3435" yWindow="375" windowWidth="21600" windowHeight="11505" xr2:uid="{6C56C21C-B00B-4C62-A627-74DAE246E91A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6C56C21C-B00B-4C62-A627-74DAE246E91A}"/>
   </bookViews>
   <sheets>
     <sheet name="CasosColombia" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="129">
   <si>
     <t>Fecha</t>
   </si>
@@ -1459,7 +1459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13133E2-69F7-478D-A001-FD6CB4FB0C80}">
-  <dimension ref="A1:DX169"/>
+  <dimension ref="A1:DX170"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -4587,7 +4587,7 @@
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="10" t="s">
         <v>68</v>
       </c>
       <c r="J9">
@@ -4776,8 +4776,8 @@
       <c r="BS9" s="4">
         <v>0</v>
       </c>
-      <c r="BT9" s="4" t="s">
-        <v>68</v>
+      <c r="BT9" s="4">
+        <v>1</v>
       </c>
       <c r="BU9" s="10">
         <v>1</v>
@@ -4973,7 +4973,7 @@
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="10" t="s">
         <v>68</v>
       </c>
       <c r="J10">
@@ -5934,11 +5934,11 @@
       <c r="BS12" s="4">
         <v>1</v>
       </c>
-      <c r="BT12" s="4">
-        <v>1</v>
-      </c>
-      <c r="BU12" s="4">
-        <v>1</v>
+      <c r="BT12" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="BU12" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="BV12" s="4">
         <v>0</v>
@@ -6320,8 +6320,8 @@
       <c r="BS13" s="4">
         <v>1</v>
       </c>
-      <c r="BT13" s="4">
-        <v>1</v>
+      <c r="BT13" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="BU13" s="4">
         <v>4</v>
@@ -6706,8 +6706,8 @@
       <c r="BS14" s="4">
         <v>1</v>
       </c>
-      <c r="BT14" s="4">
-        <v>1</v>
+      <c r="BT14" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="BU14" s="4">
         <v>4</v>
@@ -6904,7 +6904,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -7092,8 +7092,8 @@
       <c r="BS15" s="4">
         <v>2</v>
       </c>
-      <c r="BT15" s="4">
-        <v>1</v>
+      <c r="BT15" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="BU15" s="4">
         <v>5</v>
@@ -7478,8 +7478,8 @@
       <c r="BS16" s="4">
         <v>2</v>
       </c>
-      <c r="BT16" s="4">
-        <v>1</v>
+      <c r="BT16" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="BU16" s="4">
         <v>5</v>
@@ -8070,8 +8070,8 @@
       <c r="K18" t="s">
         <v>68</v>
       </c>
-      <c r="L18" t="s">
-        <v>68</v>
+      <c r="L18">
+        <v>1</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -8241,8 +8241,8 @@
       <c r="BP18">
         <v>0</v>
       </c>
-      <c r="BQ18" s="10">
-        <v>1</v>
+      <c r="BQ18" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="BR18">
         <v>0</v>
@@ -8456,8 +8456,8 @@
       <c r="K19" t="s">
         <v>68</v>
       </c>
-      <c r="L19" t="s">
-        <v>68</v>
+      <c r="L19">
+        <v>1</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -11341,8 +11341,8 @@
       <c r="BT26" s="4">
         <v>5</v>
       </c>
-      <c r="BU26" s="4" t="s">
-        <v>68</v>
+      <c r="BU26" s="4">
+        <v>20</v>
       </c>
       <c r="BV26" s="4">
         <v>9</v>
@@ -11781,8 +11781,8 @@
       <c r="CL27" s="4">
         <v>5</v>
       </c>
-      <c r="CM27" s="4">
-        <v>1</v>
+      <c r="CM27" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="CN27" s="4">
         <v>5</v>
@@ -11811,8 +11811,8 @@
       <c r="CV27" s="4">
         <v>0</v>
       </c>
-      <c r="CW27" s="4" t="s">
-        <v>68</v>
+      <c r="CW27" s="4">
+        <v>1</v>
       </c>
       <c r="CX27" s="4">
         <v>0</v>
@@ -12167,8 +12167,8 @@
       <c r="CL28" s="4">
         <v>5</v>
       </c>
-      <c r="CM28" s="4">
-        <v>1</v>
+      <c r="CM28" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="CN28" s="4">
         <v>5</v>
@@ -12553,8 +12553,8 @@
       <c r="CL29" s="4">
         <v>5</v>
       </c>
-      <c r="CM29" s="4">
-        <v>1</v>
+      <c r="CM29" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="CN29" s="4">
         <v>8</v>
@@ -12939,8 +12939,8 @@
       <c r="CL30" s="4">
         <v>5</v>
       </c>
-      <c r="CM30" s="4" t="s">
-        <v>68</v>
+      <c r="CM30" s="4">
+        <v>1</v>
       </c>
       <c r="CN30" s="4">
         <v>8</v>
@@ -13325,8 +13325,8 @@
       <c r="CL31" s="4">
         <v>8</v>
       </c>
-      <c r="CM31" s="4" t="s">
-        <v>68</v>
+      <c r="CM31" s="4">
+        <v>1</v>
       </c>
       <c r="CN31" s="4">
         <v>8</v>
@@ -15587,8 +15587,8 @@
       <c r="BT37" s="4">
         <v>7</v>
       </c>
-      <c r="BU37" s="4" t="s">
-        <v>68</v>
+      <c r="BU37" s="4">
+        <v>33</v>
       </c>
       <c r="BV37" s="4">
         <v>14</v>
@@ -18223,7 +18223,7 @@
       <c r="AX44">
         <v>0</v>
       </c>
-      <c r="AY44" t="s">
+      <c r="AY44" s="10" t="s">
         <v>68</v>
       </c>
       <c r="AZ44">
@@ -18675,8 +18675,8 @@
       <c r="BT45" s="4">
         <v>12</v>
       </c>
-      <c r="BU45" s="4" t="s">
-        <v>68</v>
+      <c r="BU45" s="4">
+        <v>43</v>
       </c>
       <c r="BV45" s="4">
         <v>14</v>
@@ -24214,8 +24214,8 @@
       <c r="DM59" s="4">
         <v>2</v>
       </c>
-      <c r="DN59" s="4">
-        <v>1</v>
+      <c r="DN59" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="DO59" s="4">
         <v>1</v>
@@ -24273,8 +24273,8 @@
       <c r="H60">
         <v>0</v>
       </c>
-      <c r="I60" t="s">
-        <v>68</v>
+      <c r="I60">
+        <v>79</v>
       </c>
       <c r="J60">
         <v>9</v>
@@ -24659,8 +24659,8 @@
       <c r="H61">
         <v>0</v>
       </c>
-      <c r="I61" t="s">
-        <v>68</v>
+      <c r="I61">
+        <v>79</v>
       </c>
       <c r="J61">
         <v>9</v>
@@ -24786,7 +24786,7 @@
         <v>0</v>
       </c>
       <c r="AY61">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AZ61">
         <v>34</v>
@@ -25172,7 +25172,7 @@
         <v>0</v>
       </c>
       <c r="AY62">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AZ62">
         <v>48</v>
@@ -25558,7 +25558,7 @@
         <v>0</v>
       </c>
       <c r="AY63">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AZ63">
         <v>49</v>
@@ -25944,7 +25944,7 @@
         <v>0</v>
       </c>
       <c r="AY64">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AZ64">
         <v>57</v>
@@ -26330,7 +26330,7 @@
         <v>0</v>
       </c>
       <c r="AY65">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AZ65">
         <v>57</v>
@@ -26716,7 +26716,7 @@
         <v>0</v>
       </c>
       <c r="AY66">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AZ66">
         <v>62</v>
@@ -27102,7 +27102,7 @@
         <v>0</v>
       </c>
       <c r="AY67">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AZ67">
         <v>64</v>
@@ -27488,7 +27488,7 @@
         <v>0</v>
       </c>
       <c r="AY68">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AZ68">
         <v>64</v>
@@ -27874,7 +27874,7 @@
         <v>3</v>
       </c>
       <c r="AY69">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="AZ69">
         <v>75</v>
@@ -28260,7 +28260,7 @@
         <v>3</v>
       </c>
       <c r="AY70">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="AZ70">
         <v>79</v>
@@ -28646,7 +28646,7 @@
         <v>3</v>
       </c>
       <c r="AY71">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="AZ71">
         <v>82</v>
@@ -29032,7 +29032,7 @@
         <v>3</v>
       </c>
       <c r="AY72">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="AZ72">
         <v>86</v>
@@ -29418,7 +29418,7 @@
         <v>3</v>
       </c>
       <c r="AY73">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="AZ73">
         <v>97</v>
@@ -29804,7 +29804,7 @@
         <v>8</v>
       </c>
       <c r="AY74">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="AZ74">
         <v>120</v>
@@ -30190,7 +30190,7 @@
         <v>11</v>
       </c>
       <c r="AY75">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="AZ75">
         <v>122</v>
@@ -30576,7 +30576,7 @@
         <v>11</v>
       </c>
       <c r="AY76">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="AZ76">
         <v>134</v>
@@ -30962,7 +30962,7 @@
         <v>11</v>
       </c>
       <c r="AY77">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="AZ77">
         <v>140</v>
@@ -31221,8 +31221,8 @@
       <c r="H78">
         <v>0</v>
       </c>
-      <c r="I78" t="s">
-        <v>68</v>
+      <c r="I78">
+        <v>126</v>
       </c>
       <c r="J78">
         <v>21</v>
@@ -31348,7 +31348,7 @@
         <v>11</v>
       </c>
       <c r="AY78">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="AZ78">
         <v>152</v>
@@ -31607,8 +31607,8 @@
       <c r="H79">
         <v>0</v>
       </c>
-      <c r="I79" s="7" t="s">
-        <v>68</v>
+      <c r="I79" s="7">
+        <v>126</v>
       </c>
       <c r="J79">
         <v>21</v>
@@ -31734,7 +31734,7 @@
         <v>28</v>
       </c>
       <c r="AY79">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="AZ79">
         <v>174</v>
@@ -31993,8 +31993,8 @@
       <c r="H80">
         <v>0</v>
       </c>
-      <c r="I80" s="7" t="s">
-        <v>68</v>
+      <c r="I80" s="7">
+        <v>127</v>
       </c>
       <c r="J80">
         <v>21</v>
@@ -32120,7 +32120,7 @@
         <v>46</v>
       </c>
       <c r="AY80">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="AZ80">
         <v>187</v>
@@ -32379,8 +32379,8 @@
       <c r="H81">
         <v>0</v>
       </c>
-      <c r="I81" t="s">
-        <v>68</v>
+      <c r="I81">
+        <v>128</v>
       </c>
       <c r="J81">
         <v>21</v>
@@ -32506,7 +32506,7 @@
         <v>60</v>
       </c>
       <c r="AY81">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="AZ81">
         <v>200</v>
@@ -32892,7 +32892,7 @@
         <v>143</v>
       </c>
       <c r="AY82">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="AZ82">
         <v>209</v>
@@ -33278,7 +33278,7 @@
         <v>182</v>
       </c>
       <c r="AY83">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="AZ83">
         <v>216</v>
@@ -33664,7 +33664,7 @@
         <v>186</v>
       </c>
       <c r="AY84">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="AZ84">
         <v>220</v>
@@ -34050,7 +34050,7 @@
         <v>197</v>
       </c>
       <c r="AY85">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="AZ85">
         <v>231</v>
@@ -34436,7 +34436,7 @@
         <v>197</v>
       </c>
       <c r="AY86">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="AZ86">
         <v>238</v>
@@ -34704,8 +34704,8 @@
       <c r="K87">
         <v>97</v>
       </c>
-      <c r="L87">
-        <v>207</v>
+      <c r="L87" t="s">
+        <v>68</v>
       </c>
       <c r="M87">
         <v>219</v>
@@ -34822,7 +34822,7 @@
         <v>201</v>
       </c>
       <c r="AY87">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="AZ87">
         <v>253</v>
@@ -35208,7 +35208,7 @@
         <v>202</v>
       </c>
       <c r="AY88">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="AZ88">
         <v>262</v>
@@ -35594,7 +35594,7 @@
         <v>239</v>
       </c>
       <c r="AY89">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="AZ89">
         <v>276</v>
@@ -35850,8 +35850,8 @@
       <c r="G90">
         <v>3364</v>
       </c>
-      <c r="H90" s="10">
-        <v>1</v>
+      <c r="H90" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="I90">
         <v>147</v>
@@ -35980,7 +35980,7 @@
         <v>239</v>
       </c>
       <c r="AY90">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="AZ90">
         <v>328</v>
@@ -36042,8 +36042,8 @@
       <c r="BS90" s="4">
         <v>26</v>
       </c>
-      <c r="BT90" s="10" t="s">
-        <v>68</v>
+      <c r="BT90" s="10">
+        <v>55</v>
       </c>
       <c r="BU90" s="4">
         <v>73</v>
@@ -36239,8 +36239,8 @@
       <c r="H91" s="10">
         <v>3</v>
       </c>
-      <c r="I91" t="s">
-        <v>68</v>
+      <c r="I91">
+        <v>157</v>
       </c>
       <c r="J91">
         <v>24</v>
@@ -36366,7 +36366,7 @@
         <v>239</v>
       </c>
       <c r="AY91">
-        <v>1829</v>
+        <v>1827</v>
       </c>
       <c r="AZ91">
         <v>332</v>
@@ -36428,8 +36428,8 @@
       <c r="BS91" s="4">
         <v>31</v>
       </c>
-      <c r="BT91" s="10" t="s">
-        <v>68</v>
+      <c r="BT91" s="10">
+        <v>62</v>
       </c>
       <c r="BU91" s="4">
         <v>73</v>
@@ -36752,7 +36752,7 @@
         <v>239</v>
       </c>
       <c r="AY92">
-        <v>1829</v>
+        <v>1827</v>
       </c>
       <c r="AZ92">
         <v>379</v>
@@ -36850,8 +36850,8 @@
       <c r="CE92" s="4">
         <v>10</v>
       </c>
-      <c r="CF92" s="4">
-        <v>3</v>
+      <c r="CF92" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="CG92" s="4">
         <v>23</v>
@@ -37138,7 +37138,7 @@
         <v>239</v>
       </c>
       <c r="AY93">
-        <v>1883</v>
+        <v>1881</v>
       </c>
       <c r="AZ93">
         <v>409</v>
@@ -37524,7 +37524,7 @@
         <v>284</v>
       </c>
       <c r="AY94">
-        <v>1910</v>
+        <v>1908</v>
       </c>
       <c r="AZ94">
         <v>437</v>
@@ -37910,7 +37910,7 @@
         <v>284</v>
       </c>
       <c r="AY95">
-        <v>1922</v>
+        <v>1920</v>
       </c>
       <c r="AZ95">
         <v>454</v>
@@ -38296,7 +38296,7 @@
         <v>284</v>
       </c>
       <c r="AY96">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="AZ96">
         <v>458</v>
@@ -38682,7 +38682,7 @@
         <v>297</v>
       </c>
       <c r="AY97">
-        <v>1963</v>
+        <v>1961</v>
       </c>
       <c r="AZ97">
         <v>473</v>
@@ -38938,8 +38938,8 @@
       <c r="G98">
         <v>4483</v>
       </c>
-      <c r="H98" s="10" t="s">
-        <v>68</v>
+      <c r="H98" s="10">
+        <v>20</v>
       </c>
       <c r="I98">
         <v>185</v>
@@ -39068,7 +39068,7 @@
         <v>304</v>
       </c>
       <c r="AY98">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="AZ98">
         <v>505</v>
@@ -39454,7 +39454,7 @@
         <v>304</v>
       </c>
       <c r="AY99">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="AZ99">
         <v>539</v>
@@ -39840,7 +39840,7 @@
         <v>305</v>
       </c>
       <c r="AY100">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="AZ100">
         <v>558</v>
@@ -40226,7 +40226,7 @@
         <v>327</v>
       </c>
       <c r="AY101">
-        <v>2031</v>
+        <v>2027</v>
       </c>
       <c r="AZ101">
         <v>570</v>
@@ -40612,7 +40612,7 @@
         <v>327</v>
       </c>
       <c r="AY102">
-        <v>2045</v>
+        <v>2041</v>
       </c>
       <c r="AZ102">
         <v>650</v>
@@ -40998,7 +40998,7 @@
         <v>337</v>
       </c>
       <c r="AY103">
-        <v>2050</v>
+        <v>2046</v>
       </c>
       <c r="AZ103">
         <v>686</v>
@@ -41254,8 +41254,8 @@
       <c r="G104">
         <v>5406</v>
       </c>
-      <c r="H104" s="10" t="s">
-        <v>68</v>
+      <c r="H104" s="10">
+        <v>44</v>
       </c>
       <c r="I104">
         <v>205</v>
@@ -41384,7 +41384,7 @@
         <v>356</v>
       </c>
       <c r="AY104">
-        <v>2072</v>
+        <v>2066</v>
       </c>
       <c r="AZ104">
         <v>727</v>
@@ -41770,7 +41770,7 @@
         <v>368</v>
       </c>
       <c r="AY105">
-        <v>2080</v>
+        <v>2074</v>
       </c>
       <c r="AZ105">
         <v>775</v>
@@ -41835,8 +41835,8 @@
       <c r="BT105" s="4">
         <v>92</v>
       </c>
-      <c r="BU105" s="4" t="s">
-        <v>68</v>
+      <c r="BU105" s="4">
+        <v>105</v>
       </c>
       <c r="BV105" s="4">
         <v>72</v>
@@ -42156,7 +42156,7 @@
         <v>394</v>
       </c>
       <c r="AY106">
-        <v>2085</v>
+        <v>2079</v>
       </c>
       <c r="AZ106">
         <v>830</v>
@@ -42221,8 +42221,8 @@
       <c r="BT106" s="4">
         <v>93</v>
       </c>
-      <c r="BU106" s="4" t="s">
-        <v>68</v>
+      <c r="BU106" s="4">
+        <v>107</v>
       </c>
       <c r="BV106" s="4">
         <v>74</v>
@@ -42542,7 +42542,7 @@
         <v>414</v>
       </c>
       <c r="AY107">
-        <v>2093</v>
+        <v>2087</v>
       </c>
       <c r="AZ107">
         <v>853</v>
@@ -42607,8 +42607,8 @@
       <c r="BT107" s="4">
         <v>96</v>
       </c>
-      <c r="BU107" s="4" t="s">
-        <v>68</v>
+      <c r="BU107" s="4">
+        <v>108</v>
       </c>
       <c r="BV107" s="4">
         <v>79</v>
@@ -42928,7 +42928,7 @@
         <v>427</v>
       </c>
       <c r="AY108">
-        <v>2093</v>
+        <v>2087</v>
       </c>
       <c r="AZ108">
         <v>876</v>
@@ -42981,8 +42981,8 @@
       <c r="BP108">
         <v>158</v>
       </c>
-      <c r="BQ108" t="s">
-        <v>68</v>
+      <c r="BQ108">
+        <v>467</v>
       </c>
       <c r="BR108">
         <v>73</v>
@@ -43314,7 +43314,7 @@
         <v>443</v>
       </c>
       <c r="AY109">
-        <v>2105</v>
+        <v>2099</v>
       </c>
       <c r="AZ109">
         <v>905</v>
@@ -43573,8 +43573,8 @@
       <c r="H110">
         <v>95</v>
       </c>
-      <c r="I110" t="s">
-        <v>68</v>
+      <c r="I110">
+        <v>231</v>
       </c>
       <c r="J110">
         <v>26</v>
@@ -43700,7 +43700,7 @@
         <v>458</v>
       </c>
       <c r="AY110">
-        <v>2105</v>
+        <v>2099</v>
       </c>
       <c r="AZ110">
         <v>935</v>
@@ -43959,8 +43959,8 @@
       <c r="H111">
         <v>100</v>
       </c>
-      <c r="I111" s="7" t="s">
-        <v>68</v>
+      <c r="I111" s="7">
+        <v>237</v>
       </c>
       <c r="J111">
         <v>26</v>
@@ -44086,7 +44086,7 @@
         <v>462</v>
       </c>
       <c r="AY111">
-        <v>2112</v>
+        <v>2106</v>
       </c>
       <c r="AZ111">
         <v>961</v>
@@ -44472,7 +44472,7 @@
         <v>482</v>
       </c>
       <c r="AY112">
-        <v>2114</v>
+        <v>2107</v>
       </c>
       <c r="AZ112">
         <v>1000</v>
@@ -44858,7 +44858,7 @@
         <v>510</v>
       </c>
       <c r="AY113">
-        <v>2122</v>
+        <v>2115</v>
       </c>
       <c r="AZ113">
         <v>1028</v>
@@ -45244,7 +45244,7 @@
         <v>522</v>
       </c>
       <c r="AY114">
-        <v>2133</v>
+        <v>2126</v>
       </c>
       <c r="AZ114">
         <v>1115</v>
@@ -45630,7 +45630,7 @@
         <v>526</v>
       </c>
       <c r="AY115">
-        <v>2142</v>
+        <v>2135</v>
       </c>
       <c r="AZ115">
         <v>1133</v>
@@ -45695,8 +45695,8 @@
       <c r="BT115" s="4">
         <v>118</v>
       </c>
-      <c r="BU115" s="4" t="s">
-        <v>68</v>
+      <c r="BU115" s="4">
+        <v>153</v>
       </c>
       <c r="BV115" s="4">
         <v>125</v>
@@ -46016,7 +46016,7 @@
         <v>526</v>
       </c>
       <c r="AY116">
-        <v>2146</v>
+        <v>2139</v>
       </c>
       <c r="AZ116">
         <v>1156</v>
@@ -46078,8 +46078,8 @@
       <c r="BS116" s="4">
         <v>167</v>
       </c>
-      <c r="BT116" s="10" t="s">
-        <v>68</v>
+      <c r="BT116" s="10">
+        <v>122</v>
       </c>
       <c r="BU116" s="4">
         <v>156</v>
@@ -46402,7 +46402,7 @@
         <v>526</v>
       </c>
       <c r="AY117">
-        <v>2163</v>
+        <v>2156</v>
       </c>
       <c r="AZ117">
         <v>1206</v>
@@ -46464,8 +46464,8 @@
       <c r="BS117" s="4">
         <v>170</v>
       </c>
-      <c r="BT117" s="10" t="s">
-        <v>68</v>
+      <c r="BT117" s="10">
+        <v>126</v>
       </c>
       <c r="BU117" s="4">
         <v>158</v>
@@ -46788,7 +46788,7 @@
         <v>560</v>
       </c>
       <c r="AY118">
-        <v>2185</v>
+        <v>2178</v>
       </c>
       <c r="AZ118">
         <v>1223</v>
@@ -46842,7 +46842,7 @@
         <v>244</v>
       </c>
       <c r="BQ118">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="BR118">
         <v>220</v>
@@ -46850,8 +46850,8 @@
       <c r="BS118" s="4">
         <v>175</v>
       </c>
-      <c r="BT118" s="10" t="s">
-        <v>68</v>
+      <c r="BT118" s="10">
+        <v>126</v>
       </c>
       <c r="BU118" s="4">
         <v>165</v>
@@ -47174,7 +47174,7 @@
         <v>572</v>
       </c>
       <c r="AY119">
-        <v>2204</v>
+        <v>2197</v>
       </c>
       <c r="AZ119">
         <v>1335</v>
@@ -47228,7 +47228,7 @@
         <v>251</v>
       </c>
       <c r="BQ119">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="BR119">
         <v>241</v>
@@ -47236,8 +47236,8 @@
       <c r="BS119" s="4">
         <v>193</v>
       </c>
-      <c r="BT119" s="10" t="s">
-        <v>68</v>
+      <c r="BT119" s="10">
+        <v>130</v>
       </c>
       <c r="BU119" s="4">
         <v>172</v>
@@ -47560,7 +47560,7 @@
         <v>607</v>
       </c>
       <c r="AY120">
-        <v>2210</v>
+        <v>2203</v>
       </c>
       <c r="AZ120">
         <v>1356</v>
@@ -47614,7 +47614,7 @@
         <v>259</v>
       </c>
       <c r="BQ120">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="BR120">
         <v>258</v>
@@ -47676,8 +47676,8 @@
       <c r="CK120" s="4">
         <v>204</v>
       </c>
-      <c r="CL120" s="4">
-        <v>139</v>
+      <c r="CL120" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="CM120" s="4">
         <v>151</v>
@@ -47946,7 +47946,7 @@
         <v>610</v>
       </c>
       <c r="AY121">
-        <v>2210</v>
+        <v>2203</v>
       </c>
       <c r="AZ121">
         <v>1380</v>
@@ -48000,7 +48000,7 @@
         <v>267</v>
       </c>
       <c r="BQ121">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="BR121">
         <v>270</v>
@@ -48332,7 +48332,7 @@
         <v>652</v>
       </c>
       <c r="AY122">
-        <v>2217</v>
+        <v>2210</v>
       </c>
       <c r="AZ122">
         <v>1395</v>
@@ -48386,7 +48386,7 @@
         <v>284</v>
       </c>
       <c r="BQ122" s="11">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="BR122">
         <v>284</v>
@@ -48591,8 +48591,8 @@
       <c r="H123">
         <v>214</v>
       </c>
-      <c r="I123" t="s">
-        <v>68</v>
+      <c r="I123">
+        <v>271</v>
       </c>
       <c r="J123">
         <v>55</v>
@@ -48718,7 +48718,7 @@
         <v>669</v>
       </c>
       <c r="AY123">
-        <v>2246</v>
+        <v>2239</v>
       </c>
       <c r="AZ123">
         <v>1440</v>
@@ -48772,7 +48772,7 @@
         <v>295</v>
       </c>
       <c r="BQ123" s="11">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="BR123">
         <v>298</v>
@@ -49104,7 +49104,7 @@
         <v>671</v>
       </c>
       <c r="AY124">
-        <v>2266</v>
+        <v>2258</v>
       </c>
       <c r="AZ124">
         <v>1452</v>
@@ -49158,7 +49158,7 @@
         <v>302</v>
       </c>
       <c r="BQ124">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="BR124">
         <v>304</v>
@@ -49490,7 +49490,7 @@
         <v>683</v>
       </c>
       <c r="AY125">
-        <v>2272</v>
+        <v>2264</v>
       </c>
       <c r="AZ125">
         <v>1464</v>
@@ -49544,7 +49544,7 @@
         <v>307</v>
       </c>
       <c r="BQ125">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="BR125">
         <v>325</v>
@@ -49876,7 +49876,7 @@
         <v>727</v>
       </c>
       <c r="AY126">
-        <v>2275</v>
+        <v>2267</v>
       </c>
       <c r="AZ126">
         <v>1524</v>
@@ -49930,7 +49930,7 @@
         <v>320</v>
       </c>
       <c r="BQ126">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="BR126">
         <v>342</v>
@@ -50262,7 +50262,7 @@
         <v>744</v>
       </c>
       <c r="AY127">
-        <v>2280</v>
+        <v>2272</v>
       </c>
       <c r="AZ127">
         <v>1557</v>
@@ -50316,7 +50316,7 @@
         <v>332</v>
       </c>
       <c r="BQ127">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="BR127">
         <v>353</v>
@@ -50378,8 +50378,8 @@
       <c r="CK127" s="4">
         <v>275</v>
       </c>
-      <c r="CL127" s="4" t="s">
-        <v>68</v>
+      <c r="CL127" s="4">
+        <v>187</v>
       </c>
       <c r="CM127" s="4">
         <v>175</v>
@@ -50648,7 +50648,7 @@
         <v>755</v>
       </c>
       <c r="AY128">
-        <v>2286</v>
+        <v>2278</v>
       </c>
       <c r="AZ128">
         <v>1599</v>
@@ -50702,7 +50702,7 @@
         <v>340</v>
       </c>
       <c r="BQ128">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="BR128">
         <v>412</v>
@@ -50714,7 +50714,7 @@
         <v>150</v>
       </c>
       <c r="BU128" s="4">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BV128" s="4">
         <v>268</v>
@@ -51034,7 +51034,7 @@
         <v>756</v>
       </c>
       <c r="AY129">
-        <v>2289</v>
+        <v>2281</v>
       </c>
       <c r="AZ129">
         <v>1629</v>
@@ -51088,7 +51088,7 @@
         <v>349</v>
       </c>
       <c r="BQ129">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="BR129">
         <v>445</v>
@@ -51100,7 +51100,7 @@
         <v>150</v>
       </c>
       <c r="BU129" s="4">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="BV129" s="4">
         <v>275</v>
@@ -51420,7 +51420,7 @@
         <v>758</v>
       </c>
       <c r="AY130">
-        <v>2296</v>
+        <v>2288</v>
       </c>
       <c r="AZ130">
         <v>1657</v>
@@ -51474,7 +51474,7 @@
         <v>364</v>
       </c>
       <c r="BQ130">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="BR130">
         <v>472</v>
@@ -51486,7 +51486,7 @@
         <v>156</v>
       </c>
       <c r="BU130" s="4">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="BV130" s="4">
         <v>284</v>
@@ -51806,7 +51806,7 @@
         <v>758</v>
       </c>
       <c r="AY131">
-        <v>2305</v>
+        <v>2297</v>
       </c>
       <c r="AZ131">
         <v>1687</v>
@@ -51860,7 +51860,7 @@
         <v>371</v>
       </c>
       <c r="BQ131">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="BR131" s="10" t="s">
         <v>68</v>
@@ -51872,7 +51872,7 @@
         <v>156</v>
       </c>
       <c r="BU131" s="4">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="BV131" s="4">
         <v>285</v>
@@ -52192,7 +52192,7 @@
         <v>762</v>
       </c>
       <c r="AY132">
-        <v>2311</v>
+        <v>2303</v>
       </c>
       <c r="AZ132">
         <v>1719</v>
@@ -52246,7 +52246,7 @@
         <v>387</v>
       </c>
       <c r="BQ132">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="BR132">
         <v>528</v>
@@ -52257,8 +52257,8 @@
       <c r="BT132" s="4">
         <v>157</v>
       </c>
-      <c r="BU132" s="4">
-        <v>296</v>
+      <c r="BU132" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="BV132" s="4">
         <v>299</v>
@@ -52578,7 +52578,7 @@
         <v>778</v>
       </c>
       <c r="AY133">
-        <v>2311</v>
+        <v>2303</v>
       </c>
       <c r="AZ133">
         <v>1739</v>
@@ -52632,7 +52632,7 @@
         <v>399</v>
       </c>
       <c r="BQ133">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="BR133">
         <v>556</v>
@@ -52643,8 +52643,8 @@
       <c r="BT133" s="4">
         <v>160</v>
       </c>
-      <c r="BU133" s="4">
-        <v>315</v>
+      <c r="BU133" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="BV133" s="4">
         <v>335</v>
@@ -52834,8 +52834,8 @@
       <c r="G134">
         <v>13650</v>
       </c>
-      <c r="H134">
-        <v>328</v>
+      <c r="H134" t="s">
+        <v>68</v>
       </c>
       <c r="I134">
         <v>325</v>
@@ -52964,7 +52964,7 @@
         <v>779</v>
       </c>
       <c r="AY134">
-        <v>2321</v>
+        <v>2312</v>
       </c>
       <c r="AZ134">
         <v>1816</v>
@@ -53018,7 +53018,7 @@
         <v>431</v>
       </c>
       <c r="BQ134">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="BR134">
         <v>621</v>
@@ -53030,7 +53030,7 @@
         <v>167</v>
       </c>
       <c r="BU134" s="4">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="BV134" s="4">
         <v>365</v>
@@ -53350,7 +53350,7 @@
         <v>795</v>
       </c>
       <c r="AY135">
-        <v>2323</v>
+        <v>2314</v>
       </c>
       <c r="AZ135">
         <v>1860</v>
@@ -53404,7 +53404,7 @@
         <v>445</v>
       </c>
       <c r="BQ135">
-        <v>1097</v>
+        <v>1092</v>
       </c>
       <c r="BR135">
         <v>665</v>
@@ -53416,7 +53416,7 @@
         <v>184</v>
       </c>
       <c r="BU135" s="4">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="BV135" s="4">
         <v>402</v>
@@ -53736,7 +53736,7 @@
         <v>829</v>
       </c>
       <c r="AY136">
-        <v>2330</v>
+        <v>2321</v>
       </c>
       <c r="AZ136">
         <v>1928</v>
@@ -53790,7 +53790,7 @@
         <v>465</v>
       </c>
       <c r="BQ136">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="BR136">
         <v>718</v>
@@ -53802,7 +53802,7 @@
         <v>194</v>
       </c>
       <c r="BU136" s="4">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="BV136" s="4">
         <v>431</v>
@@ -54122,7 +54122,7 @@
         <v>878</v>
       </c>
       <c r="AY137">
-        <v>2330</v>
+        <v>2321</v>
       </c>
       <c r="AZ137">
         <v>1962</v>
@@ -54176,7 +54176,7 @@
         <v>472</v>
       </c>
       <c r="BQ137">
-        <v>1242</v>
+        <v>1234</v>
       </c>
       <c r="BR137">
         <v>755</v>
@@ -54188,7 +54188,7 @@
         <v>199</v>
       </c>
       <c r="BU137" s="4">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="BV137" s="4">
         <v>458</v>
@@ -54508,7 +54508,7 @@
         <v>880</v>
       </c>
       <c r="AY138">
-        <v>2332</v>
+        <v>2323</v>
       </c>
       <c r="AZ138">
         <v>1985</v>
@@ -54562,7 +54562,7 @@
         <v>485</v>
       </c>
       <c r="BQ138">
-        <v>1349</v>
+        <v>1338</v>
       </c>
       <c r="BR138">
         <v>789</v>
@@ -54574,7 +54574,7 @@
         <v>201</v>
       </c>
       <c r="BU138" s="4">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="BV138" s="4">
         <v>479</v>
@@ -54767,8 +54767,8 @@
       <c r="H139">
         <v>445</v>
       </c>
-      <c r="I139" t="s">
-        <v>68</v>
+      <c r="I139">
+        <v>416</v>
       </c>
       <c r="J139">
         <v>451</v>
@@ -54894,7 +54894,7 @@
         <v>881</v>
       </c>
       <c r="AY139">
-        <v>2332</v>
+        <v>2323</v>
       </c>
       <c r="AZ139">
         <v>2017</v>
@@ -54948,7 +54948,7 @@
         <v>493</v>
       </c>
       <c r="BQ139">
-        <v>1359</v>
+        <v>1348</v>
       </c>
       <c r="BR139">
         <v>811</v>
@@ -55154,7 +55154,7 @@
         <v>479</v>
       </c>
       <c r="I140">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J140">
         <v>477</v>
@@ -55280,7 +55280,7 @@
         <v>882</v>
       </c>
       <c r="AY140">
-        <v>2333</v>
+        <v>2324</v>
       </c>
       <c r="AZ140">
         <v>2036</v>
@@ -55334,7 +55334,7 @@
         <v>517</v>
       </c>
       <c r="BQ140">
-        <v>1412</v>
+        <v>1401</v>
       </c>
       <c r="BR140">
         <v>869</v>
@@ -55396,8 +55396,8 @@
       <c r="CK140" s="4">
         <v>486</v>
       </c>
-      <c r="CL140" s="4">
-        <v>334</v>
+      <c r="CL140" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="CM140" s="4">
         <v>287</v>
@@ -55540,7 +55540,7 @@
         <v>503</v>
       </c>
       <c r="I141">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="J141">
         <v>485</v>
@@ -55666,7 +55666,7 @@
         <v>882</v>
       </c>
       <c r="AY141">
-        <v>2337</v>
+        <v>2328</v>
       </c>
       <c r="AZ141">
         <v>2071</v>
@@ -55720,7 +55720,7 @@
         <v>530</v>
       </c>
       <c r="BQ141">
-        <v>1481</v>
+        <v>1470</v>
       </c>
       <c r="BR141">
         <v>910</v>
@@ -55926,7 +55926,7 @@
         <v>518</v>
       </c>
       <c r="I142">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="J142">
         <v>489</v>
@@ -56052,7 +56052,7 @@
         <v>883</v>
       </c>
       <c r="AY142">
-        <v>2345</v>
+        <v>2336</v>
       </c>
       <c r="AZ142">
         <v>2087</v>
@@ -56106,7 +56106,7 @@
         <v>538</v>
       </c>
       <c r="BQ142">
-        <v>1533</v>
+        <v>1522</v>
       </c>
       <c r="BR142">
         <v>931</v>
@@ -56438,7 +56438,7 @@
         <v>883</v>
       </c>
       <c r="AY143">
-        <v>2363</v>
+        <v>2354</v>
       </c>
       <c r="AZ143">
         <v>2109</v>
@@ -56492,7 +56492,7 @@
         <v>550</v>
       </c>
       <c r="BQ143">
-        <v>1587</v>
+        <v>1576</v>
       </c>
       <c r="BR143">
         <v>1035</v>
@@ -56500,11 +56500,11 @@
       <c r="BS143" s="4">
         <v>818</v>
       </c>
-      <c r="BT143" s="10" t="s">
-        <v>68</v>
+      <c r="BT143" s="10">
+        <v>314</v>
       </c>
       <c r="BU143" s="4">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="BV143" s="4">
         <v>630</v>
@@ -56824,7 +56824,7 @@
         <v>883</v>
       </c>
       <c r="AY144">
-        <v>2368</v>
+        <v>2360</v>
       </c>
       <c r="AZ144">
         <v>2134</v>
@@ -56878,7 +56878,7 @@
         <v>561</v>
       </c>
       <c r="BQ144">
-        <v>1646</v>
+        <v>1634</v>
       </c>
       <c r="BR144">
         <v>1057</v>
@@ -56890,7 +56890,7 @@
         <v>367</v>
       </c>
       <c r="BU144" s="4">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="BV144" s="4">
         <v>655</v>
@@ -57084,7 +57084,7 @@
         <v>601</v>
       </c>
       <c r="I145">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="J145">
         <v>678</v>
@@ -57210,7 +57210,7 @@
         <v>885</v>
       </c>
       <c r="AY145">
-        <v>2371</v>
+        <v>2363</v>
       </c>
       <c r="AZ145">
         <v>2149</v>
@@ -57264,7 +57264,7 @@
         <v>574</v>
       </c>
       <c r="BQ145">
-        <v>1733</v>
+        <v>1719</v>
       </c>
       <c r="BR145">
         <v>1080</v>
@@ -57276,7 +57276,7 @@
         <v>376</v>
       </c>
       <c r="BU145" s="4">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="BV145" s="4">
         <v>703</v>
@@ -57470,7 +57470,7 @@
         <v>627</v>
       </c>
       <c r="I146">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J146">
         <v>742</v>
@@ -57596,7 +57596,7 @@
         <v>886</v>
       </c>
       <c r="AY146">
-        <v>2371</v>
+        <v>2363</v>
       </c>
       <c r="AZ146">
         <v>2176</v>
@@ -57650,7 +57650,7 @@
         <v>587</v>
       </c>
       <c r="BQ146">
-        <v>1880</v>
+        <v>1862</v>
       </c>
       <c r="BR146">
         <v>1138</v>
@@ -57662,7 +57662,7 @@
         <v>385</v>
       </c>
       <c r="BU146" s="4">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="BV146" s="4">
         <v>725</v>
@@ -57852,11 +57852,11 @@
       <c r="G147">
         <v>17621</v>
       </c>
-      <c r="H147">
-        <v>716</v>
+      <c r="H147" t="s">
+        <v>68</v>
       </c>
       <c r="I147">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="J147">
         <v>816</v>
@@ -57982,7 +57982,7 @@
         <v>889</v>
       </c>
       <c r="AY147">
-        <v>2372</v>
+        <v>2364</v>
       </c>
       <c r="AZ147">
         <v>2196</v>
@@ -58036,7 +58036,7 @@
         <v>602</v>
       </c>
       <c r="BQ147">
-        <v>1954</v>
+        <v>1936</v>
       </c>
       <c r="BR147">
         <v>1226</v>
@@ -58048,7 +58048,7 @@
         <v>422</v>
       </c>
       <c r="BU147" s="4">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="BV147" s="4">
         <v>742</v>
@@ -58242,7 +58242,7 @@
         <v>763</v>
       </c>
       <c r="I148">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="J148">
         <v>884</v>
@@ -58368,7 +58368,7 @@
         <v>896</v>
       </c>
       <c r="AY148">
-        <v>2373</v>
+        <v>2365</v>
       </c>
       <c r="AZ148">
         <v>2233</v>
@@ -58422,7 +58422,7 @@
         <v>608</v>
       </c>
       <c r="BQ148">
-        <v>2016</v>
+        <v>1997</v>
       </c>
       <c r="BR148">
         <v>1359</v>
@@ -58434,7 +58434,7 @@
         <v>443</v>
       </c>
       <c r="BU148" s="4">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="BV148" s="4">
         <v>773</v>
@@ -58628,7 +58628,7 @@
         <v>808</v>
       </c>
       <c r="I149">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="J149">
         <v>934</v>
@@ -58754,7 +58754,7 @@
         <v>896</v>
       </c>
       <c r="AY149">
-        <v>2373</v>
+        <v>2365</v>
       </c>
       <c r="AZ149">
         <v>2255</v>
@@ -58808,7 +58808,7 @@
         <v>613</v>
       </c>
       <c r="BQ149">
-        <v>2111</v>
+        <v>2092</v>
       </c>
       <c r="BR149">
         <v>1478</v>
@@ -59014,7 +59014,7 @@
         <v>870</v>
       </c>
       <c r="I150" s="6">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="J150" s="6">
         <v>1116</v>
@@ -59140,7 +59140,7 @@
         <v>910</v>
       </c>
       <c r="AY150">
-        <v>2374</v>
+        <v>2366</v>
       </c>
       <c r="AZ150">
         <v>2266</v>
@@ -59194,7 +59194,7 @@
         <v>620</v>
       </c>
       <c r="BQ150">
-        <v>2262</v>
+        <v>2242</v>
       </c>
       <c r="BR150">
         <v>1560</v>
@@ -59400,7 +59400,7 @@
         <v>934</v>
       </c>
       <c r="I151">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="J151">
         <v>1276</v>
@@ -59526,7 +59526,7 @@
         <v>910</v>
       </c>
       <c r="AY151">
-        <v>2376</v>
+        <v>2368</v>
       </c>
       <c r="AZ151">
         <v>2297</v>
@@ -59580,7 +59580,7 @@
         <v>631</v>
       </c>
       <c r="BQ151">
-        <v>2382</v>
+        <v>2360</v>
       </c>
       <c r="BR151">
         <v>1620</v>
@@ -59589,7 +59589,7 @@
         <v>1458</v>
       </c>
       <c r="BT151" s="4">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="BU151" s="4">
         <v>642</v>
@@ -59642,8 +59642,8 @@
       <c r="CK151" s="4">
         <v>641</v>
       </c>
-      <c r="CL151" s="4" t="s">
-        <v>68</v>
+      <c r="CL151" s="4">
+        <v>576</v>
       </c>
       <c r="CM151" s="4" t="s">
         <v>68</v>
@@ -59786,7 +59786,7 @@
         <v>992</v>
       </c>
       <c r="I152">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="J152">
         <v>1515</v>
@@ -59912,7 +59912,7 @@
         <v>914</v>
       </c>
       <c r="AY152">
-        <v>2376</v>
+        <v>2368</v>
       </c>
       <c r="AZ152">
         <v>2300</v>
@@ -59966,7 +59966,7 @@
         <v>638</v>
       </c>
       <c r="BQ152">
-        <v>2414</v>
+        <v>2392</v>
       </c>
       <c r="BR152">
         <v>1710</v>
@@ -60049,8 +60049,8 @@
       <c r="CR152" s="4">
         <v>1945</v>
       </c>
-      <c r="CS152" s="4">
-        <v>411</v>
+      <c r="CS152" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="CT152" s="4">
         <v>484</v>
@@ -60172,7 +60172,7 @@
         <v>1020</v>
       </c>
       <c r="I153">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="J153">
         <v>1647</v>
@@ -60298,7 +60298,7 @@
         <v>914</v>
       </c>
       <c r="AY153">
-        <v>2376</v>
+        <v>2368</v>
       </c>
       <c r="AZ153">
         <v>2317</v>
@@ -60352,7 +60352,7 @@
         <v>644</v>
       </c>
       <c r="BQ153">
-        <v>2558</v>
+        <v>2533</v>
       </c>
       <c r="BR153">
         <v>1755</v>
@@ -60364,7 +60364,7 @@
         <v>555</v>
       </c>
       <c r="BU153" s="4">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="BV153" s="4">
         <v>979</v>
@@ -60558,7 +60558,7 @@
         <v>1084</v>
       </c>
       <c r="I154">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="J154">
         <v>1839</v>
@@ -60684,7 +60684,7 @@
         <v>918</v>
       </c>
       <c r="AY154">
-        <v>2387</v>
+        <v>2379</v>
       </c>
       <c r="AZ154">
         <v>2331</v>
@@ -60738,7 +60738,7 @@
         <v>653</v>
       </c>
       <c r="BQ154">
-        <v>2650</v>
+        <v>2623</v>
       </c>
       <c r="BR154">
         <v>1841</v>
@@ -60750,7 +60750,7 @@
         <v>590</v>
       </c>
       <c r="BU154" s="4">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="BV154" s="4">
         <v>1058</v>
@@ -60944,7 +60944,7 @@
         <v>1154</v>
       </c>
       <c r="I155">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="J155">
         <v>1868</v>
@@ -61070,7 +61070,7 @@
         <v>918</v>
       </c>
       <c r="AY155">
-        <v>2389</v>
+        <v>2381</v>
       </c>
       <c r="AZ155">
         <v>2397</v>
@@ -61124,7 +61124,7 @@
         <v>657</v>
       </c>
       <c r="BQ155">
-        <v>2764</v>
+        <v>2737</v>
       </c>
       <c r="BR155">
         <v>2009</v>
@@ -61330,7 +61330,7 @@
         <v>1222</v>
       </c>
       <c r="I156">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="J156">
         <v>2042</v>
@@ -61456,7 +61456,7 @@
         <v>921</v>
       </c>
       <c r="AY156">
-        <v>2416</v>
+        <v>2381</v>
       </c>
       <c r="AZ156">
         <v>2413</v>
@@ -61510,7 +61510,7 @@
         <v>663</v>
       </c>
       <c r="BQ156">
-        <v>2939</v>
+        <v>2912</v>
       </c>
       <c r="BR156">
         <v>2187</v>
@@ -61716,7 +61716,7 @@
         <v>1288</v>
       </c>
       <c r="I157">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="J157">
         <v>2141</v>
@@ -61842,7 +61842,7 @@
         <v>921</v>
       </c>
       <c r="AY157">
-        <v>2431</v>
+        <v>2384</v>
       </c>
       <c r="AZ157">
         <v>2431</v>
@@ -61896,7 +61896,7 @@
         <v>669</v>
       </c>
       <c r="BQ157">
-        <v>3048</v>
+        <v>3017</v>
       </c>
       <c r="BR157">
         <v>2305</v>
@@ -62102,7 +62102,7 @@
         <v>1322</v>
       </c>
       <c r="I158">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="J158">
         <v>2493</v>
@@ -62228,7 +62228,7 @@
         <v>922</v>
       </c>
       <c r="AY158">
-        <v>2432</v>
+        <v>2384</v>
       </c>
       <c r="AZ158">
         <v>2450</v>
@@ -62282,7 +62282,7 @@
         <v>674</v>
       </c>
       <c r="BQ158">
-        <v>3119</v>
+        <v>3088</v>
       </c>
       <c r="BR158">
         <v>2469</v>
@@ -62294,7 +62294,7 @@
         <v>728</v>
       </c>
       <c r="BU158" s="4">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="BV158" s="4">
         <v>1205</v>
@@ -62488,7 +62488,7 @@
         <v>1404</v>
       </c>
       <c r="I159">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="J159">
         <v>2619</v>
@@ -62614,7 +62614,7 @@
         <v>922</v>
       </c>
       <c r="AY159">
-        <v>2440</v>
+        <v>2392</v>
       </c>
       <c r="AZ159">
         <v>2456</v>
@@ -62668,7 +62668,7 @@
         <v>674</v>
       </c>
       <c r="BQ159">
-        <v>3156</v>
+        <v>3124</v>
       </c>
       <c r="BR159">
         <v>2643</v>
@@ -62680,7 +62680,7 @@
         <v>753</v>
       </c>
       <c r="BU159" s="4">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="BV159" s="4">
         <v>1214</v>
@@ -62874,7 +62874,7 @@
         <v>1471</v>
       </c>
       <c r="I160">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="J160">
         <v>2794</v>
@@ -63000,7 +63000,7 @@
         <v>922</v>
       </c>
       <c r="AY160">
-        <v>2445</v>
+        <v>2397</v>
       </c>
       <c r="AZ160">
         <v>2472</v>
@@ -63054,7 +63054,7 @@
         <v>679</v>
       </c>
       <c r="BQ160">
-        <v>3404</v>
+        <v>3364</v>
       </c>
       <c r="BR160">
         <v>2826</v>
@@ -63066,7 +63066,7 @@
         <v>763</v>
       </c>
       <c r="BU160" s="4">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="BV160" s="4">
         <v>1272</v>
@@ -63260,7 +63260,7 @@
         <v>1550</v>
       </c>
       <c r="I161">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="J161">
         <v>2944</v>
@@ -63386,7 +63386,7 @@
         <v>922</v>
       </c>
       <c r="AY161">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="AZ161">
         <v>2483</v>
@@ -63439,8 +63439,8 @@
       <c r="BP161">
         <v>684</v>
       </c>
-      <c r="BQ161" t="s">
-        <v>68</v>
+      <c r="BQ161">
+        <v>3414</v>
       </c>
       <c r="BR161">
         <v>3053</v>
@@ -63452,7 +63452,7 @@
         <v>779</v>
       </c>
       <c r="BU161" s="4">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="BV161" s="4">
         <v>1293</v>
@@ -63646,7 +63646,7 @@
         <v>1651</v>
       </c>
       <c r="I162">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="J162">
         <v>3068</v>
@@ -63825,8 +63825,8 @@
       <c r="BP162">
         <v>692</v>
       </c>
-      <c r="BQ162" t="s">
-        <v>68</v>
+      <c r="BQ162">
+        <v>3585</v>
       </c>
       <c r="BR162">
         <v>3138</v>
@@ -63838,7 +63838,7 @@
         <v>792</v>
       </c>
       <c r="BU162" s="4">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="BV162" s="4">
         <v>1439</v>
@@ -64158,7 +64158,7 @@
         <v>923</v>
       </c>
       <c r="AY163">
-        <v>2418</v>
+        <v>2419</v>
       </c>
       <c r="AZ163">
         <v>2504</v>
@@ -64212,7 +64212,7 @@
         <v>698</v>
       </c>
       <c r="BQ163">
-        <v>3765</v>
+        <v>3723</v>
       </c>
       <c r="BR163">
         <v>3240</v>
@@ -64224,7 +64224,7 @@
         <v>821</v>
       </c>
       <c r="BU163" s="4">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="BV163" s="4">
         <v>1526</v>
@@ -64544,7 +64544,7 @@
         <v>923</v>
       </c>
       <c r="AY164">
-        <v>2423</v>
+        <v>2424</v>
       </c>
       <c r="AZ164">
         <v>2521</v>
@@ -64598,7 +64598,7 @@
         <v>700</v>
       </c>
       <c r="BQ164">
-        <v>3882</v>
+        <v>3837</v>
       </c>
       <c r="BR164">
         <v>3412</v>
@@ -64610,7 +64610,7 @@
         <v>841</v>
       </c>
       <c r="BU164" s="4">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="BV164" s="4">
         <v>1575</v>
@@ -64930,7 +64930,7 @@
         <v>925</v>
       </c>
       <c r="AY165">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="AZ165">
         <v>2525</v>
@@ -64984,7 +64984,7 @@
         <v>702</v>
       </c>
       <c r="BQ165">
-        <v>4108</v>
+        <v>4063</v>
       </c>
       <c r="BR165">
         <v>3580</v>
@@ -65190,7 +65190,7 @@
         <v>2038</v>
       </c>
       <c r="I166">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="J166">
         <v>3922</v>
@@ -65370,7 +65370,7 @@
         <v>704</v>
       </c>
       <c r="BQ166">
-        <v>4246</v>
+        <v>4199</v>
       </c>
       <c r="BR166">
         <v>3660</v>
@@ -65379,7 +65379,7 @@
         <v>4116</v>
       </c>
       <c r="BT166" s="4">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="BU166" s="4">
         <v>1095</v>
@@ -65576,7 +65576,7 @@
         <v>2158</v>
       </c>
       <c r="I167">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="J167">
         <v>4129</v>
@@ -65756,7 +65756,7 @@
         <v>722</v>
       </c>
       <c r="BQ167">
-        <v>4348</v>
+        <v>4301</v>
       </c>
       <c r="BR167">
         <v>3925</v>
@@ -65962,7 +65962,7 @@
         <v>2230</v>
       </c>
       <c r="I168">
-        <v>1825</v>
+        <v>1823</v>
       </c>
       <c r="J168">
         <v>4339</v>
@@ -66142,7 +66142,7 @@
         <v>727</v>
       </c>
       <c r="BQ168">
-        <v>4657</v>
+        <v>4610</v>
       </c>
       <c r="BR168">
         <v>4134</v>
@@ -66706,6 +66706,392 @@
       </c>
       <c r="DX169">
         <v>6738</v>
+      </c>
+    </row>
+    <row r="170" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>44064</v>
+      </c>
+      <c r="B170">
+        <v>522138</v>
+      </c>
+      <c r="C170">
+        <v>2678</v>
+      </c>
+      <c r="D170">
+        <v>67893</v>
+      </c>
+      <c r="E170">
+        <v>62464</v>
+      </c>
+      <c r="F170">
+        <v>181775</v>
+      </c>
+      <c r="G170">
+        <v>22738</v>
+      </c>
+      <c r="H170">
+        <v>2513</v>
+      </c>
+      <c r="I170">
+        <v>2120</v>
+      </c>
+      <c r="J170">
+        <v>4603</v>
+      </c>
+      <c r="K170">
+        <v>3837</v>
+      </c>
+      <c r="L170">
+        <v>7187</v>
+      </c>
+      <c r="M170">
+        <v>3592</v>
+      </c>
+      <c r="N170">
+        <v>16727</v>
+      </c>
+      <c r="O170">
+        <v>18238</v>
+      </c>
+      <c r="P170">
+        <v>4222</v>
+      </c>
+      <c r="Q170">
+        <v>3078</v>
+      </c>
+      <c r="R170">
+        <v>10996</v>
+      </c>
+      <c r="S170">
+        <v>5489</v>
+      </c>
+      <c r="T170">
+        <v>12363</v>
+      </c>
+      <c r="U170">
+        <v>8325</v>
+      </c>
+      <c r="V170">
+        <v>2328</v>
+      </c>
+      <c r="W170">
+        <v>803</v>
+      </c>
+      <c r="X170">
+        <v>4050</v>
+      </c>
+      <c r="Y170">
+        <v>12343</v>
+      </c>
+      <c r="Z170">
+        <v>10113</v>
+      </c>
+      <c r="AA170">
+        <v>5222</v>
+      </c>
+      <c r="AB170">
+        <v>41887</v>
+      </c>
+      <c r="AC170">
+        <v>798</v>
+      </c>
+      <c r="AD170">
+        <v>117</v>
+      </c>
+      <c r="AE170">
+        <v>169</v>
+      </c>
+      <c r="AF170">
+        <v>437</v>
+      </c>
+      <c r="AG170">
+        <v>28</v>
+      </c>
+      <c r="AH170">
+        <v>15</v>
+      </c>
+      <c r="AI170">
+        <v>216</v>
+      </c>
+      <c r="AJ170">
+        <v>1923</v>
+      </c>
+      <c r="AK170">
+        <v>2158</v>
+      </c>
+      <c r="AL170">
+        <v>35226</v>
+      </c>
+      <c r="AM170">
+        <v>5677</v>
+      </c>
+      <c r="AN170">
+        <v>2357</v>
+      </c>
+      <c r="AO170">
+        <v>33034</v>
+      </c>
+      <c r="AP170">
+        <v>794</v>
+      </c>
+      <c r="AQ170">
+        <v>18708</v>
+      </c>
+      <c r="AR170">
+        <v>1398</v>
+      </c>
+      <c r="AS170">
+        <v>5799</v>
+      </c>
+      <c r="AT170">
+        <v>1371</v>
+      </c>
+      <c r="AU170">
+        <v>1532</v>
+      </c>
+      <c r="AV170">
+        <v>2958</v>
+      </c>
+      <c r="AW170">
+        <v>1390</v>
+      </c>
+      <c r="AX170">
+        <v>925</v>
+      </c>
+      <c r="AY170">
+        <v>2446</v>
+      </c>
+      <c r="AZ170">
+        <v>2559</v>
+      </c>
+      <c r="BA170">
+        <v>38804</v>
+      </c>
+      <c r="BB170">
+        <v>10795</v>
+      </c>
+      <c r="BC170">
+        <v>1735</v>
+      </c>
+      <c r="BD170">
+        <v>6482</v>
+      </c>
+      <c r="BE170">
+        <v>2594</v>
+      </c>
+      <c r="BF170">
+        <v>274</v>
+      </c>
+      <c r="BG170">
+        <v>1364</v>
+      </c>
+      <c r="BH170">
+        <v>2503</v>
+      </c>
+      <c r="BI170">
+        <v>725</v>
+      </c>
+      <c r="BJ170">
+        <v>1909</v>
+      </c>
+      <c r="BK170">
+        <v>7434</v>
+      </c>
+      <c r="BL170">
+        <v>7300</v>
+      </c>
+      <c r="BM170">
+        <v>6957</v>
+      </c>
+      <c r="BN170">
+        <v>13475</v>
+      </c>
+      <c r="BO170">
+        <v>1838</v>
+      </c>
+      <c r="BP170">
+        <v>739</v>
+      </c>
+      <c r="BQ170">
+        <v>5199</v>
+      </c>
+      <c r="BR170">
+        <v>4544</v>
+      </c>
+      <c r="BS170" s="4">
+        <v>5045</v>
+      </c>
+      <c r="BT170" s="4">
+        <v>1114</v>
+      </c>
+      <c r="BU170" s="4">
+        <v>1267</v>
+      </c>
+      <c r="BV170" s="4">
+        <v>1983</v>
+      </c>
+      <c r="BW170" s="4">
+        <v>2301</v>
+      </c>
+      <c r="BX170" s="4">
+        <v>592</v>
+      </c>
+      <c r="BY170" s="4">
+        <v>3694</v>
+      </c>
+      <c r="BZ170" s="4">
+        <v>2110</v>
+      </c>
+      <c r="CA170" s="4">
+        <v>925</v>
+      </c>
+      <c r="CB170" s="4">
+        <v>593</v>
+      </c>
+      <c r="CC170" s="4">
+        <v>1703</v>
+      </c>
+      <c r="CD170" s="4">
+        <v>1714</v>
+      </c>
+      <c r="CE170" s="4">
+        <v>839</v>
+      </c>
+      <c r="CF170" s="4">
+        <v>720</v>
+      </c>
+      <c r="CG170" s="4">
+        <v>3866</v>
+      </c>
+      <c r="CH170" s="4">
+        <v>968</v>
+      </c>
+      <c r="CI170" s="4">
+        <v>1010</v>
+      </c>
+      <c r="CJ170" s="4">
+        <v>1020</v>
+      </c>
+      <c r="CK170" s="4">
+        <v>1331</v>
+      </c>
+      <c r="CL170" s="4">
+        <v>1201</v>
+      </c>
+      <c r="CM170" s="4">
+        <v>1149</v>
+      </c>
+      <c r="CN170" s="4">
+        <v>970</v>
+      </c>
+      <c r="CO170" s="4">
+        <v>932</v>
+      </c>
+      <c r="CP170" s="4">
+        <v>1018</v>
+      </c>
+      <c r="CQ170" s="4">
+        <v>487</v>
+      </c>
+      <c r="CR170" s="4">
+        <v>2798</v>
+      </c>
+      <c r="CS170" s="4">
+        <v>800</v>
+      </c>
+      <c r="CT170" s="4">
+        <v>731</v>
+      </c>
+      <c r="CU170" s="4">
+        <v>639</v>
+      </c>
+      <c r="CV170" s="4">
+        <v>1077</v>
+      </c>
+      <c r="CW170" s="4">
+        <v>965</v>
+      </c>
+      <c r="CX170" s="4">
+        <v>557</v>
+      </c>
+      <c r="CY170" s="4">
+        <v>659</v>
+      </c>
+      <c r="CZ170" s="4">
+        <v>722</v>
+      </c>
+      <c r="DA170" s="4">
+        <v>1019</v>
+      </c>
+      <c r="DB170" s="4">
+        <v>824</v>
+      </c>
+      <c r="DC170" s="4">
+        <v>931</v>
+      </c>
+      <c r="DD170" s="4">
+        <v>743</v>
+      </c>
+      <c r="DE170" s="4">
+        <v>309</v>
+      </c>
+      <c r="DF170" s="4">
+        <v>323</v>
+      </c>
+      <c r="DG170" s="4">
+        <v>622</v>
+      </c>
+      <c r="DH170" s="4">
+        <v>504</v>
+      </c>
+      <c r="DI170" s="4">
+        <v>378</v>
+      </c>
+      <c r="DJ170" s="4">
+        <v>517</v>
+      </c>
+      <c r="DK170" s="4">
+        <v>300</v>
+      </c>
+      <c r="DL170" s="4">
+        <v>513</v>
+      </c>
+      <c r="DM170" s="4">
+        <v>692</v>
+      </c>
+      <c r="DN170" s="4">
+        <v>498</v>
+      </c>
+      <c r="DO170" s="4">
+        <v>469</v>
+      </c>
+      <c r="DP170" s="4">
+        <v>343</v>
+      </c>
+      <c r="DQ170" s="4">
+        <v>508</v>
+      </c>
+      <c r="DR170">
+        <v>107607</v>
+      </c>
+      <c r="DS170">
+        <v>218036</v>
+      </c>
+      <c r="DT170">
+        <v>7246</v>
+      </c>
+      <c r="DU170">
+        <v>94723</v>
+      </c>
+      <c r="DV170">
+        <v>61679</v>
+      </c>
+      <c r="DW170">
+        <v>20717</v>
+      </c>
+      <c r="DX170">
+        <v>6959</v>
       </c>
     </row>
   </sheetData>

--- a/CasosColombia.xlsx
+++ b/CasosColombia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Matlab\MATLAB_R2019a\fitVirusCV19_v07_v17\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD43465A-1A98-44EB-B146-B7A61B125699}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FE1AADA-FA0F-4C93-BF7D-02BB8062F1E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6C56C21C-B00B-4C62-A627-74DAE246E91A}"/>
+    <workbookView xWindow="3435" yWindow="375" windowWidth="21600" windowHeight="11505" xr2:uid="{6C56C21C-B00B-4C62-A627-74DAE246E91A}"/>
   </bookViews>
   <sheets>
     <sheet name="CasosColombia" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="129">
   <si>
     <t>Fecha</t>
   </si>
@@ -863,7 +863,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="134">
+  <cellStyleXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -998,8 +998,26 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1012,8 +1030,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="134">
+  <cellStyles count="152">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1047,6 +1067,7 @@
     <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Millares [0] 10" xfId="116" xr:uid="{84BB4501-E248-413F-A6AA-08DE3DBBEDB7}"/>
+    <cellStyle name="Millares [0] 11" xfId="134" xr:uid="{47B6833B-6F9F-40E7-94B5-6AD21FB6BFDD}"/>
     <cellStyle name="Millares [0] 2" xfId="46" xr:uid="{B69C1AD9-2566-431E-B8BD-4FE4B981AE94}"/>
     <cellStyle name="Millares [0] 2 2" xfId="49" xr:uid="{595FD26E-FFCF-43C5-8C5B-C348A4732679}"/>
     <cellStyle name="Millares [0] 2 2 2" xfId="61" xr:uid="{494299AD-A022-4801-BA4A-4259E1DBD93D}"/>
@@ -1054,54 +1075,65 @@
     <cellStyle name="Millares [0] 2 2 2 3" xfId="97" xr:uid="{4FE5FA89-DF22-4C1C-86ED-9DECC0A7D10D}"/>
     <cellStyle name="Millares [0] 2 2 2 4" xfId="115" xr:uid="{B038DE2F-9702-40EF-8502-4F9F026D78F0}"/>
     <cellStyle name="Millares [0] 2 2 2 5" xfId="133" xr:uid="{91D39CDE-878A-4EF1-B927-C5105B97DD86}"/>
+    <cellStyle name="Millares [0] 2 2 2 6" xfId="151" xr:uid="{E319B07C-A33B-4612-9AC9-EA187D0F2CD7}"/>
     <cellStyle name="Millares [0] 2 2 3" xfId="55" xr:uid="{C93CBAD9-7407-47A3-A9C0-73068921BDF6}"/>
     <cellStyle name="Millares [0] 2 2 3 2" xfId="73" xr:uid="{1E102742-38CB-4F86-96D4-E1EAC4CE26BC}"/>
     <cellStyle name="Millares [0] 2 2 3 3" xfId="91" xr:uid="{44E9C22F-974A-45CD-8AE7-9EDE1236DF89}"/>
     <cellStyle name="Millares [0] 2 2 3 4" xfId="109" xr:uid="{A102EF27-91ED-4DFD-BD4C-C3C5C3A57216}"/>
     <cellStyle name="Millares [0] 2 2 3 5" xfId="127" xr:uid="{E68BA1BF-4F5E-46BB-9109-57D9725F9AE2}"/>
+    <cellStyle name="Millares [0] 2 2 3 6" xfId="145" xr:uid="{9854F7E8-A1E9-484F-90BB-A2DD490EAA3E}"/>
     <cellStyle name="Millares [0] 2 2 4" xfId="67" xr:uid="{CBA4F31B-85BB-4DC6-B967-C44E39A86F42}"/>
     <cellStyle name="Millares [0] 2 2 5" xfId="85" xr:uid="{1D7B5F39-06BE-4A99-BA12-27DE9DF63F99}"/>
     <cellStyle name="Millares [0] 2 2 6" xfId="103" xr:uid="{AEBAF322-0B7A-4292-93C5-23A5167185A9}"/>
     <cellStyle name="Millares [0] 2 2 7" xfId="121" xr:uid="{B0D56528-6D03-4728-A4E1-20D247D8DB96}"/>
+    <cellStyle name="Millares [0] 2 2 8" xfId="139" xr:uid="{55128CA6-C1C5-4ADD-96DA-26F8650139E0}"/>
     <cellStyle name="Millares [0] 2 3" xfId="58" xr:uid="{DB97B50F-5B19-4022-91DC-0809B6AD76DA}"/>
     <cellStyle name="Millares [0] 2 3 2" xfId="76" xr:uid="{B5709F3C-17A8-4BBE-8058-A456A192D641}"/>
     <cellStyle name="Millares [0] 2 3 3" xfId="94" xr:uid="{1750B0FB-ACD8-4990-88DF-FBDA87FC141C}"/>
     <cellStyle name="Millares [0] 2 3 4" xfId="112" xr:uid="{BAE0774D-DDC9-4966-8410-F7002525CA0B}"/>
     <cellStyle name="Millares [0] 2 3 5" xfId="130" xr:uid="{6BBBFEDA-63F2-4CCD-9A5D-140198FEEB65}"/>
+    <cellStyle name="Millares [0] 2 3 6" xfId="148" xr:uid="{6EF4B2E8-60D5-4C2D-B52B-0755BC896F8C}"/>
     <cellStyle name="Millares [0] 2 4" xfId="52" xr:uid="{58297128-4020-440C-89B3-E922E36CD0D3}"/>
     <cellStyle name="Millares [0] 2 4 2" xfId="70" xr:uid="{DC2EB9E2-5E92-41D8-8B19-7A1031BE9B1B}"/>
     <cellStyle name="Millares [0] 2 4 3" xfId="88" xr:uid="{70033A1E-8FE3-4122-9350-84C93DF347A2}"/>
     <cellStyle name="Millares [0] 2 4 4" xfId="106" xr:uid="{AD0CDCA0-5FCB-41CD-A5A2-CA459DB3E919}"/>
     <cellStyle name="Millares [0] 2 4 5" xfId="124" xr:uid="{6472C8EF-4B09-4D8F-BA9D-93C94C255E9C}"/>
+    <cellStyle name="Millares [0] 2 4 6" xfId="142" xr:uid="{D2104F7C-3796-4BC6-86C1-75225793B70E}"/>
     <cellStyle name="Millares [0] 2 5" xfId="64" xr:uid="{280524D7-BF53-4D47-9FD8-6EF9D073580C}"/>
     <cellStyle name="Millares [0] 2 6" xfId="82" xr:uid="{41D9DB23-870B-4DBB-815A-1C8FC7C9CA75}"/>
     <cellStyle name="Millares [0] 2 7" xfId="100" xr:uid="{B1C45E3D-390F-447E-A9B1-27C7BA019F1B}"/>
     <cellStyle name="Millares [0] 2 8" xfId="118" xr:uid="{287BAD9D-C7FA-4AA8-80C2-E1C818414C96}"/>
+    <cellStyle name="Millares [0] 2 9" xfId="136" xr:uid="{26176EE9-D4E1-465F-9B9B-C648276DC573}"/>
     <cellStyle name="Millares [0] 3" xfId="47" xr:uid="{523194E3-F39E-4322-92DF-493CE9DA6F61}"/>
     <cellStyle name="Millares [0] 3 2" xfId="59" xr:uid="{3B824C1C-50DF-434B-AB01-66F07BE99E90}"/>
     <cellStyle name="Millares [0] 3 2 2" xfId="77" xr:uid="{62BBF2A7-CA94-4883-80F6-B4049C68295F}"/>
     <cellStyle name="Millares [0] 3 2 3" xfId="95" xr:uid="{2DEAF50D-0A85-4DCC-9703-2497EA718ADA}"/>
     <cellStyle name="Millares [0] 3 2 4" xfId="113" xr:uid="{97C2410C-C2CC-438C-99A6-17EE93369161}"/>
     <cellStyle name="Millares [0] 3 2 5" xfId="131" xr:uid="{9E1506EC-0E34-446C-B8A2-96A9C522F8FC}"/>
+    <cellStyle name="Millares [0] 3 2 6" xfId="149" xr:uid="{C0585FCD-5CEE-4313-A28D-909FCB75AE74}"/>
     <cellStyle name="Millares [0] 3 3" xfId="53" xr:uid="{0AEC5160-A4EA-4BF5-9F19-BF733EEFEB2D}"/>
     <cellStyle name="Millares [0] 3 3 2" xfId="71" xr:uid="{E7E61861-B01B-4EF3-AA81-2E3CD842EEC1}"/>
     <cellStyle name="Millares [0] 3 3 3" xfId="89" xr:uid="{5B941F81-780F-4C0C-A73F-E4550334535C}"/>
     <cellStyle name="Millares [0] 3 3 4" xfId="107" xr:uid="{4A8E5289-7B42-4367-A89F-5D5B52225DE9}"/>
     <cellStyle name="Millares [0] 3 3 5" xfId="125" xr:uid="{484423AC-C14E-4FA1-84FB-B66AD8D4BA06}"/>
+    <cellStyle name="Millares [0] 3 3 6" xfId="143" xr:uid="{A89BCD3C-4F65-4B52-A390-90839961FF5C}"/>
     <cellStyle name="Millares [0] 3 4" xfId="65" xr:uid="{7BCAC87C-9F17-4758-AA2C-CE8A9FB6EC2D}"/>
     <cellStyle name="Millares [0] 3 5" xfId="83" xr:uid="{2009D141-C698-4CD3-B543-36D773398AB9}"/>
     <cellStyle name="Millares [0] 3 6" xfId="101" xr:uid="{3A4E138A-72C5-4D0D-82DA-AFC5299F9CE2}"/>
     <cellStyle name="Millares [0] 3 7" xfId="119" xr:uid="{1E75F0D1-749A-4720-942B-29CDA81D912E}"/>
+    <cellStyle name="Millares [0] 3 8" xfId="137" xr:uid="{157EC5D8-014E-4A8C-AA91-EE9791BE7F9B}"/>
     <cellStyle name="Millares [0] 4" xfId="50" xr:uid="{2A1BCC91-1847-4A18-9B2F-31AEDA13DFD1}"/>
     <cellStyle name="Millares [0] 4 2" xfId="68" xr:uid="{7B654364-449E-4582-B804-6EEB2503F408}"/>
     <cellStyle name="Millares [0] 4 3" xfId="86" xr:uid="{C59EB6EC-0A1B-438E-AE89-6C15D7C278D1}"/>
     <cellStyle name="Millares [0] 4 4" xfId="104" xr:uid="{B6FD9EB1-1626-4F37-A824-FA248D82D34B}"/>
     <cellStyle name="Millares [0] 4 5" xfId="122" xr:uid="{D551F853-6060-4B04-847B-83DFF91D3508}"/>
+    <cellStyle name="Millares [0] 4 6" xfId="140" xr:uid="{4362EDF1-466D-4B02-A3AC-549AC68F800F}"/>
     <cellStyle name="Millares [0] 5" xfId="56" xr:uid="{48EFA561-EC5A-4158-ABD0-6E6D34051CD7}"/>
     <cellStyle name="Millares [0] 5 2" xfId="74" xr:uid="{1136B532-FC7E-491F-83AB-412B24B59DB7}"/>
     <cellStyle name="Millares [0] 5 3" xfId="92" xr:uid="{C31167FD-C5A1-42C6-A24C-AB17795A03AB}"/>
     <cellStyle name="Millares [0] 5 4" xfId="110" xr:uid="{2732A20A-1239-44D9-A34C-EB931503AFE5}"/>
     <cellStyle name="Millares [0] 5 5" xfId="128" xr:uid="{5925C1F8-1BAB-42E8-9839-08788AA9FE61}"/>
+    <cellStyle name="Millares [0] 5 6" xfId="146" xr:uid="{CEA19EC8-2075-4144-8AE7-61CE0D039791}"/>
     <cellStyle name="Millares [0] 6" xfId="42" xr:uid="{32E6231C-B57B-4CF0-863B-32AB6194D4B3}"/>
     <cellStyle name="Millares [0] 7" xfId="62" xr:uid="{ADD89654-36E5-4EDB-809E-B397E6D57933}"/>
     <cellStyle name="Millares [0] 8" xfId="80" xr:uid="{4A48832B-3DB4-4EB3-A2A7-BF1CAFB2CCF2}"/>
@@ -1113,29 +1145,35 @@
     <cellStyle name="Millares 2 2 2 3" xfId="96" xr:uid="{0500CA2F-5940-4F99-B489-D3B188D4C612}"/>
     <cellStyle name="Millares 2 2 2 4" xfId="114" xr:uid="{5F63D6C8-6728-4C00-9635-27E6459C55AE}"/>
     <cellStyle name="Millares 2 2 2 5" xfId="132" xr:uid="{55840C61-E4E5-4237-BBBC-5130B0D507A1}"/>
+    <cellStyle name="Millares 2 2 2 6" xfId="150" xr:uid="{0F850E06-7019-45CE-A2E1-002AB61EA621}"/>
     <cellStyle name="Millares 2 2 3" xfId="54" xr:uid="{A0D4D609-30D7-4213-9419-3E804BBF0467}"/>
     <cellStyle name="Millares 2 2 3 2" xfId="72" xr:uid="{6FCCFC07-2B4C-4681-976E-3C99305FB053}"/>
     <cellStyle name="Millares 2 2 3 3" xfId="90" xr:uid="{E8E33C9C-DD0A-4AFB-89AC-966E676BCE81}"/>
     <cellStyle name="Millares 2 2 3 4" xfId="108" xr:uid="{888504C7-3D16-4DC9-A0AB-BBA6F3DF4AA9}"/>
     <cellStyle name="Millares 2 2 3 5" xfId="126" xr:uid="{63D16EAF-80F9-4F86-A454-7DAACFA27D3B}"/>
+    <cellStyle name="Millares 2 2 3 6" xfId="144" xr:uid="{E5EFCCB7-2F55-4B98-9AB9-887D39811101}"/>
     <cellStyle name="Millares 2 2 4" xfId="66" xr:uid="{9403B588-7F08-45A7-A119-52CDAC2AAFB7}"/>
     <cellStyle name="Millares 2 2 5" xfId="84" xr:uid="{1E63949F-02EE-48E3-A837-1A977DEE1717}"/>
     <cellStyle name="Millares 2 2 6" xfId="102" xr:uid="{DC2947A1-7A26-40E7-9482-64DB28E2EC01}"/>
     <cellStyle name="Millares 2 2 7" xfId="120" xr:uid="{10D67FD1-6CB3-483F-98AC-EF4FF4AE2B7D}"/>
+    <cellStyle name="Millares 2 2 8" xfId="138" xr:uid="{5B006FC8-4AE6-4EC9-9414-5065649DCFE8}"/>
     <cellStyle name="Millares 2 3" xfId="57" xr:uid="{25E86123-34CC-4855-9A99-53C95911319D}"/>
     <cellStyle name="Millares 2 3 2" xfId="75" xr:uid="{4B20DD16-7177-43B9-88CA-F21C38780002}"/>
     <cellStyle name="Millares 2 3 3" xfId="93" xr:uid="{6AE1A8E7-0410-4743-9465-F70B002A9EC3}"/>
     <cellStyle name="Millares 2 3 4" xfId="111" xr:uid="{921C1FDC-F057-40A5-BDD5-D624307F06BB}"/>
     <cellStyle name="Millares 2 3 5" xfId="129" xr:uid="{C5CB3A45-427C-48F2-9EEB-2FA6453C9922}"/>
+    <cellStyle name="Millares 2 3 6" xfId="147" xr:uid="{4C866B19-428F-4C8C-AA63-6FE3FF1FE82F}"/>
     <cellStyle name="Millares 2 4" xfId="51" xr:uid="{3F9B58F3-6A29-405F-9975-1996A4E11E4D}"/>
     <cellStyle name="Millares 2 4 2" xfId="69" xr:uid="{C338C050-AF7B-422A-866A-A07BA59AB5C6}"/>
     <cellStyle name="Millares 2 4 3" xfId="87" xr:uid="{2BC0A88A-9127-4181-BA27-23A36BC25318}"/>
     <cellStyle name="Millares 2 4 4" xfId="105" xr:uid="{6804689C-EAF2-4F84-BA4E-F344E8255450}"/>
     <cellStyle name="Millares 2 4 5" xfId="123" xr:uid="{7505F665-2C1E-4760-823F-A89221B19F5E}"/>
+    <cellStyle name="Millares 2 4 6" xfId="141" xr:uid="{E75BBC5B-F36B-4021-A1B0-8252E8D5422F}"/>
     <cellStyle name="Millares 2 5" xfId="63" xr:uid="{CB03235B-5823-44E3-A0A8-48A9FF41EE71}"/>
     <cellStyle name="Millares 2 6" xfId="81" xr:uid="{7F0318B3-86FA-4680-B160-B0297D43E638}"/>
     <cellStyle name="Millares 2 7" xfId="99" xr:uid="{0DCC8B41-E171-4D3D-A383-44D1966C8516}"/>
     <cellStyle name="Millares 2 8" xfId="117" xr:uid="{2694A13D-2C03-4FCA-8506-ECA1F7131F60}"/>
+    <cellStyle name="Millares 2 9" xfId="135" xr:uid="{95E8E475-FE90-4EAC-9D3E-ABBEE33F2779}"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="43" xr:uid="{A10052DE-F669-4309-971D-00E93A65D19E}"/>
@@ -1459,13 +1497,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13133E2-69F7-478D-A001-FD6CB4FB0C80}">
-  <dimension ref="A1:DX170"/>
+  <dimension ref="A1:DX171"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="DI145" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="DX171" sqref="DX171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4587,8 +4625,8 @@
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="I9" s="10" t="s">
-        <v>68</v>
+      <c r="I9" s="10">
+        <v>1</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -4776,8 +4814,8 @@
       <c r="BS9" s="4">
         <v>0</v>
       </c>
-      <c r="BT9" s="4">
-        <v>1</v>
+      <c r="BT9" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="BU9" s="10">
         <v>1</v>
@@ -5162,8 +5200,8 @@
       <c r="BS10" s="4">
         <v>0</v>
       </c>
-      <c r="BT10" s="4">
-        <v>1</v>
+      <c r="BT10" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="BU10" s="4">
         <v>1</v>
@@ -5222,8 +5260,8 @@
       <c r="CM10" s="4">
         <v>0</v>
       </c>
-      <c r="CN10" s="4">
-        <v>1</v>
+      <c r="CN10" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="CO10" s="4">
         <v>0</v>
@@ -5359,8 +5397,8 @@
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="I11" s="7">
-        <v>1</v>
+      <c r="I11" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -5548,8 +5586,8 @@
       <c r="BS11" s="4">
         <v>1</v>
       </c>
-      <c r="BT11" s="4">
-        <v>1</v>
+      <c r="BT11" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="BU11" s="4">
         <v>1</v>
@@ -5934,8 +5972,8 @@
       <c r="BS12" s="4">
         <v>1</v>
       </c>
-      <c r="BT12" s="10" t="s">
-        <v>68</v>
+      <c r="BT12" s="10">
+        <v>1</v>
       </c>
       <c r="BU12" s="10" t="s">
         <v>68</v>
@@ -6320,8 +6358,8 @@
       <c r="BS13" s="4">
         <v>1</v>
       </c>
-      <c r="BT13" s="10" t="s">
-        <v>68</v>
+      <c r="BT13" s="10">
+        <v>1</v>
       </c>
       <c r="BU13" s="4">
         <v>4</v>
@@ -6706,8 +6744,8 @@
       <c r="BS14" s="4">
         <v>1</v>
       </c>
-      <c r="BT14" s="10" t="s">
-        <v>68</v>
+      <c r="BT14" s="10">
+        <v>1</v>
       </c>
       <c r="BU14" s="4">
         <v>4</v>
@@ -7092,8 +7130,8 @@
       <c r="BS15" s="4">
         <v>2</v>
       </c>
-      <c r="BT15" s="10" t="s">
-        <v>68</v>
+      <c r="BT15" s="10">
+        <v>1</v>
       </c>
       <c r="BU15" s="4">
         <v>5</v>
@@ -7316,8 +7354,8 @@
       <c r="Q16">
         <v>0</v>
       </c>
-      <c r="R16">
-        <v>2</v>
+      <c r="R16" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -7478,8 +7516,8 @@
       <c r="BS16" s="4">
         <v>2</v>
       </c>
-      <c r="BT16" s="10" t="s">
-        <v>68</v>
+      <c r="BT16" s="10">
+        <v>1</v>
       </c>
       <c r="BU16" s="4">
         <v>5</v>
@@ -8070,8 +8108,8 @@
       <c r="K18" t="s">
         <v>68</v>
       </c>
-      <c r="L18">
-        <v>1</v>
+      <c r="L18" t="s">
+        <v>68</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -8708,8 +8746,8 @@
       <c r="CQ19" s="4">
         <v>1</v>
       </c>
-      <c r="CR19" s="4">
-        <v>1</v>
+      <c r="CR19" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="CS19" s="4">
         <v>1</v>
@@ -11544,8 +11582,8 @@
       <c r="K27" t="s">
         <v>68</v>
       </c>
-      <c r="L27">
-        <v>11</v>
+      <c r="L27" t="s">
+        <v>68</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -11781,8 +11819,8 @@
       <c r="CL27" s="4">
         <v>5</v>
       </c>
-      <c r="CM27" s="4" t="s">
-        <v>68</v>
+      <c r="CM27" s="13">
+        <v>1</v>
       </c>
       <c r="CN27" s="4">
         <v>5</v>
@@ -12167,8 +12205,8 @@
       <c r="CL28" s="4">
         <v>5</v>
       </c>
-      <c r="CM28" s="4" t="s">
-        <v>68</v>
+      <c r="CM28" s="13">
+        <v>1</v>
       </c>
       <c r="CN28" s="4">
         <v>5</v>
@@ -12553,8 +12591,8 @@
       <c r="CL29" s="4">
         <v>5</v>
       </c>
-      <c r="CM29" s="4" t="s">
-        <v>68</v>
+      <c r="CM29" s="13">
+        <v>1</v>
       </c>
       <c r="CN29" s="4">
         <v>8</v>
@@ -12939,7 +12977,7 @@
       <c r="CL30" s="4">
         <v>5</v>
       </c>
-      <c r="CM30" s="4">
+      <c r="CM30" s="13">
         <v>1</v>
       </c>
       <c r="CN30" s="4">
@@ -13325,8 +13363,8 @@
       <c r="CL31" s="4">
         <v>8</v>
       </c>
-      <c r="CM31" s="4">
-        <v>1</v>
+      <c r="CM31" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="CN31" s="4">
         <v>8</v>
@@ -13711,7 +13749,7 @@
       <c r="CL32" s="4">
         <v>8</v>
       </c>
-      <c r="CM32" s="4">
+      <c r="CM32" s="13">
         <v>2</v>
       </c>
       <c r="CN32" s="4">
@@ -14097,7 +14135,7 @@
       <c r="CL33" s="4">
         <v>9</v>
       </c>
-      <c r="CM33" s="4">
+      <c r="CM33" s="13">
         <v>2</v>
       </c>
       <c r="CN33" s="4">
@@ -14483,7 +14521,7 @@
       <c r="CL34" s="4">
         <v>9</v>
       </c>
-      <c r="CM34" s="4">
+      <c r="CM34" s="13">
         <v>4</v>
       </c>
       <c r="CN34" s="4">
@@ -14869,7 +14907,7 @@
       <c r="CL35" s="4">
         <v>11</v>
       </c>
-      <c r="CM35" s="4">
+      <c r="CM35" s="13">
         <v>4</v>
       </c>
       <c r="CN35" s="4">
@@ -15255,7 +15293,7 @@
       <c r="CL36" s="4">
         <v>12</v>
       </c>
-      <c r="CM36" s="4">
+      <c r="CM36" s="13">
         <v>4</v>
       </c>
       <c r="CN36" s="4">
@@ -15641,7 +15679,7 @@
       <c r="CL37" s="4">
         <v>13</v>
       </c>
-      <c r="CM37" s="4">
+      <c r="CM37" s="13">
         <v>4</v>
       </c>
       <c r="CN37" s="4">
@@ -16027,7 +16065,7 @@
       <c r="CL38" s="4">
         <v>18</v>
       </c>
-      <c r="CM38" s="4">
+      <c r="CM38" s="13">
         <v>6</v>
       </c>
       <c r="CN38" s="4">
@@ -16413,7 +16451,7 @@
       <c r="CL39" s="4">
         <v>21</v>
       </c>
-      <c r="CM39" s="4">
+      <c r="CM39" s="13">
         <v>7</v>
       </c>
       <c r="CN39" s="4">
@@ -16799,7 +16837,7 @@
       <c r="CL40" s="4">
         <v>22</v>
       </c>
-      <c r="CM40" s="4">
+      <c r="CM40" s="13">
         <v>7</v>
       </c>
       <c r="CN40" s="4">
@@ -17185,7 +17223,7 @@
       <c r="CL41" s="4">
         <v>23</v>
       </c>
-      <c r="CM41" s="4">
+      <c r="CM41" s="13">
         <v>7</v>
       </c>
       <c r="CN41" s="4">
@@ -17571,7 +17609,7 @@
       <c r="CL42" s="4">
         <v>23</v>
       </c>
-      <c r="CM42" s="4">
+      <c r="CM42" s="13">
         <v>7</v>
       </c>
       <c r="CN42" s="4">
@@ -17957,7 +17995,7 @@
       <c r="CL43" s="4">
         <v>23</v>
       </c>
-      <c r="CM43" s="4">
+      <c r="CM43" s="13">
         <v>7</v>
       </c>
       <c r="CN43" s="4">
@@ -18343,7 +18381,7 @@
       <c r="CL44" s="4">
         <v>23</v>
       </c>
-      <c r="CM44" s="4">
+      <c r="CM44" s="13">
         <v>7</v>
       </c>
       <c r="CN44" s="4">
@@ -18729,7 +18767,7 @@
       <c r="CL45" s="4">
         <v>23</v>
       </c>
-      <c r="CM45" s="4">
+      <c r="CM45" s="13">
         <v>8</v>
       </c>
       <c r="CN45" s="4">
@@ -19115,7 +19153,7 @@
       <c r="CL46" s="4">
         <v>24</v>
       </c>
-      <c r="CM46" s="4">
+      <c r="CM46" s="13">
         <v>9</v>
       </c>
       <c r="CN46" s="4">
@@ -19501,7 +19539,7 @@
       <c r="CL47" s="4">
         <v>24</v>
       </c>
-      <c r="CM47" s="4">
+      <c r="CM47" s="13">
         <v>10</v>
       </c>
       <c r="CN47" s="4">
@@ -19887,7 +19925,7 @@
       <c r="CL48" s="4">
         <v>25</v>
       </c>
-      <c r="CM48" s="4">
+      <c r="CM48" s="13">
         <v>10</v>
       </c>
       <c r="CN48" s="4">
@@ -20273,7 +20311,7 @@
       <c r="CL49" s="4">
         <v>25</v>
       </c>
-      <c r="CM49" s="4">
+      <c r="CM49" s="13">
         <v>11</v>
       </c>
       <c r="CN49" s="4">
@@ -20659,7 +20697,7 @@
       <c r="CL50" s="4">
         <v>25</v>
       </c>
-      <c r="CM50" s="4">
+      <c r="CM50" s="13">
         <v>11</v>
       </c>
       <c r="CN50" s="4">
@@ -20817,8 +20855,8 @@
       <c r="N51">
         <v>22</v>
       </c>
-      <c r="O51" t="s">
-        <v>68</v>
+      <c r="O51">
+        <v>7</v>
       </c>
       <c r="P51">
         <v>2</v>
@@ -21045,7 +21083,7 @@
       <c r="CL51" s="4">
         <v>25</v>
       </c>
-      <c r="CM51" s="4">
+      <c r="CM51" s="13">
         <v>12</v>
       </c>
       <c r="CN51" s="4">
@@ -21203,8 +21241,8 @@
       <c r="N52">
         <v>23</v>
       </c>
-      <c r="O52">
-        <v>14</v>
+      <c r="O52" t="s">
+        <v>68</v>
       </c>
       <c r="P52">
         <v>5</v>
@@ -21431,7 +21469,7 @@
       <c r="CL52" s="4">
         <v>25</v>
       </c>
-      <c r="CM52" s="4">
+      <c r="CM52" s="13">
         <v>12</v>
       </c>
       <c r="CN52" s="4">
@@ -21817,7 +21855,7 @@
       <c r="CL53" s="4">
         <v>25</v>
       </c>
-      <c r="CM53" s="4">
+      <c r="CM53" s="13">
         <v>12</v>
       </c>
       <c r="CN53" s="4">
@@ -22203,7 +22241,7 @@
       <c r="CL54" s="4">
         <v>25</v>
       </c>
-      <c r="CM54" s="4">
+      <c r="CM54" s="13">
         <v>12</v>
       </c>
       <c r="CN54" s="4">
@@ -22589,7 +22627,7 @@
       <c r="CL55" s="4">
         <v>26</v>
       </c>
-      <c r="CM55" s="4">
+      <c r="CM55" s="13">
         <v>12</v>
       </c>
       <c r="CN55" s="4">
@@ -22975,7 +23013,7 @@
       <c r="CL56" s="4">
         <v>27</v>
       </c>
-      <c r="CM56" s="4">
+      <c r="CM56" s="13">
         <v>12</v>
       </c>
       <c r="CN56" s="4">
@@ -23361,7 +23399,7 @@
       <c r="CL57" s="4">
         <v>27</v>
       </c>
-      <c r="CM57" s="4">
+      <c r="CM57" s="13">
         <v>12</v>
       </c>
       <c r="CN57" s="4">
@@ -23747,7 +23785,7 @@
       <c r="CL58" s="4">
         <v>27</v>
       </c>
-      <c r="CM58" s="4">
+      <c r="CM58" s="13">
         <v>13</v>
       </c>
       <c r="CN58" s="4">
@@ -24133,7 +24171,7 @@
       <c r="CL59" s="4">
         <v>27</v>
       </c>
-      <c r="CM59" s="4">
+      <c r="CM59" s="13">
         <v>13</v>
       </c>
       <c r="CN59" s="4">
@@ -24519,7 +24557,7 @@
       <c r="CL60" s="4">
         <v>27</v>
       </c>
-      <c r="CM60" s="4">
+      <c r="CM60" s="13">
         <v>13</v>
       </c>
       <c r="CN60" s="4">
@@ -24600,8 +24638,8 @@
       <c r="DM60" s="4">
         <v>3</v>
       </c>
-      <c r="DN60" s="4">
-        <v>1</v>
+      <c r="DN60" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="DO60" s="4">
         <v>1</v>
@@ -24905,7 +24943,7 @@
       <c r="CL61" s="4">
         <v>27</v>
       </c>
-      <c r="CM61" s="4">
+      <c r="CM61" s="13">
         <v>13</v>
       </c>
       <c r="CN61" s="4">
@@ -24986,8 +25024,8 @@
       <c r="DM61" s="4">
         <v>3</v>
       </c>
-      <c r="DN61" s="4">
-        <v>1</v>
+      <c r="DN61" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="DO61" s="4">
         <v>1</v>
@@ -25291,7 +25329,7 @@
       <c r="CL62" s="4">
         <v>27</v>
       </c>
-      <c r="CM62" s="4">
+      <c r="CM62" s="13">
         <v>13</v>
       </c>
       <c r="CN62" s="4">
@@ -25677,7 +25715,7 @@
       <c r="CL63" s="4">
         <v>27</v>
       </c>
-      <c r="CM63" s="4">
+      <c r="CM63" s="13">
         <v>13</v>
       </c>
       <c r="CN63" s="4">
@@ -26063,7 +26101,7 @@
       <c r="CL64" s="4">
         <v>27</v>
       </c>
-      <c r="CM64" s="4">
+      <c r="CM64" s="13">
         <v>13</v>
       </c>
       <c r="CN64" s="4">
@@ -26449,7 +26487,7 @@
       <c r="CL65" s="4">
         <v>27</v>
       </c>
-      <c r="CM65" s="4">
+      <c r="CM65" s="13">
         <v>13</v>
       </c>
       <c r="CN65" s="4">
@@ -26835,7 +26873,7 @@
       <c r="CL66" s="4">
         <v>27</v>
       </c>
-      <c r="CM66" s="4">
+      <c r="CM66" s="13">
         <v>13</v>
       </c>
       <c r="CN66" s="4">
@@ -27221,7 +27259,7 @@
       <c r="CL67" s="4">
         <v>27</v>
       </c>
-      <c r="CM67" s="4">
+      <c r="CM67" s="13">
         <v>14</v>
       </c>
       <c r="CN67" s="4">
@@ -27607,7 +27645,7 @@
       <c r="CL68" s="4">
         <v>28</v>
       </c>
-      <c r="CM68" s="4">
+      <c r="CM68" s="13">
         <v>14</v>
       </c>
       <c r="CN68" s="4">
@@ -27993,7 +28031,7 @@
       <c r="CL69" s="4">
         <v>29</v>
       </c>
-      <c r="CM69" s="4">
+      <c r="CM69" s="13">
         <v>14</v>
       </c>
       <c r="CN69" s="4">
@@ -28379,7 +28417,7 @@
       <c r="CL70" s="4">
         <v>29</v>
       </c>
-      <c r="CM70" s="4">
+      <c r="CM70" s="13">
         <v>14</v>
       </c>
       <c r="CN70" s="4">
@@ -28765,7 +28803,7 @@
       <c r="CL71" s="4">
         <v>29</v>
       </c>
-      <c r="CM71" s="4">
+      <c r="CM71" s="13">
         <v>14</v>
       </c>
       <c r="CN71" s="4">
@@ -28950,8 +28988,8 @@
       <c r="W72">
         <v>38</v>
       </c>
-      <c r="X72" s="7" t="s">
-        <v>68</v>
+      <c r="X72" s="7">
+        <v>3</v>
       </c>
       <c r="Y72" s="9">
         <v>0</v>
@@ -29151,7 +29189,7 @@
       <c r="CL72" s="4">
         <v>29</v>
       </c>
-      <c r="CM72" s="4">
+      <c r="CM72" s="13">
         <v>14</v>
       </c>
       <c r="CN72" s="4">
@@ -29336,8 +29374,8 @@
       <c r="W73">
         <v>39</v>
       </c>
-      <c r="X73" t="s">
-        <v>68</v>
+      <c r="X73">
+        <v>3</v>
       </c>
       <c r="Y73" s="9">
         <v>0</v>
@@ -29537,7 +29575,7 @@
       <c r="CL73" s="4">
         <v>30</v>
       </c>
-      <c r="CM73" s="4">
+      <c r="CM73" s="13">
         <v>14</v>
       </c>
       <c r="CN73" s="4">
@@ -29923,7 +29961,7 @@
       <c r="CL74" s="4">
         <v>31</v>
       </c>
-      <c r="CM74" s="4">
+      <c r="CM74" s="13">
         <v>14</v>
       </c>
       <c r="CN74" s="4">
@@ -30309,7 +30347,7 @@
       <c r="CL75" s="4">
         <v>31</v>
       </c>
-      <c r="CM75" s="4">
+      <c r="CM75" s="13">
         <v>14</v>
       </c>
       <c r="CN75" s="4">
@@ -30695,7 +30733,7 @@
       <c r="CL76" s="4">
         <v>33</v>
       </c>
-      <c r="CM76" s="4">
+      <c r="CM76" s="13">
         <v>14</v>
       </c>
       <c r="CN76" s="4">
@@ -31081,7 +31119,7 @@
       <c r="CL77" s="4">
         <v>33</v>
       </c>
-      <c r="CM77" s="4">
+      <c r="CM77" s="13">
         <v>14</v>
       </c>
       <c r="CN77" s="4">
@@ -31467,7 +31505,7 @@
       <c r="CL78" s="4">
         <v>33</v>
       </c>
-      <c r="CM78" s="4">
+      <c r="CM78" s="13">
         <v>14</v>
       </c>
       <c r="CN78" s="4">
@@ -31853,7 +31891,7 @@
       <c r="CL79" s="4">
         <v>33</v>
       </c>
-      <c r="CM79" s="4">
+      <c r="CM79" s="13">
         <v>14</v>
       </c>
       <c r="CN79" s="4">
@@ -32239,7 +32277,7 @@
       <c r="CL80" s="4">
         <v>33</v>
       </c>
-      <c r="CM80" s="4">
+      <c r="CM80" s="13">
         <v>17</v>
       </c>
       <c r="CN80" s="4">
@@ -32625,7 +32663,7 @@
       <c r="CL81" s="4">
         <v>34</v>
       </c>
-      <c r="CM81" s="4">
+      <c r="CM81" s="13">
         <v>20</v>
       </c>
       <c r="CN81" s="4">
@@ -33011,7 +33049,7 @@
       <c r="CL82" s="4">
         <v>35</v>
       </c>
-      <c r="CM82" s="4">
+      <c r="CM82" s="13">
         <v>22</v>
       </c>
       <c r="CN82" s="4">
@@ -33397,7 +33435,7 @@
       <c r="CL83" s="4">
         <v>36</v>
       </c>
-      <c r="CM83" s="4">
+      <c r="CM83" s="13">
         <v>25</v>
       </c>
       <c r="CN83" s="4">
@@ -33783,7 +33821,7 @@
       <c r="CL84" s="4">
         <v>37</v>
       </c>
-      <c r="CM84" s="4">
+      <c r="CM84" s="13">
         <v>25</v>
       </c>
       <c r="CN84" s="4">
@@ -34169,7 +34207,7 @@
       <c r="CL85" s="4">
         <v>42</v>
       </c>
-      <c r="CM85" s="4">
+      <c r="CM85" s="13">
         <v>26</v>
       </c>
       <c r="CN85" s="4">
@@ -34318,8 +34356,8 @@
       <c r="K86">
         <v>92</v>
       </c>
-      <c r="L86">
-        <v>163</v>
+      <c r="L86" t="s">
+        <v>68</v>
       </c>
       <c r="M86">
         <v>196</v>
@@ -34555,7 +34593,7 @@
       <c r="CL86" s="4">
         <v>45</v>
       </c>
-      <c r="CM86" s="4">
+      <c r="CM86" s="13">
         <v>26</v>
       </c>
       <c r="CN86" s="4">
@@ -34941,7 +34979,7 @@
       <c r="CL87" s="4">
         <v>45</v>
       </c>
-      <c r="CM87" s="4">
+      <c r="CM87" s="13">
         <v>28</v>
       </c>
       <c r="CN87" s="4">
@@ -35090,8 +35128,8 @@
       <c r="K88">
         <v>102</v>
       </c>
-      <c r="L88">
-        <v>253</v>
+      <c r="L88" t="s">
+        <v>68</v>
       </c>
       <c r="M88">
         <v>226</v>
@@ -35327,7 +35365,7 @@
       <c r="CL88" s="4">
         <v>46</v>
       </c>
-      <c r="CM88" s="4">
+      <c r="CM88" s="13">
         <v>31</v>
       </c>
       <c r="CN88" s="4">
@@ -35713,7 +35751,7 @@
       <c r="CL89" s="4">
         <v>49</v>
       </c>
-      <c r="CM89" s="4">
+      <c r="CM89" s="13">
         <v>32</v>
       </c>
       <c r="CN89" s="4">
@@ -36099,7 +36137,7 @@
       <c r="CL90" s="4">
         <v>50</v>
       </c>
-      <c r="CM90" s="4">
+      <c r="CM90" s="13">
         <v>34</v>
       </c>
       <c r="CN90" s="4">
@@ -36485,7 +36523,7 @@
       <c r="CL91" s="4">
         <v>55</v>
       </c>
-      <c r="CM91" s="4">
+      <c r="CM91" s="13">
         <v>39</v>
       </c>
       <c r="CN91" s="4">
@@ -36871,7 +36909,7 @@
       <c r="CL92" s="4">
         <v>59</v>
       </c>
-      <c r="CM92" s="4">
+      <c r="CM92" s="13">
         <v>42</v>
       </c>
       <c r="CN92" s="4">
@@ -37257,7 +37295,7 @@
       <c r="CL93" s="4">
         <v>60</v>
       </c>
-      <c r="CM93" s="4">
+      <c r="CM93" s="13">
         <v>45</v>
       </c>
       <c r="CN93" s="4">
@@ -37643,7 +37681,7 @@
       <c r="CL94" s="4">
         <v>62</v>
       </c>
-      <c r="CM94" s="4">
+      <c r="CM94" s="13">
         <v>47</v>
       </c>
       <c r="CN94" s="4">
@@ -38029,7 +38067,7 @@
       <c r="CL95" s="4">
         <v>62</v>
       </c>
-      <c r="CM95" s="4">
+      <c r="CM95" s="13">
         <v>48</v>
       </c>
       <c r="CN95" s="4">
@@ -38415,7 +38453,7 @@
       <c r="CL96" s="4">
         <v>63</v>
       </c>
-      <c r="CM96" s="4">
+      <c r="CM96" s="13">
         <v>54</v>
       </c>
       <c r="CN96" s="4">
@@ -38801,7 +38839,7 @@
       <c r="CL97" s="4">
         <v>63</v>
       </c>
-      <c r="CM97" s="4">
+      <c r="CM97" s="13">
         <v>58</v>
       </c>
       <c r="CN97" s="4">
@@ -39187,7 +39225,7 @@
       <c r="CL98" s="4">
         <v>63</v>
       </c>
-      <c r="CM98" s="4">
+      <c r="CM98" s="13">
         <v>61</v>
       </c>
       <c r="CN98" s="4">
@@ -39573,7 +39611,7 @@
       <c r="CL99" s="4">
         <v>65</v>
       </c>
-      <c r="CM99" s="4">
+      <c r="CM99" s="13">
         <v>62</v>
       </c>
       <c r="CN99" s="4">
@@ -39959,7 +39997,7 @@
       <c r="CL100" s="4">
         <v>67</v>
       </c>
-      <c r="CM100" s="4">
+      <c r="CM100" s="13">
         <v>63</v>
       </c>
       <c r="CN100" s="4">
@@ -40345,7 +40383,7 @@
       <c r="CL101" s="4">
         <v>74</v>
       </c>
-      <c r="CM101" s="4">
+      <c r="CM101" s="13">
         <v>68</v>
       </c>
       <c r="CN101" s="4">
@@ -40731,7 +40769,7 @@
       <c r="CL102" s="4">
         <v>74</v>
       </c>
-      <c r="CM102" s="4">
+      <c r="CM102" s="13">
         <v>68</v>
       </c>
       <c r="CN102" s="4">
@@ -41117,7 +41155,7 @@
       <c r="CL103" s="4">
         <v>74</v>
       </c>
-      <c r="CM103" s="4">
+      <c r="CM103" s="13">
         <v>72</v>
       </c>
       <c r="CN103" s="4">
@@ -41503,7 +41541,7 @@
       <c r="CL104" s="4">
         <v>76</v>
       </c>
-      <c r="CM104" s="4">
+      <c r="CM104" s="13">
         <v>72</v>
       </c>
       <c r="CN104" s="4">
@@ -41889,7 +41927,7 @@
       <c r="CL105" s="4">
         <v>78</v>
       </c>
-      <c r="CM105" s="4">
+      <c r="CM105" s="13">
         <v>73</v>
       </c>
       <c r="CN105" s="4">
@@ -42275,7 +42313,7 @@
       <c r="CL106" s="4">
         <v>85</v>
       </c>
-      <c r="CM106" s="4">
+      <c r="CM106" s="13">
         <v>74</v>
       </c>
       <c r="CN106" s="4">
@@ -42661,7 +42699,7 @@
       <c r="CL107" s="4">
         <v>89</v>
       </c>
-      <c r="CM107" s="4">
+      <c r="CM107" s="13">
         <v>77</v>
       </c>
       <c r="CN107" s="4">
@@ -43047,7 +43085,7 @@
       <c r="CL108" s="4">
         <v>90</v>
       </c>
-      <c r="CM108" s="4">
+      <c r="CM108" s="13">
         <v>83</v>
       </c>
       <c r="CN108" s="4">
@@ -43433,8 +43471,8 @@
       <c r="CL109" s="4">
         <v>92</v>
       </c>
-      <c r="CM109" s="4">
-        <v>83</v>
+      <c r="CM109" s="13">
+        <v>84</v>
       </c>
       <c r="CN109" s="4">
         <v>23</v>
@@ -43819,8 +43857,8 @@
       <c r="CL110" s="4">
         <v>92</v>
       </c>
-      <c r="CM110" s="4">
-        <v>90</v>
+      <c r="CM110" s="13">
+        <v>91</v>
       </c>
       <c r="CN110" s="4">
         <v>24</v>
@@ -44205,8 +44243,8 @@
       <c r="CL111" s="4">
         <v>94</v>
       </c>
-      <c r="CM111" s="4">
-        <v>97</v>
+      <c r="CM111" s="13">
+        <v>98</v>
       </c>
       <c r="CN111" s="4">
         <v>26</v>
@@ -44591,8 +44629,8 @@
       <c r="CL112" s="4">
         <v>100</v>
       </c>
-      <c r="CM112" s="4">
-        <v>99</v>
+      <c r="CM112" s="13">
+        <v>100</v>
       </c>
       <c r="CN112" s="4">
         <v>26</v>
@@ -44977,8 +45015,8 @@
       <c r="CL113" s="4">
         <v>105</v>
       </c>
-      <c r="CM113" s="4">
-        <v>110</v>
+      <c r="CM113" s="13">
+        <v>111</v>
       </c>
       <c r="CN113" s="4">
         <v>27</v>
@@ -45363,8 +45401,8 @@
       <c r="CL114" s="4">
         <v>108</v>
       </c>
-      <c r="CM114" s="4">
-        <v>117</v>
+      <c r="CM114" s="13">
+        <v>118</v>
       </c>
       <c r="CN114" s="4">
         <v>28</v>
@@ -45749,8 +45787,8 @@
       <c r="CL115" s="4">
         <v>112</v>
       </c>
-      <c r="CM115" s="4">
-        <v>120</v>
+      <c r="CM115" s="13">
+        <v>121</v>
       </c>
       <c r="CN115" s="4">
         <v>29</v>
@@ -46135,8 +46173,8 @@
       <c r="CL116" s="4">
         <v>112</v>
       </c>
-      <c r="CM116" s="4">
-        <v>128</v>
+      <c r="CM116" s="13">
+        <v>129</v>
       </c>
       <c r="CN116" s="4">
         <v>29</v>
@@ -46521,8 +46559,8 @@
       <c r="CL117" s="4">
         <v>112</v>
       </c>
-      <c r="CM117" s="4">
-        <v>134</v>
+      <c r="CM117" s="13">
+        <v>135</v>
       </c>
       <c r="CN117" s="4">
         <v>30</v>
@@ -46907,8 +46945,8 @@
       <c r="CL118" s="4">
         <v>121</v>
       </c>
-      <c r="CM118" s="4">
-        <v>139</v>
+      <c r="CM118" s="13">
+        <v>140</v>
       </c>
       <c r="CN118" s="4">
         <v>32</v>
@@ -47293,8 +47331,8 @@
       <c r="CL119" s="4">
         <v>124</v>
       </c>
-      <c r="CM119" s="4">
-        <v>142</v>
+      <c r="CM119" s="13">
+        <v>143</v>
       </c>
       <c r="CN119" s="4">
         <v>34</v>
@@ -47661,8 +47699,8 @@
       <c r="CF120" s="4">
         <v>61</v>
       </c>
-      <c r="CG120" s="4">
-        <v>42</v>
+      <c r="CG120" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="CH120" s="4">
         <v>54</v>
@@ -47679,8 +47717,8 @@
       <c r="CL120" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="CM120" s="4">
-        <v>151</v>
+      <c r="CM120" s="13">
+        <v>152</v>
       </c>
       <c r="CN120" s="4">
         <v>34</v>
@@ -48065,8 +48103,8 @@
       <c r="CL121" s="4">
         <v>142</v>
       </c>
-      <c r="CM121" s="4">
-        <v>158</v>
+      <c r="CM121" s="13">
+        <v>159</v>
       </c>
       <c r="CN121" s="4">
         <v>34</v>
@@ -48451,8 +48489,8 @@
       <c r="CL122" s="4">
         <v>146</v>
       </c>
-      <c r="CM122" s="4">
-        <v>159</v>
+      <c r="CM122" s="13">
+        <v>160</v>
       </c>
       <c r="CN122" s="4">
         <v>34</v>
@@ -48837,8 +48875,8 @@
       <c r="CL123" s="4">
         <v>148</v>
       </c>
-      <c r="CM123" s="4">
-        <v>160</v>
+      <c r="CM123" s="13">
+        <v>161</v>
       </c>
       <c r="CN123" s="4">
         <v>35</v>
@@ -49223,8 +49261,8 @@
       <c r="CL124" s="4">
         <v>149</v>
       </c>
-      <c r="CM124" s="4">
-        <v>160</v>
+      <c r="CM124" s="13">
+        <v>161</v>
       </c>
       <c r="CN124" s="4">
         <v>36</v>
@@ -49609,8 +49647,8 @@
       <c r="CL125" s="4">
         <v>155</v>
       </c>
-      <c r="CM125" s="4">
-        <v>167</v>
+      <c r="CM125" s="13">
+        <v>168</v>
       </c>
       <c r="CN125" s="4">
         <v>38</v>
@@ -49995,8 +50033,8 @@
       <c r="CL126" s="4">
         <v>158</v>
       </c>
-      <c r="CM126" s="4">
-        <v>167</v>
+      <c r="CM126" s="13">
+        <v>168</v>
       </c>
       <c r="CN126" s="4">
         <v>40</v>
@@ -50381,8 +50419,8 @@
       <c r="CL127" s="4">
         <v>187</v>
       </c>
-      <c r="CM127" s="4">
-        <v>175</v>
+      <c r="CM127" s="13">
+        <v>176</v>
       </c>
       <c r="CN127" s="4">
         <v>43</v>
@@ -50767,8 +50805,8 @@
       <c r="CL128" s="4">
         <v>201</v>
       </c>
-      <c r="CM128" s="4">
-        <v>194</v>
+      <c r="CM128" s="13">
+        <v>195</v>
       </c>
       <c r="CN128" s="4">
         <v>45</v>
@@ -51153,8 +51191,8 @@
       <c r="CL129" s="4">
         <v>206</v>
       </c>
-      <c r="CM129" s="4">
-        <v>197</v>
+      <c r="CM129" s="13">
+        <v>198</v>
       </c>
       <c r="CN129" s="4">
         <v>45</v>
@@ -51539,8 +51577,8 @@
       <c r="CL130" s="4">
         <v>209</v>
       </c>
-      <c r="CM130" s="4">
-        <v>208</v>
+      <c r="CM130" s="13">
+        <v>209</v>
       </c>
       <c r="CN130" s="4">
         <v>54</v>
@@ -51859,8 +51897,8 @@
       <c r="BP131">
         <v>371</v>
       </c>
-      <c r="BQ131">
-        <v>924</v>
+      <c r="BQ131" t="s">
+        <v>68</v>
       </c>
       <c r="BR131" s="10" t="s">
         <v>68</v>
@@ -51925,8 +51963,8 @@
       <c r="CL131" s="4">
         <v>211</v>
       </c>
-      <c r="CM131" s="4">
-        <v>211</v>
+      <c r="CM131" s="13">
+        <v>212</v>
       </c>
       <c r="CN131" s="4">
         <v>56</v>
@@ -52311,8 +52349,8 @@
       <c r="CL132" s="4">
         <v>220</v>
       </c>
-      <c r="CM132" s="4">
-        <v>219</v>
+      <c r="CM132" s="13">
+        <v>220</v>
       </c>
       <c r="CN132" s="4">
         <v>63</v>
@@ -52697,8 +52735,8 @@
       <c r="CL133" s="4">
         <v>228</v>
       </c>
-      <c r="CM133" s="4">
-        <v>221</v>
+      <c r="CM133" s="13">
+        <v>222</v>
       </c>
       <c r="CN133" s="4">
         <v>66</v>
@@ -53083,8 +53121,8 @@
       <c r="CL134" s="4">
         <v>260</v>
       </c>
-      <c r="CM134" s="4">
-        <v>231</v>
+      <c r="CM134" s="13">
+        <v>232</v>
       </c>
       <c r="CN134" s="4">
         <v>73</v>
@@ -53469,8 +53507,8 @@
       <c r="CL135" s="4">
         <v>270</v>
       </c>
-      <c r="CM135" s="4">
-        <v>243</v>
+      <c r="CM135" s="13">
+        <v>244</v>
       </c>
       <c r="CN135" s="4">
         <v>80</v>
@@ -53855,8 +53893,8 @@
       <c r="CL136" s="4">
         <v>286</v>
       </c>
-      <c r="CM136" s="4">
-        <v>252</v>
+      <c r="CM136" s="13">
+        <v>253</v>
       </c>
       <c r="CN136" s="4">
         <v>94</v>
@@ -54241,8 +54279,8 @@
       <c r="CL137" s="4">
         <v>288</v>
       </c>
-      <c r="CM137" s="4">
-        <v>264</v>
+      <c r="CM137" s="13">
+        <v>265</v>
       </c>
       <c r="CN137" s="4">
         <v>104</v>
@@ -54627,8 +54665,8 @@
       <c r="CL138" s="4">
         <v>303</v>
       </c>
-      <c r="CM138" s="4">
-        <v>275</v>
+      <c r="CM138" s="13">
+        <v>276</v>
       </c>
       <c r="CN138" s="4">
         <v>117</v>
@@ -55013,8 +55051,8 @@
       <c r="CL139" s="4">
         <v>312</v>
       </c>
-      <c r="CM139" s="4">
-        <v>275</v>
+      <c r="CM139" s="13">
+        <v>276</v>
       </c>
       <c r="CN139" s="4">
         <v>167</v>
@@ -55399,8 +55437,8 @@
       <c r="CL140" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="CM140" s="4">
-        <v>287</v>
+      <c r="CM140" s="13">
+        <v>288</v>
       </c>
       <c r="CN140" s="4">
         <v>176</v>
@@ -55785,8 +55823,8 @@
       <c r="CL141" s="4">
         <v>350</v>
       </c>
-      <c r="CM141" s="4">
-        <v>302</v>
+      <c r="CM141" s="13">
+        <v>303</v>
       </c>
       <c r="CN141" s="4">
         <v>183</v>
@@ -56171,8 +56209,8 @@
       <c r="CL142" s="4">
         <v>370</v>
       </c>
-      <c r="CM142" s="4">
-        <v>323</v>
+      <c r="CM142" s="13">
+        <v>324</v>
       </c>
       <c r="CN142" s="4">
         <v>189</v>
@@ -56500,8 +56538,8 @@
       <c r="BS143" s="4">
         <v>818</v>
       </c>
-      <c r="BT143" s="10">
-        <v>314</v>
+      <c r="BT143" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="BU143" s="4">
         <v>497</v>
@@ -56557,8 +56595,8 @@
       <c r="CL143" s="4">
         <v>373</v>
       </c>
-      <c r="CM143" s="4">
-        <v>325</v>
+      <c r="CM143" s="13">
+        <v>326</v>
       </c>
       <c r="CN143" s="4">
         <v>200</v>
@@ -56886,8 +56924,8 @@
       <c r="BS144" s="4">
         <v>858</v>
       </c>
-      <c r="BT144" s="4">
-        <v>367</v>
+      <c r="BT144" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="BU144" s="4">
         <v>516</v>
@@ -56943,8 +56981,8 @@
       <c r="CL144" s="4">
         <v>386</v>
       </c>
-      <c r="CM144" s="4">
-        <v>334</v>
+      <c r="CM144" s="13">
+        <v>335</v>
       </c>
       <c r="CN144" s="4">
         <v>212</v>
@@ -57329,8 +57367,8 @@
       <c r="CL145" s="4">
         <v>393</v>
       </c>
-      <c r="CM145" s="4">
-        <v>343</v>
+      <c r="CM145" s="13">
+        <v>344</v>
       </c>
       <c r="CN145" s="4">
         <v>230</v>
@@ -57715,8 +57753,8 @@
       <c r="CL146" s="4">
         <v>416</v>
       </c>
-      <c r="CM146" s="4">
-        <v>354</v>
+      <c r="CM146" s="13">
+        <v>355</v>
       </c>
       <c r="CN146" s="4">
         <v>252</v>
@@ -58101,8 +58139,8 @@
       <c r="CL147" s="4">
         <v>440</v>
       </c>
-      <c r="CM147" s="4">
-        <v>373</v>
+      <c r="CM147" s="13">
+        <v>374</v>
       </c>
       <c r="CN147" s="4">
         <v>269</v>
@@ -58487,8 +58525,8 @@
       <c r="CL148" s="4">
         <v>497</v>
       </c>
-      <c r="CM148" s="4">
-        <v>407</v>
+      <c r="CM148" s="13">
+        <v>408</v>
       </c>
       <c r="CN148" s="4">
         <v>298</v>
@@ -58873,8 +58911,8 @@
       <c r="CL149" s="4">
         <v>508</v>
       </c>
-      <c r="CM149" s="4">
-        <v>423</v>
+      <c r="CM149" s="13">
+        <v>424</v>
       </c>
       <c r="CN149" s="4">
         <v>335</v>
@@ -59259,8 +59297,8 @@
       <c r="CL150" s="4">
         <v>540</v>
       </c>
-      <c r="CM150" s="4" t="s">
-        <v>68</v>
+      <c r="CM150" s="13">
+        <v>465</v>
       </c>
       <c r="CN150" s="4">
         <v>380</v>
@@ -59645,8 +59683,8 @@
       <c r="CL151" s="4">
         <v>576</v>
       </c>
-      <c r="CM151" s="4" t="s">
-        <v>68</v>
+      <c r="CM151" s="13">
+        <v>487</v>
       </c>
       <c r="CN151" s="4">
         <v>403</v>
@@ -60031,8 +60069,8 @@
       <c r="CL152" s="4">
         <v>591</v>
       </c>
-      <c r="CM152" s="4">
-        <v>499</v>
+      <c r="CM152" s="13">
+        <v>500</v>
       </c>
       <c r="CN152" s="4">
         <v>427</v>
@@ -60417,8 +60455,8 @@
       <c r="CL153" s="4">
         <v>603</v>
       </c>
-      <c r="CM153" s="4">
-        <v>507</v>
+      <c r="CM153" s="13">
+        <v>508</v>
       </c>
       <c r="CN153" s="4">
         <v>448</v>
@@ -60803,8 +60841,8 @@
       <c r="CL154" s="4">
         <v>621</v>
       </c>
-      <c r="CM154" s="4">
-        <v>521</v>
+      <c r="CM154" s="13">
+        <v>522</v>
       </c>
       <c r="CN154" s="4">
         <v>471</v>
@@ -61189,8 +61227,8 @@
       <c r="CL155" s="4">
         <v>654</v>
       </c>
-      <c r="CM155" s="4">
-        <v>547</v>
+      <c r="CM155" s="13">
+        <v>548</v>
       </c>
       <c r="CN155" s="4">
         <v>476</v>
@@ -61575,8 +61613,8 @@
       <c r="CL156" s="4">
         <v>668</v>
       </c>
-      <c r="CM156" s="4">
-        <v>580</v>
+      <c r="CM156" s="13">
+        <v>582</v>
       </c>
       <c r="CN156" s="4">
         <v>552</v>
@@ -61961,8 +61999,8 @@
       <c r="CL157" s="4">
         <v>685</v>
       </c>
-      <c r="CM157" s="4">
-        <v>608</v>
+      <c r="CM157" s="13">
+        <v>610</v>
       </c>
       <c r="CN157" s="4">
         <v>566</v>
@@ -62347,8 +62385,8 @@
       <c r="CL158" s="4">
         <v>697</v>
       </c>
-      <c r="CM158" s="4">
-        <v>637</v>
+      <c r="CM158" s="13">
+        <v>639</v>
       </c>
       <c r="CN158" s="4">
         <v>584</v>
@@ -62733,8 +62771,8 @@
       <c r="CL159" s="4">
         <v>715</v>
       </c>
-      <c r="CM159" s="4">
-        <v>670</v>
+      <c r="CM159" s="13">
+        <v>672</v>
       </c>
       <c r="CN159" s="4">
         <v>603</v>
@@ -63119,7 +63157,7 @@
       <c r="CL160" s="4">
         <v>755</v>
       </c>
-      <c r="CM160" s="4">
+      <c r="CM160" s="13">
         <v>722</v>
       </c>
       <c r="CN160" s="4">
@@ -63505,7 +63543,7 @@
       <c r="CL161" s="4">
         <v>805</v>
       </c>
-      <c r="CM161" s="4">
+      <c r="CM161" s="13">
         <v>748</v>
       </c>
       <c r="CN161" s="4">
@@ -63891,7 +63929,7 @@
       <c r="CL162" s="4">
         <v>827</v>
       </c>
-      <c r="CM162" s="4">
+      <c r="CM162" s="13">
         <v>762</v>
       </c>
       <c r="CN162" s="4">
@@ -64277,7 +64315,7 @@
       <c r="CL163" s="4">
         <v>853</v>
       </c>
-      <c r="CM163" s="4">
+      <c r="CM163" s="13">
         <v>798</v>
       </c>
       <c r="CN163" s="4">
@@ -64663,8 +64701,8 @@
       <c r="CL164" s="4">
         <v>896</v>
       </c>
-      <c r="CM164" s="4">
-        <v>869</v>
+      <c r="CM164" s="13">
+        <v>867</v>
       </c>
       <c r="CN164" s="4">
         <v>874</v>
@@ -65049,7 +65087,7 @@
       <c r="CL165" s="4">
         <v>948</v>
       </c>
-      <c r="CM165" s="4">
+      <c r="CM165" s="13">
         <v>895</v>
       </c>
       <c r="CN165" s="4">
@@ -65435,7 +65473,7 @@
       <c r="CL166" s="4">
         <v>963</v>
       </c>
-      <c r="CM166" s="4">
+      <c r="CM166" s="13">
         <v>926</v>
       </c>
       <c r="CN166" s="4">
@@ -65821,7 +65859,7 @@
       <c r="CL167" s="4">
         <v>1009</v>
       </c>
-      <c r="CM167" s="4">
+      <c r="CM167" s="13">
         <v>957</v>
       </c>
       <c r="CN167" s="4">
@@ -66207,7 +66245,7 @@
       <c r="CL168" s="4">
         <v>1084</v>
       </c>
-      <c r="CM168" s="4">
+      <c r="CM168" s="13">
         <v>1011</v>
       </c>
       <c r="CN168" s="4">
@@ -66593,7 +66631,7 @@
       <c r="CL169" s="4">
         <v>1183</v>
       </c>
-      <c r="CM169" s="4">
+      <c r="CM169" s="13">
         <v>1114</v>
       </c>
       <c r="CN169" s="4">
@@ -66979,7 +67017,7 @@
       <c r="CL170" s="4">
         <v>1201</v>
       </c>
-      <c r="CM170" s="4">
+      <c r="CM170" s="13">
         <v>1149</v>
       </c>
       <c r="CN170" s="4">
@@ -67092,6 +67130,392 @@
       </c>
       <c r="DX170">
         <v>6959</v>
+      </c>
+    </row>
+    <row r="171" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>44065</v>
+      </c>
+      <c r="B171">
+        <v>533103</v>
+      </c>
+      <c r="C171">
+        <v>2681</v>
+      </c>
+      <c r="D171">
+        <v>69195</v>
+      </c>
+      <c r="E171">
+        <v>62571</v>
+      </c>
+      <c r="F171">
+        <v>186041</v>
+      </c>
+      <c r="G171">
+        <v>23344</v>
+      </c>
+      <c r="H171">
+        <v>2688</v>
+      </c>
+      <c r="I171">
+        <v>2232</v>
+      </c>
+      <c r="J171">
+        <v>4716</v>
+      </c>
+      <c r="K171">
+        <v>3993</v>
+      </c>
+      <c r="L171">
+        <v>7777</v>
+      </c>
+      <c r="M171">
+        <v>3594</v>
+      </c>
+      <c r="N171">
+        <v>16896</v>
+      </c>
+      <c r="O171">
+        <v>18588</v>
+      </c>
+      <c r="P171">
+        <v>4320</v>
+      </c>
+      <c r="Q171">
+        <v>3124</v>
+      </c>
+      <c r="R171">
+        <v>11149</v>
+      </c>
+      <c r="S171">
+        <v>5581</v>
+      </c>
+      <c r="T171">
+        <v>12554</v>
+      </c>
+      <c r="U171">
+        <v>8793</v>
+      </c>
+      <c r="V171">
+        <v>2369</v>
+      </c>
+      <c r="W171">
+        <v>823</v>
+      </c>
+      <c r="X171">
+        <v>4407</v>
+      </c>
+      <c r="Y171">
+        <v>12818</v>
+      </c>
+      <c r="Z171">
+        <v>10246</v>
+      </c>
+      <c r="AA171">
+        <v>5344</v>
+      </c>
+      <c r="AB171">
+        <v>42619</v>
+      </c>
+      <c r="AC171">
+        <v>835</v>
+      </c>
+      <c r="AD171">
+        <v>123</v>
+      </c>
+      <c r="AE171">
+        <v>201</v>
+      </c>
+      <c r="AF171">
+        <v>438</v>
+      </c>
+      <c r="AG171">
+        <v>28</v>
+      </c>
+      <c r="AH171">
+        <v>21</v>
+      </c>
+      <c r="AI171">
+        <v>218</v>
+      </c>
+      <c r="AJ171">
+        <v>1935</v>
+      </c>
+      <c r="AK171">
+        <v>2227</v>
+      </c>
+      <c r="AL171">
+        <v>35266</v>
+      </c>
+      <c r="AM171">
+        <v>5822</v>
+      </c>
+      <c r="AN171">
+        <v>2368</v>
+      </c>
+      <c r="AO171">
+        <v>33564</v>
+      </c>
+      <c r="AP171">
+        <v>802</v>
+      </c>
+      <c r="AQ171">
+        <v>19220</v>
+      </c>
+      <c r="AR171">
+        <v>1405</v>
+      </c>
+      <c r="AS171">
+        <v>6131</v>
+      </c>
+      <c r="AT171">
+        <v>1380</v>
+      </c>
+      <c r="AU171">
+        <v>1534</v>
+      </c>
+      <c r="AV171">
+        <v>3019</v>
+      </c>
+      <c r="AW171">
+        <v>1411</v>
+      </c>
+      <c r="AX171">
+        <v>925</v>
+      </c>
+      <c r="AY171">
+        <v>2449</v>
+      </c>
+      <c r="AZ171">
+        <v>2561</v>
+      </c>
+      <c r="BA171">
+        <v>39720</v>
+      </c>
+      <c r="BB171">
+        <v>10856</v>
+      </c>
+      <c r="BC171">
+        <v>1769</v>
+      </c>
+      <c r="BD171">
+        <v>6616</v>
+      </c>
+      <c r="BE171">
+        <v>2834</v>
+      </c>
+      <c r="BF171">
+        <v>274</v>
+      </c>
+      <c r="BG171">
+        <v>1364</v>
+      </c>
+      <c r="BH171">
+        <v>2504</v>
+      </c>
+      <c r="BI171">
+        <v>725</v>
+      </c>
+      <c r="BJ171">
+        <v>1918</v>
+      </c>
+      <c r="BK171">
+        <v>7550</v>
+      </c>
+      <c r="BL171">
+        <v>7379</v>
+      </c>
+      <c r="BM171">
+        <v>7027</v>
+      </c>
+      <c r="BN171">
+        <v>13492</v>
+      </c>
+      <c r="BO171">
+        <v>1840</v>
+      </c>
+      <c r="BP171">
+        <v>759</v>
+      </c>
+      <c r="BQ171">
+        <v>5630</v>
+      </c>
+      <c r="BR171">
+        <v>4622</v>
+      </c>
+      <c r="BS171" s="4">
+        <v>5240</v>
+      </c>
+      <c r="BT171" s="4">
+        <v>1179</v>
+      </c>
+      <c r="BU171" s="4">
+        <v>1317</v>
+      </c>
+      <c r="BV171" s="4">
+        <v>2083</v>
+      </c>
+      <c r="BW171" s="4">
+        <v>2379</v>
+      </c>
+      <c r="BX171" s="4">
+        <v>609</v>
+      </c>
+      <c r="BY171" s="4">
+        <v>3739</v>
+      </c>
+      <c r="BZ171" s="4">
+        <v>2143</v>
+      </c>
+      <c r="CA171" s="4">
+        <v>1005</v>
+      </c>
+      <c r="CB171" s="4">
+        <v>606</v>
+      </c>
+      <c r="CC171" s="4">
+        <v>1761</v>
+      </c>
+      <c r="CD171" s="4">
+        <v>1724</v>
+      </c>
+      <c r="CE171" s="4">
+        <v>886</v>
+      </c>
+      <c r="CF171" s="4">
+        <v>744</v>
+      </c>
+      <c r="CG171" s="4">
+        <v>3929</v>
+      </c>
+      <c r="CH171" s="4">
+        <v>1013</v>
+      </c>
+      <c r="CI171" s="4">
+        <v>1025</v>
+      </c>
+      <c r="CJ171" s="4">
+        <v>1045</v>
+      </c>
+      <c r="CK171" s="4">
+        <v>1340</v>
+      </c>
+      <c r="CL171" s="4">
+        <v>1214</v>
+      </c>
+      <c r="CM171" s="4">
+        <v>1181</v>
+      </c>
+      <c r="CN171" s="4">
+        <v>991</v>
+      </c>
+      <c r="CO171" s="4">
+        <v>978</v>
+      </c>
+      <c r="CP171" s="4">
+        <v>1028</v>
+      </c>
+      <c r="CQ171" s="4">
+        <v>507</v>
+      </c>
+      <c r="CR171" s="4">
+        <v>2803</v>
+      </c>
+      <c r="CS171" s="4">
+        <v>810</v>
+      </c>
+      <c r="CT171" s="4">
+        <v>734</v>
+      </c>
+      <c r="CU171" s="4">
+        <v>646</v>
+      </c>
+      <c r="CV171" s="4">
+        <v>1089</v>
+      </c>
+      <c r="CW171" s="4">
+        <v>980</v>
+      </c>
+      <c r="CX171" s="4">
+        <v>563</v>
+      </c>
+      <c r="CY171" s="4">
+        <v>675</v>
+      </c>
+      <c r="CZ171" s="4">
+        <v>728</v>
+      </c>
+      <c r="DA171" s="4">
+        <v>1028</v>
+      </c>
+      <c r="DB171" s="4">
+        <v>838</v>
+      </c>
+      <c r="DC171" s="4">
+        <v>943</v>
+      </c>
+      <c r="DD171" s="4">
+        <v>756</v>
+      </c>
+      <c r="DE171" s="4">
+        <v>309</v>
+      </c>
+      <c r="DF171" s="4">
+        <v>324</v>
+      </c>
+      <c r="DG171" s="4">
+        <v>626</v>
+      </c>
+      <c r="DH171" s="4">
+        <v>518</v>
+      </c>
+      <c r="DI171" s="4">
+        <v>386</v>
+      </c>
+      <c r="DJ171" s="4">
+        <v>523</v>
+      </c>
+      <c r="DK171" s="4">
+        <v>305</v>
+      </c>
+      <c r="DL171" s="4">
+        <v>516</v>
+      </c>
+      <c r="DM171" s="4">
+        <v>693</v>
+      </c>
+      <c r="DN171" s="4">
+        <v>501</v>
+      </c>
+      <c r="DO171" s="4">
+        <v>471</v>
+      </c>
+      <c r="DP171" s="4">
+        <v>344</v>
+      </c>
+      <c r="DQ171" s="4">
+        <v>508</v>
+      </c>
+      <c r="DR171">
+        <v>109161</v>
+      </c>
+      <c r="DS171">
+        <v>223087</v>
+      </c>
+      <c r="DT171">
+        <v>7735</v>
+      </c>
+      <c r="DU171">
+        <v>96327</v>
+      </c>
+      <c r="DV171">
+        <v>62760</v>
+      </c>
+      <c r="DW171">
+        <v>21660</v>
+      </c>
+      <c r="DX171">
+        <v>7113</v>
       </c>
     </row>
   </sheetData>

--- a/CasosColombia.xlsx
+++ b/CasosColombia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Matlab\MATLAB_R2019a\fitVirusCV19_v07_v17\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FE1AADA-FA0F-4C93-BF7D-02BB8062F1E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B0C566D-974F-45D6-9912-87F98DB0A457}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3435" yWindow="375" windowWidth="21600" windowHeight="11505" xr2:uid="{6C56C21C-B00B-4C62-A627-74DAE246E91A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="129">
   <si>
     <t>Fecha</t>
   </si>
@@ -1497,13 +1497,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13133E2-69F7-478D-A001-FD6CB4FB0C80}">
-  <dimension ref="A1:DX171"/>
+  <dimension ref="A1:DX172"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="DI145" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="DI146" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="DX171" sqref="DX171"/>
+      <selection pane="bottomRight" activeCell="DX172" sqref="DX172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5011,8 +5011,8 @@
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="I10" s="10" t="s">
-        <v>68</v>
+      <c r="I10" s="10">
+        <v>1</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -5397,8 +5397,8 @@
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>68</v>
+      <c r="I11" s="7">
+        <v>1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -8108,8 +8108,8 @@
       <c r="K18" t="s">
         <v>68</v>
       </c>
-      <c r="L18" t="s">
-        <v>68</v>
+      <c r="L18">
+        <v>1</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -8279,8 +8279,8 @@
       <c r="BP18">
         <v>0</v>
       </c>
-      <c r="BQ18" s="10" t="s">
-        <v>68</v>
+      <c r="BQ18" s="10">
+        <v>0</v>
       </c>
       <c r="BR18">
         <v>0</v>
@@ -8666,7 +8666,7 @@
         <v>0</v>
       </c>
       <c r="BQ19" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR19">
         <v>0</v>
@@ -9052,7 +9052,7 @@
         <v>0</v>
       </c>
       <c r="BQ20" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BR20">
         <v>0</v>
@@ -9438,7 +9438,7 @@
         <v>0</v>
       </c>
       <c r="BQ21" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BR21">
         <v>0</v>
@@ -9824,7 +9824,7 @@
         <v>0</v>
       </c>
       <c r="BQ22" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BR22">
         <v>0</v>
@@ -10210,7 +10210,7 @@
         <v>0</v>
       </c>
       <c r="BQ23" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BR23">
         <v>0</v>
@@ -10596,7 +10596,7 @@
         <v>68</v>
       </c>
       <c r="BQ24" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BR24">
         <v>0</v>
@@ -10981,8 +10981,8 @@
       <c r="BP25">
         <v>1</v>
       </c>
-      <c r="BQ25" s="4" t="s">
-        <v>68</v>
+      <c r="BQ25" s="4">
+        <v>0</v>
       </c>
       <c r="BR25">
         <v>0</v>
@@ -11367,8 +11367,8 @@
       <c r="BP26">
         <v>1</v>
       </c>
-      <c r="BQ26" s="4" t="s">
-        <v>68</v>
+      <c r="BQ26" s="4">
+        <v>0</v>
       </c>
       <c r="BR26">
         <v>0</v>
@@ -11463,8 +11463,8 @@
       <c r="CV26" s="4">
         <v>0</v>
       </c>
-      <c r="CW26" s="4">
-        <v>1</v>
+      <c r="CW26" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="CX26" s="4">
         <v>0</v>
@@ -11582,8 +11582,8 @@
       <c r="K27" t="s">
         <v>68</v>
       </c>
-      <c r="L27" t="s">
-        <v>68</v>
+      <c r="L27">
+        <v>11</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -11753,8 +11753,8 @@
       <c r="BP27">
         <v>1</v>
       </c>
-      <c r="BQ27" t="s">
-        <v>68</v>
+      <c r="BQ27">
+        <v>0</v>
       </c>
       <c r="BR27">
         <v>0</v>
@@ -11849,8 +11849,8 @@
       <c r="CV27" s="4">
         <v>0</v>
       </c>
-      <c r="CW27" s="4">
-        <v>1</v>
+      <c r="CW27" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="CX27" s="4">
         <v>0</v>
@@ -12140,7 +12140,7 @@
         <v>1</v>
       </c>
       <c r="BQ28">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="BR28">
         <v>0</v>
@@ -12526,7 +12526,7 @@
         <v>1</v>
       </c>
       <c r="BQ29">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="BR29">
         <v>0</v>
@@ -12912,7 +12912,7 @@
         <v>1</v>
       </c>
       <c r="BQ30">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="BR30">
         <v>0</v>
@@ -13298,7 +13298,7 @@
         <v>1</v>
       </c>
       <c r="BQ31">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="BR31">
         <v>0</v>
@@ -13363,8 +13363,8 @@
       <c r="CL31" s="4">
         <v>8</v>
       </c>
-      <c r="CM31" s="13" t="s">
-        <v>68</v>
+      <c r="CM31" s="13">
+        <v>1</v>
       </c>
       <c r="CN31" s="4">
         <v>8</v>
@@ -13684,7 +13684,7 @@
         <v>1</v>
       </c>
       <c r="BQ32">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="BR32">
         <v>0</v>
@@ -13973,8 +13973,8 @@
       <c r="AJ33">
         <v>0</v>
       </c>
-      <c r="AK33" t="s">
-        <v>68</v>
+      <c r="AK33">
+        <v>1</v>
       </c>
       <c r="AL33">
         <v>43</v>
@@ -14070,7 +14070,7 @@
         <v>1</v>
       </c>
       <c r="BQ33">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="BR33">
         <v>0</v>
@@ -14359,8 +14359,8 @@
       <c r="AJ34">
         <v>0</v>
       </c>
-      <c r="AK34" t="s">
-        <v>68</v>
+      <c r="AK34">
+        <v>1</v>
       </c>
       <c r="AL34">
         <v>46</v>
@@ -14456,7 +14456,7 @@
         <v>1</v>
       </c>
       <c r="BQ34">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="BR34">
         <v>0</v>
@@ -14745,8 +14745,8 @@
       <c r="AJ35">
         <v>0</v>
       </c>
-      <c r="AK35" t="s">
-        <v>68</v>
+      <c r="AK35">
+        <v>1</v>
       </c>
       <c r="AL35">
         <v>49</v>
@@ -14842,7 +14842,7 @@
         <v>4</v>
       </c>
       <c r="BQ35">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BR35">
         <v>0</v>
@@ -15131,8 +15131,8 @@
       <c r="AJ36">
         <v>0</v>
       </c>
-      <c r="AK36" t="s">
-        <v>68</v>
+      <c r="AK36">
+        <v>2</v>
       </c>
       <c r="AL36">
         <v>55</v>
@@ -15228,7 +15228,7 @@
         <v>7</v>
       </c>
       <c r="BQ36">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="BR36">
         <v>0</v>
@@ -15442,8 +15442,8 @@
       <c r="K37">
         <v>19</v>
       </c>
-      <c r="L37">
-        <v>20</v>
+      <c r="L37" t="s">
+        <v>68</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -15517,8 +15517,8 @@
       <c r="AJ37">
         <v>0</v>
       </c>
-      <c r="AK37" t="s">
-        <v>68</v>
+      <c r="AK37">
+        <v>2</v>
       </c>
       <c r="AL37">
         <v>60</v>
@@ -15613,8 +15613,8 @@
       <c r="BP37">
         <v>7</v>
       </c>
-      <c r="BQ37" t="s">
-        <v>68</v>
+      <c r="BQ37">
+        <v>0</v>
       </c>
       <c r="BR37">
         <v>0</v>
@@ -15828,8 +15828,8 @@
       <c r="K38">
         <v>20</v>
       </c>
-      <c r="L38">
-        <v>32</v>
+      <c r="L38" t="s">
+        <v>68</v>
       </c>
       <c r="M38">
         <v>1</v>
@@ -16000,7 +16000,7 @@
         <v>7</v>
       </c>
       <c r="BQ38" s="4">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="BR38">
         <v>0</v>
@@ -16214,8 +16214,8 @@
       <c r="K39">
         <v>20</v>
       </c>
-      <c r="L39">
-        <v>32</v>
+      <c r="L39" t="s">
+        <v>68</v>
       </c>
       <c r="M39">
         <v>1</v>
@@ -16386,7 +16386,7 @@
         <v>7</v>
       </c>
       <c r="BQ39" s="4">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="BR39">
         <v>0</v>
@@ -16600,8 +16600,8 @@
       <c r="K40">
         <v>20</v>
       </c>
-      <c r="L40">
-        <v>32</v>
+      <c r="L40" t="s">
+        <v>68</v>
       </c>
       <c r="M40">
         <v>1</v>
@@ -16772,7 +16772,7 @@
         <v>8</v>
       </c>
       <c r="BQ40" s="4">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="BR40">
         <v>0</v>
@@ -16986,8 +16986,8 @@
       <c r="K41">
         <v>21</v>
       </c>
-      <c r="L41">
-        <v>32</v>
+      <c r="L41" t="s">
+        <v>68</v>
       </c>
       <c r="M41">
         <v>1</v>
@@ -17158,7 +17158,7 @@
         <v>8</v>
       </c>
       <c r="BQ41">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="BR41">
         <v>0</v>
@@ -17372,8 +17372,8 @@
       <c r="K42">
         <v>21</v>
       </c>
-      <c r="L42">
-        <v>32</v>
+      <c r="L42" t="s">
+        <v>68</v>
       </c>
       <c r="M42">
         <v>1</v>
@@ -17544,7 +17544,7 @@
         <v>8</v>
       </c>
       <c r="BQ42">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="BR42">
         <v>0</v>
@@ -17930,7 +17930,7 @@
         <v>8</v>
       </c>
       <c r="BQ43">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="BR43">
         <v>0</v>
@@ -18316,7 +18316,7 @@
         <v>8</v>
       </c>
       <c r="BQ44">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="BR44">
         <v>0</v>
@@ -18702,7 +18702,7 @@
         <v>8</v>
       </c>
       <c r="BQ45">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="BR45">
         <v>0</v>
@@ -19088,7 +19088,7 @@
         <v>8</v>
       </c>
       <c r="BQ46">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="BR46">
         <v>0</v>
@@ -19474,7 +19474,7 @@
         <v>9</v>
       </c>
       <c r="BQ47">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="BR47">
         <v>0</v>
@@ -19860,7 +19860,7 @@
         <v>9</v>
       </c>
       <c r="BQ48">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="BR48">
         <v>0</v>
@@ -20246,7 +20246,7 @@
         <v>9</v>
       </c>
       <c r="BQ49">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="BR49">
         <v>0</v>
@@ -20632,7 +20632,7 @@
         <v>9</v>
       </c>
       <c r="BQ50">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="BR50">
         <v>0</v>
@@ -21018,7 +21018,7 @@
         <v>12</v>
       </c>
       <c r="BQ51">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="BR51">
         <v>0</v>
@@ -21241,8 +21241,8 @@
       <c r="N52">
         <v>23</v>
       </c>
-      <c r="O52" t="s">
-        <v>68</v>
+      <c r="O52">
+        <v>14</v>
       </c>
       <c r="P52">
         <v>5</v>
@@ -21404,7 +21404,7 @@
         <v>12</v>
       </c>
       <c r="BQ52">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="BR52">
         <v>0</v>
@@ -21790,7 +21790,7 @@
         <v>12</v>
       </c>
       <c r="BQ53">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="BR53">
         <v>0</v>
@@ -22176,7 +22176,7 @@
         <v>13</v>
       </c>
       <c r="BQ54">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="BR54">
         <v>0</v>
@@ -22562,7 +22562,7 @@
         <v>13</v>
       </c>
       <c r="BQ55">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="BR55">
         <v>0</v>
@@ -22948,7 +22948,7 @@
         <v>14</v>
       </c>
       <c r="BQ56">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="BR56">
         <v>0</v>
@@ -23334,7 +23334,7 @@
         <v>15</v>
       </c>
       <c r="BQ57">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="BR57">
         <v>0</v>
@@ -23623,8 +23623,8 @@
       <c r="AJ58">
         <v>3</v>
       </c>
-      <c r="AK58">
-        <v>6</v>
+      <c r="AK58" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="AL58">
         <v>164</v>
@@ -23720,7 +23720,7 @@
         <v>15</v>
       </c>
       <c r="BQ58">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="BR58">
         <v>0</v>
@@ -24009,8 +24009,8 @@
       <c r="AJ59">
         <v>3</v>
       </c>
-      <c r="AK59">
-        <v>6</v>
+      <c r="AK59" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="AL59">
         <v>196</v>
@@ -24106,7 +24106,7 @@
         <v>15</v>
       </c>
       <c r="BQ59">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="BR59">
         <v>0</v>
@@ -24395,8 +24395,8 @@
       <c r="AJ60">
         <v>3</v>
       </c>
-      <c r="AK60">
-        <v>6</v>
+      <c r="AK60" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="AL60">
         <v>242</v>
@@ -24492,7 +24492,7 @@
         <v>16</v>
       </c>
       <c r="BQ60">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="BR60">
         <v>0</v>
@@ -24638,8 +24638,8 @@
       <c r="DM60" s="4">
         <v>3</v>
       </c>
-      <c r="DN60" s="4" t="s">
-        <v>68</v>
+      <c r="DN60" s="4">
+        <v>1</v>
       </c>
       <c r="DO60" s="4">
         <v>1</v>
@@ -24781,8 +24781,8 @@
       <c r="AJ61">
         <v>3</v>
       </c>
-      <c r="AK61">
-        <v>6</v>
+      <c r="AK61" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="AL61">
         <v>253</v>
@@ -24878,7 +24878,7 @@
         <v>17</v>
       </c>
       <c r="BQ61">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="BR61">
         <v>0</v>
@@ -25024,8 +25024,8 @@
       <c r="DM61" s="4">
         <v>3</v>
       </c>
-      <c r="DN61" s="4" t="s">
-        <v>68</v>
+      <c r="DN61" s="4">
+        <v>1</v>
       </c>
       <c r="DO61" s="4">
         <v>1</v>
@@ -25167,8 +25167,8 @@
       <c r="AJ62">
         <v>3</v>
       </c>
-      <c r="AK62">
-        <v>6</v>
+      <c r="AK62" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="AL62">
         <v>298</v>
@@ -25264,7 +25264,7 @@
         <v>17</v>
       </c>
       <c r="BQ62">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="BR62">
         <v>0</v>
@@ -25553,8 +25553,8 @@
       <c r="AJ63">
         <v>3</v>
       </c>
-      <c r="AK63">
-        <v>6</v>
+      <c r="AK63" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="AL63">
         <v>306</v>
@@ -25650,7 +25650,7 @@
         <v>17</v>
       </c>
       <c r="BQ63">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="BR63">
         <v>0</v>
@@ -25939,8 +25939,8 @@
       <c r="AJ64">
         <v>3</v>
       </c>
-      <c r="AK64">
-        <v>6</v>
+      <c r="AK64" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="AL64">
         <v>323</v>
@@ -26036,7 +26036,7 @@
         <v>17</v>
       </c>
       <c r="BQ64">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="BR64">
         <v>0</v>
@@ -26325,8 +26325,8 @@
       <c r="AJ65">
         <v>11</v>
       </c>
-      <c r="AK65">
-        <v>6</v>
+      <c r="AK65" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="AL65">
         <v>381</v>
@@ -26422,7 +26422,7 @@
         <v>21</v>
       </c>
       <c r="BQ65">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="BR65">
         <v>0</v>
@@ -26711,8 +26711,8 @@
       <c r="AJ66">
         <v>11</v>
       </c>
-      <c r="AK66">
-        <v>6</v>
+      <c r="AK66" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="AL66">
         <v>392</v>
@@ -26808,7 +26808,7 @@
         <v>21</v>
       </c>
       <c r="BQ66">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="BR66">
         <v>0</v>
@@ -27097,8 +27097,8 @@
       <c r="AJ67">
         <v>11</v>
       </c>
-      <c r="AK67">
-        <v>6</v>
+      <c r="AK67" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="AL67">
         <v>427</v>
@@ -27194,7 +27194,7 @@
         <v>22</v>
       </c>
       <c r="BQ67">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="BR67">
         <v>0</v>
@@ -27483,8 +27483,8 @@
       <c r="AJ68">
         <v>12</v>
       </c>
-      <c r="AK68">
-        <v>6</v>
+      <c r="AK68" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="AL68">
         <v>451</v>
@@ -27580,7 +27580,7 @@
         <v>23</v>
       </c>
       <c r="BQ68">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="BR68">
         <v>0</v>
@@ -27803,8 +27803,8 @@
       <c r="N69">
         <v>42</v>
       </c>
-      <c r="O69">
-        <v>104</v>
+      <c r="O69" t="s">
+        <v>68</v>
       </c>
       <c r="P69">
         <v>28</v>
@@ -27869,8 +27869,8 @@
       <c r="AJ69">
         <v>12</v>
       </c>
-      <c r="AK69">
-        <v>6</v>
+      <c r="AK69" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="AL69">
         <v>488</v>
@@ -27966,7 +27966,7 @@
         <v>25</v>
       </c>
       <c r="BQ69">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="BR69">
         <v>0</v>
@@ -28255,8 +28255,8 @@
       <c r="AJ70">
         <v>13</v>
       </c>
-      <c r="AK70">
-        <v>6</v>
+      <c r="AK70" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="AL70">
         <v>592</v>
@@ -28352,7 +28352,7 @@
         <v>27</v>
       </c>
       <c r="BQ70">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="BR70">
         <v>0</v>
@@ -28641,8 +28641,8 @@
       <c r="AJ71">
         <v>13</v>
       </c>
-      <c r="AK71">
-        <v>6</v>
+      <c r="AK71" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="AL71">
         <v>654</v>
@@ -28738,7 +28738,7 @@
         <v>31</v>
       </c>
       <c r="BQ71">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="BR71">
         <v>0</v>
@@ -29027,8 +29027,8 @@
       <c r="AJ72">
         <v>15</v>
       </c>
-      <c r="AK72">
-        <v>6</v>
+      <c r="AK72" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="AL72">
         <v>722</v>
@@ -29124,7 +29124,7 @@
         <v>31</v>
       </c>
       <c r="BQ72">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="BR72">
         <v>0</v>
@@ -29510,7 +29510,7 @@
         <v>32</v>
       </c>
       <c r="BQ73">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="BR73">
         <v>0</v>
@@ -29896,7 +29896,7 @@
         <v>35</v>
       </c>
       <c r="BQ74">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="BR74">
         <v>0</v>
@@ -30282,7 +30282,7 @@
         <v>41</v>
       </c>
       <c r="BQ75">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="BR75">
         <v>0</v>
@@ -30668,7 +30668,7 @@
         <v>47</v>
       </c>
       <c r="BQ76">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="BR76">
         <v>0</v>
@@ -31054,7 +31054,7 @@
         <v>49</v>
       </c>
       <c r="BQ77">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="BR77">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>51</v>
       </c>
       <c r="BQ78">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="BR78">
         <v>0</v>
@@ -31826,7 +31826,7 @@
         <v>51</v>
       </c>
       <c r="BQ79">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="BR79">
         <v>1</v>
@@ -32212,7 +32212,7 @@
         <v>57</v>
       </c>
       <c r="BQ80">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="BR80">
         <v>1</v>
@@ -32598,7 +32598,7 @@
         <v>58</v>
       </c>
       <c r="BQ81">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="BR81" t="s">
         <v>68</v>
@@ -32984,7 +32984,7 @@
         <v>61</v>
       </c>
       <c r="BQ82">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="BR82">
         <v>2</v>
@@ -33370,7 +33370,7 @@
         <v>62</v>
       </c>
       <c r="BQ83">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="BR83">
         <v>4</v>
@@ -33756,7 +33756,7 @@
         <v>67</v>
       </c>
       <c r="BQ84" s="7">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="BR84">
         <v>4</v>
@@ -34141,8 +34141,8 @@
       <c r="BP85">
         <v>69</v>
       </c>
-      <c r="BQ85" s="7" t="s">
-        <v>68</v>
+      <c r="BQ85" s="7">
+        <v>0</v>
       </c>
       <c r="BR85">
         <v>5</v>
@@ -34527,8 +34527,8 @@
       <c r="BP86">
         <v>72</v>
       </c>
-      <c r="BQ86" t="s">
-        <v>68</v>
+      <c r="BQ86">
+        <v>0</v>
       </c>
       <c r="BR86">
         <v>6</v>
@@ -34914,7 +34914,7 @@
         <v>80</v>
       </c>
       <c r="BQ87">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="BR87">
         <v>6</v>
@@ -35300,7 +35300,7 @@
         <v>81</v>
       </c>
       <c r="BQ88">
-        <v>188</v>
+        <v>0</v>
       </c>
       <c r="BR88">
         <v>6</v>
@@ -35686,7 +35686,7 @@
         <v>83</v>
       </c>
       <c r="BQ89">
-        <v>208</v>
+        <v>0</v>
       </c>
       <c r="BR89">
         <v>6</v>
@@ -35736,8 +35736,8 @@
       <c r="CG89" s="4">
         <v>23</v>
       </c>
-      <c r="CH89" s="4">
-        <v>5</v>
+      <c r="CH89" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="CI89" s="4">
         <v>49</v>
@@ -36072,7 +36072,7 @@
         <v>85</v>
       </c>
       <c r="BQ90">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="BR90">
         <v>7</v>
@@ -36458,7 +36458,7 @@
         <v>95</v>
       </c>
       <c r="BQ91">
-        <v>258</v>
+        <v>0</v>
       </c>
       <c r="BR91">
         <v>8</v>
@@ -36663,8 +36663,8 @@
       <c r="H92">
         <v>9</v>
       </c>
-      <c r="I92">
-        <v>162</v>
+      <c r="I92" t="s">
+        <v>68</v>
       </c>
       <c r="J92">
         <v>24</v>
@@ -36844,7 +36844,7 @@
         <v>95</v>
       </c>
       <c r="BQ92">
-        <v>306</v>
+        <v>0</v>
       </c>
       <c r="BR92">
         <v>9</v>
@@ -37230,7 +37230,7 @@
         <v>98</v>
       </c>
       <c r="BQ93">
-        <v>321</v>
+        <v>15</v>
       </c>
       <c r="BR93">
         <v>11</v>
@@ -37616,7 +37616,7 @@
         <v>98</v>
       </c>
       <c r="BQ94">
-        <v>330</v>
+        <v>24</v>
       </c>
       <c r="BR94">
         <v>12</v>
@@ -38002,7 +38002,7 @@
         <v>102</v>
       </c>
       <c r="BQ95">
-        <v>333</v>
+        <v>27</v>
       </c>
       <c r="BR95">
         <v>13</v>
@@ -38388,7 +38388,7 @@
         <v>106</v>
       </c>
       <c r="BQ96">
-        <v>349</v>
+        <v>43</v>
       </c>
       <c r="BR96">
         <v>14</v>
@@ -38774,7 +38774,7 @@
         <v>106</v>
       </c>
       <c r="BQ97">
-        <v>357</v>
+        <v>51</v>
       </c>
       <c r="BR97">
         <v>20</v>
@@ -39160,7 +39160,7 @@
         <v>107</v>
       </c>
       <c r="BQ98">
-        <v>365</v>
+        <v>59</v>
       </c>
       <c r="BR98">
         <v>22</v>
@@ -39546,7 +39546,7 @@
         <v>109</v>
       </c>
       <c r="BQ99">
-        <v>366</v>
+        <v>60</v>
       </c>
       <c r="BR99">
         <v>24</v>
@@ -39932,7 +39932,7 @@
         <v>114</v>
       </c>
       <c r="BQ100">
-        <v>369</v>
+        <v>63</v>
       </c>
       <c r="BR100">
         <v>30</v>
@@ -40318,7 +40318,7 @@
         <v>117</v>
       </c>
       <c r="BQ101">
-        <v>377</v>
+        <v>71</v>
       </c>
       <c r="BR101">
         <v>31</v>
@@ -40704,7 +40704,7 @@
         <v>120</v>
       </c>
       <c r="BQ102">
-        <v>382</v>
+        <v>76</v>
       </c>
       <c r="BR102">
         <v>32</v>
@@ -41090,7 +41090,7 @@
         <v>123</v>
       </c>
       <c r="BQ103">
-        <v>388</v>
+        <v>82</v>
       </c>
       <c r="BR103">
         <v>40</v>
@@ -41394,8 +41394,8 @@
       <c r="AO104">
         <v>4602</v>
       </c>
-      <c r="AP104">
-        <v>250</v>
+      <c r="AP104" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="AQ104">
         <v>4999</v>
@@ -41476,7 +41476,7 @@
         <v>128</v>
       </c>
       <c r="BQ104">
-        <v>391</v>
+        <v>85</v>
       </c>
       <c r="BR104">
         <v>41</v>
@@ -41862,7 +41862,7 @@
         <v>130</v>
       </c>
       <c r="BQ105">
-        <v>400</v>
+        <v>94</v>
       </c>
       <c r="BR105">
         <v>44</v>
@@ -42248,7 +42248,7 @@
         <v>139</v>
       </c>
       <c r="BQ106">
-        <v>409</v>
+        <v>103</v>
       </c>
       <c r="BR106">
         <v>47</v>
@@ -42634,7 +42634,7 @@
         <v>152</v>
       </c>
       <c r="BQ107">
-        <v>418</v>
+        <v>112</v>
       </c>
       <c r="BR107">
         <v>63</v>
@@ -43020,7 +43020,7 @@
         <v>158</v>
       </c>
       <c r="BQ108">
-        <v>467</v>
+        <v>161</v>
       </c>
       <c r="BR108">
         <v>73</v>
@@ -43406,7 +43406,7 @@
         <v>162</v>
       </c>
       <c r="BQ109">
-        <v>473</v>
+        <v>167</v>
       </c>
       <c r="BR109">
         <v>103</v>
@@ -43792,7 +43792,7 @@
         <v>178</v>
       </c>
       <c r="BQ110">
-        <v>485</v>
+        <v>179</v>
       </c>
       <c r="BR110">
         <v>104</v>
@@ -44178,7 +44178,7 @@
         <v>183</v>
       </c>
       <c r="BQ111">
-        <v>488</v>
+        <v>182</v>
       </c>
       <c r="BR111">
         <v>129</v>
@@ -44564,7 +44564,7 @@
         <v>186</v>
       </c>
       <c r="BQ112">
-        <v>504</v>
+        <v>198</v>
       </c>
       <c r="BR112">
         <v>147</v>
@@ -44950,7 +44950,7 @@
         <v>202</v>
       </c>
       <c r="BQ113">
-        <v>506</v>
+        <v>200</v>
       </c>
       <c r="BR113">
         <v>160</v>
@@ -45336,7 +45336,7 @@
         <v>210</v>
       </c>
       <c r="BQ114">
-        <v>525</v>
+        <v>219</v>
       </c>
       <c r="BR114">
         <v>165</v>
@@ -45722,7 +45722,7 @@
         <v>225</v>
       </c>
       <c r="BQ115">
-        <v>564</v>
+        <v>258</v>
       </c>
       <c r="BR115">
         <v>177</v>
@@ -46108,7 +46108,7 @@
         <v>233</v>
       </c>
       <c r="BQ116">
-        <v>599</v>
+        <v>293</v>
       </c>
       <c r="BR116">
         <v>193</v>
@@ -46494,7 +46494,7 @@
         <v>242</v>
       </c>
       <c r="BQ117">
-        <v>626</v>
+        <v>320</v>
       </c>
       <c r="BR117">
         <v>199</v>
@@ -46880,7 +46880,7 @@
         <v>244</v>
       </c>
       <c r="BQ118">
-        <v>642</v>
+        <v>336</v>
       </c>
       <c r="BR118">
         <v>220</v>
@@ -47095,7 +47095,7 @@
         <v>404</v>
       </c>
       <c r="L119">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="M119">
         <v>1684</v>
@@ -47266,7 +47266,7 @@
         <v>251</v>
       </c>
       <c r="BQ119">
-        <v>666</v>
+        <v>360</v>
       </c>
       <c r="BR119">
         <v>241</v>
@@ -47481,7 +47481,7 @@
         <v>466</v>
       </c>
       <c r="L120">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="M120">
         <v>1742</v>
@@ -47652,7 +47652,7 @@
         <v>259</v>
       </c>
       <c r="BQ120">
-        <v>669</v>
+        <v>363</v>
       </c>
       <c r="BR120">
         <v>258</v>
@@ -47867,7 +47867,7 @@
         <v>477</v>
       </c>
       <c r="L121">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="M121">
         <v>1756</v>
@@ -48038,7 +48038,7 @@
         <v>267</v>
       </c>
       <c r="BQ121">
-        <v>703</v>
+        <v>397</v>
       </c>
       <c r="BR121">
         <v>270</v>
@@ -48253,7 +48253,7 @@
         <v>507</v>
       </c>
       <c r="L122">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="M122">
         <v>1836</v>
@@ -48424,7 +48424,7 @@
         <v>284</v>
       </c>
       <c r="BQ122" s="11">
-        <v>769</v>
+        <v>463</v>
       </c>
       <c r="BR122">
         <v>284</v>
@@ -48639,7 +48639,7 @@
         <v>530</v>
       </c>
       <c r="L123">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="M123">
         <v>1871</v>
@@ -48810,7 +48810,7 @@
         <v>295</v>
       </c>
       <c r="BQ123" s="11">
-        <v>792</v>
+        <v>486</v>
       </c>
       <c r="BR123">
         <v>298</v>
@@ -49025,7 +49025,7 @@
         <v>544</v>
       </c>
       <c r="L124">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="M124">
         <v>1982</v>
@@ -49196,7 +49196,7 @@
         <v>302</v>
       </c>
       <c r="BQ124">
-        <v>810</v>
+        <v>504</v>
       </c>
       <c r="BR124">
         <v>304</v>
@@ -49411,7 +49411,7 @@
         <v>599</v>
       </c>
       <c r="L125">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="M125">
         <v>2004</v>
@@ -49582,7 +49582,7 @@
         <v>307</v>
       </c>
       <c r="BQ125">
-        <v>824</v>
+        <v>518</v>
       </c>
       <c r="BR125">
         <v>325</v>
@@ -49797,7 +49797,7 @@
         <v>622</v>
       </c>
       <c r="L126">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="M126">
         <v>2033</v>
@@ -49968,7 +49968,7 @@
         <v>320</v>
       </c>
       <c r="BQ126">
-        <v>839</v>
+        <v>533</v>
       </c>
       <c r="BR126">
         <v>342</v>
@@ -50183,7 +50183,7 @@
         <v>652</v>
       </c>
       <c r="L127">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="M127">
         <v>2079</v>
@@ -50354,7 +50354,7 @@
         <v>332</v>
       </c>
       <c r="BQ127">
-        <v>852</v>
+        <v>546</v>
       </c>
       <c r="BR127">
         <v>353</v>
@@ -50569,7 +50569,7 @@
         <v>709</v>
       </c>
       <c r="L128">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="M128">
         <v>2126</v>
@@ -50740,7 +50740,7 @@
         <v>340</v>
       </c>
       <c r="BQ128">
-        <v>876</v>
+        <v>570</v>
       </c>
       <c r="BR128">
         <v>412</v>
@@ -50955,7 +50955,7 @@
         <v>729</v>
       </c>
       <c r="L129">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="M129">
         <v>2177</v>
@@ -51126,7 +51126,7 @@
         <v>349</v>
       </c>
       <c r="BQ129">
-        <v>884</v>
+        <v>578</v>
       </c>
       <c r="BR129">
         <v>445</v>
@@ -51341,7 +51341,7 @@
         <v>770</v>
       </c>
       <c r="L130">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="M130">
         <v>2197</v>
@@ -51512,7 +51512,7 @@
         <v>364</v>
       </c>
       <c r="BQ130">
-        <v>909</v>
+        <v>603</v>
       </c>
       <c r="BR130">
         <v>472</v>
@@ -51727,7 +51727,7 @@
         <v>773</v>
       </c>
       <c r="L131">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="M131">
         <v>2207</v>
@@ -51897,8 +51897,8 @@
       <c r="BP131">
         <v>371</v>
       </c>
-      <c r="BQ131" t="s">
-        <v>68</v>
+      <c r="BQ131">
+        <v>618</v>
       </c>
       <c r="BR131" s="10" t="s">
         <v>68</v>
@@ -52113,7 +52113,7 @@
         <v>805</v>
       </c>
       <c r="L132">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="M132">
         <v>2281</v>
@@ -52284,7 +52284,7 @@
         <v>387</v>
       </c>
       <c r="BQ132">
-        <v>948</v>
+        <v>642</v>
       </c>
       <c r="BR132">
         <v>528</v>
@@ -52499,7 +52499,7 @@
         <v>857</v>
       </c>
       <c r="L133">
-        <v>1665</v>
+        <v>1662</v>
       </c>
       <c r="M133">
         <v>2307</v>
@@ -52558,8 +52558,8 @@
       <c r="AE133">
         <v>61</v>
       </c>
-      <c r="AF133">
-        <v>31</v>
+      <c r="AF133" t="s">
+        <v>68</v>
       </c>
       <c r="AG133">
         <v>14</v>
@@ -52670,7 +52670,7 @@
         <v>399</v>
       </c>
       <c r="BQ133">
-        <v>987</v>
+        <v>681</v>
       </c>
       <c r="BR133">
         <v>556</v>
@@ -52885,7 +52885,7 @@
         <v>938</v>
       </c>
       <c r="L134">
-        <v>1766</v>
+        <v>1763</v>
       </c>
       <c r="M134">
         <v>2391</v>
@@ -52944,8 +52944,8 @@
       <c r="AE134">
         <v>61</v>
       </c>
-      <c r="AF134">
-        <v>33</v>
+      <c r="AF134" t="s">
+        <v>68</v>
       </c>
       <c r="AG134">
         <v>14</v>
@@ -53056,7 +53056,7 @@
         <v>431</v>
       </c>
       <c r="BQ134">
-        <v>1053</v>
+        <v>747</v>
       </c>
       <c r="BR134">
         <v>621</v>
@@ -53271,7 +53271,7 @@
         <v>1004</v>
       </c>
       <c r="L135">
-        <v>1819</v>
+        <v>1816</v>
       </c>
       <c r="M135">
         <v>2433</v>
@@ -53442,7 +53442,7 @@
         <v>445</v>
       </c>
       <c r="BQ135">
-        <v>1092</v>
+        <v>786</v>
       </c>
       <c r="BR135">
         <v>665</v>
@@ -53657,7 +53657,7 @@
         <v>1053</v>
       </c>
       <c r="L136">
-        <v>1892</v>
+        <v>1888</v>
       </c>
       <c r="M136">
         <v>2471</v>
@@ -53828,7 +53828,7 @@
         <v>465</v>
       </c>
       <c r="BQ136">
-        <v>1141</v>
+        <v>835</v>
       </c>
       <c r="BR136">
         <v>718</v>
@@ -54043,7 +54043,7 @@
         <v>1105</v>
       </c>
       <c r="L137">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="M137">
         <v>2499</v>
@@ -54214,7 +54214,7 @@
         <v>472</v>
       </c>
       <c r="BQ137">
-        <v>1234</v>
+        <v>928</v>
       </c>
       <c r="BR137">
         <v>755</v>
@@ -54429,7 +54429,7 @@
         <v>1134</v>
       </c>
       <c r="L138">
-        <v>2114</v>
+        <v>2109</v>
       </c>
       <c r="M138">
         <v>2530</v>
@@ -54600,7 +54600,7 @@
         <v>485</v>
       </c>
       <c r="BQ138">
-        <v>1338</v>
+        <v>1032</v>
       </c>
       <c r="BR138">
         <v>789</v>
@@ -54815,7 +54815,7 @@
         <v>1174</v>
       </c>
       <c r="L139">
-        <v>2125</v>
+        <v>2120</v>
       </c>
       <c r="M139">
         <v>2561</v>
@@ -54986,7 +54986,7 @@
         <v>493</v>
       </c>
       <c r="BQ139">
-        <v>1348</v>
+        <v>1042</v>
       </c>
       <c r="BR139">
         <v>811</v>
@@ -55201,7 +55201,7 @@
         <v>1308</v>
       </c>
       <c r="L140">
-        <v>2224</v>
+        <v>2217</v>
       </c>
       <c r="M140">
         <v>2713</v>
@@ -55372,7 +55372,7 @@
         <v>517</v>
       </c>
       <c r="BQ140">
-        <v>1401</v>
+        <v>1095</v>
       </c>
       <c r="BR140">
         <v>869</v>
@@ -55574,8 +55574,8 @@
       <c r="G141">
         <v>15943</v>
       </c>
-      <c r="H141">
-        <v>503</v>
+      <c r="H141" t="s">
+        <v>68</v>
       </c>
       <c r="I141">
         <v>549</v>
@@ -55587,7 +55587,7 @@
         <v>1393</v>
       </c>
       <c r="L141">
-        <v>2308</v>
+        <v>2301</v>
       </c>
       <c r="M141">
         <v>2761</v>
@@ -55758,7 +55758,7 @@
         <v>530</v>
       </c>
       <c r="BQ141">
-        <v>1470</v>
+        <v>1164</v>
       </c>
       <c r="BR141">
         <v>910</v>
@@ -55973,7 +55973,7 @@
         <v>1417</v>
       </c>
       <c r="L142">
-        <v>2367</v>
+        <v>2360</v>
       </c>
       <c r="M142">
         <v>2787</v>
@@ -56144,7 +56144,7 @@
         <v>538</v>
       </c>
       <c r="BQ142">
-        <v>1522</v>
+        <v>1216</v>
       </c>
       <c r="BR142">
         <v>931</v>
@@ -56359,7 +56359,7 @@
         <v>1501</v>
       </c>
       <c r="L143">
-        <v>2447</v>
+        <v>2440</v>
       </c>
       <c r="M143">
         <v>2802</v>
@@ -56530,7 +56530,7 @@
         <v>550</v>
       </c>
       <c r="BQ143">
-        <v>1576</v>
+        <v>1270</v>
       </c>
       <c r="BR143">
         <v>1035</v>
@@ -56745,7 +56745,7 @@
         <v>1558</v>
       </c>
       <c r="L144">
-        <v>2535</v>
+        <v>2528</v>
       </c>
       <c r="M144">
         <v>2820</v>
@@ -56916,7 +56916,7 @@
         <v>561</v>
       </c>
       <c r="BQ144">
-        <v>1634</v>
+        <v>1328</v>
       </c>
       <c r="BR144">
         <v>1057</v>
@@ -57131,7 +57131,7 @@
         <v>1624</v>
       </c>
       <c r="L145">
-        <v>2636</v>
+        <v>2629</v>
       </c>
       <c r="M145">
         <v>2861</v>
@@ -57302,7 +57302,7 @@
         <v>574</v>
       </c>
       <c r="BQ145">
-        <v>1719</v>
+        <v>1413</v>
       </c>
       <c r="BR145">
         <v>1080</v>
@@ -57517,7 +57517,7 @@
         <v>1696</v>
       </c>
       <c r="L146">
-        <v>2798</v>
+        <v>2788</v>
       </c>
       <c r="M146">
         <v>2916</v>
@@ -57688,7 +57688,7 @@
         <v>587</v>
       </c>
       <c r="BQ146">
-        <v>1862</v>
+        <v>1556</v>
       </c>
       <c r="BR146">
         <v>1138</v>
@@ -57903,7 +57903,7 @@
         <v>1746</v>
       </c>
       <c r="L147">
-        <v>2886</v>
+        <v>2876</v>
       </c>
       <c r="M147">
         <v>2931</v>
@@ -58074,7 +58074,7 @@
         <v>602</v>
       </c>
       <c r="BQ147">
-        <v>1936</v>
+        <v>1630</v>
       </c>
       <c r="BR147">
         <v>1226</v>
@@ -58289,7 +58289,7 @@
         <v>1819</v>
       </c>
       <c r="L148">
-        <v>3001</v>
+        <v>2992</v>
       </c>
       <c r="M148">
         <v>2967</v>
@@ -58460,7 +58460,7 @@
         <v>608</v>
       </c>
       <c r="BQ148">
-        <v>1997</v>
+        <v>1691</v>
       </c>
       <c r="BR148">
         <v>1359</v>
@@ -58675,7 +58675,7 @@
         <v>1896</v>
       </c>
       <c r="L149">
-        <v>3116</v>
+        <v>3105</v>
       </c>
       <c r="M149">
         <v>3000</v>
@@ -58846,7 +58846,7 @@
         <v>613</v>
       </c>
       <c r="BQ149">
-        <v>2092</v>
+        <v>1786</v>
       </c>
       <c r="BR149">
         <v>1478</v>
@@ -59061,7 +59061,7 @@
         <v>1971</v>
       </c>
       <c r="L150" s="6">
-        <v>3351</v>
+        <v>3341</v>
       </c>
       <c r="M150" s="6">
         <v>3021</v>
@@ -59232,7 +59232,7 @@
         <v>620</v>
       </c>
       <c r="BQ150">
-        <v>2242</v>
+        <v>1936</v>
       </c>
       <c r="BR150">
         <v>1560</v>
@@ -59447,7 +59447,7 @@
         <v>2042</v>
       </c>
       <c r="L151">
-        <v>3504</v>
+        <v>3494</v>
       </c>
       <c r="M151">
         <v>3055</v>
@@ -59618,7 +59618,7 @@
         <v>631</v>
       </c>
       <c r="BQ151">
-        <v>2360</v>
+        <v>2054</v>
       </c>
       <c r="BR151">
         <v>1620</v>
@@ -59833,7 +59833,7 @@
         <v>2131</v>
       </c>
       <c r="L152">
-        <v>3542</v>
+        <v>3532</v>
       </c>
       <c r="M152">
         <v>3069</v>
@@ -60004,7 +60004,7 @@
         <v>638</v>
       </c>
       <c r="BQ152">
-        <v>2392</v>
+        <v>2086</v>
       </c>
       <c r="BR152">
         <v>1710</v>
@@ -60219,7 +60219,7 @@
         <v>2181</v>
       </c>
       <c r="L153">
-        <v>3735</v>
+        <v>3726</v>
       </c>
       <c r="M153">
         <v>3098</v>
@@ -60390,7 +60390,7 @@
         <v>644</v>
       </c>
       <c r="BQ153">
-        <v>2533</v>
+        <v>2227</v>
       </c>
       <c r="BR153">
         <v>1755</v>
@@ -60605,7 +60605,7 @@
         <v>2328</v>
       </c>
       <c r="L154">
-        <v>3835</v>
+        <v>3830</v>
       </c>
       <c r="M154">
         <v>3103</v>
@@ -60776,7 +60776,7 @@
         <v>653</v>
       </c>
       <c r="BQ154">
-        <v>2623</v>
+        <v>2317</v>
       </c>
       <c r="BR154">
         <v>1841</v>
@@ -60991,7 +60991,7 @@
         <v>2392</v>
       </c>
       <c r="L155">
-        <v>3979</v>
+        <v>3974</v>
       </c>
       <c r="M155">
         <v>3125</v>
@@ -61162,7 +61162,7 @@
         <v>657</v>
       </c>
       <c r="BQ155">
-        <v>2737</v>
+        <v>2431</v>
       </c>
       <c r="BR155">
         <v>2009</v>
@@ -61377,7 +61377,7 @@
         <v>2491</v>
       </c>
       <c r="L156">
-        <v>4204</v>
+        <v>4200</v>
       </c>
       <c r="M156">
         <v>3152</v>
@@ -61548,7 +61548,7 @@
         <v>663</v>
       </c>
       <c r="BQ156">
-        <v>2912</v>
+        <v>2606</v>
       </c>
       <c r="BR156">
         <v>2187</v>
@@ -61763,7 +61763,7 @@
         <v>2549</v>
       </c>
       <c r="L157">
-        <v>4382</v>
+        <v>4376</v>
       </c>
       <c r="M157">
         <v>3168</v>
@@ -61934,7 +61934,7 @@
         <v>669</v>
       </c>
       <c r="BQ157">
-        <v>3017</v>
+        <v>2711</v>
       </c>
       <c r="BR157">
         <v>2305</v>
@@ -62149,7 +62149,7 @@
         <v>2654</v>
       </c>
       <c r="L158">
-        <v>4466</v>
+        <v>4460</v>
       </c>
       <c r="M158">
         <v>3197</v>
@@ -62320,7 +62320,7 @@
         <v>674</v>
       </c>
       <c r="BQ158">
-        <v>3088</v>
+        <v>2782</v>
       </c>
       <c r="BR158">
         <v>2469</v>
@@ -62535,7 +62535,7 @@
         <v>2681</v>
       </c>
       <c r="L159">
-        <v>4511</v>
+        <v>4504</v>
       </c>
       <c r="M159">
         <v>3265</v>
@@ -62706,7 +62706,7 @@
         <v>674</v>
       </c>
       <c r="BQ159">
-        <v>3124</v>
+        <v>2818</v>
       </c>
       <c r="BR159">
         <v>2643</v>
@@ -62921,7 +62921,7 @@
         <v>2775</v>
       </c>
       <c r="L160">
-        <v>4786</v>
+        <v>4780</v>
       </c>
       <c r="M160">
         <v>3326</v>
@@ -63092,7 +63092,7 @@
         <v>679</v>
       </c>
       <c r="BQ160">
-        <v>3364</v>
+        <v>3058</v>
       </c>
       <c r="BR160">
         <v>2826</v>
@@ -63307,7 +63307,7 @@
         <v>2810</v>
       </c>
       <c r="L161">
-        <v>4858</v>
+        <v>4852</v>
       </c>
       <c r="M161">
         <v>3404</v>
@@ -63478,7 +63478,7 @@
         <v>684</v>
       </c>
       <c r="BQ161">
-        <v>3414</v>
+        <v>3108</v>
       </c>
       <c r="BR161">
         <v>3053</v>
@@ -63693,7 +63693,7 @@
         <v>3013</v>
       </c>
       <c r="L162">
-        <v>5123</v>
+        <v>5117</v>
       </c>
       <c r="M162">
         <v>3429</v>
@@ -63864,7 +63864,7 @@
         <v>692</v>
       </c>
       <c r="BQ162">
-        <v>3585</v>
+        <v>3279</v>
       </c>
       <c r="BR162">
         <v>3138</v>
@@ -64079,7 +64079,7 @@
         <v>3153</v>
       </c>
       <c r="L163">
-        <v>5297</v>
+        <v>5293</v>
       </c>
       <c r="M163">
         <v>3430</v>
@@ -64250,7 +64250,7 @@
         <v>698</v>
       </c>
       <c r="BQ163">
-        <v>3723</v>
+        <v>3417</v>
       </c>
       <c r="BR163">
         <v>3240</v>
@@ -64465,7 +64465,7 @@
         <v>3222</v>
       </c>
       <c r="L164">
-        <v>5452</v>
+        <v>5448</v>
       </c>
       <c r="M164">
         <v>3439</v>
@@ -64636,7 +64636,7 @@
         <v>700</v>
       </c>
       <c r="BQ164">
-        <v>3837</v>
+        <v>3531</v>
       </c>
       <c r="BR164">
         <v>3412</v>
@@ -64851,7 +64851,7 @@
         <v>3300</v>
       </c>
       <c r="L165">
-        <v>5732</v>
+        <v>5728</v>
       </c>
       <c r="M165">
         <v>3468</v>
@@ -65022,7 +65022,7 @@
         <v>702</v>
       </c>
       <c r="BQ165">
-        <v>4063</v>
+        <v>3757</v>
       </c>
       <c r="BR165">
         <v>3580</v>
@@ -65237,7 +65237,7 @@
         <v>3334</v>
       </c>
       <c r="L166">
-        <v>5891</v>
+        <v>5887</v>
       </c>
       <c r="M166">
         <v>3494</v>
@@ -65408,7 +65408,7 @@
         <v>704</v>
       </c>
       <c r="BQ166">
-        <v>4199</v>
+        <v>3893</v>
       </c>
       <c r="BR166">
         <v>3660</v>
@@ -65416,8 +65416,8 @@
       <c r="BS166" s="4">
         <v>4116</v>
       </c>
-      <c r="BT166" s="4">
-        <v>877</v>
+      <c r="BT166" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="BU166" s="4">
         <v>1095</v>
@@ -65623,7 +65623,7 @@
         <v>3435</v>
       </c>
       <c r="L167">
-        <v>6060</v>
+        <v>6058</v>
       </c>
       <c r="M167">
         <v>3524</v>
@@ -65794,7 +65794,7 @@
         <v>722</v>
       </c>
       <c r="BQ167">
-        <v>4301</v>
+        <v>3995</v>
       </c>
       <c r="BR167">
         <v>3925</v>
@@ -65802,8 +65802,8 @@
       <c r="BS167" s="4">
         <v>4357</v>
       </c>
-      <c r="BT167" s="4">
-        <v>894</v>
+      <c r="BT167" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="BU167" s="4">
         <v>1168</v>
@@ -66009,7 +66009,7 @@
         <v>3512</v>
       </c>
       <c r="L168">
-        <v>6439</v>
+        <v>6437</v>
       </c>
       <c r="M168">
         <v>3547</v>
@@ -66180,7 +66180,7 @@
         <v>727</v>
       </c>
       <c r="BQ168">
-        <v>4610</v>
+        <v>4304</v>
       </c>
       <c r="BR168">
         <v>4134</v>
@@ -66566,7 +66566,7 @@
         <v>732</v>
       </c>
       <c r="BQ169">
-        <v>5023</v>
+        <v>4717</v>
       </c>
       <c r="BR169">
         <v>4407</v>
@@ -66952,7 +66952,7 @@
         <v>739</v>
       </c>
       <c r="BQ170">
-        <v>5199</v>
+        <v>4893</v>
       </c>
       <c r="BR170">
         <v>4544</v>
@@ -67338,7 +67338,7 @@
         <v>759</v>
       </c>
       <c r="BQ171">
-        <v>5630</v>
+        <v>5324</v>
       </c>
       <c r="BR171">
         <v>4622</v>
@@ -67516,6 +67516,392 @@
       </c>
       <c r="DX171">
         <v>7113</v>
+      </c>
+    </row>
+    <row r="172" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>44066</v>
+      </c>
+      <c r="B172">
+        <v>541147</v>
+      </c>
+      <c r="C172">
+        <v>2687</v>
+      </c>
+      <c r="D172">
+        <v>70738</v>
+      </c>
+      <c r="E172">
+        <v>62804</v>
+      </c>
+      <c r="F172">
+        <v>188220</v>
+      </c>
+      <c r="G172">
+        <v>23471</v>
+      </c>
+      <c r="H172">
+        <v>2880</v>
+      </c>
+      <c r="I172">
+        <v>2301</v>
+      </c>
+      <c r="J172">
+        <v>4836</v>
+      </c>
+      <c r="K172">
+        <v>4190</v>
+      </c>
+      <c r="L172">
+        <v>7889</v>
+      </c>
+      <c r="M172">
+        <v>3630</v>
+      </c>
+      <c r="N172">
+        <v>17156</v>
+      </c>
+      <c r="O172">
+        <v>18965</v>
+      </c>
+      <c r="P172">
+        <v>4349</v>
+      </c>
+      <c r="Q172">
+        <v>3283</v>
+      </c>
+      <c r="R172">
+        <v>11225</v>
+      </c>
+      <c r="S172">
+        <v>5761</v>
+      </c>
+      <c r="T172">
+        <v>12746</v>
+      </c>
+      <c r="U172">
+        <v>8988</v>
+      </c>
+      <c r="V172">
+        <v>2405</v>
+      </c>
+      <c r="W172">
+        <v>867</v>
+      </c>
+      <c r="X172">
+        <v>4574</v>
+      </c>
+      <c r="Y172">
+        <v>13638</v>
+      </c>
+      <c r="Z172">
+        <v>10357</v>
+      </c>
+      <c r="AA172">
+        <v>5468</v>
+      </c>
+      <c r="AB172">
+        <v>42998</v>
+      </c>
+      <c r="AC172">
+        <v>856</v>
+      </c>
+      <c r="AD172">
+        <v>123</v>
+      </c>
+      <c r="AE172">
+        <v>208</v>
+      </c>
+      <c r="AF172">
+        <v>439</v>
+      </c>
+      <c r="AG172">
+        <v>42</v>
+      </c>
+      <c r="AH172">
+        <v>29</v>
+      </c>
+      <c r="AI172">
+        <v>236</v>
+      </c>
+      <c r="AJ172">
+        <v>1939</v>
+      </c>
+      <c r="AK172">
+        <v>2342</v>
+      </c>
+      <c r="AL172">
+        <v>35434</v>
+      </c>
+      <c r="AM172">
+        <v>5973</v>
+      </c>
+      <c r="AN172">
+        <v>2378</v>
+      </c>
+      <c r="AO172">
+        <v>33837</v>
+      </c>
+      <c r="AP172">
+        <v>836</v>
+      </c>
+      <c r="AQ172">
+        <v>19273</v>
+      </c>
+      <c r="AR172">
+        <v>1408</v>
+      </c>
+      <c r="AS172">
+        <v>6270</v>
+      </c>
+      <c r="AT172">
+        <v>1392</v>
+      </c>
+      <c r="AU172">
+        <v>1536</v>
+      </c>
+      <c r="AV172">
+        <v>3099</v>
+      </c>
+      <c r="AW172">
+        <v>1443</v>
+      </c>
+      <c r="AX172">
+        <v>925</v>
+      </c>
+      <c r="AY172">
+        <v>2455</v>
+      </c>
+      <c r="AZ172">
+        <v>2566</v>
+      </c>
+      <c r="BA172">
+        <v>40502</v>
+      </c>
+      <c r="BB172">
+        <v>10955</v>
+      </c>
+      <c r="BC172">
+        <v>1841</v>
+      </c>
+      <c r="BD172">
+        <v>6709</v>
+      </c>
+      <c r="BE172">
+        <v>2944</v>
+      </c>
+      <c r="BF172">
+        <v>274</v>
+      </c>
+      <c r="BG172">
+        <v>1367</v>
+      </c>
+      <c r="BH172">
+        <v>2522</v>
+      </c>
+      <c r="BI172">
+        <v>726</v>
+      </c>
+      <c r="BJ172">
+        <v>1931</v>
+      </c>
+      <c r="BK172">
+        <v>7590</v>
+      </c>
+      <c r="BL172">
+        <v>7463</v>
+      </c>
+      <c r="BM172">
+        <v>7116</v>
+      </c>
+      <c r="BN172">
+        <v>13518</v>
+      </c>
+      <c r="BO172">
+        <v>1843</v>
+      </c>
+      <c r="BP172">
+        <v>761</v>
+      </c>
+      <c r="BQ172">
+        <v>5415</v>
+      </c>
+      <c r="BR172">
+        <v>4788</v>
+      </c>
+      <c r="BS172" s="4">
+        <v>5635</v>
+      </c>
+      <c r="BT172" s="4">
+        <v>1226</v>
+      </c>
+      <c r="BU172" s="4">
+        <v>1338</v>
+      </c>
+      <c r="BV172" s="4">
+        <v>2223</v>
+      </c>
+      <c r="BW172" s="4">
+        <v>2516</v>
+      </c>
+      <c r="BX172" s="4">
+        <v>642</v>
+      </c>
+      <c r="BY172" s="4">
+        <v>3850</v>
+      </c>
+      <c r="BZ172" s="4">
+        <v>2205</v>
+      </c>
+      <c r="CA172" s="4">
+        <v>1049</v>
+      </c>
+      <c r="CB172" s="4">
+        <v>607</v>
+      </c>
+      <c r="CC172" s="4">
+        <v>1765</v>
+      </c>
+      <c r="CD172" s="4">
+        <v>1729</v>
+      </c>
+      <c r="CE172" s="4">
+        <v>933</v>
+      </c>
+      <c r="CF172" s="4">
+        <v>787</v>
+      </c>
+      <c r="CG172" s="4">
+        <v>4023</v>
+      </c>
+      <c r="CH172" s="4">
+        <v>1071</v>
+      </c>
+      <c r="CI172" s="4">
+        <v>1055</v>
+      </c>
+      <c r="CJ172" s="4">
+        <v>1080</v>
+      </c>
+      <c r="CK172" s="4">
+        <v>1364</v>
+      </c>
+      <c r="CL172" s="4">
+        <v>1228</v>
+      </c>
+      <c r="CM172" s="4">
+        <v>1234</v>
+      </c>
+      <c r="CN172" s="4">
+        <v>1029</v>
+      </c>
+      <c r="CO172" s="4">
+        <v>980</v>
+      </c>
+      <c r="CP172" s="4">
+        <v>1046</v>
+      </c>
+      <c r="CQ172" s="4">
+        <v>510</v>
+      </c>
+      <c r="CR172" s="4">
+        <v>2850</v>
+      </c>
+      <c r="CS172" s="4">
+        <v>831</v>
+      </c>
+      <c r="CT172" s="4">
+        <v>743</v>
+      </c>
+      <c r="CU172" s="4">
+        <v>660</v>
+      </c>
+      <c r="CV172" s="4">
+        <v>1102</v>
+      </c>
+      <c r="CW172" s="4">
+        <v>999</v>
+      </c>
+      <c r="CX172" s="4">
+        <v>573</v>
+      </c>
+      <c r="CY172" s="4">
+        <v>678</v>
+      </c>
+      <c r="CZ172" s="4">
+        <v>751</v>
+      </c>
+      <c r="DA172" s="4">
+        <v>1057</v>
+      </c>
+      <c r="DB172" s="4">
+        <v>852</v>
+      </c>
+      <c r="DC172" s="4">
+        <v>973</v>
+      </c>
+      <c r="DD172" s="4">
+        <v>771</v>
+      </c>
+      <c r="DE172" s="4">
+        <v>309</v>
+      </c>
+      <c r="DF172" s="4">
+        <v>324</v>
+      </c>
+      <c r="DG172" s="4">
+        <v>628</v>
+      </c>
+      <c r="DH172" s="4">
+        <v>540</v>
+      </c>
+      <c r="DI172" s="4">
+        <v>387</v>
+      </c>
+      <c r="DJ172" s="4">
+        <v>528</v>
+      </c>
+      <c r="DK172" s="4">
+        <v>308</v>
+      </c>
+      <c r="DL172" s="4">
+        <v>533</v>
+      </c>
+      <c r="DM172" s="4">
+        <v>693</v>
+      </c>
+      <c r="DN172" s="4">
+        <v>502</v>
+      </c>
+      <c r="DO172" s="4">
+        <v>471</v>
+      </c>
+      <c r="DP172" s="4">
+        <v>344</v>
+      </c>
+      <c r="DQ172" s="4">
+        <v>508</v>
+      </c>
+      <c r="DR172">
+        <v>109738</v>
+      </c>
+      <c r="DS172">
+        <v>226298</v>
+      </c>
+      <c r="DT172">
+        <v>8015</v>
+      </c>
+      <c r="DU172">
+        <v>98241</v>
+      </c>
+      <c r="DV172">
+        <v>63564</v>
+      </c>
+      <c r="DW172">
+        <v>22675</v>
+      </c>
+      <c r="DX172">
+        <v>7283</v>
       </c>
     </row>
   </sheetData>

--- a/CasosColombia.xlsx
+++ b/CasosColombia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Matlab\MATLAB_R2019a\fitVirusCV19_v07_v17\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B0C566D-974F-45D6-9912-87F98DB0A457}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D57083C9-3618-45BA-A36C-6C6393BA2029}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3435" yWindow="375" windowWidth="21600" windowHeight="11505" xr2:uid="{6C56C21C-B00B-4C62-A627-74DAE246E91A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="129">
   <si>
     <t>Fecha</t>
   </si>
@@ -1497,13 +1497,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13133E2-69F7-478D-A001-FD6CB4FB0C80}">
-  <dimension ref="A1:DX172"/>
+  <dimension ref="A1:DX173"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="DI146" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="DI141" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="DX172" sqref="DX172"/>
+      <selection pane="bottomRight" activeCell="DX173" sqref="DX173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4625,8 +4625,8 @@
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="I9" s="10">
-        <v>1</v>
+      <c r="I9" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -5011,8 +5011,8 @@
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="I10" s="10">
-        <v>1</v>
+      <c r="I10" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -10592,8 +10592,8 @@
       <c r="BO24">
         <v>0</v>
       </c>
-      <c r="BP24" s="7" t="s">
-        <v>68</v>
+      <c r="BP24" s="7">
+        <v>1</v>
       </c>
       <c r="BQ24" s="4">
         <v>0</v>
@@ -10810,8 +10810,8 @@
       <c r="K25" t="s">
         <v>68</v>
       </c>
-      <c r="L25">
-        <v>4</v>
+      <c r="L25" t="s">
+        <v>68</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -11196,8 +11196,8 @@
       <c r="K26" t="s">
         <v>68</v>
       </c>
-      <c r="L26">
-        <v>4</v>
+      <c r="L26" t="s">
+        <v>68</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -11582,8 +11582,8 @@
       <c r="K27" t="s">
         <v>68</v>
       </c>
-      <c r="L27">
-        <v>11</v>
+      <c r="L27" t="s">
+        <v>68</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -13363,8 +13363,8 @@
       <c r="CL31" s="4">
         <v>8</v>
       </c>
-      <c r="CM31" s="13">
-        <v>1</v>
+      <c r="CM31" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="CN31" s="4">
         <v>8</v>
@@ -14452,8 +14452,8 @@
       <c r="BO34">
         <v>1</v>
       </c>
-      <c r="BP34">
-        <v>1</v>
+      <c r="BP34" t="s">
+        <v>68</v>
       </c>
       <c r="BQ34">
         <v>0</v>
@@ -23623,8 +23623,8 @@
       <c r="AJ58">
         <v>3</v>
       </c>
-      <c r="AK58" s="12" t="s">
-        <v>68</v>
+      <c r="AK58" s="12">
+        <v>6</v>
       </c>
       <c r="AL58">
         <v>164</v>
@@ -24009,8 +24009,8 @@
       <c r="AJ59">
         <v>3</v>
       </c>
-      <c r="AK59" s="12" t="s">
-        <v>68</v>
+      <c r="AK59" s="12">
+        <v>6</v>
       </c>
       <c r="AL59">
         <v>196</v>
@@ -24395,8 +24395,8 @@
       <c r="AJ60">
         <v>3</v>
       </c>
-      <c r="AK60" s="12" t="s">
-        <v>68</v>
+      <c r="AK60" s="12">
+        <v>6</v>
       </c>
       <c r="AL60">
         <v>242</v>
@@ -24781,8 +24781,8 @@
       <c r="AJ61">
         <v>3</v>
       </c>
-      <c r="AK61" s="12" t="s">
-        <v>68</v>
+      <c r="AK61" s="12">
+        <v>6</v>
       </c>
       <c r="AL61">
         <v>253</v>
@@ -25167,8 +25167,8 @@
       <c r="AJ62">
         <v>3</v>
       </c>
-      <c r="AK62" s="12" t="s">
-        <v>68</v>
+      <c r="AK62" s="12">
+        <v>6</v>
       </c>
       <c r="AL62">
         <v>298</v>
@@ -25553,8 +25553,8 @@
       <c r="AJ63">
         <v>3</v>
       </c>
-      <c r="AK63" s="12" t="s">
-        <v>68</v>
+      <c r="AK63" s="12">
+        <v>6</v>
       </c>
       <c r="AL63">
         <v>306</v>
@@ -25939,8 +25939,8 @@
       <c r="AJ64">
         <v>3</v>
       </c>
-      <c r="AK64" s="12" t="s">
-        <v>68</v>
+      <c r="AK64" s="12">
+        <v>6</v>
       </c>
       <c r="AL64">
         <v>323</v>
@@ -26325,8 +26325,8 @@
       <c r="AJ65">
         <v>11</v>
       </c>
-      <c r="AK65" s="12" t="s">
-        <v>68</v>
+      <c r="AK65" s="12">
+        <v>6</v>
       </c>
       <c r="AL65">
         <v>381</v>
@@ -26711,8 +26711,8 @@
       <c r="AJ66">
         <v>11</v>
       </c>
-      <c r="AK66" s="12" t="s">
-        <v>68</v>
+      <c r="AK66" s="12">
+        <v>6</v>
       </c>
       <c r="AL66">
         <v>392</v>
@@ -27097,8 +27097,8 @@
       <c r="AJ67">
         <v>11</v>
       </c>
-      <c r="AK67" s="12" t="s">
-        <v>68</v>
+      <c r="AK67" s="12">
+        <v>6</v>
       </c>
       <c r="AL67">
         <v>427</v>
@@ -27483,8 +27483,8 @@
       <c r="AJ68">
         <v>12</v>
       </c>
-      <c r="AK68" s="12" t="s">
-        <v>68</v>
+      <c r="AK68" s="12">
+        <v>6</v>
       </c>
       <c r="AL68">
         <v>451</v>
@@ -27869,8 +27869,8 @@
       <c r="AJ69">
         <v>12</v>
       </c>
-      <c r="AK69" s="12" t="s">
-        <v>68</v>
+      <c r="AK69" s="12">
+        <v>6</v>
       </c>
       <c r="AL69">
         <v>488</v>
@@ -28255,8 +28255,8 @@
       <c r="AJ70">
         <v>13</v>
       </c>
-      <c r="AK70" s="12" t="s">
-        <v>68</v>
+      <c r="AK70" s="12">
+        <v>6</v>
       </c>
       <c r="AL70">
         <v>592</v>
@@ -28641,8 +28641,8 @@
       <c r="AJ71">
         <v>13</v>
       </c>
-      <c r="AK71" s="12" t="s">
-        <v>68</v>
+      <c r="AK71" s="12">
+        <v>6</v>
       </c>
       <c r="AL71">
         <v>654</v>
@@ -29027,8 +29027,8 @@
       <c r="AJ72">
         <v>15</v>
       </c>
-      <c r="AK72" s="12" t="s">
-        <v>68</v>
+      <c r="AK72" s="12">
+        <v>6</v>
       </c>
       <c r="AL72">
         <v>722</v>
@@ -32277,8 +32277,8 @@
       <c r="CL80" s="4">
         <v>33</v>
       </c>
-      <c r="CM80" s="13">
-        <v>17</v>
+      <c r="CM80" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="CN80" s="4">
         <v>13</v>
@@ -32663,8 +32663,8 @@
       <c r="CL81" s="4">
         <v>34</v>
       </c>
-      <c r="CM81" s="13">
-        <v>20</v>
+      <c r="CM81" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="CN81" s="4">
         <v>13</v>
@@ -35350,8 +35350,8 @@
       <c r="CG88" s="4">
         <v>23</v>
       </c>
-      <c r="CH88" s="4">
-        <v>4</v>
+      <c r="CH88" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="CI88" s="4">
         <v>49</v>
@@ -35604,8 +35604,8 @@
       <c r="AO89">
         <v>2692</v>
       </c>
-      <c r="AP89">
-        <v>24</v>
+      <c r="AP89" t="s">
+        <v>68</v>
       </c>
       <c r="AQ89">
         <v>3049</v>
@@ -36274,8 +36274,8 @@
       <c r="G91">
         <v>3571</v>
       </c>
-      <c r="H91" s="10">
-        <v>3</v>
+      <c r="H91" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="I91">
         <v>157</v>
@@ -37148,8 +37148,8 @@
       <c r="AO93">
         <v>3099</v>
       </c>
-      <c r="AP93">
-        <v>70</v>
+      <c r="AP93" t="s">
+        <v>68</v>
       </c>
       <c r="AQ93">
         <v>3602</v>
@@ -39063,8 +39063,8 @@
       <c r="AJ98">
         <v>109</v>
       </c>
-      <c r="AK98" t="s">
-        <v>68</v>
+      <c r="AK98">
+        <v>74</v>
       </c>
       <c r="AL98">
         <v>3927</v>
@@ -39449,8 +39449,8 @@
       <c r="AJ99">
         <v>112</v>
       </c>
-      <c r="AK99" t="s">
-        <v>68</v>
+      <c r="AK99">
+        <v>77</v>
       </c>
       <c r="AL99">
         <v>4130</v>
@@ -42633,8 +42633,8 @@
       <c r="BP107">
         <v>152</v>
       </c>
-      <c r="BQ107">
-        <v>112</v>
+      <c r="BQ107" t="s">
+        <v>68</v>
       </c>
       <c r="BR107">
         <v>63</v>
@@ -43019,8 +43019,8 @@
       <c r="BP108">
         <v>158</v>
       </c>
-      <c r="BQ108">
-        <v>161</v>
+      <c r="BQ108" t="s">
+        <v>68</v>
       </c>
       <c r="BR108">
         <v>73</v>
@@ -45544,8 +45544,8 @@
       <c r="I115">
         <v>244</v>
       </c>
-      <c r="J115">
-        <v>31</v>
+      <c r="J115" t="s">
+        <v>68</v>
       </c>
       <c r="K115">
         <v>329</v>
@@ -50242,8 +50242,8 @@
       <c r="AE127">
         <v>29</v>
       </c>
-      <c r="AF127">
-        <v>6</v>
+      <c r="AF127" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="AG127">
         <v>14</v>
@@ -67902,6 +67902,392 @@
       </c>
       <c r="DX172">
         <v>7283</v>
+      </c>
+    </row>
+    <row r="173" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>44067</v>
+      </c>
+      <c r="B173">
+        <v>551696</v>
+      </c>
+      <c r="C173">
+        <v>2690</v>
+      </c>
+      <c r="D173">
+        <v>71563</v>
+      </c>
+      <c r="E173">
+        <v>63069</v>
+      </c>
+      <c r="F173">
+        <v>192654</v>
+      </c>
+      <c r="G173">
+        <v>23694</v>
+      </c>
+      <c r="H173">
+        <v>3001</v>
+      </c>
+      <c r="I173">
+        <v>2386</v>
+      </c>
+      <c r="J173">
+        <v>5069</v>
+      </c>
+      <c r="K173">
+        <v>4329</v>
+      </c>
+      <c r="L173">
+        <v>8067</v>
+      </c>
+      <c r="M173">
+        <v>3664</v>
+      </c>
+      <c r="N173">
+        <v>17498</v>
+      </c>
+      <c r="O173">
+        <v>19626</v>
+      </c>
+      <c r="P173">
+        <v>4471</v>
+      </c>
+      <c r="Q173">
+        <v>3443</v>
+      </c>
+      <c r="R173">
+        <v>11444</v>
+      </c>
+      <c r="S173">
+        <v>6089</v>
+      </c>
+      <c r="T173">
+        <v>12846</v>
+      </c>
+      <c r="U173">
+        <v>9134</v>
+      </c>
+      <c r="V173">
+        <v>2476</v>
+      </c>
+      <c r="W173">
+        <v>937</v>
+      </c>
+      <c r="X173">
+        <v>4791</v>
+      </c>
+      <c r="Y173">
+        <v>14186</v>
+      </c>
+      <c r="Z173">
+        <v>10505</v>
+      </c>
+      <c r="AA173">
+        <v>5691</v>
+      </c>
+      <c r="AB173">
+        <v>43598</v>
+      </c>
+      <c r="AC173">
+        <v>888</v>
+      </c>
+      <c r="AD173">
+        <v>126</v>
+      </c>
+      <c r="AE173">
+        <v>216</v>
+      </c>
+      <c r="AF173">
+        <v>440</v>
+      </c>
+      <c r="AG173">
+        <v>49</v>
+      </c>
+      <c r="AH173">
+        <v>29</v>
+      </c>
+      <c r="AI173">
+        <v>236</v>
+      </c>
+      <c r="AJ173">
+        <v>1940</v>
+      </c>
+      <c r="AK173">
+        <v>2387</v>
+      </c>
+      <c r="AL173">
+        <v>35532</v>
+      </c>
+      <c r="AM173">
+        <v>6031</v>
+      </c>
+      <c r="AN173">
+        <v>2381</v>
+      </c>
+      <c r="AO173">
+        <v>34340</v>
+      </c>
+      <c r="AP173">
+        <v>843</v>
+      </c>
+      <c r="AQ173">
+        <v>19415</v>
+      </c>
+      <c r="AR173">
+        <v>1415</v>
+      </c>
+      <c r="AS173">
+        <v>6370</v>
+      </c>
+      <c r="AT173">
+        <v>1402</v>
+      </c>
+      <c r="AU173">
+        <v>1543</v>
+      </c>
+      <c r="AV173">
+        <v>3277</v>
+      </c>
+      <c r="AW173">
+        <v>1450</v>
+      </c>
+      <c r="AX173">
+        <v>925</v>
+      </c>
+      <c r="AY173">
+        <v>2458</v>
+      </c>
+      <c r="AZ173">
+        <v>2573</v>
+      </c>
+      <c r="BA173">
+        <v>41035</v>
+      </c>
+      <c r="BB173">
+        <v>11098</v>
+      </c>
+      <c r="BC173">
+        <v>1953</v>
+      </c>
+      <c r="BD173">
+        <v>6766</v>
+      </c>
+      <c r="BE173">
+        <v>3103</v>
+      </c>
+      <c r="BF173">
+        <v>274</v>
+      </c>
+      <c r="BG173">
+        <v>1375</v>
+      </c>
+      <c r="BH173">
+        <v>2549</v>
+      </c>
+      <c r="BI173">
+        <v>727</v>
+      </c>
+      <c r="BJ173">
+        <v>1950</v>
+      </c>
+      <c r="BK173">
+        <v>7747</v>
+      </c>
+      <c r="BL173">
+        <v>7584</v>
+      </c>
+      <c r="BM173">
+        <v>7349</v>
+      </c>
+      <c r="BN173">
+        <v>13618</v>
+      </c>
+      <c r="BO173">
+        <v>1846</v>
+      </c>
+      <c r="BP173">
+        <v>769</v>
+      </c>
+      <c r="BQ173">
+        <v>5530</v>
+      </c>
+      <c r="BR173">
+        <v>5077</v>
+      </c>
+      <c r="BS173" s="4">
+        <v>5903</v>
+      </c>
+      <c r="BT173" s="4">
+        <v>1265</v>
+      </c>
+      <c r="BU173" s="4">
+        <v>1351</v>
+      </c>
+      <c r="BV173" s="4">
+        <v>2336</v>
+      </c>
+      <c r="BW173" s="4">
+        <v>2623</v>
+      </c>
+      <c r="BX173" s="4">
+        <v>708</v>
+      </c>
+      <c r="BY173" s="4">
+        <v>3890</v>
+      </c>
+      <c r="BZ173" s="4">
+        <v>2227</v>
+      </c>
+      <c r="CA173" s="4">
+        <v>1083</v>
+      </c>
+      <c r="CB173" s="4">
+        <v>619</v>
+      </c>
+      <c r="CC173" s="4">
+        <v>1816</v>
+      </c>
+      <c r="CD173" s="4">
+        <v>1759</v>
+      </c>
+      <c r="CE173" s="4">
+        <v>987</v>
+      </c>
+      <c r="CF173" s="4">
+        <v>829</v>
+      </c>
+      <c r="CG173" s="4">
+        <v>4224</v>
+      </c>
+      <c r="CH173" s="4">
+        <v>1117</v>
+      </c>
+      <c r="CI173" s="4">
+        <v>1064</v>
+      </c>
+      <c r="CJ173" s="4">
+        <v>1103</v>
+      </c>
+      <c r="CK173" s="4">
+        <v>1392</v>
+      </c>
+      <c r="CL173" s="4">
+        <v>1270</v>
+      </c>
+      <c r="CM173" s="4">
+        <v>1312</v>
+      </c>
+      <c r="CN173" s="4">
+        <v>1045</v>
+      </c>
+      <c r="CO173" s="4">
+        <v>983</v>
+      </c>
+      <c r="CP173" s="4">
+        <v>1052</v>
+      </c>
+      <c r="CQ173" s="4">
+        <v>528</v>
+      </c>
+      <c r="CR173" s="4">
+        <v>2855</v>
+      </c>
+      <c r="CS173" s="4">
+        <v>870</v>
+      </c>
+      <c r="CT173" s="4">
+        <v>743</v>
+      </c>
+      <c r="CU173" s="4">
+        <v>674</v>
+      </c>
+      <c r="CV173" s="4">
+        <v>1136</v>
+      </c>
+      <c r="CW173" s="4">
+        <v>1031</v>
+      </c>
+      <c r="CX173" s="4">
+        <v>574</v>
+      </c>
+      <c r="CY173" s="4">
+        <v>686</v>
+      </c>
+      <c r="CZ173" s="4">
+        <v>773</v>
+      </c>
+      <c r="DA173" s="4">
+        <v>1075</v>
+      </c>
+      <c r="DB173" s="4">
+        <v>878</v>
+      </c>
+      <c r="DC173" s="4">
+        <v>1002</v>
+      </c>
+      <c r="DD173" s="4">
+        <v>782</v>
+      </c>
+      <c r="DE173" s="4">
+        <v>311</v>
+      </c>
+      <c r="DF173" s="4">
+        <v>324</v>
+      </c>
+      <c r="DG173" s="4">
+        <v>629</v>
+      </c>
+      <c r="DH173" s="4">
+        <v>541</v>
+      </c>
+      <c r="DI173" s="4">
+        <v>389</v>
+      </c>
+      <c r="DJ173" s="4">
+        <v>528</v>
+      </c>
+      <c r="DK173" s="4">
+        <v>308</v>
+      </c>
+      <c r="DL173" s="4">
+        <v>536</v>
+      </c>
+      <c r="DM173" s="4">
+        <v>693</v>
+      </c>
+      <c r="DN173" s="4">
+        <v>502</v>
+      </c>
+      <c r="DO173" s="4">
+        <v>471</v>
+      </c>
+      <c r="DP173" s="4">
+        <v>345</v>
+      </c>
+      <c r="DQ173" s="4">
+        <v>508</v>
+      </c>
+      <c r="DR173">
+        <v>110745</v>
+      </c>
+      <c r="DS173">
+        <v>232225</v>
+      </c>
+      <c r="DT173">
+        <v>8387</v>
+      </c>
+      <c r="DU173">
+        <v>99556</v>
+      </c>
+      <c r="DV173">
+        <v>64437</v>
+      </c>
+      <c r="DW173">
+        <v>23369</v>
+      </c>
+      <c r="DX173">
+        <v>7594</v>
       </c>
     </row>
   </sheetData>

--- a/CasosColombia.xlsx
+++ b/CasosColombia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Matlab\MATLAB_R2019a\fitVirusCV19_v07_v17\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D57083C9-3618-45BA-A36C-6C6393BA2029}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{81F40055-25CC-482E-B2EB-2F7F62446E20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3435" yWindow="375" windowWidth="21600" windowHeight="11505" xr2:uid="{6C56C21C-B00B-4C62-A627-74DAE246E91A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="129">
   <si>
     <t>Fecha</t>
   </si>
@@ -1497,13 +1497,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13133E2-69F7-478D-A001-FD6CB4FB0C80}">
-  <dimension ref="A1:DX173"/>
+  <dimension ref="A1:DX174"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="DI141" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="DI143" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="DX173" sqref="DX173"/>
+      <selection pane="bottomRight" activeCell="A174" sqref="A174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4625,8 +4625,8 @@
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="I9" s="10" t="s">
-        <v>68</v>
+      <c r="I9" s="10">
+        <v>1</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -5011,8 +5011,8 @@
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="I10" s="10" t="s">
-        <v>68</v>
+      <c r="I10" s="10">
+        <v>1</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -7591,8 +7591,8 @@
       <c r="CR16" s="4">
         <v>0</v>
       </c>
-      <c r="CS16" s="4">
-        <v>1</v>
+      <c r="CS16" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="CT16" s="4">
         <v>0</v>
@@ -7977,8 +7977,8 @@
       <c r="CR17" s="4">
         <v>0</v>
       </c>
-      <c r="CS17" s="4">
-        <v>1</v>
+      <c r="CS17" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="CT17" s="4">
         <v>0</v>
@@ -8099,8 +8099,8 @@
       <c r="H18">
         <v>0</v>
       </c>
-      <c r="I18">
-        <v>6</v>
+      <c r="I18" t="s">
+        <v>68</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -8494,8 +8494,8 @@
       <c r="K19" t="s">
         <v>68</v>
       </c>
-      <c r="L19">
-        <v>1</v>
+      <c r="L19" t="s">
+        <v>68</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -8773,8 +8773,8 @@
       <c r="CZ19" s="4">
         <v>3</v>
       </c>
-      <c r="DA19" s="4">
-        <v>2</v>
+      <c r="DA19" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="DB19" s="4">
         <v>0</v>
@@ -9147,8 +9147,8 @@
       <c r="CV20" s="4">
         <v>0</v>
       </c>
-      <c r="CW20" s="4">
-        <v>1</v>
+      <c r="CW20" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="CX20" s="4">
         <v>0</v>
@@ -9533,8 +9533,8 @@
       <c r="CV21" s="4">
         <v>0</v>
       </c>
-      <c r="CW21" s="4">
-        <v>1</v>
+      <c r="CW21" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="CX21" s="4">
         <v>0</v>
@@ -9919,8 +9919,8 @@
       <c r="CV22" s="4">
         <v>0</v>
       </c>
-      <c r="CW22" s="4">
-        <v>1</v>
+      <c r="CW22" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="CX22" s="4">
         <v>0</v>
@@ -10179,8 +10179,8 @@
       <c r="BF23">
         <v>0</v>
       </c>
-      <c r="BG23">
-        <v>1</v>
+      <c r="BG23" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="BH23">
         <v>0</v>
@@ -10305,8 +10305,8 @@
       <c r="CV23" s="4">
         <v>0</v>
       </c>
-      <c r="CW23" s="4">
-        <v>1</v>
+      <c r="CW23" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="CX23" s="4">
         <v>0</v>
@@ -11463,8 +11463,8 @@
       <c r="CV26" s="4">
         <v>0</v>
       </c>
-      <c r="CW26" s="4" t="s">
-        <v>68</v>
+      <c r="CW26" s="4">
+        <v>1</v>
       </c>
       <c r="CX26" s="4">
         <v>0</v>
@@ -11849,8 +11849,8 @@
       <c r="CV27" s="4">
         <v>0</v>
       </c>
-      <c r="CW27" s="4" t="s">
-        <v>68</v>
+      <c r="CW27" s="4">
+        <v>1</v>
       </c>
       <c r="CX27" s="4">
         <v>0</v>
@@ -13363,8 +13363,8 @@
       <c r="CL31" s="4">
         <v>8</v>
       </c>
-      <c r="CM31" s="13" t="s">
-        <v>68</v>
+      <c r="CM31" s="13">
+        <v>1</v>
       </c>
       <c r="CN31" s="4">
         <v>8</v>
@@ -13973,8 +13973,8 @@
       <c r="AJ33">
         <v>0</v>
       </c>
-      <c r="AK33">
-        <v>1</v>
+      <c r="AK33" t="s">
+        <v>68</v>
       </c>
       <c r="AL33">
         <v>43</v>
@@ -16092,8 +16092,8 @@
       <c r="CU38" s="4">
         <v>11</v>
       </c>
-      <c r="CV38" s="4">
-        <v>1</v>
+      <c r="CV38" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="CW38" s="4">
         <v>5</v>
@@ -30042,8 +30042,8 @@
       <c r="DM74" s="4">
         <v>29</v>
       </c>
-      <c r="DN74" s="4">
-        <v>30</v>
+      <c r="DN74" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="DO74" s="4">
         <v>7</v>
@@ -30428,8 +30428,8 @@
       <c r="DM75" s="4">
         <v>29</v>
       </c>
-      <c r="DN75" s="4">
-        <v>30</v>
+      <c r="DN75" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="DO75" s="4">
         <v>7</v>
@@ -32277,8 +32277,8 @@
       <c r="CL80" s="4">
         <v>33</v>
       </c>
-      <c r="CM80" s="13" t="s">
-        <v>68</v>
+      <c r="CM80" s="13">
+        <v>17</v>
       </c>
       <c r="CN80" s="4">
         <v>13</v>
@@ -32663,8 +32663,8 @@
       <c r="CL81" s="4">
         <v>34</v>
       </c>
-      <c r="CM81" s="13" t="s">
-        <v>68</v>
+      <c r="CM81" s="13">
+        <v>20</v>
       </c>
       <c r="CN81" s="4">
         <v>13</v>
@@ -33049,8 +33049,8 @@
       <c r="CL82" s="4">
         <v>35</v>
       </c>
-      <c r="CM82" s="13">
-        <v>22</v>
+      <c r="CM82" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="CN82" s="4">
         <v>13</v>
@@ -35841,8 +35841,8 @@
       <c r="DP89" s="4">
         <v>4</v>
       </c>
-      <c r="DQ89" s="4">
-        <v>1</v>
+      <c r="DQ89" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="DR89">
         <v>8372</v>
@@ -35888,8 +35888,8 @@
       <c r="G90">
         <v>3364</v>
       </c>
-      <c r="H90" s="10" t="s">
-        <v>68</v>
+      <c r="H90" s="10">
+        <v>3</v>
       </c>
       <c r="I90">
         <v>147</v>
@@ -37274,8 +37274,8 @@
       <c r="CE93" s="4">
         <v>10</v>
       </c>
-      <c r="CF93" s="4">
-        <v>3</v>
+      <c r="CF93" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="CG93" s="4">
         <v>23</v>
@@ -42678,8 +42678,8 @@
       <c r="CE107" s="4">
         <v>24</v>
       </c>
-      <c r="CF107" s="4">
-        <v>28</v>
+      <c r="CF107" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="CG107" s="4">
         <v>25</v>
@@ -68288,6 +68288,392 @@
       </c>
       <c r="DX173">
         <v>7594</v>
+      </c>
+    </row>
+    <row r="174" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>44068</v>
+      </c>
+      <c r="B174">
+        <v>562128</v>
+      </c>
+      <c r="C174">
+        <v>2691</v>
+      </c>
+      <c r="D174">
+        <v>72495</v>
+      </c>
+      <c r="E174">
+        <v>63255</v>
+      </c>
+      <c r="F174">
+        <v>195137</v>
+      </c>
+      <c r="G174">
+        <v>24158</v>
+      </c>
+      <c r="H174">
+        <v>3136</v>
+      </c>
+      <c r="I174">
+        <v>2474</v>
+      </c>
+      <c r="J174">
+        <v>5179</v>
+      </c>
+      <c r="K174">
+        <v>4408</v>
+      </c>
+      <c r="L174">
+        <v>8385</v>
+      </c>
+      <c r="M174">
+        <v>3675</v>
+      </c>
+      <c r="N174">
+        <v>18187</v>
+      </c>
+      <c r="O174">
+        <v>20336</v>
+      </c>
+      <c r="P174">
+        <v>4608</v>
+      </c>
+      <c r="Q174">
+        <v>3644</v>
+      </c>
+      <c r="R174">
+        <v>11624</v>
+      </c>
+      <c r="S174">
+        <v>6562</v>
+      </c>
+      <c r="T174">
+        <v>13177</v>
+      </c>
+      <c r="U174">
+        <v>9548</v>
+      </c>
+      <c r="V174">
+        <v>2599</v>
+      </c>
+      <c r="W174">
+        <v>968</v>
+      </c>
+      <c r="X174">
+        <v>5002</v>
+      </c>
+      <c r="Y174">
+        <v>14703</v>
+      </c>
+      <c r="Z174">
+        <v>10858</v>
+      </c>
+      <c r="AA174">
+        <v>6016</v>
+      </c>
+      <c r="AB174">
+        <v>44394</v>
+      </c>
+      <c r="AC174">
+        <v>914</v>
+      </c>
+      <c r="AD174">
+        <v>172</v>
+      </c>
+      <c r="AE174">
+        <v>229</v>
+      </c>
+      <c r="AF174">
+        <v>441</v>
+      </c>
+      <c r="AG174">
+        <v>74</v>
+      </c>
+      <c r="AH174">
+        <v>36</v>
+      </c>
+      <c r="AI174">
+        <v>237</v>
+      </c>
+      <c r="AJ174">
+        <v>1941</v>
+      </c>
+      <c r="AK174">
+        <v>2487</v>
+      </c>
+      <c r="AL174">
+        <v>35654</v>
+      </c>
+      <c r="AM174">
+        <v>6147</v>
+      </c>
+      <c r="AN174">
+        <v>2390</v>
+      </c>
+      <c r="AO174">
+        <v>34903</v>
+      </c>
+      <c r="AP174">
+        <v>852</v>
+      </c>
+      <c r="AQ174">
+        <v>19695</v>
+      </c>
+      <c r="AR174">
+        <v>1418</v>
+      </c>
+      <c r="AS174">
+        <v>6670</v>
+      </c>
+      <c r="AT174">
+        <v>1423</v>
+      </c>
+      <c r="AU174">
+        <v>1544</v>
+      </c>
+      <c r="AV174">
+        <v>3541</v>
+      </c>
+      <c r="AW174">
+        <v>1483</v>
+      </c>
+      <c r="AX174">
+        <v>925</v>
+      </c>
+      <c r="AY174">
+        <v>2459</v>
+      </c>
+      <c r="AZ174">
+        <v>2574</v>
+      </c>
+      <c r="BA174">
+        <v>41630</v>
+      </c>
+      <c r="BB174">
+        <v>11403</v>
+      </c>
+      <c r="BC174">
+        <v>2069</v>
+      </c>
+      <c r="BD174">
+        <v>7025</v>
+      </c>
+      <c r="BE174">
+        <v>3233</v>
+      </c>
+      <c r="BF174">
+        <v>274</v>
+      </c>
+      <c r="BG174">
+        <v>1375</v>
+      </c>
+      <c r="BH174">
+        <v>2558</v>
+      </c>
+      <c r="BI174">
+        <v>728</v>
+      </c>
+      <c r="BJ174">
+        <v>1959</v>
+      </c>
+      <c r="BK174">
+        <v>7857</v>
+      </c>
+      <c r="BL174">
+        <v>7820</v>
+      </c>
+      <c r="BM174">
+        <v>7571</v>
+      </c>
+      <c r="BN174">
+        <v>13639</v>
+      </c>
+      <c r="BO174">
+        <v>1863</v>
+      </c>
+      <c r="BP174">
+        <v>788</v>
+      </c>
+      <c r="BQ174">
+        <v>5799</v>
+      </c>
+      <c r="BR174">
+        <v>5484</v>
+      </c>
+      <c r="BS174" s="4">
+        <v>6127</v>
+      </c>
+      <c r="BT174" s="4">
+        <v>1302</v>
+      </c>
+      <c r="BU174" s="4">
+        <v>1394</v>
+      </c>
+      <c r="BV174" s="4">
+        <v>2377</v>
+      </c>
+      <c r="BW174" s="4">
+        <v>2719</v>
+      </c>
+      <c r="BX174" s="4">
+        <v>729</v>
+      </c>
+      <c r="BY174" s="4">
+        <v>3935</v>
+      </c>
+      <c r="BZ174" s="4">
+        <v>2253</v>
+      </c>
+      <c r="CA174" s="4">
+        <v>1136</v>
+      </c>
+      <c r="CB174" s="4">
+        <v>640</v>
+      </c>
+      <c r="CC174" s="4">
+        <v>1866</v>
+      </c>
+      <c r="CD174" s="4">
+        <v>1797</v>
+      </c>
+      <c r="CE174" s="4">
+        <v>1025</v>
+      </c>
+      <c r="CF174" s="4">
+        <v>838</v>
+      </c>
+      <c r="CG174" s="4">
+        <v>4325</v>
+      </c>
+      <c r="CH174" s="4">
+        <v>1150</v>
+      </c>
+      <c r="CI174" s="4">
+        <v>1106</v>
+      </c>
+      <c r="CJ174" s="4">
+        <v>1125</v>
+      </c>
+      <c r="CK174" s="4">
+        <v>1423</v>
+      </c>
+      <c r="CL174" s="4">
+        <v>1326</v>
+      </c>
+      <c r="CM174" s="4">
+        <v>1375</v>
+      </c>
+      <c r="CN174" s="4">
+        <v>1064</v>
+      </c>
+      <c r="CO174" s="4">
+        <v>1013</v>
+      </c>
+      <c r="CP174" s="4">
+        <v>1055</v>
+      </c>
+      <c r="CQ174" s="4">
+        <v>542</v>
+      </c>
+      <c r="CR174" s="4">
+        <v>2869</v>
+      </c>
+      <c r="CS174" s="4">
+        <v>901</v>
+      </c>
+      <c r="CT174" s="4">
+        <v>772</v>
+      </c>
+      <c r="CU174" s="4">
+        <v>703</v>
+      </c>
+      <c r="CV174" s="4">
+        <v>1212</v>
+      </c>
+      <c r="CW174" s="4">
+        <v>1053</v>
+      </c>
+      <c r="CX174" s="4">
+        <v>577</v>
+      </c>
+      <c r="CY174" s="4">
+        <v>696</v>
+      </c>
+      <c r="CZ174" s="4">
+        <v>797</v>
+      </c>
+      <c r="DA174" s="4">
+        <v>1078</v>
+      </c>
+      <c r="DB174" s="4">
+        <v>886</v>
+      </c>
+      <c r="DC174" s="4">
+        <v>1018</v>
+      </c>
+      <c r="DD174" s="4">
+        <v>787</v>
+      </c>
+      <c r="DE174" s="4">
+        <v>311</v>
+      </c>
+      <c r="DF174" s="4">
+        <v>325</v>
+      </c>
+      <c r="DG174" s="4">
+        <v>646</v>
+      </c>
+      <c r="DH174" s="4">
+        <v>548</v>
+      </c>
+      <c r="DI174" s="4">
+        <v>390</v>
+      </c>
+      <c r="DJ174" s="4">
+        <v>529</v>
+      </c>
+      <c r="DK174" s="4">
+        <v>316</v>
+      </c>
+      <c r="DL174" s="4">
+        <v>562</v>
+      </c>
+      <c r="DM174" s="4">
+        <v>693</v>
+      </c>
+      <c r="DN174" s="4">
+        <v>503</v>
+      </c>
+      <c r="DO174" s="4">
+        <v>471</v>
+      </c>
+      <c r="DP174" s="4">
+        <v>354</v>
+      </c>
+      <c r="DQ174" s="4">
+        <v>508</v>
+      </c>
+      <c r="DR174">
+        <v>112030</v>
+      </c>
+      <c r="DS174">
+        <v>236552</v>
+      </c>
+      <c r="DT174">
+        <v>8717</v>
+      </c>
+      <c r="DU174">
+        <v>101530</v>
+      </c>
+      <c r="DV174">
+        <v>65654</v>
+      </c>
+      <c r="DW174">
+        <v>24300</v>
+      </c>
+      <c r="DX174">
+        <v>7852</v>
       </c>
     </row>
   </sheetData>

--- a/CasosColombia.xlsx
+++ b/CasosColombia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Matlab\MATLAB_R2019a\fitVirusCV19_v07_v17\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81F40055-25CC-482E-B2EB-2F7F62446E20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{91490FE9-27F7-4C4E-9FD4-464853D47366}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3435" yWindow="375" windowWidth="21600" windowHeight="11505" xr2:uid="{6C56C21C-B00B-4C62-A627-74DAE246E91A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="129">
   <si>
     <t>Fecha</t>
   </si>
@@ -1497,13 +1497,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13133E2-69F7-478D-A001-FD6CB4FB0C80}">
-  <dimension ref="A1:DX174"/>
+  <dimension ref="A1:DX175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="DI143" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="DI146" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A174" sqref="A174"/>
+      <selection pane="bottomRight" activeCell="A175" sqref="A175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1914,8 +1914,8 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>1</v>
+      <c r="F2" t="s">
+        <v>68</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -7740,8 +7740,8 @@
       <c r="Q17">
         <v>0</v>
       </c>
-      <c r="R17" t="s">
-        <v>68</v>
+      <c r="R17">
+        <v>2</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -8099,8 +8099,8 @@
       <c r="H18">
         <v>0</v>
       </c>
-      <c r="I18" t="s">
-        <v>68</v>
+      <c r="I18">
+        <v>6</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -8126,8 +8126,8 @@
       <c r="Q18">
         <v>0</v>
       </c>
-      <c r="R18" t="s">
-        <v>68</v>
+      <c r="R18">
+        <v>2</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -8494,8 +8494,8 @@
       <c r="K19" t="s">
         <v>68</v>
       </c>
-      <c r="L19" t="s">
-        <v>68</v>
+      <c r="L19">
+        <v>1</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -10810,8 +10810,8 @@
       <c r="K25" t="s">
         <v>68</v>
       </c>
-      <c r="L25" t="s">
-        <v>68</v>
+      <c r="L25">
+        <v>4</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -11196,8 +11196,8 @@
       <c r="K26" t="s">
         <v>68</v>
       </c>
-      <c r="L26" t="s">
-        <v>68</v>
+      <c r="L26">
+        <v>4</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -11582,8 +11582,8 @@
       <c r="K27" t="s">
         <v>68</v>
       </c>
-      <c r="L27" t="s">
-        <v>68</v>
+      <c r="L27">
+        <v>11</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -14359,8 +14359,8 @@
       <c r="AJ34">
         <v>0</v>
       </c>
-      <c r="AK34">
-        <v>1</v>
+      <c r="AK34" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="AL34">
         <v>46</v>
@@ -14745,8 +14745,8 @@
       <c r="AJ35">
         <v>0</v>
       </c>
-      <c r="AK35">
-        <v>1</v>
+      <c r="AK35" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="AL35">
         <v>49</v>
@@ -15131,8 +15131,8 @@
       <c r="AJ36">
         <v>0</v>
       </c>
-      <c r="AK36">
-        <v>2</v>
+      <c r="AK36" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="AL36">
         <v>55</v>
@@ -15442,8 +15442,8 @@
       <c r="K37">
         <v>19</v>
       </c>
-      <c r="L37" t="s">
-        <v>68</v>
+      <c r="L37">
+        <v>20</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -15517,8 +15517,8 @@
       <c r="AJ37">
         <v>0</v>
       </c>
-      <c r="AK37">
-        <v>2</v>
+      <c r="AK37" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="AL37">
         <v>60</v>
@@ -15828,8 +15828,8 @@
       <c r="K38">
         <v>20</v>
       </c>
-      <c r="L38" t="s">
-        <v>68</v>
+      <c r="L38">
+        <v>32</v>
       </c>
       <c r="M38">
         <v>1</v>
@@ -16214,8 +16214,8 @@
       <c r="K39">
         <v>20</v>
       </c>
-      <c r="L39" t="s">
-        <v>68</v>
+      <c r="L39">
+        <v>32</v>
       </c>
       <c r="M39">
         <v>1</v>
@@ -16600,8 +16600,8 @@
       <c r="K40">
         <v>20</v>
       </c>
-      <c r="L40" t="s">
-        <v>68</v>
+      <c r="L40">
+        <v>32</v>
       </c>
       <c r="M40">
         <v>1</v>
@@ -16986,8 +16986,8 @@
       <c r="K41">
         <v>21</v>
       </c>
-      <c r="L41" t="s">
-        <v>68</v>
+      <c r="L41">
+        <v>32</v>
       </c>
       <c r="M41">
         <v>1</v>
@@ -17372,8 +17372,8 @@
       <c r="K42">
         <v>21</v>
       </c>
-      <c r="L42" t="s">
-        <v>68</v>
+      <c r="L42">
+        <v>32</v>
       </c>
       <c r="M42">
         <v>1</v>
@@ -18261,8 +18261,8 @@
       <c r="AX44">
         <v>0</v>
       </c>
-      <c r="AY44" s="10" t="s">
-        <v>68</v>
+      <c r="AY44" s="10">
+        <v>1</v>
       </c>
       <c r="AZ44">
         <v>1</v>
@@ -21349,8 +21349,8 @@
       <c r="AX52">
         <v>0</v>
       </c>
-      <c r="AY52">
-        <v>37</v>
+      <c r="AY52" t="s">
+        <v>68</v>
       </c>
       <c r="AZ52">
         <v>4</v>
@@ -34356,8 +34356,8 @@
       <c r="K86">
         <v>92</v>
       </c>
-      <c r="L86" t="s">
-        <v>68</v>
+      <c r="L86">
+        <v>163</v>
       </c>
       <c r="M86">
         <v>196</v>
@@ -34742,8 +34742,8 @@
       <c r="K87">
         <v>97</v>
       </c>
-      <c r="L87" t="s">
-        <v>68</v>
+      <c r="L87">
+        <v>207</v>
       </c>
       <c r="M87">
         <v>219</v>
@@ -35128,8 +35128,8 @@
       <c r="K88">
         <v>102</v>
       </c>
-      <c r="L88" t="s">
-        <v>68</v>
+      <c r="L88">
+        <v>253</v>
       </c>
       <c r="M88">
         <v>226</v>
@@ -35889,7 +35889,7 @@
         <v>3364</v>
       </c>
       <c r="H90" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I90">
         <v>147</v>
@@ -36274,8 +36274,8 @@
       <c r="G91">
         <v>3571</v>
       </c>
-      <c r="H91" s="10" t="s">
-        <v>68</v>
+      <c r="H91" s="10">
+        <v>3</v>
       </c>
       <c r="I91">
         <v>157</v>
@@ -36888,8 +36888,8 @@
       <c r="CE92" s="4">
         <v>10</v>
       </c>
-      <c r="CF92" s="4" t="s">
-        <v>68</v>
+      <c r="CF92" s="4">
+        <v>3</v>
       </c>
       <c r="CG92" s="4">
         <v>23</v>
@@ -37274,8 +37274,8 @@
       <c r="CE93" s="4">
         <v>10</v>
       </c>
-      <c r="CF93" s="4" t="s">
-        <v>68</v>
+      <c r="CF93" s="4">
+        <v>3</v>
       </c>
       <c r="CG93" s="4">
         <v>23</v>
@@ -38432,8 +38432,8 @@
       <c r="CE96" s="4">
         <v>13</v>
       </c>
-      <c r="CF96" s="4">
-        <v>6</v>
+      <c r="CF96" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="CG96" s="4">
         <v>24</v>
@@ -42450,8 +42450,8 @@
       <c r="G107">
         <v>6245</v>
       </c>
-      <c r="H107" s="10" t="s">
-        <v>68</v>
+      <c r="H107" s="10">
+        <v>78</v>
       </c>
       <c r="I107">
         <v>211</v>
@@ -45383,8 +45383,8 @@
       <c r="CF114" s="4">
         <v>47</v>
       </c>
-      <c r="CG114" s="4">
-        <v>25</v>
+      <c r="CG114" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="CH114" s="4">
         <v>37</v>
@@ -50556,8 +50556,8 @@
       <c r="G128">
         <v>11752</v>
       </c>
-      <c r="H128" s="4">
-        <v>267</v>
+      <c r="H128" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="I128">
         <v>294</v>
@@ -50942,8 +50942,8 @@
       <c r="G129">
         <v>11932</v>
       </c>
-      <c r="H129">
-        <v>275</v>
+      <c r="H129" t="s">
+        <v>68</v>
       </c>
       <c r="I129">
         <v>294</v>
@@ -51328,8 +51328,8 @@
       <c r="G130">
         <v>12225</v>
       </c>
-      <c r="H130">
-        <v>283</v>
+      <c r="H130" t="s">
+        <v>68</v>
       </c>
       <c r="I130">
         <v>302</v>
@@ -52872,8 +52872,8 @@
       <c r="G134">
         <v>13650</v>
       </c>
-      <c r="H134" t="s">
-        <v>68</v>
+      <c r="H134">
+        <v>328</v>
       </c>
       <c r="I134">
         <v>325</v>
@@ -54429,7 +54429,7 @@
         <v>1134</v>
       </c>
       <c r="L138">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="M138">
         <v>2530</v>
@@ -54815,7 +54815,7 @@
         <v>1174</v>
       </c>
       <c r="L139">
-        <v>2120</v>
+        <v>2118</v>
       </c>
       <c r="M139">
         <v>2561</v>
@@ -55201,7 +55201,7 @@
         <v>1308</v>
       </c>
       <c r="L140">
-        <v>2217</v>
+        <v>2215</v>
       </c>
       <c r="M140">
         <v>2713</v>
@@ -55574,8 +55574,8 @@
       <c r="G141">
         <v>15943</v>
       </c>
-      <c r="H141" t="s">
-        <v>68</v>
+      <c r="H141">
+        <v>503</v>
       </c>
       <c r="I141">
         <v>549</v>
@@ -55587,7 +55587,7 @@
         <v>1393</v>
       </c>
       <c r="L141">
-        <v>2301</v>
+        <v>2299</v>
       </c>
       <c r="M141">
         <v>2761</v>
@@ -55973,7 +55973,7 @@
         <v>1417</v>
       </c>
       <c r="L142">
-        <v>2360</v>
+        <v>2358</v>
       </c>
       <c r="M142">
         <v>2787</v>
@@ -56359,7 +56359,7 @@
         <v>1501</v>
       </c>
       <c r="L143">
-        <v>2440</v>
+        <v>2438</v>
       </c>
       <c r="M143">
         <v>2802</v>
@@ -56595,8 +56595,8 @@
       <c r="CL143" s="4">
         <v>373</v>
       </c>
-      <c r="CM143" s="13">
-        <v>326</v>
+      <c r="CM143" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="CN143" s="4">
         <v>200</v>
@@ -56745,7 +56745,7 @@
         <v>1558</v>
       </c>
       <c r="L144">
-        <v>2528</v>
+        <v>2526</v>
       </c>
       <c r="M144">
         <v>2820</v>
@@ -57131,7 +57131,7 @@
         <v>1624</v>
       </c>
       <c r="L145">
-        <v>2629</v>
+        <v>2627</v>
       </c>
       <c r="M145">
         <v>2861</v>
@@ -57517,7 +57517,7 @@
         <v>1696</v>
       </c>
       <c r="L146">
-        <v>2788</v>
+        <v>2785</v>
       </c>
       <c r="M146">
         <v>2916</v>
@@ -57890,8 +57890,8 @@
       <c r="G147">
         <v>17621</v>
       </c>
-      <c r="H147" t="s">
-        <v>68</v>
+      <c r="H147">
+        <v>716</v>
       </c>
       <c r="I147">
         <v>792</v>
@@ -57903,7 +57903,7 @@
         <v>1746</v>
       </c>
       <c r="L147">
-        <v>2876</v>
+        <v>2873</v>
       </c>
       <c r="M147">
         <v>2931</v>
@@ -58289,7 +58289,7 @@
         <v>1819</v>
       </c>
       <c r="L148">
-        <v>2992</v>
+        <v>2989</v>
       </c>
       <c r="M148">
         <v>2967</v>
@@ -58675,7 +58675,7 @@
         <v>1896</v>
       </c>
       <c r="L149">
-        <v>3105</v>
+        <v>3102</v>
       </c>
       <c r="M149">
         <v>3000</v>
@@ -59049,7 +59049,7 @@
         <v>18587</v>
       </c>
       <c r="H150" s="6">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="I150" s="6">
         <v>988</v>
@@ -59061,7 +59061,7 @@
         <v>1971</v>
       </c>
       <c r="L150" s="6">
-        <v>3341</v>
+        <v>3337</v>
       </c>
       <c r="M150" s="6">
         <v>3021</v>
@@ -59435,7 +59435,7 @@
         <v>18861</v>
       </c>
       <c r="H151">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="I151">
         <v>1018</v>
@@ -59447,7 +59447,7 @@
         <v>2042</v>
       </c>
       <c r="L151">
-        <v>3494</v>
+        <v>3490</v>
       </c>
       <c r="M151">
         <v>3055</v>
@@ -59821,7 +59821,7 @@
         <v>19209</v>
       </c>
       <c r="H152">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="I152">
         <v>1033</v>
@@ -59833,7 +59833,7 @@
         <v>2131</v>
       </c>
       <c r="L152">
-        <v>3532</v>
+        <v>3528</v>
       </c>
       <c r="M152">
         <v>3069</v>
@@ -60207,7 +60207,7 @@
         <v>19306</v>
       </c>
       <c r="H153">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="I153">
         <v>1057</v>
@@ -60219,7 +60219,7 @@
         <v>2181</v>
       </c>
       <c r="L153">
-        <v>3726</v>
+        <v>3722</v>
       </c>
       <c r="M153">
         <v>3098</v>
@@ -60593,7 +60593,7 @@
         <v>19548</v>
       </c>
       <c r="H154">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="I154">
         <v>1108</v>
@@ -60605,7 +60605,7 @@
         <v>2328</v>
       </c>
       <c r="L154">
-        <v>3830</v>
+        <v>3826</v>
       </c>
       <c r="M154">
         <v>3103</v>
@@ -60979,7 +60979,7 @@
         <v>19657</v>
       </c>
       <c r="H155">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="I155">
         <v>1157</v>
@@ -60991,7 +60991,7 @@
         <v>2392</v>
       </c>
       <c r="L155">
-        <v>3974</v>
+        <v>3970</v>
       </c>
       <c r="M155">
         <v>3125</v>
@@ -61365,7 +61365,7 @@
         <v>19901</v>
       </c>
       <c r="H156">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="I156">
         <v>1191</v>
@@ -61377,7 +61377,7 @@
         <v>2491</v>
       </c>
       <c r="L156">
-        <v>4200</v>
+        <v>4196</v>
       </c>
       <c r="M156">
         <v>3152</v>
@@ -61751,7 +61751,7 @@
         <v>20072</v>
       </c>
       <c r="H157">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="I157">
         <v>1216</v>
@@ -61763,7 +61763,7 @@
         <v>2549</v>
       </c>
       <c r="L157">
-        <v>4376</v>
+        <v>4372</v>
       </c>
       <c r="M157">
         <v>3168</v>
@@ -62137,7 +62137,7 @@
         <v>20276</v>
       </c>
       <c r="H158">
-        <v>1322</v>
+        <v>1318</v>
       </c>
       <c r="I158">
         <v>1313</v>
@@ -62149,7 +62149,7 @@
         <v>2654</v>
       </c>
       <c r="L158">
-        <v>4460</v>
+        <v>4456</v>
       </c>
       <c r="M158">
         <v>3197</v>
@@ -62523,7 +62523,7 @@
         <v>20456</v>
       </c>
       <c r="H159">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="I159">
         <v>1384</v>
@@ -62535,7 +62535,7 @@
         <v>2681</v>
       </c>
       <c r="L159">
-        <v>4504</v>
+        <v>4500</v>
       </c>
       <c r="M159">
         <v>3265</v>
@@ -62909,7 +62909,7 @@
         <v>20705</v>
       </c>
       <c r="H160">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="I160">
         <v>1417</v>
@@ -62921,7 +62921,7 @@
         <v>2775</v>
       </c>
       <c r="L160">
-        <v>4780</v>
+        <v>4776</v>
       </c>
       <c r="M160">
         <v>3326</v>
@@ -63295,7 +63295,7 @@
         <v>20925</v>
       </c>
       <c r="H161">
-        <v>1550</v>
+        <v>1546</v>
       </c>
       <c r="I161">
         <v>1456</v>
@@ -63307,7 +63307,7 @@
         <v>2810</v>
       </c>
       <c r="L161">
-        <v>4852</v>
+        <v>4848</v>
       </c>
       <c r="M161">
         <v>3404</v>
@@ -63681,7 +63681,7 @@
         <v>21090</v>
       </c>
       <c r="H162">
-        <v>1651</v>
+        <v>1647</v>
       </c>
       <c r="I162">
         <v>1486</v>
@@ -63693,7 +63693,7 @@
         <v>3013</v>
       </c>
       <c r="L162">
-        <v>5117</v>
+        <v>5112</v>
       </c>
       <c r="M162">
         <v>3429</v>
@@ -64067,7 +64067,7 @@
         <v>21325</v>
       </c>
       <c r="H163">
-        <v>1748</v>
+        <v>1744</v>
       </c>
       <c r="I163">
         <v>1547</v>
@@ -64079,7 +64079,7 @@
         <v>3153</v>
       </c>
       <c r="L163">
-        <v>5293</v>
+        <v>5288</v>
       </c>
       <c r="M163">
         <v>3430</v>
@@ -64453,7 +64453,7 @@
         <v>21593</v>
       </c>
       <c r="H164">
-        <v>1852</v>
+        <v>1847</v>
       </c>
       <c r="I164">
         <v>1599</v>
@@ -64465,7 +64465,7 @@
         <v>3222</v>
       </c>
       <c r="L164">
-        <v>5448</v>
+        <v>5442</v>
       </c>
       <c r="M164">
         <v>3439</v>
@@ -64839,7 +64839,7 @@
         <v>21775</v>
       </c>
       <c r="H165">
-        <v>1963</v>
+        <v>1958</v>
       </c>
       <c r="I165">
         <v>1658</v>
@@ -64851,7 +64851,7 @@
         <v>3300</v>
       </c>
       <c r="L165">
-        <v>5728</v>
+        <v>5722</v>
       </c>
       <c r="M165">
         <v>3468</v>
@@ -65225,7 +65225,7 @@
         <v>21865</v>
       </c>
       <c r="H166">
-        <v>2038</v>
+        <v>2033</v>
       </c>
       <c r="I166">
         <v>1687</v>
@@ -65237,7 +65237,7 @@
         <v>3334</v>
       </c>
       <c r="L166">
-        <v>5887</v>
+        <v>5881</v>
       </c>
       <c r="M166">
         <v>3494</v>
@@ -65611,7 +65611,7 @@
         <v>22244</v>
       </c>
       <c r="H167">
-        <v>2158</v>
+        <v>2150</v>
       </c>
       <c r="I167">
         <v>1736</v>
@@ -65623,7 +65623,7 @@
         <v>3435</v>
       </c>
       <c r="L167">
-        <v>6058</v>
+        <v>6052</v>
       </c>
       <c r="M167">
         <v>3524</v>
@@ -65997,7 +65997,7 @@
         <v>22485</v>
       </c>
       <c r="H168">
-        <v>2230</v>
+        <v>2222</v>
       </c>
       <c r="I168">
         <v>1823</v>
@@ -66009,7 +66009,7 @@
         <v>3512</v>
       </c>
       <c r="L168">
-        <v>6437</v>
+        <v>6431</v>
       </c>
       <c r="M168">
         <v>3547</v>
@@ -66383,7 +66383,7 @@
         <v>22615</v>
       </c>
       <c r="H169">
-        <v>2416</v>
+        <v>2407</v>
       </c>
       <c r="I169">
         <v>2024</v>
@@ -66395,7 +66395,7 @@
         <v>3703</v>
       </c>
       <c r="L169">
-        <v>6968</v>
+        <v>6962</v>
       </c>
       <c r="M169">
         <v>3571</v>
@@ -66769,7 +66769,7 @@
         <v>22738</v>
       </c>
       <c r="H170">
-        <v>2513</v>
+        <v>2505</v>
       </c>
       <c r="I170">
         <v>2120</v>
@@ -66781,7 +66781,7 @@
         <v>3837</v>
       </c>
       <c r="L170">
-        <v>7187</v>
+        <v>7181</v>
       </c>
       <c r="M170">
         <v>3592</v>
@@ -67155,7 +67155,7 @@
         <v>23344</v>
       </c>
       <c r="H171">
-        <v>2688</v>
+        <v>2681</v>
       </c>
       <c r="I171">
         <v>2232</v>
@@ -67167,7 +67167,7 @@
         <v>3993</v>
       </c>
       <c r="L171">
-        <v>7777</v>
+        <v>7771</v>
       </c>
       <c r="M171">
         <v>3594</v>
@@ -67541,7 +67541,7 @@
         <v>23471</v>
       </c>
       <c r="H172">
-        <v>2880</v>
+        <v>2872</v>
       </c>
       <c r="I172">
         <v>2301</v>
@@ -67553,7 +67553,7 @@
         <v>4190</v>
       </c>
       <c r="L172">
-        <v>7889</v>
+        <v>7883</v>
       </c>
       <c r="M172">
         <v>3630</v>
@@ -67927,7 +67927,7 @@
         <v>23694</v>
       </c>
       <c r="H173">
-        <v>3001</v>
+        <v>2999</v>
       </c>
       <c r="I173">
         <v>2386</v>
@@ -68674,6 +68674,392 @@
       </c>
       <c r="DX174">
         <v>7852</v>
+      </c>
+    </row>
+    <row r="175" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>44069</v>
+      </c>
+      <c r="B175">
+        <v>572270</v>
+      </c>
+      <c r="C175">
+        <v>2693</v>
+      </c>
+      <c r="D175">
+        <v>74376</v>
+      </c>
+      <c r="E175">
+        <v>63430</v>
+      </c>
+      <c r="F175">
+        <v>199324</v>
+      </c>
+      <c r="G175">
+        <v>24376</v>
+      </c>
+      <c r="H175">
+        <v>3184</v>
+      </c>
+      <c r="I175">
+        <v>2547</v>
+      </c>
+      <c r="J175">
+        <v>5206</v>
+      </c>
+      <c r="K175">
+        <v>4542</v>
+      </c>
+      <c r="L175">
+        <v>8770</v>
+      </c>
+      <c r="M175">
+        <v>3682</v>
+      </c>
+      <c r="N175">
+        <v>18335</v>
+      </c>
+      <c r="O175">
+        <v>20585</v>
+      </c>
+      <c r="P175">
+        <v>4631</v>
+      </c>
+      <c r="Q175">
+        <v>3803</v>
+      </c>
+      <c r="R175">
+        <v>11707</v>
+      </c>
+      <c r="S175">
+        <v>6677</v>
+      </c>
+      <c r="T175">
+        <v>13392</v>
+      </c>
+      <c r="U175">
+        <v>10075</v>
+      </c>
+      <c r="V175">
+        <v>2611</v>
+      </c>
+      <c r="W175">
+        <v>981</v>
+      </c>
+      <c r="X175">
+        <v>5163</v>
+      </c>
+      <c r="Y175">
+        <v>15375</v>
+      </c>
+      <c r="Z175">
+        <v>10999</v>
+      </c>
+      <c r="AA175">
+        <v>6151</v>
+      </c>
+      <c r="AB175">
+        <v>44694</v>
+      </c>
+      <c r="AC175">
+        <v>930</v>
+      </c>
+      <c r="AD175">
+        <v>172</v>
+      </c>
+      <c r="AE175">
+        <v>234</v>
+      </c>
+      <c r="AF175">
+        <v>442</v>
+      </c>
+      <c r="AG175">
+        <v>88</v>
+      </c>
+      <c r="AH175">
+        <v>48</v>
+      </c>
+      <c r="AI175">
+        <v>238</v>
+      </c>
+      <c r="AJ175">
+        <v>1944</v>
+      </c>
+      <c r="AK175">
+        <v>2628</v>
+      </c>
+      <c r="AL175">
+        <v>35732</v>
+      </c>
+      <c r="AM175">
+        <v>6294</v>
+      </c>
+      <c r="AN175">
+        <v>2395</v>
+      </c>
+      <c r="AO175">
+        <v>35129</v>
+      </c>
+      <c r="AP175">
+        <v>853</v>
+      </c>
+      <c r="AQ175">
+        <v>19839</v>
+      </c>
+      <c r="AR175">
+        <v>1427</v>
+      </c>
+      <c r="AS175">
+        <v>7049</v>
+      </c>
+      <c r="AT175">
+        <v>1434</v>
+      </c>
+      <c r="AU175">
+        <v>1547</v>
+      </c>
+      <c r="AV175">
+        <v>3641</v>
+      </c>
+      <c r="AW175">
+        <v>1512</v>
+      </c>
+      <c r="AX175">
+        <v>926</v>
+      </c>
+      <c r="AY175">
+        <v>2461</v>
+      </c>
+      <c r="AZ175">
+        <v>2580</v>
+      </c>
+      <c r="BA175">
+        <v>42996</v>
+      </c>
+      <c r="BB175">
+        <v>11484</v>
+      </c>
+      <c r="BC175">
+        <v>2124</v>
+      </c>
+      <c r="BD175">
+        <v>7156</v>
+      </c>
+      <c r="BE175">
+        <v>3352</v>
+      </c>
+      <c r="BF175">
+        <v>275</v>
+      </c>
+      <c r="BG175">
+        <v>1382</v>
+      </c>
+      <c r="BH175">
+        <v>2563</v>
+      </c>
+      <c r="BI175">
+        <v>729</v>
+      </c>
+      <c r="BJ175">
+        <v>1971</v>
+      </c>
+      <c r="BK175">
+        <v>7914</v>
+      </c>
+      <c r="BL175">
+        <v>7899</v>
+      </c>
+      <c r="BM175">
+        <v>7678</v>
+      </c>
+      <c r="BN175">
+        <v>13680</v>
+      </c>
+      <c r="BO175">
+        <v>1864</v>
+      </c>
+      <c r="BP175">
+        <v>793</v>
+      </c>
+      <c r="BQ175">
+        <v>6042</v>
+      </c>
+      <c r="BR175">
+        <v>5560</v>
+      </c>
+      <c r="BS175" s="4">
+        <v>6459</v>
+      </c>
+      <c r="BT175" s="4">
+        <v>1340</v>
+      </c>
+      <c r="BU175" s="4">
+        <v>1409</v>
+      </c>
+      <c r="BV175" s="4">
+        <v>2461</v>
+      </c>
+      <c r="BW175" s="4">
+        <v>2814</v>
+      </c>
+      <c r="BX175" s="4">
+        <v>742</v>
+      </c>
+      <c r="BY175" s="4">
+        <v>4003</v>
+      </c>
+      <c r="BZ175" s="4">
+        <v>2291</v>
+      </c>
+      <c r="CA175" s="4">
+        <v>1165</v>
+      </c>
+      <c r="CB175" s="4">
+        <v>651</v>
+      </c>
+      <c r="CC175" s="4">
+        <v>1878</v>
+      </c>
+      <c r="CD175" s="4">
+        <v>1803</v>
+      </c>
+      <c r="CE175" s="4">
+        <v>1054</v>
+      </c>
+      <c r="CF175" s="4">
+        <v>851</v>
+      </c>
+      <c r="CG175" s="4">
+        <v>4348</v>
+      </c>
+      <c r="CH175" s="4">
+        <v>1187</v>
+      </c>
+      <c r="CI175" s="4">
+        <v>1112</v>
+      </c>
+      <c r="CJ175" s="4">
+        <v>1138</v>
+      </c>
+      <c r="CK175" s="4">
+        <v>1440</v>
+      </c>
+      <c r="CL175" s="4">
+        <v>1344</v>
+      </c>
+      <c r="CM175" s="4">
+        <v>1423</v>
+      </c>
+      <c r="CN175" s="4">
+        <v>1078</v>
+      </c>
+      <c r="CO175" s="4">
+        <v>1020</v>
+      </c>
+      <c r="CP175" s="4">
+        <v>1062</v>
+      </c>
+      <c r="CQ175" s="4">
+        <v>549</v>
+      </c>
+      <c r="CR175" s="4">
+        <v>2892</v>
+      </c>
+      <c r="CS175" s="4">
+        <v>914</v>
+      </c>
+      <c r="CT175" s="4">
+        <v>776</v>
+      </c>
+      <c r="CU175" s="4">
+        <v>705</v>
+      </c>
+      <c r="CV175" s="4">
+        <v>1220</v>
+      </c>
+      <c r="CW175" s="4">
+        <v>1063</v>
+      </c>
+      <c r="CX175" s="4">
+        <v>587</v>
+      </c>
+      <c r="CY175" s="4">
+        <v>700</v>
+      </c>
+      <c r="CZ175" s="4">
+        <v>820</v>
+      </c>
+      <c r="DA175" s="4">
+        <v>1099</v>
+      </c>
+      <c r="DB175" s="4">
+        <v>900</v>
+      </c>
+      <c r="DC175" s="4">
+        <v>1045</v>
+      </c>
+      <c r="DD175" s="4">
+        <v>803</v>
+      </c>
+      <c r="DE175" s="4">
+        <v>311</v>
+      </c>
+      <c r="DF175" s="4">
+        <v>327</v>
+      </c>
+      <c r="DG175" s="4">
+        <v>651</v>
+      </c>
+      <c r="DH175" s="4">
+        <v>554</v>
+      </c>
+      <c r="DI175" s="4">
+        <v>394</v>
+      </c>
+      <c r="DJ175" s="4">
+        <v>529</v>
+      </c>
+      <c r="DK175" s="4">
+        <v>320</v>
+      </c>
+      <c r="DL175" s="4">
+        <v>568</v>
+      </c>
+      <c r="DM175" s="4">
+        <v>695</v>
+      </c>
+      <c r="DN175" s="4">
+        <v>506</v>
+      </c>
+      <c r="DO175" s="4">
+        <v>472</v>
+      </c>
+      <c r="DP175" s="4">
+        <v>356</v>
+      </c>
+      <c r="DQ175" s="4">
+        <v>509</v>
+      </c>
+      <c r="DR175">
+        <v>112914</v>
+      </c>
+      <c r="DS175">
+        <v>241445</v>
+      </c>
+      <c r="DT175">
+        <v>8964</v>
+      </c>
+      <c r="DU175">
+        <v>103700</v>
+      </c>
+      <c r="DV175">
+        <v>66310</v>
+      </c>
+      <c r="DW175">
+        <v>25499</v>
+      </c>
+      <c r="DX175">
+        <v>7905</v>
       </c>
     </row>
   </sheetData>

--- a/CasosColombia.xlsx
+++ b/CasosColombia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Matlab\MATLAB_R2019a\fitVirusCV19_v07_v17\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91490FE9-27F7-4C4E-9FD4-464853D47366}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3087123B-09A8-4614-AA96-63B2AC767856}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3435" yWindow="375" windowWidth="21600" windowHeight="11505" xr2:uid="{6C56C21C-B00B-4C62-A627-74DAE246E91A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6C56C21C-B00B-4C62-A627-74DAE246E91A}"/>
   </bookViews>
   <sheets>
     <sheet name="CasosColombia" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="129">
   <si>
     <t>Fecha</t>
   </si>
@@ -1497,13 +1497,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13133E2-69F7-478D-A001-FD6CB4FB0C80}">
-  <dimension ref="A1:DX175"/>
+  <dimension ref="A1:DX176"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="DI146" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="CZ147" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A175" sqref="A175"/>
+      <selection pane="bottomRight" activeCell="A176" sqref="A176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5589,8 +5589,8 @@
       <c r="BT11" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="BU11" s="4">
-        <v>1</v>
+      <c r="BU11" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="BV11" s="4">
         <v>0</v>
@@ -6371,7 +6371,7 @@
         <v>1</v>
       </c>
       <c r="BX13" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BY13" s="4">
         <v>1</v>
@@ -6741,8 +6741,8 @@
       <c r="BR14">
         <v>0</v>
       </c>
-      <c r="BS14" s="4">
-        <v>1</v>
+      <c r="BS14" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="BT14" s="10">
         <v>1</v>
@@ -6757,7 +6757,7 @@
         <v>1</v>
       </c>
       <c r="BX14" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BY14" s="4">
         <v>1</v>
@@ -7143,7 +7143,7 @@
         <v>1</v>
       </c>
       <c r="BX15" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BY15" s="4">
         <v>1</v>
@@ -7529,7 +7529,7 @@
         <v>1</v>
       </c>
       <c r="BX16" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BY16" s="4">
         <v>1</v>
@@ -7915,7 +7915,7 @@
         <v>1</v>
       </c>
       <c r="BX17" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BY17" s="4">
         <v>1</v>
@@ -8301,7 +8301,7 @@
         <v>1</v>
       </c>
       <c r="BX18" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BY18" s="4">
         <v>1</v>
@@ -8687,7 +8687,7 @@
         <v>1</v>
       </c>
       <c r="BX19" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BY19" s="4">
         <v>2</v>
@@ -9073,7 +9073,7 @@
         <v>1</v>
       </c>
       <c r="BX20" s="4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BY20" s="4">
         <v>2</v>
@@ -9459,7 +9459,7 @@
         <v>1</v>
       </c>
       <c r="BX21" s="4">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BY21" s="4">
         <v>2</v>
@@ -9533,8 +9533,8 @@
       <c r="CV21" s="4">
         <v>0</v>
       </c>
-      <c r="CW21" s="4" t="s">
-        <v>68</v>
+      <c r="CW21" s="4">
+        <v>1</v>
       </c>
       <c r="CX21" s="4">
         <v>0</v>
@@ -9845,7 +9845,7 @@
         <v>1</v>
       </c>
       <c r="BX22" s="4">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BY22" s="4">
         <v>2</v>
@@ -9919,8 +9919,8 @@
       <c r="CV22" s="4">
         <v>0</v>
       </c>
-      <c r="CW22" s="4" t="s">
-        <v>68</v>
+      <c r="CW22" s="4">
+        <v>1</v>
       </c>
       <c r="CX22" s="4">
         <v>0</v>
@@ -10231,7 +10231,7 @@
         <v>1</v>
       </c>
       <c r="BX23" s="4">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="BY23" s="4">
         <v>2</v>
@@ -10305,8 +10305,8 @@
       <c r="CV23" s="4">
         <v>0</v>
       </c>
-      <c r="CW23" s="4" t="s">
-        <v>68</v>
+      <c r="CW23" s="4">
+        <v>1</v>
       </c>
       <c r="CX23" s="4">
         <v>0</v>
@@ -10617,7 +10617,7 @@
         <v>1</v>
       </c>
       <c r="BX24" s="4">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="BY24" s="4">
         <v>2</v>
@@ -11003,7 +11003,7 @@
         <v>2</v>
       </c>
       <c r="BX25" s="4">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="BY25" s="4">
         <v>2</v>
@@ -11389,7 +11389,7 @@
         <v>2</v>
       </c>
       <c r="BX26" s="4">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="BY26" s="4">
         <v>2</v>
@@ -11775,7 +11775,7 @@
         <v>3</v>
       </c>
       <c r="BX27" s="4">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="BY27" s="4">
         <v>2</v>
@@ -12161,7 +12161,7 @@
         <v>4</v>
       </c>
       <c r="BX28" s="4">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="BY28" s="4">
         <v>2</v>
@@ -12547,7 +12547,7 @@
         <v>4</v>
       </c>
       <c r="BX29" s="4">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="BY29" s="4">
         <v>3</v>
@@ -12636,8 +12636,8 @@
       <c r="DA29" s="4">
         <v>4</v>
       </c>
-      <c r="DB29" s="4">
-        <v>1</v>
+      <c r="DB29" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="DC29" s="4">
         <v>0</v>
@@ -12933,7 +12933,7 @@
         <v>4</v>
       </c>
       <c r="BX30" s="4">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="BY30" s="4">
         <v>7</v>
@@ -13319,7 +13319,7 @@
         <v>4</v>
       </c>
       <c r="BX31" s="4">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="BY31" s="4">
         <v>7</v>
@@ -13705,7 +13705,7 @@
         <v>4</v>
       </c>
       <c r="BX32" s="4">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="BY32" s="4">
         <v>9</v>
@@ -14091,7 +14091,7 @@
         <v>5</v>
       </c>
       <c r="BX33" s="4">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="BY33" s="4">
         <v>9</v>
@@ -14477,7 +14477,7 @@
         <v>5</v>
       </c>
       <c r="BX34" s="4">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="BY34" s="4">
         <v>10</v>
@@ -14863,7 +14863,7 @@
         <v>5</v>
       </c>
       <c r="BX35" s="4">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="BY35" s="4">
         <v>10</v>
@@ -15248,8 +15248,8 @@
       <c r="BW36" s="4">
         <v>5</v>
       </c>
-      <c r="BX36" s="4">
-        <v>26</v>
+      <c r="BX36" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="BY36" s="4">
         <v>10</v>
@@ -15475,8 +15475,8 @@
       <c r="V37">
         <v>0</v>
       </c>
-      <c r="W37" s="4" t="s">
-        <v>68</v>
+      <c r="W37" s="4">
+        <v>4</v>
       </c>
       <c r="X37">
         <v>0</v>
@@ -15635,7 +15635,7 @@
         <v>5</v>
       </c>
       <c r="BX37" s="4">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="BY37" s="4">
         <v>10</v>
@@ -15861,8 +15861,8 @@
       <c r="V38">
         <v>0</v>
       </c>
-      <c r="W38" s="4" t="s">
-        <v>68</v>
+      <c r="W38" s="4">
+        <v>7</v>
       </c>
       <c r="X38">
         <v>0</v>
@@ -16021,7 +16021,7 @@
         <v>6</v>
       </c>
       <c r="BX38" s="4">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="BY38" s="4">
         <v>10</v>
@@ -16247,8 +16247,8 @@
       <c r="V39">
         <v>0</v>
       </c>
-      <c r="W39" s="4" t="s">
-        <v>68</v>
+      <c r="W39" s="4">
+        <v>7</v>
       </c>
       <c r="X39">
         <v>0</v>
@@ -16407,7 +16407,7 @@
         <v>7</v>
       </c>
       <c r="BX39" s="4">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="BY39" s="4">
         <v>10</v>
@@ -16633,8 +16633,8 @@
       <c r="V40">
         <v>0</v>
       </c>
-      <c r="W40" s="4" t="s">
-        <v>68</v>
+      <c r="W40" s="4">
+        <v>9</v>
       </c>
       <c r="X40">
         <v>0</v>
@@ -16793,7 +16793,7 @@
         <v>7</v>
       </c>
       <c r="BX40" s="4">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="BY40" s="4">
         <v>10</v>
@@ -17019,8 +17019,8 @@
       <c r="V41">
         <v>0</v>
       </c>
-      <c r="W41" s="4" t="s">
-        <v>68</v>
+      <c r="W41" s="4">
+        <v>9</v>
       </c>
       <c r="X41">
         <v>0</v>
@@ -17179,7 +17179,7 @@
         <v>7</v>
       </c>
       <c r="BX41" s="4">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="BY41" s="4">
         <v>10</v>
@@ -17405,8 +17405,8 @@
       <c r="V42">
         <v>0</v>
       </c>
-      <c r="W42" s="4" t="s">
-        <v>68</v>
+      <c r="W42" s="4">
+        <v>9</v>
       </c>
       <c r="X42">
         <v>0</v>
@@ -17565,7 +17565,7 @@
         <v>7</v>
       </c>
       <c r="BX42" s="4">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="BY42" s="4">
         <v>10</v>
@@ -17951,7 +17951,7 @@
         <v>7</v>
       </c>
       <c r="BX43" s="4">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="BY43" s="4">
         <v>11</v>
@@ -18337,7 +18337,7 @@
         <v>7</v>
       </c>
       <c r="BX44" s="4">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="BY44" s="4">
         <v>11</v>
@@ -18723,7 +18723,7 @@
         <v>7</v>
       </c>
       <c r="BX45" s="4">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="BY45" s="4">
         <v>11</v>
@@ -19109,7 +19109,7 @@
         <v>7</v>
       </c>
       <c r="BX46" s="4">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="BY46" s="4">
         <v>13</v>
@@ -19495,7 +19495,7 @@
         <v>7</v>
       </c>
       <c r="BX47" s="4">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="BY47" s="4">
         <v>13</v>
@@ -19881,7 +19881,7 @@
         <v>7</v>
       </c>
       <c r="BX48" s="4">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="BY48" s="4">
         <v>13</v>
@@ -20267,7 +20267,7 @@
         <v>7</v>
       </c>
       <c r="BX49" s="4">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="BY49" s="4">
         <v>13</v>
@@ -20653,7 +20653,7 @@
         <v>7</v>
       </c>
       <c r="BX50" s="4">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="BY50" s="4">
         <v>13</v>
@@ -21039,7 +21039,7 @@
         <v>7</v>
       </c>
       <c r="BX51" s="4">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="BY51" s="4">
         <v>13</v>
@@ -21241,8 +21241,8 @@
       <c r="N52">
         <v>23</v>
       </c>
-      <c r="O52">
-        <v>14</v>
+      <c r="O52" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="P52">
         <v>5</v>
@@ -21425,7 +21425,7 @@
         <v>8</v>
       </c>
       <c r="BX52" s="4">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="BY52" s="4">
         <v>13</v>
@@ -21811,7 +21811,7 @@
         <v>8</v>
       </c>
       <c r="BX53" s="4">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="BY53" s="4">
         <v>13</v>
@@ -22197,7 +22197,7 @@
         <v>8</v>
       </c>
       <c r="BX54" s="4">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="BY54" s="4">
         <v>13</v>
@@ -22583,7 +22583,7 @@
         <v>8</v>
       </c>
       <c r="BX55" s="4">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="BY55" s="4">
         <v>13</v>
@@ -22969,7 +22969,7 @@
         <v>8</v>
       </c>
       <c r="BX56" s="4">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="BY56" s="4">
         <v>13</v>
@@ -23355,7 +23355,7 @@
         <v>8</v>
       </c>
       <c r="BX57" s="4">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="BY57" s="4">
         <v>13</v>
@@ -23741,7 +23741,7 @@
         <v>8</v>
       </c>
       <c r="BX58" s="4">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="BY58" s="4">
         <v>13</v>
@@ -24127,7 +24127,7 @@
         <v>8</v>
       </c>
       <c r="BX59" s="4">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="BY59" s="4">
         <v>13</v>
@@ -24513,7 +24513,7 @@
         <v>8</v>
       </c>
       <c r="BX60" s="4">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="BY60" s="4">
         <v>13</v>
@@ -24899,7 +24899,7 @@
         <v>8</v>
       </c>
       <c r="BX61" s="4">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="BY61" s="4">
         <v>13</v>
@@ -25285,7 +25285,7 @@
         <v>8</v>
       </c>
       <c r="BX62" s="4">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="BY62" s="4">
         <v>13</v>
@@ -25671,7 +25671,7 @@
         <v>8</v>
       </c>
       <c r="BX63" s="4">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="BY63" s="4">
         <v>13</v>
@@ -26057,7 +26057,7 @@
         <v>8</v>
       </c>
       <c r="BX64" s="4">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="BY64" s="4">
         <v>14</v>
@@ -26443,7 +26443,7 @@
         <v>8</v>
       </c>
       <c r="BX65" s="4">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="BY65" s="4">
         <v>14</v>
@@ -26829,7 +26829,7 @@
         <v>9</v>
       </c>
       <c r="BX66" s="4">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="BY66" s="4">
         <v>14</v>
@@ -27215,7 +27215,7 @@
         <v>9</v>
       </c>
       <c r="BX67" s="4">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="BY67" s="4">
         <v>14</v>
@@ -27601,7 +27601,7 @@
         <v>9</v>
       </c>
       <c r="BX68" s="4">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="BY68" s="4">
         <v>14</v>
@@ -27987,7 +27987,7 @@
         <v>9</v>
       </c>
       <c r="BX69" s="4">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="BY69" s="4">
         <v>14</v>
@@ -28373,7 +28373,7 @@
         <v>9</v>
       </c>
       <c r="BX70" s="4">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="BY70" s="4">
         <v>15</v>
@@ -28759,7 +28759,7 @@
         <v>9</v>
       </c>
       <c r="BX71" s="4">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="BY71" s="4">
         <v>15</v>
@@ -29145,7 +29145,7 @@
         <v>9</v>
       </c>
       <c r="BX72" s="4">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="BY72" s="4">
         <v>15</v>
@@ -29374,8 +29374,8 @@
       <c r="W73">
         <v>39</v>
       </c>
-      <c r="X73">
-        <v>3</v>
+      <c r="X73" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="Y73" s="9">
         <v>0</v>
@@ -29531,7 +29531,7 @@
         <v>9</v>
       </c>
       <c r="BX73" s="4">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="BY73" s="4">
         <v>15</v>
@@ -29917,7 +29917,7 @@
         <v>9</v>
       </c>
       <c r="BX74" s="4">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="BY74" s="4">
         <v>15</v>
@@ -30303,7 +30303,7 @@
         <v>9</v>
       </c>
       <c r="BX75" s="4">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="BY75" s="4">
         <v>15</v>
@@ -30689,7 +30689,7 @@
         <v>9</v>
       </c>
       <c r="BX76" s="4">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="BY76" s="4">
         <v>16</v>
@@ -31075,7 +31075,7 @@
         <v>9</v>
       </c>
       <c r="BX77" s="4">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="BY77" s="4">
         <v>17</v>
@@ -31461,7 +31461,7 @@
         <v>9</v>
       </c>
       <c r="BX78" s="4">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="BY78" s="4">
         <v>17</v>
@@ -31847,7 +31847,7 @@
         <v>9</v>
       </c>
       <c r="BX79" s="4">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="BY79" s="4">
         <v>17</v>
@@ -32233,7 +32233,7 @@
         <v>9</v>
       </c>
       <c r="BX80" s="4">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="BY80" s="4">
         <v>17</v>
@@ -32619,7 +32619,7 @@
         <v>9</v>
       </c>
       <c r="BX81" s="4">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="BY81" s="4">
         <v>18</v>
@@ -33005,7 +33005,7 @@
         <v>9</v>
       </c>
       <c r="BX82" s="4">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="BY82" s="4">
         <v>18</v>
@@ -33288,8 +33288,8 @@
       <c r="AO83">
         <v>2085</v>
       </c>
-      <c r="AP83" s="7" t="s">
-        <v>68</v>
+      <c r="AP83" s="7">
+        <v>2</v>
       </c>
       <c r="AQ83">
         <v>2223</v>
@@ -33391,7 +33391,7 @@
         <v>9</v>
       </c>
       <c r="BX83" s="4">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="BY83" s="4">
         <v>19</v>
@@ -33777,7 +33777,7 @@
         <v>9</v>
       </c>
       <c r="BX84" s="4">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="BY84" s="4">
         <v>19</v>
@@ -34163,7 +34163,7 @@
         <v>9</v>
       </c>
       <c r="BX85" s="4">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="BY85" s="4">
         <v>19</v>
@@ -34549,7 +34549,7 @@
         <v>9</v>
       </c>
       <c r="BX86" s="4">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="BY86" s="4">
         <v>19</v>
@@ -34935,7 +34935,7 @@
         <v>9</v>
       </c>
       <c r="BX87" s="4">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="BY87" s="4">
         <v>19</v>
@@ -35321,7 +35321,7 @@
         <v>9</v>
       </c>
       <c r="BX88" s="4">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="BY88" s="4">
         <v>19</v>
@@ -35707,7 +35707,7 @@
         <v>9</v>
       </c>
       <c r="BX89" s="4">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="BY89" s="4">
         <v>19</v>
@@ -36093,7 +36093,7 @@
         <v>10</v>
       </c>
       <c r="BX90" s="4">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="BY90" s="4">
         <v>19</v>
@@ -36209,8 +36209,8 @@
       <c r="DJ90" s="4">
         <v>2</v>
       </c>
-      <c r="DK90" s="4">
-        <v>27</v>
+      <c r="DK90" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="DL90" s="4">
         <v>13</v>
@@ -36479,7 +36479,7 @@
         <v>15</v>
       </c>
       <c r="BX91" s="4">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="BY91" s="4">
         <v>22</v>
@@ -36865,7 +36865,7 @@
         <v>16</v>
       </c>
       <c r="BX92" s="4">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="BY92" s="4">
         <v>23</v>
@@ -37251,7 +37251,7 @@
         <v>16</v>
       </c>
       <c r="BX93" s="4">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="BY93" s="4">
         <v>25</v>
@@ -37637,7 +37637,7 @@
         <v>16</v>
       </c>
       <c r="BX94" s="4">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="BY94" s="4">
         <v>26</v>
@@ -38023,7 +38023,7 @@
         <v>17</v>
       </c>
       <c r="BX95" s="4">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="BY95" s="4">
         <v>28</v>
@@ -38409,7 +38409,7 @@
         <v>18</v>
       </c>
       <c r="BX96" s="4">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="BY96" s="4">
         <v>33</v>
@@ -38795,7 +38795,7 @@
         <v>21</v>
       </c>
       <c r="BX97" s="4">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="BY97" s="4">
         <v>35</v>
@@ -39181,7 +39181,7 @@
         <v>22</v>
       </c>
       <c r="BX98" s="4">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="BY98" s="4">
         <v>35</v>
@@ -39567,7 +39567,7 @@
         <v>22</v>
       </c>
       <c r="BX99" s="4">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="BY99" s="4">
         <v>39</v>
@@ -39953,7 +39953,7 @@
         <v>25</v>
       </c>
       <c r="BX100" s="4">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="BY100" s="4">
         <v>41</v>
@@ -40339,7 +40339,7 @@
         <v>28</v>
       </c>
       <c r="BX101" s="4">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="BY101" s="4">
         <v>43</v>
@@ -40725,7 +40725,7 @@
         <v>29</v>
       </c>
       <c r="BX102" s="4">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="BY102" s="4">
         <v>48</v>
@@ -40769,7 +40769,7 @@
       <c r="CL102" s="4">
         <v>74</v>
       </c>
-      <c r="CM102" s="13">
+      <c r="CM102" s="13" t="s">
         <v>68</v>
       </c>
       <c r="CN102" s="4">
@@ -41111,7 +41111,7 @@
         <v>31</v>
       </c>
       <c r="BX103" s="4">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="BY103" s="4">
         <v>68</v>
@@ -41155,8 +41155,8 @@
       <c r="CL103" s="4">
         <v>74</v>
       </c>
-      <c r="CM103" s="13">
-        <v>72</v>
+      <c r="CM103" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="CN103" s="4">
         <v>18</v>
@@ -41497,7 +41497,7 @@
         <v>32</v>
       </c>
       <c r="BX104" s="4">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="BY104" s="4">
         <v>71</v>
@@ -41883,7 +41883,7 @@
         <v>36</v>
       </c>
       <c r="BX105" s="4">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="BY105" s="4">
         <v>73</v>
@@ -42269,7 +42269,7 @@
         <v>38</v>
       </c>
       <c r="BX106" s="4">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="BY106" s="4">
         <v>77</v>
@@ -42655,7 +42655,7 @@
         <v>41</v>
       </c>
       <c r="BX107" s="4">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="BY107" s="4">
         <v>85</v>
@@ -43041,7 +43041,7 @@
         <v>49</v>
       </c>
       <c r="BX108" s="4">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="BY108" s="4">
         <v>89</v>
@@ -43427,7 +43427,7 @@
         <v>52</v>
       </c>
       <c r="BX109" s="4">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="BY109" s="4">
         <v>107</v>
@@ -43813,7 +43813,7 @@
         <v>56</v>
       </c>
       <c r="BX110" s="4">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="BY110" s="4">
         <v>112</v>
@@ -44199,7 +44199,7 @@
         <v>56</v>
       </c>
       <c r="BX111" s="4">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="BY111" s="4">
         <v>118</v>
@@ -44392,8 +44392,8 @@
       <c r="K112">
         <v>292</v>
       </c>
-      <c r="L112">
-        <v>783</v>
+      <c r="L112" t="s">
+        <v>68</v>
       </c>
       <c r="M112">
         <v>1148</v>
@@ -44585,7 +44585,7 @@
         <v>59</v>
       </c>
       <c r="BX112" s="4">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="BY112" s="4">
         <v>122</v>
@@ -44778,8 +44778,8 @@
       <c r="K113">
         <v>309</v>
       </c>
-      <c r="L113">
-        <v>789</v>
+      <c r="L113" t="s">
+        <v>68</v>
       </c>
       <c r="M113">
         <v>1235</v>
@@ -44971,7 +44971,7 @@
         <v>69</v>
       </c>
       <c r="BX113" s="4">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="BY113" s="4">
         <v>146</v>
@@ -45357,7 +45357,7 @@
         <v>71</v>
       </c>
       <c r="BX114" s="4">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="BY114" s="4">
         <v>152</v>
@@ -45743,7 +45743,7 @@
         <v>84</v>
       </c>
       <c r="BX115" s="4">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="BY115" s="4">
         <v>165</v>
@@ -46129,7 +46129,7 @@
         <v>88</v>
       </c>
       <c r="BX116" s="4">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="BY116" s="4">
         <v>193</v>
@@ -46515,7 +46515,7 @@
         <v>100</v>
       </c>
       <c r="BX117" s="4">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="BY117" s="4">
         <v>210</v>
@@ -46901,7 +46901,7 @@
         <v>103</v>
       </c>
       <c r="BX118" s="4">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="BY118" s="4">
         <v>219</v>
@@ -47287,7 +47287,7 @@
         <v>109</v>
       </c>
       <c r="BX119" s="4">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="BY119" s="4">
         <v>227</v>
@@ -47673,7 +47673,7 @@
         <v>114</v>
       </c>
       <c r="BX120" s="4">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="BY120" s="4">
         <v>245</v>
@@ -48059,7 +48059,7 @@
         <v>124</v>
       </c>
       <c r="BX121" s="4">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="BY121" s="4">
         <v>248</v>
@@ -48445,7 +48445,7 @@
         <v>130</v>
       </c>
       <c r="BX122" s="4">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="BY122" s="4">
         <v>272</v>
@@ -48831,7 +48831,7 @@
         <v>138</v>
       </c>
       <c r="BX123" s="4">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="BY123" s="4">
         <v>288</v>
@@ -49217,7 +49217,7 @@
         <v>145</v>
       </c>
       <c r="BX124" s="4">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="BY124" s="4">
         <v>304</v>
@@ -49603,7 +49603,7 @@
         <v>163</v>
       </c>
       <c r="BX125" s="4">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="BY125" s="4">
         <v>324</v>
@@ -49989,7 +49989,7 @@
         <v>171</v>
       </c>
       <c r="BX126" s="4">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="BY126" s="4">
         <v>344</v>
@@ -50242,8 +50242,8 @@
       <c r="AE127">
         <v>29</v>
       </c>
-      <c r="AF127" s="12" t="s">
-        <v>68</v>
+      <c r="AF127" s="12">
+        <v>6</v>
       </c>
       <c r="AG127">
         <v>14</v>
@@ -50375,7 +50375,7 @@
         <v>184</v>
       </c>
       <c r="BX127" s="4">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="BY127" s="4">
         <v>373</v>
@@ -50401,8 +50401,8 @@
       <c r="CF127" s="4">
         <v>81</v>
       </c>
-      <c r="CG127" s="4">
-        <v>73</v>
+      <c r="CG127" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="CH127" s="4">
         <v>82</v>
@@ -50761,7 +50761,7 @@
         <v>198</v>
       </c>
       <c r="BX128" s="4">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="BY128" s="4">
         <v>384</v>
@@ -51147,7 +51147,7 @@
         <v>200</v>
       </c>
       <c r="BX129" s="4">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="BY129" s="4">
         <v>396</v>
@@ -51533,7 +51533,7 @@
         <v>205</v>
       </c>
       <c r="BX130" s="4">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="BY130" s="4">
         <v>430</v>
@@ -51919,7 +51919,7 @@
         <v>217</v>
       </c>
       <c r="BX131" s="4">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="BY131" s="4">
         <v>443</v>
@@ -52305,7 +52305,7 @@
         <v>229</v>
       </c>
       <c r="BX132" s="4">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="BY132" s="4" t="s">
         <v>68</v>
@@ -52691,7 +52691,7 @@
         <v>250</v>
       </c>
       <c r="BX133" s="4">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="BY133" s="4">
         <v>634</v>
@@ -53077,7 +53077,7 @@
         <v>266</v>
       </c>
       <c r="BX134" s="4">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="BY134" s="4">
         <v>752</v>
@@ -53463,7 +53463,7 @@
         <v>287</v>
       </c>
       <c r="BX135" s="4">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="BY135" s="4">
         <v>907</v>
@@ -53689,8 +53689,8 @@
       <c r="V136">
         <v>199</v>
       </c>
-      <c r="W136" s="4" t="s">
-        <v>68</v>
+      <c r="W136" s="4">
+        <v>168</v>
       </c>
       <c r="X136">
         <v>737</v>
@@ -53849,7 +53849,7 @@
         <v>310</v>
       </c>
       <c r="BX136" s="4">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="BY136" s="4">
         <v>976</v>
@@ -54075,8 +54075,8 @@
       <c r="V137">
         <v>243</v>
       </c>
-      <c r="W137" s="4" t="s">
-        <v>68</v>
+      <c r="W137" s="4">
+        <v>172</v>
       </c>
       <c r="X137">
         <v>762</v>
@@ -54235,7 +54235,7 @@
         <v>333</v>
       </c>
       <c r="BX137" s="4">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="BY137" s="4">
         <v>1072</v>
@@ -54461,8 +54461,8 @@
       <c r="V138">
         <v>292</v>
       </c>
-      <c r="W138" s="4" t="s">
-        <v>68</v>
+      <c r="W138" s="4">
+        <v>174</v>
       </c>
       <c r="X138">
         <v>772</v>
@@ -54621,7 +54621,7 @@
         <v>343</v>
       </c>
       <c r="BX138" s="4">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="BY138" s="4">
         <v>1136</v>
@@ -54847,8 +54847,8 @@
       <c r="V139">
         <v>346</v>
       </c>
-      <c r="W139" s="4" t="s">
-        <v>68</v>
+      <c r="W139" s="4">
+        <v>174</v>
       </c>
       <c r="X139">
         <v>844</v>
@@ -55007,7 +55007,7 @@
         <v>350</v>
       </c>
       <c r="BX139" s="4">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="BY139" s="4">
         <v>1233</v>
@@ -55393,7 +55393,7 @@
         <v>367</v>
       </c>
       <c r="BX140" s="4">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BY140" s="4">
         <v>1283</v>
@@ -55779,7 +55779,7 @@
         <v>398</v>
       </c>
       <c r="BX141" s="4">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="BY141" s="4">
         <v>1307</v>
@@ -56165,7 +56165,7 @@
         <v>428</v>
       </c>
       <c r="BX142" s="4">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="BY142" s="4">
         <v>1349</v>
@@ -56551,7 +56551,7 @@
         <v>461</v>
       </c>
       <c r="BX143" s="4">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="BY143" s="4">
         <v>1379</v>
@@ -56937,7 +56937,7 @@
         <v>477</v>
       </c>
       <c r="BX144" s="4">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="BY144" s="4">
         <v>1410</v>
@@ -57164,7 +57164,7 @@
         <v>759</v>
       </c>
       <c r="W145">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="X145">
         <v>1116</v>
@@ -57323,7 +57323,7 @@
         <v>488</v>
       </c>
       <c r="BX145" s="4">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BY145" s="4">
         <v>1524</v>
@@ -57549,8 +57549,8 @@
       <c r="V146">
         <v>762</v>
       </c>
-      <c r="W146" s="4" t="s">
-        <v>68</v>
+      <c r="W146" s="4">
+        <v>225</v>
       </c>
       <c r="X146">
         <v>1204</v>
@@ -57709,7 +57709,7 @@
         <v>555</v>
       </c>
       <c r="BX146" s="4">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="BY146" s="4">
         <v>1585</v>
@@ -57936,7 +57936,7 @@
         <v>777</v>
       </c>
       <c r="W147">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="X147">
         <v>1278</v>
@@ -58095,7 +58095,7 @@
         <v>594</v>
       </c>
       <c r="BX147" s="4">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="BY147" s="4">
         <v>1643</v>
@@ -58322,7 +58322,7 @@
         <v>851</v>
       </c>
       <c r="W148">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="X148">
         <v>1341</v>
@@ -58481,7 +58481,7 @@
         <v>636</v>
       </c>
       <c r="BX148" s="4">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="BY148" s="4">
         <v>1794</v>
@@ -58708,7 +58708,7 @@
         <v>909</v>
       </c>
       <c r="W149">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="X149">
         <v>1401</v>
@@ -58867,7 +58867,7 @@
         <v>697</v>
       </c>
       <c r="BX149" s="4">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="BY149" s="4">
         <v>1893</v>
@@ -59094,7 +59094,7 @@
         <v>943</v>
       </c>
       <c r="W150" s="6">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="X150" s="6">
         <v>1570</v>
@@ -59253,7 +59253,7 @@
         <v>754</v>
       </c>
       <c r="BX150" s="4">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="BY150" s="4">
         <v>2030</v>
@@ -59480,7 +59480,7 @@
         <v>1033</v>
       </c>
       <c r="W151">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="X151">
         <v>1730</v>
@@ -59639,7 +59639,7 @@
         <v>782</v>
       </c>
       <c r="BX151" s="4">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="BY151" s="4">
         <v>2173</v>
@@ -59866,7 +59866,7 @@
         <v>1128</v>
       </c>
       <c r="W152">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="X152">
         <v>1824</v>
@@ -60025,7 +60025,7 @@
         <v>835</v>
       </c>
       <c r="BX152" s="4">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="BY152" s="4">
         <v>2386</v>
@@ -60252,7 +60252,7 @@
         <v>1208</v>
       </c>
       <c r="W153">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X153">
         <v>1915</v>
@@ -60411,7 +60411,7 @@
         <v>895</v>
       </c>
       <c r="BX153" s="4">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="BY153" s="4">
         <v>2458</v>
@@ -60638,7 +60638,7 @@
         <v>1259</v>
       </c>
       <c r="W154">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="X154">
         <v>1979</v>
@@ -60797,7 +60797,7 @@
         <v>68</v>
       </c>
       <c r="BX154" s="4">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="BY154" s="4">
         <v>2522</v>
@@ -61024,7 +61024,7 @@
         <v>1294</v>
       </c>
       <c r="W155">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="X155">
         <v>2058</v>
@@ -61183,7 +61183,7 @@
         <v>68</v>
       </c>
       <c r="BX155" s="4">
-        <v>322</v>
+        <v>297</v>
       </c>
       <c r="BY155" s="4">
         <v>2601</v>
@@ -61410,7 +61410,7 @@
         <v>1356</v>
       </c>
       <c r="W156">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="X156">
         <v>2159</v>
@@ -61569,7 +61569,7 @@
         <v>1121</v>
       </c>
       <c r="BX156" s="4">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="BY156" s="4">
         <v>2702</v>
@@ -61955,7 +61955,7 @@
         <v>1177</v>
       </c>
       <c r="BX157" s="4">
-        <v>341</v>
+        <v>316</v>
       </c>
       <c r="BY157" s="4">
         <v>2776</v>
@@ -62341,7 +62341,7 @@
         <v>1247</v>
       </c>
       <c r="BX158" s="4">
-        <v>353</v>
+        <v>328</v>
       </c>
       <c r="BY158" s="4">
         <v>2862</v>
@@ -62727,7 +62727,7 @@
         <v>1284</v>
       </c>
       <c r="BX159" s="4">
-        <v>367</v>
+        <v>342</v>
       </c>
       <c r="BY159" s="4">
         <v>2899</v>
@@ -62954,7 +62954,7 @@
         <v>1589</v>
       </c>
       <c r="W160">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="X160">
         <v>2584</v>
@@ -63113,7 +63113,7 @@
         <v>1462</v>
       </c>
       <c r="BX160" s="4">
-        <v>379</v>
+        <v>354</v>
       </c>
       <c r="BY160" s="4">
         <v>2922</v>
@@ -63340,7 +63340,7 @@
         <v>1638</v>
       </c>
       <c r="W161">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="X161">
         <v>2749</v>
@@ -63499,7 +63499,7 @@
         <v>1557</v>
       </c>
       <c r="BX161" s="4">
-        <v>384</v>
+        <v>359</v>
       </c>
       <c r="BY161" s="4">
         <v>3007</v>
@@ -63885,7 +63885,7 @@
         <v>1646</v>
       </c>
       <c r="BX162" s="4">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="BY162" s="4">
         <v>3094</v>
@@ -64271,7 +64271,7 @@
         <v>1768</v>
       </c>
       <c r="BX163" s="4">
-        <v>440</v>
+        <v>415</v>
       </c>
       <c r="BY163" s="4">
         <v>3170</v>
@@ -64657,7 +64657,7 @@
         <v>1828</v>
       </c>
       <c r="BX164" s="4">
-        <v>453</v>
+        <v>428</v>
       </c>
       <c r="BY164" s="4">
         <v>3292</v>
@@ -65043,7 +65043,7 @@
         <v>1892</v>
       </c>
       <c r="BX165" s="4">
-        <v>465</v>
+        <v>440</v>
       </c>
       <c r="BY165" s="4">
         <v>3360</v>
@@ -65270,7 +65270,7 @@
         <v>2062</v>
       </c>
       <c r="W166">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="X166">
         <v>3411</v>
@@ -65429,7 +65429,7 @@
         <v>1921</v>
       </c>
       <c r="BX166" s="4">
-        <v>471</v>
+        <v>445</v>
       </c>
       <c r="BY166" s="4">
         <v>3435</v>
@@ -65656,7 +65656,7 @@
         <v>2181</v>
       </c>
       <c r="W167">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="X167">
         <v>3487</v>
@@ -65815,7 +65815,7 @@
         <v>1997</v>
       </c>
       <c r="BX167" s="4">
-        <v>483</v>
+        <v>458</v>
       </c>
       <c r="BY167" s="4">
         <v>3531</v>
@@ -66201,7 +66201,7 @@
         <v>2098</v>
       </c>
       <c r="BX168" s="4">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="BY168" s="4">
         <v>3601</v>
@@ -66428,7 +66428,7 @@
         <v>2282</v>
       </c>
       <c r="W169">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="X169">
         <v>3865</v>
@@ -66587,7 +66587,7 @@
         <v>2216</v>
       </c>
       <c r="BX169" s="4">
-        <v>535</v>
+        <v>507</v>
       </c>
       <c r="BY169" s="4">
         <v>3621</v>
@@ -66814,7 +66814,7 @@
         <v>2328</v>
       </c>
       <c r="W170">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="X170">
         <v>4050</v>
@@ -66973,7 +66973,7 @@
         <v>2301</v>
       </c>
       <c r="BX170" s="4">
-        <v>592</v>
+        <v>563</v>
       </c>
       <c r="BY170" s="4">
         <v>3694</v>
@@ -67200,7 +67200,7 @@
         <v>2369</v>
       </c>
       <c r="W171">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="X171">
         <v>4407</v>
@@ -67359,7 +67359,7 @@
         <v>2379</v>
       </c>
       <c r="BX171" s="4">
-        <v>609</v>
+        <v>582</v>
       </c>
       <c r="BY171" s="4">
         <v>3739</v>
@@ -67586,7 +67586,7 @@
         <v>2405</v>
       </c>
       <c r="W172">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="X172">
         <v>4574</v>
@@ -67745,7 +67745,7 @@
         <v>2516</v>
       </c>
       <c r="BX172" s="4">
-        <v>642</v>
+        <v>615</v>
       </c>
       <c r="BY172" s="4">
         <v>3850</v>
@@ -68131,7 +68131,7 @@
         <v>2623</v>
       </c>
       <c r="BX173" s="4">
-        <v>708</v>
+        <v>679</v>
       </c>
       <c r="BY173" s="4">
         <v>3890</v>
@@ -68517,7 +68517,7 @@
         <v>2719</v>
       </c>
       <c r="BX174" s="4">
-        <v>729</v>
+        <v>704</v>
       </c>
       <c r="BY174" s="4">
         <v>3935</v>
@@ -68903,7 +68903,7 @@
         <v>2814</v>
       </c>
       <c r="BX175" s="4">
-        <v>742</v>
+        <v>717</v>
       </c>
       <c r="BY175" s="4">
         <v>4003</v>
@@ -69060,6 +69060,392 @@
       </c>
       <c r="DX175">
         <v>7905</v>
+      </c>
+    </row>
+    <row r="176" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>44070</v>
+      </c>
+      <c r="B176">
+        <v>582022</v>
+      </c>
+      <c r="C176">
+        <v>2693</v>
+      </c>
+      <c r="D176">
+        <v>75872</v>
+      </c>
+      <c r="E176">
+        <v>63610</v>
+      </c>
+      <c r="F176">
+        <v>201880</v>
+      </c>
+      <c r="G176">
+        <v>24685</v>
+      </c>
+      <c r="H176">
+        <v>3241</v>
+      </c>
+      <c r="I176">
+        <v>2614</v>
+      </c>
+      <c r="J176">
+        <v>5346</v>
+      </c>
+      <c r="K176">
+        <v>4651</v>
+      </c>
+      <c r="L176">
+        <v>9330</v>
+      </c>
+      <c r="M176">
+        <v>3693</v>
+      </c>
+      <c r="N176">
+        <v>18911</v>
+      </c>
+      <c r="O176">
+        <v>21094</v>
+      </c>
+      <c r="P176">
+        <v>4747</v>
+      </c>
+      <c r="Q176">
+        <v>4056</v>
+      </c>
+      <c r="R176">
+        <v>11832</v>
+      </c>
+      <c r="S176">
+        <v>6887</v>
+      </c>
+      <c r="T176">
+        <v>13506</v>
+      </c>
+      <c r="U176">
+        <v>10481</v>
+      </c>
+      <c r="V176">
+        <v>2687</v>
+      </c>
+      <c r="W176">
+        <v>997</v>
+      </c>
+      <c r="X176">
+        <v>5397</v>
+      </c>
+      <c r="Y176">
+        <v>16138</v>
+      </c>
+      <c r="Z176">
+        <v>11168</v>
+      </c>
+      <c r="AA176">
+        <v>6308</v>
+      </c>
+      <c r="AB176">
+        <v>45180</v>
+      </c>
+      <c r="AC176">
+        <v>955</v>
+      </c>
+      <c r="AD176">
+        <v>175</v>
+      </c>
+      <c r="AE176">
+        <v>242</v>
+      </c>
+      <c r="AF176">
+        <v>443</v>
+      </c>
+      <c r="AG176">
+        <v>92</v>
+      </c>
+      <c r="AH176">
+        <v>48</v>
+      </c>
+      <c r="AI176">
+        <v>238</v>
+      </c>
+      <c r="AJ176">
+        <v>1947</v>
+      </c>
+      <c r="AK176">
+        <v>2743</v>
+      </c>
+      <c r="AL176">
+        <v>35859</v>
+      </c>
+      <c r="AM176">
+        <v>6453</v>
+      </c>
+      <c r="AN176">
+        <v>2397</v>
+      </c>
+      <c r="AO176">
+        <v>35526</v>
+      </c>
+      <c r="AP176">
+        <v>878</v>
+      </c>
+      <c r="AQ176">
+        <v>20086</v>
+      </c>
+      <c r="AR176">
+        <v>1430</v>
+      </c>
+      <c r="AS176">
+        <v>7313</v>
+      </c>
+      <c r="AT176">
+        <v>1454</v>
+      </c>
+      <c r="AU176">
+        <v>1549</v>
+      </c>
+      <c r="AV176">
+        <v>3742</v>
+      </c>
+      <c r="AW176">
+        <v>1528</v>
+      </c>
+      <c r="AX176">
+        <v>927</v>
+      </c>
+      <c r="AY176">
+        <v>2461</v>
+      </c>
+      <c r="AZ176">
+        <v>2583</v>
+      </c>
+      <c r="BA176">
+        <v>43712</v>
+      </c>
+      <c r="BB176">
+        <v>11786</v>
+      </c>
+      <c r="BC176">
+        <v>2254</v>
+      </c>
+      <c r="BD176">
+        <v>7238</v>
+      </c>
+      <c r="BE176">
+        <v>3517</v>
+      </c>
+      <c r="BF176">
+        <v>277</v>
+      </c>
+      <c r="BG176">
+        <v>1386</v>
+      </c>
+      <c r="BH176">
+        <v>2571</v>
+      </c>
+      <c r="BI176">
+        <v>729</v>
+      </c>
+      <c r="BJ176">
+        <v>1977</v>
+      </c>
+      <c r="BK176">
+        <v>8001</v>
+      </c>
+      <c r="BL176">
+        <v>7994</v>
+      </c>
+      <c r="BM176">
+        <v>7910</v>
+      </c>
+      <c r="BN176">
+        <v>13704</v>
+      </c>
+      <c r="BO176">
+        <v>1864</v>
+      </c>
+      <c r="BP176">
+        <v>812</v>
+      </c>
+      <c r="BQ176">
+        <v>6484</v>
+      </c>
+      <c r="BR176">
+        <v>5722</v>
+      </c>
+      <c r="BS176" s="4">
+        <v>6833</v>
+      </c>
+      <c r="BT176" s="4">
+        <v>1381</v>
+      </c>
+      <c r="BU176" s="4">
+        <v>1426</v>
+      </c>
+      <c r="BV176" s="4">
+        <v>2541</v>
+      </c>
+      <c r="BW176" s="4">
+        <v>2932</v>
+      </c>
+      <c r="BX176" s="4">
+        <v>729</v>
+      </c>
+      <c r="BY176" s="4">
+        <v>4134</v>
+      </c>
+      <c r="BZ176" s="4">
+        <v>2328</v>
+      </c>
+      <c r="CA176" s="4">
+        <v>1206</v>
+      </c>
+      <c r="CB176" s="4">
+        <v>656</v>
+      </c>
+      <c r="CC176" s="4">
+        <v>1919</v>
+      </c>
+      <c r="CD176" s="4">
+        <v>1818</v>
+      </c>
+      <c r="CE176" s="4">
+        <v>1108</v>
+      </c>
+      <c r="CF176" s="4">
+        <v>866</v>
+      </c>
+      <c r="CG176" s="4">
+        <v>4451</v>
+      </c>
+      <c r="CH176" s="4">
+        <v>1239</v>
+      </c>
+      <c r="CI176" s="4">
+        <v>1129</v>
+      </c>
+      <c r="CJ176" s="4">
+        <v>1163</v>
+      </c>
+      <c r="CK176" s="4">
+        <v>1478</v>
+      </c>
+      <c r="CL176" s="4">
+        <v>1366</v>
+      </c>
+      <c r="CM176" s="4">
+        <v>1467</v>
+      </c>
+      <c r="CN176" s="4">
+        <v>1091</v>
+      </c>
+      <c r="CO176" s="4">
+        <v>1028</v>
+      </c>
+      <c r="CP176" s="4">
+        <v>1074</v>
+      </c>
+      <c r="CQ176" s="4">
+        <v>557</v>
+      </c>
+      <c r="CR176" s="4">
+        <v>2948</v>
+      </c>
+      <c r="CS176" s="4">
+        <v>931</v>
+      </c>
+      <c r="CT176" s="4">
+        <v>785</v>
+      </c>
+      <c r="CU176" s="4">
+        <v>713</v>
+      </c>
+      <c r="CV176" s="4">
+        <v>1255</v>
+      </c>
+      <c r="CW176" s="4">
+        <v>1096</v>
+      </c>
+      <c r="CX176" s="4">
+        <v>599</v>
+      </c>
+      <c r="CY176" s="4">
+        <v>707</v>
+      </c>
+      <c r="CZ176" s="4">
+        <v>850</v>
+      </c>
+      <c r="DA176" s="4">
+        <v>1137</v>
+      </c>
+      <c r="DB176" s="4">
+        <v>923</v>
+      </c>
+      <c r="DC176" s="4">
+        <v>1064</v>
+      </c>
+      <c r="DD176" s="4">
+        <v>827</v>
+      </c>
+      <c r="DE176" s="4">
+        <v>312</v>
+      </c>
+      <c r="DF176" s="4">
+        <v>329</v>
+      </c>
+      <c r="DG176" s="4">
+        <v>658</v>
+      </c>
+      <c r="DH176" s="4">
+        <v>560</v>
+      </c>
+      <c r="DI176" s="4">
+        <v>397</v>
+      </c>
+      <c r="DJ176" s="4">
+        <v>530</v>
+      </c>
+      <c r="DK176" s="4">
+        <v>322</v>
+      </c>
+      <c r="DL176" s="4">
+        <v>572</v>
+      </c>
+      <c r="DM176" s="4">
+        <v>699</v>
+      </c>
+      <c r="DN176" s="4">
+        <v>507</v>
+      </c>
+      <c r="DO176" s="4">
+        <v>472</v>
+      </c>
+      <c r="DP176" s="4">
+        <v>356</v>
+      </c>
+      <c r="DQ176" s="4">
+        <v>512</v>
+      </c>
+      <c r="DR176">
+        <v>114204</v>
+      </c>
+      <c r="DS176">
+        <v>245187</v>
+      </c>
+      <c r="DT176">
+        <v>9281</v>
+      </c>
+      <c r="DU176">
+        <v>105941</v>
+      </c>
+      <c r="DV176">
+        <v>67030</v>
+      </c>
+      <c r="DW176">
+        <v>26668</v>
+      </c>
+      <c r="DX176">
+        <v>8125</v>
       </c>
     </row>
   </sheetData>

--- a/CasosColombia.xlsx
+++ b/CasosColombia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Matlab\MATLAB_R2019a\fitVirusCV19_v07_v17\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3087123B-09A8-4614-AA96-63B2AC767856}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F749AED3-ED0D-4931-999B-825528ADD8CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6C56C21C-B00B-4C62-A627-74DAE246E91A}"/>
+    <workbookView xWindow="4125" yWindow="1065" windowWidth="21600" windowHeight="11505" xr2:uid="{6C56C21C-B00B-4C62-A627-74DAE246E91A}"/>
   </bookViews>
   <sheets>
     <sheet name="CasosColombia" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="129">
   <si>
     <t>Fecha</t>
   </si>
@@ -1497,13 +1497,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13133E2-69F7-478D-A001-FD6CB4FB0C80}">
-  <dimension ref="A1:DX176"/>
+  <dimension ref="A1:DX177"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="CZ147" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="DI149" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A176" sqref="A176"/>
+      <selection pane="bottomRight" activeCell="DX177" sqref="DX177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5589,8 +5589,8 @@
       <c r="BT11" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="BU11" s="4" t="s">
-        <v>68</v>
+      <c r="BU11" s="4">
+        <v>1</v>
       </c>
       <c r="BV11" s="4">
         <v>0</v>
@@ -5891,8 +5891,8 @@
       <c r="AR12">
         <v>0</v>
       </c>
-      <c r="AS12" s="4" t="s">
-        <v>68</v>
+      <c r="AS12" s="4">
+        <v>1</v>
       </c>
       <c r="AT12">
         <v>0</v>
@@ -5975,8 +5975,8 @@
       <c r="BT12" s="10">
         <v>1</v>
       </c>
-      <c r="BU12" s="10" t="s">
-        <v>68</v>
+      <c r="BU12" s="10">
+        <v>1</v>
       </c>
       <c r="BV12" s="4">
         <v>0</v>
@@ -8108,8 +8108,8 @@
       <c r="K18" t="s">
         <v>68</v>
       </c>
-      <c r="L18">
-        <v>1</v>
+      <c r="L18" t="s">
+        <v>68</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -8494,8 +8494,8 @@
       <c r="K19" t="s">
         <v>68</v>
       </c>
-      <c r="L19">
-        <v>1</v>
+      <c r="L19" t="s">
+        <v>68</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -14359,8 +14359,8 @@
       <c r="AJ34">
         <v>0</v>
       </c>
-      <c r="AK34" s="12" t="s">
-        <v>68</v>
+      <c r="AK34" s="12">
+        <v>1</v>
       </c>
       <c r="AL34">
         <v>46</v>
@@ -14745,8 +14745,8 @@
       <c r="AJ35">
         <v>0</v>
       </c>
-      <c r="AK35" s="12" t="s">
-        <v>68</v>
+      <c r="AK35" s="12">
+        <v>1</v>
       </c>
       <c r="AL35">
         <v>49</v>
@@ -15131,8 +15131,8 @@
       <c r="AJ36">
         <v>0</v>
       </c>
-      <c r="AK36" s="12" t="s">
-        <v>68</v>
+      <c r="AK36" s="12">
+        <v>2</v>
       </c>
       <c r="AL36">
         <v>55</v>
@@ -15517,8 +15517,8 @@
       <c r="AJ37">
         <v>0</v>
       </c>
-      <c r="AK37" s="12" t="s">
-        <v>68</v>
+      <c r="AK37" s="12">
+        <v>2</v>
       </c>
       <c r="AL37">
         <v>60</v>
@@ -25203,8 +25203,8 @@
       <c r="AV62">
         <v>0</v>
       </c>
-      <c r="AW62" s="8">
-        <v>2</v>
+      <c r="AW62" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="AX62">
         <v>0</v>
@@ -27519,8 +27519,8 @@
       <c r="AV68">
         <v>0</v>
       </c>
-      <c r="AW68" s="8">
-        <v>11</v>
+      <c r="AW68" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="AX68">
         <v>0</v>
@@ -38432,8 +38432,8 @@
       <c r="CE96" s="4">
         <v>13</v>
       </c>
-      <c r="CF96" s="4" t="s">
-        <v>68</v>
+      <c r="CF96" s="4">
+        <v>6</v>
       </c>
       <c r="CG96" s="4">
         <v>24</v>
@@ -69446,6 +69446,392 @@
       </c>
       <c r="DX176">
         <v>8125</v>
+      </c>
+    </row>
+    <row r="177" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B177">
+        <v>590520</v>
+      </c>
+      <c r="C177">
+        <v>2696</v>
+      </c>
+      <c r="D177">
+        <v>77289</v>
+      </c>
+      <c r="E177">
+        <v>63758</v>
+      </c>
+      <c r="F177">
+        <v>204065</v>
+      </c>
+      <c r="G177">
+        <v>24804</v>
+      </c>
+      <c r="H177">
+        <v>3367</v>
+      </c>
+      <c r="I177">
+        <v>2707</v>
+      </c>
+      <c r="J177">
+        <v>5536</v>
+      </c>
+      <c r="K177">
+        <v>4740</v>
+      </c>
+      <c r="L177">
+        <v>9655</v>
+      </c>
+      <c r="M177">
+        <v>3697</v>
+      </c>
+      <c r="N177">
+        <v>19113</v>
+      </c>
+      <c r="O177">
+        <v>21437</v>
+      </c>
+      <c r="P177">
+        <v>4779</v>
+      </c>
+      <c r="Q177">
+        <v>4282</v>
+      </c>
+      <c r="R177">
+        <v>11942</v>
+      </c>
+      <c r="S177">
+        <v>7232</v>
+      </c>
+      <c r="T177">
+        <v>13709</v>
+      </c>
+      <c r="U177">
+        <v>10900</v>
+      </c>
+      <c r="V177">
+        <v>2736</v>
+      </c>
+      <c r="W177">
+        <v>1031</v>
+      </c>
+      <c r="X177">
+        <v>5612</v>
+      </c>
+      <c r="Y177">
+        <v>16763</v>
+      </c>
+      <c r="Z177">
+        <v>11365</v>
+      </c>
+      <c r="AA177">
+        <v>6485</v>
+      </c>
+      <c r="AB177">
+        <v>45667</v>
+      </c>
+      <c r="AC177">
+        <v>986</v>
+      </c>
+      <c r="AD177">
+        <v>175</v>
+      </c>
+      <c r="AE177">
+        <v>251</v>
+      </c>
+      <c r="AF177">
+        <v>444</v>
+      </c>
+      <c r="AG177">
+        <v>92</v>
+      </c>
+      <c r="AH177">
+        <v>49</v>
+      </c>
+      <c r="AI177">
+        <v>239</v>
+      </c>
+      <c r="AJ177">
+        <v>1947</v>
+      </c>
+      <c r="AK177">
+        <v>2850</v>
+      </c>
+      <c r="AL177">
+        <v>35927</v>
+      </c>
+      <c r="AM177">
+        <v>6521</v>
+      </c>
+      <c r="AN177">
+        <v>2399</v>
+      </c>
+      <c r="AO177">
+        <v>35894</v>
+      </c>
+      <c r="AP177">
+        <v>893</v>
+      </c>
+      <c r="AQ177">
+        <v>20145</v>
+      </c>
+      <c r="AR177">
+        <v>1435</v>
+      </c>
+      <c r="AS177">
+        <v>7618</v>
+      </c>
+      <c r="AT177">
+        <v>1462</v>
+      </c>
+      <c r="AU177">
+        <v>1554</v>
+      </c>
+      <c r="AV177">
+        <v>3880</v>
+      </c>
+      <c r="AW177">
+        <v>1555</v>
+      </c>
+      <c r="AX177">
+        <v>927</v>
+      </c>
+      <c r="AY177">
+        <v>2464</v>
+      </c>
+      <c r="AZ177">
+        <v>2586</v>
+      </c>
+      <c r="BA177">
+        <v>44781</v>
+      </c>
+      <c r="BB177">
+        <v>11891</v>
+      </c>
+      <c r="BC177">
+        <v>2351</v>
+      </c>
+      <c r="BD177">
+        <v>7340</v>
+      </c>
+      <c r="BE177">
+        <v>3649</v>
+      </c>
+      <c r="BF177">
+        <v>278</v>
+      </c>
+      <c r="BG177">
+        <v>1389</v>
+      </c>
+      <c r="BH177">
+        <v>2574</v>
+      </c>
+      <c r="BI177">
+        <v>729</v>
+      </c>
+      <c r="BJ177">
+        <v>1993</v>
+      </c>
+      <c r="BK177">
+        <v>8083</v>
+      </c>
+      <c r="BL177">
+        <v>8148</v>
+      </c>
+      <c r="BM177">
+        <v>8020</v>
+      </c>
+      <c r="BN177">
+        <v>13730</v>
+      </c>
+      <c r="BO177">
+        <v>1864</v>
+      </c>
+      <c r="BP177">
+        <v>813</v>
+      </c>
+      <c r="BQ177">
+        <v>6746</v>
+      </c>
+      <c r="BR177">
+        <v>6021</v>
+      </c>
+      <c r="BS177" s="4">
+        <v>7144</v>
+      </c>
+      <c r="BT177" s="4">
+        <v>1439</v>
+      </c>
+      <c r="BU177" s="4">
+        <v>1442</v>
+      </c>
+      <c r="BV177" s="4">
+        <v>2611</v>
+      </c>
+      <c r="BW177" s="4">
+        <v>3023</v>
+      </c>
+      <c r="BX177" s="4">
+        <v>754</v>
+      </c>
+      <c r="BY177" s="4">
+        <v>4141</v>
+      </c>
+      <c r="BZ177" s="4">
+        <v>2372</v>
+      </c>
+      <c r="CA177" s="4">
+        <v>1247</v>
+      </c>
+      <c r="CB177" s="4">
+        <v>675</v>
+      </c>
+      <c r="CC177" s="4">
+        <v>1936</v>
+      </c>
+      <c r="CD177" s="4">
+        <v>1821</v>
+      </c>
+      <c r="CE177" s="4">
+        <v>1144</v>
+      </c>
+      <c r="CF177" s="4">
+        <v>896</v>
+      </c>
+      <c r="CG177" s="4">
+        <v>4559</v>
+      </c>
+      <c r="CH177" s="4">
+        <v>1289</v>
+      </c>
+      <c r="CI177" s="4">
+        <v>1133</v>
+      </c>
+      <c r="CJ177" s="4">
+        <v>1178</v>
+      </c>
+      <c r="CK177" s="4">
+        <v>1482</v>
+      </c>
+      <c r="CL177" s="4">
+        <v>1381</v>
+      </c>
+      <c r="CM177" s="4">
+        <v>1509</v>
+      </c>
+      <c r="CN177" s="4">
+        <v>1103</v>
+      </c>
+      <c r="CO177" s="4">
+        <v>1039</v>
+      </c>
+      <c r="CP177" s="4">
+        <v>1081</v>
+      </c>
+      <c r="CQ177" s="4">
+        <v>582</v>
+      </c>
+      <c r="CR177" s="4">
+        <v>2960</v>
+      </c>
+      <c r="CS177" s="4">
+        <v>944</v>
+      </c>
+      <c r="CT177" s="4">
+        <v>789</v>
+      </c>
+      <c r="CU177" s="4">
+        <v>725</v>
+      </c>
+      <c r="CV177" s="4">
+        <v>1262</v>
+      </c>
+      <c r="CW177" s="4">
+        <v>1116</v>
+      </c>
+      <c r="CX177" s="4">
+        <v>603</v>
+      </c>
+      <c r="CY177" s="4">
+        <v>715</v>
+      </c>
+      <c r="CZ177" s="4">
+        <v>868</v>
+      </c>
+      <c r="DA177" s="4">
+        <v>1145</v>
+      </c>
+      <c r="DB177" s="4">
+        <v>938</v>
+      </c>
+      <c r="DC177" s="4">
+        <v>1084</v>
+      </c>
+      <c r="DD177" s="4">
+        <v>839</v>
+      </c>
+      <c r="DE177" s="4">
+        <v>312</v>
+      </c>
+      <c r="DF177" s="4">
+        <v>331</v>
+      </c>
+      <c r="DG177" s="4">
+        <v>662</v>
+      </c>
+      <c r="DH177" s="4">
+        <v>569</v>
+      </c>
+      <c r="DI177" s="4">
+        <v>397</v>
+      </c>
+      <c r="DJ177" s="4">
+        <v>530</v>
+      </c>
+      <c r="DK177" s="4">
+        <v>322</v>
+      </c>
+      <c r="DL177" s="4">
+        <v>574</v>
+      </c>
+      <c r="DM177" s="4">
+        <v>699</v>
+      </c>
+      <c r="DN177" s="4">
+        <v>508</v>
+      </c>
+      <c r="DO177" s="4">
+        <v>473</v>
+      </c>
+      <c r="DP177" s="4">
+        <v>357</v>
+      </c>
+      <c r="DQ177" s="4">
+        <v>512</v>
+      </c>
+      <c r="DR177">
+        <v>114938</v>
+      </c>
+      <c r="DS177">
+        <v>248589</v>
+      </c>
+      <c r="DT177">
+        <v>9623</v>
+      </c>
+      <c r="DU177">
+        <v>107757</v>
+      </c>
+      <c r="DV177">
+        <v>67813</v>
+      </c>
+      <c r="DW177">
+        <v>27712</v>
+      </c>
+      <c r="DX177">
+        <v>8364</v>
       </c>
     </row>
   </sheetData>

--- a/CasosColombia.xlsx
+++ b/CasosColombia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Matlab\MATLAB_R2019a\fitVirusCV19_v07_v17\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F749AED3-ED0D-4931-999B-825528ADD8CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A68F1396-B217-47EA-BB63-F0E88974D80B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4125" yWindow="1065" windowWidth="21600" windowHeight="11505" xr2:uid="{6C56C21C-B00B-4C62-A627-74DAE246E91A}"/>
+    <workbookView xWindow="4470" yWindow="1410" windowWidth="21600" windowHeight="11505" xr2:uid="{6C56C21C-B00B-4C62-A627-74DAE246E91A}"/>
   </bookViews>
   <sheets>
     <sheet name="CasosColombia" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="129">
   <si>
     <t>Fecha</t>
   </si>
@@ -1497,13 +1497,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13133E2-69F7-478D-A001-FD6CB4FB0C80}">
-  <dimension ref="A1:DX177"/>
+  <dimension ref="A1:DX178"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="DI149" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="DE150" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="DX177" sqref="DX177"/>
+      <selection pane="bottomRight" activeCell="DR177" sqref="DR177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8680,8 +8680,8 @@
       <c r="BU19" s="4">
         <v>11</v>
       </c>
-      <c r="BV19" s="4">
-        <v>2</v>
+      <c r="BV19" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="BW19" s="4">
         <v>1</v>
@@ -13363,8 +13363,8 @@
       <c r="CL31" s="4">
         <v>8</v>
       </c>
-      <c r="CM31" s="13">
-        <v>1</v>
+      <c r="CM31" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="CN31" s="4">
         <v>8</v>
@@ -15089,8 +15089,8 @@
       <c r="V36">
         <v>0</v>
       </c>
-      <c r="W36" s="4" t="s">
-        <v>68</v>
+      <c r="W36" s="4">
+        <v>1</v>
       </c>
       <c r="X36">
         <v>0</v>
@@ -20963,8 +20963,8 @@
       <c r="AX51">
         <v>0</v>
       </c>
-      <c r="AY51">
-        <v>14</v>
+      <c r="AY51" t="s">
+        <v>68</v>
       </c>
       <c r="AZ51">
         <v>4</v>
@@ -21349,8 +21349,8 @@
       <c r="AX52">
         <v>0</v>
       </c>
-      <c r="AY52" t="s">
-        <v>68</v>
+      <c r="AY52">
+        <v>37</v>
       </c>
       <c r="AZ52">
         <v>4</v>
@@ -34832,8 +34832,8 @@
       <c r="AO87">
         <v>2547</v>
       </c>
-      <c r="AP87">
-        <v>5</v>
+      <c r="AP87" t="s">
+        <v>68</v>
       </c>
       <c r="AQ87">
         <v>2829</v>
@@ -35218,8 +35218,8 @@
       <c r="AO88">
         <v>2612</v>
       </c>
-      <c r="AP88">
-        <v>7</v>
+      <c r="AP88" t="s">
+        <v>68</v>
       </c>
       <c r="AQ88">
         <v>2975</v>
@@ -44392,8 +44392,8 @@
       <c r="K112">
         <v>292</v>
       </c>
-      <c r="L112" t="s">
-        <v>68</v>
+      <c r="L112">
+        <v>783</v>
       </c>
       <c r="M112">
         <v>1148</v>
@@ -44778,8 +44778,8 @@
       <c r="K113">
         <v>309</v>
       </c>
-      <c r="L113" t="s">
-        <v>68</v>
+      <c r="L113">
+        <v>789</v>
       </c>
       <c r="M113">
         <v>1235</v>
@@ -45544,8 +45544,8 @@
       <c r="I115">
         <v>244</v>
       </c>
-      <c r="J115" t="s">
-        <v>68</v>
+      <c r="J115">
+        <v>31</v>
       </c>
       <c r="K115">
         <v>329</v>
@@ -47088,8 +47088,8 @@
       <c r="I119">
         <v>264</v>
       </c>
-      <c r="J119" t="s">
-        <v>68</v>
+      <c r="J119">
+        <v>39</v>
       </c>
       <c r="K119">
         <v>404</v>
@@ -47474,8 +47474,8 @@
       <c r="I120">
         <v>267</v>
       </c>
-      <c r="J120" t="s">
-        <v>68</v>
+      <c r="J120">
+        <v>43</v>
       </c>
       <c r="K120">
         <v>466</v>
@@ -47860,8 +47860,8 @@
       <c r="I121">
         <v>267</v>
       </c>
-      <c r="J121" t="s">
-        <v>68</v>
+      <c r="J121">
+        <v>43</v>
       </c>
       <c r="K121">
         <v>477</v>
@@ -49790,8 +49790,8 @@
       <c r="I126">
         <v>279</v>
       </c>
-      <c r="J126" t="s">
-        <v>68</v>
+      <c r="J126">
+        <v>80</v>
       </c>
       <c r="K126">
         <v>622</v>
@@ -50563,7 +50563,7 @@
         <v>294</v>
       </c>
       <c r="J128">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K128">
         <v>709</v>
@@ -50601,8 +50601,8 @@
       <c r="V128">
         <v>49</v>
       </c>
-      <c r="W128">
-        <v>153</v>
+      <c r="W128" t="s">
+        <v>68</v>
       </c>
       <c r="X128">
         <v>483</v>
@@ -50949,7 +50949,7 @@
         <v>294</v>
       </c>
       <c r="J129">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K129">
         <v>729</v>
@@ -51335,7 +51335,7 @@
         <v>302</v>
       </c>
       <c r="J130">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K130">
         <v>770</v>
@@ -51721,7 +51721,7 @@
         <v>302</v>
       </c>
       <c r="J131">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K131">
         <v>773</v>
@@ -52107,7 +52107,7 @@
         <v>304</v>
       </c>
       <c r="J132">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K132">
         <v>805</v>
@@ -52493,7 +52493,7 @@
         <v>308</v>
       </c>
       <c r="J133">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K133">
         <v>857</v>
@@ -52879,7 +52879,7 @@
         <v>325</v>
       </c>
       <c r="J134">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K134">
         <v>938</v>
@@ -53265,7 +53265,7 @@
         <v>342</v>
       </c>
       <c r="J135">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K135">
         <v>1004</v>
@@ -53651,7 +53651,7 @@
         <v>360</v>
       </c>
       <c r="J136">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K136">
         <v>1053</v>
@@ -54037,7 +54037,7 @@
         <v>389</v>
       </c>
       <c r="J137">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K137">
         <v>1105</v>
@@ -54423,7 +54423,7 @@
         <v>396</v>
       </c>
       <c r="J138">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="K138">
         <v>1134</v>
@@ -54809,7 +54809,7 @@
         <v>416</v>
       </c>
       <c r="J139">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="K139">
         <v>1174</v>
@@ -55195,7 +55195,7 @@
         <v>508</v>
       </c>
       <c r="J140">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K140">
         <v>1308</v>
@@ -55581,7 +55581,7 @@
         <v>549</v>
       </c>
       <c r="J141">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="K141">
         <v>1393</v>
@@ -55967,7 +55967,7 @@
         <v>581</v>
       </c>
       <c r="J142">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="K142">
         <v>1417</v>
@@ -56353,7 +56353,7 @@
         <v>649</v>
       </c>
       <c r="J143">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="K143">
         <v>1501</v>
@@ -56739,7 +56739,7 @@
         <v>710</v>
       </c>
       <c r="J144">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="K144">
         <v>1558</v>
@@ -57125,7 +57125,7 @@
         <v>722</v>
       </c>
       <c r="J145">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="K145">
         <v>1624</v>
@@ -57511,7 +57511,7 @@
         <v>733</v>
       </c>
       <c r="J146">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="K146">
         <v>1696</v>
@@ -57897,7 +57897,7 @@
         <v>792</v>
       </c>
       <c r="J147">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="K147">
         <v>1746</v>
@@ -58283,7 +58283,7 @@
         <v>849</v>
       </c>
       <c r="J148">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="K148">
         <v>1819</v>
@@ -58669,7 +58669,7 @@
         <v>956</v>
       </c>
       <c r="J149">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="K149">
         <v>1896</v>
@@ -59055,7 +59055,7 @@
         <v>988</v>
       </c>
       <c r="J150" s="6">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="K150" s="6">
         <v>1971</v>
@@ -59441,7 +59441,7 @@
         <v>1018</v>
       </c>
       <c r="J151">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="K151">
         <v>2042</v>
@@ -59827,7 +59827,7 @@
         <v>1033</v>
       </c>
       <c r="J152">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="K152">
         <v>2131</v>
@@ -60213,7 +60213,7 @@
         <v>1057</v>
       </c>
       <c r="J153">
-        <v>1647</v>
+        <v>1649</v>
       </c>
       <c r="K153">
         <v>2181</v>
@@ -60599,7 +60599,7 @@
         <v>1108</v>
       </c>
       <c r="J154">
-        <v>1839</v>
+        <v>1841</v>
       </c>
       <c r="K154">
         <v>2328</v>
@@ -60985,7 +60985,7 @@
         <v>1157</v>
       </c>
       <c r="J155">
-        <v>1868</v>
+        <v>1870</v>
       </c>
       <c r="K155">
         <v>2392</v>
@@ -61371,7 +61371,7 @@
         <v>1191</v>
       </c>
       <c r="J156">
-        <v>2042</v>
+        <v>2045</v>
       </c>
       <c r="K156">
         <v>2491</v>
@@ -61757,7 +61757,7 @@
         <v>1216</v>
       </c>
       <c r="J157">
-        <v>2141</v>
+        <v>2145</v>
       </c>
       <c r="K157">
         <v>2549</v>
@@ -62143,7 +62143,7 @@
         <v>1313</v>
       </c>
       <c r="J158">
-        <v>2493</v>
+        <v>2497</v>
       </c>
       <c r="K158">
         <v>2654</v>
@@ -62529,7 +62529,7 @@
         <v>1384</v>
       </c>
       <c r="J159">
-        <v>2619</v>
+        <v>2621</v>
       </c>
       <c r="K159">
         <v>2681</v>
@@ -62915,7 +62915,7 @@
         <v>1417</v>
       </c>
       <c r="J160">
-        <v>2794</v>
+        <v>2796</v>
       </c>
       <c r="K160">
         <v>2775</v>
@@ -63301,7 +63301,7 @@
         <v>1456</v>
       </c>
       <c r="J161">
-        <v>2944</v>
+        <v>2946</v>
       </c>
       <c r="K161">
         <v>2810</v>
@@ -63687,7 +63687,7 @@
         <v>1486</v>
       </c>
       <c r="J162">
-        <v>3068</v>
+        <v>3070</v>
       </c>
       <c r="K162">
         <v>3013</v>
@@ -64073,7 +64073,7 @@
         <v>1547</v>
       </c>
       <c r="J163">
-        <v>3328</v>
+        <v>3331</v>
       </c>
       <c r="K163">
         <v>3153</v>
@@ -64459,7 +64459,7 @@
         <v>1599</v>
       </c>
       <c r="J164">
-        <v>3511</v>
+        <v>3514</v>
       </c>
       <c r="K164">
         <v>3222</v>
@@ -64845,7 +64845,7 @@
         <v>1658</v>
       </c>
       <c r="J165">
-        <v>3750</v>
+        <v>3753</v>
       </c>
       <c r="K165">
         <v>3300</v>
@@ -65231,7 +65231,7 @@
         <v>1687</v>
       </c>
       <c r="J166">
-        <v>3922</v>
+        <v>3925</v>
       </c>
       <c r="K166">
         <v>3334</v>
@@ -65617,7 +65617,7 @@
         <v>1736</v>
       </c>
       <c r="J167">
-        <v>4129</v>
+        <v>4138</v>
       </c>
       <c r="K167">
         <v>3435</v>
@@ -66003,7 +66003,7 @@
         <v>1823</v>
       </c>
       <c r="J168">
-        <v>4339</v>
+        <v>4347</v>
       </c>
       <c r="K168">
         <v>3512</v>
@@ -66389,7 +66389,7 @@
         <v>2024</v>
       </c>
       <c r="J169">
-        <v>4428</v>
+        <v>4437</v>
       </c>
       <c r="K169">
         <v>3703</v>
@@ -66775,7 +66775,7 @@
         <v>2120</v>
       </c>
       <c r="J170">
-        <v>4603</v>
+        <v>4612</v>
       </c>
       <c r="K170">
         <v>3837</v>
@@ -67161,7 +67161,7 @@
         <v>2232</v>
       </c>
       <c r="J171">
-        <v>4716</v>
+        <v>4721</v>
       </c>
       <c r="K171">
         <v>3993</v>
@@ -67547,7 +67547,7 @@
         <v>2301</v>
       </c>
       <c r="J172">
-        <v>4836</v>
+        <v>4841</v>
       </c>
       <c r="K172">
         <v>4190</v>
@@ -67933,7 +67933,7 @@
         <v>2386</v>
       </c>
       <c r="J173">
-        <v>5069</v>
+        <v>5074</v>
       </c>
       <c r="K173">
         <v>4329</v>
@@ -69091,7 +69091,7 @@
         <v>2614</v>
       </c>
       <c r="J176">
-        <v>5346</v>
+        <v>5347</v>
       </c>
       <c r="K176">
         <v>4651</v>
@@ -69832,6 +69832,392 @@
       </c>
       <c r="DX177">
         <v>8364</v>
+      </c>
+    </row>
+    <row r="178" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>44072</v>
+      </c>
+      <c r="B178">
+        <v>599914</v>
+      </c>
+      <c r="C178">
+        <v>2696</v>
+      </c>
+      <c r="D178">
+        <v>78519</v>
+      </c>
+      <c r="E178">
+        <v>63872</v>
+      </c>
+      <c r="F178">
+        <v>207403</v>
+      </c>
+      <c r="G178">
+        <v>25012</v>
+      </c>
+      <c r="H178">
+        <v>3463</v>
+      </c>
+      <c r="I178">
+        <v>2804</v>
+      </c>
+      <c r="J178">
+        <v>5724</v>
+      </c>
+      <c r="K178">
+        <v>4983</v>
+      </c>
+      <c r="L178">
+        <v>10013</v>
+      </c>
+      <c r="M178">
+        <v>3704</v>
+      </c>
+      <c r="N178">
+        <v>19277</v>
+      </c>
+      <c r="O178">
+        <v>21972</v>
+      </c>
+      <c r="P178">
+        <v>4897</v>
+      </c>
+      <c r="Q178">
+        <v>4490</v>
+      </c>
+      <c r="R178">
+        <v>12109</v>
+      </c>
+      <c r="S178">
+        <v>7480</v>
+      </c>
+      <c r="T178">
+        <v>13814</v>
+      </c>
+      <c r="U178">
+        <v>11274</v>
+      </c>
+      <c r="V178">
+        <v>2779</v>
+      </c>
+      <c r="W178">
+        <v>1082</v>
+      </c>
+      <c r="X178">
+        <v>5758</v>
+      </c>
+      <c r="Y178">
+        <v>17261</v>
+      </c>
+      <c r="Z178">
+        <v>11506</v>
+      </c>
+      <c r="AA178">
+        <v>6730</v>
+      </c>
+      <c r="AB178">
+        <v>46086</v>
+      </c>
+      <c r="AC178">
+        <v>1008</v>
+      </c>
+      <c r="AD178">
+        <v>175</v>
+      </c>
+      <c r="AE178">
+        <v>260</v>
+      </c>
+      <c r="AF178">
+        <v>445</v>
+      </c>
+      <c r="AG178">
+        <v>93</v>
+      </c>
+      <c r="AH178">
+        <v>51</v>
+      </c>
+      <c r="AI178">
+        <v>241</v>
+      </c>
+      <c r="AJ178">
+        <v>1954</v>
+      </c>
+      <c r="AK178">
+        <v>2938</v>
+      </c>
+      <c r="AL178">
+        <v>35985</v>
+      </c>
+      <c r="AM178">
+        <v>6601</v>
+      </c>
+      <c r="AN178">
+        <v>2400</v>
+      </c>
+      <c r="AO178">
+        <v>36221</v>
+      </c>
+      <c r="AP178">
+        <v>907</v>
+      </c>
+      <c r="AQ178">
+        <v>20269</v>
+      </c>
+      <c r="AR178">
+        <v>1437</v>
+      </c>
+      <c r="AS178">
+        <v>7885</v>
+      </c>
+      <c r="AT178">
+        <v>1474</v>
+      </c>
+      <c r="AU178">
+        <v>1556</v>
+      </c>
+      <c r="AV178">
+        <v>4069</v>
+      </c>
+      <c r="AW178">
+        <v>1576</v>
+      </c>
+      <c r="AX178">
+        <v>932</v>
+      </c>
+      <c r="AY178">
+        <v>2464</v>
+      </c>
+      <c r="AZ178">
+        <v>2589</v>
+      </c>
+      <c r="BA178">
+        <v>45540</v>
+      </c>
+      <c r="BB178">
+        <v>11989</v>
+      </c>
+      <c r="BC178">
+        <v>2472</v>
+      </c>
+      <c r="BD178">
+        <v>7375</v>
+      </c>
+      <c r="BE178">
+        <v>3752</v>
+      </c>
+      <c r="BF178">
+        <v>278</v>
+      </c>
+      <c r="BG178">
+        <v>1393</v>
+      </c>
+      <c r="BH178">
+        <v>2580</v>
+      </c>
+      <c r="BI178">
+        <v>729</v>
+      </c>
+      <c r="BJ178">
+        <v>2002</v>
+      </c>
+      <c r="BK178">
+        <v>8179</v>
+      </c>
+      <c r="BL178">
+        <v>8250</v>
+      </c>
+      <c r="BM178">
+        <v>8190</v>
+      </c>
+      <c r="BN178">
+        <v>13749</v>
+      </c>
+      <c r="BO178">
+        <v>1866</v>
+      </c>
+      <c r="BP178">
+        <v>820</v>
+      </c>
+      <c r="BQ178">
+        <v>7054</v>
+      </c>
+      <c r="BR178">
+        <v>6247</v>
+      </c>
+      <c r="BS178" s="4">
+        <v>7382</v>
+      </c>
+      <c r="BT178" s="4">
+        <v>1472</v>
+      </c>
+      <c r="BU178" s="4">
+        <v>1471</v>
+      </c>
+      <c r="BV178" s="4">
+        <v>2792</v>
+      </c>
+      <c r="BW178" s="4">
+        <v>3081</v>
+      </c>
+      <c r="BX178" s="4">
+        <v>790</v>
+      </c>
+      <c r="BY178" s="4">
+        <v>4186</v>
+      </c>
+      <c r="BZ178" s="4">
+        <v>2396</v>
+      </c>
+      <c r="CA178" s="4">
+        <v>1277</v>
+      </c>
+      <c r="CB178" s="4">
+        <v>685</v>
+      </c>
+      <c r="CC178" s="4">
+        <v>1983</v>
+      </c>
+      <c r="CD178" s="4">
+        <v>1852</v>
+      </c>
+      <c r="CE178" s="4">
+        <v>1178</v>
+      </c>
+      <c r="CF178" s="4">
+        <v>917</v>
+      </c>
+      <c r="CG178" s="4">
+        <v>4708</v>
+      </c>
+      <c r="CH178" s="4">
+        <v>1329</v>
+      </c>
+      <c r="CI178" s="4">
+        <v>1138</v>
+      </c>
+      <c r="CJ178" s="4">
+        <v>1217</v>
+      </c>
+      <c r="CK178" s="4">
+        <v>1508</v>
+      </c>
+      <c r="CL178" s="4">
+        <v>1416</v>
+      </c>
+      <c r="CM178" s="4">
+        <v>1572</v>
+      </c>
+      <c r="CN178" s="4">
+        <v>1122</v>
+      </c>
+      <c r="CO178" s="4">
+        <v>1059</v>
+      </c>
+      <c r="CP178" s="4">
+        <v>1089</v>
+      </c>
+      <c r="CQ178" s="4">
+        <v>595</v>
+      </c>
+      <c r="CR178" s="4">
+        <v>2990</v>
+      </c>
+      <c r="CS178" s="4">
+        <v>958</v>
+      </c>
+      <c r="CT178" s="4">
+        <v>792</v>
+      </c>
+      <c r="CU178" s="4">
+        <v>731</v>
+      </c>
+      <c r="CV178" s="4">
+        <v>1267</v>
+      </c>
+      <c r="CW178" s="4">
+        <v>1137</v>
+      </c>
+      <c r="CX178" s="4">
+        <v>627</v>
+      </c>
+      <c r="CY178" s="4">
+        <v>720</v>
+      </c>
+      <c r="CZ178" s="4">
+        <v>884</v>
+      </c>
+      <c r="DA178" s="4">
+        <v>1157</v>
+      </c>
+      <c r="DB178" s="4">
+        <v>959</v>
+      </c>
+      <c r="DC178" s="4">
+        <v>1097</v>
+      </c>
+      <c r="DD178" s="4">
+        <v>869</v>
+      </c>
+      <c r="DE178" s="4">
+        <v>312</v>
+      </c>
+      <c r="DF178" s="4">
+        <v>331</v>
+      </c>
+      <c r="DG178" s="4">
+        <v>664</v>
+      </c>
+      <c r="DH178" s="4">
+        <v>578</v>
+      </c>
+      <c r="DI178" s="4">
+        <v>399</v>
+      </c>
+      <c r="DJ178" s="4">
+        <v>530</v>
+      </c>
+      <c r="DK178" s="4">
+        <v>324</v>
+      </c>
+      <c r="DL178" s="4">
+        <v>586</v>
+      </c>
+      <c r="DM178" s="4">
+        <v>699</v>
+      </c>
+      <c r="DN178" s="4">
+        <v>508</v>
+      </c>
+      <c r="DO178" s="4">
+        <v>475</v>
+      </c>
+      <c r="DP178" s="4">
+        <v>358</v>
+      </c>
+      <c r="DQ178" s="4">
+        <v>512</v>
+      </c>
+      <c r="DR178">
+        <v>115903</v>
+      </c>
+      <c r="DS178">
+        <v>253259</v>
+      </c>
+      <c r="DT178">
+        <v>9917</v>
+      </c>
+      <c r="DU178">
+        <v>109292</v>
+      </c>
+      <c r="DV178">
+        <v>68587</v>
+      </c>
+      <c r="DW178">
+        <v>28584</v>
+      </c>
+      <c r="DX178">
+        <v>8596</v>
       </c>
     </row>
   </sheetData>

--- a/CasosColombia.xlsx
+++ b/CasosColombia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Matlab\MATLAB_R2019a\fitVirusCV19_v07_v17\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A68F1396-B217-47EA-BB63-F0E88974D80B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{40FB773E-831E-4310-80C4-A180850FBEA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4470" yWindow="1410" windowWidth="21600" windowHeight="11505" xr2:uid="{6C56C21C-B00B-4C62-A627-74DAE246E91A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="129">
   <si>
     <t>Fecha</t>
   </si>
@@ -1497,13 +1497,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13133E2-69F7-478D-A001-FD6CB4FB0C80}">
-  <dimension ref="A1:DX178"/>
+  <dimension ref="A1:DX179"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="DE150" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="CZ148" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="DR177" sqref="DR177"/>
+      <selection pane="bottomRight" activeCell="DR179" sqref="DR179:DX179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4296,8 +4296,8 @@
       <c r="AA8">
         <v>0</v>
       </c>
-      <c r="AB8">
-        <v>1</v>
+      <c r="AB8" t="s">
+        <v>68</v>
       </c>
       <c r="AC8">
         <v>0</v>
@@ -6361,8 +6361,8 @@
       <c r="BT13" s="10">
         <v>1</v>
       </c>
-      <c r="BU13" s="4">
-        <v>4</v>
+      <c r="BU13" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="BV13" s="4">
         <v>0</v>
@@ -6747,8 +6747,8 @@
       <c r="BT14" s="10">
         <v>1</v>
       </c>
-      <c r="BU14" s="4">
-        <v>4</v>
+      <c r="BU14" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="BV14" s="4">
         <v>0</v>
@@ -8108,8 +8108,8 @@
       <c r="K18" t="s">
         <v>68</v>
       </c>
-      <c r="L18" t="s">
-        <v>68</v>
+      <c r="L18">
+        <v>1</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -8494,8 +8494,8 @@
       <c r="K19" t="s">
         <v>68</v>
       </c>
-      <c r="L19" t="s">
-        <v>68</v>
+      <c r="L19">
+        <v>1</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -9257,8 +9257,8 @@
       <c r="H21" s="4">
         <v>0</v>
       </c>
-      <c r="I21">
-        <v>11</v>
+      <c r="I21" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -12977,8 +12977,8 @@
       <c r="CL30" s="4">
         <v>5</v>
       </c>
-      <c r="CM30" s="13">
-        <v>1</v>
+      <c r="CM30" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="CN30" s="4">
         <v>8</v>
@@ -13973,8 +13973,8 @@
       <c r="AJ33">
         <v>0</v>
       </c>
-      <c r="AK33" t="s">
-        <v>68</v>
+      <c r="AK33">
+        <v>1</v>
       </c>
       <c r="AL33">
         <v>43</v>
@@ -14359,8 +14359,8 @@
       <c r="AJ34">
         <v>0</v>
       </c>
-      <c r="AK34" s="12">
-        <v>1</v>
+      <c r="AK34" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="AL34">
         <v>46</v>
@@ -14745,8 +14745,8 @@
       <c r="AJ35">
         <v>0</v>
       </c>
-      <c r="AK35" s="12">
-        <v>1</v>
+      <c r="AK35" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="AL35">
         <v>49</v>
@@ -25203,8 +25203,8 @@
       <c r="AV62">
         <v>0</v>
       </c>
-      <c r="AW62" s="8" t="s">
-        <v>68</v>
+      <c r="AW62" s="8">
+        <v>2</v>
       </c>
       <c r="AX62">
         <v>0</v>
@@ -32537,8 +32537,8 @@
       <c r="AV81" s="7">
         <v>6</v>
       </c>
-      <c r="AW81" s="8">
-        <v>28</v>
+      <c r="AW81" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="AX81">
         <v>60</v>
@@ -44482,8 +44482,8 @@
       <c r="AO112">
         <v>6134</v>
       </c>
-      <c r="AP112">
-        <v>297</v>
+      <c r="AP112" t="s">
+        <v>68</v>
       </c>
       <c r="AQ112">
         <v>6779</v>
@@ -45164,8 +45164,8 @@
       <c r="K114">
         <v>320</v>
       </c>
-      <c r="L114">
-        <v>809</v>
+      <c r="L114" t="s">
+        <v>68</v>
       </c>
       <c r="M114">
         <v>1323</v>
@@ -45544,8 +45544,8 @@
       <c r="I115">
         <v>244</v>
       </c>
-      <c r="J115">
-        <v>31</v>
+      <c r="J115" t="s">
+        <v>68</v>
       </c>
       <c r="K115">
         <v>329</v>
@@ -70218,6 +70218,392 @@
       </c>
       <c r="DX178">
         <v>8596</v>
+      </c>
+    </row>
+    <row r="179" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>44073</v>
+      </c>
+      <c r="B179">
+        <v>607938</v>
+      </c>
+      <c r="C179">
+        <v>2698</v>
+      </c>
+      <c r="D179">
+        <v>79364</v>
+      </c>
+      <c r="E179">
+        <v>64007</v>
+      </c>
+      <c r="F179">
+        <v>209250</v>
+      </c>
+      <c r="G179">
+        <v>25147</v>
+      </c>
+      <c r="H179">
+        <v>3550</v>
+      </c>
+      <c r="I179">
+        <v>2888</v>
+      </c>
+      <c r="J179">
+        <v>5860</v>
+      </c>
+      <c r="K179">
+        <v>5247</v>
+      </c>
+      <c r="L179">
+        <v>10514</v>
+      </c>
+      <c r="M179">
+        <v>3719</v>
+      </c>
+      <c r="N179">
+        <v>19568</v>
+      </c>
+      <c r="O179">
+        <v>22569</v>
+      </c>
+      <c r="P179">
+        <v>5024</v>
+      </c>
+      <c r="Q179">
+        <v>4760</v>
+      </c>
+      <c r="R179">
+        <v>12289</v>
+      </c>
+      <c r="S179">
+        <v>7802</v>
+      </c>
+      <c r="T179">
+        <v>13990</v>
+      </c>
+      <c r="U179">
+        <v>11608</v>
+      </c>
+      <c r="V179">
+        <v>2841</v>
+      </c>
+      <c r="W179">
+        <v>1213</v>
+      </c>
+      <c r="X179">
+        <v>5872</v>
+      </c>
+      <c r="Y179">
+        <v>17724</v>
+      </c>
+      <c r="Z179">
+        <v>11624</v>
+      </c>
+      <c r="AA179">
+        <v>6952</v>
+      </c>
+      <c r="AB179">
+        <v>46549</v>
+      </c>
+      <c r="AC179">
+        <v>1029</v>
+      </c>
+      <c r="AD179">
+        <v>198</v>
+      </c>
+      <c r="AE179">
+        <v>273</v>
+      </c>
+      <c r="AF179">
+        <v>446</v>
+      </c>
+      <c r="AG179">
+        <v>101</v>
+      </c>
+      <c r="AH179">
+        <v>55</v>
+      </c>
+      <c r="AI179">
+        <v>265</v>
+      </c>
+      <c r="AJ179">
+        <v>1956</v>
+      </c>
+      <c r="AK179">
+        <v>3006</v>
+      </c>
+      <c r="AL179">
+        <v>36069</v>
+      </c>
+      <c r="AM179">
+        <v>6655</v>
+      </c>
+      <c r="AN179">
+        <v>2402</v>
+      </c>
+      <c r="AO179">
+        <v>36555</v>
+      </c>
+      <c r="AP179">
+        <v>914</v>
+      </c>
+      <c r="AQ179">
+        <v>20359</v>
+      </c>
+      <c r="AR179">
+        <v>1446</v>
+      </c>
+      <c r="AS179">
+        <v>8124</v>
+      </c>
+      <c r="AT179">
+        <v>1475</v>
+      </c>
+      <c r="AU179">
+        <v>1557</v>
+      </c>
+      <c r="AV179">
+        <v>4253</v>
+      </c>
+      <c r="AW179">
+        <v>1593</v>
+      </c>
+      <c r="AX179">
+        <v>934</v>
+      </c>
+      <c r="AY179">
+        <v>2466</v>
+      </c>
+      <c r="AZ179">
+        <v>2593</v>
+      </c>
+      <c r="BA179">
+        <v>46107</v>
+      </c>
+      <c r="BB179">
+        <v>12140</v>
+      </c>
+      <c r="BC179">
+        <v>2646</v>
+      </c>
+      <c r="BD179">
+        <v>7477</v>
+      </c>
+      <c r="BE179">
+        <v>3837</v>
+      </c>
+      <c r="BF179">
+        <v>278</v>
+      </c>
+      <c r="BG179">
+        <v>1395</v>
+      </c>
+      <c r="BH179">
+        <v>2584</v>
+      </c>
+      <c r="BI179">
+        <v>729</v>
+      </c>
+      <c r="BJ179">
+        <v>2013</v>
+      </c>
+      <c r="BK179">
+        <v>8308</v>
+      </c>
+      <c r="BL179">
+        <v>8322</v>
+      </c>
+      <c r="BM179">
+        <v>8365</v>
+      </c>
+      <c r="BN179">
+        <v>13763</v>
+      </c>
+      <c r="BO179">
+        <v>1877</v>
+      </c>
+      <c r="BP179">
+        <v>821</v>
+      </c>
+      <c r="BQ179">
+        <v>7483</v>
+      </c>
+      <c r="BR179">
+        <v>6517</v>
+      </c>
+      <c r="BS179" s="4">
+        <v>7608</v>
+      </c>
+      <c r="BT179" s="4">
+        <v>1500</v>
+      </c>
+      <c r="BU179" s="4">
+        <v>1501</v>
+      </c>
+      <c r="BV179" s="4">
+        <v>3003</v>
+      </c>
+      <c r="BW179" s="4">
+        <v>3157</v>
+      </c>
+      <c r="BX179" s="4">
+        <v>858</v>
+      </c>
+      <c r="BY179" s="4">
+        <v>4235</v>
+      </c>
+      <c r="BZ179" s="4">
+        <v>2413</v>
+      </c>
+      <c r="CA179" s="4">
+        <v>1293</v>
+      </c>
+      <c r="CB179" s="4">
+        <v>688</v>
+      </c>
+      <c r="CC179" s="4">
+        <v>2058</v>
+      </c>
+      <c r="CD179" s="4">
+        <v>1863</v>
+      </c>
+      <c r="CE179" s="4">
+        <v>1219</v>
+      </c>
+      <c r="CF179" s="4">
+        <v>941</v>
+      </c>
+      <c r="CG179" s="4">
+        <v>4815</v>
+      </c>
+      <c r="CH179" s="4">
+        <v>1362</v>
+      </c>
+      <c r="CI179" s="4">
+        <v>1156</v>
+      </c>
+      <c r="CJ179" s="4">
+        <v>1245</v>
+      </c>
+      <c r="CK179" s="4">
+        <v>1572</v>
+      </c>
+      <c r="CL179" s="4">
+        <v>1449</v>
+      </c>
+      <c r="CM179" s="4">
+        <v>1638</v>
+      </c>
+      <c r="CN179" s="4">
+        <v>1134</v>
+      </c>
+      <c r="CO179" s="4">
+        <v>1062</v>
+      </c>
+      <c r="CP179" s="4">
+        <v>1094</v>
+      </c>
+      <c r="CQ179" s="4">
+        <v>603</v>
+      </c>
+      <c r="CR179" s="4">
+        <v>2997</v>
+      </c>
+      <c r="CS179" s="4">
+        <v>1009</v>
+      </c>
+      <c r="CT179" s="4">
+        <v>800</v>
+      </c>
+      <c r="CU179" s="4">
+        <v>735</v>
+      </c>
+      <c r="CV179" s="4">
+        <v>1274</v>
+      </c>
+      <c r="CW179" s="4">
+        <v>1165</v>
+      </c>
+      <c r="CX179" s="4">
+        <v>629</v>
+      </c>
+      <c r="CY179" s="4">
+        <v>727</v>
+      </c>
+      <c r="CZ179" s="4">
+        <v>903</v>
+      </c>
+      <c r="DA179" s="4">
+        <v>1169</v>
+      </c>
+      <c r="DB179" s="4">
+        <v>975</v>
+      </c>
+      <c r="DC179" s="4">
+        <v>1110</v>
+      </c>
+      <c r="DD179" s="4">
+        <v>874</v>
+      </c>
+      <c r="DE179" s="4">
+        <v>313</v>
+      </c>
+      <c r="DF179" s="4">
+        <v>332</v>
+      </c>
+      <c r="DG179" s="4">
+        <v>672</v>
+      </c>
+      <c r="DH179" s="4">
+        <v>581</v>
+      </c>
+      <c r="DI179" s="4">
+        <v>403</v>
+      </c>
+      <c r="DJ179" s="4">
+        <v>530</v>
+      </c>
+      <c r="DK179" s="4">
+        <v>325</v>
+      </c>
+      <c r="DL179" s="4">
+        <v>593</v>
+      </c>
+      <c r="DM179" s="4">
+        <v>700</v>
+      </c>
+      <c r="DN179" s="4">
+        <v>512</v>
+      </c>
+      <c r="DO179" s="4">
+        <v>475</v>
+      </c>
+      <c r="DP179" s="4">
+        <v>363</v>
+      </c>
+      <c r="DQ179" s="4">
+        <v>512</v>
+      </c>
+      <c r="DR179">
+        <v>116981</v>
+      </c>
+      <c r="DS179">
+        <v>256604</v>
+      </c>
+      <c r="DT179">
+        <v>10246</v>
+      </c>
+      <c r="DU179">
+        <v>110546</v>
+      </c>
+      <c r="DV179">
+        <v>69505</v>
+      </c>
+      <c r="DW179">
+        <v>29381</v>
+      </c>
+      <c r="DX179">
+        <v>8802</v>
       </c>
     </row>
   </sheetData>

--- a/CasosColombia.xlsx
+++ b/CasosColombia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Matlab\MATLAB_R2019a\fitVirusCV19_v07_v17\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40FB773E-831E-4310-80C4-A180850FBEA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{65B8509C-F65C-49C9-B055-C51C11D02146}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4470" yWindow="1410" windowWidth="21600" windowHeight="11505" xr2:uid="{6C56C21C-B00B-4C62-A627-74DAE246E91A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6C56C21C-B00B-4C62-A627-74DAE246E91A}"/>
   </bookViews>
   <sheets>
     <sheet name="CasosColombia" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="129">
   <si>
     <t>Fecha</t>
   </si>
@@ -1497,13 +1497,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13133E2-69F7-478D-A001-FD6CB4FB0C80}">
-  <dimension ref="A1:DX179"/>
+  <dimension ref="A1:DX181"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="CZ148" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="CZ139" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="DR179" sqref="DR179:DX179"/>
+      <selection pane="bottomRight" activeCell="DW180" sqref="DW180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4970,8 +4970,8 @@
       <c r="DS9">
         <v>10</v>
       </c>
-      <c r="DT9">
-        <v>1</v>
+      <c r="DT9" t="s">
+        <v>68</v>
       </c>
       <c r="DU9">
         <v>0</v>
@@ -8494,8 +8494,8 @@
       <c r="K19" t="s">
         <v>68</v>
       </c>
-      <c r="L19">
-        <v>1</v>
+      <c r="L19" t="s">
+        <v>68</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -50242,8 +50242,8 @@
       <c r="AE127">
         <v>29</v>
       </c>
-      <c r="AF127" s="12">
-        <v>6</v>
+      <c r="AF127" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="AG127">
         <v>14</v>
@@ -54213,8 +54213,8 @@
       <c r="BP137">
         <v>472</v>
       </c>
-      <c r="BQ137">
-        <v>928</v>
+      <c r="BQ137" t="s">
+        <v>68</v>
       </c>
       <c r="BR137">
         <v>755</v>
@@ -54599,8 +54599,8 @@
       <c r="BP138">
         <v>485</v>
       </c>
-      <c r="BQ138">
-        <v>1032</v>
+      <c r="BQ138" t="s">
+        <v>68</v>
       </c>
       <c r="BR138">
         <v>789</v>
@@ -65655,8 +65655,8 @@
       <c r="V167">
         <v>2181</v>
       </c>
-      <c r="W167">
-        <v>655</v>
+      <c r="W167" t="s">
+        <v>68</v>
       </c>
       <c r="X167">
         <v>3487</v>
@@ -70604,6 +70604,778 @@
       </c>
       <c r="DX179">
         <v>8802</v>
+      </c>
+    </row>
+    <row r="180" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>44074</v>
+      </c>
+      <c r="B180">
+        <v>615168</v>
+      </c>
+      <c r="C180">
+        <v>2701</v>
+      </c>
+      <c r="D180">
+        <v>80576</v>
+      </c>
+      <c r="E180">
+        <v>64127</v>
+      </c>
+      <c r="F180">
+        <v>211300</v>
+      </c>
+      <c r="G180">
+        <v>25267</v>
+      </c>
+      <c r="H180">
+        <v>3612</v>
+      </c>
+      <c r="I180">
+        <v>2964</v>
+      </c>
+      <c r="J180">
+        <v>6067</v>
+      </c>
+      <c r="K180">
+        <v>5285</v>
+      </c>
+      <c r="L180">
+        <v>10815</v>
+      </c>
+      <c r="M180">
+        <v>3722</v>
+      </c>
+      <c r="N180">
+        <v>19738</v>
+      </c>
+      <c r="O180">
+        <v>22925</v>
+      </c>
+      <c r="P180">
+        <v>5139</v>
+      </c>
+      <c r="Q180">
+        <v>4920</v>
+      </c>
+      <c r="R180">
+        <v>12461</v>
+      </c>
+      <c r="S180">
+        <v>7990</v>
+      </c>
+      <c r="T180">
+        <v>14086</v>
+      </c>
+      <c r="U180">
+        <v>11850</v>
+      </c>
+      <c r="V180">
+        <v>2895</v>
+      </c>
+      <c r="W180">
+        <v>1276</v>
+      </c>
+      <c r="X180">
+        <v>5992</v>
+      </c>
+      <c r="Y180">
+        <v>18162</v>
+      </c>
+      <c r="Z180">
+        <v>11709</v>
+      </c>
+      <c r="AA180">
+        <v>7129</v>
+      </c>
+      <c r="AB180">
+        <v>46944</v>
+      </c>
+      <c r="AC180">
+        <v>1062</v>
+      </c>
+      <c r="AD180">
+        <v>219</v>
+      </c>
+      <c r="AE180">
+        <v>340</v>
+      </c>
+      <c r="AF180">
+        <v>447</v>
+      </c>
+      <c r="AG180">
+        <v>140</v>
+      </c>
+      <c r="AH180">
+        <v>95</v>
+      </c>
+      <c r="AI180">
+        <v>272</v>
+      </c>
+      <c r="AJ180">
+        <v>1957</v>
+      </c>
+      <c r="AK180">
+        <v>3050</v>
+      </c>
+      <c r="AL180">
+        <v>36130</v>
+      </c>
+      <c r="AM180">
+        <v>6717</v>
+      </c>
+      <c r="AN180">
+        <v>2402</v>
+      </c>
+      <c r="AO180">
+        <v>36864</v>
+      </c>
+      <c r="AP180">
+        <v>916</v>
+      </c>
+      <c r="AQ180">
+        <v>20443</v>
+      </c>
+      <c r="AR180">
+        <v>1460</v>
+      </c>
+      <c r="AS180">
+        <v>8278</v>
+      </c>
+      <c r="AT180">
+        <v>1517</v>
+      </c>
+      <c r="AU180">
+        <v>1558</v>
+      </c>
+      <c r="AV180">
+        <v>4353</v>
+      </c>
+      <c r="AW180">
+        <v>1611</v>
+      </c>
+      <c r="AX180">
+        <v>935</v>
+      </c>
+      <c r="AY180">
+        <v>2469</v>
+      </c>
+      <c r="AZ180">
+        <v>2595</v>
+      </c>
+      <c r="BA180">
+        <v>47050</v>
+      </c>
+      <c r="BB180">
+        <v>12226</v>
+      </c>
+      <c r="BC180">
+        <v>2745</v>
+      </c>
+      <c r="BD180">
+        <v>7524</v>
+      </c>
+      <c r="BE180">
+        <v>3926</v>
+      </c>
+      <c r="BF180">
+        <v>279</v>
+      </c>
+      <c r="BG180">
+        <v>1398</v>
+      </c>
+      <c r="BH180">
+        <v>2585</v>
+      </c>
+      <c r="BI180">
+        <v>729</v>
+      </c>
+      <c r="BJ180">
+        <v>2020</v>
+      </c>
+      <c r="BK180">
+        <v>8415</v>
+      </c>
+      <c r="BL180">
+        <v>8361</v>
+      </c>
+      <c r="BM180">
+        <v>8471</v>
+      </c>
+      <c r="BN180">
+        <v>13804</v>
+      </c>
+      <c r="BO180">
+        <v>1882</v>
+      </c>
+      <c r="BP180">
+        <v>823</v>
+      </c>
+      <c r="BQ180">
+        <v>7750</v>
+      </c>
+      <c r="BR180">
+        <v>6684</v>
+      </c>
+      <c r="BS180" s="4">
+        <v>7868</v>
+      </c>
+      <c r="BT180" s="4">
+        <v>1546</v>
+      </c>
+      <c r="BU180" s="4">
+        <v>1523</v>
+      </c>
+      <c r="BV180" s="4">
+        <v>3027</v>
+      </c>
+      <c r="BW180" s="4">
+        <v>3235</v>
+      </c>
+      <c r="BX180" s="4">
+        <v>902</v>
+      </c>
+      <c r="BY180" s="4">
+        <v>4275</v>
+      </c>
+      <c r="BZ180" s="4">
+        <v>2434</v>
+      </c>
+      <c r="CA180" s="4">
+        <v>1312</v>
+      </c>
+      <c r="CB180" s="4">
+        <v>700</v>
+      </c>
+      <c r="CC180" s="4">
+        <v>2096</v>
+      </c>
+      <c r="CD180" s="4">
+        <v>1878</v>
+      </c>
+      <c r="CE180" s="4">
+        <v>1235</v>
+      </c>
+      <c r="CF180" s="4">
+        <v>954</v>
+      </c>
+      <c r="CG180" s="4">
+        <v>4965</v>
+      </c>
+      <c r="CH180" s="4">
+        <v>1384</v>
+      </c>
+      <c r="CI180" s="4">
+        <v>1163</v>
+      </c>
+      <c r="CJ180" s="4">
+        <v>1260</v>
+      </c>
+      <c r="CK180" s="4">
+        <v>1592</v>
+      </c>
+      <c r="CL180" s="4">
+        <v>1483</v>
+      </c>
+      <c r="CM180" s="4">
+        <v>1676</v>
+      </c>
+      <c r="CN180" s="4">
+        <v>1135</v>
+      </c>
+      <c r="CO180" s="4">
+        <v>1070</v>
+      </c>
+      <c r="CP180" s="4">
+        <v>1097</v>
+      </c>
+      <c r="CQ180" s="4">
+        <v>610</v>
+      </c>
+      <c r="CR180" s="4">
+        <v>3005</v>
+      </c>
+      <c r="CS180" s="4">
+        <v>1020</v>
+      </c>
+      <c r="CT180" s="4">
+        <v>804</v>
+      </c>
+      <c r="CU180" s="4">
+        <v>742</v>
+      </c>
+      <c r="CV180" s="4">
+        <v>1287</v>
+      </c>
+      <c r="CW180" s="4">
+        <v>1172</v>
+      </c>
+      <c r="CX180" s="4">
+        <v>647</v>
+      </c>
+      <c r="CY180" s="4">
+        <v>728</v>
+      </c>
+      <c r="CZ180" s="4">
+        <v>918</v>
+      </c>
+      <c r="DA180" s="4">
+        <v>1176</v>
+      </c>
+      <c r="DB180" s="4">
+        <v>991</v>
+      </c>
+      <c r="DC180" s="4">
+        <v>1123</v>
+      </c>
+      <c r="DD180" s="4">
+        <v>881</v>
+      </c>
+      <c r="DE180" s="4">
+        <v>317</v>
+      </c>
+      <c r="DF180" s="4">
+        <v>333</v>
+      </c>
+      <c r="DG180" s="4">
+        <v>678</v>
+      </c>
+      <c r="DH180" s="4">
+        <v>584</v>
+      </c>
+      <c r="DI180" s="4">
+        <v>404</v>
+      </c>
+      <c r="DJ180" s="4">
+        <v>530</v>
+      </c>
+      <c r="DK180" s="4">
+        <v>328</v>
+      </c>
+      <c r="DL180" s="4">
+        <v>596</v>
+      </c>
+      <c r="DM180" s="4">
+        <v>702</v>
+      </c>
+      <c r="DN180" s="4">
+        <v>512</v>
+      </c>
+      <c r="DO180" s="4">
+        <v>475</v>
+      </c>
+      <c r="DP180" s="4">
+        <v>363</v>
+      </c>
+      <c r="DQ180" s="4">
+        <v>512</v>
+      </c>
+      <c r="DR180">
+        <v>117809</v>
+      </c>
+      <c r="DS180">
+        <v>259597</v>
+      </c>
+      <c r="DT180">
+        <v>10505</v>
+      </c>
+      <c r="DU180">
+        <v>112013</v>
+      </c>
+      <c r="DV180">
+        <v>70037</v>
+      </c>
+      <c r="DW180">
+        <v>30061</v>
+      </c>
+      <c r="DX180">
+        <v>9102</v>
+      </c>
+    </row>
+    <row r="181" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B181">
+        <v>624069</v>
+      </c>
+      <c r="C181">
+        <v>2704</v>
+      </c>
+      <c r="D181">
+        <v>81489</v>
+      </c>
+      <c r="E181">
+        <v>64255</v>
+      </c>
+      <c r="F181">
+        <v>213631</v>
+      </c>
+      <c r="G181">
+        <v>25454</v>
+      </c>
+      <c r="H181">
+        <v>3701</v>
+      </c>
+      <c r="I181">
+        <v>3022</v>
+      </c>
+      <c r="J181">
+        <v>6165</v>
+      </c>
+      <c r="K181">
+        <v>5406</v>
+      </c>
+      <c r="L181">
+        <v>11211</v>
+      </c>
+      <c r="M181">
+        <v>3742</v>
+      </c>
+      <c r="N181">
+        <v>19953</v>
+      </c>
+      <c r="O181">
+        <v>23609</v>
+      </c>
+      <c r="P181">
+        <v>5266</v>
+      </c>
+      <c r="Q181">
+        <v>5113</v>
+      </c>
+      <c r="R181">
+        <v>12529</v>
+      </c>
+      <c r="S181">
+        <v>8354</v>
+      </c>
+      <c r="T181">
+        <v>14337</v>
+      </c>
+      <c r="U181">
+        <v>12047</v>
+      </c>
+      <c r="V181">
+        <v>3005</v>
+      </c>
+      <c r="W181">
+        <v>1304</v>
+      </c>
+      <c r="X181">
+        <v>6267</v>
+      </c>
+      <c r="Y181">
+        <v>19039</v>
+      </c>
+      <c r="Z181">
+        <v>11778</v>
+      </c>
+      <c r="AA181">
+        <v>7358</v>
+      </c>
+      <c r="AB181">
+        <v>47658</v>
+      </c>
+      <c r="AC181">
+        <v>1088</v>
+      </c>
+      <c r="AD181">
+        <v>262</v>
+      </c>
+      <c r="AE181">
+        <v>340</v>
+      </c>
+      <c r="AF181">
+        <v>448</v>
+      </c>
+      <c r="AG181">
+        <v>156</v>
+      </c>
+      <c r="AH181">
+        <v>114</v>
+      </c>
+      <c r="AI181">
+        <v>279</v>
+      </c>
+      <c r="AJ181">
+        <v>1964</v>
+      </c>
+      <c r="AK181">
+        <v>3179</v>
+      </c>
+      <c r="AL181">
+        <v>36218</v>
+      </c>
+      <c r="AM181">
+        <v>6785</v>
+      </c>
+      <c r="AN181">
+        <v>2403</v>
+      </c>
+      <c r="AO181">
+        <v>37428</v>
+      </c>
+      <c r="AP181">
+        <v>918</v>
+      </c>
+      <c r="AQ181">
+        <v>20583</v>
+      </c>
+      <c r="AR181">
+        <v>1462</v>
+      </c>
+      <c r="AS181">
+        <v>8409</v>
+      </c>
+      <c r="AT181">
+        <v>1531</v>
+      </c>
+      <c r="AU181">
+        <v>1559</v>
+      </c>
+      <c r="AV181">
+        <v>4539</v>
+      </c>
+      <c r="AW181">
+        <v>1629</v>
+      </c>
+      <c r="AX181">
+        <v>936</v>
+      </c>
+      <c r="AY181">
+        <v>2472</v>
+      </c>
+      <c r="AZ181">
+        <v>2596</v>
+      </c>
+      <c r="BA181">
+        <v>47683</v>
+      </c>
+      <c r="BB181">
+        <v>12321</v>
+      </c>
+      <c r="BC181">
+        <v>2861</v>
+      </c>
+      <c r="BD181">
+        <v>7704</v>
+      </c>
+      <c r="BE181">
+        <v>4143</v>
+      </c>
+      <c r="BF181">
+        <v>279</v>
+      </c>
+      <c r="BG181">
+        <v>1398</v>
+      </c>
+      <c r="BH181">
+        <v>2602</v>
+      </c>
+      <c r="BI181">
+        <v>730</v>
+      </c>
+      <c r="BJ181">
+        <v>2028</v>
+      </c>
+      <c r="BK181">
+        <v>8464</v>
+      </c>
+      <c r="BL181">
+        <v>8401</v>
+      </c>
+      <c r="BM181">
+        <v>8622</v>
+      </c>
+      <c r="BN181">
+        <v>13823</v>
+      </c>
+      <c r="BO181">
+        <v>1889</v>
+      </c>
+      <c r="BP181">
+        <v>825</v>
+      </c>
+      <c r="BQ181">
+        <v>8018</v>
+      </c>
+      <c r="BR181">
+        <v>6987</v>
+      </c>
+      <c r="BS181" s="4">
+        <v>8336</v>
+      </c>
+      <c r="BT181" s="4">
+        <v>1572</v>
+      </c>
+      <c r="BU181" s="4">
+        <v>1547</v>
+      </c>
+      <c r="BV181" s="4">
+        <v>3101</v>
+      </c>
+      <c r="BW181" s="4">
+        <v>3363</v>
+      </c>
+      <c r="BX181" s="4">
+        <v>928</v>
+      </c>
+      <c r="BY181" s="4">
+        <v>4324</v>
+      </c>
+      <c r="BZ181" s="4">
+        <v>2463</v>
+      </c>
+      <c r="CA181" s="4">
+        <v>1346</v>
+      </c>
+      <c r="CB181" s="4">
+        <v>727</v>
+      </c>
+      <c r="CC181" s="4">
+        <v>2146</v>
+      </c>
+      <c r="CD181" s="4">
+        <v>1896</v>
+      </c>
+      <c r="CE181" s="4">
+        <v>1276</v>
+      </c>
+      <c r="CF181" s="4">
+        <v>967</v>
+      </c>
+      <c r="CG181" s="4">
+        <v>5041</v>
+      </c>
+      <c r="CH181" s="4">
+        <v>1468</v>
+      </c>
+      <c r="CI181" s="4">
+        <v>1182</v>
+      </c>
+      <c r="CJ181" s="4">
+        <v>1304</v>
+      </c>
+      <c r="CK181" s="4">
+        <v>1644</v>
+      </c>
+      <c r="CL181" s="4">
+        <v>1539</v>
+      </c>
+      <c r="CM181" s="4">
+        <v>1746</v>
+      </c>
+      <c r="CN181" s="4">
+        <v>1143</v>
+      </c>
+      <c r="CO181" s="4">
+        <v>1083</v>
+      </c>
+      <c r="CP181" s="4">
+        <v>1099</v>
+      </c>
+      <c r="CQ181" s="4">
+        <v>620</v>
+      </c>
+      <c r="CR181" s="4">
+        <v>3007</v>
+      </c>
+      <c r="CS181" s="4">
+        <v>1056</v>
+      </c>
+      <c r="CT181" s="4">
+        <v>809</v>
+      </c>
+      <c r="CU181" s="4">
+        <v>751</v>
+      </c>
+      <c r="CV181" s="4">
+        <v>1314</v>
+      </c>
+      <c r="CW181" s="4">
+        <v>1230</v>
+      </c>
+      <c r="CX181" s="4">
+        <v>661</v>
+      </c>
+      <c r="CY181" s="4">
+        <v>735</v>
+      </c>
+      <c r="CZ181" s="4">
+        <v>942</v>
+      </c>
+      <c r="DA181" s="4">
+        <v>1180</v>
+      </c>
+      <c r="DB181" s="4">
+        <v>999</v>
+      </c>
+      <c r="DC181" s="4">
+        <v>1148</v>
+      </c>
+      <c r="DD181" s="4">
+        <v>886</v>
+      </c>
+      <c r="DE181" s="4">
+        <v>317</v>
+      </c>
+      <c r="DF181" s="4">
+        <v>333</v>
+      </c>
+      <c r="DG181" s="4">
+        <v>681</v>
+      </c>
+      <c r="DH181" s="4">
+        <v>588</v>
+      </c>
+      <c r="DI181" s="4">
+        <v>408</v>
+      </c>
+      <c r="DJ181" s="4">
+        <v>530</v>
+      </c>
+      <c r="DK181" s="4">
+        <v>330</v>
+      </c>
+      <c r="DL181" s="4">
+        <v>605</v>
+      </c>
+      <c r="DM181" s="4">
+        <v>703</v>
+      </c>
+      <c r="DN181" s="4">
+        <v>513</v>
+      </c>
+      <c r="DO181" s="4">
+        <v>475</v>
+      </c>
+      <c r="DP181" s="4">
+        <v>363</v>
+      </c>
+      <c r="DQ181" s="4">
+        <v>512</v>
+      </c>
+      <c r="DR181">
+        <v>118715</v>
+      </c>
+      <c r="DS181">
+        <v>263487</v>
+      </c>
+      <c r="DT181">
+        <v>10866</v>
+      </c>
+      <c r="DU181">
+        <v>113210</v>
+      </c>
+      <c r="DV181">
+        <v>71143</v>
+      </c>
+      <c r="DW181">
+        <v>31135</v>
+      </c>
+      <c r="DX181">
+        <v>9326</v>
       </c>
     </row>
   </sheetData>

--- a/CasosColombia.xlsx
+++ b/CasosColombia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Matlab\MATLAB_R2019a\fitVirusCV19_v07_v17\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65B8509C-F65C-49C9-B055-C51C11D02146}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE9B63C1-5497-422B-9DEC-3F53E6358130}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6C56C21C-B00B-4C62-A627-74DAE246E91A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="129">
   <si>
     <t>Fecha</t>
   </si>
@@ -1497,13 +1497,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13133E2-69F7-478D-A001-FD6CB4FB0C80}">
-  <dimension ref="A1:DX181"/>
+  <dimension ref="A1:DX182"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="CZ139" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="CS156" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="DW180" sqref="DW180"/>
+      <selection pane="bottomRight" activeCell="A182" sqref="A182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4625,8 +4625,8 @@
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="I9" s="10">
-        <v>1</v>
+      <c r="I9" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -4970,8 +4970,8 @@
       <c r="DS9">
         <v>10</v>
       </c>
-      <c r="DT9" t="s">
-        <v>68</v>
+      <c r="DT9">
+        <v>1</v>
       </c>
       <c r="DU9">
         <v>0</v>
@@ -15475,8 +15475,8 @@
       <c r="V37">
         <v>0</v>
       </c>
-      <c r="W37" s="4">
-        <v>4</v>
+      <c r="W37" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="X37">
         <v>0</v>
@@ -18791,8 +18791,8 @@
       <c r="CT45" s="4">
         <v>0</v>
       </c>
-      <c r="CU45" s="4">
-        <v>18</v>
+      <c r="CU45" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="CV45" s="4">
         <v>1</v>
@@ -32130,8 +32130,8 @@
       <c r="AO80">
         <v>1817</v>
       </c>
-      <c r="AP80" t="s">
-        <v>68</v>
+      <c r="AP80">
+        <v>0</v>
       </c>
       <c r="AQ80">
         <v>1885</v>
@@ -32516,8 +32516,8 @@
       <c r="AO81">
         <v>1906</v>
       </c>
-      <c r="AP81" t="s">
-        <v>68</v>
+      <c r="AP81">
+        <v>0</v>
       </c>
       <c r="AQ81">
         <v>2117</v>
@@ -32902,8 +32902,8 @@
       <c r="AO82">
         <v>1950</v>
       </c>
-      <c r="AP82" t="s">
-        <v>68</v>
+      <c r="AP82">
+        <v>0</v>
       </c>
       <c r="AQ82">
         <v>2149</v>
@@ -33288,8 +33288,8 @@
       <c r="AO83">
         <v>2085</v>
       </c>
-      <c r="AP83" s="7">
-        <v>2</v>
+      <c r="AP83" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="AQ83">
         <v>2223</v>
@@ -33674,8 +33674,8 @@
       <c r="AO84">
         <v>2197</v>
       </c>
-      <c r="AP84" s="7">
-        <v>2</v>
+      <c r="AP84" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="AQ84">
         <v>2343</v>
@@ -35128,8 +35128,8 @@
       <c r="K88">
         <v>102</v>
       </c>
-      <c r="L88">
-        <v>253</v>
+      <c r="L88" t="s">
+        <v>68</v>
       </c>
       <c r="M88">
         <v>226</v>
@@ -51559,8 +51559,8 @@
       <c r="CF130" s="4">
         <v>91</v>
       </c>
-      <c r="CG130" s="10">
-        <v>100</v>
+      <c r="CG130" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="CH130" s="4">
         <v>96</v>
@@ -71376,6 +71376,392 @@
       </c>
       <c r="DX181">
         <v>9326</v>
+      </c>
+    </row>
+    <row r="182" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>44076</v>
+      </c>
+      <c r="B182">
+        <v>633339</v>
+      </c>
+      <c r="C182">
+        <v>2703</v>
+      </c>
+      <c r="D182">
+        <v>82828</v>
+      </c>
+      <c r="E182">
+        <v>64357</v>
+      </c>
+      <c r="F182">
+        <v>216654</v>
+      </c>
+      <c r="G182">
+        <v>25530</v>
+      </c>
+      <c r="H182">
+        <v>3838</v>
+      </c>
+      <c r="I182">
+        <v>3088</v>
+      </c>
+      <c r="J182">
+        <v>6307</v>
+      </c>
+      <c r="K182">
+        <v>5649</v>
+      </c>
+      <c r="L182">
+        <v>11797</v>
+      </c>
+      <c r="M182">
+        <v>3750</v>
+      </c>
+      <c r="N182">
+        <v>20059</v>
+      </c>
+      <c r="O182">
+        <v>24181</v>
+      </c>
+      <c r="P182">
+        <v>5448</v>
+      </c>
+      <c r="Q182">
+        <v>5274</v>
+      </c>
+      <c r="R182">
+        <v>12649</v>
+      </c>
+      <c r="S182">
+        <v>8792</v>
+      </c>
+      <c r="T182">
+        <v>14446</v>
+      </c>
+      <c r="U182">
+        <v>12168</v>
+      </c>
+      <c r="V182">
+        <v>3039</v>
+      </c>
+      <c r="W182">
+        <v>1365</v>
+      </c>
+      <c r="X182">
+        <v>6402</v>
+      </c>
+      <c r="Y182">
+        <v>19625</v>
+      </c>
+      <c r="Z182">
+        <v>11939</v>
+      </c>
+      <c r="AA182">
+        <v>7530</v>
+      </c>
+      <c r="AB182">
+        <v>48127</v>
+      </c>
+      <c r="AC182">
+        <v>1129</v>
+      </c>
+      <c r="AD182">
+        <v>273</v>
+      </c>
+      <c r="AE182">
+        <v>362</v>
+      </c>
+      <c r="AF182">
+        <v>449</v>
+      </c>
+      <c r="AG182">
+        <v>164</v>
+      </c>
+      <c r="AH182">
+        <v>121</v>
+      </c>
+      <c r="AI182">
+        <v>297</v>
+      </c>
+      <c r="AJ182">
+        <v>1964</v>
+      </c>
+      <c r="AK182">
+        <v>3244</v>
+      </c>
+      <c r="AL182">
+        <v>36275</v>
+      </c>
+      <c r="AM182">
+        <v>6907</v>
+      </c>
+      <c r="AN182">
+        <v>2415</v>
+      </c>
+      <c r="AO182">
+        <v>37810</v>
+      </c>
+      <c r="AP182">
+        <v>926</v>
+      </c>
+      <c r="AQ182">
+        <v>20631</v>
+      </c>
+      <c r="AR182">
+        <v>1463</v>
+      </c>
+      <c r="AS182">
+        <v>8485</v>
+      </c>
+      <c r="AT182">
+        <v>1536</v>
+      </c>
+      <c r="AU182">
+        <v>1560</v>
+      </c>
+      <c r="AV182">
+        <v>4686</v>
+      </c>
+      <c r="AW182">
+        <v>1632</v>
+      </c>
+      <c r="AX182">
+        <v>936</v>
+      </c>
+      <c r="AY182">
+        <v>2471</v>
+      </c>
+      <c r="AZ182">
+        <v>2597</v>
+      </c>
+      <c r="BA182">
+        <v>48435</v>
+      </c>
+      <c r="BB182">
+        <v>12388</v>
+      </c>
+      <c r="BC182">
+        <v>2969</v>
+      </c>
+      <c r="BD182">
+        <v>7790</v>
+      </c>
+      <c r="BE182">
+        <v>4238</v>
+      </c>
+      <c r="BF182">
+        <v>279</v>
+      </c>
+      <c r="BG182">
+        <v>1400</v>
+      </c>
+      <c r="BH182">
+        <v>2608</v>
+      </c>
+      <c r="BI182">
+        <v>730</v>
+      </c>
+      <c r="BJ182">
+        <v>2036</v>
+      </c>
+      <c r="BK182">
+        <v>8535</v>
+      </c>
+      <c r="BL182">
+        <v>8490</v>
+      </c>
+      <c r="BM182">
+        <v>8730</v>
+      </c>
+      <c r="BN182">
+        <v>13843</v>
+      </c>
+      <c r="BO182">
+        <v>1890</v>
+      </c>
+      <c r="BP182">
+        <v>825</v>
+      </c>
+      <c r="BQ182">
+        <v>8492</v>
+      </c>
+      <c r="BR182">
+        <v>7218</v>
+      </c>
+      <c r="BS182" s="4">
+        <v>8663</v>
+      </c>
+      <c r="BT182" s="4">
+        <v>1600</v>
+      </c>
+      <c r="BU182" s="4">
+        <v>1556</v>
+      </c>
+      <c r="BV182" s="4">
+        <v>3279</v>
+      </c>
+      <c r="BW182" s="4">
+        <v>3443</v>
+      </c>
+      <c r="BX182" s="4">
+        <v>976</v>
+      </c>
+      <c r="BY182" s="4">
+        <v>4398</v>
+      </c>
+      <c r="BZ182" s="4">
+        <v>2510</v>
+      </c>
+      <c r="CA182" s="4">
+        <v>1370</v>
+      </c>
+      <c r="CB182" s="4">
+        <v>742</v>
+      </c>
+      <c r="CC182" s="4">
+        <v>2208</v>
+      </c>
+      <c r="CD182" s="4">
+        <v>1964</v>
+      </c>
+      <c r="CE182" s="4">
+        <v>1327</v>
+      </c>
+      <c r="CF182" s="4">
+        <v>992</v>
+      </c>
+      <c r="CG182" s="4">
+        <v>5163</v>
+      </c>
+      <c r="CH182" s="4">
+        <v>1516</v>
+      </c>
+      <c r="CI182" s="4">
+        <v>1185</v>
+      </c>
+      <c r="CJ182" s="4">
+        <v>1337</v>
+      </c>
+      <c r="CK182" s="4">
+        <v>1686</v>
+      </c>
+      <c r="CL182" s="4">
+        <v>1577</v>
+      </c>
+      <c r="CM182" s="4">
+        <v>1798</v>
+      </c>
+      <c r="CN182" s="4">
+        <v>1169</v>
+      </c>
+      <c r="CO182" s="4">
+        <v>1082</v>
+      </c>
+      <c r="CP182" s="4">
+        <v>1101</v>
+      </c>
+      <c r="CQ182" s="4">
+        <v>622</v>
+      </c>
+      <c r="CR182" s="4">
+        <v>3031</v>
+      </c>
+      <c r="CS182" s="4">
+        <v>1070</v>
+      </c>
+      <c r="CT182" s="4">
+        <v>810</v>
+      </c>
+      <c r="CU182" s="4">
+        <v>763</v>
+      </c>
+      <c r="CV182" s="4">
+        <v>1321</v>
+      </c>
+      <c r="CW182" s="4">
+        <v>1260</v>
+      </c>
+      <c r="CX182" s="4">
+        <v>664</v>
+      </c>
+      <c r="CY182" s="4">
+        <v>741</v>
+      </c>
+      <c r="CZ182" s="4">
+        <v>960</v>
+      </c>
+      <c r="DA182" s="4">
+        <v>1191</v>
+      </c>
+      <c r="DB182" s="4">
+        <v>1031</v>
+      </c>
+      <c r="DC182" s="4">
+        <v>1168</v>
+      </c>
+      <c r="DD182" s="4">
+        <v>902</v>
+      </c>
+      <c r="DE182" s="4">
+        <v>317</v>
+      </c>
+      <c r="DF182" s="4">
+        <v>333</v>
+      </c>
+      <c r="DG182" s="4">
+        <v>697</v>
+      </c>
+      <c r="DH182" s="4">
+        <v>597</v>
+      </c>
+      <c r="DI182" s="4">
+        <v>411</v>
+      </c>
+      <c r="DJ182" s="4">
+        <v>530</v>
+      </c>
+      <c r="DK182" s="4">
+        <v>336</v>
+      </c>
+      <c r="DL182" s="4">
+        <v>612</v>
+      </c>
+      <c r="DM182" s="4">
+        <v>705</v>
+      </c>
+      <c r="DN182" s="4">
+        <v>513</v>
+      </c>
+      <c r="DO182" s="4">
+        <v>475</v>
+      </c>
+      <c r="DP182" s="4">
+        <v>363</v>
+      </c>
+      <c r="DQ182" s="4">
+        <v>515</v>
+      </c>
+      <c r="DR182">
+        <v>119781</v>
+      </c>
+      <c r="DS182">
+        <v>267990</v>
+      </c>
+      <c r="DT182">
+        <v>11128</v>
+      </c>
+      <c r="DU182">
+        <v>114816</v>
+      </c>
+      <c r="DV182">
+        <v>71972</v>
+      </c>
+      <c r="DW182">
+        <v>31842</v>
+      </c>
+      <c r="DX182">
+        <v>9510</v>
       </c>
     </row>
   </sheetData>

--- a/CasosColombia.xlsx
+++ b/CasosColombia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Matlab\MATLAB_R2019a\fitVirusCV19_v07_v17\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE9B63C1-5497-422B-9DEC-3F53E6358130}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B048375E-0777-4F9E-A0AC-0F2792252E14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6C56C21C-B00B-4C62-A627-74DAE246E91A}"/>
+    <workbookView xWindow="0" yWindow="1380" windowWidth="28800" windowHeight="7875" xr2:uid="{6C56C21C-B00B-4C62-A627-74DAE246E91A}"/>
   </bookViews>
   <sheets>
     <sheet name="CasosColombia" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="129">
   <si>
     <t>Fecha</t>
   </si>
@@ -1497,13 +1497,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13133E2-69F7-478D-A001-FD6CB4FB0C80}">
-  <dimension ref="A1:DX182"/>
+  <dimension ref="A1:DX183"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="CS156" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="DN145" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A182" sqref="A182"/>
+      <selection pane="bottomRight" activeCell="DX183" sqref="DX183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4625,8 +4625,8 @@
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="I9" s="10" t="s">
-        <v>68</v>
+      <c r="I9" s="10">
+        <v>1</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -6555,8 +6555,8 @@
       <c r="H14">
         <v>0</v>
       </c>
-      <c r="I14" s="9">
-        <v>1</v>
+      <c r="I14" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -18647,8 +18647,8 @@
       <c r="AX45">
         <v>0</v>
       </c>
-      <c r="AY45">
-        <v>4</v>
+      <c r="AY45" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="AZ45">
         <v>2</v>
@@ -22223,8 +22223,8 @@
       <c r="CF54" s="4">
         <v>0</v>
       </c>
-      <c r="CG54" s="4">
-        <v>2</v>
+      <c r="CG54" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="CH54" s="4">
         <v>0</v>
@@ -33288,8 +33288,8 @@
       <c r="AO83">
         <v>2085</v>
       </c>
-      <c r="AP83" s="12" t="s">
-        <v>68</v>
+      <c r="AP83" s="12">
+        <v>2</v>
       </c>
       <c r="AQ83">
         <v>2223</v>
@@ -33674,8 +33674,8 @@
       <c r="AO84">
         <v>2197</v>
       </c>
-      <c r="AP84" s="12" t="s">
-        <v>68</v>
+      <c r="AP84" s="12">
+        <v>2</v>
       </c>
       <c r="AQ84">
         <v>2343</v>
@@ -54518,8 +54518,8 @@
       <c r="AO138">
         <v>13678</v>
       </c>
-      <c r="AP138">
-        <v>382</v>
+      <c r="AP138" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="AQ138">
         <v>13453</v>
@@ -68743,8 +68743,8 @@
       <c r="V175">
         <v>2611</v>
       </c>
-      <c r="W175">
-        <v>981</v>
+      <c r="W175" t="s">
+        <v>68</v>
       </c>
       <c r="X175">
         <v>5163</v>
@@ -71762,6 +71762,392 @@
       </c>
       <c r="DX182">
         <v>9510</v>
+      </c>
+    </row>
+    <row r="183" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>44077</v>
+      </c>
+      <c r="B183">
+        <v>641574</v>
+      </c>
+      <c r="C183">
+        <v>2704</v>
+      </c>
+      <c r="D183">
+        <v>84345</v>
+      </c>
+      <c r="E183">
+        <v>64696</v>
+      </c>
+      <c r="F183">
+        <v>219584</v>
+      </c>
+      <c r="G183">
+        <v>25614</v>
+      </c>
+      <c r="H183">
+        <v>3953</v>
+      </c>
+      <c r="I183">
+        <v>3152</v>
+      </c>
+      <c r="J183">
+        <v>6316</v>
+      </c>
+      <c r="K183">
+        <v>5839</v>
+      </c>
+      <c r="L183">
+        <v>11964</v>
+      </c>
+      <c r="M183">
+        <v>3762</v>
+      </c>
+      <c r="N183">
+        <v>20328</v>
+      </c>
+      <c r="O183">
+        <v>24487</v>
+      </c>
+      <c r="P183">
+        <v>5523</v>
+      </c>
+      <c r="Q183">
+        <v>5389</v>
+      </c>
+      <c r="R183">
+        <v>12817</v>
+      </c>
+      <c r="S183">
+        <v>8937</v>
+      </c>
+      <c r="T183">
+        <v>14667</v>
+      </c>
+      <c r="U183">
+        <v>12288</v>
+      </c>
+      <c r="V183">
+        <v>3048</v>
+      </c>
+      <c r="W183">
+        <v>1393</v>
+      </c>
+      <c r="X183">
+        <v>6500</v>
+      </c>
+      <c r="Y183">
+        <v>20309</v>
+      </c>
+      <c r="Z183">
+        <v>12022</v>
+      </c>
+      <c r="AA183">
+        <v>7623</v>
+      </c>
+      <c r="AB183">
+        <v>48471</v>
+      </c>
+      <c r="AC183">
+        <v>1147</v>
+      </c>
+      <c r="AD183">
+        <v>275</v>
+      </c>
+      <c r="AE183">
+        <v>368</v>
+      </c>
+      <c r="AF183">
+        <v>450</v>
+      </c>
+      <c r="AG183">
+        <v>164</v>
+      </c>
+      <c r="AH183">
+        <v>121</v>
+      </c>
+      <c r="AI183">
+        <v>310</v>
+      </c>
+      <c r="AJ183">
+        <v>1973</v>
+      </c>
+      <c r="AK183">
+        <v>3455</v>
+      </c>
+      <c r="AL183">
+        <v>36448</v>
+      </c>
+      <c r="AM183">
+        <v>7200</v>
+      </c>
+      <c r="AN183">
+        <v>2417</v>
+      </c>
+      <c r="AO183">
+        <v>38070</v>
+      </c>
+      <c r="AP183">
+        <v>967</v>
+      </c>
+      <c r="AQ183">
+        <v>20697</v>
+      </c>
+      <c r="AR183">
+        <v>1466</v>
+      </c>
+      <c r="AS183">
+        <v>8542</v>
+      </c>
+      <c r="AT183">
+        <v>1543</v>
+      </c>
+      <c r="AU183">
+        <v>1570</v>
+      </c>
+      <c r="AV183">
+        <v>4762</v>
+      </c>
+      <c r="AW183">
+        <v>1648</v>
+      </c>
+      <c r="AX183">
+        <v>939</v>
+      </c>
+      <c r="AY183">
+        <v>2472</v>
+      </c>
+      <c r="AZ183">
+        <v>2638</v>
+      </c>
+      <c r="BA183">
+        <v>48714</v>
+      </c>
+      <c r="BB183">
+        <v>12523</v>
+      </c>
+      <c r="BC183">
+        <v>3033</v>
+      </c>
+      <c r="BD183">
+        <v>7946</v>
+      </c>
+      <c r="BE183">
+        <v>4302</v>
+      </c>
+      <c r="BF183">
+        <v>279</v>
+      </c>
+      <c r="BG183">
+        <v>1411</v>
+      </c>
+      <c r="BH183">
+        <v>2612</v>
+      </c>
+      <c r="BI183">
+        <v>730</v>
+      </c>
+      <c r="BJ183">
+        <v>2049</v>
+      </c>
+      <c r="BK183">
+        <v>8623</v>
+      </c>
+      <c r="BL183">
+        <v>8535</v>
+      </c>
+      <c r="BM183">
+        <v>8823</v>
+      </c>
+      <c r="BN183">
+        <v>13897</v>
+      </c>
+      <c r="BO183">
+        <v>1890</v>
+      </c>
+      <c r="BP183">
+        <v>828</v>
+      </c>
+      <c r="BQ183">
+        <v>8643</v>
+      </c>
+      <c r="BR183">
+        <v>7297</v>
+      </c>
+      <c r="BS183" s="4">
+        <v>8822</v>
+      </c>
+      <c r="BT183" s="4">
+        <v>1637</v>
+      </c>
+      <c r="BU183" s="4">
+        <v>1575</v>
+      </c>
+      <c r="BV183" s="4">
+        <v>3417</v>
+      </c>
+      <c r="BW183" s="4">
+        <v>3598</v>
+      </c>
+      <c r="BX183" s="4">
+        <v>996</v>
+      </c>
+      <c r="BY183" s="4">
+        <v>4713</v>
+      </c>
+      <c r="BZ183" s="4">
+        <v>2557</v>
+      </c>
+      <c r="CA183" s="4">
+        <v>1393</v>
+      </c>
+      <c r="CB183" s="4">
+        <v>751</v>
+      </c>
+      <c r="CC183" s="4">
+        <v>2233</v>
+      </c>
+      <c r="CD183" s="4">
+        <v>1980</v>
+      </c>
+      <c r="CE183" s="4">
+        <v>1394</v>
+      </c>
+      <c r="CF183" s="4">
+        <v>1018</v>
+      </c>
+      <c r="CG183" s="4">
+        <v>5167</v>
+      </c>
+      <c r="CH183" s="4">
+        <v>1570</v>
+      </c>
+      <c r="CI183" s="4">
+        <v>1193</v>
+      </c>
+      <c r="CJ183" s="4">
+        <v>1352</v>
+      </c>
+      <c r="CK183" s="4">
+        <v>1718</v>
+      </c>
+      <c r="CL183" s="4">
+        <v>1596</v>
+      </c>
+      <c r="CM183" s="4">
+        <v>1820</v>
+      </c>
+      <c r="CN183" s="4">
+        <v>1223</v>
+      </c>
+      <c r="CO183" s="4">
+        <v>1082</v>
+      </c>
+      <c r="CP183" s="4">
+        <v>1105</v>
+      </c>
+      <c r="CQ183" s="4">
+        <v>629</v>
+      </c>
+      <c r="CR183" s="4">
+        <v>3085</v>
+      </c>
+      <c r="CS183" s="4">
+        <v>1082</v>
+      </c>
+      <c r="CT183" s="4">
+        <v>817</v>
+      </c>
+      <c r="CU183" s="4">
+        <v>772</v>
+      </c>
+      <c r="CV183" s="4">
+        <v>1353</v>
+      </c>
+      <c r="CW183" s="4">
+        <v>1277</v>
+      </c>
+      <c r="CX183" s="4">
+        <v>664</v>
+      </c>
+      <c r="CY183" s="4">
+        <v>749</v>
+      </c>
+      <c r="CZ183" s="4">
+        <v>966</v>
+      </c>
+      <c r="DA183" s="4">
+        <v>1241</v>
+      </c>
+      <c r="DB183" s="4">
+        <v>1076</v>
+      </c>
+      <c r="DC183" s="4">
+        <v>1198</v>
+      </c>
+      <c r="DD183" s="4">
+        <v>917</v>
+      </c>
+      <c r="DE183" s="4">
+        <v>317</v>
+      </c>
+      <c r="DF183" s="4">
+        <v>336</v>
+      </c>
+      <c r="DG183" s="4">
+        <v>698</v>
+      </c>
+      <c r="DH183" s="4">
+        <v>608</v>
+      </c>
+      <c r="DI183" s="4">
+        <v>413</v>
+      </c>
+      <c r="DJ183" s="4">
+        <v>534</v>
+      </c>
+      <c r="DK183" s="4">
+        <v>343</v>
+      </c>
+      <c r="DL183" s="4">
+        <v>614</v>
+      </c>
+      <c r="DM183" s="4">
+        <v>709</v>
+      </c>
+      <c r="DN183" s="4">
+        <v>514</v>
+      </c>
+      <c r="DO183" s="4">
+        <v>476</v>
+      </c>
+      <c r="DP183" s="4">
+        <v>364</v>
+      </c>
+      <c r="DQ183" s="4">
+        <v>516</v>
+      </c>
+      <c r="DR183">
+        <v>120614</v>
+      </c>
+      <c r="DS183">
+        <v>271694</v>
+      </c>
+      <c r="DT183">
+        <v>11318</v>
+      </c>
+      <c r="DU183">
+        <v>116685</v>
+      </c>
+      <c r="DV183">
+        <v>72739</v>
+      </c>
+      <c r="DW183">
+        <v>32646</v>
+      </c>
+      <c r="DX183">
+        <v>9528</v>
       </c>
     </row>
   </sheetData>

--- a/CasosColombia.xlsx
+++ b/CasosColombia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Matlab\MATLAB_R2019a\fitVirusCV19_v07_v17\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B048375E-0777-4F9E-A0AC-0F2792252E14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AB0F19E-3FED-4A6A-BEC8-1AFA50AE2733}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1380" windowWidth="28800" windowHeight="7875" xr2:uid="{6C56C21C-B00B-4C62-A627-74DAE246E91A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="129">
   <si>
     <t>Fecha</t>
   </si>
@@ -1497,13 +1497,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13133E2-69F7-478D-A001-FD6CB4FB0C80}">
-  <dimension ref="A1:DX183"/>
+  <dimension ref="A1:DX184"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="DN145" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="DM143" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="DX183" sqref="DX183"/>
+      <selection pane="bottomRight" activeCell="DX184" sqref="DX184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15828,8 +15828,8 @@
       <c r="K38">
         <v>20</v>
       </c>
-      <c r="L38">
-        <v>32</v>
+      <c r="L38" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="M38">
         <v>1</v>
@@ -16214,8 +16214,8 @@
       <c r="K39">
         <v>20</v>
       </c>
-      <c r="L39">
-        <v>32</v>
+      <c r="L39" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="M39">
         <v>1</v>
@@ -16600,8 +16600,8 @@
       <c r="K40">
         <v>20</v>
       </c>
-      <c r="L40">
-        <v>32</v>
+      <c r="L40" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="M40">
         <v>1</v>
@@ -16986,8 +16986,8 @@
       <c r="K41">
         <v>21</v>
       </c>
-      <c r="L41">
-        <v>32</v>
+      <c r="L41" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="M41">
         <v>1</v>
@@ -17372,8 +17372,8 @@
       <c r="K42">
         <v>21</v>
       </c>
-      <c r="L42">
-        <v>32</v>
+      <c r="L42" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="M42">
         <v>1</v>
@@ -36660,8 +36660,8 @@
       <c r="G92">
         <v>3715</v>
       </c>
-      <c r="H92">
-        <v>9</v>
+      <c r="H92" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="I92" t="s">
         <v>68</v>
@@ -72148,6 +72148,392 @@
       </c>
       <c r="DX183">
         <v>9528</v>
+      </c>
+    </row>
+    <row r="184" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>44078</v>
+      </c>
+      <c r="B184">
+        <v>650062</v>
+      </c>
+      <c r="C184">
+        <v>2708</v>
+      </c>
+      <c r="D184">
+        <v>86006</v>
+      </c>
+      <c r="E184">
+        <v>64847</v>
+      </c>
+      <c r="F184">
+        <v>221738</v>
+      </c>
+      <c r="G184">
+        <v>25723</v>
+      </c>
+      <c r="H184">
+        <v>4058</v>
+      </c>
+      <c r="I184">
+        <v>3242</v>
+      </c>
+      <c r="J184">
+        <v>6521</v>
+      </c>
+      <c r="K184">
+        <v>5900</v>
+      </c>
+      <c r="L184">
+        <v>12228</v>
+      </c>
+      <c r="M184">
+        <v>3774</v>
+      </c>
+      <c r="N184">
+        <v>20568</v>
+      </c>
+      <c r="O184">
+        <v>24941</v>
+      </c>
+      <c r="P184">
+        <v>5673</v>
+      </c>
+      <c r="Q184">
+        <v>5671</v>
+      </c>
+      <c r="R184">
+        <v>12952</v>
+      </c>
+      <c r="S184">
+        <v>9235</v>
+      </c>
+      <c r="T184">
+        <v>14817</v>
+      </c>
+      <c r="U184">
+        <v>12380</v>
+      </c>
+      <c r="V184">
+        <v>3085</v>
+      </c>
+      <c r="W184">
+        <v>1470</v>
+      </c>
+      <c r="X184">
+        <v>6722</v>
+      </c>
+      <c r="Y184">
+        <v>20773</v>
+      </c>
+      <c r="Z184">
+        <v>12181</v>
+      </c>
+      <c r="AA184">
+        <v>7882</v>
+      </c>
+      <c r="AB184">
+        <v>48990</v>
+      </c>
+      <c r="AC184">
+        <v>1177</v>
+      </c>
+      <c r="AD184">
+        <v>281</v>
+      </c>
+      <c r="AE184">
+        <v>386</v>
+      </c>
+      <c r="AF184">
+        <v>451</v>
+      </c>
+      <c r="AG184">
+        <v>165</v>
+      </c>
+      <c r="AH184">
+        <v>121</v>
+      </c>
+      <c r="AI184">
+        <v>328</v>
+      </c>
+      <c r="AJ184">
+        <v>1981</v>
+      </c>
+      <c r="AK184">
+        <v>3537</v>
+      </c>
+      <c r="AL184">
+        <v>36520</v>
+      </c>
+      <c r="AM184">
+        <v>7382</v>
+      </c>
+      <c r="AN184">
+        <v>2423</v>
+      </c>
+      <c r="AO184">
+        <v>38466</v>
+      </c>
+      <c r="AP184">
+        <v>983</v>
+      </c>
+      <c r="AQ184">
+        <v>20758</v>
+      </c>
+      <c r="AR184">
+        <v>1469</v>
+      </c>
+      <c r="AS184">
+        <v>8601</v>
+      </c>
+      <c r="AT184">
+        <v>1546</v>
+      </c>
+      <c r="AU184">
+        <v>1578</v>
+      </c>
+      <c r="AV184">
+        <v>4970</v>
+      </c>
+      <c r="AW184">
+        <v>1667</v>
+      </c>
+      <c r="AX184">
+        <v>950</v>
+      </c>
+      <c r="AY184">
+        <v>2476</v>
+      </c>
+      <c r="AZ184">
+        <v>2641</v>
+      </c>
+      <c r="BA184">
+        <v>49678</v>
+      </c>
+      <c r="BB184">
+        <v>12613</v>
+      </c>
+      <c r="BC184">
+        <v>3222</v>
+      </c>
+      <c r="BD184">
+        <v>8034</v>
+      </c>
+      <c r="BE184">
+        <v>4456</v>
+      </c>
+      <c r="BF184">
+        <v>279</v>
+      </c>
+      <c r="BG184">
+        <v>1412</v>
+      </c>
+      <c r="BH184">
+        <v>2618</v>
+      </c>
+      <c r="BI184">
+        <v>733</v>
+      </c>
+      <c r="BJ184">
+        <v>2051</v>
+      </c>
+      <c r="BK184">
+        <v>8699</v>
+      </c>
+      <c r="BL184">
+        <v>8645</v>
+      </c>
+      <c r="BM184">
+        <v>8941</v>
+      </c>
+      <c r="BN184">
+        <v>13922</v>
+      </c>
+      <c r="BO184">
+        <v>1891</v>
+      </c>
+      <c r="BP184">
+        <v>829</v>
+      </c>
+      <c r="BQ184">
+        <v>8821</v>
+      </c>
+      <c r="BR184">
+        <v>7538</v>
+      </c>
+      <c r="BS184" s="4">
+        <v>9047</v>
+      </c>
+      <c r="BT184" s="4">
+        <v>1680</v>
+      </c>
+      <c r="BU184" s="4">
+        <v>1601</v>
+      </c>
+      <c r="BV184" s="4">
+        <v>3462</v>
+      </c>
+      <c r="BW184" s="4">
+        <v>3659</v>
+      </c>
+      <c r="BX184" s="4">
+        <v>1047</v>
+      </c>
+      <c r="BY184" s="4">
+        <v>4858</v>
+      </c>
+      <c r="BZ184" s="4">
+        <v>2651</v>
+      </c>
+      <c r="CA184" s="4">
+        <v>1436</v>
+      </c>
+      <c r="CB184" s="4">
+        <v>759</v>
+      </c>
+      <c r="CC184" s="4">
+        <v>2287</v>
+      </c>
+      <c r="CD184" s="4">
+        <v>1991</v>
+      </c>
+      <c r="CE184" s="4">
+        <v>1438</v>
+      </c>
+      <c r="CF184" s="4">
+        <v>1034</v>
+      </c>
+      <c r="CG184" s="4">
+        <v>5292</v>
+      </c>
+      <c r="CH184" s="4">
+        <v>1596</v>
+      </c>
+      <c r="CI184" s="4">
+        <v>1202</v>
+      </c>
+      <c r="CJ184" s="4">
+        <v>1365</v>
+      </c>
+      <c r="CK184" s="4">
+        <v>1752</v>
+      </c>
+      <c r="CL184" s="4">
+        <v>1622</v>
+      </c>
+      <c r="CM184" s="4">
+        <v>1874</v>
+      </c>
+      <c r="CN184" s="4">
+        <v>1234</v>
+      </c>
+      <c r="CO184" s="4">
+        <v>1101</v>
+      </c>
+      <c r="CP184" s="4">
+        <v>1109</v>
+      </c>
+      <c r="CQ184" s="4">
+        <v>641</v>
+      </c>
+      <c r="CR184" s="4">
+        <v>3092</v>
+      </c>
+      <c r="CS184" s="4">
+        <v>1104</v>
+      </c>
+      <c r="CT184" s="4">
+        <v>821</v>
+      </c>
+      <c r="CU184" s="4">
+        <v>789</v>
+      </c>
+      <c r="CV184" s="4">
+        <v>1376</v>
+      </c>
+      <c r="CW184" s="4">
+        <v>1297</v>
+      </c>
+      <c r="CX184" s="4">
+        <v>666</v>
+      </c>
+      <c r="CY184" s="4">
+        <v>755</v>
+      </c>
+      <c r="CZ184" s="4">
+        <v>982</v>
+      </c>
+      <c r="DA184" s="4">
+        <v>1256</v>
+      </c>
+      <c r="DB184" s="4">
+        <v>1091</v>
+      </c>
+      <c r="DC184" s="4">
+        <v>1217</v>
+      </c>
+      <c r="DD184" s="4">
+        <v>928</v>
+      </c>
+      <c r="DE184" s="4">
+        <v>317</v>
+      </c>
+      <c r="DF184" s="4">
+        <v>338</v>
+      </c>
+      <c r="DG184" s="4">
+        <v>704</v>
+      </c>
+      <c r="DH184" s="4">
+        <v>622</v>
+      </c>
+      <c r="DI184" s="4">
+        <v>415</v>
+      </c>
+      <c r="DJ184" s="4">
+        <v>534</v>
+      </c>
+      <c r="DK184" s="4">
+        <v>343</v>
+      </c>
+      <c r="DL184" s="4">
+        <v>616</v>
+      </c>
+      <c r="DM184" s="4">
+        <v>719</v>
+      </c>
+      <c r="DN184" s="4">
+        <v>517</v>
+      </c>
+      <c r="DO184" s="4">
+        <v>480</v>
+      </c>
+      <c r="DP184" s="4">
+        <v>368</v>
+      </c>
+      <c r="DQ184" s="4">
+        <v>516</v>
+      </c>
+      <c r="DR184">
+        <v>121423</v>
+      </c>
+      <c r="DS184">
+        <v>275246</v>
+      </c>
+      <c r="DT184">
+        <v>11707</v>
+      </c>
+      <c r="DU184">
+        <v>118745</v>
+      </c>
+      <c r="DV184">
+        <v>73481</v>
+      </c>
+      <c r="DW184">
+        <v>33202</v>
+      </c>
+      <c r="DX184">
+        <v>9771</v>
       </c>
     </row>
   </sheetData>

--- a/CasosColombia.xlsx
+++ b/CasosColombia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Matlab\MATLAB_R2019a\fitVirusCV19_v07_v17\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AB0F19E-3FED-4A6A-BEC8-1AFA50AE2733}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E1FFEE4-6CB2-428A-B252-EEEDB97EFF52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1380" windowWidth="28800" windowHeight="7875" xr2:uid="{6C56C21C-B00B-4C62-A627-74DAE246E91A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6C56C21C-B00B-4C62-A627-74DAE246E91A}"/>
   </bookViews>
   <sheets>
     <sheet name="CasosColombia" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="129">
   <si>
     <t>Fecha</t>
   </si>
@@ -1497,13 +1497,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13133E2-69F7-478D-A001-FD6CB4FB0C80}">
-  <dimension ref="A1:DX184"/>
+  <dimension ref="A1:DX185"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="DM143" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="CZ156" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="DX184" sqref="DX184"/>
+      <selection pane="bottomRight" activeCell="DQ183" sqref="DQ183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10592,8 +10592,8 @@
       <c r="BO24">
         <v>0</v>
       </c>
-      <c r="BP24" s="7">
-        <v>1</v>
+      <c r="BP24" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="BQ24" s="4">
         <v>0</v>
@@ -14452,8 +14452,8 @@
       <c r="BO34">
         <v>1</v>
       </c>
-      <c r="BP34" t="s">
-        <v>68</v>
+      <c r="BP34">
+        <v>1</v>
       </c>
       <c r="BQ34">
         <v>0</v>
@@ -15475,8 +15475,8 @@
       <c r="V37">
         <v>0</v>
       </c>
-      <c r="W37" s="12" t="s">
-        <v>68</v>
+      <c r="W37" s="12">
+        <v>4</v>
       </c>
       <c r="X37">
         <v>0</v>
@@ -15727,8 +15727,8 @@
       <c r="DB37" s="4">
         <v>3</v>
       </c>
-      <c r="DC37" s="4">
-        <v>1</v>
+      <c r="DC37" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="DD37" s="4">
         <v>4</v>
@@ -22223,8 +22223,8 @@
       <c r="CF54" s="4">
         <v>0</v>
       </c>
-      <c r="CG54" s="4" t="s">
-        <v>68</v>
+      <c r="CG54" s="4">
+        <v>2</v>
       </c>
       <c r="CH54" s="4">
         <v>0</v>
@@ -29374,8 +29374,8 @@
       <c r="W73">
         <v>39</v>
       </c>
-      <c r="X73" s="12" t="s">
-        <v>68</v>
+      <c r="X73" s="12">
+        <v>3</v>
       </c>
       <c r="Y73" s="9">
         <v>0</v>
@@ -48085,8 +48085,8 @@
       <c r="CF121" s="4">
         <v>64</v>
       </c>
-      <c r="CG121" s="4">
-        <v>42</v>
+      <c r="CG121" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="CH121" s="4">
         <v>55</v>
@@ -50601,8 +50601,8 @@
       <c r="V128">
         <v>49</v>
       </c>
-      <c r="W128" t="s">
-        <v>68</v>
+      <c r="W128">
+        <v>153</v>
       </c>
       <c r="X128">
         <v>483</v>
@@ -65655,8 +65655,8 @@
       <c r="V167">
         <v>2181</v>
       </c>
-      <c r="W167" t="s">
-        <v>68</v>
+      <c r="W167">
+        <v>655</v>
       </c>
       <c r="X167">
         <v>3487</v>
@@ -66814,7 +66814,7 @@
         <v>2328</v>
       </c>
       <c r="W170">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="X170">
         <v>4050</v>
@@ -67200,7 +67200,7 @@
         <v>2369</v>
       </c>
       <c r="W171">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="X171">
         <v>4407</v>
@@ -67586,7 +67586,7 @@
         <v>2405</v>
       </c>
       <c r="W172">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="X172">
         <v>4574</v>
@@ -67972,7 +67972,7 @@
         <v>2476</v>
       </c>
       <c r="W173">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="X173">
         <v>4791</v>
@@ -68358,7 +68358,7 @@
         <v>2599</v>
       </c>
       <c r="W174">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="X174">
         <v>5002</v>
@@ -72534,6 +72534,392 @@
       </c>
       <c r="DX184">
         <v>9771</v>
+      </c>
+    </row>
+    <row r="185" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>44079</v>
+      </c>
+      <c r="B185">
+        <v>658456</v>
+      </c>
+      <c r="C185">
+        <v>2712</v>
+      </c>
+      <c r="D185">
+        <v>87377</v>
+      </c>
+      <c r="E185">
+        <v>64965</v>
+      </c>
+      <c r="F185">
+        <v>223522</v>
+      </c>
+      <c r="G185">
+        <v>25831</v>
+      </c>
+      <c r="H185">
+        <v>4235</v>
+      </c>
+      <c r="I185">
+        <v>3330</v>
+      </c>
+      <c r="J185">
+        <v>6625</v>
+      </c>
+      <c r="K185">
+        <v>6141</v>
+      </c>
+      <c r="L185">
+        <v>12688</v>
+      </c>
+      <c r="M185">
+        <v>3782</v>
+      </c>
+      <c r="N185">
+        <v>20740</v>
+      </c>
+      <c r="O185">
+        <v>25381</v>
+      </c>
+      <c r="P185">
+        <v>5837</v>
+      </c>
+      <c r="Q185">
+        <v>5881</v>
+      </c>
+      <c r="R185">
+        <v>13038</v>
+      </c>
+      <c r="S185">
+        <v>9763</v>
+      </c>
+      <c r="T185">
+        <v>14998</v>
+      </c>
+      <c r="U185">
+        <v>12647</v>
+      </c>
+      <c r="V185">
+        <v>3152</v>
+      </c>
+      <c r="W185">
+        <v>1528</v>
+      </c>
+      <c r="X185">
+        <v>6902</v>
+      </c>
+      <c r="Y185">
+        <v>21224</v>
+      </c>
+      <c r="Z185">
+        <v>12327</v>
+      </c>
+      <c r="AA185">
+        <v>8166</v>
+      </c>
+      <c r="AB185">
+        <v>49559</v>
+      </c>
+      <c r="AC185">
+        <v>1230</v>
+      </c>
+      <c r="AD185">
+        <v>281</v>
+      </c>
+      <c r="AE185">
+        <v>415</v>
+      </c>
+      <c r="AF185">
+        <v>452</v>
+      </c>
+      <c r="AG185">
+        <v>165</v>
+      </c>
+      <c r="AH185">
+        <v>122</v>
+      </c>
+      <c r="AI185">
+        <v>339</v>
+      </c>
+      <c r="AJ185">
+        <v>1981</v>
+      </c>
+      <c r="AK185">
+        <v>3630</v>
+      </c>
+      <c r="AL185">
+        <v>36611</v>
+      </c>
+      <c r="AM185">
+        <v>7478</v>
+      </c>
+      <c r="AN185">
+        <v>2424</v>
+      </c>
+      <c r="AO185">
+        <v>38887</v>
+      </c>
+      <c r="AP185">
+        <v>983</v>
+      </c>
+      <c r="AQ185">
+        <v>20815</v>
+      </c>
+      <c r="AR185">
+        <v>1473</v>
+      </c>
+      <c r="AS185">
+        <v>8752</v>
+      </c>
+      <c r="AT185">
+        <v>1559</v>
+      </c>
+      <c r="AU185">
+        <v>1580</v>
+      </c>
+      <c r="AV185">
+        <v>5207</v>
+      </c>
+      <c r="AW185">
+        <v>1677</v>
+      </c>
+      <c r="AX185">
+        <v>950</v>
+      </c>
+      <c r="AY185">
+        <v>2480</v>
+      </c>
+      <c r="AZ185">
+        <v>2643</v>
+      </c>
+      <c r="BA185">
+        <v>50688</v>
+      </c>
+      <c r="BB185">
+        <v>12705</v>
+      </c>
+      <c r="BC185">
+        <v>3357</v>
+      </c>
+      <c r="BD185">
+        <v>8089</v>
+      </c>
+      <c r="BE185">
+        <v>4590</v>
+      </c>
+      <c r="BF185">
+        <v>280</v>
+      </c>
+      <c r="BG185">
+        <v>1413</v>
+      </c>
+      <c r="BH185">
+        <v>2624</v>
+      </c>
+      <c r="BI185">
+        <v>733</v>
+      </c>
+      <c r="BJ185">
+        <v>2053</v>
+      </c>
+      <c r="BK185">
+        <v>8743</v>
+      </c>
+      <c r="BL185">
+        <v>8728</v>
+      </c>
+      <c r="BM185">
+        <v>9012</v>
+      </c>
+      <c r="BN185">
+        <v>13936</v>
+      </c>
+      <c r="BO185">
+        <v>1891</v>
+      </c>
+      <c r="BP185">
+        <v>830</v>
+      </c>
+      <c r="BQ185">
+        <v>9175</v>
+      </c>
+      <c r="BR185">
+        <v>7818</v>
+      </c>
+      <c r="BS185" s="4">
+        <v>9255</v>
+      </c>
+      <c r="BT185" s="4">
+        <v>1751</v>
+      </c>
+      <c r="BU185" s="4">
+        <v>1647</v>
+      </c>
+      <c r="BV185" s="4">
+        <v>3622</v>
+      </c>
+      <c r="BW185" s="4">
+        <v>3762</v>
+      </c>
+      <c r="BX185" s="4">
+        <v>1094</v>
+      </c>
+      <c r="BY185" s="4">
+        <v>4913</v>
+      </c>
+      <c r="BZ185" s="4">
+        <v>2698</v>
+      </c>
+      <c r="CA185" s="4">
+        <v>1456</v>
+      </c>
+      <c r="CB185" s="4">
+        <v>769</v>
+      </c>
+      <c r="CC185" s="4">
+        <v>2350</v>
+      </c>
+      <c r="CD185" s="4">
+        <v>2028</v>
+      </c>
+      <c r="CE185" s="4">
+        <v>1466</v>
+      </c>
+      <c r="CF185" s="4">
+        <v>1071</v>
+      </c>
+      <c r="CG185" s="4">
+        <v>5373</v>
+      </c>
+      <c r="CH185" s="4">
+        <v>1604</v>
+      </c>
+      <c r="CI185" s="4">
+        <v>1214</v>
+      </c>
+      <c r="CJ185" s="4">
+        <v>1394</v>
+      </c>
+      <c r="CK185" s="4">
+        <v>1788</v>
+      </c>
+      <c r="CL185" s="4">
+        <v>1638</v>
+      </c>
+      <c r="CM185" s="4">
+        <v>1954</v>
+      </c>
+      <c r="CN185" s="4">
+        <v>1263</v>
+      </c>
+      <c r="CO185" s="4">
+        <v>1110</v>
+      </c>
+      <c r="CP185" s="4">
+        <v>1111</v>
+      </c>
+      <c r="CQ185" s="4">
+        <v>656</v>
+      </c>
+      <c r="CR185" s="4">
+        <v>3096</v>
+      </c>
+      <c r="CS185" s="4">
+        <v>1135</v>
+      </c>
+      <c r="CT185" s="4">
+        <v>823</v>
+      </c>
+      <c r="CU185" s="4">
+        <v>798</v>
+      </c>
+      <c r="CV185" s="4">
+        <v>1402</v>
+      </c>
+      <c r="CW185" s="4">
+        <v>1325</v>
+      </c>
+      <c r="CX185" s="4">
+        <v>668</v>
+      </c>
+      <c r="CY185" s="4">
+        <v>764</v>
+      </c>
+      <c r="CZ185" s="4">
+        <v>1013</v>
+      </c>
+      <c r="DA185" s="4">
+        <v>1269</v>
+      </c>
+      <c r="DB185" s="4">
+        <v>1101</v>
+      </c>
+      <c r="DC185" s="4">
+        <v>1231</v>
+      </c>
+      <c r="DD185" s="4">
+        <v>936</v>
+      </c>
+      <c r="DE185" s="4">
+        <v>318</v>
+      </c>
+      <c r="DF185" s="4">
+        <v>343</v>
+      </c>
+      <c r="DG185" s="4">
+        <v>718</v>
+      </c>
+      <c r="DH185" s="4">
+        <v>639</v>
+      </c>
+      <c r="DI185" s="4">
+        <v>419</v>
+      </c>
+      <c r="DJ185" s="4">
+        <v>534</v>
+      </c>
+      <c r="DK185" s="4">
+        <v>347</v>
+      </c>
+      <c r="DL185" s="4">
+        <v>620</v>
+      </c>
+      <c r="DM185" s="4">
+        <v>719</v>
+      </c>
+      <c r="DN185" s="4">
+        <v>517</v>
+      </c>
+      <c r="DO185" s="4">
+        <v>480</v>
+      </c>
+      <c r="DP185" s="4">
+        <v>372</v>
+      </c>
+      <c r="DQ185" s="4">
+        <v>516</v>
+      </c>
+      <c r="DR185">
+        <v>122359</v>
+      </c>
+      <c r="DS185">
+        <v>278669</v>
+      </c>
+      <c r="DT185">
+        <v>12033</v>
+      </c>
+      <c r="DU185">
+        <v>120434</v>
+      </c>
+      <c r="DV185">
+        <v>74480</v>
+      </c>
+      <c r="DW185">
+        <v>33920</v>
+      </c>
+      <c r="DX185">
+        <v>9942</v>
       </c>
     </row>
   </sheetData>

--- a/CasosColombia.xlsx
+++ b/CasosColombia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Matlab\MATLAB_R2019a\fitVirusCV19_v07_v17\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E1FFEE4-6CB2-428A-B252-EEEDB97EFF52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{87A3ECF6-7220-4B3E-A667-B4FE6CA2F17D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6C56C21C-B00B-4C62-A627-74DAE246E91A}"/>
   </bookViews>
@@ -1497,13 +1497,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13133E2-69F7-478D-A001-FD6CB4FB0C80}">
-  <dimension ref="A1:DX185"/>
+  <dimension ref="A1:DX186"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="CZ156" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="CZ157" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="DQ183" sqref="DQ183"/>
+      <selection pane="bottomRight" activeCell="DX186" sqref="DX186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6555,8 +6555,8 @@
       <c r="H14">
         <v>0</v>
       </c>
-      <c r="I14" s="12" t="s">
-        <v>68</v>
+      <c r="I14" s="12">
+        <v>1</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -7983,8 +7983,8 @@
       <c r="CT17" s="4">
         <v>0</v>
       </c>
-      <c r="CU17" s="10" t="s">
-        <v>68</v>
+      <c r="CU17" s="10">
+        <v>1</v>
       </c>
       <c r="CV17" s="4">
         <v>0</v>
@@ -8108,8 +8108,8 @@
       <c r="K18" t="s">
         <v>68</v>
       </c>
-      <c r="L18">
-        <v>1</v>
+      <c r="L18" t="s">
+        <v>68</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -10269,8 +10269,8 @@
       <c r="CJ23" s="4">
         <v>0</v>
       </c>
-      <c r="CK23" s="4" t="s">
-        <v>68</v>
+      <c r="CK23" s="4">
+        <v>1</v>
       </c>
       <c r="CL23" s="4">
         <v>3</v>
@@ -11843,8 +11843,8 @@
       <c r="CT27" s="4">
         <v>0</v>
       </c>
-      <c r="CU27" s="4">
-        <v>2</v>
+      <c r="CU27" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="CV27" s="4">
         <v>0</v>
@@ -14359,8 +14359,8 @@
       <c r="AJ34">
         <v>0</v>
       </c>
-      <c r="AK34" s="12" t="s">
-        <v>68</v>
+      <c r="AK34" s="12">
+        <v>1</v>
       </c>
       <c r="AL34">
         <v>46</v>
@@ -18261,8 +18261,8 @@
       <c r="AX44">
         <v>0</v>
       </c>
-      <c r="AY44" s="10">
-        <v>1</v>
+      <c r="AY44" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="AZ44">
         <v>1</v>
@@ -18647,8 +18647,8 @@
       <c r="AX45">
         <v>0</v>
       </c>
-      <c r="AY45" s="12" t="s">
-        <v>68</v>
+      <c r="AY45" s="12">
+        <v>4</v>
       </c>
       <c r="AZ45">
         <v>2</v>
@@ -20855,8 +20855,8 @@
       <c r="N51">
         <v>22</v>
       </c>
-      <c r="O51">
-        <v>7</v>
+      <c r="O51" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="P51">
         <v>2</v>
@@ -21241,8 +21241,8 @@
       <c r="N52">
         <v>23</v>
       </c>
-      <c r="O52" s="12" t="s">
-        <v>68</v>
+      <c r="O52" s="12">
+        <v>14</v>
       </c>
       <c r="P52">
         <v>5</v>
@@ -24252,8 +24252,8 @@
       <c r="DM59" s="4">
         <v>2</v>
       </c>
-      <c r="DN59" s="4" t="s">
-        <v>68</v>
+      <c r="DN59" s="4">
+        <v>1</v>
       </c>
       <c r="DO59" s="4">
         <v>1</v>
@@ -25024,8 +25024,8 @@
       <c r="DM61" s="4">
         <v>3</v>
       </c>
-      <c r="DN61" s="4">
-        <v>1</v>
+      <c r="DN61" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="DO61" s="4">
         <v>1</v>
@@ -33288,8 +33288,8 @@
       <c r="AO83">
         <v>2085</v>
       </c>
-      <c r="AP83" s="12">
-        <v>2</v>
+      <c r="AP83" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="AQ83">
         <v>2223</v>
@@ -34775,8 +34775,8 @@
       <c r="V87">
         <v>9</v>
       </c>
-      <c r="W87">
-        <v>67</v>
+      <c r="W87" t="s">
+        <v>68</v>
       </c>
       <c r="X87">
         <v>20</v>
@@ -34832,8 +34832,8 @@
       <c r="AO87">
         <v>2547</v>
       </c>
-      <c r="AP87" t="s">
-        <v>68</v>
+      <c r="AP87">
+        <v>5</v>
       </c>
       <c r="AQ87">
         <v>2829</v>
@@ -35745,8 +35745,8 @@
       <c r="CJ89" s="4">
         <v>37</v>
       </c>
-      <c r="CK89" s="4">
-        <v>41</v>
+      <c r="CK89" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="CL89" s="4">
         <v>49</v>
@@ -72920,6 +72920,392 @@
       </c>
       <c r="DX185">
         <v>9942</v>
+      </c>
+    </row>
+    <row r="186" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>44080</v>
+      </c>
+      <c r="B186">
+        <v>666521</v>
+      </c>
+      <c r="C186">
+        <v>2714</v>
+      </c>
+      <c r="D186">
+        <v>88674</v>
+      </c>
+      <c r="E186">
+        <v>65074</v>
+      </c>
+      <c r="F186">
+        <v>225947</v>
+      </c>
+      <c r="G186">
+        <v>25967</v>
+      </c>
+      <c r="H186">
+        <v>4342</v>
+      </c>
+      <c r="I186">
+        <v>3396</v>
+      </c>
+      <c r="J186">
+        <v>6789</v>
+      </c>
+      <c r="K186">
+        <v>6397</v>
+      </c>
+      <c r="L186">
+        <v>12934</v>
+      </c>
+      <c r="M186">
+        <v>3786</v>
+      </c>
+      <c r="N186">
+        <v>20991</v>
+      </c>
+      <c r="O186">
+        <v>25829</v>
+      </c>
+      <c r="P186">
+        <v>5884</v>
+      </c>
+      <c r="Q186">
+        <v>5991</v>
+      </c>
+      <c r="R186">
+        <v>13083</v>
+      </c>
+      <c r="S186">
+        <v>10031</v>
+      </c>
+      <c r="T186">
+        <v>15151</v>
+      </c>
+      <c r="U186">
+        <v>12744</v>
+      </c>
+      <c r="V186">
+        <v>3213</v>
+      </c>
+      <c r="W186">
+        <v>1572</v>
+      </c>
+      <c r="X186">
+        <v>7047</v>
+      </c>
+      <c r="Y186">
+        <v>21705</v>
+      </c>
+      <c r="Z186">
+        <v>12492</v>
+      </c>
+      <c r="AA186">
+        <v>8349</v>
+      </c>
+      <c r="AB186">
+        <v>50180</v>
+      </c>
+      <c r="AC186">
+        <v>1274</v>
+      </c>
+      <c r="AD186">
+        <v>305</v>
+      </c>
+      <c r="AE186">
+        <v>448</v>
+      </c>
+      <c r="AF186">
+        <v>453</v>
+      </c>
+      <c r="AG186">
+        <v>171</v>
+      </c>
+      <c r="AH186">
+        <v>135</v>
+      </c>
+      <c r="AI186">
+        <v>351</v>
+      </c>
+      <c r="AJ186">
+        <v>1985</v>
+      </c>
+      <c r="AK186">
+        <v>3706</v>
+      </c>
+      <c r="AL186">
+        <v>36660</v>
+      </c>
+      <c r="AM186">
+        <v>7556</v>
+      </c>
+      <c r="AN186">
+        <v>2432</v>
+      </c>
+      <c r="AO186">
+        <v>39336</v>
+      </c>
+      <c r="AP186">
+        <v>999</v>
+      </c>
+      <c r="AQ186">
+        <v>20922</v>
+      </c>
+      <c r="AR186">
+        <v>1473</v>
+      </c>
+      <c r="AS186">
+        <v>8828</v>
+      </c>
+      <c r="AT186">
+        <v>1559</v>
+      </c>
+      <c r="AU186">
+        <v>1581</v>
+      </c>
+      <c r="AV186">
+        <v>5369</v>
+      </c>
+      <c r="AW186">
+        <v>1682</v>
+      </c>
+      <c r="AX186">
+        <v>951</v>
+      </c>
+      <c r="AY186">
+        <v>2481</v>
+      </c>
+      <c r="AZ186">
+        <v>2647</v>
+      </c>
+      <c r="BA186">
+        <v>51319</v>
+      </c>
+      <c r="BB186">
+        <v>12855</v>
+      </c>
+      <c r="BC186">
+        <v>3428</v>
+      </c>
+      <c r="BD186">
+        <v>8183</v>
+      </c>
+      <c r="BE186">
+        <v>4692</v>
+      </c>
+      <c r="BF186">
+        <v>280</v>
+      </c>
+      <c r="BG186">
+        <v>1418</v>
+      </c>
+      <c r="BH186">
+        <v>2626</v>
+      </c>
+      <c r="BI186">
+        <v>734</v>
+      </c>
+      <c r="BJ186">
+        <v>2066</v>
+      </c>
+      <c r="BK186">
+        <v>8766</v>
+      </c>
+      <c r="BL186">
+        <v>8823</v>
+      </c>
+      <c r="BM186">
+        <v>9142</v>
+      </c>
+      <c r="BN186">
+        <v>13958</v>
+      </c>
+      <c r="BO186">
+        <v>1892</v>
+      </c>
+      <c r="BP186">
+        <v>835</v>
+      </c>
+      <c r="BQ186">
+        <v>9396</v>
+      </c>
+      <c r="BR186">
+        <v>8011</v>
+      </c>
+      <c r="BS186" s="4">
+        <v>9458</v>
+      </c>
+      <c r="BT186" s="4">
+        <v>1789</v>
+      </c>
+      <c r="BU186" s="4">
+        <v>1674</v>
+      </c>
+      <c r="BV186" s="4">
+        <v>3820</v>
+      </c>
+      <c r="BW186" s="4">
+        <v>3810</v>
+      </c>
+      <c r="BX186" s="4">
+        <v>1132</v>
+      </c>
+      <c r="BY186" s="4">
+        <v>4937</v>
+      </c>
+      <c r="BZ186" s="4">
+        <v>2725</v>
+      </c>
+      <c r="CA186" s="4">
+        <v>1483</v>
+      </c>
+      <c r="CB186" s="4">
+        <v>795</v>
+      </c>
+      <c r="CC186" s="4">
+        <v>2364</v>
+      </c>
+      <c r="CD186" s="4">
+        <v>2032</v>
+      </c>
+      <c r="CE186" s="4">
+        <v>1488</v>
+      </c>
+      <c r="CF186" s="4">
+        <v>1105</v>
+      </c>
+      <c r="CG186" s="4">
+        <v>5497</v>
+      </c>
+      <c r="CH186" s="4">
+        <v>1630</v>
+      </c>
+      <c r="CI186" s="4">
+        <v>1247</v>
+      </c>
+      <c r="CJ186" s="4">
+        <v>1418</v>
+      </c>
+      <c r="CK186" s="4">
+        <v>1803</v>
+      </c>
+      <c r="CL186" s="4">
+        <v>1671</v>
+      </c>
+      <c r="CM186" s="4">
+        <v>1991</v>
+      </c>
+      <c r="CN186" s="4">
+        <v>1280</v>
+      </c>
+      <c r="CO186" s="4">
+        <v>1113</v>
+      </c>
+      <c r="CP186" s="4">
+        <v>1131</v>
+      </c>
+      <c r="CQ186" s="4">
+        <v>665</v>
+      </c>
+      <c r="CR186" s="4">
+        <v>3117</v>
+      </c>
+      <c r="CS186" s="4">
+        <v>1155</v>
+      </c>
+      <c r="CT186" s="4">
+        <v>823</v>
+      </c>
+      <c r="CU186" s="4">
+        <v>806</v>
+      </c>
+      <c r="CV186" s="4">
+        <v>1435</v>
+      </c>
+      <c r="CW186" s="4">
+        <v>1337</v>
+      </c>
+      <c r="CX186" s="4">
+        <v>691</v>
+      </c>
+      <c r="CY186" s="4">
+        <v>771</v>
+      </c>
+      <c r="CZ186" s="4">
+        <v>1040</v>
+      </c>
+      <c r="DA186" s="4">
+        <v>1291</v>
+      </c>
+      <c r="DB186" s="4">
+        <v>1129</v>
+      </c>
+      <c r="DC186" s="4">
+        <v>1247</v>
+      </c>
+      <c r="DD186" s="4">
+        <v>960</v>
+      </c>
+      <c r="DE186" s="4">
+        <v>319</v>
+      </c>
+      <c r="DF186" s="4">
+        <v>344</v>
+      </c>
+      <c r="DG186" s="4">
+        <v>731</v>
+      </c>
+      <c r="DH186" s="4">
+        <v>652</v>
+      </c>
+      <c r="DI186" s="4">
+        <v>427</v>
+      </c>
+      <c r="DJ186" s="4">
+        <v>534</v>
+      </c>
+      <c r="DK186" s="4">
+        <v>352</v>
+      </c>
+      <c r="DL186" s="4">
+        <v>627</v>
+      </c>
+      <c r="DM186" s="4">
+        <v>720</v>
+      </c>
+      <c r="DN186" s="4">
+        <v>517</v>
+      </c>
+      <c r="DO186" s="4">
+        <v>481</v>
+      </c>
+      <c r="DP186" s="4">
+        <v>372</v>
+      </c>
+      <c r="DQ186" s="4">
+        <v>517</v>
+      </c>
+      <c r="DR186">
+        <v>122942</v>
+      </c>
+      <c r="DS186">
+        <v>282210</v>
+      </c>
+      <c r="DT186">
+        <v>12288</v>
+      </c>
+      <c r="DU186">
+        <v>122147</v>
+      </c>
+      <c r="DV186">
+        <v>75514</v>
+      </c>
+      <c r="DW186">
+        <v>34498</v>
+      </c>
+      <c r="DX186">
+        <v>10173</v>
       </c>
     </row>
   </sheetData>

--- a/CasosColombia.xlsx
+++ b/CasosColombia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Matlab\MATLAB_R2019a\fitVirusCV19_v07_v17\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87A3ECF6-7220-4B3E-A667-B4FE6CA2F17D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDD5D27C-378F-4898-8024-8B247D426FF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6C56C21C-B00B-4C62-A627-74DAE246E91A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="129">
   <si>
     <t>Fecha</t>
   </si>
@@ -1497,13 +1497,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13133E2-69F7-478D-A001-FD6CB4FB0C80}">
-  <dimension ref="A1:DX186"/>
+  <dimension ref="A1:DX187"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="CZ157" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="CY158" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="DX186" sqref="DX186"/>
+      <selection pane="bottomRight" activeCell="A186" sqref="A186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5583,8 +5583,8 @@
       <c r="BR11">
         <v>0</v>
       </c>
-      <c r="BS11" s="4">
-        <v>1</v>
+      <c r="BS11" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="BT11" s="10" t="s">
         <v>68</v>
@@ -5751,8 +5751,8 @@
       <c r="DV11">
         <v>3</v>
       </c>
-      <c r="DW11" s="10" t="s">
-        <v>68</v>
+      <c r="DW11" s="10">
+        <v>2</v>
       </c>
       <c r="DX11">
         <v>0</v>
@@ -6337,8 +6337,8 @@
       <c r="BL13">
         <v>0</v>
       </c>
-      <c r="BM13" t="s">
-        <v>68</v>
+      <c r="BM13">
+        <v>1</v>
       </c>
       <c r="BN13">
         <v>0</v>
@@ -6723,8 +6723,8 @@
       <c r="BL14">
         <v>0</v>
       </c>
-      <c r="BM14" t="s">
-        <v>68</v>
+      <c r="BM14">
+        <v>1</v>
       </c>
       <c r="BN14">
         <v>0</v>
@@ -6741,8 +6741,8 @@
       <c r="BR14">
         <v>0</v>
       </c>
-      <c r="BS14" s="12" t="s">
-        <v>68</v>
+      <c r="BS14" s="12">
+        <v>1</v>
       </c>
       <c r="BT14" s="10">
         <v>1</v>
@@ -7109,8 +7109,8 @@
       <c r="BL15">
         <v>0</v>
       </c>
-      <c r="BM15" t="s">
-        <v>68</v>
+      <c r="BM15">
+        <v>2</v>
       </c>
       <c r="BN15">
         <v>0</v>
@@ -7495,8 +7495,8 @@
       <c r="BL16">
         <v>0</v>
       </c>
-      <c r="BM16" t="s">
-        <v>68</v>
+      <c r="BM16">
+        <v>4</v>
       </c>
       <c r="BN16">
         <v>0</v>
@@ -7881,8 +7881,8 @@
       <c r="BL17">
         <v>0</v>
       </c>
-      <c r="BM17" t="s">
-        <v>68</v>
+      <c r="BM17">
+        <v>5</v>
       </c>
       <c r="BN17">
         <v>0</v>
@@ -8267,8 +8267,8 @@
       <c r="BL18">
         <v>0</v>
       </c>
-      <c r="BM18" t="s">
-        <v>68</v>
+      <c r="BM18">
+        <v>5</v>
       </c>
       <c r="BN18">
         <v>0</v>
@@ -8653,8 +8653,8 @@
       <c r="BL19">
         <v>0</v>
       </c>
-      <c r="BM19" t="s">
-        <v>68</v>
+      <c r="BM19">
+        <v>6</v>
       </c>
       <c r="BN19">
         <v>0</v>
@@ -9039,8 +9039,8 @@
       <c r="BL20">
         <v>0</v>
       </c>
-      <c r="BM20" t="s">
-        <v>68</v>
+      <c r="BM20">
+        <v>6</v>
       </c>
       <c r="BN20">
         <v>0</v>
@@ -9425,8 +9425,8 @@
       <c r="BL21">
         <v>0</v>
       </c>
-      <c r="BM21" s="9" t="s">
-        <v>68</v>
+      <c r="BM21" s="9">
+        <v>7</v>
       </c>
       <c r="BN21">
         <v>1</v>
@@ -13973,8 +13973,8 @@
       <c r="AJ33">
         <v>0</v>
       </c>
-      <c r="AK33">
-        <v>1</v>
+      <c r="AK33" t="s">
+        <v>68</v>
       </c>
       <c r="AL33">
         <v>43</v>
@@ -14745,8 +14745,8 @@
       <c r="AJ35">
         <v>0</v>
       </c>
-      <c r="AK35" s="12" t="s">
-        <v>68</v>
+      <c r="AK35" s="12">
+        <v>1</v>
       </c>
       <c r="AL35">
         <v>49</v>
@@ -14955,8 +14955,8 @@
       <c r="DB35" s="4">
         <v>3</v>
       </c>
-      <c r="DC35" s="4">
-        <v>1</v>
+      <c r="DC35" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="DD35" s="4">
         <v>4</v>
@@ -15727,8 +15727,8 @@
       <c r="DB37" s="4">
         <v>3</v>
       </c>
-      <c r="DC37" s="4" t="s">
-        <v>68</v>
+      <c r="DC37" s="4">
+        <v>1</v>
       </c>
       <c r="DD37" s="4">
         <v>4</v>
@@ -26023,8 +26023,8 @@
       <c r="BL64">
         <v>1</v>
       </c>
-      <c r="BM64" t="s">
-        <v>68</v>
+      <c r="BM64">
+        <v>88</v>
       </c>
       <c r="BN64">
         <v>289</v>
@@ -35674,7 +35674,7 @@
         <v>14</v>
       </c>
       <c r="BM89">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="BN89">
         <v>1329</v>
@@ -36060,7 +36060,7 @@
         <v>15</v>
       </c>
       <c r="BM90">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="BN90">
         <v>1440</v>
@@ -36446,7 +36446,7 @@
         <v>36</v>
       </c>
       <c r="BM91">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="BN91">
         <v>1490</v>
@@ -36832,7 +36832,7 @@
         <v>52</v>
       </c>
       <c r="BM92">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="BN92">
         <v>1632</v>
@@ -37218,7 +37218,7 @@
         <v>59</v>
       </c>
       <c r="BM93">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="BN93">
         <v>1745</v>
@@ -37274,8 +37274,8 @@
       <c r="CE93" s="4">
         <v>10</v>
       </c>
-      <c r="CF93" s="4">
-        <v>3</v>
+      <c r="CF93" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="CG93" s="4">
         <v>23</v>
@@ -37604,7 +37604,7 @@
         <v>73</v>
       </c>
       <c r="BM94">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="BN94">
         <v>1836</v>
@@ -37990,7 +37990,7 @@
         <v>100</v>
       </c>
       <c r="BM95">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="BN95">
         <v>1917</v>
@@ -38376,7 +38376,7 @@
         <v>105</v>
       </c>
       <c r="BM96">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="BN96">
         <v>1991</v>
@@ -38762,7 +38762,7 @@
         <v>115</v>
       </c>
       <c r="BM97">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="BN97">
         <v>2051</v>
@@ -39148,7 +39148,7 @@
         <v>134</v>
       </c>
       <c r="BM98">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="BN98">
         <v>2154</v>
@@ -39534,7 +39534,7 @@
         <v>138</v>
       </c>
       <c r="BM99">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="BN99">
         <v>2253</v>
@@ -39920,7 +39920,7 @@
         <v>158</v>
       </c>
       <c r="BM100">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="BN100">
         <v>2390</v>
@@ -40306,7 +40306,7 @@
         <v>173</v>
       </c>
       <c r="BM101">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="BN101">
         <v>2472</v>
@@ -40692,7 +40692,7 @@
         <v>194</v>
       </c>
       <c r="BM102">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="BN102">
         <v>2679</v>
@@ -41078,7 +41078,7 @@
         <v>196</v>
       </c>
       <c r="BM103">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="BN103">
         <v>2820</v>
@@ -41464,7 +41464,7 @@
         <v>226</v>
       </c>
       <c r="BM104">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="BN104">
         <v>2928</v>
@@ -41850,7 +41850,7 @@
         <v>251</v>
       </c>
       <c r="BM105">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="BN105">
         <v>3130</v>
@@ -42236,7 +42236,7 @@
         <v>332</v>
       </c>
       <c r="BM106">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="BN106">
         <v>3339</v>
@@ -42622,7 +42622,7 @@
         <v>366</v>
       </c>
       <c r="BM107">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="BN107">
         <v>3515</v>
@@ -43008,7 +43008,7 @@
         <v>405</v>
       </c>
       <c r="BM108">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="BN108">
         <v>3774</v>
@@ -43394,7 +43394,7 @@
         <v>440</v>
       </c>
       <c r="BM109">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="BN109">
         <v>3933</v>
@@ -43780,7 +43780,7 @@
         <v>480</v>
       </c>
       <c r="BM110">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="BN110">
         <v>4150</v>
@@ -44166,7 +44166,7 @@
         <v>517</v>
       </c>
       <c r="BM111">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="BN111">
         <v>4351</v>
@@ -44552,7 +44552,7 @@
         <v>587</v>
       </c>
       <c r="BM112">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="BN112">
         <v>4605</v>
@@ -44938,7 +44938,7 @@
         <v>684</v>
       </c>
       <c r="BM113">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="BN113">
         <v>4803</v>
@@ -45324,7 +45324,7 @@
         <v>729</v>
       </c>
       <c r="BM114">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="BN114">
         <v>5258</v>
@@ -45710,7 +45710,7 @@
         <v>780</v>
       </c>
       <c r="BM115">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="BN115">
         <v>5489</v>
@@ -46096,7 +46096,7 @@
         <v>870</v>
       </c>
       <c r="BM116">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="BN116">
         <v>5717</v>
@@ -46482,7 +46482,7 @@
         <v>906</v>
       </c>
       <c r="BM117">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="BN117">
         <v>5864</v>
@@ -46868,7 +46868,7 @@
         <v>993</v>
       </c>
       <c r="BM118">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="BN118">
         <v>6009</v>
@@ -47254,7 +47254,7 @@
         <v>1083</v>
       </c>
       <c r="BM119">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="BN119">
         <v>6252</v>
@@ -47640,7 +47640,7 @@
         <v>1178</v>
       </c>
       <c r="BM120">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="BN120">
         <v>6480</v>
@@ -48026,7 +48026,7 @@
         <v>1213</v>
       </c>
       <c r="BM121">
-        <v>1161</v>
+        <v>1156</v>
       </c>
       <c r="BN121">
         <v>6633</v>
@@ -48412,7 +48412,7 @@
         <v>1328</v>
       </c>
       <c r="BM122">
-        <v>1216</v>
+        <v>1211</v>
       </c>
       <c r="BN122">
         <v>6821</v>
@@ -48798,7 +48798,7 @@
         <v>1441</v>
       </c>
       <c r="BM123">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="BN123">
         <v>7016</v>
@@ -49184,7 +49184,7 @@
         <v>1495</v>
       </c>
       <c r="BM124">
-        <v>1240</v>
+        <v>1235</v>
       </c>
       <c r="BN124">
         <v>7129</v>
@@ -49570,7 +49570,7 @@
         <v>1580</v>
       </c>
       <c r="BM125">
-        <v>1250</v>
+        <v>1244</v>
       </c>
       <c r="BN125">
         <v>7329</v>
@@ -49956,7 +49956,7 @@
         <v>1685</v>
       </c>
       <c r="BM126">
-        <v>1305</v>
+        <v>1299</v>
       </c>
       <c r="BN126">
         <v>7483</v>
@@ -50342,7 +50342,7 @@
         <v>1796</v>
       </c>
       <c r="BM127">
-        <v>1366</v>
+        <v>1360</v>
       </c>
       <c r="BN127">
         <v>7670</v>
@@ -50728,7 +50728,7 @@
         <v>1877</v>
       </c>
       <c r="BM128">
-        <v>1524</v>
+        <v>1518</v>
       </c>
       <c r="BN128">
         <v>7972</v>
@@ -51114,7 +51114,7 @@
         <v>1911</v>
       </c>
       <c r="BM129">
-        <v>1558</v>
+        <v>1552</v>
       </c>
       <c r="BN129">
         <v>8126</v>
@@ -51500,7 +51500,7 @@
         <v>1980</v>
       </c>
       <c r="BM130">
-        <v>1614</v>
+        <v>1607</v>
       </c>
       <c r="BN130">
         <v>8361</v>
@@ -51886,7 +51886,7 @@
         <v>2038</v>
       </c>
       <c r="BM131">
-        <v>1686</v>
+        <v>1678</v>
       </c>
       <c r="BN131">
         <v>8504</v>
@@ -52272,7 +52272,7 @@
         <v>2163</v>
       </c>
       <c r="BM132">
-        <v>1747</v>
+        <v>1739</v>
       </c>
       <c r="BN132">
         <v>8742</v>
@@ -52328,8 +52328,8 @@
       <c r="CE132" s="4">
         <v>90</v>
       </c>
-      <c r="CF132" s="4">
-        <v>104</v>
+      <c r="CF132" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="CG132" s="4">
         <v>110</v>
@@ -52658,7 +52658,7 @@
         <v>2199</v>
       </c>
       <c r="BM133">
-        <v>1817</v>
+        <v>1809</v>
       </c>
       <c r="BN133">
         <v>8866</v>
@@ -53044,7 +53044,7 @@
         <v>2392</v>
       </c>
       <c r="BM134">
-        <v>1952</v>
+        <v>1944</v>
       </c>
       <c r="BN134">
         <v>9295</v>
@@ -53430,7 +53430,7 @@
         <v>2741</v>
       </c>
       <c r="BM135">
-        <v>2071</v>
+        <v>2063</v>
       </c>
       <c r="BN135">
         <v>9618</v>
@@ -53816,7 +53816,7 @@
         <v>3155</v>
       </c>
       <c r="BM136">
-        <v>2182</v>
+        <v>2174</v>
       </c>
       <c r="BN136">
         <v>9888</v>
@@ -54202,7 +54202,7 @@
         <v>3286</v>
       </c>
       <c r="BM137">
-        <v>2233</v>
+        <v>2226</v>
       </c>
       <c r="BN137">
         <v>10007</v>
@@ -54588,7 +54588,7 @@
         <v>3482</v>
       </c>
       <c r="BM138">
-        <v>2308</v>
+        <v>2300</v>
       </c>
       <c r="BN138">
         <v>10166</v>
@@ -54974,7 +54974,7 @@
         <v>3712</v>
       </c>
       <c r="BM139">
-        <v>2352</v>
+        <v>2344</v>
       </c>
       <c r="BN139">
         <v>10302</v>
@@ -55360,7 +55360,7 @@
         <v>3787</v>
       </c>
       <c r="BM140">
-        <v>2457</v>
+        <v>2449</v>
       </c>
       <c r="BN140">
         <v>10402</v>
@@ -55746,7 +55746,7 @@
         <v>3876</v>
       </c>
       <c r="BM141">
-        <v>2530</v>
+        <v>2523</v>
       </c>
       <c r="BN141">
         <v>10546</v>
@@ -56132,7 +56132,7 @@
         <v>3936</v>
       </c>
       <c r="BM142">
-        <v>2654</v>
+        <v>2647</v>
       </c>
       <c r="BN142">
         <v>10639</v>
@@ -56518,7 +56518,7 @@
         <v>4027</v>
       </c>
       <c r="BM143">
-        <v>2687</v>
+        <v>2680</v>
       </c>
       <c r="BN143">
         <v>10794</v>
@@ -56904,7 +56904,7 @@
         <v>4169</v>
       </c>
       <c r="BM144">
-        <v>2766</v>
+        <v>2759</v>
       </c>
       <c r="BN144">
         <v>10894</v>
@@ -57290,7 +57290,7 @@
         <v>4222</v>
       </c>
       <c r="BM145">
-        <v>2802</v>
+        <v>2795</v>
       </c>
       <c r="BN145">
         <v>11024</v>
@@ -57676,7 +57676,7 @@
         <v>4383</v>
       </c>
       <c r="BM146">
-        <v>2899</v>
+        <v>2892</v>
       </c>
       <c r="BN146">
         <v>11215</v>
@@ -58062,7 +58062,7 @@
         <v>4424</v>
       </c>
       <c r="BM147">
-        <v>2998</v>
+        <v>2994</v>
       </c>
       <c r="BN147">
         <v>11309</v>
@@ -58448,7 +58448,7 @@
         <v>4481</v>
       </c>
       <c r="BM148">
-        <v>3218</v>
+        <v>3214</v>
       </c>
       <c r="BN148">
         <v>11565</v>
@@ -58834,7 +58834,7 @@
         <v>4551</v>
       </c>
       <c r="BM149">
-        <v>3288</v>
+        <v>3284</v>
       </c>
       <c r="BN149">
         <v>11665</v>
@@ -59220,7 +59220,7 @@
         <v>4603</v>
       </c>
       <c r="BM150">
-        <v>3503</v>
+        <v>3499</v>
       </c>
       <c r="BN150">
         <v>11849</v>
@@ -59606,7 +59606,7 @@
         <v>4677</v>
       </c>
       <c r="BM151">
-        <v>3724</v>
+        <v>3716</v>
       </c>
       <c r="BN151">
         <v>12005</v>
@@ -59992,7 +59992,7 @@
         <v>4849</v>
       </c>
       <c r="BM152">
-        <v>3844</v>
+        <v>3832</v>
       </c>
       <c r="BN152">
         <v>12066</v>
@@ -60378,7 +60378,7 @@
         <v>4962</v>
       </c>
       <c r="BM153">
-        <v>3907</v>
+        <v>3895</v>
       </c>
       <c r="BN153">
         <v>12138</v>
@@ -60764,7 +60764,7 @@
         <v>5110</v>
       </c>
       <c r="BM154">
-        <v>4065</v>
+        <v>4052</v>
       </c>
       <c r="BN154">
         <v>12233</v>
@@ -61150,7 +61150,7 @@
         <v>5260</v>
       </c>
       <c r="BM155">
-        <v>4154</v>
+        <v>4143</v>
       </c>
       <c r="BN155">
         <v>12337</v>
@@ -61536,7 +61536,7 @@
         <v>5342</v>
       </c>
       <c r="BM156">
-        <v>4248</v>
+        <v>4240</v>
       </c>
       <c r="BN156">
         <v>12449</v>
@@ -61922,7 +61922,7 @@
         <v>5423</v>
       </c>
       <c r="BM157">
-        <v>4352</v>
+        <v>4343</v>
       </c>
       <c r="BN157">
         <v>12630</v>
@@ -62308,7 +62308,7 @@
         <v>5594</v>
       </c>
       <c r="BM158">
-        <v>4402</v>
+        <v>4395</v>
       </c>
       <c r="BN158">
         <v>12766</v>
@@ -62694,7 +62694,7 @@
         <v>5665</v>
       </c>
       <c r="BM159">
-        <v>4474</v>
+        <v>4470</v>
       </c>
       <c r="BN159">
         <v>12823</v>
@@ -63080,7 +63080,7 @@
         <v>5760</v>
       </c>
       <c r="BM160">
-        <v>4651</v>
+        <v>4643</v>
       </c>
       <c r="BN160">
         <v>12929</v>
@@ -63466,7 +63466,7 @@
         <v>5831</v>
       </c>
       <c r="BM161">
-        <v>4948</v>
+        <v>4938</v>
       </c>
       <c r="BN161">
         <v>12984</v>
@@ -63852,7 +63852,7 @@
         <v>5941</v>
       </c>
       <c r="BM162">
-        <v>5179</v>
+        <v>5167</v>
       </c>
       <c r="BN162">
         <v>13075</v>
@@ -64238,7 +64238,7 @@
         <v>5996</v>
       </c>
       <c r="BM163">
-        <v>5287</v>
+        <v>5275</v>
       </c>
       <c r="BN163">
         <v>13147</v>
@@ -64624,7 +64624,7 @@
         <v>6154</v>
       </c>
       <c r="BM164">
-        <v>5513</v>
+        <v>5503</v>
       </c>
       <c r="BN164">
         <v>13234</v>
@@ -65010,7 +65010,7 @@
         <v>6322</v>
       </c>
       <c r="BM165">
-        <v>5792</v>
+        <v>5815</v>
       </c>
       <c r="BN165">
         <v>13275</v>
@@ -65396,7 +65396,7 @@
         <v>6375</v>
       </c>
       <c r="BM166">
-        <v>5893</v>
+        <v>5929</v>
       </c>
       <c r="BN166">
         <v>13314</v>
@@ -65782,7 +65782,7 @@
         <v>6508</v>
       </c>
       <c r="BM167">
-        <v>6173</v>
+        <v>6240</v>
       </c>
       <c r="BN167">
         <v>13358</v>
@@ -66168,7 +66168,7 @@
         <v>6781</v>
       </c>
       <c r="BM168">
-        <v>6375</v>
+        <v>6445</v>
       </c>
       <c r="BN168">
         <v>13393</v>
@@ -66554,7 +66554,7 @@
         <v>7075</v>
       </c>
       <c r="BM169">
-        <v>6846</v>
+        <v>6944</v>
       </c>
       <c r="BN169">
         <v>13438</v>
@@ -66940,7 +66940,7 @@
         <v>7300</v>
       </c>
       <c r="BM170">
-        <v>6957</v>
+        <v>7054</v>
       </c>
       <c r="BN170">
         <v>13475</v>
@@ -67326,7 +67326,7 @@
         <v>7379</v>
       </c>
       <c r="BM171">
-        <v>7027</v>
+        <v>7124</v>
       </c>
       <c r="BN171">
         <v>13492</v>
@@ -67712,7 +67712,7 @@
         <v>7463</v>
       </c>
       <c r="BM172">
-        <v>7116</v>
+        <v>7221</v>
       </c>
       <c r="BN172">
         <v>13518</v>
@@ -68098,7 +68098,7 @@
         <v>7584</v>
       </c>
       <c r="BM173">
-        <v>7349</v>
+        <v>7474</v>
       </c>
       <c r="BN173">
         <v>13618</v>
@@ -68484,7 +68484,7 @@
         <v>7820</v>
       </c>
       <c r="BM174">
-        <v>7571</v>
+        <v>7686</v>
       </c>
       <c r="BN174">
         <v>13639</v>
@@ -68870,7 +68870,7 @@
         <v>7899</v>
       </c>
       <c r="BM175">
-        <v>7678</v>
+        <v>7736</v>
       </c>
       <c r="BN175">
         <v>13680</v>
@@ -69256,7 +69256,7 @@
         <v>7994</v>
       </c>
       <c r="BM176">
-        <v>7910</v>
+        <v>7909</v>
       </c>
       <c r="BN176">
         <v>13704</v>
@@ -69642,7 +69642,7 @@
         <v>8148</v>
       </c>
       <c r="BM177">
-        <v>8020</v>
+        <v>8019</v>
       </c>
       <c r="BN177">
         <v>13730</v>
@@ -70028,7 +70028,7 @@
         <v>8250</v>
       </c>
       <c r="BM178">
-        <v>8190</v>
+        <v>8189</v>
       </c>
       <c r="BN178">
         <v>13749</v>
@@ -70414,7 +70414,7 @@
         <v>8322</v>
       </c>
       <c r="BM179">
-        <v>8365</v>
+        <v>8364</v>
       </c>
       <c r="BN179">
         <v>13763</v>
@@ -73306,6 +73306,392 @@
       </c>
       <c r="DX186">
         <v>10173</v>
+      </c>
+    </row>
+    <row r="187" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>44081</v>
+      </c>
+      <c r="B187">
+        <v>671848</v>
+      </c>
+      <c r="C187">
+        <v>2714</v>
+      </c>
+      <c r="D187">
+        <v>89341</v>
+      </c>
+      <c r="E187">
+        <v>65113</v>
+      </c>
+      <c r="F187">
+        <v>227976</v>
+      </c>
+      <c r="G187">
+        <v>26015</v>
+      </c>
+      <c r="H187">
+        <v>4417</v>
+      </c>
+      <c r="I187">
+        <v>3466</v>
+      </c>
+      <c r="J187">
+        <v>6897</v>
+      </c>
+      <c r="K187">
+        <v>6409</v>
+      </c>
+      <c r="L187">
+        <v>13010</v>
+      </c>
+      <c r="M187">
+        <v>3789</v>
+      </c>
+      <c r="N187">
+        <v>21139</v>
+      </c>
+      <c r="O187">
+        <v>26038</v>
+      </c>
+      <c r="P187">
+        <v>5934</v>
+      </c>
+      <c r="Q187">
+        <v>6260</v>
+      </c>
+      <c r="R187">
+        <v>13143</v>
+      </c>
+      <c r="S187">
+        <v>10227</v>
+      </c>
+      <c r="T187">
+        <v>15271</v>
+      </c>
+      <c r="U187">
+        <v>12880</v>
+      </c>
+      <c r="V187">
+        <v>3247</v>
+      </c>
+      <c r="W187">
+        <v>1617</v>
+      </c>
+      <c r="X187">
+        <v>7078</v>
+      </c>
+      <c r="Y187">
+        <v>21912</v>
+      </c>
+      <c r="Z187">
+        <v>12543</v>
+      </c>
+      <c r="AA187">
+        <v>8491</v>
+      </c>
+      <c r="AB187">
+        <v>50420</v>
+      </c>
+      <c r="AC187">
+        <v>1294</v>
+      </c>
+      <c r="AD187">
+        <v>372</v>
+      </c>
+      <c r="AE187">
+        <v>448</v>
+      </c>
+      <c r="AF187">
+        <v>454</v>
+      </c>
+      <c r="AG187">
+        <v>277</v>
+      </c>
+      <c r="AH187">
+        <v>202</v>
+      </c>
+      <c r="AI187">
+        <v>352</v>
+      </c>
+      <c r="AJ187">
+        <v>1985</v>
+      </c>
+      <c r="AK187">
+        <v>3762</v>
+      </c>
+      <c r="AL187">
+        <v>36684</v>
+      </c>
+      <c r="AM187">
+        <v>7625</v>
+      </c>
+      <c r="AN187">
+        <v>2432</v>
+      </c>
+      <c r="AO187">
+        <v>39512</v>
+      </c>
+      <c r="AP187">
+        <v>1009</v>
+      </c>
+      <c r="AQ187">
+        <v>20946</v>
+      </c>
+      <c r="AR187">
+        <v>1475</v>
+      </c>
+      <c r="AS187">
+        <v>8916</v>
+      </c>
+      <c r="AT187">
+        <v>1564</v>
+      </c>
+      <c r="AU187">
+        <v>1582</v>
+      </c>
+      <c r="AV187">
+        <v>5498</v>
+      </c>
+      <c r="AW187">
+        <v>1699</v>
+      </c>
+      <c r="AX187">
+        <v>951</v>
+      </c>
+      <c r="AY187">
+        <v>2481</v>
+      </c>
+      <c r="AZ187">
+        <v>2647</v>
+      </c>
+      <c r="BA187">
+        <v>51727</v>
+      </c>
+      <c r="BB187">
+        <v>12905</v>
+      </c>
+      <c r="BC187">
+        <v>3554</v>
+      </c>
+      <c r="BD187">
+        <v>8226</v>
+      </c>
+      <c r="BE187">
+        <v>4715</v>
+      </c>
+      <c r="BF187">
+        <v>280</v>
+      </c>
+      <c r="BG187">
+        <v>1418</v>
+      </c>
+      <c r="BH187">
+        <v>2626</v>
+      </c>
+      <c r="BI187">
+        <v>734</v>
+      </c>
+      <c r="BJ187">
+        <v>2067</v>
+      </c>
+      <c r="BK187">
+        <v>8795</v>
+      </c>
+      <c r="BL187">
+        <v>8854</v>
+      </c>
+      <c r="BM187">
+        <v>9194</v>
+      </c>
+      <c r="BN187">
+        <v>13969</v>
+      </c>
+      <c r="BO187">
+        <v>1893</v>
+      </c>
+      <c r="BP187">
+        <v>835</v>
+      </c>
+      <c r="BQ187">
+        <v>9471</v>
+      </c>
+      <c r="BR187">
+        <v>8139</v>
+      </c>
+      <c r="BS187" s="4">
+        <v>9537</v>
+      </c>
+      <c r="BT187" s="4">
+        <v>1822</v>
+      </c>
+      <c r="BU187" s="4">
+        <v>1692</v>
+      </c>
+      <c r="BV187" s="4">
+        <v>3827</v>
+      </c>
+      <c r="BW187" s="4">
+        <v>3829</v>
+      </c>
+      <c r="BX187" s="4">
+        <v>1165</v>
+      </c>
+      <c r="BY187" s="4">
+        <v>4987</v>
+      </c>
+      <c r="BZ187" s="4">
+        <v>2739</v>
+      </c>
+      <c r="CA187" s="4">
+        <v>1489</v>
+      </c>
+      <c r="CB187" s="4">
+        <v>800</v>
+      </c>
+      <c r="CC187" s="4">
+        <v>2381</v>
+      </c>
+      <c r="CD187" s="4">
+        <v>2036</v>
+      </c>
+      <c r="CE187" s="4">
+        <v>1502</v>
+      </c>
+      <c r="CF187" s="4">
+        <v>1116</v>
+      </c>
+      <c r="CG187" s="4">
+        <v>5597</v>
+      </c>
+      <c r="CH187" s="4">
+        <v>1638</v>
+      </c>
+      <c r="CI187" s="4">
+        <v>1251</v>
+      </c>
+      <c r="CJ187" s="4">
+        <v>1426</v>
+      </c>
+      <c r="CK187" s="4">
+        <v>1810</v>
+      </c>
+      <c r="CL187" s="4">
+        <v>1690</v>
+      </c>
+      <c r="CM187" s="4">
+        <v>2020</v>
+      </c>
+      <c r="CN187" s="4">
+        <v>1299</v>
+      </c>
+      <c r="CO187" s="4">
+        <v>1113</v>
+      </c>
+      <c r="CP187" s="4">
+        <v>1131</v>
+      </c>
+      <c r="CQ187" s="4">
+        <v>665</v>
+      </c>
+      <c r="CR187" s="4">
+        <v>3121</v>
+      </c>
+      <c r="CS187" s="4">
+        <v>1169</v>
+      </c>
+      <c r="CT187" s="4">
+        <v>827</v>
+      </c>
+      <c r="CU187" s="4">
+        <v>811</v>
+      </c>
+      <c r="CV187" s="4">
+        <v>1478</v>
+      </c>
+      <c r="CW187" s="4">
+        <v>1344</v>
+      </c>
+      <c r="CX187" s="4">
+        <v>691</v>
+      </c>
+      <c r="CY187" s="4">
+        <v>783</v>
+      </c>
+      <c r="CZ187" s="4">
+        <v>1047</v>
+      </c>
+      <c r="DA187" s="4">
+        <v>1313</v>
+      </c>
+      <c r="DB187" s="4">
+        <v>1140</v>
+      </c>
+      <c r="DC187" s="4">
+        <v>1263</v>
+      </c>
+      <c r="DD187" s="4">
+        <v>974</v>
+      </c>
+      <c r="DE187" s="4">
+        <v>319</v>
+      </c>
+      <c r="DF187" s="4">
+        <v>344</v>
+      </c>
+      <c r="DG187" s="4">
+        <v>734</v>
+      </c>
+      <c r="DH187" s="4">
+        <v>652</v>
+      </c>
+      <c r="DI187" s="4">
+        <v>429</v>
+      </c>
+      <c r="DJ187" s="4">
+        <v>534</v>
+      </c>
+      <c r="DK187" s="4">
+        <v>352</v>
+      </c>
+      <c r="DL187" s="4">
+        <v>629</v>
+      </c>
+      <c r="DM187" s="4">
+        <v>720</v>
+      </c>
+      <c r="DN187" s="4">
+        <v>517</v>
+      </c>
+      <c r="DO187" s="4">
+        <v>481</v>
+      </c>
+      <c r="DP187" s="4">
+        <v>372</v>
+      </c>
+      <c r="DQ187" s="4">
+        <v>517</v>
+      </c>
+      <c r="DR187">
+        <v>123215</v>
+      </c>
+      <c r="DS187">
+        <v>285130</v>
+      </c>
+      <c r="DT187">
+        <v>12434</v>
+      </c>
+      <c r="DU187">
+        <v>123013</v>
+      </c>
+      <c r="DV187">
+        <v>75889</v>
+      </c>
+      <c r="DW187">
+        <v>34841</v>
+      </c>
+      <c r="DX187">
+        <v>10421</v>
       </c>
     </row>
   </sheetData>

--- a/CasosColombia.xlsx
+++ b/CasosColombia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Matlab\MATLAB_R2019a\fitVirusCV19_v07_v17\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDD5D27C-378F-4898-8024-8B247D426FF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{49B53D92-49C6-4AA4-99F5-407A7A271324}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6C56C21C-B00B-4C62-A627-74DAE246E91A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="129">
   <si>
     <t>Fecha</t>
   </si>
@@ -1497,13 +1497,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13133E2-69F7-478D-A001-FD6CB4FB0C80}">
-  <dimension ref="A1:DX187"/>
+  <dimension ref="A1:DX188"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="CY158" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="CZ159" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A186" sqref="A186"/>
+      <selection pane="bottomRight" activeCell="DX188" sqref="DX188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8280,7 +8280,7 @@
         <v>0</v>
       </c>
       <c r="BQ18" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR18">
         <v>0</v>
@@ -8666,7 +8666,7 @@
         <v>0</v>
       </c>
       <c r="BQ19" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR19">
         <v>0</v>
@@ -9052,7 +9052,7 @@
         <v>0</v>
       </c>
       <c r="BQ20" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BR20">
         <v>0</v>
@@ -9438,7 +9438,7 @@
         <v>0</v>
       </c>
       <c r="BQ21" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BR21">
         <v>0</v>
@@ -9643,8 +9643,8 @@
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22">
-        <v>11</v>
+      <c r="I22" t="s">
+        <v>68</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -9824,7 +9824,7 @@
         <v>0</v>
       </c>
       <c r="BQ22" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BR22">
         <v>0</v>
@@ -10210,7 +10210,7 @@
         <v>0</v>
       </c>
       <c r="BQ23" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BR23">
         <v>0</v>
@@ -10596,7 +10596,7 @@
         <v>68</v>
       </c>
       <c r="BQ24" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BR24">
         <v>0</v>
@@ -10982,7 +10982,7 @@
         <v>1</v>
       </c>
       <c r="BQ25" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BR25">
         <v>0</v>
@@ -11368,7 +11368,7 @@
         <v>1</v>
       </c>
       <c r="BQ26" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BR26">
         <v>0</v>
@@ -11457,8 +11457,8 @@
       <c r="CT26" s="4">
         <v>0</v>
       </c>
-      <c r="CU26" s="4">
-        <v>2</v>
+      <c r="CU26" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="CV26" s="4">
         <v>0</v>
@@ -11754,7 +11754,7 @@
         <v>1</v>
       </c>
       <c r="BQ27">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="BR27">
         <v>0</v>
@@ -12140,7 +12140,7 @@
         <v>1</v>
       </c>
       <c r="BQ28">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="BR28">
         <v>0</v>
@@ -12526,7 +12526,7 @@
         <v>1</v>
       </c>
       <c r="BQ29">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="BR29">
         <v>0</v>
@@ -12912,7 +12912,7 @@
         <v>1</v>
       </c>
       <c r="BQ30">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="BR30">
         <v>0</v>
@@ -13298,7 +13298,7 @@
         <v>1</v>
       </c>
       <c r="BQ31">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="BR31">
         <v>0</v>
@@ -13684,7 +13684,7 @@
         <v>1</v>
       </c>
       <c r="BQ32">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="BR32">
         <v>0</v>
@@ -14070,7 +14070,7 @@
         <v>1</v>
       </c>
       <c r="BQ33">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="BR33">
         <v>0</v>
@@ -14456,7 +14456,7 @@
         <v>1</v>
       </c>
       <c r="BQ34">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="BR34">
         <v>0</v>
@@ -14620,8 +14620,8 @@
       <c r="DS34">
         <v>997</v>
       </c>
-      <c r="DT34">
-        <v>75</v>
+      <c r="DT34" t="s">
+        <v>68</v>
       </c>
       <c r="DU34">
         <v>0</v>
@@ -14842,7 +14842,7 @@
         <v>4</v>
       </c>
       <c r="BQ35">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="BR35">
         <v>0</v>
@@ -15228,7 +15228,7 @@
         <v>7</v>
       </c>
       <c r="BQ36">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="BR36">
         <v>0</v>
@@ -15614,7 +15614,7 @@
         <v>7</v>
       </c>
       <c r="BQ37">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="BR37">
         <v>0</v>
@@ -16000,7 +16000,7 @@
         <v>7</v>
       </c>
       <c r="BQ38" s="4">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BR38">
         <v>0</v>
@@ -16386,7 +16386,7 @@
         <v>7</v>
       </c>
       <c r="BQ39" s="4">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BR39">
         <v>0</v>
@@ -16772,7 +16772,7 @@
         <v>8</v>
       </c>
       <c r="BQ40" s="4">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BR40">
         <v>0</v>
@@ -17158,7 +17158,7 @@
         <v>8</v>
       </c>
       <c r="BQ41">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BR41">
         <v>0</v>
@@ -17544,7 +17544,7 @@
         <v>8</v>
       </c>
       <c r="BQ42">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BR42">
         <v>0</v>
@@ -17930,7 +17930,7 @@
         <v>8</v>
       </c>
       <c r="BQ43">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BR43">
         <v>0</v>
@@ -18316,7 +18316,7 @@
         <v>8</v>
       </c>
       <c r="BQ44">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BR44">
         <v>0</v>
@@ -18702,7 +18702,7 @@
         <v>8</v>
       </c>
       <c r="BQ45">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BR45">
         <v>0</v>
@@ -19088,7 +19088,7 @@
         <v>8</v>
       </c>
       <c r="BQ46">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="BR46">
         <v>0</v>
@@ -19474,7 +19474,7 @@
         <v>9</v>
       </c>
       <c r="BQ47">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="BR47">
         <v>0</v>
@@ -19860,7 +19860,7 @@
         <v>9</v>
       </c>
       <c r="BQ48">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="BR48">
         <v>0</v>
@@ -20246,7 +20246,7 @@
         <v>9</v>
       </c>
       <c r="BQ49">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="BR49">
         <v>0</v>
@@ -20632,7 +20632,7 @@
         <v>9</v>
       </c>
       <c r="BQ50">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="BR50">
         <v>0</v>
@@ -21018,7 +21018,7 @@
         <v>12</v>
       </c>
       <c r="BQ51">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="BR51">
         <v>0</v>
@@ -21404,7 +21404,7 @@
         <v>12</v>
       </c>
       <c r="BQ52">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="BR52">
         <v>0</v>
@@ -21790,7 +21790,7 @@
         <v>12</v>
       </c>
       <c r="BQ53">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="BR53">
         <v>0</v>
@@ -22176,7 +22176,7 @@
         <v>13</v>
       </c>
       <c r="BQ54">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="BR54">
         <v>0</v>
@@ -22562,7 +22562,7 @@
         <v>13</v>
       </c>
       <c r="BQ55">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="BR55">
         <v>0</v>
@@ -22948,7 +22948,7 @@
         <v>14</v>
       </c>
       <c r="BQ56">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="BR56">
         <v>0</v>
@@ -23334,7 +23334,7 @@
         <v>15</v>
       </c>
       <c r="BQ57">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="BR57">
         <v>0</v>
@@ -23720,7 +23720,7 @@
         <v>15</v>
       </c>
       <c r="BQ58">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="BR58">
         <v>0</v>
@@ -24106,7 +24106,7 @@
         <v>15</v>
       </c>
       <c r="BQ59">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="BR59">
         <v>0</v>
@@ -24492,7 +24492,7 @@
         <v>16</v>
       </c>
       <c r="BQ60">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="BR60">
         <v>0</v>
@@ -24878,7 +24878,7 @@
         <v>17</v>
       </c>
       <c r="BQ61">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="BR61">
         <v>0</v>
@@ -25264,7 +25264,7 @@
         <v>17</v>
       </c>
       <c r="BQ62">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="BR62">
         <v>0</v>
@@ -25650,7 +25650,7 @@
         <v>17</v>
       </c>
       <c r="BQ63">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="BR63">
         <v>0</v>
@@ -26036,7 +26036,7 @@
         <v>17</v>
       </c>
       <c r="BQ64">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="BR64">
         <v>0</v>
@@ -26422,7 +26422,7 @@
         <v>21</v>
       </c>
       <c r="BQ65">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="BR65">
         <v>0</v>
@@ -26808,7 +26808,7 @@
         <v>21</v>
       </c>
       <c r="BQ66">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="BR66">
         <v>0</v>
@@ -27194,7 +27194,7 @@
         <v>22</v>
       </c>
       <c r="BQ67">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="BR67">
         <v>0</v>
@@ -27580,7 +27580,7 @@
         <v>23</v>
       </c>
       <c r="BQ68">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="BR68">
         <v>0</v>
@@ -27966,7 +27966,7 @@
         <v>25</v>
       </c>
       <c r="BQ69">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="BR69">
         <v>0</v>
@@ -28352,7 +28352,7 @@
         <v>27</v>
       </c>
       <c r="BQ70">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="BR70">
         <v>0</v>
@@ -28738,7 +28738,7 @@
         <v>31</v>
       </c>
       <c r="BQ71">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="BR71">
         <v>0</v>
@@ -29124,7 +29124,7 @@
         <v>31</v>
       </c>
       <c r="BQ72">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="BR72">
         <v>0</v>
@@ -29510,7 +29510,7 @@
         <v>32</v>
       </c>
       <c r="BQ73">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="BR73">
         <v>0</v>
@@ -29896,7 +29896,7 @@
         <v>35</v>
       </c>
       <c r="BQ74">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="BR74">
         <v>0</v>
@@ -30282,7 +30282,7 @@
         <v>41</v>
       </c>
       <c r="BQ75">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="BR75">
         <v>0</v>
@@ -30668,7 +30668,7 @@
         <v>47</v>
       </c>
       <c r="BQ76">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="BR76">
         <v>0</v>
@@ -31054,7 +31054,7 @@
         <v>49</v>
       </c>
       <c r="BQ77">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="BR77">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>51</v>
       </c>
       <c r="BQ78">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="BR78">
         <v>0</v>
@@ -31826,7 +31826,7 @@
         <v>51</v>
       </c>
       <c r="BQ79">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="BR79">
         <v>1</v>
@@ -32212,7 +32212,7 @@
         <v>57</v>
       </c>
       <c r="BQ80">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="BR80">
         <v>1</v>
@@ -32598,7 +32598,7 @@
         <v>58</v>
       </c>
       <c r="BQ81">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="BR81" t="s">
         <v>68</v>
@@ -32984,7 +32984,7 @@
         <v>61</v>
       </c>
       <c r="BQ82">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="BR82">
         <v>2</v>
@@ -33288,8 +33288,8 @@
       <c r="AO83">
         <v>2085</v>
       </c>
-      <c r="AP83" s="12" t="s">
-        <v>68</v>
+      <c r="AP83" s="12">
+        <v>2</v>
       </c>
       <c r="AQ83">
         <v>2223</v>
@@ -33370,7 +33370,7 @@
         <v>62</v>
       </c>
       <c r="BQ83">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="BR83">
         <v>4</v>
@@ -33756,7 +33756,7 @@
         <v>67</v>
       </c>
       <c r="BQ84" s="7">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="BR84">
         <v>4</v>
@@ -34142,7 +34142,7 @@
         <v>69</v>
       </c>
       <c r="BQ85" s="7">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="BR85">
         <v>5</v>
@@ -34528,7 +34528,7 @@
         <v>72</v>
       </c>
       <c r="BQ86">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="BR86">
         <v>6</v>
@@ -34914,7 +34914,7 @@
         <v>80</v>
       </c>
       <c r="BQ87">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="BR87">
         <v>6</v>
@@ -35218,8 +35218,8 @@
       <c r="AO88">
         <v>2612</v>
       </c>
-      <c r="AP88" t="s">
-        <v>68</v>
+      <c r="AP88">
+        <v>7</v>
       </c>
       <c r="AQ88">
         <v>2975</v>
@@ -35300,7 +35300,7 @@
         <v>81</v>
       </c>
       <c r="BQ88">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="BR88">
         <v>6</v>
@@ -35686,7 +35686,7 @@
         <v>83</v>
       </c>
       <c r="BQ89">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="BR89">
         <v>6</v>
@@ -36072,7 +36072,7 @@
         <v>85</v>
       </c>
       <c r="BQ90">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="BR90">
         <v>7</v>
@@ -36458,7 +36458,7 @@
         <v>95</v>
       </c>
       <c r="BQ91">
-        <v>0</v>
+        <v>258</v>
       </c>
       <c r="BR91">
         <v>8</v>
@@ -36844,7 +36844,7 @@
         <v>95</v>
       </c>
       <c r="BQ92">
-        <v>0</v>
+        <v>306</v>
       </c>
       <c r="BR92">
         <v>9</v>
@@ -37230,7 +37230,7 @@
         <v>98</v>
       </c>
       <c r="BQ93">
-        <v>15</v>
+        <v>321</v>
       </c>
       <c r="BR93">
         <v>11</v>
@@ -37274,8 +37274,8 @@
       <c r="CE93" s="4">
         <v>10</v>
       </c>
-      <c r="CF93" s="4" t="s">
-        <v>68</v>
+      <c r="CF93" s="4">
+        <v>3</v>
       </c>
       <c r="CG93" s="4">
         <v>23</v>
@@ -37616,7 +37616,7 @@
         <v>98</v>
       </c>
       <c r="BQ94">
-        <v>24</v>
+        <v>330</v>
       </c>
       <c r="BR94">
         <v>12</v>
@@ -38002,7 +38002,7 @@
         <v>102</v>
       </c>
       <c r="BQ95">
-        <v>27</v>
+        <v>333</v>
       </c>
       <c r="BR95">
         <v>13</v>
@@ -38388,7 +38388,7 @@
         <v>106</v>
       </c>
       <c r="BQ96">
-        <v>43</v>
+        <v>349</v>
       </c>
       <c r="BR96">
         <v>14</v>
@@ -38774,7 +38774,7 @@
         <v>106</v>
       </c>
       <c r="BQ97">
-        <v>51</v>
+        <v>357</v>
       </c>
       <c r="BR97">
         <v>20</v>
@@ -39160,7 +39160,7 @@
         <v>107</v>
       </c>
       <c r="BQ98">
-        <v>59</v>
+        <v>365</v>
       </c>
       <c r="BR98">
         <v>22</v>
@@ -39465,7 +39465,7 @@
         <v>3881</v>
       </c>
       <c r="AP99">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AQ99">
         <v>4303</v>
@@ -39546,7 +39546,7 @@
         <v>109</v>
       </c>
       <c r="BQ99">
-        <v>60</v>
+        <v>366</v>
       </c>
       <c r="BR99">
         <v>24</v>
@@ -39851,7 +39851,7 @@
         <v>3991</v>
       </c>
       <c r="AP100">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AQ100">
         <v>4423</v>
@@ -39932,7 +39932,7 @@
         <v>114</v>
       </c>
       <c r="BQ100">
-        <v>63</v>
+        <v>369</v>
       </c>
       <c r="BR100">
         <v>30</v>
@@ -40237,7 +40237,7 @@
         <v>4135</v>
       </c>
       <c r="AP101">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AQ101">
         <v>4564</v>
@@ -40318,7 +40318,7 @@
         <v>117</v>
       </c>
       <c r="BQ101">
-        <v>71</v>
+        <v>377</v>
       </c>
       <c r="BR101">
         <v>31</v>
@@ -40704,7 +40704,7 @@
         <v>120</v>
       </c>
       <c r="BQ102">
-        <v>76</v>
+        <v>382</v>
       </c>
       <c r="BR102">
         <v>32</v>
@@ -41008,8 +41008,8 @@
       <c r="AO103">
         <v>4474</v>
       </c>
-      <c r="AP103">
-        <v>195</v>
+      <c r="AP103" t="s">
+        <v>68</v>
       </c>
       <c r="AQ103">
         <v>4859</v>
@@ -41090,7 +41090,7 @@
         <v>123</v>
       </c>
       <c r="BQ103">
-        <v>82</v>
+        <v>388</v>
       </c>
       <c r="BR103">
         <v>40</v>
@@ -41394,8 +41394,8 @@
       <c r="AO104">
         <v>4602</v>
       </c>
-      <c r="AP104" s="12" t="s">
-        <v>68</v>
+      <c r="AP104" s="12">
+        <v>251</v>
       </c>
       <c r="AQ104">
         <v>4999</v>
@@ -41476,7 +41476,7 @@
         <v>128</v>
       </c>
       <c r="BQ104">
-        <v>85</v>
+        <v>391</v>
       </c>
       <c r="BR104">
         <v>41</v>
@@ -41781,7 +41781,7 @@
         <v>4770</v>
       </c>
       <c r="AP105">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AQ105">
         <v>5116</v>
@@ -41862,7 +41862,7 @@
         <v>130</v>
       </c>
       <c r="BQ105">
-        <v>94</v>
+        <v>400</v>
       </c>
       <c r="BR105">
         <v>44</v>
@@ -42167,7 +42167,7 @@
         <v>4992</v>
       </c>
       <c r="AP106">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AQ106">
         <v>5350</v>
@@ -42248,7 +42248,7 @@
         <v>139</v>
       </c>
       <c r="BQ106">
-        <v>103</v>
+        <v>409</v>
       </c>
       <c r="BR106">
         <v>47</v>
@@ -42553,7 +42553,7 @@
         <v>5157</v>
       </c>
       <c r="AP107">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AQ107">
         <v>5711</v>
@@ -42633,8 +42633,8 @@
       <c r="BP107">
         <v>152</v>
       </c>
-      <c r="BQ107" t="s">
-        <v>68</v>
+      <c r="BQ107">
+        <v>418</v>
       </c>
       <c r="BR107">
         <v>63</v>
@@ -42939,7 +42939,7 @@
         <v>5317</v>
       </c>
       <c r="AP108">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AQ108">
         <v>5928</v>
@@ -43019,8 +43019,8 @@
       <c r="BP108">
         <v>158</v>
       </c>
-      <c r="BQ108" t="s">
-        <v>68</v>
+      <c r="BQ108">
+        <v>465</v>
       </c>
       <c r="BR108">
         <v>73</v>
@@ -43064,8 +43064,8 @@
       <c r="CE108" s="4">
         <v>25</v>
       </c>
-      <c r="CF108" s="4">
-        <v>30</v>
+      <c r="CF108" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="CG108" s="4">
         <v>25</v>
@@ -43325,7 +43325,7 @@
         <v>5520</v>
       </c>
       <c r="AP109">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AQ109">
         <v>6168</v>
@@ -43406,7 +43406,7 @@
         <v>162</v>
       </c>
       <c r="BQ109">
-        <v>167</v>
+        <v>471</v>
       </c>
       <c r="BR109">
         <v>103</v>
@@ -43711,7 +43711,7 @@
         <v>5628</v>
       </c>
       <c r="AP110">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AQ110">
         <v>6437</v>
@@ -43792,7 +43792,7 @@
         <v>178</v>
       </c>
       <c r="BQ110">
-        <v>179</v>
+        <v>483</v>
       </c>
       <c r="BR110">
         <v>104</v>
@@ -44097,7 +44097,7 @@
         <v>5818</v>
       </c>
       <c r="AP111">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AQ111">
         <v>6596</v>
@@ -44178,7 +44178,7 @@
         <v>183</v>
       </c>
       <c r="BQ111">
-        <v>182</v>
+        <v>486</v>
       </c>
       <c r="BR111">
         <v>129</v>
@@ -44482,8 +44482,8 @@
       <c r="AO112">
         <v>6134</v>
       </c>
-      <c r="AP112" t="s">
-        <v>68</v>
+      <c r="AP112">
+        <v>298</v>
       </c>
       <c r="AQ112">
         <v>6779</v>
@@ -44564,7 +44564,7 @@
         <v>186</v>
       </c>
       <c r="BQ112">
-        <v>198</v>
+        <v>502</v>
       </c>
       <c r="BR112">
         <v>147</v>
@@ -44869,7 +44869,7 @@
         <v>6417</v>
       </c>
       <c r="AP113">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AQ113">
         <v>7113</v>
@@ -44950,7 +44950,7 @@
         <v>202</v>
       </c>
       <c r="BQ113">
-        <v>200</v>
+        <v>504</v>
       </c>
       <c r="BR113">
         <v>160</v>
@@ -45255,7 +45255,7 @@
         <v>6626</v>
       </c>
       <c r="AP114">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AQ114">
         <v>7353</v>
@@ -45336,7 +45336,7 @@
         <v>210</v>
       </c>
       <c r="BQ114">
-        <v>219</v>
+        <v>523</v>
       </c>
       <c r="BR114">
         <v>165</v>
@@ -45641,7 +45641,7 @@
         <v>6893</v>
       </c>
       <c r="AP115">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AQ115">
         <v>7666</v>
@@ -45722,7 +45722,7 @@
         <v>225</v>
       </c>
       <c r="BQ115">
-        <v>258</v>
+        <v>562</v>
       </c>
       <c r="BR115">
         <v>177</v>
@@ -46027,7 +46027,7 @@
         <v>7022</v>
       </c>
       <c r="AP116">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AQ116">
         <v>7881</v>
@@ -46108,7 +46108,7 @@
         <v>233</v>
       </c>
       <c r="BQ116">
-        <v>293</v>
+        <v>598</v>
       </c>
       <c r="BR116">
         <v>193</v>
@@ -46413,7 +46413,7 @@
         <v>7114</v>
       </c>
       <c r="AP117">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AQ117">
         <v>8006</v>
@@ -46494,7 +46494,7 @@
         <v>242</v>
       </c>
       <c r="BQ117">
-        <v>320</v>
+        <v>625</v>
       </c>
       <c r="BR117">
         <v>199</v>
@@ -46799,7 +46799,7 @@
         <v>7372</v>
       </c>
       <c r="AP118">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AQ118">
         <v>8171</v>
@@ -46880,7 +46880,7 @@
         <v>244</v>
       </c>
       <c r="BQ118">
-        <v>336</v>
+        <v>641</v>
       </c>
       <c r="BR118">
         <v>220</v>
@@ -47185,7 +47185,7 @@
         <v>7797</v>
       </c>
       <c r="AP119">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AQ119">
         <v>8389</v>
@@ -47266,7 +47266,7 @@
         <v>251</v>
       </c>
       <c r="BQ119">
-        <v>360</v>
+        <v>665</v>
       </c>
       <c r="BR119">
         <v>241</v>
@@ -47571,7 +47571,7 @@
         <v>8097</v>
       </c>
       <c r="AP120">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AQ120">
         <v>8609</v>
@@ -47652,7 +47652,7 @@
         <v>259</v>
       </c>
       <c r="BQ120">
-        <v>363</v>
+        <v>668</v>
       </c>
       <c r="BR120">
         <v>258</v>
@@ -47957,7 +47957,7 @@
         <v>8344</v>
       </c>
       <c r="AP121">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AQ121">
         <v>8820</v>
@@ -48038,7 +48038,7 @@
         <v>267</v>
       </c>
       <c r="BQ121">
-        <v>397</v>
+        <v>702</v>
       </c>
       <c r="BR121">
         <v>270</v>
@@ -48343,7 +48343,7 @@
         <v>8723</v>
       </c>
       <c r="AP122">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AQ122">
         <v>9067</v>
@@ -48424,7 +48424,7 @@
         <v>284</v>
       </c>
       <c r="BQ122" s="11">
-        <v>463</v>
+        <v>768</v>
       </c>
       <c r="BR122">
         <v>284</v>
@@ -48729,7 +48729,7 @@
         <v>8865</v>
       </c>
       <c r="AP123">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AQ123">
         <v>9396</v>
@@ -48810,7 +48810,7 @@
         <v>295</v>
       </c>
       <c r="BQ123" s="11">
-        <v>486</v>
+        <v>791</v>
       </c>
       <c r="BR123">
         <v>298</v>
@@ -49115,7 +49115,7 @@
         <v>9044</v>
       </c>
       <c r="AP124">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AQ124">
         <v>9596</v>
@@ -49196,7 +49196,7 @@
         <v>302</v>
       </c>
       <c r="BQ124">
-        <v>504</v>
+        <v>809</v>
       </c>
       <c r="BR124">
         <v>304</v>
@@ -49501,7 +49501,7 @@
         <v>9308</v>
       </c>
       <c r="AP125">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AQ125">
         <v>9801</v>
@@ -49582,7 +49582,7 @@
         <v>307</v>
       </c>
       <c r="BQ125">
-        <v>518</v>
+        <v>823</v>
       </c>
       <c r="BR125">
         <v>325</v>
@@ -49887,7 +49887,7 @@
         <v>9621</v>
       </c>
       <c r="AP126">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AQ126">
         <v>10056</v>
@@ -49968,7 +49968,7 @@
         <v>320</v>
       </c>
       <c r="BQ126">
-        <v>533</v>
+        <v>838</v>
       </c>
       <c r="BR126">
         <v>342</v>
@@ -50273,7 +50273,7 @@
         <v>10017</v>
       </c>
       <c r="AP127">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AQ127">
         <v>10252</v>
@@ -50354,7 +50354,7 @@
         <v>332</v>
       </c>
       <c r="BQ127">
-        <v>546</v>
+        <v>851</v>
       </c>
       <c r="BR127">
         <v>353</v>
@@ -50659,7 +50659,7 @@
         <v>10473</v>
       </c>
       <c r="AP128">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AQ128">
         <v>10484</v>
@@ -50740,7 +50740,7 @@
         <v>340</v>
       </c>
       <c r="BQ128">
-        <v>570</v>
+        <v>875</v>
       </c>
       <c r="BR128">
         <v>412</v>
@@ -51045,7 +51045,7 @@
         <v>10690</v>
       </c>
       <c r="AP129">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AQ129">
         <v>10625</v>
@@ -51126,7 +51126,7 @@
         <v>349</v>
       </c>
       <c r="BQ129">
-        <v>578</v>
+        <v>883</v>
       </c>
       <c r="BR129">
         <v>445</v>
@@ -51431,7 +51431,7 @@
         <v>10884</v>
       </c>
       <c r="AP130">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AQ130">
         <v>10876</v>
@@ -51512,7 +51512,7 @@
         <v>364</v>
       </c>
       <c r="BQ130">
-        <v>603</v>
+        <v>908</v>
       </c>
       <c r="BR130">
         <v>472</v>
@@ -51817,7 +51817,7 @@
         <v>11117</v>
       </c>
       <c r="AP131">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AQ131">
         <v>10999</v>
@@ -51898,7 +51898,7 @@
         <v>371</v>
       </c>
       <c r="BQ131">
-        <v>618</v>
+        <v>923</v>
       </c>
       <c r="BR131" s="10" t="s">
         <v>68</v>
@@ -52203,7 +52203,7 @@
         <v>11391</v>
       </c>
       <c r="AP132">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AQ132">
         <v>11212</v>
@@ -52284,7 +52284,7 @@
         <v>387</v>
       </c>
       <c r="BQ132">
-        <v>642</v>
+        <v>947</v>
       </c>
       <c r="BR132">
         <v>528</v>
@@ -52589,7 +52589,7 @@
         <v>11855</v>
       </c>
       <c r="AP133">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AQ133">
         <v>11422</v>
@@ -52670,7 +52670,7 @@
         <v>399</v>
       </c>
       <c r="BQ133">
-        <v>681</v>
+        <v>986</v>
       </c>
       <c r="BR133">
         <v>556</v>
@@ -52975,7 +52975,7 @@
         <v>12155</v>
       </c>
       <c r="AP134">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AQ134">
         <v>12105</v>
@@ -53056,7 +53056,7 @@
         <v>431</v>
       </c>
       <c r="BQ134">
-        <v>747</v>
+        <v>1052</v>
       </c>
       <c r="BR134">
         <v>621</v>
@@ -53361,7 +53361,7 @@
         <v>12571</v>
       </c>
       <c r="AP135">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AQ135">
         <v>12543</v>
@@ -53442,7 +53442,7 @@
         <v>445</v>
       </c>
       <c r="BQ135">
-        <v>786</v>
+        <v>1091</v>
       </c>
       <c r="BR135">
         <v>665</v>
@@ -53747,7 +53747,7 @@
         <v>13140</v>
       </c>
       <c r="AP136">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="AQ136">
         <v>13057</v>
@@ -53828,7 +53828,7 @@
         <v>465</v>
       </c>
       <c r="BQ136">
-        <v>835</v>
+        <v>1140</v>
       </c>
       <c r="BR136">
         <v>718</v>
@@ -54133,7 +54133,7 @@
         <v>13312</v>
       </c>
       <c r="AP137">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="AQ137">
         <v>13240</v>
@@ -54213,8 +54213,8 @@
       <c r="BP137">
         <v>472</v>
       </c>
-      <c r="BQ137" t="s">
-        <v>68</v>
+      <c r="BQ137">
+        <v>1233</v>
       </c>
       <c r="BR137">
         <v>755</v>
@@ -54518,8 +54518,8 @@
       <c r="AO138">
         <v>13678</v>
       </c>
-      <c r="AP138" s="12" t="s">
-        <v>68</v>
+      <c r="AP138" s="12">
+        <v>384</v>
       </c>
       <c r="AQ138">
         <v>13453</v>
@@ -54599,8 +54599,8 @@
       <c r="BP138">
         <v>485</v>
       </c>
-      <c r="BQ138" t="s">
-        <v>68</v>
+      <c r="BQ138">
+        <v>1336</v>
       </c>
       <c r="BR138">
         <v>789</v>
@@ -54905,7 +54905,7 @@
         <v>13998</v>
       </c>
       <c r="AP139">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AQ139">
         <v>13703</v>
@@ -54986,7 +54986,7 @@
         <v>493</v>
       </c>
       <c r="BQ139">
-        <v>1042</v>
+        <v>1345</v>
       </c>
       <c r="BR139">
         <v>811</v>
@@ -55291,7 +55291,7 @@
         <v>14623</v>
       </c>
       <c r="AP140">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AQ140">
         <v>13863</v>
@@ -55372,7 +55372,7 @@
         <v>517</v>
       </c>
       <c r="BQ140">
-        <v>1095</v>
+        <v>1398</v>
       </c>
       <c r="BR140">
         <v>869</v>
@@ -55677,7 +55677,7 @@
         <v>15218</v>
       </c>
       <c r="AP141">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AQ141">
         <v>14014</v>
@@ -55758,7 +55758,7 @@
         <v>530</v>
       </c>
       <c r="BQ141">
-        <v>1164</v>
+        <v>1467</v>
       </c>
       <c r="BR141">
         <v>910</v>
@@ -56063,7 +56063,7 @@
         <v>15611</v>
       </c>
       <c r="AP142">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="AQ142">
         <v>14128</v>
@@ -56144,7 +56144,7 @@
         <v>538</v>
       </c>
       <c r="BQ142">
-        <v>1216</v>
+        <v>1519</v>
       </c>
       <c r="BR142">
         <v>931</v>
@@ -56449,7 +56449,7 @@
         <v>15999</v>
       </c>
       <c r="AP143">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="AQ143">
         <v>14258</v>
@@ -56530,7 +56530,7 @@
         <v>550</v>
       </c>
       <c r="BQ143">
-        <v>1270</v>
+        <v>1573</v>
       </c>
       <c r="BR143">
         <v>1035</v>
@@ -56835,7 +56835,7 @@
         <v>16521</v>
       </c>
       <c r="AP144">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="AQ144">
         <v>14597</v>
@@ -56916,7 +56916,7 @@
         <v>561</v>
       </c>
       <c r="BQ144">
-        <v>1328</v>
+        <v>1631</v>
       </c>
       <c r="BR144">
         <v>1057</v>
@@ -57221,7 +57221,7 @@
         <v>16942</v>
       </c>
       <c r="AP145">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AQ145">
         <v>14663</v>
@@ -57302,7 +57302,7 @@
         <v>574</v>
       </c>
       <c r="BQ145">
-        <v>1413</v>
+        <v>1716</v>
       </c>
       <c r="BR145">
         <v>1080</v>
@@ -57607,7 +57607,7 @@
         <v>17478</v>
       </c>
       <c r="AP146">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AQ146">
         <v>15027</v>
@@ -57688,7 +57688,7 @@
         <v>587</v>
       </c>
       <c r="BQ146">
-        <v>1556</v>
+        <v>1858</v>
       </c>
       <c r="BR146">
         <v>1138</v>
@@ -57993,7 +57993,7 @@
         <v>17797</v>
       </c>
       <c r="AP147">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AQ147">
         <v>15209</v>
@@ -58074,7 +58074,7 @@
         <v>602</v>
       </c>
       <c r="BQ147">
-        <v>1630</v>
+        <v>1932</v>
       </c>
       <c r="BR147">
         <v>1226</v>
@@ -58379,7 +58379,7 @@
         <v>18499</v>
       </c>
       <c r="AP148">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AQ148">
         <v>15422</v>
@@ -58460,7 +58460,7 @@
         <v>608</v>
       </c>
       <c r="BQ148">
-        <v>1691</v>
+        <v>1993</v>
       </c>
       <c r="BR148">
         <v>1359</v>
@@ -58846,7 +58846,7 @@
         <v>613</v>
       </c>
       <c r="BQ149">
-        <v>1786</v>
+        <v>2088</v>
       </c>
       <c r="BR149">
         <v>1478</v>
@@ -59232,7 +59232,7 @@
         <v>620</v>
       </c>
       <c r="BQ150">
-        <v>1936</v>
+        <v>2237</v>
       </c>
       <c r="BR150">
         <v>1560</v>
@@ -59537,7 +59537,7 @@
         <v>20357</v>
       </c>
       <c r="AP151">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AQ151">
         <v>16167</v>
@@ -59618,7 +59618,7 @@
         <v>631</v>
       </c>
       <c r="BQ151">
-        <v>2054</v>
+        <v>2355</v>
       </c>
       <c r="BR151">
         <v>1620</v>
@@ -59923,7 +59923,7 @@
         <v>21136</v>
       </c>
       <c r="AP152">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AQ152">
         <v>16361</v>
@@ -60004,7 +60004,7 @@
         <v>638</v>
       </c>
       <c r="BQ152">
-        <v>2086</v>
+        <v>2386</v>
       </c>
       <c r="BR152">
         <v>1710</v>
@@ -60309,7 +60309,7 @@
         <v>21491</v>
       </c>
       <c r="AP153">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AQ153">
         <v>16429</v>
@@ -60390,7 +60390,7 @@
         <v>644</v>
       </c>
       <c r="BQ153">
-        <v>2227</v>
+        <v>2527</v>
       </c>
       <c r="BR153">
         <v>1755</v>
@@ -60776,7 +60776,7 @@
         <v>653</v>
       </c>
       <c r="BQ154">
-        <v>2317</v>
+        <v>2617</v>
       </c>
       <c r="BR154">
         <v>1841</v>
@@ -61162,7 +61162,7 @@
         <v>657</v>
       </c>
       <c r="BQ155">
-        <v>2431</v>
+        <v>2731</v>
       </c>
       <c r="BR155">
         <v>2009</v>
@@ -61548,7 +61548,7 @@
         <v>663</v>
       </c>
       <c r="BQ156">
-        <v>2606</v>
+        <v>2906</v>
       </c>
       <c r="BR156">
         <v>2187</v>
@@ -61853,7 +61853,7 @@
         <v>24113</v>
       </c>
       <c r="AP157">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AQ157">
         <v>17045</v>
@@ -61934,7 +61934,7 @@
         <v>669</v>
       </c>
       <c r="BQ157">
-        <v>2711</v>
+        <v>3011</v>
       </c>
       <c r="BR157">
         <v>2305</v>
@@ -62239,7 +62239,7 @@
         <v>24761</v>
       </c>
       <c r="AP158">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AQ158">
         <v>17207</v>
@@ -62320,7 +62320,7 @@
         <v>674</v>
       </c>
       <c r="BQ158">
-        <v>2782</v>
+        <v>3082</v>
       </c>
       <c r="BR158">
         <v>2469</v>
@@ -62706,7 +62706,7 @@
         <v>674</v>
       </c>
       <c r="BQ159">
-        <v>2818</v>
+        <v>3118</v>
       </c>
       <c r="BR159">
         <v>2643</v>
@@ -63092,7 +63092,7 @@
         <v>679</v>
       </c>
       <c r="BQ160">
-        <v>3058</v>
+        <v>3358</v>
       </c>
       <c r="BR160">
         <v>2826</v>
@@ -63478,7 +63478,7 @@
         <v>684</v>
       </c>
       <c r="BQ161">
-        <v>3108</v>
+        <v>3408</v>
       </c>
       <c r="BR161">
         <v>3053</v>
@@ -63864,7 +63864,7 @@
         <v>692</v>
       </c>
       <c r="BQ162">
-        <v>3279</v>
+        <v>3578</v>
       </c>
       <c r="BR162">
         <v>3138</v>
@@ -64250,7 +64250,7 @@
         <v>698</v>
       </c>
       <c r="BQ163">
-        <v>3417</v>
+        <v>3716</v>
       </c>
       <c r="BR163">
         <v>3240</v>
@@ -64636,7 +64636,7 @@
         <v>700</v>
       </c>
       <c r="BQ164">
-        <v>3531</v>
+        <v>3829</v>
       </c>
       <c r="BR164">
         <v>3412</v>
@@ -65022,7 +65022,7 @@
         <v>702</v>
       </c>
       <c r="BQ165">
-        <v>3757</v>
+        <v>4055</v>
       </c>
       <c r="BR165">
         <v>3580</v>
@@ -65408,7 +65408,7 @@
         <v>704</v>
       </c>
       <c r="BQ166">
-        <v>3893</v>
+        <v>4191</v>
       </c>
       <c r="BR166">
         <v>3660</v>
@@ -65794,7 +65794,7 @@
         <v>722</v>
       </c>
       <c r="BQ167">
-        <v>3995</v>
+        <v>4294</v>
       </c>
       <c r="BR167">
         <v>3925</v>
@@ -66180,7 +66180,7 @@
         <v>727</v>
       </c>
       <c r="BQ168">
-        <v>4304</v>
+        <v>4603</v>
       </c>
       <c r="BR168">
         <v>4134</v>
@@ -66485,7 +66485,7 @@
         <v>32537</v>
       </c>
       <c r="AP169">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="AQ169">
         <v>18631</v>
@@ -66566,7 +66566,7 @@
         <v>732</v>
       </c>
       <c r="BQ169">
-        <v>4717</v>
+        <v>5013</v>
       </c>
       <c r="BR169">
         <v>4407</v>
@@ -66871,7 +66871,7 @@
         <v>33034</v>
       </c>
       <c r="AP170">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="AQ170">
         <v>18708</v>
@@ -66952,7 +66952,7 @@
         <v>739</v>
       </c>
       <c r="BQ170">
-        <v>4893</v>
+        <v>5189</v>
       </c>
       <c r="BR170">
         <v>4544</v>
@@ -67257,7 +67257,7 @@
         <v>33564</v>
       </c>
       <c r="AP171">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="AQ171">
         <v>19220</v>
@@ -67338,7 +67338,7 @@
         <v>759</v>
       </c>
       <c r="BQ171">
-        <v>5324</v>
+        <v>5618</v>
       </c>
       <c r="BR171">
         <v>4622</v>
@@ -67643,7 +67643,7 @@
         <v>33837</v>
       </c>
       <c r="AP172">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="AQ172">
         <v>19273</v>
@@ -67724,7 +67724,7 @@
         <v>761</v>
       </c>
       <c r="BQ172">
-        <v>5415</v>
+        <v>5709</v>
       </c>
       <c r="BR172">
         <v>4788</v>
@@ -68110,7 +68110,7 @@
         <v>769</v>
       </c>
       <c r="BQ173">
-        <v>5530</v>
+        <v>5838</v>
       </c>
       <c r="BR173">
         <v>5077</v>
@@ -68496,7 +68496,7 @@
         <v>788</v>
       </c>
       <c r="BQ174">
-        <v>5799</v>
+        <v>6102</v>
       </c>
       <c r="BR174">
         <v>5484</v>
@@ -68882,7 +68882,7 @@
         <v>793</v>
       </c>
       <c r="BQ175">
-        <v>6042</v>
+        <v>6344</v>
       </c>
       <c r="BR175">
         <v>5560</v>
@@ -69268,7 +69268,7 @@
         <v>812</v>
       </c>
       <c r="BQ176">
-        <v>6484</v>
+        <v>6786</v>
       </c>
       <c r="BR176">
         <v>5722</v>
@@ -69654,7 +69654,7 @@
         <v>813</v>
       </c>
       <c r="BQ177">
-        <v>6746</v>
+        <v>7047</v>
       </c>
       <c r="BR177">
         <v>6021</v>
@@ -70040,7 +70040,7 @@
         <v>820</v>
       </c>
       <c r="BQ178">
-        <v>7054</v>
+        <v>7356</v>
       </c>
       <c r="BR178">
         <v>6247</v>
@@ -70426,7 +70426,7 @@
         <v>821</v>
       </c>
       <c r="BQ179">
-        <v>7483</v>
+        <v>7785</v>
       </c>
       <c r="BR179">
         <v>6517</v>
@@ -70812,7 +70812,7 @@
         <v>823</v>
       </c>
       <c r="BQ180">
-        <v>7750</v>
+        <v>8052</v>
       </c>
       <c r="BR180">
         <v>6684</v>
@@ -71198,7 +71198,7 @@
         <v>825</v>
       </c>
       <c r="BQ181">
-        <v>8018</v>
+        <v>8320</v>
       </c>
       <c r="BR181">
         <v>6987</v>
@@ -71584,7 +71584,7 @@
         <v>825</v>
       </c>
       <c r="BQ182">
-        <v>8492</v>
+        <v>8794</v>
       </c>
       <c r="BR182">
         <v>7218</v>
@@ -71970,7 +71970,7 @@
         <v>828</v>
       </c>
       <c r="BQ183">
-        <v>8643</v>
+        <v>8945</v>
       </c>
       <c r="BR183">
         <v>7297</v>
@@ -72356,7 +72356,7 @@
         <v>829</v>
       </c>
       <c r="BQ184">
-        <v>8821</v>
+        <v>9123</v>
       </c>
       <c r="BR184">
         <v>7538</v>
@@ -72742,7 +72742,7 @@
         <v>830</v>
       </c>
       <c r="BQ185">
-        <v>9175</v>
+        <v>9481</v>
       </c>
       <c r="BR185">
         <v>7818</v>
@@ -73128,7 +73128,7 @@
         <v>835</v>
       </c>
       <c r="BQ186">
-        <v>9396</v>
+        <v>9702</v>
       </c>
       <c r="BR186">
         <v>8011</v>
@@ -73514,7 +73514,7 @@
         <v>835</v>
       </c>
       <c r="BQ187">
-        <v>9471</v>
+        <v>9777</v>
       </c>
       <c r="BR187">
         <v>8139</v>
@@ -73692,6 +73692,392 @@
       </c>
       <c r="DX187">
         <v>10421</v>
+      </c>
+    </row>
+    <row r="188" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>44082</v>
+      </c>
+      <c r="B188">
+        <v>679513</v>
+      </c>
+      <c r="C188">
+        <v>2719</v>
+      </c>
+      <c r="D188">
+        <v>90061</v>
+      </c>
+      <c r="E188">
+        <v>65294</v>
+      </c>
+      <c r="F188">
+        <v>230120</v>
+      </c>
+      <c r="G188">
+        <v>26110</v>
+      </c>
+      <c r="H188">
+        <v>4527</v>
+      </c>
+      <c r="I188">
+        <v>3546</v>
+      </c>
+      <c r="J188">
+        <v>7030</v>
+      </c>
+      <c r="K188">
+        <v>6647</v>
+      </c>
+      <c r="L188">
+        <v>13488</v>
+      </c>
+      <c r="M188">
+        <v>3797</v>
+      </c>
+      <c r="N188">
+        <v>21407</v>
+      </c>
+      <c r="O188">
+        <v>26442</v>
+      </c>
+      <c r="P188">
+        <v>6042</v>
+      </c>
+      <c r="Q188">
+        <v>6529</v>
+      </c>
+      <c r="R188">
+        <v>13322</v>
+      </c>
+      <c r="S188">
+        <v>10476</v>
+      </c>
+      <c r="T188">
+        <v>15462</v>
+      </c>
+      <c r="U188">
+        <v>13012</v>
+      </c>
+      <c r="V188">
+        <v>3274</v>
+      </c>
+      <c r="W188">
+        <v>1661</v>
+      </c>
+      <c r="X188">
+        <v>7257</v>
+      </c>
+      <c r="Y188">
+        <v>22295</v>
+      </c>
+      <c r="Z188">
+        <v>12654</v>
+      </c>
+      <c r="AA188">
+        <v>8672</v>
+      </c>
+      <c r="AB188">
+        <v>50986</v>
+      </c>
+      <c r="AC188">
+        <v>1322</v>
+      </c>
+      <c r="AD188">
+        <v>386</v>
+      </c>
+      <c r="AE188">
+        <v>493</v>
+      </c>
+      <c r="AF188">
+        <v>455</v>
+      </c>
+      <c r="AG188">
+        <v>327</v>
+      </c>
+      <c r="AH188">
+        <v>208</v>
+      </c>
+      <c r="AI188">
+        <v>369</v>
+      </c>
+      <c r="AJ188">
+        <v>1992</v>
+      </c>
+      <c r="AK188">
+        <v>3880</v>
+      </c>
+      <c r="AL188">
+        <v>36798</v>
+      </c>
+      <c r="AM188">
+        <v>7735</v>
+      </c>
+      <c r="AN188">
+        <v>2473</v>
+      </c>
+      <c r="AO188">
+        <v>39919</v>
+      </c>
+      <c r="AP188">
+        <v>1014</v>
+      </c>
+      <c r="AQ188">
+        <v>21023</v>
+      </c>
+      <c r="AR188">
+        <v>1480</v>
+      </c>
+      <c r="AS188">
+        <v>9017</v>
+      </c>
+      <c r="AT188">
+        <v>1571</v>
+      </c>
+      <c r="AU188">
+        <v>1581</v>
+      </c>
+      <c r="AV188">
+        <v>5644</v>
+      </c>
+      <c r="AW188">
+        <v>1712</v>
+      </c>
+      <c r="AX188">
+        <v>952</v>
+      </c>
+      <c r="AY188">
+        <v>2486</v>
+      </c>
+      <c r="AZ188">
+        <v>2649</v>
+      </c>
+      <c r="BA188">
+        <v>52176</v>
+      </c>
+      <c r="BB188">
+        <v>13072</v>
+      </c>
+      <c r="BC188">
+        <v>3737</v>
+      </c>
+      <c r="BD188">
+        <v>8343</v>
+      </c>
+      <c r="BE188">
+        <v>4842</v>
+      </c>
+      <c r="BF188">
+        <v>280</v>
+      </c>
+      <c r="BG188">
+        <v>1424</v>
+      </c>
+      <c r="BH188">
+        <v>2628</v>
+      </c>
+      <c r="BI188">
+        <v>734</v>
+      </c>
+      <c r="BJ188">
+        <v>2091</v>
+      </c>
+      <c r="BK188">
+        <v>8907</v>
+      </c>
+      <c r="BL188">
+        <v>8908</v>
+      </c>
+      <c r="BM188">
+        <v>9296</v>
+      </c>
+      <c r="BN188">
+        <v>13988</v>
+      </c>
+      <c r="BO188">
+        <v>1910</v>
+      </c>
+      <c r="BP188">
+        <v>840</v>
+      </c>
+      <c r="BQ188">
+        <v>10133</v>
+      </c>
+      <c r="BR188">
+        <v>8435</v>
+      </c>
+      <c r="BS188" s="4">
+        <v>9674</v>
+      </c>
+      <c r="BT188" s="4">
+        <v>1851</v>
+      </c>
+      <c r="BU188" s="4">
+        <v>1723</v>
+      </c>
+      <c r="BV188" s="4">
+        <v>4003</v>
+      </c>
+      <c r="BW188" s="4">
+        <v>3898</v>
+      </c>
+      <c r="BX188" s="4">
+        <v>1199</v>
+      </c>
+      <c r="BY188" s="4">
+        <v>4964</v>
+      </c>
+      <c r="BZ188" s="4">
+        <v>2774</v>
+      </c>
+      <c r="CA188" s="4">
+        <v>1526</v>
+      </c>
+      <c r="CB188" s="4">
+        <v>806</v>
+      </c>
+      <c r="CC188" s="4">
+        <v>2418</v>
+      </c>
+      <c r="CD188" s="4">
+        <v>2065</v>
+      </c>
+      <c r="CE188" s="4">
+        <v>1519</v>
+      </c>
+      <c r="CF188" s="4">
+        <v>1148</v>
+      </c>
+      <c r="CG188" s="4">
+        <v>5705</v>
+      </c>
+      <c r="CH188" s="4">
+        <v>1660</v>
+      </c>
+      <c r="CI188" s="4">
+        <v>1261</v>
+      </c>
+      <c r="CJ188" s="4">
+        <v>1452</v>
+      </c>
+      <c r="CK188" s="4">
+        <v>1829</v>
+      </c>
+      <c r="CL188" s="4">
+        <v>1721</v>
+      </c>
+      <c r="CM188" s="4">
+        <v>2068</v>
+      </c>
+      <c r="CN188" s="4">
+        <v>1307</v>
+      </c>
+      <c r="CO188" s="4">
+        <v>1114</v>
+      </c>
+      <c r="CP188" s="4">
+        <v>1133</v>
+      </c>
+      <c r="CQ188" s="4">
+        <v>668</v>
+      </c>
+      <c r="CR188" s="4">
+        <v>3129</v>
+      </c>
+      <c r="CS188" s="4">
+        <v>1188</v>
+      </c>
+      <c r="CT188" s="4">
+        <v>838</v>
+      </c>
+      <c r="CU188" s="4">
+        <v>842</v>
+      </c>
+      <c r="CV188" s="4">
+        <v>1519</v>
+      </c>
+      <c r="CW188" s="4">
+        <v>1371</v>
+      </c>
+      <c r="CX188" s="4">
+        <v>693</v>
+      </c>
+      <c r="CY188" s="4">
+        <v>793</v>
+      </c>
+      <c r="CZ188" s="4">
+        <v>1058</v>
+      </c>
+      <c r="DA188" s="4">
+        <v>1329</v>
+      </c>
+      <c r="DB188" s="4">
+        <v>1160</v>
+      </c>
+      <c r="DC188" s="4">
+        <v>1272</v>
+      </c>
+      <c r="DD188" s="4">
+        <v>982</v>
+      </c>
+      <c r="DE188" s="4">
+        <v>320</v>
+      </c>
+      <c r="DF188" s="4">
+        <v>344</v>
+      </c>
+      <c r="DG188" s="4">
+        <v>738</v>
+      </c>
+      <c r="DH188" s="4">
+        <v>657</v>
+      </c>
+      <c r="DI188" s="4">
+        <v>433</v>
+      </c>
+      <c r="DJ188" s="4">
+        <v>534</v>
+      </c>
+      <c r="DK188" s="4">
+        <v>355</v>
+      </c>
+      <c r="DL188" s="4">
+        <v>632</v>
+      </c>
+      <c r="DM188" s="4">
+        <v>721</v>
+      </c>
+      <c r="DN188" s="4">
+        <v>517</v>
+      </c>
+      <c r="DO188" s="4">
+        <v>482</v>
+      </c>
+      <c r="DP188" s="4">
+        <v>372</v>
+      </c>
+      <c r="DQ188" s="4">
+        <v>517</v>
+      </c>
+      <c r="DR188">
+        <v>124256</v>
+      </c>
+      <c r="DS188">
+        <v>288487</v>
+      </c>
+      <c r="DT188">
+        <v>12737</v>
+      </c>
+      <c r="DU188">
+        <v>124112</v>
+      </c>
+      <c r="DV188">
+        <v>76892</v>
+      </c>
+      <c r="DW188">
+        <v>35356</v>
+      </c>
+      <c r="DX188">
+        <v>10631</v>
       </c>
     </row>
   </sheetData>

--- a/CasosColombia.xlsx
+++ b/CasosColombia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Matlab\MATLAB_R2019a\fitVirusCV19_v07_v17\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49B53D92-49C6-4AA4-99F5-407A7A271324}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F489223-177F-480C-9DDD-368514076A7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6C56C21C-B00B-4C62-A627-74DAE246E91A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="130">
   <si>
     <t>Fecha</t>
   </si>
@@ -412,6 +412,9 @@
   </si>
   <si>
     <t>ColRisaralda</t>
+  </si>
+  <si>
+    <t>####</t>
   </si>
 </sst>
 </file>
@@ -1497,13 +1500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13133E2-69F7-478D-A001-FD6CB4FB0C80}">
-  <dimension ref="A1:DX188"/>
+  <dimension ref="A1:DX189"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="CZ159" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="CZ154" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="DX188" sqref="DX188"/>
+      <selection pane="bottomRight" activeCell="DY189" sqref="DY189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11098,8 +11101,8 @@
       <c r="DC25" s="4">
         <v>0</v>
       </c>
-      <c r="DD25" s="4">
-        <v>1</v>
+      <c r="DD25" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="DE25" s="4">
         <v>2</v>
@@ -18351,8 +18354,8 @@
       <c r="CB44" s="4">
         <v>13</v>
       </c>
-      <c r="CC44" s="4">
-        <v>1</v>
+      <c r="CC44" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="CD44" s="4">
         <v>0</v>
@@ -20855,8 +20858,8 @@
       <c r="N51">
         <v>22</v>
       </c>
-      <c r="O51" s="12" t="s">
-        <v>68</v>
+      <c r="O51" s="12">
+        <v>7</v>
       </c>
       <c r="P51">
         <v>2</v>
@@ -29374,8 +29377,8 @@
       <c r="W73">
         <v>39</v>
       </c>
-      <c r="X73" s="12">
-        <v>3</v>
+      <c r="X73" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="Y73" s="9">
         <v>0</v>
@@ -33674,8 +33677,8 @@
       <c r="AO84">
         <v>2197</v>
       </c>
-      <c r="AP84" s="12">
-        <v>2</v>
+      <c r="AP84" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="AQ84">
         <v>2343</v>
@@ -34243,8 +34246,8 @@
       <c r="CX85" s="4">
         <v>1</v>
       </c>
-      <c r="CY85" s="4">
-        <v>24</v>
+      <c r="CY85" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="CZ85" s="4">
         <v>24</v>
@@ -34751,8 +34754,8 @@
       <c r="N87">
         <v>120</v>
       </c>
-      <c r="O87">
-        <v>586</v>
+      <c r="O87" t="s">
+        <v>68</v>
       </c>
       <c r="P87">
         <v>58</v>
@@ -50242,8 +50245,8 @@
       <c r="AE127">
         <v>29</v>
       </c>
-      <c r="AF127" s="12" t="s">
-        <v>68</v>
+      <c r="AF127" s="12">
+        <v>6</v>
       </c>
       <c r="AG127">
         <v>14</v>
@@ -50628,8 +50631,8 @@
       <c r="AE128">
         <v>29</v>
       </c>
-      <c r="AF128">
-        <v>12</v>
+      <c r="AF128" t="s">
+        <v>68</v>
       </c>
       <c r="AG128">
         <v>14</v>
@@ -56960,8 +56963,8 @@
       <c r="CE144" s="4">
         <v>184</v>
       </c>
-      <c r="CF144" s="4">
-        <v>206</v>
+      <c r="CF144" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="CG144" s="4">
         <v>548</v>
@@ -74078,6 +74081,392 @@
       </c>
       <c r="DX188">
         <v>10631</v>
+      </c>
+    </row>
+    <row r="189" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>44083</v>
+      </c>
+      <c r="B189">
+        <v>987851</v>
+      </c>
+      <c r="C189">
+        <v>5230</v>
+      </c>
+      <c r="D189">
+        <v>126019</v>
+      </c>
+      <c r="E189">
+        <v>118123</v>
+      </c>
+      <c r="F189">
+        <v>334403</v>
+      </c>
+      <c r="G189">
+        <v>44587</v>
+      </c>
+      <c r="H189">
+        <v>5698</v>
+      </c>
+      <c r="I189">
+        <v>4609</v>
+      </c>
+      <c r="J189">
+        <v>8185</v>
+      </c>
+      <c r="K189">
+        <v>8821</v>
+      </c>
+      <c r="L189">
+        <v>17094</v>
+      </c>
+      <c r="M189">
+        <v>6852</v>
+      </c>
+      <c r="N189">
+        <v>27262</v>
+      </c>
+      <c r="O189">
+        <v>35611</v>
+      </c>
+      <c r="P189">
+        <v>8356</v>
+      </c>
+      <c r="Q189">
+        <v>7663</v>
+      </c>
+      <c r="R189">
+        <v>19767</v>
+      </c>
+      <c r="S189">
+        <v>13412</v>
+      </c>
+      <c r="T189">
+        <v>23616</v>
+      </c>
+      <c r="U189">
+        <v>15593</v>
+      </c>
+      <c r="V189">
+        <v>4237</v>
+      </c>
+      <c r="W189">
+        <v>2080</v>
+      </c>
+      <c r="X189">
+        <v>9211</v>
+      </c>
+      <c r="Y189">
+        <v>26799</v>
+      </c>
+      <c r="Z189">
+        <v>18756</v>
+      </c>
+      <c r="AA189">
+        <v>11415</v>
+      </c>
+      <c r="AB189">
+        <v>76869</v>
+      </c>
+      <c r="AC189">
+        <v>1672</v>
+      </c>
+      <c r="AD189">
+        <v>455</v>
+      </c>
+      <c r="AE189">
+        <v>560</v>
+      </c>
+      <c r="AF189">
+        <v>456</v>
+      </c>
+      <c r="AG189">
+        <v>346</v>
+      </c>
+      <c r="AH189">
+        <v>220</v>
+      </c>
+      <c r="AI189">
+        <v>508</v>
+      </c>
+      <c r="AJ189">
+        <v>3630</v>
+      </c>
+      <c r="AK189">
+        <v>4905</v>
+      </c>
+      <c r="AL189">
+        <v>66491</v>
+      </c>
+      <c r="AM189" t="s">
+        <v>129</v>
+      </c>
+      <c r="AN189">
+        <v>4599</v>
+      </c>
+      <c r="AO189">
+        <v>59907</v>
+      </c>
+      <c r="AP189">
+        <v>1605</v>
+      </c>
+      <c r="AQ189">
+        <v>36829</v>
+      </c>
+      <c r="AR189">
+        <v>2604</v>
+      </c>
+      <c r="AS189">
+        <v>10758</v>
+      </c>
+      <c r="AT189">
+        <v>2756</v>
+      </c>
+      <c r="AU189">
+        <v>2932</v>
+      </c>
+      <c r="AV189">
+        <v>6792</v>
+      </c>
+      <c r="AW189">
+        <v>2613</v>
+      </c>
+      <c r="AX189">
+        <v>1863</v>
+      </c>
+      <c r="AY189">
+        <v>4849</v>
+      </c>
+      <c r="AZ189">
+        <v>4942</v>
+      </c>
+      <c r="BA189">
+        <v>72011</v>
+      </c>
+      <c r="BB189">
+        <v>16862</v>
+      </c>
+      <c r="BC189">
+        <v>4334</v>
+      </c>
+      <c r="BD189">
+        <v>12108</v>
+      </c>
+      <c r="BE189">
+        <v>6027</v>
+      </c>
+      <c r="BF189">
+        <v>515</v>
+      </c>
+      <c r="BG189">
+        <v>2623</v>
+      </c>
+      <c r="BH189">
+        <v>4805</v>
+      </c>
+      <c r="BI189">
+        <v>1414</v>
+      </c>
+      <c r="BJ189">
+        <v>3413</v>
+      </c>
+      <c r="BK189">
+        <v>13103</v>
+      </c>
+      <c r="BL189">
+        <v>13540</v>
+      </c>
+      <c r="BM189">
+        <v>12826</v>
+      </c>
+      <c r="BN189">
+        <v>25874</v>
+      </c>
+      <c r="BO189">
+        <v>3649</v>
+      </c>
+      <c r="BP189">
+        <v>1464</v>
+      </c>
+      <c r="BQ189">
+        <v>12589</v>
+      </c>
+      <c r="BR189">
+        <v>10971</v>
+      </c>
+      <c r="BS189" s="4">
+        <v>11293</v>
+      </c>
+      <c r="BT189" s="4">
+        <v>2412</v>
+      </c>
+      <c r="BU189" s="4">
+        <v>2362</v>
+      </c>
+      <c r="BV189" s="4">
+        <v>4980</v>
+      </c>
+      <c r="BW189" s="4">
+        <v>4705</v>
+      </c>
+      <c r="BX189" s="4">
+        <v>1483</v>
+      </c>
+      <c r="BY189" s="4">
+        <v>6998</v>
+      </c>
+      <c r="BZ189" s="4">
+        <v>3917</v>
+      </c>
+      <c r="CA189" s="4">
+        <v>2014</v>
+      </c>
+      <c r="CB189" s="4">
+        <v>1193</v>
+      </c>
+      <c r="CC189" s="4">
+        <v>3138</v>
+      </c>
+      <c r="CD189" s="4">
+        <v>3184</v>
+      </c>
+      <c r="CE189" s="4">
+        <v>1827</v>
+      </c>
+      <c r="CF189" s="4">
+        <v>1537</v>
+      </c>
+      <c r="CG189" s="4">
+        <v>6756</v>
+      </c>
+      <c r="CH189" s="4">
+        <v>2032</v>
+      </c>
+      <c r="CI189" s="4">
+        <v>1774</v>
+      </c>
+      <c r="CJ189" s="4">
+        <v>1985</v>
+      </c>
+      <c r="CK189" s="4">
+        <v>2458</v>
+      </c>
+      <c r="CL189" s="4">
+        <v>2278</v>
+      </c>
+      <c r="CM189" s="4">
+        <v>2553</v>
+      </c>
+      <c r="CN189" s="4">
+        <v>1682</v>
+      </c>
+      <c r="CO189" s="4">
+        <v>1635</v>
+      </c>
+      <c r="CP189" s="4">
+        <v>1815</v>
+      </c>
+      <c r="CQ189" s="4">
+        <v>932</v>
+      </c>
+      <c r="CR189" s="4">
+        <v>4790</v>
+      </c>
+      <c r="CS189" s="4">
+        <v>1546</v>
+      </c>
+      <c r="CT189" s="4">
+        <v>1294</v>
+      </c>
+      <c r="CU189" s="4">
+        <v>1221</v>
+      </c>
+      <c r="CV189" s="4">
+        <v>1937</v>
+      </c>
+      <c r="CW189" s="4">
+        <v>1827</v>
+      </c>
+      <c r="CX189" s="4">
+        <v>1033</v>
+      </c>
+      <c r="CY189" s="4">
+        <v>1214</v>
+      </c>
+      <c r="CZ189" s="4">
+        <v>1347</v>
+      </c>
+      <c r="DA189" s="4">
+        <v>1878</v>
+      </c>
+      <c r="DB189" s="4">
+        <v>1468</v>
+      </c>
+      <c r="DC189" s="4">
+        <v>1714</v>
+      </c>
+      <c r="DD189" s="4">
+        <v>1372</v>
+      </c>
+      <c r="DE189" s="4">
+        <v>605</v>
+      </c>
+      <c r="DF189" s="4">
+        <v>579</v>
+      </c>
+      <c r="DG189" s="4">
+        <v>1041</v>
+      </c>
+      <c r="DH189" s="4">
+        <v>921</v>
+      </c>
+      <c r="DI189" s="4">
+        <v>682</v>
+      </c>
+      <c r="DJ189" s="4">
+        <v>809</v>
+      </c>
+      <c r="DK189" s="4">
+        <v>577</v>
+      </c>
+      <c r="DL189" s="4">
+        <v>921</v>
+      </c>
+      <c r="DM189" s="4">
+        <v>1297</v>
+      </c>
+      <c r="DN189" s="4">
+        <v>892</v>
+      </c>
+      <c r="DO189" s="4">
+        <v>791</v>
+      </c>
+      <c r="DP189" s="4">
+        <v>653</v>
+      </c>
+      <c r="DQ189" s="4">
+        <v>901</v>
+      </c>
+      <c r="DR189">
+        <v>207927</v>
+      </c>
+      <c r="DS189">
+        <v>409923</v>
+      </c>
+      <c r="DT189">
+        <v>16173</v>
+      </c>
+      <c r="DU189">
+        <v>172027</v>
+      </c>
+      <c r="DV189">
+        <v>116158</v>
+      </c>
+      <c r="DW189">
+        <v>42441</v>
+      </c>
+      <c r="DX189">
+        <v>12768</v>
       </c>
     </row>
   </sheetData>

--- a/CasosColombia.xlsx
+++ b/CasosColombia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Matlab\MATLAB_R2019a\fitVirusCV19_v07_v17\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F489223-177F-480C-9DDD-368514076A7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C34BC993-6A76-4580-9B3F-038B4DBA2BED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6C56C21C-B00B-4C62-A627-74DAE246E91A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="129">
   <si>
     <t>Fecha</t>
   </si>
@@ -412,9 +412,6 @@
   </si>
   <si>
     <t>ColRisaralda</t>
-  </si>
-  <si>
-    <t>####</t>
   </si>
 </sst>
 </file>
@@ -1500,13 +1497,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13133E2-69F7-478D-A001-FD6CB4FB0C80}">
-  <dimension ref="A1:DX189"/>
+  <dimension ref="A1:DX188"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="CZ154" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="DY189" sqref="DY189"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -74083,392 +74080,6 @@
         <v>10631</v>
       </c>
     </row>
-    <row r="189" spans="1:128" x14ac:dyDescent="0.25">
-      <c r="A189" s="1">
-        <v>44083</v>
-      </c>
-      <c r="B189">
-        <v>987851</v>
-      </c>
-      <c r="C189">
-        <v>5230</v>
-      </c>
-      <c r="D189">
-        <v>126019</v>
-      </c>
-      <c r="E189">
-        <v>118123</v>
-      </c>
-      <c r="F189">
-        <v>334403</v>
-      </c>
-      <c r="G189">
-        <v>44587</v>
-      </c>
-      <c r="H189">
-        <v>5698</v>
-      </c>
-      <c r="I189">
-        <v>4609</v>
-      </c>
-      <c r="J189">
-        <v>8185</v>
-      </c>
-      <c r="K189">
-        <v>8821</v>
-      </c>
-      <c r="L189">
-        <v>17094</v>
-      </c>
-      <c r="M189">
-        <v>6852</v>
-      </c>
-      <c r="N189">
-        <v>27262</v>
-      </c>
-      <c r="O189">
-        <v>35611</v>
-      </c>
-      <c r="P189">
-        <v>8356</v>
-      </c>
-      <c r="Q189">
-        <v>7663</v>
-      </c>
-      <c r="R189">
-        <v>19767</v>
-      </c>
-      <c r="S189">
-        <v>13412</v>
-      </c>
-      <c r="T189">
-        <v>23616</v>
-      </c>
-      <c r="U189">
-        <v>15593</v>
-      </c>
-      <c r="V189">
-        <v>4237</v>
-      </c>
-      <c r="W189">
-        <v>2080</v>
-      </c>
-      <c r="X189">
-        <v>9211</v>
-      </c>
-      <c r="Y189">
-        <v>26799</v>
-      </c>
-      <c r="Z189">
-        <v>18756</v>
-      </c>
-      <c r="AA189">
-        <v>11415</v>
-      </c>
-      <c r="AB189">
-        <v>76869</v>
-      </c>
-      <c r="AC189">
-        <v>1672</v>
-      </c>
-      <c r="AD189">
-        <v>455</v>
-      </c>
-      <c r="AE189">
-        <v>560</v>
-      </c>
-      <c r="AF189">
-        <v>456</v>
-      </c>
-      <c r="AG189">
-        <v>346</v>
-      </c>
-      <c r="AH189">
-        <v>220</v>
-      </c>
-      <c r="AI189">
-        <v>508</v>
-      </c>
-      <c r="AJ189">
-        <v>3630</v>
-      </c>
-      <c r="AK189">
-        <v>4905</v>
-      </c>
-      <c r="AL189">
-        <v>66491</v>
-      </c>
-      <c r="AM189" t="s">
-        <v>129</v>
-      </c>
-      <c r="AN189">
-        <v>4599</v>
-      </c>
-      <c r="AO189">
-        <v>59907</v>
-      </c>
-      <c r="AP189">
-        <v>1605</v>
-      </c>
-      <c r="AQ189">
-        <v>36829</v>
-      </c>
-      <c r="AR189">
-        <v>2604</v>
-      </c>
-      <c r="AS189">
-        <v>10758</v>
-      </c>
-      <c r="AT189">
-        <v>2756</v>
-      </c>
-      <c r="AU189">
-        <v>2932</v>
-      </c>
-      <c r="AV189">
-        <v>6792</v>
-      </c>
-      <c r="AW189">
-        <v>2613</v>
-      </c>
-      <c r="AX189">
-        <v>1863</v>
-      </c>
-      <c r="AY189">
-        <v>4849</v>
-      </c>
-      <c r="AZ189">
-        <v>4942</v>
-      </c>
-      <c r="BA189">
-        <v>72011</v>
-      </c>
-      <c r="BB189">
-        <v>16862</v>
-      </c>
-      <c r="BC189">
-        <v>4334</v>
-      </c>
-      <c r="BD189">
-        <v>12108</v>
-      </c>
-      <c r="BE189">
-        <v>6027</v>
-      </c>
-      <c r="BF189">
-        <v>515</v>
-      </c>
-      <c r="BG189">
-        <v>2623</v>
-      </c>
-      <c r="BH189">
-        <v>4805</v>
-      </c>
-      <c r="BI189">
-        <v>1414</v>
-      </c>
-      <c r="BJ189">
-        <v>3413</v>
-      </c>
-      <c r="BK189">
-        <v>13103</v>
-      </c>
-      <c r="BL189">
-        <v>13540</v>
-      </c>
-      <c r="BM189">
-        <v>12826</v>
-      </c>
-      <c r="BN189">
-        <v>25874</v>
-      </c>
-      <c r="BO189">
-        <v>3649</v>
-      </c>
-      <c r="BP189">
-        <v>1464</v>
-      </c>
-      <c r="BQ189">
-        <v>12589</v>
-      </c>
-      <c r="BR189">
-        <v>10971</v>
-      </c>
-      <c r="BS189" s="4">
-        <v>11293</v>
-      </c>
-      <c r="BT189" s="4">
-        <v>2412</v>
-      </c>
-      <c r="BU189" s="4">
-        <v>2362</v>
-      </c>
-      <c r="BV189" s="4">
-        <v>4980</v>
-      </c>
-      <c r="BW189" s="4">
-        <v>4705</v>
-      </c>
-      <c r="BX189" s="4">
-        <v>1483</v>
-      </c>
-      <c r="BY189" s="4">
-        <v>6998</v>
-      </c>
-      <c r="BZ189" s="4">
-        <v>3917</v>
-      </c>
-      <c r="CA189" s="4">
-        <v>2014</v>
-      </c>
-      <c r="CB189" s="4">
-        <v>1193</v>
-      </c>
-      <c r="CC189" s="4">
-        <v>3138</v>
-      </c>
-      <c r="CD189" s="4">
-        <v>3184</v>
-      </c>
-      <c r="CE189" s="4">
-        <v>1827</v>
-      </c>
-      <c r="CF189" s="4">
-        <v>1537</v>
-      </c>
-      <c r="CG189" s="4">
-        <v>6756</v>
-      </c>
-      <c r="CH189" s="4">
-        <v>2032</v>
-      </c>
-      <c r="CI189" s="4">
-        <v>1774</v>
-      </c>
-      <c r="CJ189" s="4">
-        <v>1985</v>
-      </c>
-      <c r="CK189" s="4">
-        <v>2458</v>
-      </c>
-      <c r="CL189" s="4">
-        <v>2278</v>
-      </c>
-      <c r="CM189" s="4">
-        <v>2553</v>
-      </c>
-      <c r="CN189" s="4">
-        <v>1682</v>
-      </c>
-      <c r="CO189" s="4">
-        <v>1635</v>
-      </c>
-      <c r="CP189" s="4">
-        <v>1815</v>
-      </c>
-      <c r="CQ189" s="4">
-        <v>932</v>
-      </c>
-      <c r="CR189" s="4">
-        <v>4790</v>
-      </c>
-      <c r="CS189" s="4">
-        <v>1546</v>
-      </c>
-      <c r="CT189" s="4">
-        <v>1294</v>
-      </c>
-      <c r="CU189" s="4">
-        <v>1221</v>
-      </c>
-      <c r="CV189" s="4">
-        <v>1937</v>
-      </c>
-      <c r="CW189" s="4">
-        <v>1827</v>
-      </c>
-      <c r="CX189" s="4">
-        <v>1033</v>
-      </c>
-      <c r="CY189" s="4">
-        <v>1214</v>
-      </c>
-      <c r="CZ189" s="4">
-        <v>1347</v>
-      </c>
-      <c r="DA189" s="4">
-        <v>1878</v>
-      </c>
-      <c r="DB189" s="4">
-        <v>1468</v>
-      </c>
-      <c r="DC189" s="4">
-        <v>1714</v>
-      </c>
-      <c r="DD189" s="4">
-        <v>1372</v>
-      </c>
-      <c r="DE189" s="4">
-        <v>605</v>
-      </c>
-      <c r="DF189" s="4">
-        <v>579</v>
-      </c>
-      <c r="DG189" s="4">
-        <v>1041</v>
-      </c>
-      <c r="DH189" s="4">
-        <v>921</v>
-      </c>
-      <c r="DI189" s="4">
-        <v>682</v>
-      </c>
-      <c r="DJ189" s="4">
-        <v>809</v>
-      </c>
-      <c r="DK189" s="4">
-        <v>577</v>
-      </c>
-      <c r="DL189" s="4">
-        <v>921</v>
-      </c>
-      <c r="DM189" s="4">
-        <v>1297</v>
-      </c>
-      <c r="DN189" s="4">
-        <v>892</v>
-      </c>
-      <c r="DO189" s="4">
-        <v>791</v>
-      </c>
-      <c r="DP189" s="4">
-        <v>653</v>
-      </c>
-      <c r="DQ189" s="4">
-        <v>901</v>
-      </c>
-      <c r="DR189">
-        <v>207927</v>
-      </c>
-      <c r="DS189">
-        <v>409923</v>
-      </c>
-      <c r="DT189">
-        <v>16173</v>
-      </c>
-      <c r="DU189">
-        <v>172027</v>
-      </c>
-      <c r="DV189">
-        <v>116158</v>
-      </c>
-      <c r="DW189">
-        <v>42441</v>
-      </c>
-      <c r="DX189">
-        <v>12768</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId1"/>

--- a/CasosColombia.xlsx
+++ b/CasosColombia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Matlab\MATLAB_R2019a\fitVirusCV19_v07_v17\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C34BC993-6A76-4580-9B3F-038B4DBA2BED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5D8413C-8B17-4660-AE64-5327C1EC4616}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6C56C21C-B00B-4C62-A627-74DAE246E91A}"/>
   </bookViews>
@@ -1497,13 +1497,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13133E2-69F7-478D-A001-FD6CB4FB0C80}">
-  <dimension ref="A1:DX188"/>
+  <dimension ref="A1:DX189"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="CZ151" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="A189" sqref="A189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -74080,6 +74080,392 @@
         <v>10631</v>
       </c>
     </row>
+    <row r="189" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>44083</v>
+      </c>
+      <c r="B189">
+        <v>686851</v>
+      </c>
+      <c r="C189">
+        <v>2721</v>
+      </c>
+      <c r="D189">
+        <v>91241</v>
+      </c>
+      <c r="E189">
+        <v>65429</v>
+      </c>
+      <c r="F189">
+        <v>232408</v>
+      </c>
+      <c r="G189">
+        <v>26244</v>
+      </c>
+      <c r="H189">
+        <v>4631</v>
+      </c>
+      <c r="I189">
+        <v>3621</v>
+      </c>
+      <c r="J189">
+        <v>7113</v>
+      </c>
+      <c r="K189">
+        <v>6825</v>
+      </c>
+      <c r="L189">
+        <v>13777</v>
+      </c>
+      <c r="M189">
+        <v>3840</v>
+      </c>
+      <c r="N189">
+        <v>21551</v>
+      </c>
+      <c r="O189">
+        <v>26748</v>
+      </c>
+      <c r="P189">
+        <v>6227</v>
+      </c>
+      <c r="Q189">
+        <v>6749</v>
+      </c>
+      <c r="R189">
+        <v>13377</v>
+      </c>
+      <c r="S189">
+        <v>10606</v>
+      </c>
+      <c r="T189">
+        <v>15562</v>
+      </c>
+      <c r="U189">
+        <v>13100</v>
+      </c>
+      <c r="V189">
+        <v>3289</v>
+      </c>
+      <c r="W189">
+        <v>1720</v>
+      </c>
+      <c r="X189">
+        <v>7421</v>
+      </c>
+      <c r="Y189">
+        <v>22811</v>
+      </c>
+      <c r="Z189">
+        <v>12797</v>
+      </c>
+      <c r="AA189">
+        <v>8808</v>
+      </c>
+      <c r="AB189">
+        <v>51415</v>
+      </c>
+      <c r="AC189">
+        <v>1358</v>
+      </c>
+      <c r="AD189">
+        <v>417</v>
+      </c>
+      <c r="AE189">
+        <v>499</v>
+      </c>
+      <c r="AF189">
+        <v>456</v>
+      </c>
+      <c r="AG189">
+        <v>332</v>
+      </c>
+      <c r="AH189">
+        <v>218</v>
+      </c>
+      <c r="AI189">
+        <v>393</v>
+      </c>
+      <c r="AJ189">
+        <v>1994</v>
+      </c>
+      <c r="AK189">
+        <v>4000</v>
+      </c>
+      <c r="AL189">
+        <v>36874</v>
+      </c>
+      <c r="AM189">
+        <v>7878</v>
+      </c>
+      <c r="AN189">
+        <v>2481</v>
+      </c>
+      <c r="AO189">
+        <v>40222</v>
+      </c>
+      <c r="AP189">
+        <v>1027</v>
+      </c>
+      <c r="AQ189">
+        <v>21128</v>
+      </c>
+      <c r="AR189">
+        <v>1481</v>
+      </c>
+      <c r="AS189">
+        <v>9061</v>
+      </c>
+      <c r="AT189">
+        <v>1579</v>
+      </c>
+      <c r="AU189">
+        <v>1581</v>
+      </c>
+      <c r="AV189">
+        <v>5755</v>
+      </c>
+      <c r="AW189">
+        <v>1724</v>
+      </c>
+      <c r="AX189">
+        <v>953</v>
+      </c>
+      <c r="AY189">
+        <v>2484</v>
+      </c>
+      <c r="AZ189">
+        <v>2652</v>
+      </c>
+      <c r="BA189">
+        <v>52860</v>
+      </c>
+      <c r="BB189">
+        <v>13134</v>
+      </c>
+      <c r="BC189">
+        <v>3874</v>
+      </c>
+      <c r="BD189">
+        <v>8410</v>
+      </c>
+      <c r="BE189">
+        <v>4955</v>
+      </c>
+      <c r="BF189">
+        <v>280</v>
+      </c>
+      <c r="BG189">
+        <v>1428</v>
+      </c>
+      <c r="BH189">
+        <v>2644</v>
+      </c>
+      <c r="BI189">
+        <v>734</v>
+      </c>
+      <c r="BJ189">
+        <v>2101</v>
+      </c>
+      <c r="BK189">
+        <v>8937</v>
+      </c>
+      <c r="BL189">
+        <v>8976</v>
+      </c>
+      <c r="BM189">
+        <v>9380</v>
+      </c>
+      <c r="BN189">
+        <v>14025</v>
+      </c>
+      <c r="BO189">
+        <v>1911</v>
+      </c>
+      <c r="BP189">
+        <v>841</v>
+      </c>
+      <c r="BQ189">
+        <v>10366</v>
+      </c>
+      <c r="BR189">
+        <v>8508</v>
+      </c>
+      <c r="BS189" s="4">
+        <v>9911</v>
+      </c>
+      <c r="BT189" s="4">
+        <v>1897</v>
+      </c>
+      <c r="BU189" s="4">
+        <v>1739</v>
+      </c>
+      <c r="BV189" s="4">
+        <v>4130</v>
+      </c>
+      <c r="BW189" s="4">
+        <v>3952</v>
+      </c>
+      <c r="BX189" s="4">
+        <v>1240</v>
+      </c>
+      <c r="BY189" s="4">
+        <v>5059</v>
+      </c>
+      <c r="BZ189" s="4">
+        <v>2813</v>
+      </c>
+      <c r="CA189" s="4">
+        <v>1553</v>
+      </c>
+      <c r="CB189" s="4">
+        <v>814</v>
+      </c>
+      <c r="CC189" s="4">
+        <v>2466</v>
+      </c>
+      <c r="CD189" s="4">
+        <v>2086</v>
+      </c>
+      <c r="CE189" s="4">
+        <v>1549</v>
+      </c>
+      <c r="CF189" s="4">
+        <v>1189</v>
+      </c>
+      <c r="CG189" s="4">
+        <v>5778</v>
+      </c>
+      <c r="CH189" s="4">
+        <v>1708</v>
+      </c>
+      <c r="CI189" s="4">
+        <v>1269</v>
+      </c>
+      <c r="CJ189" s="4">
+        <v>1468</v>
+      </c>
+      <c r="CK189" s="4">
+        <v>1847</v>
+      </c>
+      <c r="CL189" s="4">
+        <v>1741</v>
+      </c>
+      <c r="CM189" s="4">
+        <v>2100</v>
+      </c>
+      <c r="CN189" s="4">
+        <v>1325</v>
+      </c>
+      <c r="CO189" s="4">
+        <v>1119</v>
+      </c>
+      <c r="CP189" s="4">
+        <v>1151</v>
+      </c>
+      <c r="CQ189" s="4">
+        <v>695</v>
+      </c>
+      <c r="CR189" s="4">
+        <v>3106</v>
+      </c>
+      <c r="CS189" s="4">
+        <v>1204</v>
+      </c>
+      <c r="CT189" s="4">
+        <v>840</v>
+      </c>
+      <c r="CU189" s="4">
+        <v>861</v>
+      </c>
+      <c r="CV189" s="4">
+        <v>1537</v>
+      </c>
+      <c r="CW189" s="4">
+        <v>1381</v>
+      </c>
+      <c r="CX189" s="4">
+        <v>693</v>
+      </c>
+      <c r="CY189" s="4">
+        <v>798</v>
+      </c>
+      <c r="CZ189" s="4">
+        <v>1065</v>
+      </c>
+      <c r="DA189" s="4">
+        <v>1354</v>
+      </c>
+      <c r="DB189" s="4">
+        <v>1170</v>
+      </c>
+      <c r="DC189" s="4">
+        <v>1287</v>
+      </c>
+      <c r="DD189" s="4">
+        <v>997</v>
+      </c>
+      <c r="DE189" s="4">
+        <v>320</v>
+      </c>
+      <c r="DF189" s="4">
+        <v>346</v>
+      </c>
+      <c r="DG189" s="4">
+        <v>745</v>
+      </c>
+      <c r="DH189" s="4">
+        <v>666</v>
+      </c>
+      <c r="DI189" s="4">
+        <v>437</v>
+      </c>
+      <c r="DJ189" s="4">
+        <v>534</v>
+      </c>
+      <c r="DK189" s="4">
+        <v>356</v>
+      </c>
+      <c r="DL189" s="4">
+        <v>635</v>
+      </c>
+      <c r="DM189" s="4">
+        <v>721</v>
+      </c>
+      <c r="DN189" s="4">
+        <v>517</v>
+      </c>
+      <c r="DO189" s="4">
+        <v>482</v>
+      </c>
+      <c r="DP189" s="4">
+        <v>372</v>
+      </c>
+      <c r="DQ189" s="4">
+        <v>517</v>
+      </c>
+      <c r="DR189">
+        <v>125054</v>
+      </c>
+      <c r="DS189">
+        <v>291671</v>
+      </c>
+      <c r="DT189">
+        <v>13035</v>
+      </c>
+      <c r="DU189">
+        <v>125579</v>
+      </c>
+      <c r="DV189">
+        <v>77642</v>
+      </c>
+      <c r="DW189">
+        <v>35960</v>
+      </c>
+      <c r="DX189">
+        <v>10734</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId1"/>

--- a/CasosColombia.xlsx
+++ b/CasosColombia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Matlab\MATLAB_R2019a\fitVirusCV19_v07_v17\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5D8413C-8B17-4660-AE64-5327C1EC4616}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{61228AFA-4E71-45E5-9DE8-323A182918A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6C56C21C-B00B-4C62-A627-74DAE246E91A}"/>
+    <workbookView xWindow="0" yWindow="2415" windowWidth="28800" windowHeight="7875" xr2:uid="{6C56C21C-B00B-4C62-A627-74DAE246E91A}"/>
   </bookViews>
   <sheets>
     <sheet name="CasosColombia" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="129">
   <si>
     <t>Fecha</t>
   </si>
@@ -1497,13 +1497,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13133E2-69F7-478D-A001-FD6CB4FB0C80}">
-  <dimension ref="A1:DX189"/>
+  <dimension ref="A1:DX190"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="CZ151" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="DN152" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A189" sqref="A189"/>
+      <selection pane="bottomRight" activeCell="DS185" sqref="DS185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4970,8 +4970,8 @@
       <c r="DS9">
         <v>10</v>
       </c>
-      <c r="DT9">
-        <v>1</v>
+      <c r="DT9" t="s">
+        <v>68</v>
       </c>
       <c r="DU9">
         <v>0</v>
@@ -8342,8 +8342,8 @@
       <c r="CK18" s="4">
         <v>0</v>
       </c>
-      <c r="CL18" s="4">
-        <v>2</v>
+      <c r="CL18" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="CM18" s="4">
         <v>0</v>
@@ -17965,8 +17965,8 @@
       <c r="CB43" s="4">
         <v>13</v>
       </c>
-      <c r="CC43" s="4">
-        <v>1</v>
+      <c r="CC43" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="CD43" s="4">
         <v>0</v>
@@ -20855,8 +20855,8 @@
       <c r="N51">
         <v>22</v>
       </c>
-      <c r="O51" s="12">
-        <v>7</v>
+      <c r="O51" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="P51">
         <v>2</v>
@@ -22313,8 +22313,8 @@
       <c r="DJ54" s="4">
         <v>0</v>
       </c>
-      <c r="DK54" s="4">
-        <v>2</v>
+      <c r="DK54" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="DL54" s="4">
         <v>3</v>
@@ -33288,8 +33288,8 @@
       <c r="AO83">
         <v>2085</v>
       </c>
-      <c r="AP83" s="12">
-        <v>2</v>
+      <c r="AP83" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="AQ83">
         <v>2223</v>
@@ -43450,8 +43450,8 @@
       <c r="CE109" s="4">
         <v>28</v>
       </c>
-      <c r="CF109" s="4">
-        <v>33</v>
+      <c r="CF109" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="CG109" s="4">
         <v>25</v>
@@ -64133,7 +64133,7 @@
         <v>593</v>
       </c>
       <c r="AD163">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AE163">
         <v>137</v>
@@ -64519,7 +64519,7 @@
         <v>613</v>
       </c>
       <c r="AD164">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="AE164">
         <v>139</v>
@@ -64905,7 +64905,7 @@
         <v>655</v>
       </c>
       <c r="AD165">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AE165">
         <v>140</v>
@@ -65291,7 +65291,7 @@
         <v>670</v>
       </c>
       <c r="AD166">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="AE166">
         <v>141</v>
@@ -74464,6 +74464,392 @@
       </c>
       <c r="DX189">
         <v>10734</v>
+      </c>
+    </row>
+    <row r="190" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>44084</v>
+      </c>
+      <c r="B190">
+        <v>694664</v>
+      </c>
+      <c r="C190">
+        <v>2721</v>
+      </c>
+      <c r="D190">
+        <v>92177</v>
+      </c>
+      <c r="E190">
+        <v>65525</v>
+      </c>
+      <c r="F190">
+        <v>234514</v>
+      </c>
+      <c r="G190">
+        <v>26658</v>
+      </c>
+      <c r="H190">
+        <v>4718</v>
+      </c>
+      <c r="I190">
+        <v>3671</v>
+      </c>
+      <c r="J190">
+        <v>7179</v>
+      </c>
+      <c r="K190">
+        <v>6922</v>
+      </c>
+      <c r="L190">
+        <v>14405</v>
+      </c>
+      <c r="M190">
+        <v>3841</v>
+      </c>
+      <c r="N190">
+        <v>21641</v>
+      </c>
+      <c r="O190">
+        <v>27183</v>
+      </c>
+      <c r="P190">
+        <v>6328</v>
+      </c>
+      <c r="Q190">
+        <v>6948</v>
+      </c>
+      <c r="R190">
+        <v>13500</v>
+      </c>
+      <c r="S190">
+        <v>10805</v>
+      </c>
+      <c r="T190">
+        <v>15751</v>
+      </c>
+      <c r="U190">
+        <v>13247</v>
+      </c>
+      <c r="V190">
+        <v>3314</v>
+      </c>
+      <c r="W190">
+        <v>1779</v>
+      </c>
+      <c r="X190">
+        <v>7634</v>
+      </c>
+      <c r="Y190">
+        <v>23286</v>
+      </c>
+      <c r="Z190">
+        <v>12824</v>
+      </c>
+      <c r="AA190">
+        <v>9030</v>
+      </c>
+      <c r="AB190">
+        <v>52085</v>
+      </c>
+      <c r="AC190">
+        <v>1404</v>
+      </c>
+      <c r="AD190">
+        <v>430</v>
+      </c>
+      <c r="AE190">
+        <v>512</v>
+      </c>
+      <c r="AF190">
+        <v>457</v>
+      </c>
+      <c r="AG190">
+        <v>337</v>
+      </c>
+      <c r="AH190">
+        <v>222</v>
+      </c>
+      <c r="AI190">
+        <v>426</v>
+      </c>
+      <c r="AJ190">
+        <v>1995</v>
+      </c>
+      <c r="AK190">
+        <v>4061</v>
+      </c>
+      <c r="AL190">
+        <v>36930</v>
+      </c>
+      <c r="AM190">
+        <v>7953</v>
+      </c>
+      <c r="AN190">
+        <v>2484</v>
+      </c>
+      <c r="AO190">
+        <v>40739</v>
+      </c>
+      <c r="AP190">
+        <v>1033</v>
+      </c>
+      <c r="AQ190">
+        <v>21446</v>
+      </c>
+      <c r="AR190">
+        <v>1481</v>
+      </c>
+      <c r="AS190">
+        <v>9157</v>
+      </c>
+      <c r="AT190">
+        <v>1590</v>
+      </c>
+      <c r="AU190">
+        <v>1583</v>
+      </c>
+      <c r="AV190">
+        <v>5926</v>
+      </c>
+      <c r="AW190">
+        <v>1743</v>
+      </c>
+      <c r="AX190">
+        <v>953</v>
+      </c>
+      <c r="AY190">
+        <v>2484</v>
+      </c>
+      <c r="AZ190">
+        <v>2652</v>
+      </c>
+      <c r="BA190">
+        <v>53341</v>
+      </c>
+      <c r="BB190">
+        <v>13172</v>
+      </c>
+      <c r="BC190">
+        <v>4008</v>
+      </c>
+      <c r="BD190">
+        <v>8497</v>
+      </c>
+      <c r="BE190">
+        <v>5089</v>
+      </c>
+      <c r="BF190">
+        <v>280</v>
+      </c>
+      <c r="BG190">
+        <v>1429</v>
+      </c>
+      <c r="BH190">
+        <v>2645</v>
+      </c>
+      <c r="BI190">
+        <v>735</v>
+      </c>
+      <c r="BJ190">
+        <v>2104</v>
+      </c>
+      <c r="BK190">
+        <v>9000</v>
+      </c>
+      <c r="BL190">
+        <v>8987</v>
+      </c>
+      <c r="BM190">
+        <v>9513</v>
+      </c>
+      <c r="BN190">
+        <v>14046</v>
+      </c>
+      <c r="BO190">
+        <v>1916</v>
+      </c>
+      <c r="BP190">
+        <v>855</v>
+      </c>
+      <c r="BQ190">
+        <v>10800</v>
+      </c>
+      <c r="BR190">
+        <v>8638</v>
+      </c>
+      <c r="BS190" s="4">
+        <v>10133</v>
+      </c>
+      <c r="BT190" s="4">
+        <v>1927</v>
+      </c>
+      <c r="BU190" s="4">
+        <v>1770</v>
+      </c>
+      <c r="BV190" s="4">
+        <v>4192</v>
+      </c>
+      <c r="BW190" s="4">
+        <v>4023</v>
+      </c>
+      <c r="BX190" s="4">
+        <v>1278</v>
+      </c>
+      <c r="BY190" s="4">
+        <v>5140</v>
+      </c>
+      <c r="BZ190" s="4">
+        <v>2865</v>
+      </c>
+      <c r="CA190" s="4">
+        <v>1611</v>
+      </c>
+      <c r="CB190" s="4">
+        <v>820</v>
+      </c>
+      <c r="CC190" s="4">
+        <v>2498</v>
+      </c>
+      <c r="CD190" s="4">
+        <v>2105</v>
+      </c>
+      <c r="CE190" s="4">
+        <v>1582</v>
+      </c>
+      <c r="CF190" s="4">
+        <v>1214</v>
+      </c>
+      <c r="CG190" s="4">
+        <v>5827</v>
+      </c>
+      <c r="CH190" s="4">
+        <v>1758</v>
+      </c>
+      <c r="CI190" s="4">
+        <v>1288</v>
+      </c>
+      <c r="CJ190" s="4">
+        <v>1488</v>
+      </c>
+      <c r="CK190" s="4">
+        <v>1874</v>
+      </c>
+      <c r="CL190" s="4">
+        <v>1782</v>
+      </c>
+      <c r="CM190" s="4">
+        <v>2125</v>
+      </c>
+      <c r="CN190" s="4">
+        <v>1335</v>
+      </c>
+      <c r="CO190" s="4">
+        <v>1161</v>
+      </c>
+      <c r="CP190" s="4">
+        <v>1155</v>
+      </c>
+      <c r="CQ190" s="4">
+        <v>710</v>
+      </c>
+      <c r="CR190" s="4">
+        <v>3123</v>
+      </c>
+      <c r="CS190" s="4">
+        <v>1224</v>
+      </c>
+      <c r="CT190" s="4">
+        <v>842</v>
+      </c>
+      <c r="CU190" s="4">
+        <v>876</v>
+      </c>
+      <c r="CV190" s="4">
+        <v>1544</v>
+      </c>
+      <c r="CW190" s="4">
+        <v>1399</v>
+      </c>
+      <c r="CX190" s="4">
+        <v>706</v>
+      </c>
+      <c r="CY190" s="4">
+        <v>804</v>
+      </c>
+      <c r="CZ190" s="4">
+        <v>1090</v>
+      </c>
+      <c r="DA190" s="4">
+        <v>1377</v>
+      </c>
+      <c r="DB190" s="4">
+        <v>1190</v>
+      </c>
+      <c r="DC190" s="4">
+        <v>1303</v>
+      </c>
+      <c r="DD190" s="4">
+        <v>1017</v>
+      </c>
+      <c r="DE190" s="4">
+        <v>324</v>
+      </c>
+      <c r="DF190" s="4">
+        <v>346</v>
+      </c>
+      <c r="DG190" s="4">
+        <v>747</v>
+      </c>
+      <c r="DH190" s="4">
+        <v>678</v>
+      </c>
+      <c r="DI190" s="4">
+        <v>444</v>
+      </c>
+      <c r="DJ190" s="4">
+        <v>534</v>
+      </c>
+      <c r="DK190" s="4">
+        <v>356</v>
+      </c>
+      <c r="DL190" s="4">
+        <v>639</v>
+      </c>
+      <c r="DM190" s="4">
+        <v>724</v>
+      </c>
+      <c r="DN190" s="4">
+        <v>518</v>
+      </c>
+      <c r="DO190" s="4">
+        <v>482</v>
+      </c>
+      <c r="DP190" s="4">
+        <v>372</v>
+      </c>
+      <c r="DQ190" s="4">
+        <v>517</v>
+      </c>
+      <c r="DR190">
+        <v>126416</v>
+      </c>
+      <c r="DS190">
+        <v>294919</v>
+      </c>
+      <c r="DT190">
+        <v>13357</v>
+      </c>
+      <c r="DU190">
+        <v>126632</v>
+      </c>
+      <c r="DV190">
+        <v>78599</v>
+      </c>
+      <c r="DW190">
+        <v>36582</v>
+      </c>
+      <c r="DX190">
+        <v>10830</v>
       </c>
     </row>
   </sheetData>

--- a/CasosColombia.xlsx
+++ b/CasosColombia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Matlab\MATLAB_R2019a\fitVirusCV19_v07_v17\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61228AFA-4E71-45E5-9DE8-323A182918A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F276AA9-6D3B-4FA2-873E-6425ADC61EFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2415" windowWidth="28800" windowHeight="7875" xr2:uid="{6C56C21C-B00B-4C62-A627-74DAE246E91A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6C56C21C-B00B-4C62-A627-74DAE246E91A}"/>
   </bookViews>
   <sheets>
     <sheet name="CasosColombia" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="129">
   <si>
     <t>Fecha</t>
   </si>
@@ -1497,13 +1497,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13133E2-69F7-478D-A001-FD6CB4FB0C80}">
-  <dimension ref="A1:DX190"/>
+  <dimension ref="A1:DX191"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="DN152" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="CS181" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="DS185" sqref="DS185"/>
+      <selection pane="bottomRight" activeCell="A191" sqref="A191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4970,8 +4970,8 @@
       <c r="DS9">
         <v>10</v>
       </c>
-      <c r="DT9" t="s">
-        <v>68</v>
+      <c r="DT9">
+        <v>1</v>
       </c>
       <c r="DU9">
         <v>0</v>
@@ -5583,8 +5583,8 @@
       <c r="BR11">
         <v>0</v>
       </c>
-      <c r="BS11" s="4" t="s">
-        <v>68</v>
+      <c r="BS11" s="4">
+        <v>1</v>
       </c>
       <c r="BT11" s="10" t="s">
         <v>68</v>
@@ -6741,8 +6741,8 @@
       <c r="BR14">
         <v>0</v>
       </c>
-      <c r="BS14" s="12">
-        <v>1</v>
+      <c r="BS14" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="BT14" s="10">
         <v>1</v>
@@ -7983,8 +7983,8 @@
       <c r="CT17" s="4">
         <v>0</v>
       </c>
-      <c r="CU17" s="10">
-        <v>1</v>
+      <c r="CU17" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="CV17" s="4">
         <v>0</v>
@@ -8665,8 +8665,8 @@
       <c r="BP19">
         <v>0</v>
       </c>
-      <c r="BQ19" s="4">
-        <v>1</v>
+      <c r="BQ19" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="BR19">
         <v>0</v>
@@ -8746,8 +8746,8 @@
       <c r="CQ19" s="4">
         <v>1</v>
       </c>
-      <c r="CR19" s="12" t="s">
-        <v>68</v>
+      <c r="CR19" s="12">
+        <v>1</v>
       </c>
       <c r="CS19" s="4">
         <v>1</v>
@@ -17579,8 +17579,8 @@
       <c r="CB42" s="4">
         <v>11</v>
       </c>
-      <c r="CC42" s="4">
-        <v>1</v>
+      <c r="CC42" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="CD42" s="4">
         <v>0</v>
@@ -34060,8 +34060,8 @@
       <c r="AO85">
         <v>2307</v>
       </c>
-      <c r="AP85">
-        <v>4</v>
+      <c r="AP85" t="s">
+        <v>68</v>
       </c>
       <c r="AQ85">
         <v>2475</v>
@@ -38432,8 +38432,8 @@
       <c r="CE96" s="4">
         <v>13</v>
       </c>
-      <c r="CF96" s="4">
-        <v>6</v>
+      <c r="CF96" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="CG96" s="4">
         <v>24</v>
@@ -38671,8 +38671,8 @@
       <c r="AH97">
         <v>1</v>
       </c>
-      <c r="AI97">
-        <v>4</v>
+      <c r="AI97" t="s">
+        <v>68</v>
       </c>
       <c r="AJ97">
         <v>100</v>
@@ -39057,8 +39057,8 @@
       <c r="AH98">
         <v>1</v>
       </c>
-      <c r="AI98">
-        <v>4</v>
+      <c r="AI98" t="s">
+        <v>68</v>
       </c>
       <c r="AJ98">
         <v>109</v>
@@ -39976,8 +39976,8 @@
       <c r="CE100" s="4">
         <v>15</v>
       </c>
-      <c r="CF100" s="4">
-        <v>12</v>
+      <c r="CF100" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="CG100" s="4">
         <v>24</v>
@@ -41373,8 +41373,8 @@
       <c r="AH104">
         <v>1</v>
       </c>
-      <c r="AI104">
-        <v>31</v>
+      <c r="AI104" t="s">
+        <v>68</v>
       </c>
       <c r="AJ104">
         <v>193</v>
@@ -41943,7 +41943,7 @@
         <v>30</v>
       </c>
       <c r="CR105" s="4">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="CS105" s="4">
         <v>58</v>
@@ -42329,7 +42329,7 @@
         <v>34</v>
       </c>
       <c r="CR106" s="4">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="CS106" s="4">
         <v>59</v>
@@ -42715,7 +42715,7 @@
         <v>36</v>
       </c>
       <c r="CR107" s="4">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="CS107" s="4">
         <v>61</v>
@@ -43101,7 +43101,7 @@
         <v>37</v>
       </c>
       <c r="CR108" s="4">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="CS108" s="4">
         <v>64</v>
@@ -43487,7 +43487,7 @@
         <v>40</v>
       </c>
       <c r="CR109" s="4">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="CS109" s="4">
         <v>64</v>
@@ -43873,7 +43873,7 @@
         <v>42</v>
       </c>
       <c r="CR110" s="4">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="CS110" s="4">
         <v>65</v>
@@ -44259,7 +44259,7 @@
         <v>43</v>
       </c>
       <c r="CR111" s="4">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="CS111" s="4">
         <v>67</v>
@@ -44645,7 +44645,7 @@
         <v>49</v>
       </c>
       <c r="CR112" s="4">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="CS112" s="4">
         <v>68</v>
@@ -45031,7 +45031,7 @@
         <v>56</v>
       </c>
       <c r="CR113" s="4">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="CS113" s="4">
         <v>70</v>
@@ -45360,7 +45360,7 @@
         <v>81</v>
       </c>
       <c r="BY114" s="4">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="BZ114" s="4">
         <v>76</v>
@@ -45417,7 +45417,7 @@
         <v>60</v>
       </c>
       <c r="CR114" s="4">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="CS114" s="4">
         <v>71</v>
@@ -45746,7 +45746,7 @@
         <v>81</v>
       </c>
       <c r="BY115" s="4">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="BZ115" s="4">
         <v>79</v>
@@ -45803,7 +45803,7 @@
         <v>67</v>
       </c>
       <c r="CR115" s="4">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="CS115" s="4">
         <v>75</v>
@@ -46005,8 +46005,8 @@
       <c r="AH116">
         <v>1</v>
       </c>
-      <c r="AI116">
-        <v>37</v>
+      <c r="AI116" t="s">
+        <v>68</v>
       </c>
       <c r="AJ116">
         <v>512</v>
@@ -46132,7 +46132,7 @@
         <v>81</v>
       </c>
       <c r="BY116" s="4">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="BZ116" s="4">
         <v>79</v>
@@ -46189,7 +46189,7 @@
         <v>70</v>
       </c>
       <c r="CR116" s="4">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="CS116" s="4">
         <v>77</v>
@@ -46391,8 +46391,8 @@
       <c r="AH117">
         <v>1</v>
       </c>
-      <c r="AI117">
-        <v>37</v>
+      <c r="AI117" t="s">
+        <v>68</v>
       </c>
       <c r="AJ117">
         <v>539</v>
@@ -46518,7 +46518,7 @@
         <v>82</v>
       </c>
       <c r="BY117" s="4">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="BZ117" s="4">
         <v>84</v>
@@ -46575,7 +46575,7 @@
         <v>71</v>
       </c>
       <c r="CR117" s="4">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="CS117" s="4">
         <v>86</v>
@@ -46777,8 +46777,8 @@
       <c r="AH118">
         <v>1</v>
       </c>
-      <c r="AI118">
-        <v>37</v>
+      <c r="AI118" t="s">
+        <v>68</v>
       </c>
       <c r="AJ118">
         <v>540</v>
@@ -46904,7 +46904,7 @@
         <v>86</v>
       </c>
       <c r="BY118" s="4">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="BZ118" s="4">
         <v>90</v>
@@ -46961,7 +46961,7 @@
         <v>77</v>
       </c>
       <c r="CR118" s="4">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="CS118" s="4">
         <v>90</v>
@@ -47290,7 +47290,7 @@
         <v>86</v>
       </c>
       <c r="BY119" s="4">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="BZ119" s="4">
         <v>97</v>
@@ -47347,7 +47347,7 @@
         <v>84</v>
       </c>
       <c r="CR119" s="4">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="CS119" s="4">
         <v>96</v>
@@ -47676,7 +47676,7 @@
         <v>86</v>
       </c>
       <c r="BY120" s="4">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="BZ120" s="4">
         <v>104</v>
@@ -47733,7 +47733,7 @@
         <v>89</v>
       </c>
       <c r="CR120" s="4">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="CS120" s="4">
         <v>100</v>
@@ -48062,7 +48062,7 @@
         <v>86</v>
       </c>
       <c r="BY121" s="4">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="BZ121" s="4">
         <v>107</v>
@@ -48119,7 +48119,7 @@
         <v>90</v>
       </c>
       <c r="CR121" s="4">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="CS121" s="4">
         <v>101</v>
@@ -48448,7 +48448,7 @@
         <v>92</v>
       </c>
       <c r="BY122" s="4">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="BZ122" s="4">
         <v>119</v>
@@ -48505,7 +48505,7 @@
         <v>94</v>
       </c>
       <c r="CR122" s="4">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="CS122" s="4">
         <v>105</v>
@@ -48834,7 +48834,7 @@
         <v>92</v>
       </c>
       <c r="BY123" s="4">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="BZ123" s="4">
         <v>124</v>
@@ -48891,7 +48891,7 @@
         <v>99</v>
       </c>
       <c r="CR123" s="4">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="CS123" s="4">
         <v>109</v>
@@ -49220,7 +49220,7 @@
         <v>92</v>
       </c>
       <c r="BY124" s="4">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="BZ124" s="4">
         <v>128</v>
@@ -49277,7 +49277,7 @@
         <v>102</v>
       </c>
       <c r="CR124" s="4">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="CS124" s="4">
         <v>111</v>
@@ -49606,7 +49606,7 @@
         <v>92</v>
       </c>
       <c r="BY125" s="4">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="BZ125" s="4">
         <v>137</v>
@@ -49663,7 +49663,7 @@
         <v>106</v>
       </c>
       <c r="CR125" s="4">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="CS125" s="4">
         <v>115</v>
@@ -49992,7 +49992,7 @@
         <v>93</v>
       </c>
       <c r="BY126" s="4">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="BZ126" s="4">
         <v>145</v>
@@ -50049,7 +50049,7 @@
         <v>111</v>
       </c>
       <c r="CR126" s="4">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="CS126" s="4">
         <v>117</v>
@@ -50378,7 +50378,7 @@
         <v>100</v>
       </c>
       <c r="BY127" s="4">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="BZ127" s="4">
         <v>157</v>
@@ -50435,7 +50435,7 @@
         <v>120</v>
       </c>
       <c r="CR127" s="4">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="CS127" s="4">
         <v>129</v>
@@ -50628,8 +50628,8 @@
       <c r="AE128">
         <v>29</v>
       </c>
-      <c r="AF128" t="s">
-        <v>68</v>
+      <c r="AF128">
+        <v>12</v>
       </c>
       <c r="AG128">
         <v>14</v>
@@ -50764,7 +50764,7 @@
         <v>104</v>
       </c>
       <c r="BY128" s="4">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="BZ128" s="4">
         <v>181</v>
@@ -50821,7 +50821,7 @@
         <v>125</v>
       </c>
       <c r="CR128" s="4">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="CS128" s="4">
         <v>141</v>
@@ -51150,7 +51150,7 @@
         <v>104</v>
       </c>
       <c r="BY129" s="4">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="BZ129" s="4">
         <v>192</v>
@@ -51207,7 +51207,7 @@
         <v>126</v>
       </c>
       <c r="CR129" s="4">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="CS129" s="4">
         <v>146</v>
@@ -51536,7 +51536,7 @@
         <v>104</v>
       </c>
       <c r="BY130" s="4">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="BZ130" s="4">
         <v>201</v>
@@ -51593,7 +51593,7 @@
         <v>126</v>
       </c>
       <c r="CR130" s="4">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="CS130" s="4">
         <v>149</v>
@@ -51922,7 +51922,7 @@
         <v>104</v>
       </c>
       <c r="BY131" s="4">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="BZ131" s="4">
         <v>216</v>
@@ -51979,7 +51979,7 @@
         <v>128</v>
       </c>
       <c r="CR131" s="4">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="CS131" s="4">
         <v>151</v>
@@ -52307,8 +52307,8 @@
       <c r="BX132" s="4">
         <v>112</v>
       </c>
-      <c r="BY132" s="4" t="s">
-        <v>68</v>
+      <c r="BY132" s="4">
+        <v>605</v>
       </c>
       <c r="BZ132" s="4">
         <v>253</v>
@@ -52365,7 +52365,7 @@
         <v>144</v>
       </c>
       <c r="CR132" s="4">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="CS132" s="4">
         <v>158</v>
@@ -52558,8 +52558,8 @@
       <c r="AE133">
         <v>61</v>
       </c>
-      <c r="AF133" t="s">
-        <v>68</v>
+      <c r="AF133">
+        <v>31</v>
       </c>
       <c r="AG133">
         <v>14</v>
@@ -52694,7 +52694,7 @@
         <v>112</v>
       </c>
       <c r="BY133" s="4">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="BZ133" s="4">
         <v>280</v>
@@ -52751,7 +52751,7 @@
         <v>151</v>
       </c>
       <c r="CR133" s="4">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="CS133" s="4">
         <v>160</v>
@@ -52944,8 +52944,8 @@
       <c r="AE134">
         <v>61</v>
       </c>
-      <c r="AF134" t="s">
-        <v>68</v>
+      <c r="AF134">
+        <v>33</v>
       </c>
       <c r="AG134">
         <v>14</v>
@@ -53080,7 +53080,7 @@
         <v>114</v>
       </c>
       <c r="BY134" s="4">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="BZ134" s="4">
         <v>298</v>
@@ -53137,7 +53137,7 @@
         <v>156</v>
       </c>
       <c r="CR134" s="4">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="CS134" s="4">
         <v>176</v>
@@ -53466,7 +53466,7 @@
         <v>116</v>
       </c>
       <c r="BY135" s="4">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="BZ135" s="4">
         <v>333</v>
@@ -53523,7 +53523,7 @@
         <v>156</v>
       </c>
       <c r="CR135" s="4">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="CS135" s="4">
         <v>186</v>
@@ -53852,7 +53852,7 @@
         <v>116</v>
       </c>
       <c r="BY136" s="4">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="BZ136" s="4">
         <v>383</v>
@@ -53909,7 +53909,7 @@
         <v>157</v>
       </c>
       <c r="CR136" s="4">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="CS136" s="4">
         <v>197</v>
@@ -54238,7 +54238,7 @@
         <v>117</v>
       </c>
       <c r="BY137" s="4">
-        <v>1072</v>
+        <v>1061</v>
       </c>
       <c r="BZ137" s="4">
         <v>406</v>
@@ -54295,7 +54295,7 @@
         <v>157</v>
       </c>
       <c r="CR137" s="4">
-        <v>701</v>
+        <v>688</v>
       </c>
       <c r="CS137" s="4">
         <v>202</v>
@@ -54624,7 +54624,7 @@
         <v>119</v>
       </c>
       <c r="BY138" s="4">
-        <v>1136</v>
+        <v>1122</v>
       </c>
       <c r="BZ138" s="4">
         <v>458</v>
@@ -54681,7 +54681,7 @@
         <v>163</v>
       </c>
       <c r="CR138" s="4">
-        <v>739</v>
+        <v>725</v>
       </c>
       <c r="CS138" s="4">
         <v>208</v>
@@ -55010,7 +55010,7 @@
         <v>119</v>
       </c>
       <c r="BY139" s="4">
-        <v>1233</v>
+        <v>1218</v>
       </c>
       <c r="BZ139" s="4">
         <v>520</v>
@@ -55067,7 +55067,7 @@
         <v>169</v>
       </c>
       <c r="CR139" s="4">
-        <v>843</v>
+        <v>827</v>
       </c>
       <c r="CS139" s="4">
         <v>218</v>
@@ -55396,7 +55396,7 @@
         <v>126</v>
       </c>
       <c r="BY140" s="4">
-        <v>1283</v>
+        <v>1272</v>
       </c>
       <c r="BZ140" s="4">
         <v>544</v>
@@ -55453,7 +55453,7 @@
         <v>171</v>
       </c>
       <c r="CR140" s="4">
-        <v>895</v>
+        <v>875</v>
       </c>
       <c r="CS140" s="4">
         <v>226</v>
@@ -55782,7 +55782,7 @@
         <v>129</v>
       </c>
       <c r="BY141" s="4">
-        <v>1307</v>
+        <v>1295</v>
       </c>
       <c r="BZ141" s="4">
         <v>586</v>
@@ -55839,7 +55839,7 @@
         <v>172</v>
       </c>
       <c r="CR141" s="4">
-        <v>935</v>
+        <v>914</v>
       </c>
       <c r="CS141" s="4">
         <v>229</v>
@@ -56168,7 +56168,7 @@
         <v>135</v>
       </c>
       <c r="BY142" s="4">
-        <v>1349</v>
+        <v>1343</v>
       </c>
       <c r="BZ142" s="4">
         <v>633</v>
@@ -56225,7 +56225,7 @@
         <v>176</v>
       </c>
       <c r="CR142" s="4">
-        <v>1017</v>
+        <v>996</v>
       </c>
       <c r="CS142" s="4">
         <v>249</v>
@@ -56554,7 +56554,7 @@
         <v>139</v>
       </c>
       <c r="BY143" s="4">
-        <v>1379</v>
+        <v>1372</v>
       </c>
       <c r="BZ143" s="4">
         <v>670</v>
@@ -56611,7 +56611,7 @@
         <v>182</v>
       </c>
       <c r="CR143" s="4">
-        <v>1034</v>
+        <v>1013</v>
       </c>
       <c r="CS143" s="4">
         <v>258</v>
@@ -56940,7 +56940,7 @@
         <v>141</v>
       </c>
       <c r="BY144" s="4">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="BZ144" s="4">
         <v>715</v>
@@ -56997,7 +56997,7 @@
         <v>186</v>
       </c>
       <c r="CR144" s="4">
-        <v>1184</v>
+        <v>1160</v>
       </c>
       <c r="CS144" s="4">
         <v>268</v>
@@ -57326,7 +57326,7 @@
         <v>150</v>
       </c>
       <c r="BY145" s="4">
-        <v>1524</v>
+        <v>1527</v>
       </c>
       <c r="BZ145" s="4">
         <v>791</v>
@@ -57383,7 +57383,7 @@
         <v>187</v>
       </c>
       <c r="CR145" s="4">
-        <v>1210</v>
+        <v>1185</v>
       </c>
       <c r="CS145" s="4">
         <v>272</v>
@@ -57712,7 +57712,7 @@
         <v>151</v>
       </c>
       <c r="BY146" s="4">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="BZ146" s="4">
         <v>830</v>
@@ -57769,7 +57769,7 @@
         <v>201</v>
       </c>
       <c r="CR146" s="4">
-        <v>1242</v>
+        <v>1217</v>
       </c>
       <c r="CS146" s="4">
         <v>281</v>
@@ -57962,8 +57962,8 @@
       <c r="AE147">
         <v>61</v>
       </c>
-      <c r="AF147" s="10" t="s">
-        <v>68</v>
+      <c r="AF147" s="10">
+        <v>72</v>
       </c>
       <c r="AG147">
         <v>14</v>
@@ -58098,7 +58098,7 @@
         <v>176</v>
       </c>
       <c r="BY147" s="4">
-        <v>1643</v>
+        <v>1639</v>
       </c>
       <c r="BZ147" s="4">
         <v>882</v>
@@ -58155,7 +58155,7 @@
         <v>208</v>
       </c>
       <c r="CR147" s="4">
-        <v>1268</v>
+        <v>1244</v>
       </c>
       <c r="CS147" s="4">
         <v>294</v>
@@ -58484,7 +58484,7 @@
         <v>192</v>
       </c>
       <c r="BY148" s="4">
-        <v>1794</v>
+        <v>1786</v>
       </c>
       <c r="BZ148" s="4">
         <v>954</v>
@@ -58541,7 +58541,7 @@
         <v>215</v>
       </c>
       <c r="CR148" s="4">
-        <v>1350</v>
+        <v>1325</v>
       </c>
       <c r="CS148" s="4">
         <v>314</v>
@@ -58870,7 +58870,7 @@
         <v>209</v>
       </c>
       <c r="BY149" s="4">
-        <v>1893</v>
+        <v>1870</v>
       </c>
       <c r="BZ149" s="4">
         <v>1048</v>
@@ -58927,7 +58927,7 @@
         <v>226</v>
       </c>
       <c r="CR149" s="4">
-        <v>1456</v>
+        <v>1426</v>
       </c>
       <c r="CS149" s="4">
         <v>321</v>
@@ -59256,7 +59256,7 @@
         <v>220</v>
       </c>
       <c r="BY150" s="4">
-        <v>2030</v>
+        <v>1994</v>
       </c>
       <c r="BZ150" s="4">
         <v>1152</v>
@@ -59313,7 +59313,7 @@
         <v>237</v>
       </c>
       <c r="CR150" s="4">
-        <v>1711</v>
+        <v>1682</v>
       </c>
       <c r="CS150" s="4">
         <v>341</v>
@@ -59642,7 +59642,7 @@
         <v>231</v>
       </c>
       <c r="BY151" s="4">
-        <v>2173</v>
+        <v>2112</v>
       </c>
       <c r="BZ151" s="4">
         <v>1231</v>
@@ -59699,7 +59699,7 @@
         <v>253</v>
       </c>
       <c r="CR151" s="4">
-        <v>1843</v>
+        <v>1814</v>
       </c>
       <c r="CS151" s="4">
         <v>368</v>
@@ -60028,7 +60028,7 @@
         <v>252</v>
       </c>
       <c r="BY152" s="4">
-        <v>2386</v>
+        <v>2295</v>
       </c>
       <c r="BZ152" s="4">
         <v>1351</v>
@@ -60085,7 +60085,7 @@
         <v>260</v>
       </c>
       <c r="CR152" s="4">
-        <v>1945</v>
+        <v>1916</v>
       </c>
       <c r="CS152" s="4" t="s">
         <v>68</v>
@@ -60278,8 +60278,8 @@
       <c r="AE153">
         <v>61</v>
       </c>
-      <c r="AF153">
-        <v>119</v>
+      <c r="AF153" t="s">
+        <v>68</v>
       </c>
       <c r="AG153">
         <v>14</v>
@@ -60414,7 +60414,7 @@
         <v>259</v>
       </c>
       <c r="BY153" s="4">
-        <v>2458</v>
+        <v>2365</v>
       </c>
       <c r="BZ153" s="4">
         <v>1391</v>
@@ -60471,7 +60471,7 @@
         <v>275</v>
       </c>
       <c r="CR153" s="4">
-        <v>1986</v>
+        <v>1957</v>
       </c>
       <c r="CS153" s="4">
         <v>420</v>
@@ -60664,8 +60664,8 @@
       <c r="AE154">
         <v>61</v>
       </c>
-      <c r="AF154">
-        <v>122</v>
+      <c r="AF154" t="s">
+        <v>68</v>
       </c>
       <c r="AG154">
         <v>14</v>
@@ -60800,7 +60800,7 @@
         <v>278</v>
       </c>
       <c r="BY154" s="4">
-        <v>2522</v>
+        <v>2417</v>
       </c>
       <c r="BZ154" s="4">
         <v>1411</v>
@@ -60857,7 +60857,7 @@
         <v>286</v>
       </c>
       <c r="CR154" s="4">
-        <v>2084</v>
+        <v>2053</v>
       </c>
       <c r="CS154" s="4">
         <v>437</v>
@@ -61050,8 +61050,8 @@
       <c r="AE155">
         <v>61</v>
       </c>
-      <c r="AF155" t="s">
-        <v>68</v>
+      <c r="AF155">
+        <v>176</v>
       </c>
       <c r="AG155">
         <v>14</v>
@@ -61186,7 +61186,7 @@
         <v>297</v>
       </c>
       <c r="BY155" s="4">
-        <v>2601</v>
+        <v>2487</v>
       </c>
       <c r="BZ155" s="4">
         <v>1448</v>
@@ -61243,7 +61243,7 @@
         <v>299</v>
       </c>
       <c r="CR155" s="4">
-        <v>2159</v>
+        <v>2128</v>
       </c>
       <c r="CS155" s="4">
         <v>448</v>
@@ -61572,7 +61572,7 @@
         <v>301</v>
       </c>
       <c r="BY156" s="4">
-        <v>2702</v>
+        <v>2584</v>
       </c>
       <c r="BZ156" s="4">
         <v>1501</v>
@@ -61629,7 +61629,7 @@
         <v>303</v>
       </c>
       <c r="CR156" s="4">
-        <v>2216</v>
+        <v>2186</v>
       </c>
       <c r="CS156" s="4">
         <v>457</v>
@@ -61958,7 +61958,7 @@
         <v>316</v>
       </c>
       <c r="BY157" s="4">
-        <v>2776</v>
+        <v>2650</v>
       </c>
       <c r="BZ157" s="4">
         <v>1530</v>
@@ -62015,7 +62015,7 @@
         <v>313</v>
       </c>
       <c r="CR157" s="4">
-        <v>2263</v>
+        <v>2233</v>
       </c>
       <c r="CS157" s="4">
         <v>476</v>
@@ -62344,7 +62344,7 @@
         <v>328</v>
       </c>
       <c r="BY158" s="4">
-        <v>2862</v>
+        <v>2725</v>
       </c>
       <c r="BZ158" s="4">
         <v>1587</v>
@@ -62401,7 +62401,7 @@
         <v>319</v>
       </c>
       <c r="CR158" s="4">
-        <v>2318</v>
+        <v>2287</v>
       </c>
       <c r="CS158" s="4">
         <v>488</v>
@@ -62730,7 +62730,7 @@
         <v>342</v>
       </c>
       <c r="BY159" s="4">
-        <v>2899</v>
+        <v>2829</v>
       </c>
       <c r="BZ159" s="4">
         <v>1659</v>
@@ -62787,7 +62787,7 @@
         <v>322</v>
       </c>
       <c r="CR159" s="4">
-        <v>2364</v>
+        <v>2333</v>
       </c>
       <c r="CS159" s="4">
         <v>503</v>
@@ -63116,7 +63116,7 @@
         <v>354</v>
       </c>
       <c r="BY160" s="4">
-        <v>2922</v>
+        <v>2886</v>
       </c>
       <c r="BZ160" s="4">
         <v>1695</v>
@@ -63173,7 +63173,7 @@
         <v>331</v>
       </c>
       <c r="CR160" s="4">
-        <v>2423</v>
+        <v>2389</v>
       </c>
       <c r="CS160" s="4">
         <v>528</v>
@@ -63502,7 +63502,7 @@
         <v>359</v>
       </c>
       <c r="BY161" s="4">
-        <v>3007</v>
+        <v>2963</v>
       </c>
       <c r="BZ161" s="4">
         <v>1747</v>
@@ -63559,7 +63559,7 @@
         <v>342</v>
       </c>
       <c r="CR161" s="4">
-        <v>2469</v>
+        <v>2435</v>
       </c>
       <c r="CS161" s="4">
         <v>569</v>
@@ -63888,7 +63888,7 @@
         <v>370</v>
       </c>
       <c r="BY162" s="4">
-        <v>3094</v>
+        <v>3049</v>
       </c>
       <c r="BZ162" s="4">
         <v>1801</v>
@@ -63945,7 +63945,7 @@
         <v>359</v>
       </c>
       <c r="CR162" s="4">
-        <v>2517</v>
+        <v>2483</v>
       </c>
       <c r="CS162" s="4">
         <v>593</v>
@@ -64274,7 +64274,7 @@
         <v>415</v>
       </c>
       <c r="BY163" s="4">
-        <v>3170</v>
+        <v>3123</v>
       </c>
       <c r="BZ163" s="4">
         <v>1848</v>
@@ -64331,7 +64331,7 @@
         <v>375</v>
       </c>
       <c r="CR163" s="4">
-        <v>2576</v>
+        <v>2542</v>
       </c>
       <c r="CS163" s="4">
         <v>610</v>
@@ -64660,7 +64660,7 @@
         <v>428</v>
       </c>
       <c r="BY164" s="4">
-        <v>3292</v>
+        <v>3243</v>
       </c>
       <c r="BZ164" s="4">
         <v>1890</v>
@@ -64717,7 +64717,7 @@
         <v>391</v>
       </c>
       <c r="CR164" s="4">
-        <v>2603</v>
+        <v>2569</v>
       </c>
       <c r="CS164" s="4">
         <v>648</v>
@@ -65046,7 +65046,7 @@
         <v>440</v>
       </c>
       <c r="BY165" s="4">
-        <v>3360</v>
+        <v>3294</v>
       </c>
       <c r="BZ165" s="4">
         <v>1929</v>
@@ -65103,7 +65103,7 @@
         <v>409</v>
       </c>
       <c r="CR165" s="4">
-        <v>2641</v>
+        <v>2607</v>
       </c>
       <c r="CS165" s="4">
         <v>667</v>
@@ -65432,7 +65432,7 @@
         <v>445</v>
       </c>
       <c r="BY166" s="4">
-        <v>3435</v>
+        <v>3362</v>
       </c>
       <c r="BZ166" s="4">
         <v>1952</v>
@@ -65489,7 +65489,7 @@
         <v>420</v>
       </c>
       <c r="CR166" s="4">
-        <v>2670</v>
+        <v>2636</v>
       </c>
       <c r="CS166" s="4">
         <v>683</v>
@@ -65818,7 +65818,7 @@
         <v>458</v>
       </c>
       <c r="BY167" s="4">
-        <v>3531</v>
+        <v>3443</v>
       </c>
       <c r="BZ167" s="4">
         <v>1992</v>
@@ -65875,7 +65875,7 @@
         <v>438</v>
       </c>
       <c r="CR167" s="4">
-        <v>2686</v>
+        <v>2652</v>
       </c>
       <c r="CS167" s="4">
         <v>704</v>
@@ -66204,7 +66204,7 @@
         <v>480</v>
       </c>
       <c r="BY168" s="4">
-        <v>3601</v>
+        <v>3509</v>
       </c>
       <c r="BZ168" s="4">
         <v>2023</v>
@@ -66261,7 +66261,7 @@
         <v>459</v>
       </c>
       <c r="CR168" s="4">
-        <v>2727</v>
+        <v>2693</v>
       </c>
       <c r="CS168" s="4">
         <v>741</v>
@@ -66590,7 +66590,7 @@
         <v>507</v>
       </c>
       <c r="BY169" s="4">
-        <v>3621</v>
+        <v>3564</v>
       </c>
       <c r="BZ169" s="4">
         <v>2056</v>
@@ -66647,7 +66647,7 @@
         <v>474</v>
       </c>
       <c r="CR169" s="4">
-        <v>2759</v>
+        <v>2725</v>
       </c>
       <c r="CS169" s="4">
         <v>781</v>
@@ -66976,7 +66976,7 @@
         <v>563</v>
       </c>
       <c r="BY170" s="4">
-        <v>3694</v>
+        <v>3634</v>
       </c>
       <c r="BZ170" s="4">
         <v>2110</v>
@@ -67033,7 +67033,7 @@
         <v>487</v>
       </c>
       <c r="CR170" s="4">
-        <v>2798</v>
+        <v>2764</v>
       </c>
       <c r="CS170" s="4">
         <v>800</v>
@@ -67362,7 +67362,7 @@
         <v>582</v>
       </c>
       <c r="BY171" s="4">
-        <v>3739</v>
+        <v>3672</v>
       </c>
       <c r="BZ171" s="4">
         <v>2143</v>
@@ -67419,7 +67419,7 @@
         <v>507</v>
       </c>
       <c r="CR171" s="4">
-        <v>2803</v>
+        <v>2769</v>
       </c>
       <c r="CS171" s="4">
         <v>810</v>
@@ -67748,7 +67748,7 @@
         <v>615</v>
       </c>
       <c r="BY172" s="4">
-        <v>3850</v>
+        <v>3773</v>
       </c>
       <c r="BZ172" s="4">
         <v>2205</v>
@@ -67805,7 +67805,7 @@
         <v>510</v>
       </c>
       <c r="CR172" s="4">
-        <v>2850</v>
+        <v>2816</v>
       </c>
       <c r="CS172" s="4">
         <v>831</v>
@@ -68134,7 +68134,7 @@
         <v>679</v>
       </c>
       <c r="BY173" s="4">
-        <v>3890</v>
+        <v>3818</v>
       </c>
       <c r="BZ173" s="4">
         <v>2227</v>
@@ -68191,7 +68191,7 @@
         <v>528</v>
       </c>
       <c r="CR173" s="4">
-        <v>2855</v>
+        <v>2821</v>
       </c>
       <c r="CS173" s="4">
         <v>870</v>
@@ -68520,7 +68520,7 @@
         <v>704</v>
       </c>
       <c r="BY174" s="4">
-        <v>3935</v>
+        <v>3857</v>
       </c>
       <c r="BZ174" s="4">
         <v>2253</v>
@@ -68577,7 +68577,7 @@
         <v>542</v>
       </c>
       <c r="CR174" s="4">
-        <v>2869</v>
+        <v>2835</v>
       </c>
       <c r="CS174" s="4">
         <v>901</v>
@@ -68906,7 +68906,7 @@
         <v>717</v>
       </c>
       <c r="BY175" s="4">
-        <v>4003</v>
+        <v>3920</v>
       </c>
       <c r="BZ175" s="4">
         <v>2291</v>
@@ -68963,7 +68963,7 @@
         <v>549</v>
       </c>
       <c r="CR175" s="4">
-        <v>2892</v>
+        <v>2861</v>
       </c>
       <c r="CS175" s="4">
         <v>914</v>
@@ -69292,7 +69292,7 @@
         <v>729</v>
       </c>
       <c r="BY176" s="4">
-        <v>4134</v>
+        <v>4041</v>
       </c>
       <c r="BZ176" s="4">
         <v>2328</v>
@@ -69349,7 +69349,7 @@
         <v>557</v>
       </c>
       <c r="CR176" s="4">
-        <v>2948</v>
+        <v>2917</v>
       </c>
       <c r="CS176" s="4">
         <v>931</v>
@@ -69678,7 +69678,7 @@
         <v>754</v>
       </c>
       <c r="BY177" s="4">
-        <v>4141</v>
+        <v>4101</v>
       </c>
       <c r="BZ177" s="4">
         <v>2372</v>
@@ -69735,7 +69735,7 @@
         <v>582</v>
       </c>
       <c r="CR177" s="4">
-        <v>2960</v>
+        <v>2929</v>
       </c>
       <c r="CS177" s="4">
         <v>944</v>
@@ -70064,7 +70064,7 @@
         <v>790</v>
       </c>
       <c r="BY178" s="4">
-        <v>4186</v>
+        <v>4148</v>
       </c>
       <c r="BZ178" s="4">
         <v>2396</v>
@@ -70121,7 +70121,7 @@
         <v>595</v>
       </c>
       <c r="CR178" s="4">
-        <v>2990</v>
+        <v>2959</v>
       </c>
       <c r="CS178" s="4">
         <v>958</v>
@@ -70450,7 +70450,7 @@
         <v>858</v>
       </c>
       <c r="BY179" s="4">
-        <v>4235</v>
+        <v>4195</v>
       </c>
       <c r="BZ179" s="4">
         <v>2413</v>
@@ -70507,7 +70507,7 @@
         <v>603</v>
       </c>
       <c r="CR179" s="4">
-        <v>2997</v>
+        <v>2966</v>
       </c>
       <c r="CS179" s="4">
         <v>1009</v>
@@ -70836,7 +70836,7 @@
         <v>902</v>
       </c>
       <c r="BY180" s="4">
-        <v>4275</v>
+        <v>4234</v>
       </c>
       <c r="BZ180" s="4">
         <v>2434</v>
@@ -70893,7 +70893,7 @@
         <v>610</v>
       </c>
       <c r="CR180" s="4">
-        <v>3005</v>
+        <v>2974</v>
       </c>
       <c r="CS180" s="4">
         <v>1020</v>
@@ -71222,7 +71222,7 @@
         <v>928</v>
       </c>
       <c r="BY181" s="4">
-        <v>4324</v>
+        <v>4281</v>
       </c>
       <c r="BZ181" s="4">
         <v>2463</v>
@@ -71279,7 +71279,7 @@
         <v>620</v>
       </c>
       <c r="CR181" s="4">
-        <v>3007</v>
+        <v>2976</v>
       </c>
       <c r="CS181" s="4">
         <v>1056</v>
@@ -71608,7 +71608,7 @@
         <v>976</v>
       </c>
       <c r="BY182" s="4">
-        <v>4398</v>
+        <v>4380</v>
       </c>
       <c r="BZ182" s="4">
         <v>2510</v>
@@ -71665,7 +71665,7 @@
         <v>622</v>
       </c>
       <c r="CR182" s="4">
-        <v>3031</v>
+        <v>3000</v>
       </c>
       <c r="CS182" s="4">
         <v>1070</v>
@@ -71994,7 +71994,7 @@
         <v>996</v>
       </c>
       <c r="BY183" s="4">
-        <v>4713</v>
+        <v>4661</v>
       </c>
       <c r="BZ183" s="4">
         <v>2557</v>
@@ -72051,7 +72051,7 @@
         <v>629</v>
       </c>
       <c r="CR183" s="4">
-        <v>3085</v>
+        <v>3054</v>
       </c>
       <c r="CS183" s="4">
         <v>1082</v>
@@ -72380,7 +72380,7 @@
         <v>1047</v>
       </c>
       <c r="BY184" s="4">
-        <v>4858</v>
+        <v>4805</v>
       </c>
       <c r="BZ184" s="4">
         <v>2651</v>
@@ -72437,7 +72437,7 @@
         <v>641</v>
       </c>
       <c r="CR184" s="4">
-        <v>3092</v>
+        <v>3061</v>
       </c>
       <c r="CS184" s="4">
         <v>1104</v>
@@ -72766,7 +72766,7 @@
         <v>1094</v>
       </c>
       <c r="BY185" s="4">
-        <v>4913</v>
+        <v>4860</v>
       </c>
       <c r="BZ185" s="4">
         <v>2698</v>
@@ -72823,7 +72823,7 @@
         <v>656</v>
       </c>
       <c r="CR185" s="4">
-        <v>3096</v>
+        <v>3067</v>
       </c>
       <c r="CS185" s="4">
         <v>1135</v>
@@ -73152,7 +73152,7 @@
         <v>1132</v>
       </c>
       <c r="BY186" s="4">
-        <v>4937</v>
+        <v>4884</v>
       </c>
       <c r="BZ186" s="4">
         <v>2725</v>
@@ -73209,7 +73209,7 @@
         <v>665</v>
       </c>
       <c r="CR186" s="4">
-        <v>3117</v>
+        <v>3088</v>
       </c>
       <c r="CS186" s="4">
         <v>1155</v>
@@ -73538,7 +73538,7 @@
         <v>1165</v>
       </c>
       <c r="BY187" s="4">
-        <v>4987</v>
+        <v>4934</v>
       </c>
       <c r="BZ187" s="4">
         <v>2739</v>
@@ -73595,7 +73595,7 @@
         <v>665</v>
       </c>
       <c r="CR187" s="4">
-        <v>3121</v>
+        <v>3092</v>
       </c>
       <c r="CS187" s="4">
         <v>1169</v>
@@ -73924,7 +73924,7 @@
         <v>1199</v>
       </c>
       <c r="BY188" s="4">
-        <v>4964</v>
+        <v>4963</v>
       </c>
       <c r="BZ188" s="4">
         <v>2774</v>
@@ -73981,7 +73981,7 @@
         <v>668</v>
       </c>
       <c r="CR188" s="4">
-        <v>3129</v>
+        <v>3099</v>
       </c>
       <c r="CS188" s="4">
         <v>1188</v>
@@ -74850,6 +74850,392 @@
       </c>
       <c r="DX190">
         <v>10830</v>
+      </c>
+    </row>
+    <row r="191" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>44085</v>
+      </c>
+      <c r="B191">
+        <v>702088</v>
+      </c>
+      <c r="C191">
+        <v>2721</v>
+      </c>
+      <c r="D191">
+        <v>93307</v>
+      </c>
+      <c r="E191">
+        <v>65631</v>
+      </c>
+      <c r="F191">
+        <v>236313</v>
+      </c>
+      <c r="G191">
+        <v>26786</v>
+      </c>
+      <c r="H191">
+        <v>4823</v>
+      </c>
+      <c r="I191">
+        <v>3805</v>
+      </c>
+      <c r="J191">
+        <v>7239</v>
+      </c>
+      <c r="K191">
+        <v>7012</v>
+      </c>
+      <c r="L191">
+        <v>14983</v>
+      </c>
+      <c r="M191">
+        <v>3853</v>
+      </c>
+      <c r="N191">
+        <v>21892</v>
+      </c>
+      <c r="O191">
+        <v>27572</v>
+      </c>
+      <c r="P191">
+        <v>6438</v>
+      </c>
+      <c r="Q191">
+        <v>7139</v>
+      </c>
+      <c r="R191">
+        <v>13607</v>
+      </c>
+      <c r="S191">
+        <v>11125</v>
+      </c>
+      <c r="T191">
+        <v>15871</v>
+      </c>
+      <c r="U191">
+        <v>13429</v>
+      </c>
+      <c r="V191">
+        <v>3334</v>
+      </c>
+      <c r="W191">
+        <v>1823</v>
+      </c>
+      <c r="X191">
+        <v>7829</v>
+      </c>
+      <c r="Y191">
+        <v>23720</v>
+      </c>
+      <c r="Z191">
+        <v>12985</v>
+      </c>
+      <c r="AA191">
+        <v>9246</v>
+      </c>
+      <c r="AB191">
+        <v>52559</v>
+      </c>
+      <c r="AC191">
+        <v>1432</v>
+      </c>
+      <c r="AD191">
+        <v>431</v>
+      </c>
+      <c r="AE191">
+        <v>519</v>
+      </c>
+      <c r="AF191">
+        <v>458</v>
+      </c>
+      <c r="AG191">
+        <v>340</v>
+      </c>
+      <c r="AH191">
+        <v>223</v>
+      </c>
+      <c r="AI191">
+        <v>442</v>
+      </c>
+      <c r="AJ191">
+        <v>2000</v>
+      </c>
+      <c r="AK191">
+        <v>4143</v>
+      </c>
+      <c r="AL191">
+        <v>36983</v>
+      </c>
+      <c r="AM191">
+        <v>8073</v>
+      </c>
+      <c r="AN191">
+        <v>2486</v>
+      </c>
+      <c r="AO191">
+        <v>41074</v>
+      </c>
+      <c r="AP191">
+        <v>1033</v>
+      </c>
+      <c r="AQ191">
+        <v>21545</v>
+      </c>
+      <c r="AR191">
+        <v>1482</v>
+      </c>
+      <c r="AS191">
+        <v>9254</v>
+      </c>
+      <c r="AT191">
+        <v>1595</v>
+      </c>
+      <c r="AU191">
+        <v>1585</v>
+      </c>
+      <c r="AV191">
+        <v>6085</v>
+      </c>
+      <c r="AW191">
+        <v>1753</v>
+      </c>
+      <c r="AX191">
+        <v>954</v>
+      </c>
+      <c r="AY191">
+        <v>2484</v>
+      </c>
+      <c r="AZ191">
+        <v>2652</v>
+      </c>
+      <c r="BA191">
+        <v>53991</v>
+      </c>
+      <c r="BB191">
+        <v>13272</v>
+      </c>
+      <c r="BC191">
+        <v>4160</v>
+      </c>
+      <c r="BD191">
+        <v>8566</v>
+      </c>
+      <c r="BE191">
+        <v>5207</v>
+      </c>
+      <c r="BF191">
+        <v>280</v>
+      </c>
+      <c r="BG191">
+        <v>1433</v>
+      </c>
+      <c r="BH191">
+        <v>2647</v>
+      </c>
+      <c r="BI191">
+        <v>735</v>
+      </c>
+      <c r="BJ191">
+        <v>2110</v>
+      </c>
+      <c r="BK191">
+        <v>9094</v>
+      </c>
+      <c r="BL191">
+        <v>9082</v>
+      </c>
+      <c r="BM191">
+        <v>9624</v>
+      </c>
+      <c r="BN191">
+        <v>14060</v>
+      </c>
+      <c r="BO191">
+        <v>1921</v>
+      </c>
+      <c r="BP191">
+        <v>858</v>
+      </c>
+      <c r="BQ191">
+        <v>11215</v>
+      </c>
+      <c r="BR191">
+        <v>8879</v>
+      </c>
+      <c r="BS191" s="4">
+        <v>10373</v>
+      </c>
+      <c r="BT191" s="4">
+        <v>1969</v>
+      </c>
+      <c r="BU191" s="4">
+        <v>1791</v>
+      </c>
+      <c r="BV191" s="4">
+        <v>4264</v>
+      </c>
+      <c r="BW191" s="4">
+        <v>4064</v>
+      </c>
+      <c r="BX191" s="4">
+        <v>1311</v>
+      </c>
+      <c r="BY191" s="4">
+        <v>5165</v>
+      </c>
+      <c r="BZ191" s="4">
+        <v>2908</v>
+      </c>
+      <c r="CA191" s="4">
+        <v>1669</v>
+      </c>
+      <c r="CB191" s="4">
+        <v>826</v>
+      </c>
+      <c r="CC191" s="4">
+        <v>2531</v>
+      </c>
+      <c r="CD191" s="4">
+        <v>2116</v>
+      </c>
+      <c r="CE191" s="4">
+        <v>1601</v>
+      </c>
+      <c r="CF191" s="4">
+        <v>1244</v>
+      </c>
+      <c r="CG191" s="4">
+        <v>5867</v>
+      </c>
+      <c r="CH191" s="4">
+        <v>1788</v>
+      </c>
+      <c r="CI191" s="4">
+        <v>1304</v>
+      </c>
+      <c r="CJ191" s="4">
+        <v>1499</v>
+      </c>
+      <c r="CK191" s="4">
+        <v>1880</v>
+      </c>
+      <c r="CL191" s="4">
+        <v>1808</v>
+      </c>
+      <c r="CM191" s="4">
+        <v>2165</v>
+      </c>
+      <c r="CN191" s="4">
+        <v>1355</v>
+      </c>
+      <c r="CO191" s="4">
+        <v>1163</v>
+      </c>
+      <c r="CP191" s="4">
+        <v>1156</v>
+      </c>
+      <c r="CQ191" s="4">
+        <v>729</v>
+      </c>
+      <c r="CR191" s="4">
+        <v>3173</v>
+      </c>
+      <c r="CS191" s="4">
+        <v>1246</v>
+      </c>
+      <c r="CT191" s="4">
+        <v>857</v>
+      </c>
+      <c r="CU191" s="4">
+        <v>891</v>
+      </c>
+      <c r="CV191" s="4">
+        <v>1602</v>
+      </c>
+      <c r="CW191" s="4">
+        <v>1405</v>
+      </c>
+      <c r="CX191" s="4">
+        <v>709</v>
+      </c>
+      <c r="CY191" s="4">
+        <v>811</v>
+      </c>
+      <c r="CZ191" s="4">
+        <v>1102</v>
+      </c>
+      <c r="DA191" s="4">
+        <v>1400</v>
+      </c>
+      <c r="DB191" s="4">
+        <v>1207</v>
+      </c>
+      <c r="DC191" s="4">
+        <v>1321</v>
+      </c>
+      <c r="DD191" s="4">
+        <v>1038</v>
+      </c>
+      <c r="DE191" s="4">
+        <v>325</v>
+      </c>
+      <c r="DF191" s="4">
+        <v>347</v>
+      </c>
+      <c r="DG191" s="4">
+        <v>755</v>
+      </c>
+      <c r="DH191" s="4">
+        <v>680</v>
+      </c>
+      <c r="DI191" s="4">
+        <v>447</v>
+      </c>
+      <c r="DJ191" s="4">
+        <v>535</v>
+      </c>
+      <c r="DK191" s="4">
+        <v>360</v>
+      </c>
+      <c r="DL191" s="4">
+        <v>644</v>
+      </c>
+      <c r="DM191" s="4">
+        <v>727</v>
+      </c>
+      <c r="DN191" s="4">
+        <v>518</v>
+      </c>
+      <c r="DO191" s="4">
+        <v>484</v>
+      </c>
+      <c r="DP191" s="4">
+        <v>372</v>
+      </c>
+      <c r="DQ191" s="4">
+        <v>518</v>
+      </c>
+      <c r="DR191">
+        <v>127445</v>
+      </c>
+      <c r="DS191">
+        <v>297939</v>
+      </c>
+      <c r="DT191">
+        <v>13730</v>
+      </c>
+      <c r="DU191">
+        <v>128174</v>
+      </c>
+      <c r="DV191">
+        <v>79295</v>
+      </c>
+      <c r="DW191">
+        <v>37198</v>
+      </c>
+      <c r="DX191">
+        <v>10913</v>
       </c>
     </row>
   </sheetData>

--- a/CasosColombia.xlsx
+++ b/CasosColombia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Matlab\MATLAB_R2019a\fitVirusCV19_v07_v17\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F276AA9-6D3B-4FA2-873E-6425ADC61EFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{04630F1F-4FB7-4BFB-AF75-E65D8961CBD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6C56C21C-B00B-4C62-A627-74DAE246E91A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="129">
   <si>
     <t>Fecha</t>
   </si>
@@ -1497,13 +1497,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13133E2-69F7-478D-A001-FD6CB4FB0C80}">
-  <dimension ref="A1:DX191"/>
+  <dimension ref="A1:DX192"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="CS181" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="CY154" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A191" sqref="A191"/>
+      <selection pane="bottomRight" activeCell="DX192" sqref="DX192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8306,8 +8306,8 @@
       <c r="BY18" s="4">
         <v>1</v>
       </c>
-      <c r="BZ18" s="4">
-        <v>2</v>
+      <c r="BZ18" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="CA18" s="10">
         <v>0</v>
@@ -9084,8 +9084,8 @@
       <c r="CA20" s="10">
         <v>0</v>
       </c>
-      <c r="CB20" s="4">
-        <v>2</v>
+      <c r="CB20" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="CC20" s="4">
         <v>0</v>
@@ -37274,8 +37274,8 @@
       <c r="CE93" s="4">
         <v>10</v>
       </c>
-      <c r="CF93" s="4">
-        <v>3</v>
+      <c r="CF93" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="CG93" s="4">
         <v>23</v>
@@ -41759,8 +41759,8 @@
       <c r="AH105">
         <v>1</v>
       </c>
-      <c r="AI105">
-        <v>32</v>
+      <c r="AI105" t="s">
+        <v>68</v>
       </c>
       <c r="AJ105">
         <v>216</v>
@@ -42145,8 +42145,8 @@
       <c r="AH106">
         <v>1</v>
       </c>
-      <c r="AI106">
-        <v>35</v>
+      <c r="AI106" t="s">
+        <v>68</v>
       </c>
       <c r="AJ106">
         <v>229</v>
@@ -51397,8 +51397,8 @@
       <c r="AD130">
         <v>29</v>
       </c>
-      <c r="AE130">
-        <v>30</v>
+      <c r="AE130" t="s">
+        <v>68</v>
       </c>
       <c r="AF130">
         <v>12</v>
@@ -61822,8 +61822,8 @@
       <c r="AE157">
         <v>61</v>
       </c>
-      <c r="AF157" s="10">
-        <v>206</v>
+      <c r="AF157" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="AG157">
         <v>14</v>
@@ -75236,6 +75236,392 @@
       </c>
       <c r="DX191">
         <v>10913</v>
+      </c>
+    </row>
+    <row r="192" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>44086</v>
+      </c>
+      <c r="B192">
+        <v>708964</v>
+      </c>
+      <c r="C192">
+        <v>2725</v>
+      </c>
+      <c r="D192">
+        <v>94027</v>
+      </c>
+      <c r="E192">
+        <v>65726</v>
+      </c>
+      <c r="F192">
+        <v>238334</v>
+      </c>
+      <c r="G192">
+        <v>26842</v>
+      </c>
+      <c r="H192">
+        <v>4912</v>
+      </c>
+      <c r="I192">
+        <v>3884</v>
+      </c>
+      <c r="J192">
+        <v>7249</v>
+      </c>
+      <c r="K192">
+        <v>7186</v>
+      </c>
+      <c r="L192">
+        <v>15319</v>
+      </c>
+      <c r="M192">
+        <v>3859</v>
+      </c>
+      <c r="N192">
+        <v>22024</v>
+      </c>
+      <c r="O192">
+        <v>27987</v>
+      </c>
+      <c r="P192">
+        <v>6510</v>
+      </c>
+      <c r="Q192">
+        <v>7388</v>
+      </c>
+      <c r="R192">
+        <v>13779</v>
+      </c>
+      <c r="S192">
+        <v>11360</v>
+      </c>
+      <c r="T192">
+        <v>15997</v>
+      </c>
+      <c r="U192">
+        <v>13525</v>
+      </c>
+      <c r="V192">
+        <v>3348</v>
+      </c>
+      <c r="W192">
+        <v>1969</v>
+      </c>
+      <c r="X192">
+        <v>8004</v>
+      </c>
+      <c r="Y192">
+        <v>24166</v>
+      </c>
+      <c r="Z192">
+        <v>13078</v>
+      </c>
+      <c r="AA192">
+        <v>9415</v>
+      </c>
+      <c r="AB192">
+        <v>53033</v>
+      </c>
+      <c r="AC192">
+        <v>1509</v>
+      </c>
+      <c r="AD192">
+        <v>482</v>
+      </c>
+      <c r="AE192">
+        <v>578</v>
+      </c>
+      <c r="AF192">
+        <v>459</v>
+      </c>
+      <c r="AG192">
+        <v>342</v>
+      </c>
+      <c r="AH192">
+        <v>223</v>
+      </c>
+      <c r="AI192">
+        <v>457</v>
+      </c>
+      <c r="AJ192">
+        <v>2003</v>
+      </c>
+      <c r="AK192">
+        <v>4251</v>
+      </c>
+      <c r="AL192">
+        <v>37026</v>
+      </c>
+      <c r="AM192">
+        <v>8166</v>
+      </c>
+      <c r="AN192">
+        <v>2505</v>
+      </c>
+      <c r="AO192">
+        <v>41396</v>
+      </c>
+      <c r="AP192">
+        <v>1035</v>
+      </c>
+      <c r="AQ192">
+        <v>21584</v>
+      </c>
+      <c r="AR192">
+        <v>1487</v>
+      </c>
+      <c r="AS192">
+        <v>9311</v>
+      </c>
+      <c r="AT192">
+        <v>1596</v>
+      </c>
+      <c r="AU192">
+        <v>1586</v>
+      </c>
+      <c r="AV192">
+        <v>6227</v>
+      </c>
+      <c r="AW192">
+        <v>1765</v>
+      </c>
+      <c r="AX192">
+        <v>955</v>
+      </c>
+      <c r="AY192">
+        <v>2484</v>
+      </c>
+      <c r="AZ192">
+        <v>2652</v>
+      </c>
+      <c r="BA192">
+        <v>54399</v>
+      </c>
+      <c r="BB192">
+        <v>13310</v>
+      </c>
+      <c r="BC192">
+        <v>4313</v>
+      </c>
+      <c r="BD192">
+        <v>8641</v>
+      </c>
+      <c r="BE192">
+        <v>5319</v>
+      </c>
+      <c r="BF192">
+        <v>281</v>
+      </c>
+      <c r="BG192">
+        <v>1435</v>
+      </c>
+      <c r="BH192">
+        <v>2649</v>
+      </c>
+      <c r="BI192">
+        <v>736</v>
+      </c>
+      <c r="BJ192">
+        <v>2116</v>
+      </c>
+      <c r="BK192">
+        <v>9160</v>
+      </c>
+      <c r="BL192">
+        <v>9125</v>
+      </c>
+      <c r="BM192">
+        <v>9707</v>
+      </c>
+      <c r="BN192">
+        <v>14084</v>
+      </c>
+      <c r="BO192">
+        <v>1925</v>
+      </c>
+      <c r="BP192">
+        <v>860</v>
+      </c>
+      <c r="BQ192">
+        <v>11399</v>
+      </c>
+      <c r="BR192">
+        <v>9072</v>
+      </c>
+      <c r="BS192" s="4">
+        <v>10572</v>
+      </c>
+      <c r="BT192" s="4">
+        <v>2013</v>
+      </c>
+      <c r="BU192" s="4">
+        <v>1815</v>
+      </c>
+      <c r="BV192" s="4">
+        <v>4396</v>
+      </c>
+      <c r="BW192" s="4">
+        <v>4131</v>
+      </c>
+      <c r="BX192" s="4">
+        <v>1403</v>
+      </c>
+      <c r="BY192" s="4">
+        <v>5206</v>
+      </c>
+      <c r="BZ192" s="4">
+        <v>2945</v>
+      </c>
+      <c r="CA192" s="4">
+        <v>1711</v>
+      </c>
+      <c r="CB192" s="4">
+        <v>838</v>
+      </c>
+      <c r="CC192" s="4">
+        <v>2549</v>
+      </c>
+      <c r="CD192" s="4">
+        <v>2128</v>
+      </c>
+      <c r="CE192" s="4">
+        <v>1625</v>
+      </c>
+      <c r="CF192" s="4">
+        <v>1268</v>
+      </c>
+      <c r="CG192" s="4">
+        <v>5874</v>
+      </c>
+      <c r="CH192" s="4">
+        <v>1807</v>
+      </c>
+      <c r="CI192" s="4">
+        <v>1313</v>
+      </c>
+      <c r="CJ192" s="4">
+        <v>1557</v>
+      </c>
+      <c r="CK192" s="4">
+        <v>1903</v>
+      </c>
+      <c r="CL192" s="4">
+        <v>1862</v>
+      </c>
+      <c r="CM192" s="4">
+        <v>2200</v>
+      </c>
+      <c r="CN192" s="4">
+        <v>1370</v>
+      </c>
+      <c r="CO192" s="4">
+        <v>1164</v>
+      </c>
+      <c r="CP192" s="4">
+        <v>1156</v>
+      </c>
+      <c r="CQ192" s="4">
+        <v>755</v>
+      </c>
+      <c r="CR192" s="4">
+        <v>3183</v>
+      </c>
+      <c r="CS192" s="4">
+        <v>1258</v>
+      </c>
+      <c r="CT192" s="4">
+        <v>877</v>
+      </c>
+      <c r="CU192" s="4">
+        <v>900</v>
+      </c>
+      <c r="CV192" s="4">
+        <v>1621</v>
+      </c>
+      <c r="CW192" s="4">
+        <v>1424</v>
+      </c>
+      <c r="CX192" s="4">
+        <v>709</v>
+      </c>
+      <c r="CY192" s="4">
+        <v>814</v>
+      </c>
+      <c r="CZ192" s="4">
+        <v>1120</v>
+      </c>
+      <c r="DA192" s="4">
+        <v>1416</v>
+      </c>
+      <c r="DB192" s="4">
+        <v>1227</v>
+      </c>
+      <c r="DC192" s="4">
+        <v>1337</v>
+      </c>
+      <c r="DD192" s="4">
+        <v>1048</v>
+      </c>
+      <c r="DE192" s="4">
+        <v>326</v>
+      </c>
+      <c r="DF192" s="4">
+        <v>349</v>
+      </c>
+      <c r="DG192" s="4">
+        <v>762</v>
+      </c>
+      <c r="DH192" s="4">
+        <v>684</v>
+      </c>
+      <c r="DI192" s="4">
+        <v>451</v>
+      </c>
+      <c r="DJ192" s="4">
+        <v>535</v>
+      </c>
+      <c r="DK192" s="4">
+        <v>363</v>
+      </c>
+      <c r="DL192" s="4">
+        <v>647</v>
+      </c>
+      <c r="DM192" s="4">
+        <v>729</v>
+      </c>
+      <c r="DN192" s="4">
+        <v>519</v>
+      </c>
+      <c r="DO192" s="4">
+        <v>484</v>
+      </c>
+      <c r="DP192" s="4">
+        <v>372</v>
+      </c>
+      <c r="DQ192" s="4">
+        <v>518</v>
+      </c>
+      <c r="DR192">
+        <v>128176</v>
+      </c>
+      <c r="DS192">
+        <v>301117</v>
+      </c>
+      <c r="DT192">
+        <v>14130</v>
+      </c>
+      <c r="DU192">
+        <v>129119</v>
+      </c>
+      <c r="DV192">
+        <v>80075</v>
+      </c>
+      <c r="DW192">
+        <v>37740</v>
+      </c>
+      <c r="DX192">
+        <v>10939</v>
       </c>
     </row>
   </sheetData>

--- a/CasosColombia.xlsx
+++ b/CasosColombia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Matlab\MATLAB_R2019a\fitVirusCV19_v07_v17\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04630F1F-4FB7-4BFB-AF75-E65D8961CBD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{48EB372A-4E26-420C-B7E2-C6247227702F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6C56C21C-B00B-4C62-A627-74DAE246E91A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="129">
   <si>
     <t>Fecha</t>
   </si>
@@ -1497,13 +1497,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13133E2-69F7-478D-A001-FD6CB4FB0C80}">
-  <dimension ref="A1:DX192"/>
+  <dimension ref="A1:DX193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="CY154" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="CZ168" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="DX192" sqref="DX192"/>
+      <selection pane="bottomRight" activeCell="DX193" sqref="DX193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6723,8 +6723,8 @@
       <c r="BL14">
         <v>0</v>
       </c>
-      <c r="BM14">
-        <v>1</v>
+      <c r="BM14" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="BN14">
         <v>0</v>
@@ -11250,8 +11250,8 @@
       <c r="AC26">
         <v>1</v>
       </c>
-      <c r="AD26">
-        <v>1</v>
+      <c r="AD26" t="s">
+        <v>68</v>
       </c>
       <c r="AE26">
         <v>0</v>
@@ -11636,8 +11636,8 @@
       <c r="AC27">
         <v>1</v>
       </c>
-      <c r="AD27">
-        <v>1</v>
+      <c r="AD27" t="s">
+        <v>68</v>
       </c>
       <c r="AE27">
         <v>0</v>
@@ -13378,8 +13378,8 @@
       <c r="CQ31" s="4">
         <v>1</v>
       </c>
-      <c r="CR31" s="4">
-        <v>1</v>
+      <c r="CR31" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="CS31" s="4">
         <v>4</v>
@@ -17579,8 +17579,8 @@
       <c r="CB42" s="4">
         <v>11</v>
       </c>
-      <c r="CC42" s="4" t="s">
-        <v>68</v>
+      <c r="CC42" s="4">
+        <v>1</v>
       </c>
       <c r="CD42" s="4">
         <v>0</v>
@@ -25024,8 +25024,8 @@
       <c r="DM61" s="4">
         <v>3</v>
       </c>
-      <c r="DN61" s="4" t="s">
-        <v>68</v>
+      <c r="DN61" s="4">
+        <v>1</v>
       </c>
       <c r="DO61" s="4">
         <v>1</v>
@@ -28237,8 +28237,8 @@
       <c r="AD70">
         <v>15</v>
       </c>
-      <c r="AE70">
-        <v>11</v>
+      <c r="AE70" t="s">
+        <v>68</v>
       </c>
       <c r="AF70">
         <v>0</v>
@@ -28623,8 +28623,8 @@
       <c r="AD71">
         <v>15</v>
       </c>
-      <c r="AE71">
-        <v>11</v>
+      <c r="AE71" t="s">
+        <v>68</v>
       </c>
       <c r="AF71">
         <v>0</v>
@@ -29009,8 +29009,8 @@
       <c r="AD72">
         <v>15</v>
       </c>
-      <c r="AE72">
-        <v>11</v>
+      <c r="AE72" t="s">
+        <v>68</v>
       </c>
       <c r="AF72">
         <v>0</v>
@@ -34060,8 +34060,8 @@
       <c r="AO85">
         <v>2307</v>
       </c>
-      <c r="AP85" t="s">
-        <v>68</v>
+      <c r="AP85">
+        <v>4</v>
       </c>
       <c r="AQ85">
         <v>2475</v>
@@ -37899,8 +37899,8 @@
       <c r="AH95">
         <v>1</v>
       </c>
-      <c r="AI95">
-        <v>1</v>
+      <c r="AI95" s="12">
+        <v>0</v>
       </c>
       <c r="AJ95">
         <v>81</v>
@@ -38285,8 +38285,8 @@
       <c r="AH96">
         <v>1</v>
       </c>
-      <c r="AI96">
-        <v>1</v>
+      <c r="AI96" s="12">
+        <v>0</v>
       </c>
       <c r="AJ96">
         <v>99</v>
@@ -38671,8 +38671,8 @@
       <c r="AH97">
         <v>1</v>
       </c>
-      <c r="AI97" t="s">
-        <v>68</v>
+      <c r="AI97" s="12">
+        <v>0</v>
       </c>
       <c r="AJ97">
         <v>100</v>
@@ -39057,8 +39057,8 @@
       <c r="AH98">
         <v>1</v>
       </c>
-      <c r="AI98" t="s">
-        <v>68</v>
+      <c r="AI98" s="12">
+        <v>0</v>
       </c>
       <c r="AJ98">
         <v>109</v>
@@ -39443,8 +39443,8 @@
       <c r="AH99">
         <v>1</v>
       </c>
-      <c r="AI99">
-        <v>4</v>
+      <c r="AI99" s="12">
+        <v>0</v>
       </c>
       <c r="AJ99">
         <v>112</v>
@@ -39817,8 +39817,8 @@
       <c r="AD100">
         <v>18</v>
       </c>
-      <c r="AE100">
-        <v>11</v>
+      <c r="AE100" t="s">
+        <v>68</v>
       </c>
       <c r="AF100">
         <v>0</v>
@@ -39829,8 +39829,8 @@
       <c r="AH100">
         <v>1</v>
       </c>
-      <c r="AI100">
-        <v>4</v>
+      <c r="AI100" s="12">
+        <v>0</v>
       </c>
       <c r="AJ100">
         <v>122</v>
@@ -40215,8 +40215,8 @@
       <c r="AH101">
         <v>1</v>
       </c>
-      <c r="AI101">
-        <v>6</v>
+      <c r="AI101" s="12">
+        <v>0</v>
       </c>
       <c r="AJ101">
         <v>150</v>
@@ -40601,8 +40601,8 @@
       <c r="AH102">
         <v>1</v>
       </c>
-      <c r="AI102">
-        <v>7</v>
+      <c r="AI102" s="12">
+        <v>0</v>
       </c>
       <c r="AJ102">
         <v>157</v>
@@ -40987,8 +40987,8 @@
       <c r="AH103">
         <v>1</v>
       </c>
-      <c r="AI103">
-        <v>9</v>
+      <c r="AI103" s="12">
+        <v>0</v>
       </c>
       <c r="AJ103">
         <v>162</v>
@@ -41373,8 +41373,8 @@
       <c r="AH104">
         <v>1</v>
       </c>
-      <c r="AI104" t="s">
-        <v>68</v>
+      <c r="AI104" s="12">
+        <v>0</v>
       </c>
       <c r="AJ104">
         <v>193</v>
@@ -41759,8 +41759,8 @@
       <c r="AH105">
         <v>1</v>
       </c>
-      <c r="AI105" t="s">
-        <v>68</v>
+      <c r="AI105">
+        <v>1</v>
       </c>
       <c r="AJ105">
         <v>216</v>
@@ -42145,8 +42145,8 @@
       <c r="AH106">
         <v>1</v>
       </c>
-      <c r="AI106" t="s">
-        <v>68</v>
+      <c r="AI106">
+        <v>4</v>
       </c>
       <c r="AJ106">
         <v>229</v>
@@ -42532,7 +42532,7 @@
         <v>1</v>
       </c>
       <c r="AI107">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="AJ107">
         <v>265</v>
@@ -42918,7 +42918,7 @@
         <v>1</v>
       </c>
       <c r="AI108">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="AJ108">
         <v>266</v>
@@ -43304,7 +43304,7 @@
         <v>1</v>
       </c>
       <c r="AI109">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="AJ109">
         <v>289</v>
@@ -43690,7 +43690,7 @@
         <v>1</v>
       </c>
       <c r="AI110">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="AJ110">
         <v>323</v>
@@ -44076,7 +44076,7 @@
         <v>1</v>
       </c>
       <c r="AI111">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="AJ111">
         <v>325</v>
@@ -44462,7 +44462,7 @@
         <v>1</v>
       </c>
       <c r="AI112">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="AJ112">
         <v>404</v>
@@ -44848,7 +44848,7 @@
         <v>1</v>
       </c>
       <c r="AI113">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="AJ113">
         <v>440</v>
@@ -45234,7 +45234,7 @@
         <v>1</v>
       </c>
       <c r="AI114">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="AJ114">
         <v>492</v>
@@ -45620,7 +45620,7 @@
         <v>1</v>
       </c>
       <c r="AI115">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="AJ115">
         <v>508</v>
@@ -46005,8 +46005,8 @@
       <c r="AH116">
         <v>1</v>
       </c>
-      <c r="AI116" t="s">
-        <v>68</v>
+      <c r="AI116">
+        <v>6</v>
       </c>
       <c r="AJ116">
         <v>512</v>
@@ -46391,8 +46391,8 @@
       <c r="AH117">
         <v>1</v>
       </c>
-      <c r="AI117" t="s">
-        <v>68</v>
+      <c r="AI117">
+        <v>6</v>
       </c>
       <c r="AJ117">
         <v>539</v>
@@ -46777,8 +46777,8 @@
       <c r="AH118">
         <v>1</v>
       </c>
-      <c r="AI118" t="s">
-        <v>68</v>
+      <c r="AI118">
+        <v>6</v>
       </c>
       <c r="AJ118">
         <v>540</v>
@@ -47164,7 +47164,7 @@
         <v>1</v>
       </c>
       <c r="AI119">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="AJ119">
         <v>553</v>
@@ -47550,7 +47550,7 @@
         <v>1</v>
       </c>
       <c r="AI120">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="AJ120">
         <v>591</v>
@@ -47936,7 +47936,7 @@
         <v>1</v>
       </c>
       <c r="AI121">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="AJ121">
         <v>596</v>
@@ -48322,7 +48322,7 @@
         <v>1</v>
       </c>
       <c r="AI122">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="AJ122">
         <v>601</v>
@@ -48708,7 +48708,7 @@
         <v>1</v>
       </c>
       <c r="AI123">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="AJ123">
         <v>614</v>
@@ -49094,7 +49094,7 @@
         <v>1</v>
       </c>
       <c r="AI124">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="AJ124">
         <v>678</v>
@@ -49480,7 +49480,7 @@
         <v>1</v>
       </c>
       <c r="AI125">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="AJ125">
         <v>716</v>
@@ -49866,7 +49866,7 @@
         <v>1</v>
       </c>
       <c r="AI126">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="AJ126">
         <v>766</v>
@@ -50252,7 +50252,7 @@
         <v>1</v>
       </c>
       <c r="AI127">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="AJ127">
         <v>780</v>
@@ -50638,7 +50638,7 @@
         <v>1</v>
       </c>
       <c r="AI128">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="AJ128">
         <v>790</v>
@@ -51024,7 +51024,7 @@
         <v>1</v>
       </c>
       <c r="AI129">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="AJ129">
         <v>822</v>
@@ -51410,7 +51410,7 @@
         <v>1</v>
       </c>
       <c r="AI130">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="AJ130">
         <v>836</v>
@@ -51796,7 +51796,7 @@
         <v>1</v>
       </c>
       <c r="AI131">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="AJ131">
         <v>918</v>
@@ -52182,7 +52182,7 @@
         <v>1</v>
       </c>
       <c r="AI132">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="AJ132">
         <v>973</v>
@@ -52568,7 +52568,7 @@
         <v>1</v>
       </c>
       <c r="AI133">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="AJ133">
         <v>1046</v>
@@ -52954,7 +52954,7 @@
         <v>1</v>
       </c>
       <c r="AI134">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="AJ134">
         <v>1154</v>
@@ -53340,7 +53340,7 @@
         <v>1</v>
       </c>
       <c r="AI135">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="AJ135">
         <v>1190</v>
@@ -53726,7 +53726,7 @@
         <v>2</v>
       </c>
       <c r="AI136">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="AJ136">
         <v>1242</v>
@@ -54112,7 +54112,7 @@
         <v>2</v>
       </c>
       <c r="AI137">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="AJ137">
         <v>1289</v>
@@ -54498,7 +54498,7 @@
         <v>2</v>
       </c>
       <c r="AI138">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="AJ138">
         <v>1301</v>
@@ -54884,7 +54884,7 @@
         <v>2</v>
       </c>
       <c r="AI139">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="AJ139">
         <v>1314</v>
@@ -55270,7 +55270,7 @@
         <v>2</v>
       </c>
       <c r="AI140">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="AJ140">
         <v>1327</v>
@@ -55656,7 +55656,7 @@
         <v>2</v>
       </c>
       <c r="AI141">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="AJ141">
         <v>1386</v>
@@ -56042,7 +56042,7 @@
         <v>2</v>
       </c>
       <c r="AI142">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="AJ142">
         <v>1408</v>
@@ -56428,7 +56428,7 @@
         <v>2</v>
       </c>
       <c r="AI143">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="AJ143">
         <v>1416</v>
@@ -56814,7 +56814,7 @@
         <v>2</v>
       </c>
       <c r="AI144">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="AJ144">
         <v>1478</v>
@@ -57200,7 +57200,7 @@
         <v>2</v>
       </c>
       <c r="AI145">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="AJ145">
         <v>1486</v>
@@ -57586,7 +57586,7 @@
         <v>2</v>
       </c>
       <c r="AI146">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="AJ146">
         <v>1521</v>
@@ -57972,7 +57972,7 @@
         <v>2</v>
       </c>
       <c r="AI147">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="AJ147">
         <v>1527</v>
@@ -58358,7 +58358,7 @@
         <v>2</v>
       </c>
       <c r="AI148">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="AJ148">
         <v>1586</v>
@@ -58744,7 +58744,7 @@
         <v>2</v>
       </c>
       <c r="AI149">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="AJ149">
         <v>1610</v>
@@ -59130,7 +59130,7 @@
         <v>2</v>
       </c>
       <c r="AI150" s="6">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="AJ150">
         <v>1639</v>
@@ -59516,7 +59516,7 @@
         <v>3</v>
       </c>
       <c r="AI151">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AJ151">
         <v>1670</v>
@@ -59902,7 +59902,7 @@
         <v>7</v>
       </c>
       <c r="AI152">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="AJ152">
         <v>1687</v>
@@ -60288,7 +60288,7 @@
         <v>8</v>
       </c>
       <c r="AI153">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="AJ153">
         <v>1702</v>
@@ -60674,7 +60674,7 @@
         <v>5</v>
       </c>
       <c r="AI154">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="AJ154">
         <v>1715</v>
@@ -61060,7 +61060,7 @@
         <v>13</v>
       </c>
       <c r="AI155">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="AJ155">
         <v>1721</v>
@@ -61446,7 +61446,7 @@
         <v>5</v>
       </c>
       <c r="AI156">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="AJ156">
         <v>1751</v>
@@ -61832,7 +61832,7 @@
         <v>5</v>
       </c>
       <c r="AI157">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="AJ157">
         <v>1762</v>
@@ -62218,7 +62218,7 @@
         <v>5</v>
       </c>
       <c r="AI158">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="AJ158">
         <v>1782</v>
@@ -62604,7 +62604,7 @@
         <v>5</v>
       </c>
       <c r="AI159">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="AJ159">
         <v>1803</v>
@@ -62990,7 +62990,7 @@
         <v>5</v>
       </c>
       <c r="AI160">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="AJ160">
         <v>1809</v>
@@ -63376,7 +63376,7 @@
         <v>6</v>
       </c>
       <c r="AI161">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="AJ161">
         <v>1818</v>
@@ -63762,7 +63762,7 @@
         <v>6</v>
       </c>
       <c r="AI162">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="AJ162">
         <v>1839</v>
@@ -64148,7 +64148,7 @@
         <v>6</v>
       </c>
       <c r="AI163">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="AJ163">
         <v>1853</v>
@@ -64534,7 +64534,7 @@
         <v>6</v>
       </c>
       <c r="AI164">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="AJ164">
         <v>1861</v>
@@ -64920,7 +64920,7 @@
         <v>6</v>
       </c>
       <c r="AI165">
-        <v>196</v>
+        <v>165</v>
       </c>
       <c r="AJ165">
         <v>1872</v>
@@ -65306,7 +65306,7 @@
         <v>12</v>
       </c>
       <c r="AI166">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="AJ166">
         <v>1874</v>
@@ -65692,7 +65692,7 @@
         <v>14</v>
       </c>
       <c r="AI167">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="AJ167">
         <v>1910</v>
@@ -66078,7 +66078,7 @@
         <v>14</v>
       </c>
       <c r="AI168">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="AJ168">
         <v>1917</v>
@@ -66464,7 +66464,7 @@
         <v>15</v>
       </c>
       <c r="AI169">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="AJ169">
         <v>1920</v>
@@ -66850,7 +66850,7 @@
         <v>15</v>
       </c>
       <c r="AI170">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c r="AJ170">
         <v>1923</v>
@@ -67236,7 +67236,7 @@
         <v>21</v>
       </c>
       <c r="AI171">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="AJ171">
         <v>1935</v>
@@ -67622,7 +67622,7 @@
         <v>29</v>
       </c>
       <c r="AI172">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="AJ172">
         <v>1939</v>
@@ -68008,7 +68008,7 @@
         <v>29</v>
       </c>
       <c r="AI173">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="AJ173">
         <v>1940</v>
@@ -68394,7 +68394,7 @@
         <v>36</v>
       </c>
       <c r="AI174">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="AJ174">
         <v>1941</v>
@@ -68780,7 +68780,7 @@
         <v>48</v>
       </c>
       <c r="AI175">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="AJ175">
         <v>1944</v>
@@ -69166,7 +69166,7 @@
         <v>48</v>
       </c>
       <c r="AI176">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="AJ176">
         <v>1947</v>
@@ -69552,7 +69552,7 @@
         <v>49</v>
       </c>
       <c r="AI177">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="AJ177">
         <v>1947</v>
@@ -69938,7 +69938,7 @@
         <v>51</v>
       </c>
       <c r="AI178">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="AJ178">
         <v>1954</v>
@@ -70324,7 +70324,7 @@
         <v>55</v>
       </c>
       <c r="AI179">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="AJ179">
         <v>1956</v>
@@ -70697,8 +70697,8 @@
       <c r="AD180">
         <v>219</v>
       </c>
-      <c r="AE180">
-        <v>340</v>
+      <c r="AE180" t="s">
+        <v>68</v>
       </c>
       <c r="AF180">
         <v>447</v>
@@ -70710,7 +70710,7 @@
         <v>95</v>
       </c>
       <c r="AI180">
-        <v>272</v>
+        <v>241</v>
       </c>
       <c r="AJ180">
         <v>1957</v>
@@ -71096,7 +71096,7 @@
         <v>114</v>
       </c>
       <c r="AI181">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="AJ181">
         <v>1964</v>
@@ -71482,7 +71482,7 @@
         <v>121</v>
       </c>
       <c r="AI182">
-        <v>297</v>
+        <v>266</v>
       </c>
       <c r="AJ182">
         <v>1964</v>
@@ -71868,7 +71868,7 @@
         <v>121</v>
       </c>
       <c r="AI183">
-        <v>310</v>
+        <v>279</v>
       </c>
       <c r="AJ183">
         <v>1973</v>
@@ -72254,7 +72254,7 @@
         <v>121</v>
       </c>
       <c r="AI184">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="AJ184">
         <v>1981</v>
@@ -72640,7 +72640,7 @@
         <v>122</v>
       </c>
       <c r="AI185">
-        <v>339</v>
+        <v>308</v>
       </c>
       <c r="AJ185">
         <v>1981</v>
@@ -73026,7 +73026,7 @@
         <v>135</v>
       </c>
       <c r="AI186">
-        <v>351</v>
+        <v>320</v>
       </c>
       <c r="AJ186">
         <v>1985</v>
@@ -73412,7 +73412,7 @@
         <v>202</v>
       </c>
       <c r="AI187">
-        <v>352</v>
+        <v>321</v>
       </c>
       <c r="AJ187">
         <v>1985</v>
@@ -73798,7 +73798,7 @@
         <v>208</v>
       </c>
       <c r="AI188">
-        <v>369</v>
+        <v>338</v>
       </c>
       <c r="AJ188">
         <v>1992</v>
@@ -74184,7 +74184,7 @@
         <v>218</v>
       </c>
       <c r="AI189">
-        <v>393</v>
+        <v>362</v>
       </c>
       <c r="AJ189">
         <v>1994</v>
@@ -74570,7 +74570,7 @@
         <v>222</v>
       </c>
       <c r="AI190">
-        <v>426</v>
+        <v>394</v>
       </c>
       <c r="AJ190">
         <v>1995</v>
@@ -74956,7 +74956,7 @@
         <v>223</v>
       </c>
       <c r="AI191">
-        <v>442</v>
+        <v>411</v>
       </c>
       <c r="AJ191">
         <v>2000</v>
@@ -75342,7 +75342,7 @@
         <v>223</v>
       </c>
       <c r="AI192">
-        <v>457</v>
+        <v>426</v>
       </c>
       <c r="AJ192">
         <v>2003</v>
@@ -75622,6 +75622,392 @@
       </c>
       <c r="DX192">
         <v>10939</v>
+      </c>
+    </row>
+    <row r="193" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>44087</v>
+      </c>
+      <c r="B193">
+        <v>716319</v>
+      </c>
+      <c r="C193">
+        <v>2725</v>
+      </c>
+      <c r="D193">
+        <v>95222</v>
+      </c>
+      <c r="E193">
+        <v>65787</v>
+      </c>
+      <c r="F193">
+        <v>240287</v>
+      </c>
+      <c r="G193">
+        <v>27158</v>
+      </c>
+      <c r="H193">
+        <v>5035</v>
+      </c>
+      <c r="I193">
+        <v>4010</v>
+      </c>
+      <c r="J193">
+        <v>7308</v>
+      </c>
+      <c r="K193">
+        <v>7283</v>
+      </c>
+      <c r="L193">
+        <v>15745</v>
+      </c>
+      <c r="M193">
+        <v>3864</v>
+      </c>
+      <c r="N193">
+        <v>22102</v>
+      </c>
+      <c r="O193">
+        <v>28316</v>
+      </c>
+      <c r="P193">
+        <v>6640</v>
+      </c>
+      <c r="Q193">
+        <v>7617</v>
+      </c>
+      <c r="R193">
+        <v>13842</v>
+      </c>
+      <c r="S193">
+        <v>11619</v>
+      </c>
+      <c r="T193">
+        <v>16089</v>
+      </c>
+      <c r="U193">
+        <v>13652</v>
+      </c>
+      <c r="V193">
+        <v>3362</v>
+      </c>
+      <c r="W193">
+        <v>2026</v>
+      </c>
+      <c r="X193">
+        <v>8191</v>
+      </c>
+      <c r="Y193">
+        <v>24678</v>
+      </c>
+      <c r="Z193">
+        <v>13217</v>
+      </c>
+      <c r="AA193">
+        <v>9557</v>
+      </c>
+      <c r="AB193">
+        <v>53426</v>
+      </c>
+      <c r="AC193">
+        <v>1536</v>
+      </c>
+      <c r="AD193">
+        <v>586</v>
+      </c>
+      <c r="AE193">
+        <v>589</v>
+      </c>
+      <c r="AF193">
+        <v>460</v>
+      </c>
+      <c r="AG193">
+        <v>348</v>
+      </c>
+      <c r="AH193">
+        <v>261</v>
+      </c>
+      <c r="AI193">
+        <v>443</v>
+      </c>
+      <c r="AJ193">
+        <v>2003</v>
+      </c>
+      <c r="AK193">
+        <v>4378</v>
+      </c>
+      <c r="AL193">
+        <v>37073</v>
+      </c>
+      <c r="AM193">
+        <v>8290</v>
+      </c>
+      <c r="AN193">
+        <v>2505</v>
+      </c>
+      <c r="AO193">
+        <v>41679</v>
+      </c>
+      <c r="AP193">
+        <v>1046</v>
+      </c>
+      <c r="AQ193">
+        <v>21836</v>
+      </c>
+      <c r="AR193">
+        <v>1491</v>
+      </c>
+      <c r="AS193">
+        <v>9383</v>
+      </c>
+      <c r="AT193">
+        <v>1601</v>
+      </c>
+      <c r="AU193">
+        <v>1587</v>
+      </c>
+      <c r="AV193">
+        <v>6357</v>
+      </c>
+      <c r="AW193">
+        <v>1769</v>
+      </c>
+      <c r="AX193">
+        <v>953</v>
+      </c>
+      <c r="AY193">
+        <v>2484</v>
+      </c>
+      <c r="AZ193">
+        <v>2653</v>
+      </c>
+      <c r="BA193">
+        <v>55151</v>
+      </c>
+      <c r="BB193">
+        <v>13332</v>
+      </c>
+      <c r="BC193">
+        <v>4440</v>
+      </c>
+      <c r="BD193">
+        <v>8689</v>
+      </c>
+      <c r="BE193">
+        <v>5454</v>
+      </c>
+      <c r="BF193">
+        <v>281</v>
+      </c>
+      <c r="BG193">
+        <v>1435</v>
+      </c>
+      <c r="BH193">
+        <v>2653</v>
+      </c>
+      <c r="BI193">
+        <v>736</v>
+      </c>
+      <c r="BJ193">
+        <v>2119</v>
+      </c>
+      <c r="BK193">
+        <v>9197</v>
+      </c>
+      <c r="BL193">
+        <v>9199</v>
+      </c>
+      <c r="BM193">
+        <v>9765</v>
+      </c>
+      <c r="BN193">
+        <v>14089</v>
+      </c>
+      <c r="BO193">
+        <v>1926</v>
+      </c>
+      <c r="BP193">
+        <v>864</v>
+      </c>
+      <c r="BQ193">
+        <v>11663</v>
+      </c>
+      <c r="BR193">
+        <v>9266</v>
+      </c>
+      <c r="BS193" s="4">
+        <v>10824</v>
+      </c>
+      <c r="BT193" s="4">
+        <v>2109</v>
+      </c>
+      <c r="BU193" s="4">
+        <v>1834</v>
+      </c>
+      <c r="BV193" s="4">
+        <v>4490</v>
+      </c>
+      <c r="BW193" s="4">
+        <v>4185</v>
+      </c>
+      <c r="BX193" s="4">
+        <v>1433</v>
+      </c>
+      <c r="BY193" s="4">
+        <v>5282</v>
+      </c>
+      <c r="BZ193" s="4">
+        <v>3017</v>
+      </c>
+      <c r="CA193" s="4">
+        <v>1740</v>
+      </c>
+      <c r="CB193" s="4">
+        <v>845</v>
+      </c>
+      <c r="CC193" s="4">
+        <v>2594</v>
+      </c>
+      <c r="CD193" s="4">
+        <v>2129</v>
+      </c>
+      <c r="CE193" s="4">
+        <v>1657</v>
+      </c>
+      <c r="CF193" s="4">
+        <v>1292</v>
+      </c>
+      <c r="CG193" s="4">
+        <v>5918</v>
+      </c>
+      <c r="CH193" s="4">
+        <v>1840</v>
+      </c>
+      <c r="CI193" s="4">
+        <v>1315</v>
+      </c>
+      <c r="CJ193" s="4">
+        <v>1579</v>
+      </c>
+      <c r="CK193" s="4">
+        <v>1920</v>
+      </c>
+      <c r="CL193" s="4">
+        <v>1897</v>
+      </c>
+      <c r="CM193" s="4">
+        <v>2228</v>
+      </c>
+      <c r="CN193" s="4">
+        <v>1396</v>
+      </c>
+      <c r="CO193" s="4">
+        <v>1180</v>
+      </c>
+      <c r="CP193" s="4">
+        <v>1160</v>
+      </c>
+      <c r="CQ193" s="4">
+        <v>782</v>
+      </c>
+      <c r="CR193" s="4">
+        <v>3191</v>
+      </c>
+      <c r="CS193" s="4">
+        <v>1278</v>
+      </c>
+      <c r="CT193" s="4">
+        <v>885</v>
+      </c>
+      <c r="CU193" s="4">
+        <v>911</v>
+      </c>
+      <c r="CV193" s="4">
+        <v>1627</v>
+      </c>
+      <c r="CW193" s="4">
+        <v>1446</v>
+      </c>
+      <c r="CX193" s="4">
+        <v>719</v>
+      </c>
+      <c r="CY193" s="4">
+        <v>817</v>
+      </c>
+      <c r="CZ193" s="4">
+        <v>1147</v>
+      </c>
+      <c r="DA193" s="4">
+        <v>1429</v>
+      </c>
+      <c r="DB193" s="4">
+        <v>1237</v>
+      </c>
+      <c r="DC193" s="4">
+        <v>1349</v>
+      </c>
+      <c r="DD193" s="4">
+        <v>1063</v>
+      </c>
+      <c r="DE193" s="4">
+        <v>327</v>
+      </c>
+      <c r="DF193" s="4">
+        <v>352</v>
+      </c>
+      <c r="DG193" s="4">
+        <v>764</v>
+      </c>
+      <c r="DH193" s="4">
+        <v>687</v>
+      </c>
+      <c r="DI193" s="4">
+        <v>454</v>
+      </c>
+      <c r="DJ193" s="4">
+        <v>535</v>
+      </c>
+      <c r="DK193" s="4">
+        <v>363</v>
+      </c>
+      <c r="DL193" s="4">
+        <v>649</v>
+      </c>
+      <c r="DM193" s="4">
+        <v>729</v>
+      </c>
+      <c r="DN193" s="4">
+        <v>519</v>
+      </c>
+      <c r="DO193" s="4">
+        <v>485</v>
+      </c>
+      <c r="DP193" s="4">
+        <v>372</v>
+      </c>
+      <c r="DQ193" s="4">
+        <v>518</v>
+      </c>
+      <c r="DR193">
+        <v>129172</v>
+      </c>
+      <c r="DS193">
+        <v>304152</v>
+      </c>
+      <c r="DT193">
+        <v>14500</v>
+      </c>
+      <c r="DU193">
+        <v>130531</v>
+      </c>
+      <c r="DV193">
+        <v>80662</v>
+      </c>
+      <c r="DW193">
+        <v>38379</v>
+      </c>
+      <c r="DX193">
+        <v>11018</v>
       </c>
     </row>
   </sheetData>

--- a/CasosColombia.xlsx
+++ b/CasosColombia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Matlab\MATLAB_R2019a\fitVirusCV19_v07_v17\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48EB372A-4E26-420C-B7E2-C6247227702F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{08EC38E3-5793-43ED-B0FD-4F14E02796C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6C56C21C-B00B-4C62-A627-74DAE246E91A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="129">
   <si>
     <t>Fecha</t>
   </si>
@@ -1497,13 +1497,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13133E2-69F7-478D-A001-FD6CB4FB0C80}">
-  <dimension ref="A1:DX193"/>
+  <dimension ref="A1:DX194"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="CZ168" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="CY169" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="DX193" sqref="DX193"/>
+      <selection pane="bottomRight" activeCell="DX194" sqref="DX194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8384,8 +8384,8 @@
       <c r="CY18" s="4">
         <v>0</v>
       </c>
-      <c r="CZ18" s="4">
-        <v>2</v>
+      <c r="CZ18" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="DA18" s="4">
         <v>0</v>
@@ -10864,8 +10864,8 @@
       <c r="AC25">
         <v>1</v>
       </c>
-      <c r="AD25">
-        <v>1</v>
+      <c r="AD25" t="s">
+        <v>68</v>
       </c>
       <c r="AE25">
         <v>0</v>
@@ -13378,8 +13378,8 @@
       <c r="CQ31" s="4">
         <v>1</v>
       </c>
-      <c r="CR31" s="13" t="s">
-        <v>68</v>
+      <c r="CR31" s="13">
+        <v>1</v>
       </c>
       <c r="CS31" s="4">
         <v>4</v>
@@ -14533,8 +14533,8 @@
       <c r="CP34" s="4">
         <v>0</v>
       </c>
-      <c r="CQ34" s="4">
-        <v>1</v>
+      <c r="CQ34" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="CR34" s="4">
         <v>3</v>
@@ -26690,8 +26690,8 @@
       <c r="AC66">
         <v>20</v>
       </c>
-      <c r="AD66">
-        <v>6</v>
+      <c r="AD66" t="s">
+        <v>68</v>
       </c>
       <c r="AE66">
         <v>0</v>
@@ -27076,8 +27076,8 @@
       <c r="AC67">
         <v>21</v>
       </c>
-      <c r="AD67">
-        <v>6</v>
+      <c r="AD67" t="s">
+        <v>68</v>
       </c>
       <c r="AE67">
         <v>0</v>
@@ -27462,8 +27462,8 @@
       <c r="AC68">
         <v>21</v>
       </c>
-      <c r="AD68">
-        <v>6</v>
+      <c r="AD68" t="s">
+        <v>68</v>
       </c>
       <c r="AE68">
         <v>0</v>
@@ -75326,8 +75326,8 @@
       <c r="AC192">
         <v>1509</v>
       </c>
-      <c r="AD192">
-        <v>482</v>
+      <c r="AD192" t="s">
+        <v>68</v>
       </c>
       <c r="AE192">
         <v>578</v>
@@ -76008,6 +76008,392 @@
       </c>
       <c r="DX193">
         <v>11018</v>
+      </c>
+    </row>
+    <row r="194" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>44088</v>
+      </c>
+      <c r="B194">
+        <v>721892</v>
+      </c>
+      <c r="C194">
+        <v>2725</v>
+      </c>
+      <c r="D194">
+        <v>96560</v>
+      </c>
+      <c r="E194">
+        <v>65843</v>
+      </c>
+      <c r="F194">
+        <v>242007</v>
+      </c>
+      <c r="G194">
+        <v>27277</v>
+      </c>
+      <c r="H194">
+        <v>5226</v>
+      </c>
+      <c r="I194">
+        <v>4078</v>
+      </c>
+      <c r="J194">
+        <v>7319</v>
+      </c>
+      <c r="K194">
+        <v>7348</v>
+      </c>
+      <c r="L194">
+        <v>15758</v>
+      </c>
+      <c r="M194">
+        <v>3865</v>
+      </c>
+      <c r="N194">
+        <v>22132</v>
+      </c>
+      <c r="O194">
+        <v>28588</v>
+      </c>
+      <c r="P194">
+        <v>6676</v>
+      </c>
+      <c r="Q194">
+        <v>7706</v>
+      </c>
+      <c r="R194">
+        <v>13871</v>
+      </c>
+      <c r="S194">
+        <v>11850</v>
+      </c>
+      <c r="T194">
+        <v>16194</v>
+      </c>
+      <c r="U194">
+        <v>13682</v>
+      </c>
+      <c r="V194">
+        <v>3380</v>
+      </c>
+      <c r="W194">
+        <v>2091</v>
+      </c>
+      <c r="X194">
+        <v>8316</v>
+      </c>
+      <c r="Y194">
+        <v>24927</v>
+      </c>
+      <c r="Z194">
+        <v>13242</v>
+      </c>
+      <c r="AA194">
+        <v>9651</v>
+      </c>
+      <c r="AB194">
+        <v>53927</v>
+      </c>
+      <c r="AC194">
+        <v>1565</v>
+      </c>
+      <c r="AD194">
+        <v>591</v>
+      </c>
+      <c r="AE194">
+        <v>589</v>
+      </c>
+      <c r="AF194">
+        <v>461</v>
+      </c>
+      <c r="AG194">
+        <v>349</v>
+      </c>
+      <c r="AH194">
+        <v>268</v>
+      </c>
+      <c r="AI194">
+        <v>473</v>
+      </c>
+      <c r="AJ194">
+        <v>2005</v>
+      </c>
+      <c r="AK194">
+        <v>4405</v>
+      </c>
+      <c r="AL194">
+        <v>37108</v>
+      </c>
+      <c r="AM194">
+        <v>8401</v>
+      </c>
+      <c r="AN194">
+        <v>2505</v>
+      </c>
+      <c r="AO194">
+        <v>42089</v>
+      </c>
+      <c r="AP194">
+        <v>1046</v>
+      </c>
+      <c r="AQ194">
+        <v>21938</v>
+      </c>
+      <c r="AR194">
+        <v>1495</v>
+      </c>
+      <c r="AS194">
+        <v>9411</v>
+      </c>
+      <c r="AT194">
+        <v>1610</v>
+      </c>
+      <c r="AU194">
+        <v>1589</v>
+      </c>
+      <c r="AV194">
+        <v>6430</v>
+      </c>
+      <c r="AW194">
+        <v>1782</v>
+      </c>
+      <c r="AX194">
+        <v>952</v>
+      </c>
+      <c r="AY194">
+        <v>2484</v>
+      </c>
+      <c r="AZ194">
+        <v>2653</v>
+      </c>
+      <c r="BA194">
+        <v>55857</v>
+      </c>
+      <c r="BB194">
+        <v>13347</v>
+      </c>
+      <c r="BC194">
+        <v>4502</v>
+      </c>
+      <c r="BD194">
+        <v>8727</v>
+      </c>
+      <c r="BE194">
+        <v>5547</v>
+      </c>
+      <c r="BF194">
+        <v>281</v>
+      </c>
+      <c r="BG194">
+        <v>1436</v>
+      </c>
+      <c r="BH194">
+        <v>2654</v>
+      </c>
+      <c r="BI194">
+        <v>737</v>
+      </c>
+      <c r="BJ194">
+        <v>2123</v>
+      </c>
+      <c r="BK194">
+        <v>9223</v>
+      </c>
+      <c r="BL194">
+        <v>9205</v>
+      </c>
+      <c r="BM194">
+        <v>9832</v>
+      </c>
+      <c r="BN194">
+        <v>14092</v>
+      </c>
+      <c r="BO194">
+        <v>1932</v>
+      </c>
+      <c r="BP194">
+        <v>864</v>
+      </c>
+      <c r="BQ194">
+        <v>11676</v>
+      </c>
+      <c r="BR194">
+        <v>9399</v>
+      </c>
+      <c r="BS194" s="4">
+        <v>10973</v>
+      </c>
+      <c r="BT194" s="4">
+        <v>2145</v>
+      </c>
+      <c r="BU194" s="4">
+        <v>1855</v>
+      </c>
+      <c r="BV194" s="4">
+        <v>4550</v>
+      </c>
+      <c r="BW194" s="4">
+        <v>4216</v>
+      </c>
+      <c r="BX194" s="4">
+        <v>1493</v>
+      </c>
+      <c r="BY194" s="4">
+        <v>5349</v>
+      </c>
+      <c r="BZ194" s="4">
+        <v>3075</v>
+      </c>
+      <c r="CA194" s="4">
+        <v>1767</v>
+      </c>
+      <c r="CB194" s="4">
+        <v>852</v>
+      </c>
+      <c r="CC194" s="4">
+        <v>2615</v>
+      </c>
+      <c r="CD194" s="4">
+        <v>2130</v>
+      </c>
+      <c r="CE194" s="4">
+        <v>1681</v>
+      </c>
+      <c r="CF194" s="4">
+        <v>1308</v>
+      </c>
+      <c r="CG194" s="4">
+        <v>5928</v>
+      </c>
+      <c r="CH194" s="4">
+        <v>1853</v>
+      </c>
+      <c r="CI194" s="4">
+        <v>1325</v>
+      </c>
+      <c r="CJ194" s="4">
+        <v>1597</v>
+      </c>
+      <c r="CK194" s="4">
+        <v>1945</v>
+      </c>
+      <c r="CL194" s="4">
+        <v>1918</v>
+      </c>
+      <c r="CM194" s="4">
+        <v>2259</v>
+      </c>
+      <c r="CN194" s="4">
+        <v>1418</v>
+      </c>
+      <c r="CO194" s="4">
+        <v>1182</v>
+      </c>
+      <c r="CP194" s="4">
+        <v>1163</v>
+      </c>
+      <c r="CQ194" s="4">
+        <v>783</v>
+      </c>
+      <c r="CR194" s="4">
+        <v>3194</v>
+      </c>
+      <c r="CS194" s="4">
+        <v>1301</v>
+      </c>
+      <c r="CT194" s="4">
+        <v>886</v>
+      </c>
+      <c r="CU194" s="4">
+        <v>924</v>
+      </c>
+      <c r="CV194" s="4">
+        <v>1630</v>
+      </c>
+      <c r="CW194" s="4">
+        <v>1455</v>
+      </c>
+      <c r="CX194" s="4">
+        <v>719</v>
+      </c>
+      <c r="CY194" s="4">
+        <v>826</v>
+      </c>
+      <c r="CZ194" s="4">
+        <v>1155</v>
+      </c>
+      <c r="DA194" s="4">
+        <v>1433</v>
+      </c>
+      <c r="DB194" s="4">
+        <v>1249</v>
+      </c>
+      <c r="DC194" s="4">
+        <v>1355</v>
+      </c>
+      <c r="DD194" s="4">
+        <v>1067</v>
+      </c>
+      <c r="DE194" s="4">
+        <v>327</v>
+      </c>
+      <c r="DF194" s="4">
+        <v>352</v>
+      </c>
+      <c r="DG194" s="4">
+        <v>768</v>
+      </c>
+      <c r="DH194" s="4">
+        <v>688</v>
+      </c>
+      <c r="DI194" s="4">
+        <v>457</v>
+      </c>
+      <c r="DJ194" s="4">
+        <v>535</v>
+      </c>
+      <c r="DK194" s="4">
+        <v>364</v>
+      </c>
+      <c r="DL194" s="4">
+        <v>652</v>
+      </c>
+      <c r="DM194" s="4">
+        <v>737</v>
+      </c>
+      <c r="DN194" s="4">
+        <v>519</v>
+      </c>
+      <c r="DO194" s="4">
+        <v>485</v>
+      </c>
+      <c r="DP194" s="4">
+        <v>372</v>
+      </c>
+      <c r="DQ194" s="4">
+        <v>518</v>
+      </c>
+      <c r="DR194">
+        <v>129425</v>
+      </c>
+      <c r="DS194">
+        <v>306749</v>
+      </c>
+      <c r="DT194">
+        <v>14758</v>
+      </c>
+      <c r="DU194">
+        <v>131924</v>
+      </c>
+      <c r="DV194">
+        <v>81334</v>
+      </c>
+      <c r="DW194">
+        <v>38658</v>
+      </c>
+      <c r="DX194">
+        <v>11048</v>
       </c>
     </row>
   </sheetData>

--- a/CasosColombia.xlsx
+++ b/CasosColombia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Matlab\MATLAB_R2019a\fitVirusCV19_v07_v17\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08EC38E3-5793-43ED-B0FD-4F14E02796C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{77A9B6F6-7490-4B86-A1E2-005B2FB3FA54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6C56C21C-B00B-4C62-A627-74DAE246E91A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="129">
   <si>
     <t>Fecha</t>
   </si>
@@ -1497,13 +1497,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13133E2-69F7-478D-A001-FD6CB4FB0C80}">
-  <dimension ref="A1:DX194"/>
+  <dimension ref="A1:DX195"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="CY169" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="CS173" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="DX194" sqref="DX194"/>
+      <selection pane="bottomRight" activeCell="DR195" sqref="DR195:DX195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12636,8 +12636,8 @@
       <c r="DA29" s="4">
         <v>4</v>
       </c>
-      <c r="DB29" s="4" t="s">
-        <v>68</v>
+      <c r="DB29" s="4">
+        <v>1</v>
       </c>
       <c r="DC29" s="4">
         <v>0</v>
@@ -21927,8 +21927,8 @@
       <c r="DJ53" s="4">
         <v>0</v>
       </c>
-      <c r="DK53" s="4">
-        <v>1</v>
+      <c r="DK53" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="DL53" s="4">
         <v>3</v>
@@ -34252,8 +34252,8 @@
       <c r="DA85" s="4">
         <v>17</v>
       </c>
-      <c r="DB85" s="4">
-        <v>3</v>
+      <c r="DB85" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="DC85" s="4">
         <v>13</v>
@@ -42130,8 +42130,8 @@
       <c r="AC106" s="10">
         <v>41</v>
       </c>
-      <c r="AD106">
-        <v>20</v>
+      <c r="AD106" t="s">
+        <v>68</v>
       </c>
       <c r="AE106">
         <v>27</v>
@@ -45158,8 +45158,8 @@
       <c r="I114">
         <v>243</v>
       </c>
-      <c r="J114">
-        <v>26</v>
+      <c r="J114" t="s">
+        <v>68</v>
       </c>
       <c r="K114">
         <v>320</v>
@@ -46667,8 +46667,8 @@
       <c r="DV117">
         <v>14748</v>
       </c>
-      <c r="DW117">
-        <v>1014</v>
+      <c r="DW117" t="s">
+        <v>68</v>
       </c>
       <c r="DX117">
         <v>75</v>
@@ -47148,8 +47148,8 @@
       <c r="AC119">
         <v>68</v>
       </c>
-      <c r="AD119">
-        <v>23</v>
+      <c r="AD119" t="s">
+        <v>68</v>
       </c>
       <c r="AE119">
         <v>28</v>
@@ -52181,8 +52181,8 @@
       <c r="AH132">
         <v>1</v>
       </c>
-      <c r="AI132">
-        <v>10</v>
+      <c r="AI132" t="s">
+        <v>68</v>
       </c>
       <c r="AJ132">
         <v>973</v>
@@ -52567,8 +52567,8 @@
       <c r="AH133">
         <v>1</v>
       </c>
-      <c r="AI133">
-        <v>16</v>
+      <c r="AI133" t="s">
+        <v>68</v>
       </c>
       <c r="AJ133">
         <v>1046</v>
@@ -55269,8 +55269,8 @@
       <c r="AH140">
         <v>2</v>
       </c>
-      <c r="AI140">
-        <v>22</v>
+      <c r="AI140" t="s">
+        <v>68</v>
       </c>
       <c r="AJ140">
         <v>1327</v>
@@ -55655,8 +55655,8 @@
       <c r="AH141">
         <v>2</v>
       </c>
-      <c r="AI141">
-        <v>23</v>
+      <c r="AI141" t="s">
+        <v>68</v>
       </c>
       <c r="AJ141">
         <v>1386</v>
@@ -76394,6 +76394,392 @@
       </c>
       <c r="DX194">
         <v>11048</v>
+      </c>
+    </row>
+    <row r="195" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>44089</v>
+      </c>
+      <c r="B195">
+        <v>728590</v>
+      </c>
+      <c r="C195">
+        <v>2725</v>
+      </c>
+      <c r="D195">
+        <v>97642</v>
+      </c>
+      <c r="E195">
+        <v>66038</v>
+      </c>
+      <c r="F195">
+        <v>243456</v>
+      </c>
+      <c r="G195">
+        <v>27551</v>
+      </c>
+      <c r="H195">
+        <v>5319</v>
+      </c>
+      <c r="I195">
+        <v>4191</v>
+      </c>
+      <c r="J195">
+        <v>7346</v>
+      </c>
+      <c r="K195">
+        <v>7439</v>
+      </c>
+      <c r="L195">
+        <v>16113</v>
+      </c>
+      <c r="M195">
+        <v>3869</v>
+      </c>
+      <c r="N195">
+        <v>22236</v>
+      </c>
+      <c r="O195">
+        <v>28918</v>
+      </c>
+      <c r="P195">
+        <v>6864</v>
+      </c>
+      <c r="Q195">
+        <v>7945</v>
+      </c>
+      <c r="R195">
+        <v>13970</v>
+      </c>
+      <c r="S195">
+        <v>12054</v>
+      </c>
+      <c r="T195">
+        <v>16316</v>
+      </c>
+      <c r="U195">
+        <v>13837</v>
+      </c>
+      <c r="V195">
+        <v>3401</v>
+      </c>
+      <c r="W195">
+        <v>2115</v>
+      </c>
+      <c r="X195">
+        <v>8428</v>
+      </c>
+      <c r="Y195">
+        <v>25392</v>
+      </c>
+      <c r="Z195">
+        <v>13293</v>
+      </c>
+      <c r="AA195">
+        <v>9865</v>
+      </c>
+      <c r="AB195">
+        <v>54395</v>
+      </c>
+      <c r="AC195">
+        <v>1597</v>
+      </c>
+      <c r="AD195">
+        <v>596</v>
+      </c>
+      <c r="AE195">
+        <v>592</v>
+      </c>
+      <c r="AF195">
+        <v>462</v>
+      </c>
+      <c r="AG195">
+        <v>459</v>
+      </c>
+      <c r="AH195">
+        <v>314</v>
+      </c>
+      <c r="AI195">
+        <v>487</v>
+      </c>
+      <c r="AJ195">
+        <v>2007</v>
+      </c>
+      <c r="AK195">
+        <v>4520</v>
+      </c>
+      <c r="AL195">
+        <v>37235</v>
+      </c>
+      <c r="AM195">
+        <v>8530</v>
+      </c>
+      <c r="AN195">
+        <v>2514</v>
+      </c>
+      <c r="AO195">
+        <v>42427</v>
+      </c>
+      <c r="AP195">
+        <v>1052</v>
+      </c>
+      <c r="AQ195">
+        <v>22157</v>
+      </c>
+      <c r="AR195">
+        <v>1499</v>
+      </c>
+      <c r="AS195">
+        <v>9495</v>
+      </c>
+      <c r="AT195">
+        <v>1621</v>
+      </c>
+      <c r="AU195">
+        <v>1593</v>
+      </c>
+      <c r="AV195">
+        <v>6603</v>
+      </c>
+      <c r="AW195">
+        <v>1797</v>
+      </c>
+      <c r="AX195">
+        <v>954</v>
+      </c>
+      <c r="AY195">
+        <v>2484</v>
+      </c>
+      <c r="AZ195">
+        <v>2654</v>
+      </c>
+      <c r="BA195">
+        <v>56642</v>
+      </c>
+      <c r="BB195">
+        <v>13388</v>
+      </c>
+      <c r="BC195">
+        <v>4670</v>
+      </c>
+      <c r="BD195">
+        <v>8798</v>
+      </c>
+      <c r="BE195">
+        <v>5616</v>
+      </c>
+      <c r="BF195">
+        <v>281</v>
+      </c>
+      <c r="BG195">
+        <v>1438</v>
+      </c>
+      <c r="BH195">
+        <v>2657</v>
+      </c>
+      <c r="BI195">
+        <v>737</v>
+      </c>
+      <c r="BJ195">
+        <v>2124</v>
+      </c>
+      <c r="BK195">
+        <v>9268</v>
+      </c>
+      <c r="BL195">
+        <v>9227</v>
+      </c>
+      <c r="BM195">
+        <v>9887</v>
+      </c>
+      <c r="BN195">
+        <v>14140</v>
+      </c>
+      <c r="BO195">
+        <v>1936</v>
+      </c>
+      <c r="BP195">
+        <v>887</v>
+      </c>
+      <c r="BQ195">
+        <v>11902</v>
+      </c>
+      <c r="BR195">
+        <v>9562</v>
+      </c>
+      <c r="BS195" s="4">
+        <v>11184</v>
+      </c>
+      <c r="BT195" s="4">
+        <v>2204</v>
+      </c>
+      <c r="BU195" s="4">
+        <v>1883</v>
+      </c>
+      <c r="BV195" s="4">
+        <v>4610</v>
+      </c>
+      <c r="BW195" s="4">
+        <v>4271</v>
+      </c>
+      <c r="BX195" s="4">
+        <v>1513</v>
+      </c>
+      <c r="BY195" s="4">
+        <v>5445</v>
+      </c>
+      <c r="BZ195" s="4">
+        <v>3138</v>
+      </c>
+      <c r="CA195" s="4">
+        <v>1784</v>
+      </c>
+      <c r="CB195" s="4">
+        <v>865</v>
+      </c>
+      <c r="CC195" s="4">
+        <v>2646</v>
+      </c>
+      <c r="CD195" s="4">
+        <v>2151</v>
+      </c>
+      <c r="CE195" s="4">
+        <v>1703</v>
+      </c>
+      <c r="CF195" s="4">
+        <v>1330</v>
+      </c>
+      <c r="CG195" s="4">
+        <v>5953</v>
+      </c>
+      <c r="CH195" s="4">
+        <v>1884</v>
+      </c>
+      <c r="CI195" s="4">
+        <v>1342</v>
+      </c>
+      <c r="CJ195" s="4">
+        <v>1606</v>
+      </c>
+      <c r="CK195" s="4">
+        <v>1961</v>
+      </c>
+      <c r="CL195" s="4">
+        <v>1941</v>
+      </c>
+      <c r="CM195" s="4">
+        <v>2305</v>
+      </c>
+      <c r="CN195" s="4">
+        <v>1439</v>
+      </c>
+      <c r="CO195" s="4">
+        <v>1188</v>
+      </c>
+      <c r="CP195" s="4">
+        <v>1168</v>
+      </c>
+      <c r="CQ195" s="4">
+        <v>800</v>
+      </c>
+      <c r="CR195" s="4">
+        <v>3209</v>
+      </c>
+      <c r="CS195" s="4">
+        <v>1314</v>
+      </c>
+      <c r="CT195" s="4">
+        <v>890</v>
+      </c>
+      <c r="CU195" s="4">
+        <v>932</v>
+      </c>
+      <c r="CV195" s="4">
+        <v>1638</v>
+      </c>
+      <c r="CW195" s="4">
+        <v>1463</v>
+      </c>
+      <c r="CX195" s="4">
+        <v>721</v>
+      </c>
+      <c r="CY195" s="4">
+        <v>830</v>
+      </c>
+      <c r="CZ195" s="4">
+        <v>1186</v>
+      </c>
+      <c r="DA195" s="4">
+        <v>1450</v>
+      </c>
+      <c r="DB195" s="4">
+        <v>1322</v>
+      </c>
+      <c r="DC195" s="4">
+        <v>1370</v>
+      </c>
+      <c r="DD195" s="4">
+        <v>1088</v>
+      </c>
+      <c r="DE195" s="4">
+        <v>333</v>
+      </c>
+      <c r="DF195" s="4">
+        <v>352</v>
+      </c>
+      <c r="DG195" s="4">
+        <v>774</v>
+      </c>
+      <c r="DH195" s="4">
+        <v>705</v>
+      </c>
+      <c r="DI195" s="4">
+        <v>459</v>
+      </c>
+      <c r="DJ195" s="4">
+        <v>536</v>
+      </c>
+      <c r="DK195" s="4">
+        <v>365</v>
+      </c>
+      <c r="DL195" s="4">
+        <v>653</v>
+      </c>
+      <c r="DM195" s="4">
+        <v>741</v>
+      </c>
+      <c r="DN195" s="4">
+        <v>521</v>
+      </c>
+      <c r="DO195" s="4">
+        <v>485</v>
+      </c>
+      <c r="DP195" s="4">
+        <v>372</v>
+      </c>
+      <c r="DQ195" s="4">
+        <v>518</v>
+      </c>
+      <c r="DR195">
+        <v>130536</v>
+      </c>
+      <c r="DS195">
+        <v>309278</v>
+      </c>
+      <c r="DT195">
+        <v>15007</v>
+      </c>
+      <c r="DU195">
+        <v>133161</v>
+      </c>
+      <c r="DV195">
+        <v>82019</v>
+      </c>
+      <c r="DW195">
+        <v>39278</v>
+      </c>
+      <c r="DX195">
+        <v>11206</v>
       </c>
     </row>
   </sheetData>

--- a/CasosColombia.xlsx
+++ b/CasosColombia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Matlab\MATLAB_R2019a\fitVirusCV19_v07_v17\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77A9B6F6-7490-4B86-A1E2-005B2FB3FA54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F882FA9B-5EEF-4F4F-B6B0-2A76D917F672}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6C56C21C-B00B-4C62-A627-74DAE246E91A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="129">
   <si>
     <t>Fecha</t>
   </si>
@@ -1497,13 +1497,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13133E2-69F7-478D-A001-FD6CB4FB0C80}">
-  <dimension ref="A1:DX195"/>
+  <dimension ref="A1:DX196"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="CS173" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="CZ165" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="DR195" sqref="DR195:DX195"/>
+      <selection pane="bottomRight" activeCell="DX196" sqref="DX196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4970,8 +4970,8 @@
       <c r="DS9">
         <v>10</v>
       </c>
-      <c r="DT9">
-        <v>1</v>
+      <c r="DT9" t="s">
+        <v>68</v>
       </c>
       <c r="DU9">
         <v>0</v>
@@ -8162,8 +8162,8 @@
       <c r="AC18" t="s">
         <v>68</v>
       </c>
-      <c r="AD18">
-        <v>1</v>
+      <c r="AD18" t="s">
+        <v>68</v>
       </c>
       <c r="AE18">
         <v>0</v>
@@ -8306,8 +8306,8 @@
       <c r="BY18" s="4">
         <v>1</v>
       </c>
-      <c r="BZ18" s="12" t="s">
-        <v>68</v>
+      <c r="BZ18" s="12">
+        <v>2</v>
       </c>
       <c r="CA18" s="10">
         <v>0</v>
@@ -14895,8 +14895,8 @@
       <c r="CH35" s="4">
         <v>0</v>
       </c>
-      <c r="CI35" s="10" t="s">
-        <v>68</v>
+      <c r="CI35" s="10">
+        <v>3</v>
       </c>
       <c r="CJ35" s="4">
         <v>0</v>
@@ -21457,8 +21457,8 @@
       <c r="CH52" s="4">
         <v>0</v>
       </c>
-      <c r="CI52" s="4">
-        <v>10</v>
+      <c r="CI52" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="CJ52" s="4">
         <v>6</v>
@@ -29374,8 +29374,8 @@
       <c r="W73">
         <v>39</v>
       </c>
-      <c r="X73" s="12" t="s">
-        <v>68</v>
+      <c r="X73" s="12">
+        <v>3</v>
       </c>
       <c r="Y73" s="9">
         <v>0</v>
@@ -40236,8 +40236,8 @@
       <c r="AO101">
         <v>4135</v>
       </c>
-      <c r="AP101">
-        <v>123</v>
+      <c r="AP101" t="s">
+        <v>68</v>
       </c>
       <c r="AQ101">
         <v>4564</v>
@@ -62217,8 +62217,8 @@
       <c r="AH158">
         <v>5</v>
       </c>
-      <c r="AI158">
-        <v>132</v>
+      <c r="AI158" t="s">
+        <v>68</v>
       </c>
       <c r="AJ158">
         <v>1782</v>
@@ -62989,8 +62989,8 @@
       <c r="AH160">
         <v>5</v>
       </c>
-      <c r="AI160">
-        <v>153</v>
+      <c r="AI160" t="s">
+        <v>68</v>
       </c>
       <c r="AJ160">
         <v>1809</v>
@@ -76780,6 +76780,392 @@
       </c>
       <c r="DX195">
         <v>11206</v>
+      </c>
+    </row>
+    <row r="196" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>44090</v>
+      </c>
+      <c r="B196">
+        <v>736377</v>
+      </c>
+      <c r="C196">
+        <v>2728</v>
+      </c>
+      <c r="D196">
+        <v>99211</v>
+      </c>
+      <c r="E196">
+        <v>66145</v>
+      </c>
+      <c r="F196">
+        <v>244941</v>
+      </c>
+      <c r="G196">
+        <v>27670</v>
+      </c>
+      <c r="H196">
+        <v>5487</v>
+      </c>
+      <c r="I196">
+        <v>4276</v>
+      </c>
+      <c r="J196">
+        <v>7357</v>
+      </c>
+      <c r="K196">
+        <v>7704</v>
+      </c>
+      <c r="L196">
+        <v>16416</v>
+      </c>
+      <c r="M196">
+        <v>3895</v>
+      </c>
+      <c r="N196">
+        <v>22341</v>
+      </c>
+      <c r="O196">
+        <v>29203</v>
+      </c>
+      <c r="P196">
+        <v>6990</v>
+      </c>
+      <c r="Q196">
+        <v>8259</v>
+      </c>
+      <c r="R196">
+        <v>14094</v>
+      </c>
+      <c r="S196">
+        <v>12334</v>
+      </c>
+      <c r="T196">
+        <v>16434</v>
+      </c>
+      <c r="U196">
+        <v>14010</v>
+      </c>
+      <c r="V196">
+        <v>3491</v>
+      </c>
+      <c r="W196">
+        <v>2250</v>
+      </c>
+      <c r="X196">
+        <v>8640</v>
+      </c>
+      <c r="Y196">
+        <v>25805</v>
+      </c>
+      <c r="Z196">
+        <v>13348</v>
+      </c>
+      <c r="AA196">
+        <v>10105</v>
+      </c>
+      <c r="AB196">
+        <v>55094</v>
+      </c>
+      <c r="AC196">
+        <v>1645</v>
+      </c>
+      <c r="AD196">
+        <v>668</v>
+      </c>
+      <c r="AE196">
+        <v>634</v>
+      </c>
+      <c r="AF196">
+        <v>463</v>
+      </c>
+      <c r="AG196">
+        <v>500</v>
+      </c>
+      <c r="AH196">
+        <v>329</v>
+      </c>
+      <c r="AI196">
+        <v>511</v>
+      </c>
+      <c r="AJ196">
+        <v>2007</v>
+      </c>
+      <c r="AK196">
+        <v>4560</v>
+      </c>
+      <c r="AL196">
+        <v>37305</v>
+      </c>
+      <c r="AM196">
+        <v>8579</v>
+      </c>
+      <c r="AN196">
+        <v>2522</v>
+      </c>
+      <c r="AO196">
+        <v>42927</v>
+      </c>
+      <c r="AP196">
+        <v>1053</v>
+      </c>
+      <c r="AQ196">
+        <v>22233</v>
+      </c>
+      <c r="AR196">
+        <v>1500</v>
+      </c>
+      <c r="AS196">
+        <v>9623</v>
+      </c>
+      <c r="AT196">
+        <v>1626</v>
+      </c>
+      <c r="AU196">
+        <v>1594</v>
+      </c>
+      <c r="AV196">
+        <v>6823</v>
+      </c>
+      <c r="AW196">
+        <v>1815</v>
+      </c>
+      <c r="AX196">
+        <v>954</v>
+      </c>
+      <c r="AY196">
+        <v>2487</v>
+      </c>
+      <c r="AZ196">
+        <v>2654</v>
+      </c>
+      <c r="BA196">
+        <v>57961</v>
+      </c>
+      <c r="BB196">
+        <v>13457</v>
+      </c>
+      <c r="BC196">
+        <v>4926</v>
+      </c>
+      <c r="BD196">
+        <v>8872</v>
+      </c>
+      <c r="BE196">
+        <v>5762</v>
+      </c>
+      <c r="BF196">
+        <v>281</v>
+      </c>
+      <c r="BG196">
+        <v>1439</v>
+      </c>
+      <c r="BH196">
+        <v>2666</v>
+      </c>
+      <c r="BI196">
+        <v>738</v>
+      </c>
+      <c r="BJ196">
+        <v>2127</v>
+      </c>
+      <c r="BK196">
+        <v>9312</v>
+      </c>
+      <c r="BL196">
+        <v>9256</v>
+      </c>
+      <c r="BM196">
+        <v>9946</v>
+      </c>
+      <c r="BN196">
+        <v>14159</v>
+      </c>
+      <c r="BO196">
+        <v>1936</v>
+      </c>
+      <c r="BP196">
+        <v>887</v>
+      </c>
+      <c r="BQ196">
+        <v>12113</v>
+      </c>
+      <c r="BR196">
+        <v>9769</v>
+      </c>
+      <c r="BS196" s="4">
+        <v>11476</v>
+      </c>
+      <c r="BT196" s="4">
+        <v>2258</v>
+      </c>
+      <c r="BU196" s="4">
+        <v>1921</v>
+      </c>
+      <c r="BV196" s="4">
+        <v>4798</v>
+      </c>
+      <c r="BW196" s="4">
+        <v>4303</v>
+      </c>
+      <c r="BX196" s="4">
+        <v>1624</v>
+      </c>
+      <c r="BY196" s="4">
+        <v>5479</v>
+      </c>
+      <c r="BZ196" s="4">
+        <v>3171</v>
+      </c>
+      <c r="CA196" s="4">
+        <v>1815</v>
+      </c>
+      <c r="CB196" s="4">
+        <v>882</v>
+      </c>
+      <c r="CC196" s="4">
+        <v>2697</v>
+      </c>
+      <c r="CD196" s="4">
+        <v>2162</v>
+      </c>
+      <c r="CE196" s="4">
+        <v>1718</v>
+      </c>
+      <c r="CF196" s="4">
+        <v>1383</v>
+      </c>
+      <c r="CG196" s="4">
+        <v>5964</v>
+      </c>
+      <c r="CH196" s="4">
+        <v>1895</v>
+      </c>
+      <c r="CI196" s="4">
+        <v>1373</v>
+      </c>
+      <c r="CJ196" s="4">
+        <v>1622</v>
+      </c>
+      <c r="CK196" s="4">
+        <v>1967</v>
+      </c>
+      <c r="CL196" s="4">
+        <v>1965</v>
+      </c>
+      <c r="CM196" s="4">
+        <v>2321</v>
+      </c>
+      <c r="CN196" s="4">
+        <v>1456</v>
+      </c>
+      <c r="CO196" s="4">
+        <v>1191</v>
+      </c>
+      <c r="CP196" s="4">
+        <v>1170</v>
+      </c>
+      <c r="CQ196" s="4">
+        <v>844</v>
+      </c>
+      <c r="CR196" s="4">
+        <v>3213</v>
+      </c>
+      <c r="CS196" s="4">
+        <v>1330</v>
+      </c>
+      <c r="CT196" s="4">
+        <v>893</v>
+      </c>
+      <c r="CU196" s="4">
+        <v>942</v>
+      </c>
+      <c r="CV196" s="4">
+        <v>1641</v>
+      </c>
+      <c r="CW196" s="4">
+        <v>1477</v>
+      </c>
+      <c r="CX196" s="4">
+        <v>722</v>
+      </c>
+      <c r="CY196" s="4">
+        <v>841</v>
+      </c>
+      <c r="CZ196" s="4">
+        <v>1202</v>
+      </c>
+      <c r="DA196" s="4">
+        <v>1468</v>
+      </c>
+      <c r="DB196" s="4">
+        <v>1333</v>
+      </c>
+      <c r="DC196" s="4">
+        <v>1389</v>
+      </c>
+      <c r="DD196" s="4">
+        <v>1100</v>
+      </c>
+      <c r="DE196" s="4">
+        <v>333</v>
+      </c>
+      <c r="DF196" s="4">
+        <v>357</v>
+      </c>
+      <c r="DG196" s="4">
+        <v>776</v>
+      </c>
+      <c r="DH196" s="4">
+        <v>708</v>
+      </c>
+      <c r="DI196" s="4">
+        <v>464</v>
+      </c>
+      <c r="DJ196" s="4">
+        <v>536</v>
+      </c>
+      <c r="DK196" s="4">
+        <v>369</v>
+      </c>
+      <c r="DL196" s="4">
+        <v>653</v>
+      </c>
+      <c r="DM196" s="4">
+        <v>743</v>
+      </c>
+      <c r="DN196" s="4">
+        <v>522</v>
+      </c>
+      <c r="DO196" s="4">
+        <v>486</v>
+      </c>
+      <c r="DP196" s="4">
+        <v>372</v>
+      </c>
+      <c r="DQ196" s="4">
+        <v>518</v>
+      </c>
+      <c r="DR196">
+        <v>131315</v>
+      </c>
+      <c r="DS196">
+        <v>312050</v>
+      </c>
+      <c r="DT196">
+        <v>15439</v>
+      </c>
+      <c r="DU196">
+        <v>134890</v>
+      </c>
+      <c r="DV196">
+        <v>83127</v>
+      </c>
+      <c r="DW196">
+        <v>39864</v>
+      </c>
+      <c r="DX196">
+        <v>11348</v>
       </c>
     </row>
   </sheetData>

--- a/CasosColombia.xlsx
+++ b/CasosColombia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Matlab\MATLAB_R2019a\fitVirusCV19_v07_v17\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F882FA9B-5EEF-4F4F-B6B0-2A76D917F672}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{29EB2A1B-B317-4574-BEE7-85D57A9A8CD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6C56C21C-B00B-4C62-A627-74DAE246E91A}"/>
+    <workbookView xWindow="0" yWindow="3795" windowWidth="28800" windowHeight="7875" xr2:uid="{6C56C21C-B00B-4C62-A627-74DAE246E91A}"/>
   </bookViews>
   <sheets>
     <sheet name="CasosColombia" sheetId="1" r:id="rId1"/>
@@ -1497,13 +1497,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13133E2-69F7-478D-A001-FD6CB4FB0C80}">
-  <dimension ref="A1:DX196"/>
+  <dimension ref="A1:DX197"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="CZ165" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="DG172" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="DX196" sqref="DX196"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8162,8 +8162,8 @@
       <c r="AC18" t="s">
         <v>68</v>
       </c>
-      <c r="AD18" t="s">
-        <v>68</v>
+      <c r="AD18">
+        <v>1</v>
       </c>
       <c r="AE18">
         <v>0</v>
@@ -8665,8 +8665,8 @@
       <c r="BP19">
         <v>0</v>
       </c>
-      <c r="BQ19" s="12" t="s">
-        <v>68</v>
+      <c r="BQ19" s="12">
+        <v>1</v>
       </c>
       <c r="BR19">
         <v>0</v>
@@ -15284,8 +15284,8 @@
       <c r="CI36" s="4">
         <v>4</v>
       </c>
-      <c r="CJ36" s="10" t="s">
-        <v>68</v>
+      <c r="CJ36" s="10">
+        <v>1</v>
       </c>
       <c r="CK36" s="4">
         <v>5</v>
@@ -21927,8 +21927,8 @@
       <c r="DJ53" s="4">
         <v>0</v>
       </c>
-      <c r="DK53" s="4" t="s">
-        <v>68</v>
+      <c r="DK53" s="4">
+        <v>1</v>
       </c>
       <c r="DL53" s="4">
         <v>3</v>
@@ -62762,8 +62762,8 @@
       <c r="CI159" s="4">
         <v>707</v>
       </c>
-      <c r="CJ159" s="4">
-        <v>677</v>
+      <c r="CJ159" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="CK159" s="4">
         <v>891</v>
@@ -67621,8 +67621,8 @@
       <c r="AH172">
         <v>29</v>
       </c>
-      <c r="AI172">
-        <v>205</v>
+      <c r="AI172" t="s">
+        <v>68</v>
       </c>
       <c r="AJ172">
         <v>1939</v>
@@ -68007,8 +68007,8 @@
       <c r="AH173">
         <v>29</v>
       </c>
-      <c r="AI173">
-        <v>205</v>
+      <c r="AI173" t="s">
+        <v>68</v>
       </c>
       <c r="AJ173">
         <v>1940</v>
@@ -73010,8 +73010,8 @@
       <c r="AC186">
         <v>1274</v>
       </c>
-      <c r="AD186">
-        <v>305</v>
+      <c r="AD186" t="s">
+        <v>68</v>
       </c>
       <c r="AE186">
         <v>448</v>
@@ -77166,6 +77166,392 @@
       </c>
       <c r="DX196">
         <v>11348</v>
+      </c>
+    </row>
+    <row r="197" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>44091</v>
+      </c>
+      <c r="B197">
+        <v>743945</v>
+      </c>
+      <c r="C197">
+        <v>2728</v>
+      </c>
+      <c r="D197">
+        <v>100411</v>
+      </c>
+      <c r="E197">
+        <v>66296</v>
+      </c>
+      <c r="F197">
+        <v>247233</v>
+      </c>
+      <c r="G197">
+        <v>27800</v>
+      </c>
+      <c r="H197">
+        <v>5552</v>
+      </c>
+      <c r="I197">
+        <v>4380</v>
+      </c>
+      <c r="J197">
+        <v>7387</v>
+      </c>
+      <c r="K197">
+        <v>7866</v>
+      </c>
+      <c r="L197">
+        <v>16649</v>
+      </c>
+      <c r="M197">
+        <v>3900</v>
+      </c>
+      <c r="N197">
+        <v>22452</v>
+      </c>
+      <c r="O197">
+        <v>29648</v>
+      </c>
+      <c r="P197">
+        <v>7057</v>
+      </c>
+      <c r="Q197">
+        <v>8509</v>
+      </c>
+      <c r="R197">
+        <v>14259</v>
+      </c>
+      <c r="S197">
+        <v>12545</v>
+      </c>
+      <c r="T197">
+        <v>16531</v>
+      </c>
+      <c r="U197">
+        <v>14112</v>
+      </c>
+      <c r="V197">
+        <v>3502</v>
+      </c>
+      <c r="W197">
+        <v>2328</v>
+      </c>
+      <c r="X197">
+        <v>8872</v>
+      </c>
+      <c r="Y197">
+        <v>26247</v>
+      </c>
+      <c r="Z197">
+        <v>13417</v>
+      </c>
+      <c r="AA197">
+        <v>10245</v>
+      </c>
+      <c r="AB197">
+        <v>55696</v>
+      </c>
+      <c r="AC197">
+        <v>1690</v>
+      </c>
+      <c r="AD197">
+        <v>697</v>
+      </c>
+      <c r="AE197">
+        <v>642</v>
+      </c>
+      <c r="AF197">
+        <v>464</v>
+      </c>
+      <c r="AG197">
+        <v>500</v>
+      </c>
+      <c r="AH197">
+        <v>339</v>
+      </c>
+      <c r="AI197">
+        <v>557</v>
+      </c>
+      <c r="AJ197">
+        <v>2016</v>
+      </c>
+      <c r="AK197">
+        <v>4689</v>
+      </c>
+      <c r="AL197">
+        <v>37392</v>
+      </c>
+      <c r="AM197">
+        <v>8674</v>
+      </c>
+      <c r="AN197">
+        <v>2531</v>
+      </c>
+      <c r="AO197">
+        <v>43392</v>
+      </c>
+      <c r="AP197">
+        <v>1058</v>
+      </c>
+      <c r="AQ197">
+        <v>22282</v>
+      </c>
+      <c r="AR197">
+        <v>1509</v>
+      </c>
+      <c r="AS197">
+        <v>9675</v>
+      </c>
+      <c r="AT197">
+        <v>1629</v>
+      </c>
+      <c r="AU197">
+        <v>1597</v>
+      </c>
+      <c r="AV197">
+        <v>6934</v>
+      </c>
+      <c r="AW197">
+        <v>1829</v>
+      </c>
+      <c r="AX197">
+        <v>954</v>
+      </c>
+      <c r="AY197">
+        <v>2487</v>
+      </c>
+      <c r="AZ197">
+        <v>2657</v>
+      </c>
+      <c r="BA197">
+        <v>58595</v>
+      </c>
+      <c r="BB197">
+        <v>13496</v>
+      </c>
+      <c r="BC197">
+        <v>5080</v>
+      </c>
+      <c r="BD197">
+        <v>8929</v>
+      </c>
+      <c r="BE197">
+        <v>5924</v>
+      </c>
+      <c r="BF197">
+        <v>277</v>
+      </c>
+      <c r="BG197">
+        <v>1443</v>
+      </c>
+      <c r="BH197">
+        <v>2667</v>
+      </c>
+      <c r="BI197">
+        <v>741</v>
+      </c>
+      <c r="BJ197">
+        <v>2133</v>
+      </c>
+      <c r="BK197">
+        <v>9388</v>
+      </c>
+      <c r="BL197">
+        <v>9296</v>
+      </c>
+      <c r="BM197">
+        <v>10049</v>
+      </c>
+      <c r="BN197">
+        <v>14176</v>
+      </c>
+      <c r="BO197">
+        <v>1939</v>
+      </c>
+      <c r="BP197">
+        <v>891</v>
+      </c>
+      <c r="BQ197">
+        <v>12286</v>
+      </c>
+      <c r="BR197">
+        <v>9878</v>
+      </c>
+      <c r="BS197" s="4">
+        <v>11654</v>
+      </c>
+      <c r="BT197" s="4">
+        <v>2332</v>
+      </c>
+      <c r="BU197" s="4">
+        <v>1943</v>
+      </c>
+      <c r="BV197" s="4">
+        <v>4914</v>
+      </c>
+      <c r="BW197" s="4">
+        <v>4341</v>
+      </c>
+      <c r="BX197" s="4">
+        <v>1693</v>
+      </c>
+      <c r="BY197" s="4">
+        <v>5507</v>
+      </c>
+      <c r="BZ197" s="4">
+        <v>3190</v>
+      </c>
+      <c r="CA197" s="4">
+        <v>1870</v>
+      </c>
+      <c r="CB197" s="4">
+        <v>892</v>
+      </c>
+      <c r="CC197" s="4">
+        <v>2732</v>
+      </c>
+      <c r="CD197" s="4">
+        <v>2168</v>
+      </c>
+      <c r="CE197" s="4">
+        <v>1743</v>
+      </c>
+      <c r="CF197" s="4">
+        <v>1407</v>
+      </c>
+      <c r="CG197" s="4">
+        <v>5988</v>
+      </c>
+      <c r="CH197" s="4">
+        <v>1926</v>
+      </c>
+      <c r="CI197" s="4">
+        <v>1385</v>
+      </c>
+      <c r="CJ197" s="4">
+        <v>1646</v>
+      </c>
+      <c r="CK197" s="4">
+        <v>1995</v>
+      </c>
+      <c r="CL197" s="4">
+        <v>1988</v>
+      </c>
+      <c r="CM197" s="4">
+        <v>2359</v>
+      </c>
+      <c r="CN197" s="4">
+        <v>1485</v>
+      </c>
+      <c r="CO197" s="4">
+        <v>1202</v>
+      </c>
+      <c r="CP197" s="4">
+        <v>1175</v>
+      </c>
+      <c r="CQ197" s="4">
+        <v>866</v>
+      </c>
+      <c r="CR197" s="4">
+        <v>3300</v>
+      </c>
+      <c r="CS197" s="4">
+        <v>1349</v>
+      </c>
+      <c r="CT197" s="4">
+        <v>901</v>
+      </c>
+      <c r="CU197" s="4">
+        <v>955</v>
+      </c>
+      <c r="CV197" s="4">
+        <v>1650</v>
+      </c>
+      <c r="CW197" s="4">
+        <v>1498</v>
+      </c>
+      <c r="CX197" s="4">
+        <v>724</v>
+      </c>
+      <c r="CY197" s="4">
+        <v>848</v>
+      </c>
+      <c r="CZ197" s="4">
+        <v>1218</v>
+      </c>
+      <c r="DA197" s="4">
+        <v>1475</v>
+      </c>
+      <c r="DB197" s="4">
+        <v>1368</v>
+      </c>
+      <c r="DC197" s="4">
+        <v>1411</v>
+      </c>
+      <c r="DD197" s="4">
+        <v>1115</v>
+      </c>
+      <c r="DE197" s="4">
+        <v>334</v>
+      </c>
+      <c r="DF197" s="4">
+        <v>362</v>
+      </c>
+      <c r="DG197" s="4">
+        <v>780</v>
+      </c>
+      <c r="DH197" s="4">
+        <v>730</v>
+      </c>
+      <c r="DI197" s="4">
+        <v>466</v>
+      </c>
+      <c r="DJ197" s="4">
+        <v>536</v>
+      </c>
+      <c r="DK197" s="4">
+        <v>372</v>
+      </c>
+      <c r="DL197" s="4">
+        <v>657</v>
+      </c>
+      <c r="DM197" s="4">
+        <v>744</v>
+      </c>
+      <c r="DN197" s="4">
+        <v>525</v>
+      </c>
+      <c r="DO197" s="4">
+        <v>490</v>
+      </c>
+      <c r="DP197" s="4">
+        <v>372</v>
+      </c>
+      <c r="DQ197" s="4">
+        <v>518</v>
+      </c>
+      <c r="DR197">
+        <v>132061</v>
+      </c>
+      <c r="DS197">
+        <v>315453</v>
+      </c>
+      <c r="DT197">
+        <v>15853</v>
+      </c>
+      <c r="DU197">
+        <v>136270</v>
+      </c>
+      <c r="DV197">
+        <v>83993</v>
+      </c>
+      <c r="DW197">
+        <v>40408</v>
+      </c>
+      <c r="DX197">
+        <v>11389</v>
       </c>
     </row>
   </sheetData>

--- a/CasosColombia.xlsx
+++ b/CasosColombia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Matlab\MATLAB_R2019a\fitVirusCV19_v07_v17\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29EB2A1B-B317-4574-BEE7-85D57A9A8CD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E87F4C05-238B-4516-8E59-6597E5702571}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3795" windowWidth="28800" windowHeight="7875" xr2:uid="{6C56C21C-B00B-4C62-A627-74DAE246E91A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6C56C21C-B00B-4C62-A627-74DAE246E91A}"/>
   </bookViews>
   <sheets>
     <sheet name="CasosColombia" sheetId="1" r:id="rId1"/>
@@ -1497,13 +1497,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13133E2-69F7-478D-A001-FD6CB4FB0C80}">
-  <dimension ref="A1:DX197"/>
+  <dimension ref="A1:DX198"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="DG172" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="CY158" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="DX1" sqref="DX1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18261,8 +18261,8 @@
       <c r="AX44">
         <v>0</v>
       </c>
-      <c r="AY44" s="12" t="s">
-        <v>68</v>
+      <c r="AY44" s="12">
+        <v>1</v>
       </c>
       <c r="AZ44">
         <v>1</v>
@@ -22313,8 +22313,8 @@
       <c r="DJ54" s="4">
         <v>0</v>
       </c>
-      <c r="DK54" s="4" t="s">
-        <v>68</v>
+      <c r="DK54" s="4">
+        <v>1</v>
       </c>
       <c r="DL54" s="4">
         <v>3</v>
@@ -32214,8 +32214,8 @@
       <c r="BQ80">
         <v>61</v>
       </c>
-      <c r="BR80">
-        <v>1</v>
+      <c r="BR80" t="s">
+        <v>68</v>
       </c>
       <c r="BS80" s="4">
         <v>22</v>
@@ -61831,8 +61831,8 @@
       <c r="AH157">
         <v>5</v>
       </c>
-      <c r="AI157">
-        <v>111</v>
+      <c r="AI157" t="s">
+        <v>68</v>
       </c>
       <c r="AJ157">
         <v>1762</v>
@@ -77552,6 +77552,392 @@
       </c>
       <c r="DX197">
         <v>11389</v>
+      </c>
+    </row>
+    <row r="198" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>44092</v>
+      </c>
+      <c r="B198">
+        <v>750471</v>
+      </c>
+      <c r="C198">
+        <v>2728</v>
+      </c>
+      <c r="D198">
+        <v>101400</v>
+      </c>
+      <c r="E198">
+        <v>66370</v>
+      </c>
+      <c r="F198">
+        <v>248695</v>
+      </c>
+      <c r="G198">
+        <v>27874</v>
+      </c>
+      <c r="H198">
+        <v>5661</v>
+      </c>
+      <c r="I198">
+        <v>4455</v>
+      </c>
+      <c r="J198">
+        <v>7536</v>
+      </c>
+      <c r="K198">
+        <v>7976</v>
+      </c>
+      <c r="L198">
+        <v>16852</v>
+      </c>
+      <c r="M198">
+        <v>3914</v>
+      </c>
+      <c r="N198">
+        <v>22529</v>
+      </c>
+      <c r="O198">
+        <v>29982</v>
+      </c>
+      <c r="P198">
+        <v>7106</v>
+      </c>
+      <c r="Q198">
+        <v>8802</v>
+      </c>
+      <c r="R198">
+        <v>14316</v>
+      </c>
+      <c r="S198">
+        <v>12807</v>
+      </c>
+      <c r="T198">
+        <v>17260</v>
+      </c>
+      <c r="U198">
+        <v>14269</v>
+      </c>
+      <c r="V198">
+        <v>3603</v>
+      </c>
+      <c r="W198">
+        <v>2390</v>
+      </c>
+      <c r="X198">
+        <v>9021</v>
+      </c>
+      <c r="Y198">
+        <v>26563</v>
+      </c>
+      <c r="Z198">
+        <v>13444</v>
+      </c>
+      <c r="AA198">
+        <v>10340</v>
+      </c>
+      <c r="AB198">
+        <v>56174</v>
+      </c>
+      <c r="AC198">
+        <v>1718</v>
+      </c>
+      <c r="AD198">
+        <v>706</v>
+      </c>
+      <c r="AE198">
+        <v>646</v>
+      </c>
+      <c r="AF198">
+        <v>465</v>
+      </c>
+      <c r="AG198">
+        <v>509</v>
+      </c>
+      <c r="AH198">
+        <v>340</v>
+      </c>
+      <c r="AI198">
+        <v>569</v>
+      </c>
+      <c r="AJ198">
+        <v>2017</v>
+      </c>
+      <c r="AK198">
+        <v>4732</v>
+      </c>
+      <c r="AL198">
+        <v>37447</v>
+      </c>
+      <c r="AM198">
+        <v>8754</v>
+      </c>
+      <c r="AN198">
+        <v>2534</v>
+      </c>
+      <c r="AO198">
+        <v>43743</v>
+      </c>
+      <c r="AP198">
+        <v>1065</v>
+      </c>
+      <c r="AQ198">
+        <v>22334</v>
+      </c>
+      <c r="AR198">
+        <v>1511</v>
+      </c>
+      <c r="AS198">
+        <v>9769</v>
+      </c>
+      <c r="AT198">
+        <v>1630</v>
+      </c>
+      <c r="AU198">
+        <v>1597</v>
+      </c>
+      <c r="AV198">
+        <v>7015</v>
+      </c>
+      <c r="AW198">
+        <v>1961</v>
+      </c>
+      <c r="AX198">
+        <v>954</v>
+      </c>
+      <c r="AY198">
+        <v>2487</v>
+      </c>
+      <c r="AZ198">
+        <v>2659</v>
+      </c>
+      <c r="BA198">
+        <v>59135</v>
+      </c>
+      <c r="BB198">
+        <v>13538</v>
+      </c>
+      <c r="BC198">
+        <v>5211</v>
+      </c>
+      <c r="BD198">
+        <v>9300</v>
+      </c>
+      <c r="BE198">
+        <v>6034</v>
+      </c>
+      <c r="BF198">
+        <v>277</v>
+      </c>
+      <c r="BG198">
+        <v>1443</v>
+      </c>
+      <c r="BH198">
+        <v>2681</v>
+      </c>
+      <c r="BI198">
+        <v>741</v>
+      </c>
+      <c r="BJ198">
+        <v>2134</v>
+      </c>
+      <c r="BK198">
+        <v>9420</v>
+      </c>
+      <c r="BL198">
+        <v>9309</v>
+      </c>
+      <c r="BM198">
+        <v>10102</v>
+      </c>
+      <c r="BN198">
+        <v>14186</v>
+      </c>
+      <c r="BO198">
+        <v>1956</v>
+      </c>
+      <c r="BP198">
+        <v>892</v>
+      </c>
+      <c r="BQ198">
+        <v>12414</v>
+      </c>
+      <c r="BR198">
+        <v>10074</v>
+      </c>
+      <c r="BS198" s="4">
+        <v>11801</v>
+      </c>
+      <c r="BT198" s="4">
+        <v>2388</v>
+      </c>
+      <c r="BU198" s="4">
+        <v>1974</v>
+      </c>
+      <c r="BV198" s="4">
+        <v>5010</v>
+      </c>
+      <c r="BW198" s="4">
+        <v>4393</v>
+      </c>
+      <c r="BX198" s="4">
+        <v>1747</v>
+      </c>
+      <c r="BY198" s="4">
+        <v>5537</v>
+      </c>
+      <c r="BZ198" s="4">
+        <v>3246</v>
+      </c>
+      <c r="CA198" s="4">
+        <v>1894</v>
+      </c>
+      <c r="CB198" s="4">
+        <v>898</v>
+      </c>
+      <c r="CC198" s="4">
+        <v>2762</v>
+      </c>
+      <c r="CD198" s="4">
+        <v>2169</v>
+      </c>
+      <c r="CE198" s="4">
+        <v>1760</v>
+      </c>
+      <c r="CF198" s="4">
+        <v>1453</v>
+      </c>
+      <c r="CG198" s="4">
+        <v>6097</v>
+      </c>
+      <c r="CH198" s="4">
+        <v>1963</v>
+      </c>
+      <c r="CI198" s="4">
+        <v>1392</v>
+      </c>
+      <c r="CJ198" s="4">
+        <v>1676</v>
+      </c>
+      <c r="CK198" s="4">
+        <v>2016</v>
+      </c>
+      <c r="CL198" s="4">
+        <v>2008</v>
+      </c>
+      <c r="CM198" s="4">
+        <v>2399</v>
+      </c>
+      <c r="CN198" s="4">
+        <v>1516</v>
+      </c>
+      <c r="CO198" s="4">
+        <v>1204</v>
+      </c>
+      <c r="CP198" s="4">
+        <v>1182</v>
+      </c>
+      <c r="CQ198" s="4">
+        <v>888</v>
+      </c>
+      <c r="CR198" s="4">
+        <v>3307</v>
+      </c>
+      <c r="CS198" s="4">
+        <v>1366</v>
+      </c>
+      <c r="CT198" s="4">
+        <v>911</v>
+      </c>
+      <c r="CU198" s="4">
+        <v>967</v>
+      </c>
+      <c r="CV198" s="4">
+        <v>1656</v>
+      </c>
+      <c r="CW198" s="4">
+        <v>1512</v>
+      </c>
+      <c r="CX198" s="4">
+        <v>724</v>
+      </c>
+      <c r="CY198" s="4">
+        <v>849</v>
+      </c>
+      <c r="CZ198" s="4">
+        <v>1229</v>
+      </c>
+      <c r="DA198" s="4">
+        <v>1494</v>
+      </c>
+      <c r="DB198" s="4">
+        <v>1386</v>
+      </c>
+      <c r="DC198" s="4">
+        <v>1435</v>
+      </c>
+      <c r="DD198" s="4">
+        <v>1139</v>
+      </c>
+      <c r="DE198" s="4">
+        <v>334</v>
+      </c>
+      <c r="DF198" s="4">
+        <v>365</v>
+      </c>
+      <c r="DG198" s="4">
+        <v>780</v>
+      </c>
+      <c r="DH198" s="4">
+        <v>739</v>
+      </c>
+      <c r="DI198" s="4">
+        <v>470</v>
+      </c>
+      <c r="DJ198" s="4">
+        <v>543</v>
+      </c>
+      <c r="DK198" s="4">
+        <v>372</v>
+      </c>
+      <c r="DL198" s="4">
+        <v>658</v>
+      </c>
+      <c r="DM198" s="4">
+        <v>744</v>
+      </c>
+      <c r="DN198" s="4">
+        <v>526</v>
+      </c>
+      <c r="DO198" s="4">
+        <v>490</v>
+      </c>
+      <c r="DP198" s="4">
+        <v>373</v>
+      </c>
+      <c r="DQ198" s="4">
+        <v>518</v>
+      </c>
+      <c r="DR198">
+        <v>132518</v>
+      </c>
+      <c r="DS198">
+        <v>318008</v>
+      </c>
+      <c r="DT198">
+        <v>16139</v>
+      </c>
+      <c r="DU198">
+        <v>137363</v>
+      </c>
+      <c r="DV198">
+        <v>85324</v>
+      </c>
+      <c r="DW198">
+        <v>40881</v>
+      </c>
+      <c r="DX198">
+        <v>11648</v>
       </c>
     </row>
   </sheetData>

--- a/CasosColombia.xlsx
+++ b/CasosColombia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Matlab\MATLAB_R2019a\fitVirusCV19_v07_v17\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E87F4C05-238B-4516-8E59-6597E5702571}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F72EAEBD-DD1D-4A70-9D8E-6B4C5A4896BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6C56C21C-B00B-4C62-A627-74DAE246E91A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="129">
   <si>
     <t>Fecha</t>
   </si>
@@ -1497,13 +1497,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13133E2-69F7-478D-A001-FD6CB4FB0C80}">
-  <dimension ref="A1:DX198"/>
+  <dimension ref="A1:DX200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="CY158" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="CY159" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="DX1" sqref="DX1"/>
+      <selection pane="bottomRight" activeCell="DX199" sqref="DX199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7570,8 +7570,8 @@
       <c r="CK16" s="4">
         <v>0</v>
       </c>
-      <c r="CL16" s="4">
-        <v>1</v>
+      <c r="CL16" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="CM16" s="4">
         <v>0</v>
@@ -50242,8 +50242,8 @@
       <c r="AE127">
         <v>29</v>
       </c>
-      <c r="AF127" s="12">
-        <v>6</v>
+      <c r="AF127" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="AG127">
         <v>14</v>
@@ -52172,8 +52172,8 @@
       <c r="AE132">
         <v>60</v>
       </c>
-      <c r="AF132">
-        <v>18</v>
+      <c r="AF132" t="s">
+        <v>68</v>
       </c>
       <c r="AG132">
         <v>14</v>
@@ -73025,8 +73025,8 @@
       <c r="AH186">
         <v>135</v>
       </c>
-      <c r="AI186">
-        <v>320</v>
+      <c r="AI186" t="s">
+        <v>68</v>
       </c>
       <c r="AJ186">
         <v>1985</v>
@@ -77938,6 +77938,778 @@
       </c>
       <c r="DX198">
         <v>11648</v>
+      </c>
+    </row>
+    <row r="199" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>44093</v>
+      </c>
+      <c r="B199">
+        <v>758398</v>
+      </c>
+      <c r="C199">
+        <v>2732</v>
+      </c>
+      <c r="D199">
+        <v>102083</v>
+      </c>
+      <c r="E199">
+        <v>66514</v>
+      </c>
+      <c r="F199">
+        <v>250489</v>
+      </c>
+      <c r="G199">
+        <v>27972</v>
+      </c>
+      <c r="H199">
+        <v>5784</v>
+      </c>
+      <c r="I199">
+        <v>4650</v>
+      </c>
+      <c r="J199">
+        <v>7760</v>
+      </c>
+      <c r="K199">
+        <v>8192</v>
+      </c>
+      <c r="L199">
+        <v>17236</v>
+      </c>
+      <c r="M199">
+        <v>3930</v>
+      </c>
+      <c r="N199">
+        <v>22745</v>
+      </c>
+      <c r="O199">
+        <v>30379</v>
+      </c>
+      <c r="P199">
+        <v>7207</v>
+      </c>
+      <c r="Q199">
+        <v>9137</v>
+      </c>
+      <c r="R199">
+        <v>14454</v>
+      </c>
+      <c r="S199">
+        <v>13093</v>
+      </c>
+      <c r="T199">
+        <v>17412</v>
+      </c>
+      <c r="U199">
+        <v>14427</v>
+      </c>
+      <c r="V199">
+        <v>3620</v>
+      </c>
+      <c r="W199">
+        <v>2491</v>
+      </c>
+      <c r="X199">
+        <v>9234</v>
+      </c>
+      <c r="Y199">
+        <v>26963</v>
+      </c>
+      <c r="Z199">
+        <v>13512</v>
+      </c>
+      <c r="AA199">
+        <v>10770</v>
+      </c>
+      <c r="AB199">
+        <v>56837</v>
+      </c>
+      <c r="AC199">
+        <v>1771</v>
+      </c>
+      <c r="AD199">
+        <v>841</v>
+      </c>
+      <c r="AE199">
+        <v>679</v>
+      </c>
+      <c r="AF199">
+        <v>466</v>
+      </c>
+      <c r="AG199">
+        <v>547</v>
+      </c>
+      <c r="AH199">
+        <v>397</v>
+      </c>
+      <c r="AI199">
+        <v>597</v>
+      </c>
+      <c r="AJ199">
+        <v>2020</v>
+      </c>
+      <c r="AK199">
+        <v>4862</v>
+      </c>
+      <c r="AL199">
+        <v>37545</v>
+      </c>
+      <c r="AM199">
+        <v>8886</v>
+      </c>
+      <c r="AN199">
+        <v>2537</v>
+      </c>
+      <c r="AO199">
+        <v>44253</v>
+      </c>
+      <c r="AP199">
+        <v>1067</v>
+      </c>
+      <c r="AQ199">
+        <v>22397</v>
+      </c>
+      <c r="AR199">
+        <v>1517</v>
+      </c>
+      <c r="AS199">
+        <v>9860</v>
+      </c>
+      <c r="AT199">
+        <v>1640</v>
+      </c>
+      <c r="AU199">
+        <v>1602</v>
+      </c>
+      <c r="AV199">
+        <v>7347</v>
+      </c>
+      <c r="AW199">
+        <v>1973</v>
+      </c>
+      <c r="AX199">
+        <v>955</v>
+      </c>
+      <c r="AY199">
+        <v>2491</v>
+      </c>
+      <c r="AZ199">
+        <v>2661</v>
+      </c>
+      <c r="BA199">
+        <v>59451</v>
+      </c>
+      <c r="BB199">
+        <v>13631</v>
+      </c>
+      <c r="BC199">
+        <v>5484</v>
+      </c>
+      <c r="BD199">
+        <v>9377</v>
+      </c>
+      <c r="BE199">
+        <v>6179</v>
+      </c>
+      <c r="BF199">
+        <v>277</v>
+      </c>
+      <c r="BG199">
+        <v>1446</v>
+      </c>
+      <c r="BH199">
+        <v>2692</v>
+      </c>
+      <c r="BI199">
+        <v>741</v>
+      </c>
+      <c r="BJ199">
+        <v>2141</v>
+      </c>
+      <c r="BK199">
+        <v>9500</v>
+      </c>
+      <c r="BL199">
+        <v>9340</v>
+      </c>
+      <c r="BM199">
+        <v>10196</v>
+      </c>
+      <c r="BN199">
+        <v>14202</v>
+      </c>
+      <c r="BO199">
+        <v>1959</v>
+      </c>
+      <c r="BP199">
+        <v>893</v>
+      </c>
+      <c r="BQ199">
+        <v>12673</v>
+      </c>
+      <c r="BR199">
+        <v>10255</v>
+      </c>
+      <c r="BS199" s="4">
+        <v>11932</v>
+      </c>
+      <c r="BT199" s="4">
+        <v>2482</v>
+      </c>
+      <c r="BU199" s="4">
+        <v>2000</v>
+      </c>
+      <c r="BV199" s="4">
+        <v>5167</v>
+      </c>
+      <c r="BW199" s="4">
+        <v>4445</v>
+      </c>
+      <c r="BX199" s="4">
+        <v>1816</v>
+      </c>
+      <c r="BY199" s="4">
+        <v>5499</v>
+      </c>
+      <c r="BZ199" s="4">
+        <v>3275</v>
+      </c>
+      <c r="CA199" s="4">
+        <v>1941</v>
+      </c>
+      <c r="CB199" s="4">
+        <v>911</v>
+      </c>
+      <c r="CC199" s="4">
+        <v>2793</v>
+      </c>
+      <c r="CD199" s="4">
+        <v>2177</v>
+      </c>
+      <c r="CE199" s="4">
+        <v>1787</v>
+      </c>
+      <c r="CF199" s="4">
+        <v>1492</v>
+      </c>
+      <c r="CG199" s="4">
+        <v>6008</v>
+      </c>
+      <c r="CH199" s="4">
+        <v>1991</v>
+      </c>
+      <c r="CI199" s="4">
+        <v>1400</v>
+      </c>
+      <c r="CJ199" s="4">
+        <v>1694</v>
+      </c>
+      <c r="CK199" s="4">
+        <v>2038</v>
+      </c>
+      <c r="CL199" s="4">
+        <v>2030</v>
+      </c>
+      <c r="CM199" s="4">
+        <v>2437</v>
+      </c>
+      <c r="CN199" s="4">
+        <v>1553</v>
+      </c>
+      <c r="CO199" s="4">
+        <v>1204</v>
+      </c>
+      <c r="CP199" s="4">
+        <v>1184</v>
+      </c>
+      <c r="CQ199" s="4">
+        <v>908</v>
+      </c>
+      <c r="CR199" s="4">
+        <v>3314</v>
+      </c>
+      <c r="CS199" s="4">
+        <v>1389</v>
+      </c>
+      <c r="CT199" s="4">
+        <v>924</v>
+      </c>
+      <c r="CU199" s="4">
+        <v>986</v>
+      </c>
+      <c r="CV199" s="4">
+        <v>1678</v>
+      </c>
+      <c r="CW199" s="4">
+        <v>1527</v>
+      </c>
+      <c r="CX199" s="4">
+        <v>730</v>
+      </c>
+      <c r="CY199" s="4">
+        <v>855</v>
+      </c>
+      <c r="CZ199" s="4">
+        <v>1246</v>
+      </c>
+      <c r="DA199" s="4">
+        <v>1514</v>
+      </c>
+      <c r="DB199" s="4">
+        <v>1405</v>
+      </c>
+      <c r="DC199" s="4">
+        <v>1467</v>
+      </c>
+      <c r="DD199" s="4">
+        <v>1171</v>
+      </c>
+      <c r="DE199" s="4">
+        <v>334</v>
+      </c>
+      <c r="DF199" s="4">
+        <v>365</v>
+      </c>
+      <c r="DG199" s="4">
+        <v>783</v>
+      </c>
+      <c r="DH199" s="4">
+        <v>741</v>
+      </c>
+      <c r="DI199" s="4">
+        <v>473</v>
+      </c>
+      <c r="DJ199" s="4">
+        <v>543</v>
+      </c>
+      <c r="DK199" s="4">
+        <v>378</v>
+      </c>
+      <c r="DL199" s="4">
+        <v>661</v>
+      </c>
+      <c r="DM199" s="4">
+        <v>746</v>
+      </c>
+      <c r="DN199" s="4">
+        <v>526</v>
+      </c>
+      <c r="DO199" s="4">
+        <v>490</v>
+      </c>
+      <c r="DP199" s="4">
+        <v>373</v>
+      </c>
+      <c r="DQ199" s="4">
+        <v>518</v>
+      </c>
+      <c r="DR199">
+        <v>133383</v>
+      </c>
+      <c r="DS199">
+        <v>321373</v>
+      </c>
+      <c r="DT199">
+        <v>16648</v>
+      </c>
+      <c r="DU199">
+        <v>138330</v>
+      </c>
+      <c r="DV199">
+        <v>86371</v>
+      </c>
+      <c r="DW199">
+        <v>41439</v>
+      </c>
+      <c r="DX199">
+        <v>11927</v>
+      </c>
+    </row>
+    <row r="200" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>44094</v>
+      </c>
+      <c r="B200">
+        <v>765076</v>
+      </c>
+      <c r="C200">
+        <v>2732</v>
+      </c>
+      <c r="D200">
+        <v>103495</v>
+      </c>
+      <c r="E200">
+        <v>66576</v>
+      </c>
+      <c r="F200">
+        <v>252319</v>
+      </c>
+      <c r="G200">
+        <v>28027</v>
+      </c>
+      <c r="H200">
+        <v>5875</v>
+      </c>
+      <c r="I200">
+        <v>4752</v>
+      </c>
+      <c r="J200">
+        <v>7783</v>
+      </c>
+      <c r="K200">
+        <v>8293</v>
+      </c>
+      <c r="L200">
+        <v>17403</v>
+      </c>
+      <c r="M200">
+        <v>3947</v>
+      </c>
+      <c r="N200">
+        <v>22768</v>
+      </c>
+      <c r="O200">
+        <v>30680</v>
+      </c>
+      <c r="P200">
+        <v>7397</v>
+      </c>
+      <c r="Q200">
+        <v>9298</v>
+      </c>
+      <c r="R200">
+        <v>14563</v>
+      </c>
+      <c r="S200">
+        <v>13288</v>
+      </c>
+      <c r="T200">
+        <v>17485</v>
+      </c>
+      <c r="U200">
+        <v>14535</v>
+      </c>
+      <c r="V200">
+        <v>3640</v>
+      </c>
+      <c r="W200">
+        <v>2615</v>
+      </c>
+      <c r="X200">
+        <v>9363</v>
+      </c>
+      <c r="Y200">
+        <v>27414</v>
+      </c>
+      <c r="Z200">
+        <v>13545</v>
+      </c>
+      <c r="AA200">
+        <v>10880</v>
+      </c>
+      <c r="AB200">
+        <v>57244</v>
+      </c>
+      <c r="AC200">
+        <v>1875</v>
+      </c>
+      <c r="AD200">
+        <v>938</v>
+      </c>
+      <c r="AE200">
+        <v>693</v>
+      </c>
+      <c r="AF200">
+        <v>467</v>
+      </c>
+      <c r="AG200">
+        <v>631</v>
+      </c>
+      <c r="AH200">
+        <v>435</v>
+      </c>
+      <c r="AI200">
+        <v>618</v>
+      </c>
+      <c r="AJ200">
+        <v>2020</v>
+      </c>
+      <c r="AK200">
+        <v>4925</v>
+      </c>
+      <c r="AL200">
+        <v>37600</v>
+      </c>
+      <c r="AM200">
+        <v>8925</v>
+      </c>
+      <c r="AN200">
+        <v>2538</v>
+      </c>
+      <c r="AO200">
+        <v>44534</v>
+      </c>
+      <c r="AP200">
+        <v>1079</v>
+      </c>
+      <c r="AQ200">
+        <v>22419</v>
+      </c>
+      <c r="AR200">
+        <v>1518</v>
+      </c>
+      <c r="AS200">
+        <v>9924</v>
+      </c>
+      <c r="AT200">
+        <v>1642</v>
+      </c>
+      <c r="AU200">
+        <v>1602</v>
+      </c>
+      <c r="AV200">
+        <v>7440</v>
+      </c>
+      <c r="AW200">
+        <v>1974</v>
+      </c>
+      <c r="AX200">
+        <v>955</v>
+      </c>
+      <c r="AY200">
+        <v>2491</v>
+      </c>
+      <c r="AZ200">
+        <v>2661</v>
+      </c>
+      <c r="BA200">
+        <v>60616</v>
+      </c>
+      <c r="BB200">
+        <v>13642</v>
+      </c>
+      <c r="BC200">
+        <v>5589</v>
+      </c>
+      <c r="BD200">
+        <v>9427</v>
+      </c>
+      <c r="BE200">
+        <v>6273</v>
+      </c>
+      <c r="BF200">
+        <v>277</v>
+      </c>
+      <c r="BG200">
+        <v>1450</v>
+      </c>
+      <c r="BH200">
+        <v>2705</v>
+      </c>
+      <c r="BI200">
+        <v>741</v>
+      </c>
+      <c r="BJ200">
+        <v>2141</v>
+      </c>
+      <c r="BK200">
+        <v>9543</v>
+      </c>
+      <c r="BL200">
+        <v>9355</v>
+      </c>
+      <c r="BM200">
+        <v>10252</v>
+      </c>
+      <c r="BN200">
+        <v>14203</v>
+      </c>
+      <c r="BO200">
+        <v>1961</v>
+      </c>
+      <c r="BP200">
+        <v>893</v>
+      </c>
+      <c r="BQ200">
+        <v>12793</v>
+      </c>
+      <c r="BR200">
+        <v>10378</v>
+      </c>
+      <c r="BS200" s="4">
+        <v>12186</v>
+      </c>
+      <c r="BT200" s="4">
+        <v>2548</v>
+      </c>
+      <c r="BU200" s="4">
+        <v>2028</v>
+      </c>
+      <c r="BV200" s="4">
+        <v>5250</v>
+      </c>
+      <c r="BW200" s="4">
+        <v>4501</v>
+      </c>
+      <c r="BX200" s="4">
+        <v>1885</v>
+      </c>
+      <c r="BY200" s="4">
+        <v>5513</v>
+      </c>
+      <c r="BZ200" s="4">
+        <v>3296</v>
+      </c>
+      <c r="CA200" s="4">
+        <v>1961</v>
+      </c>
+      <c r="CB200" s="4">
+        <v>916</v>
+      </c>
+      <c r="CC200" s="4">
+        <v>2851</v>
+      </c>
+      <c r="CD200" s="4">
+        <v>2185</v>
+      </c>
+      <c r="CE200" s="4">
+        <v>1816</v>
+      </c>
+      <c r="CF200" s="4">
+        <v>1511</v>
+      </c>
+      <c r="CG200" s="4">
+        <v>6031</v>
+      </c>
+      <c r="CH200" s="4">
+        <v>2012</v>
+      </c>
+      <c r="CI200" s="4">
+        <v>1410</v>
+      </c>
+      <c r="CJ200" s="4">
+        <v>1718</v>
+      </c>
+      <c r="CK200" s="4">
+        <v>2044</v>
+      </c>
+      <c r="CL200" s="4">
+        <v>2053</v>
+      </c>
+      <c r="CM200" s="4">
+        <v>2448</v>
+      </c>
+      <c r="CN200" s="4">
+        <v>1570</v>
+      </c>
+      <c r="CO200" s="4">
+        <v>1205</v>
+      </c>
+      <c r="CP200" s="4">
+        <v>1188</v>
+      </c>
+      <c r="CQ200" s="4">
+        <v>920</v>
+      </c>
+      <c r="CR200" s="4">
+        <v>3327</v>
+      </c>
+      <c r="CS200" s="4">
+        <v>1400</v>
+      </c>
+      <c r="CT200" s="4">
+        <v>925</v>
+      </c>
+      <c r="CU200" s="4">
+        <v>1009</v>
+      </c>
+      <c r="CV200" s="4">
+        <v>1681</v>
+      </c>
+      <c r="CW200" s="4">
+        <v>1533</v>
+      </c>
+      <c r="CX200" s="4">
+        <v>734</v>
+      </c>
+      <c r="CY200" s="4">
+        <v>857</v>
+      </c>
+      <c r="CZ200" s="4">
+        <v>1262</v>
+      </c>
+      <c r="DA200" s="4">
+        <v>1522</v>
+      </c>
+      <c r="DB200" s="4">
+        <v>1407</v>
+      </c>
+      <c r="DC200" s="4">
+        <v>1475</v>
+      </c>
+      <c r="DD200" s="4">
+        <v>1174</v>
+      </c>
+      <c r="DE200" s="4">
+        <v>334</v>
+      </c>
+      <c r="DF200" s="4">
+        <v>365</v>
+      </c>
+      <c r="DG200" s="4">
+        <v>787</v>
+      </c>
+      <c r="DH200" s="4">
+        <v>743</v>
+      </c>
+      <c r="DI200" s="4">
+        <v>477</v>
+      </c>
+      <c r="DJ200" s="4">
+        <v>543</v>
+      </c>
+      <c r="DK200" s="4">
+        <v>380</v>
+      </c>
+      <c r="DL200" s="4">
+        <v>665</v>
+      </c>
+      <c r="DM200" s="4">
+        <v>747</v>
+      </c>
+      <c r="DN200" s="4">
+        <v>526</v>
+      </c>
+      <c r="DO200" s="4">
+        <v>490</v>
+      </c>
+      <c r="DP200" s="4">
+        <v>373</v>
+      </c>
+      <c r="DQ200" s="4">
+        <v>518</v>
+      </c>
+      <c r="DR200">
+        <v>133966</v>
+      </c>
+      <c r="DS200">
+        <v>324061</v>
+      </c>
+      <c r="DT200">
+        <v>17003</v>
+      </c>
+      <c r="DU200">
+        <v>139798</v>
+      </c>
+      <c r="DV200">
+        <v>86969</v>
+      </c>
+      <c r="DW200">
+        <v>41998</v>
+      </c>
+      <c r="DX200">
+        <v>12054</v>
       </c>
     </row>
   </sheetData>

--- a/CasosColombia.xlsx
+++ b/CasosColombia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Matlab\MATLAB_R2019a\fitVirusCV19_v07_v17\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F72EAEBD-DD1D-4A70-9D8E-6B4C5A4896BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E054D77-407A-4C7B-8B28-99C50EC5A136}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6C56C21C-B00B-4C62-A627-74DAE246E91A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="129">
   <si>
     <t>Fecha</t>
   </si>
@@ -1497,13 +1497,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13133E2-69F7-478D-A001-FD6CB4FB0C80}">
-  <dimension ref="A1:DX200"/>
+  <dimension ref="A1:DX201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="CY159" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="CY162" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="DX199" sqref="DX199"/>
+      <selection pane="bottomRight" activeCell="DX201" sqref="DX201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6355,8 +6355,8 @@
       <c r="BR13">
         <v>0</v>
       </c>
-      <c r="BS13" s="4">
-        <v>1</v>
+      <c r="BS13" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="BT13" s="10">
         <v>1</v>
@@ -10864,8 +10864,8 @@
       <c r="AC25">
         <v>1</v>
       </c>
-      <c r="AD25" t="s">
-        <v>68</v>
+      <c r="AD25">
+        <v>1</v>
       </c>
       <c r="AE25">
         <v>0</v>
@@ -11250,8 +11250,8 @@
       <c r="AC26">
         <v>1</v>
       </c>
-      <c r="AD26" t="s">
-        <v>68</v>
+      <c r="AD26">
+        <v>1</v>
       </c>
       <c r="AE26">
         <v>0</v>
@@ -11636,8 +11636,8 @@
       <c r="AC27">
         <v>1</v>
       </c>
-      <c r="AD27" t="s">
-        <v>68</v>
+      <c r="AD27">
+        <v>1</v>
       </c>
       <c r="AE27">
         <v>0</v>
@@ -12977,8 +12977,8 @@
       <c r="CL30" s="4">
         <v>5</v>
       </c>
-      <c r="CM30" s="13" t="s">
-        <v>68</v>
+      <c r="CM30" s="13">
+        <v>1</v>
       </c>
       <c r="CN30" s="4">
         <v>8</v>
@@ -22507,8 +22507,8 @@
       <c r="AX55">
         <v>0</v>
       </c>
-      <c r="AY55">
-        <v>77</v>
+      <c r="AY55" t="s">
+        <v>68</v>
       </c>
       <c r="AZ55">
         <v>9</v>
@@ -34775,8 +34775,8 @@
       <c r="V87">
         <v>9</v>
       </c>
-      <c r="W87" t="s">
-        <v>68</v>
+      <c r="W87">
+        <v>67</v>
       </c>
       <c r="X87">
         <v>20</v>
@@ -65656,7 +65656,7 @@
         <v>2181</v>
       </c>
       <c r="W167">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="X167">
         <v>3487</v>
@@ -66042,7 +66042,7 @@
         <v>2207</v>
       </c>
       <c r="W168">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="X168">
         <v>3718</v>
@@ -66428,7 +66428,7 @@
         <v>2282</v>
       </c>
       <c r="W169">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="X169">
         <v>3865</v>
@@ -66814,7 +66814,7 @@
         <v>2328</v>
       </c>
       <c r="W170">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="X170">
         <v>4050</v>
@@ -67200,7 +67200,7 @@
         <v>2369</v>
       </c>
       <c r="W171">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="X171">
         <v>4407</v>
@@ -67586,7 +67586,7 @@
         <v>2405</v>
       </c>
       <c r="W172">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="X172">
         <v>4574</v>
@@ -67972,7 +67972,7 @@
         <v>2476</v>
       </c>
       <c r="W173">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="X173">
         <v>4791</v>
@@ -68358,7 +68358,7 @@
         <v>2599</v>
       </c>
       <c r="W174">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="X174">
         <v>5002</v>
@@ -68743,8 +68743,8 @@
       <c r="V175">
         <v>2611</v>
       </c>
-      <c r="W175" t="s">
-        <v>68</v>
+      <c r="W175">
+        <v>980</v>
       </c>
       <c r="X175">
         <v>5163</v>
@@ -69130,7 +69130,7 @@
         <v>2687</v>
       </c>
       <c r="W176">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="X176">
         <v>5397</v>
@@ -69516,7 +69516,7 @@
         <v>2736</v>
       </c>
       <c r="W177">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="X177">
         <v>5612</v>
@@ -69902,7 +69902,7 @@
         <v>2779</v>
       </c>
       <c r="W178">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="X178">
         <v>5758</v>
@@ -70288,7 +70288,7 @@
         <v>2841</v>
       </c>
       <c r="W179">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="X179">
         <v>5872</v>
@@ -70674,7 +70674,7 @@
         <v>2895</v>
       </c>
       <c r="W180">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="X180">
         <v>5992</v>
@@ -71060,7 +71060,7 @@
         <v>3005</v>
       </c>
       <c r="W181">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="X181">
         <v>6267</v>
@@ -71446,7 +71446,7 @@
         <v>3039</v>
       </c>
       <c r="W182">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="X182">
         <v>6402</v>
@@ -71832,7 +71832,7 @@
         <v>3048</v>
       </c>
       <c r="W183">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="X183">
         <v>6500</v>
@@ -72218,7 +72218,7 @@
         <v>3085</v>
       </c>
       <c r="W184">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="X184">
         <v>6722</v>
@@ -72604,7 +72604,7 @@
         <v>3152</v>
       </c>
       <c r="W185">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="X185">
         <v>6902</v>
@@ -72990,7 +72990,7 @@
         <v>3213</v>
       </c>
       <c r="W186">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="X186">
         <v>7047</v>
@@ -73376,7 +73376,7 @@
         <v>3247</v>
       </c>
       <c r="W187">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="X187">
         <v>7078</v>
@@ -74148,7 +74148,7 @@
         <v>3289</v>
       </c>
       <c r="W189">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="X189">
         <v>7421</v>
@@ -74534,7 +74534,7 @@
         <v>3314</v>
       </c>
       <c r="W190">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="X190">
         <v>7634</v>
@@ -75306,7 +75306,7 @@
         <v>3348</v>
       </c>
       <c r="W192">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="X192">
         <v>8004</v>
@@ -75692,7 +75692,7 @@
         <v>3362</v>
       </c>
       <c r="W193">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="X193">
         <v>8191</v>
@@ -76078,7 +76078,7 @@
         <v>3380</v>
       </c>
       <c r="W194">
-        <v>2091</v>
+        <v>2093</v>
       </c>
       <c r="X194">
         <v>8316</v>
@@ -78710,6 +78710,392 @@
       </c>
       <c r="DX200">
         <v>12054</v>
+      </c>
+    </row>
+    <row r="201" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>44095</v>
+      </c>
+      <c r="B201">
+        <v>770435</v>
+      </c>
+      <c r="C201">
+        <v>2732</v>
+      </c>
+      <c r="D201">
+        <v>104788</v>
+      </c>
+      <c r="E201">
+        <v>66643</v>
+      </c>
+      <c r="F201">
+        <v>254274</v>
+      </c>
+      <c r="G201">
+        <v>28058</v>
+      </c>
+      <c r="H201">
+        <v>5963</v>
+      </c>
+      <c r="I201">
+        <v>4785</v>
+      </c>
+      <c r="J201">
+        <v>7789</v>
+      </c>
+      <c r="K201">
+        <v>8340</v>
+      </c>
+      <c r="L201">
+        <v>17452</v>
+      </c>
+      <c r="M201">
+        <v>3958</v>
+      </c>
+      <c r="N201">
+        <v>22874</v>
+      </c>
+      <c r="O201">
+        <v>30838</v>
+      </c>
+      <c r="P201">
+        <v>7479</v>
+      </c>
+      <c r="Q201">
+        <v>9397</v>
+      </c>
+      <c r="R201">
+        <v>14572</v>
+      </c>
+      <c r="S201">
+        <v>13375</v>
+      </c>
+      <c r="T201">
+        <v>17556</v>
+      </c>
+      <c r="U201">
+        <v>14570</v>
+      </c>
+      <c r="V201">
+        <v>3652</v>
+      </c>
+      <c r="W201">
+        <v>2728</v>
+      </c>
+      <c r="X201">
+        <v>9419</v>
+      </c>
+      <c r="Y201">
+        <v>27835</v>
+      </c>
+      <c r="Z201">
+        <v>13619</v>
+      </c>
+      <c r="AA201">
+        <v>10969</v>
+      </c>
+      <c r="AB201">
+        <v>57483</v>
+      </c>
+      <c r="AC201">
+        <v>1929</v>
+      </c>
+      <c r="AD201">
+        <v>980</v>
+      </c>
+      <c r="AE201">
+        <v>693</v>
+      </c>
+      <c r="AF201">
+        <v>468</v>
+      </c>
+      <c r="AG201">
+        <v>638</v>
+      </c>
+      <c r="AH201">
+        <v>451</v>
+      </c>
+      <c r="AI201">
+        <v>624</v>
+      </c>
+      <c r="AJ201">
+        <v>2025</v>
+      </c>
+      <c r="AK201">
+        <v>5118</v>
+      </c>
+      <c r="AL201">
+        <v>37626</v>
+      </c>
+      <c r="AM201">
+        <v>9142</v>
+      </c>
+      <c r="AN201">
+        <v>2538</v>
+      </c>
+      <c r="AO201">
+        <v>44722</v>
+      </c>
+      <c r="AP201">
+        <v>1081</v>
+      </c>
+      <c r="AQ201">
+        <v>22444</v>
+      </c>
+      <c r="AR201">
+        <v>1519</v>
+      </c>
+      <c r="AS201">
+        <v>9948</v>
+      </c>
+      <c r="AT201">
+        <v>1644</v>
+      </c>
+      <c r="AU201">
+        <v>1602</v>
+      </c>
+      <c r="AV201">
+        <v>7514</v>
+      </c>
+      <c r="AW201">
+        <v>1976</v>
+      </c>
+      <c r="AX201">
+        <v>955</v>
+      </c>
+      <c r="AY201">
+        <v>2491</v>
+      </c>
+      <c r="AZ201">
+        <v>2662</v>
+      </c>
+      <c r="BA201">
+        <v>60863</v>
+      </c>
+      <c r="BB201">
+        <v>13697</v>
+      </c>
+      <c r="BC201">
+        <v>5639</v>
+      </c>
+      <c r="BD201">
+        <v>9477</v>
+      </c>
+      <c r="BE201">
+        <v>6319</v>
+      </c>
+      <c r="BF201">
+        <v>277</v>
+      </c>
+      <c r="BG201">
+        <v>1456</v>
+      </c>
+      <c r="BH201">
+        <v>2713</v>
+      </c>
+      <c r="BI201">
+        <v>741</v>
+      </c>
+      <c r="BJ201">
+        <v>2142</v>
+      </c>
+      <c r="BK201">
+        <v>9549</v>
+      </c>
+      <c r="BL201">
+        <v>9395</v>
+      </c>
+      <c r="BM201">
+        <v>10283</v>
+      </c>
+      <c r="BN201">
+        <v>14227</v>
+      </c>
+      <c r="BO201">
+        <v>1961</v>
+      </c>
+      <c r="BP201">
+        <v>894</v>
+      </c>
+      <c r="BQ201">
+        <v>12827</v>
+      </c>
+      <c r="BR201">
+        <v>10412</v>
+      </c>
+      <c r="BS201" s="4">
+        <v>12266</v>
+      </c>
+      <c r="BT201" s="4">
+        <v>2565</v>
+      </c>
+      <c r="BU201" s="4">
+        <v>2045</v>
+      </c>
+      <c r="BV201" s="4">
+        <v>5291</v>
+      </c>
+      <c r="BW201" s="4">
+        <v>4545</v>
+      </c>
+      <c r="BX201" s="4">
+        <v>1962</v>
+      </c>
+      <c r="BY201" s="4">
+        <v>5671</v>
+      </c>
+      <c r="BZ201" s="4">
+        <v>3392</v>
+      </c>
+      <c r="CA201" s="4">
+        <v>1969</v>
+      </c>
+      <c r="CB201" s="4">
+        <v>921</v>
+      </c>
+      <c r="CC201" s="4">
+        <v>2872</v>
+      </c>
+      <c r="CD201" s="4">
+        <v>2210</v>
+      </c>
+      <c r="CE201" s="4">
+        <v>1837</v>
+      </c>
+      <c r="CF201" s="4">
+        <v>1539</v>
+      </c>
+      <c r="CG201" s="4">
+        <v>6035</v>
+      </c>
+      <c r="CH201" s="4">
+        <v>2027</v>
+      </c>
+      <c r="CI201" s="4">
+        <v>1415</v>
+      </c>
+      <c r="CJ201" s="4">
+        <v>1734</v>
+      </c>
+      <c r="CK201" s="4">
+        <v>2053</v>
+      </c>
+      <c r="CL201" s="4">
+        <v>2066</v>
+      </c>
+      <c r="CM201" s="4">
+        <v>2457</v>
+      </c>
+      <c r="CN201" s="4">
+        <v>1640</v>
+      </c>
+      <c r="CO201" s="4">
+        <v>1205</v>
+      </c>
+      <c r="CP201" s="4">
+        <v>1197</v>
+      </c>
+      <c r="CQ201" s="4">
+        <v>923</v>
+      </c>
+      <c r="CR201" s="4">
+        <v>3343</v>
+      </c>
+      <c r="CS201" s="4">
+        <v>1422</v>
+      </c>
+      <c r="CT201" s="4">
+        <v>932</v>
+      </c>
+      <c r="CU201" s="4">
+        <v>1016</v>
+      </c>
+      <c r="CV201" s="4">
+        <v>1689</v>
+      </c>
+      <c r="CW201" s="4">
+        <v>1547</v>
+      </c>
+      <c r="CX201" s="4">
+        <v>751</v>
+      </c>
+      <c r="CY201" s="4">
+        <v>859</v>
+      </c>
+      <c r="CZ201" s="4">
+        <v>1267</v>
+      </c>
+      <c r="DA201" s="4">
+        <v>1566</v>
+      </c>
+      <c r="DB201" s="4">
+        <v>1468</v>
+      </c>
+      <c r="DC201" s="4">
+        <v>1512</v>
+      </c>
+      <c r="DD201" s="4">
+        <v>1185</v>
+      </c>
+      <c r="DE201" s="4">
+        <v>334</v>
+      </c>
+      <c r="DF201" s="4">
+        <v>365</v>
+      </c>
+      <c r="DG201" s="4">
+        <v>793</v>
+      </c>
+      <c r="DH201" s="4">
+        <v>752</v>
+      </c>
+      <c r="DI201" s="4">
+        <v>478</v>
+      </c>
+      <c r="DJ201" s="4">
+        <v>543</v>
+      </c>
+      <c r="DK201" s="4">
+        <v>380</v>
+      </c>
+      <c r="DL201" s="4">
+        <v>665</v>
+      </c>
+      <c r="DM201" s="4">
+        <v>749</v>
+      </c>
+      <c r="DN201" s="4">
+        <v>526</v>
+      </c>
+      <c r="DO201" s="4">
+        <v>490</v>
+      </c>
+      <c r="DP201" s="4">
+        <v>373</v>
+      </c>
+      <c r="DQ201" s="4">
+        <v>521</v>
+      </c>
+      <c r="DR201">
+        <v>134204</v>
+      </c>
+      <c r="DS201">
+        <v>326537</v>
+      </c>
+      <c r="DT201">
+        <v>17205</v>
+      </c>
+      <c r="DU201">
+        <v>141271</v>
+      </c>
+      <c r="DV201">
+        <v>87337</v>
+      </c>
+      <c r="DW201">
+        <v>42454</v>
+      </c>
+      <c r="DX201">
+        <v>12079</v>
       </c>
     </row>
   </sheetData>

--- a/CasosColombia.xlsx
+++ b/CasosColombia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Matlab\MATLAB_R2019a\fitVirusCV19_v07_v17\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E054D77-407A-4C7B-8B28-99C50EC5A136}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{16CD1FA0-E0B7-4466-9A7B-63F220F2E895}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6C56C21C-B00B-4C62-A627-74DAE246E91A}"/>
   </bookViews>
@@ -1497,13 +1497,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13133E2-69F7-478D-A001-FD6CB4FB0C80}">
-  <dimension ref="A1:DX201"/>
+  <dimension ref="A1:DX202"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="CY162" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B177" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="DX201" sqref="DX201"/>
+      <selection pane="bottomRight" activeCell="B202" sqref="B202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4970,8 +4970,8 @@
       <c r="DS9">
         <v>10</v>
       </c>
-      <c r="DT9" t="s">
-        <v>68</v>
+      <c r="DT9">
+        <v>1</v>
       </c>
       <c r="DU9">
         <v>0</v>
@@ -7983,8 +7983,8 @@
       <c r="CT17" s="4">
         <v>0</v>
       </c>
-      <c r="CU17" s="12" t="s">
-        <v>68</v>
+      <c r="CU17" s="12">
+        <v>1</v>
       </c>
       <c r="CV17" s="4">
         <v>0</v>
@@ -8306,8 +8306,8 @@
       <c r="BY18" s="4">
         <v>1</v>
       </c>
-      <c r="BZ18" s="12">
-        <v>2</v>
+      <c r="BZ18" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="CA18" s="10">
         <v>0</v>
@@ -11457,8 +11457,8 @@
       <c r="CT26" s="4">
         <v>0</v>
       </c>
-      <c r="CU26" s="4" t="s">
-        <v>68</v>
+      <c r="CU26" s="4">
+        <v>2</v>
       </c>
       <c r="CV26" s="4">
         <v>0</v>
@@ -11843,8 +11843,8 @@
       <c r="CT27" s="4">
         <v>0</v>
       </c>
-      <c r="CU27" s="4" t="s">
-        <v>68</v>
+      <c r="CU27" s="4">
+        <v>3</v>
       </c>
       <c r="CV27" s="4">
         <v>0</v>
@@ -12230,7 +12230,7 @@
         <v>0</v>
       </c>
       <c r="CU28" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CV28" s="4">
         <v>0</v>
@@ -12616,7 +12616,7 @@
         <v>0</v>
       </c>
       <c r="CU29" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CV29" s="4">
         <v>0</v>
@@ -13002,7 +13002,7 @@
         <v>0</v>
       </c>
       <c r="CU30" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CV30" s="4">
         <v>0</v>
@@ -13388,7 +13388,7 @@
         <v>0</v>
       </c>
       <c r="CU31" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CV31" s="4">
         <v>0</v>
@@ -13774,7 +13774,7 @@
         <v>0</v>
       </c>
       <c r="CU32" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CV32" s="4">
         <v>0</v>
@@ -14160,7 +14160,7 @@
         <v>0</v>
       </c>
       <c r="CU33" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CV33" s="4">
         <v>0</v>
@@ -14546,7 +14546,7 @@
         <v>0</v>
       </c>
       <c r="CU34" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CV34" s="4">
         <v>0</v>
@@ -14931,8 +14931,8 @@
       <c r="CT35" s="4">
         <v>0</v>
       </c>
-      <c r="CU35" s="4">
-        <v>7</v>
+      <c r="CU35" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="CV35" s="4">
         <v>0</v>
@@ -15317,8 +15317,8 @@
       <c r="CT36" s="4">
         <v>0</v>
       </c>
-      <c r="CU36" s="4">
-        <v>7</v>
+      <c r="CU36" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="CV36" s="4">
         <v>0</v>
@@ -15703,8 +15703,8 @@
       <c r="CT37" s="4">
         <v>0</v>
       </c>
-      <c r="CU37" s="4">
-        <v>7</v>
+      <c r="CU37" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="CV37" s="4">
         <v>0</v>
@@ -16090,7 +16090,7 @@
         <v>0</v>
       </c>
       <c r="CU38" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CV38" s="12" t="s">
         <v>68</v>
@@ -16476,7 +16476,7 @@
         <v>0</v>
       </c>
       <c r="CU39" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CV39" s="4">
         <v>1</v>
@@ -16862,7 +16862,7 @@
         <v>0</v>
       </c>
       <c r="CU40" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CV40" s="4">
         <v>1</v>
@@ -17248,7 +17248,7 @@
         <v>0</v>
       </c>
       <c r="CU41" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CV41" s="4">
         <v>1</v>
@@ -17633,8 +17633,8 @@
       <c r="CT42" s="4">
         <v>0</v>
       </c>
-      <c r="CU42" s="4">
-        <v>11</v>
+      <c r="CU42" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="CV42" s="4">
         <v>1</v>
@@ -18019,8 +18019,8 @@
       <c r="CT43" s="4">
         <v>0</v>
       </c>
-      <c r="CU43" s="4">
-        <v>11</v>
+      <c r="CU43" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="CV43" s="4">
         <v>1</v>
@@ -18406,7 +18406,7 @@
         <v>0</v>
       </c>
       <c r="CU44" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CV44" s="4">
         <v>1</v>
@@ -18791,8 +18791,8 @@
       <c r="CT45" s="4">
         <v>0</v>
       </c>
-      <c r="CU45" s="4" t="s">
-        <v>68</v>
+      <c r="CU45" s="4">
+        <v>19</v>
       </c>
       <c r="CV45" s="4">
         <v>1</v>
@@ -19178,7 +19178,7 @@
         <v>0</v>
       </c>
       <c r="CU46" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="CV46" s="4">
         <v>2</v>
@@ -19564,7 +19564,7 @@
         <v>0</v>
       </c>
       <c r="CU47" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="CV47" s="4">
         <v>2</v>
@@ -19950,7 +19950,7 @@
         <v>0</v>
       </c>
       <c r="CU48" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CV48" s="4">
         <v>2</v>
@@ -20336,7 +20336,7 @@
         <v>1</v>
       </c>
       <c r="CU49" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="CV49" s="4">
         <v>2</v>
@@ -20722,7 +20722,7 @@
         <v>1</v>
       </c>
       <c r="CU50" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="CV50" s="4">
         <v>2</v>
@@ -21108,7 +21108,7 @@
         <v>1</v>
       </c>
       <c r="CU51" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="CV51" s="4">
         <v>2</v>
@@ -21494,7 +21494,7 @@
         <v>1</v>
       </c>
       <c r="CU52" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="CV52" s="4">
         <v>2</v>
@@ -21880,7 +21880,7 @@
         <v>1</v>
       </c>
       <c r="CU53" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="CV53" s="4">
         <v>2</v>
@@ -22266,7 +22266,7 @@
         <v>1</v>
       </c>
       <c r="CU54" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="CV54" s="4">
         <v>2</v>
@@ -22652,7 +22652,7 @@
         <v>4</v>
       </c>
       <c r="CU55" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="CV55" s="4">
         <v>2</v>
@@ -23038,7 +23038,7 @@
         <v>4</v>
       </c>
       <c r="CU56" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="CV56" s="4">
         <v>2</v>
@@ -23424,7 +23424,7 @@
         <v>4</v>
       </c>
       <c r="CU57" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="CV57" s="4">
         <v>2</v>
@@ -23810,7 +23810,7 @@
         <v>6</v>
       </c>
       <c r="CU58" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="CV58" s="4">
         <v>2</v>
@@ -24196,7 +24196,7 @@
         <v>6</v>
       </c>
       <c r="CU59" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="CV59" s="4">
         <v>2</v>
@@ -24582,7 +24582,7 @@
         <v>6</v>
       </c>
       <c r="CU60" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="CV60" s="4">
         <v>2</v>
@@ -24968,7 +24968,7 @@
         <v>6</v>
       </c>
       <c r="CU61" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="CV61" s="4">
         <v>2</v>
@@ -25354,7 +25354,7 @@
         <v>6</v>
       </c>
       <c r="CU62" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="CV62" s="4">
         <v>2</v>
@@ -25740,7 +25740,7 @@
         <v>6</v>
       </c>
       <c r="CU63" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="CV63" s="4">
         <v>2</v>
@@ -26126,7 +26126,7 @@
         <v>6</v>
       </c>
       <c r="CU64" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="CV64" s="4">
         <v>2</v>
@@ -26512,7 +26512,7 @@
         <v>6</v>
       </c>
       <c r="CU65" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="CV65" s="4">
         <v>2</v>
@@ -26898,7 +26898,7 @@
         <v>6</v>
       </c>
       <c r="CU66" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="CV66" s="4">
         <v>2</v>
@@ -27284,7 +27284,7 @@
         <v>7</v>
       </c>
       <c r="CU67" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="CV67" s="4">
         <v>2</v>
@@ -27670,7 +27670,7 @@
         <v>7</v>
       </c>
       <c r="CU68" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="CV68" s="4">
         <v>2</v>
@@ -28056,7 +28056,7 @@
         <v>7</v>
       </c>
       <c r="CU69" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="CV69" s="4">
         <v>3</v>
@@ -28442,7 +28442,7 @@
         <v>7</v>
       </c>
       <c r="CU70" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="CV70" s="4">
         <v>3</v>
@@ -28828,7 +28828,7 @@
         <v>7</v>
       </c>
       <c r="CU71" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CV71" s="4">
         <v>3</v>
@@ -29214,7 +29214,7 @@
         <v>7</v>
       </c>
       <c r="CU72" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CV72" s="4">
         <v>3</v>
@@ -29600,7 +29600,7 @@
         <v>7</v>
       </c>
       <c r="CU73" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CV73" s="4">
         <v>3</v>
@@ -29986,7 +29986,7 @@
         <v>7</v>
       </c>
       <c r="CU74" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CV74" s="4">
         <v>3</v>
@@ -30372,7 +30372,7 @@
         <v>7</v>
       </c>
       <c r="CU75" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CV75" s="4">
         <v>3</v>
@@ -30758,7 +30758,7 @@
         <v>7</v>
       </c>
       <c r="CU76" s="4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="CV76" s="4">
         <v>3</v>
@@ -31144,7 +31144,7 @@
         <v>7</v>
       </c>
       <c r="CU77" s="4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="CV77" s="4">
         <v>3</v>
@@ -31530,7 +31530,7 @@
         <v>7</v>
       </c>
       <c r="CU78" s="4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="CV78" s="4">
         <v>3</v>
@@ -31916,7 +31916,7 @@
         <v>7</v>
       </c>
       <c r="CU79" s="4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="CV79" s="4">
         <v>3</v>
@@ -32302,7 +32302,7 @@
         <v>7</v>
       </c>
       <c r="CU80" s="4">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="CV80" s="4">
         <v>3</v>
@@ -32688,7 +32688,7 @@
         <v>7</v>
       </c>
       <c r="CU81" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="CV81" s="4">
         <v>4</v>
@@ -33074,7 +33074,7 @@
         <v>7</v>
       </c>
       <c r="CU82" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="CV82" s="4">
         <v>4</v>
@@ -33460,7 +33460,7 @@
         <v>8</v>
       </c>
       <c r="CU83" s="4">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="CV83" s="4">
         <v>4</v>
@@ -33846,7 +33846,7 @@
         <v>8</v>
       </c>
       <c r="CU84" s="4">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="CV84" s="4">
         <v>4</v>
@@ -34232,7 +34232,7 @@
         <v>8</v>
       </c>
       <c r="CU85" s="4">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="CV85" s="4">
         <v>4</v>
@@ -34618,7 +34618,7 @@
         <v>8</v>
       </c>
       <c r="CU86" s="4">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="CV86" s="4">
         <v>6</v>
@@ -35004,7 +35004,7 @@
         <v>8</v>
       </c>
       <c r="CU87" s="4">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="CV87" s="4">
         <v>6</v>
@@ -35390,7 +35390,7 @@
         <v>10</v>
       </c>
       <c r="CU88" s="4">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="CV88" s="4">
         <v>6</v>
@@ -35776,7 +35776,7 @@
         <v>13</v>
       </c>
       <c r="CU89" s="4">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CV89" s="4">
         <v>7</v>
@@ -36162,7 +36162,7 @@
         <v>13</v>
       </c>
       <c r="CU90" s="4">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CV90" s="4">
         <v>7</v>
@@ -36548,7 +36548,7 @@
         <v>15</v>
       </c>
       <c r="CU91" s="4">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="CV91" s="4">
         <v>7</v>
@@ -36934,7 +36934,7 @@
         <v>17</v>
       </c>
       <c r="CU92" s="4">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="CV92" s="4">
         <v>10</v>
@@ -37320,7 +37320,7 @@
         <v>19</v>
       </c>
       <c r="CU93" s="4">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="CV93" s="4">
         <v>11</v>
@@ -37706,7 +37706,7 @@
         <v>22</v>
       </c>
       <c r="CU94" s="4">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="CV94" s="4">
         <v>12</v>
@@ -47356,7 +47356,7 @@
         <v>163</v>
       </c>
       <c r="CU119" s="4">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="CV119" s="4">
         <v>65</v>
@@ -47742,7 +47742,7 @@
         <v>178</v>
       </c>
       <c r="CU120" s="4">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="CV120" s="4">
         <v>78</v>
@@ -48128,7 +48128,7 @@
         <v>184</v>
       </c>
       <c r="CU121" s="4">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CV121" s="4">
         <v>80</v>
@@ -48514,7 +48514,7 @@
         <v>205</v>
       </c>
       <c r="CU122" s="4">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="CV122" s="4">
         <v>97</v>
@@ -48900,7 +48900,7 @@
         <v>209</v>
       </c>
       <c r="CU123" s="4">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="CV123" s="4">
         <v>97</v>
@@ -49286,7 +49286,7 @@
         <v>215</v>
       </c>
       <c r="CU124" s="4">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="CV124" s="4">
         <v>103</v>
@@ -49672,7 +49672,7 @@
         <v>231</v>
       </c>
       <c r="CU125" s="4">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="CV125" s="4">
         <v>112</v>
@@ -50058,7 +50058,7 @@
         <v>244</v>
       </c>
       <c r="CU126" s="4">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="CV126" s="4">
         <v>117</v>
@@ -50444,7 +50444,7 @@
         <v>258</v>
       </c>
       <c r="CU127" s="4">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="CV127" s="4">
         <v>140</v>
@@ -50830,7 +50830,7 @@
         <v>266</v>
       </c>
       <c r="CU128" s="4">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="CV128" s="4">
         <v>156</v>
@@ -51216,7 +51216,7 @@
         <v>266</v>
       </c>
       <c r="CU129" s="4">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="CV129" s="4">
         <v>161</v>
@@ -51602,7 +51602,7 @@
         <v>278</v>
       </c>
       <c r="CU130" s="4">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="CV130" s="4">
         <v>165</v>
@@ -51988,7 +51988,7 @@
         <v>286</v>
       </c>
       <c r="CU131" s="4">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="CV131" s="4">
         <v>168</v>
@@ -52374,7 +52374,7 @@
         <v>288</v>
       </c>
       <c r="CU132" s="4">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="CV132" s="4">
         <v>170</v>
@@ -52760,7 +52760,7 @@
         <v>297</v>
       </c>
       <c r="CU133" s="4">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="CV133" s="4">
         <v>172</v>
@@ -53146,7 +53146,7 @@
         <v>300</v>
       </c>
       <c r="CU134" s="4">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="CV134" s="4">
         <v>175</v>
@@ -53532,7 +53532,7 @@
         <v>310</v>
       </c>
       <c r="CU135" s="4">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="CV135" s="4">
         <v>199</v>
@@ -53918,7 +53918,7 @@
         <v>341</v>
       </c>
       <c r="CU136" s="4">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="CV136" s="4">
         <v>210</v>
@@ -54304,7 +54304,7 @@
         <v>346</v>
       </c>
       <c r="CU137" s="4">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="CV137" s="4">
         <v>220</v>
@@ -54690,7 +54690,7 @@
         <v>347</v>
       </c>
       <c r="CU138" s="4">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="CV138" s="4">
         <v>225</v>
@@ -55076,7 +55076,7 @@
         <v>347</v>
       </c>
       <c r="CU139" s="4">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="CV139" s="4">
         <v>227</v>
@@ -55462,7 +55462,7 @@
         <v>354</v>
       </c>
       <c r="CU140" s="4">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="CV140" s="4">
         <v>240</v>
@@ -55848,7 +55848,7 @@
         <v>378</v>
       </c>
       <c r="CU141" s="4">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="CV141" s="4">
         <v>250</v>
@@ -56234,7 +56234,7 @@
         <v>380</v>
       </c>
       <c r="CU142" s="4">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="CV142" s="4">
         <v>260</v>
@@ -56620,7 +56620,7 @@
         <v>387</v>
       </c>
       <c r="CU143" s="4">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="CV143" s="4">
         <v>268</v>
@@ -57006,7 +57006,7 @@
         <v>395</v>
       </c>
       <c r="CU144" s="4">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="CV144" s="4">
         <v>271</v>
@@ -57392,7 +57392,7 @@
         <v>421</v>
       </c>
       <c r="CU145" s="4">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="CV145" s="4">
         <v>310</v>
@@ -57778,7 +57778,7 @@
         <v>438</v>
       </c>
       <c r="CU146" s="4">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="CV146" s="4">
         <v>341</v>
@@ -58164,7 +58164,7 @@
         <v>441</v>
       </c>
       <c r="CU147" s="4">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="CV147" s="4">
         <v>355</v>
@@ -58550,7 +58550,7 @@
         <v>449</v>
       </c>
       <c r="CU148" s="4">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="CV148" s="4">
         <v>374</v>
@@ -60094,7 +60094,7 @@
         <v>484</v>
       </c>
       <c r="CU152" s="4">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="CV152" s="4">
         <v>508</v>
@@ -60479,8 +60479,8 @@
       <c r="CT153" s="4">
         <v>502</v>
       </c>
-      <c r="CU153" s="4" t="s">
-        <v>68</v>
+      <c r="CU153" s="4">
+        <v>402</v>
       </c>
       <c r="CV153" s="4">
         <v>534</v>
@@ -60865,8 +60865,8 @@
       <c r="CT154" s="4">
         <v>514</v>
       </c>
-      <c r="CU154" s="4" t="s">
-        <v>68</v>
+      <c r="CU154" s="4">
+        <v>418</v>
       </c>
       <c r="CV154" s="4">
         <v>553</v>
@@ -61252,7 +61252,7 @@
         <v>520</v>
       </c>
       <c r="CU155" s="4">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="CV155" s="4">
         <v>612</v>
@@ -61638,7 +61638,7 @@
         <v>521</v>
       </c>
       <c r="CU156" s="4">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="CV156" s="4">
         <v>621</v>
@@ -62024,7 +62024,7 @@
         <v>547</v>
       </c>
       <c r="CU157" s="4">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="CV157" s="4">
         <v>656</v>
@@ -62410,7 +62410,7 @@
         <v>575</v>
       </c>
       <c r="CU158" s="4">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="CV158" s="4">
         <v>728</v>
@@ -62796,7 +62796,7 @@
         <v>592</v>
       </c>
       <c r="CU159" s="4">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="CV159" s="4">
         <v>766</v>
@@ -63182,7 +63182,7 @@
         <v>594</v>
       </c>
       <c r="CU160" s="4">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="CV160" s="4">
         <v>784</v>
@@ -63568,7 +63568,7 @@
         <v>603</v>
       </c>
       <c r="CU161" s="4">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="CV161" s="4">
         <v>814</v>
@@ -63954,7 +63954,7 @@
         <v>619</v>
       </c>
       <c r="CU162" s="4">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="CV162" s="4">
         <v>862</v>
@@ -64340,7 +64340,7 @@
         <v>626</v>
       </c>
       <c r="CU163" s="4">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="CV163" s="4">
         <v>873</v>
@@ -64726,7 +64726,7 @@
         <v>665</v>
       </c>
       <c r="CU164" s="4">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="CV164" s="4">
         <v>889</v>
@@ -65112,7 +65112,7 @@
         <v>682</v>
       </c>
       <c r="CU165" s="4">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="CV165" s="4">
         <v>915</v>
@@ -65498,7 +65498,7 @@
         <v>694</v>
       </c>
       <c r="CU166" s="4">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="CV166" s="4">
         <v>941</v>
@@ -67042,7 +67042,7 @@
         <v>731</v>
       </c>
       <c r="CU170" s="4">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="CV170" s="4">
         <v>1077</v>
@@ -67428,7 +67428,7 @@
         <v>734</v>
       </c>
       <c r="CU171" s="4">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="CV171" s="4">
         <v>1089</v>
@@ -67814,7 +67814,7 @@
         <v>743</v>
       </c>
       <c r="CU172" s="4">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="CV172" s="4">
         <v>1102</v>
@@ -68200,7 +68200,7 @@
         <v>743</v>
       </c>
       <c r="CU173" s="4">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="CV173" s="4">
         <v>1136</v>
@@ -68586,7 +68586,7 @@
         <v>772</v>
       </c>
       <c r="CU174" s="4">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="CV174" s="4">
         <v>1212</v>
@@ -76499,8 +76499,8 @@
       <c r="AH195">
         <v>314</v>
       </c>
-      <c r="AI195">
-        <v>487</v>
+      <c r="AI195" t="s">
+        <v>68</v>
       </c>
       <c r="AJ195">
         <v>2007</v>
@@ -79096,6 +79096,392 @@
       </c>
       <c r="DX201">
         <v>12079</v>
+      </c>
+    </row>
+    <row r="202" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>44096</v>
+      </c>
+      <c r="B202">
+        <v>777537</v>
+      </c>
+      <c r="C202">
+        <v>2738</v>
+      </c>
+      <c r="D202">
+        <v>105690</v>
+      </c>
+      <c r="E202">
+        <v>66783</v>
+      </c>
+      <c r="F202">
+        <v>256114</v>
+      </c>
+      <c r="G202">
+        <v>28270</v>
+      </c>
+      <c r="H202">
+        <v>6079</v>
+      </c>
+      <c r="I202">
+        <v>4894</v>
+      </c>
+      <c r="J202">
+        <v>7793</v>
+      </c>
+      <c r="K202">
+        <v>8549</v>
+      </c>
+      <c r="L202">
+        <v>17552</v>
+      </c>
+      <c r="M202">
+        <v>3965</v>
+      </c>
+      <c r="N202">
+        <v>23251</v>
+      </c>
+      <c r="O202">
+        <v>31091</v>
+      </c>
+      <c r="P202">
+        <v>7529</v>
+      </c>
+      <c r="Q202">
+        <v>9664</v>
+      </c>
+      <c r="R202">
+        <v>14692</v>
+      </c>
+      <c r="S202">
+        <v>13661</v>
+      </c>
+      <c r="T202">
+        <v>17634</v>
+      </c>
+      <c r="U202">
+        <v>14791</v>
+      </c>
+      <c r="V202">
+        <v>3668</v>
+      </c>
+      <c r="W202">
+        <v>2804</v>
+      </c>
+      <c r="X202">
+        <v>9700</v>
+      </c>
+      <c r="Y202">
+        <v>28260</v>
+      </c>
+      <c r="Z202">
+        <v>13767</v>
+      </c>
+      <c r="AA202">
+        <v>11161</v>
+      </c>
+      <c r="AB202">
+        <v>58048</v>
+      </c>
+      <c r="AC202">
+        <v>1950</v>
+      </c>
+      <c r="AD202">
+        <v>1014</v>
+      </c>
+      <c r="AE202">
+        <v>712</v>
+      </c>
+      <c r="AF202">
+        <v>469</v>
+      </c>
+      <c r="AG202">
+        <v>651</v>
+      </c>
+      <c r="AH202">
+        <v>455</v>
+      </c>
+      <c r="AI202">
+        <v>631</v>
+      </c>
+      <c r="AJ202">
+        <v>2033</v>
+      </c>
+      <c r="AK202">
+        <v>5182</v>
+      </c>
+      <c r="AL202">
+        <v>37711</v>
+      </c>
+      <c r="AM202">
+        <v>9226</v>
+      </c>
+      <c r="AN202">
+        <v>2541</v>
+      </c>
+      <c r="AO202">
+        <v>45123</v>
+      </c>
+      <c r="AP202">
+        <v>1094</v>
+      </c>
+      <c r="AQ202">
+        <v>22636</v>
+      </c>
+      <c r="AR202">
+        <v>1524</v>
+      </c>
+      <c r="AS202">
+        <v>10067</v>
+      </c>
+      <c r="AT202">
+        <v>1647</v>
+      </c>
+      <c r="AU202">
+        <v>1602</v>
+      </c>
+      <c r="AV202">
+        <v>7681</v>
+      </c>
+      <c r="AW202">
+        <v>1985</v>
+      </c>
+      <c r="AX202">
+        <v>956</v>
+      </c>
+      <c r="AY202">
+        <v>2497</v>
+      </c>
+      <c r="AZ202">
+        <v>2664</v>
+      </c>
+      <c r="BA202">
+        <v>61380</v>
+      </c>
+      <c r="BB202">
+        <v>13893</v>
+      </c>
+      <c r="BC202">
+        <v>5755</v>
+      </c>
+      <c r="BD202">
+        <v>9526</v>
+      </c>
+      <c r="BE202">
+        <v>6512</v>
+      </c>
+      <c r="BF202">
+        <v>277</v>
+      </c>
+      <c r="BG202">
+        <v>1460</v>
+      </c>
+      <c r="BH202">
+        <v>2717</v>
+      </c>
+      <c r="BI202">
+        <v>743</v>
+      </c>
+      <c r="BJ202">
+        <v>2147</v>
+      </c>
+      <c r="BK202">
+        <v>9621</v>
+      </c>
+      <c r="BL202">
+        <v>9462</v>
+      </c>
+      <c r="BM202">
+        <v>10325</v>
+      </c>
+      <c r="BN202">
+        <v>14247</v>
+      </c>
+      <c r="BO202">
+        <v>1963</v>
+      </c>
+      <c r="BP202">
+        <v>898</v>
+      </c>
+      <c r="BQ202">
+        <v>12896</v>
+      </c>
+      <c r="BR202">
+        <v>10604</v>
+      </c>
+      <c r="BS202" s="4">
+        <v>12466</v>
+      </c>
+      <c r="BT202" s="4">
+        <v>2631</v>
+      </c>
+      <c r="BU202" s="4">
+        <v>2082</v>
+      </c>
+      <c r="BV202" s="4">
+        <v>5419</v>
+      </c>
+      <c r="BW202" s="4">
+        <v>4617</v>
+      </c>
+      <c r="BX202" s="4">
+        <v>2026</v>
+      </c>
+      <c r="BY202" s="4">
+        <v>5696</v>
+      </c>
+      <c r="BZ202" s="4">
+        <v>3426</v>
+      </c>
+      <c r="CA202" s="4">
+        <v>2026</v>
+      </c>
+      <c r="CB202" s="4">
+        <v>941</v>
+      </c>
+      <c r="CC202" s="4">
+        <v>2886</v>
+      </c>
+      <c r="CD202" s="4">
+        <v>2211</v>
+      </c>
+      <c r="CE202" s="4">
+        <v>1868</v>
+      </c>
+      <c r="CF202" s="4">
+        <v>1582</v>
+      </c>
+      <c r="CG202" s="4">
+        <v>6039</v>
+      </c>
+      <c r="CH202" s="4">
+        <v>2060</v>
+      </c>
+      <c r="CI202" s="4">
+        <v>1427</v>
+      </c>
+      <c r="CJ202" s="4">
+        <v>1746</v>
+      </c>
+      <c r="CK202" s="4">
+        <v>2062</v>
+      </c>
+      <c r="CL202" s="4">
+        <v>2096</v>
+      </c>
+      <c r="CM202" s="4">
+        <v>2480</v>
+      </c>
+      <c r="CN202" s="4">
+        <v>1655</v>
+      </c>
+      <c r="CO202" s="4">
+        <v>1210</v>
+      </c>
+      <c r="CP202" s="4">
+        <v>1204</v>
+      </c>
+      <c r="CQ202" s="4">
+        <v>939</v>
+      </c>
+      <c r="CR202" s="4">
+        <v>3372</v>
+      </c>
+      <c r="CS202" s="4">
+        <v>1428</v>
+      </c>
+      <c r="CT202" s="4">
+        <v>947</v>
+      </c>
+      <c r="CU202" s="4">
+        <v>1026</v>
+      </c>
+      <c r="CV202" s="4">
+        <v>1710</v>
+      </c>
+      <c r="CW202" s="4">
+        <v>1555</v>
+      </c>
+      <c r="CX202" s="4">
+        <v>765</v>
+      </c>
+      <c r="CY202" s="4">
+        <v>865</v>
+      </c>
+      <c r="CZ202" s="4">
+        <v>1278</v>
+      </c>
+      <c r="DA202" s="4">
+        <v>1582</v>
+      </c>
+      <c r="DB202" s="4">
+        <v>1487</v>
+      </c>
+      <c r="DC202" s="4">
+        <v>1532</v>
+      </c>
+      <c r="DD202" s="4">
+        <v>1190</v>
+      </c>
+      <c r="DE202" s="4">
+        <v>334</v>
+      </c>
+      <c r="DF202" s="4">
+        <v>365</v>
+      </c>
+      <c r="DG202" s="4">
+        <v>804</v>
+      </c>
+      <c r="DH202" s="4">
+        <v>758</v>
+      </c>
+      <c r="DI202" s="4">
+        <v>480</v>
+      </c>
+      <c r="DJ202" s="4">
+        <v>543</v>
+      </c>
+      <c r="DK202" s="4">
+        <v>381</v>
+      </c>
+      <c r="DL202" s="4">
+        <v>666</v>
+      </c>
+      <c r="DM202" s="4">
+        <v>750</v>
+      </c>
+      <c r="DN202" s="4">
+        <v>527</v>
+      </c>
+      <c r="DO202" s="4">
+        <v>491</v>
+      </c>
+      <c r="DP202" s="4">
+        <v>374</v>
+      </c>
+      <c r="DQ202" s="4">
+        <v>521</v>
+      </c>
+      <c r="DR202">
+        <v>134826</v>
+      </c>
+      <c r="DS202">
+        <v>329491</v>
+      </c>
+      <c r="DT202">
+        <v>17671</v>
+      </c>
+      <c r="DU202">
+        <v>142698</v>
+      </c>
+      <c r="DV202">
+        <v>88196</v>
+      </c>
+      <c r="DW202">
+        <v>43100</v>
+      </c>
+      <c r="DX202">
+        <v>12112</v>
       </c>
     </row>
   </sheetData>

--- a/CasosColombia.xlsx
+++ b/CasosColombia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Matlab\MATLAB_R2019a\fitVirusCV19_v07_v17\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16CD1FA0-E0B7-4466-9A7B-63F220F2E895}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5213F50F-3774-4D1D-ACF0-09C5D7D7D53B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6C56C21C-B00B-4C62-A627-74DAE246E91A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="129">
   <si>
     <t>Fecha</t>
   </si>
@@ -1497,13 +1497,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13133E2-69F7-478D-A001-FD6CB4FB0C80}">
-  <dimension ref="A1:DX202"/>
+  <dimension ref="A1:DX203"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B177" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="CY166" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B202" sqref="B202"/>
+      <selection pane="bottomRight" activeCell="A203" sqref="A203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5433,8 +5433,8 @@
       <c r="T11">
         <v>0</v>
       </c>
-      <c r="U11" t="s">
-        <v>68</v>
+      <c r="U11">
+        <v>1</v>
       </c>
       <c r="V11">
         <v>0</v>
@@ -6555,8 +6555,8 @@
       <c r="H14">
         <v>0</v>
       </c>
-      <c r="I14" s="12">
-        <v>1</v>
+      <c r="I14" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -18261,8 +18261,8 @@
       <c r="AX44">
         <v>0</v>
       </c>
-      <c r="AY44" s="12">
-        <v>1</v>
+      <c r="AY44" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="AZ44">
         <v>1</v>
@@ -20840,8 +20840,8 @@
       <c r="I51">
         <v>52</v>
       </c>
-      <c r="J51">
-        <v>2</v>
+      <c r="J51" t="s">
+        <v>68</v>
       </c>
       <c r="K51">
         <v>26</v>
@@ -21226,8 +21226,8 @@
       <c r="I52">
         <v>52</v>
       </c>
-      <c r="J52">
-        <v>2</v>
+      <c r="J52" t="s">
+        <v>68</v>
       </c>
       <c r="K52">
         <v>27</v>
@@ -21612,8 +21612,8 @@
       <c r="I53">
         <v>53</v>
       </c>
-      <c r="J53">
-        <v>2</v>
+      <c r="J53" t="s">
+        <v>68</v>
       </c>
       <c r="K53">
         <v>28</v>
@@ -21998,8 +21998,8 @@
       <c r="I54">
         <v>53</v>
       </c>
-      <c r="J54">
-        <v>2</v>
+      <c r="J54" t="s">
+        <v>68</v>
       </c>
       <c r="K54">
         <v>32</v>
@@ -42875,8 +42875,8 @@
       <c r="T108">
         <v>2495</v>
       </c>
-      <c r="U108">
-        <v>224</v>
+      <c r="U108" t="s">
+        <v>68</v>
       </c>
       <c r="V108">
         <v>17</v>
@@ -42887,8 +42887,8 @@
       <c r="X108">
         <v>178</v>
       </c>
-      <c r="Y108">
-        <v>328</v>
+      <c r="Y108" t="s">
+        <v>68</v>
       </c>
       <c r="Z108">
         <v>497</v>
@@ -48707,8 +48707,8 @@
       <c r="AH123">
         <v>1</v>
       </c>
-      <c r="AI123">
-        <v>8</v>
+      <c r="AI123" t="s">
+        <v>68</v>
       </c>
       <c r="AJ123">
         <v>614</v>
@@ -49093,8 +49093,8 @@
       <c r="AH124">
         <v>1</v>
       </c>
-      <c r="AI124">
-        <v>8</v>
+      <c r="AI124" t="s">
+        <v>68</v>
       </c>
       <c r="AJ124">
         <v>678</v>
@@ -49479,8 +49479,8 @@
       <c r="AH125">
         <v>1</v>
       </c>
-      <c r="AI125">
-        <v>8</v>
+      <c r="AI125" t="s">
+        <v>68</v>
       </c>
       <c r="AJ125">
         <v>716</v>
@@ -49865,8 +49865,8 @@
       <c r="AH126">
         <v>1</v>
       </c>
-      <c r="AI126">
-        <v>8</v>
+      <c r="AI126" t="s">
+        <v>68</v>
       </c>
       <c r="AJ126">
         <v>766</v>
@@ -79482,6 +79482,392 @@
       </c>
       <c r="DX202">
         <v>12112</v>
+      </c>
+    </row>
+    <row r="203" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>44097</v>
+      </c>
+      <c r="B203">
+        <v>784268</v>
+      </c>
+      <c r="C203">
+        <v>2739</v>
+      </c>
+      <c r="D203">
+        <v>106911</v>
+      </c>
+      <c r="E203">
+        <v>66862</v>
+      </c>
+      <c r="F203">
+        <v>257679</v>
+      </c>
+      <c r="G203">
+        <v>28304</v>
+      </c>
+      <c r="H203">
+        <v>6199</v>
+      </c>
+      <c r="I203">
+        <v>5117</v>
+      </c>
+      <c r="J203">
+        <v>7843</v>
+      </c>
+      <c r="K203">
+        <v>8652</v>
+      </c>
+      <c r="L203">
+        <v>17878</v>
+      </c>
+      <c r="M203">
+        <v>3967</v>
+      </c>
+      <c r="N203">
+        <v>23340</v>
+      </c>
+      <c r="O203">
+        <v>31372</v>
+      </c>
+      <c r="P203">
+        <v>7609</v>
+      </c>
+      <c r="Q203">
+        <v>9835</v>
+      </c>
+      <c r="R203">
+        <v>14814</v>
+      </c>
+      <c r="S203">
+        <v>13877</v>
+      </c>
+      <c r="T203">
+        <v>17742</v>
+      </c>
+      <c r="U203">
+        <v>14932</v>
+      </c>
+      <c r="V203">
+        <v>3679</v>
+      </c>
+      <c r="W203">
+        <v>2901</v>
+      </c>
+      <c r="X203">
+        <v>10006</v>
+      </c>
+      <c r="Y203">
+        <v>28702</v>
+      </c>
+      <c r="Z203">
+        <v>13785</v>
+      </c>
+      <c r="AA203">
+        <v>11335</v>
+      </c>
+      <c r="AB203">
+        <v>58588</v>
+      </c>
+      <c r="AC203">
+        <v>1972</v>
+      </c>
+      <c r="AD203">
+        <v>1055</v>
+      </c>
+      <c r="AE203">
+        <v>731</v>
+      </c>
+      <c r="AF203">
+        <v>470</v>
+      </c>
+      <c r="AG203">
+        <v>720</v>
+      </c>
+      <c r="AH203">
+        <v>463</v>
+      </c>
+      <c r="AI203">
+        <v>646</v>
+      </c>
+      <c r="AJ203">
+        <v>2041</v>
+      </c>
+      <c r="AK203">
+        <v>5273</v>
+      </c>
+      <c r="AL203">
+        <v>37743</v>
+      </c>
+      <c r="AM203">
+        <v>9355</v>
+      </c>
+      <c r="AN203">
+        <v>2542</v>
+      </c>
+      <c r="AO203">
+        <v>45510</v>
+      </c>
+      <c r="AP203">
+        <v>1095</v>
+      </c>
+      <c r="AQ203">
+        <v>22651</v>
+      </c>
+      <c r="AR203">
+        <v>1525</v>
+      </c>
+      <c r="AS203">
+        <v>10159</v>
+      </c>
+      <c r="AT203">
+        <v>1657</v>
+      </c>
+      <c r="AU203">
+        <v>1603</v>
+      </c>
+      <c r="AV203">
+        <v>7812</v>
+      </c>
+      <c r="AW203">
+        <v>1993</v>
+      </c>
+      <c r="AX203">
+        <v>962</v>
+      </c>
+      <c r="AY203">
+        <v>2498</v>
+      </c>
+      <c r="AZ203">
+        <v>2675</v>
+      </c>
+      <c r="BA203">
+        <v>61963</v>
+      </c>
+      <c r="BB203">
+        <v>13931</v>
+      </c>
+      <c r="BC203">
+        <v>5849</v>
+      </c>
+      <c r="BD203">
+        <v>9589</v>
+      </c>
+      <c r="BE203">
+        <v>6720</v>
+      </c>
+      <c r="BF203">
+        <v>257</v>
+      </c>
+      <c r="BG203">
+        <v>1462</v>
+      </c>
+      <c r="BH203">
+        <v>2717</v>
+      </c>
+      <c r="BI203">
+        <v>743</v>
+      </c>
+      <c r="BJ203">
+        <v>2153</v>
+      </c>
+      <c r="BK203">
+        <v>9691</v>
+      </c>
+      <c r="BL203">
+        <v>9471</v>
+      </c>
+      <c r="BM203">
+        <v>10390</v>
+      </c>
+      <c r="BN203">
+        <v>14259</v>
+      </c>
+      <c r="BO203">
+        <v>1964</v>
+      </c>
+      <c r="BP203">
+        <v>898</v>
+      </c>
+      <c r="BQ203">
+        <v>13074</v>
+      </c>
+      <c r="BR203">
+        <v>10765</v>
+      </c>
+      <c r="BS203" s="4">
+        <v>12649</v>
+      </c>
+      <c r="BT203" s="4">
+        <v>2762</v>
+      </c>
+      <c r="BU203" s="4">
+        <v>2105</v>
+      </c>
+      <c r="BV203" s="4">
+        <v>5512</v>
+      </c>
+      <c r="BW203" s="4">
+        <v>4669</v>
+      </c>
+      <c r="BX203" s="4">
+        <v>2100</v>
+      </c>
+      <c r="BY203" s="4">
+        <v>5760</v>
+      </c>
+      <c r="BZ203" s="4">
+        <v>3500</v>
+      </c>
+      <c r="CA203" s="4">
+        <v>2097</v>
+      </c>
+      <c r="CB203" s="4">
+        <v>949</v>
+      </c>
+      <c r="CC203" s="4">
+        <v>2930</v>
+      </c>
+      <c r="CD203" s="4">
+        <v>2216</v>
+      </c>
+      <c r="CE203" s="4">
+        <v>1907</v>
+      </c>
+      <c r="CF203" s="4">
+        <v>1611</v>
+      </c>
+      <c r="CG203" s="4">
+        <v>6080</v>
+      </c>
+      <c r="CH203" s="4">
+        <v>2110</v>
+      </c>
+      <c r="CI203" s="4">
+        <v>1437</v>
+      </c>
+      <c r="CJ203" s="4">
+        <v>1761</v>
+      </c>
+      <c r="CK203" s="4">
+        <v>2079</v>
+      </c>
+      <c r="CL203" s="4">
+        <v>2115</v>
+      </c>
+      <c r="CM203" s="4">
+        <v>2502</v>
+      </c>
+      <c r="CN203" s="4">
+        <v>1656</v>
+      </c>
+      <c r="CO203" s="4">
+        <v>1213</v>
+      </c>
+      <c r="CP203" s="4">
+        <v>1209</v>
+      </c>
+      <c r="CQ203" s="4">
+        <v>965</v>
+      </c>
+      <c r="CR203" s="4">
+        <v>3385</v>
+      </c>
+      <c r="CS203" s="4">
+        <v>1441</v>
+      </c>
+      <c r="CT203" s="4">
+        <v>949</v>
+      </c>
+      <c r="CU203" s="4">
+        <v>1044</v>
+      </c>
+      <c r="CV203" s="4">
+        <v>1718</v>
+      </c>
+      <c r="CW203" s="4">
+        <v>1573</v>
+      </c>
+      <c r="CX203" s="4">
+        <v>804</v>
+      </c>
+      <c r="CY203" s="4">
+        <v>870</v>
+      </c>
+      <c r="CZ203" s="4">
+        <v>1287</v>
+      </c>
+      <c r="DA203" s="4">
+        <v>1603</v>
+      </c>
+      <c r="DB203" s="4">
+        <v>1507</v>
+      </c>
+      <c r="DC203" s="4">
+        <v>1557</v>
+      </c>
+      <c r="DD203" s="4">
+        <v>1208</v>
+      </c>
+      <c r="DE203" s="4">
+        <v>334</v>
+      </c>
+      <c r="DF203" s="4">
+        <v>366</v>
+      </c>
+      <c r="DG203" s="4">
+        <v>805</v>
+      </c>
+      <c r="DH203" s="4">
+        <v>761</v>
+      </c>
+      <c r="DI203" s="4">
+        <v>485</v>
+      </c>
+      <c r="DJ203" s="4">
+        <v>543</v>
+      </c>
+      <c r="DK203" s="4">
+        <v>381</v>
+      </c>
+      <c r="DL203" s="4">
+        <v>667</v>
+      </c>
+      <c r="DM203" s="4">
+        <v>750</v>
+      </c>
+      <c r="DN203" s="4">
+        <v>527</v>
+      </c>
+      <c r="DO203" s="4">
+        <v>491</v>
+      </c>
+      <c r="DP203" s="4">
+        <v>374</v>
+      </c>
+      <c r="DQ203" s="4">
+        <v>521</v>
+      </c>
+      <c r="DR203">
+        <v>135467</v>
+      </c>
+      <c r="DS203">
+        <v>332018</v>
+      </c>
+      <c r="DT203">
+        <v>18297</v>
+      </c>
+      <c r="DU203">
+        <v>144026</v>
+      </c>
+      <c r="DV203">
+        <v>88949</v>
+      </c>
+      <c r="DW203">
+        <v>43683</v>
+      </c>
+      <c r="DX203">
+        <v>12242</v>
       </c>
     </row>
   </sheetData>

--- a/CasosColombia.xlsx
+++ b/CasosColombia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Matlab\MATLAB_R2019a\fitVirusCV19_v07_v17\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5213F50F-3774-4D1D-ACF0-09C5D7D7D53B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF5B47BD-3C2F-45AB-9151-D0C8ECF32DE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6C56C21C-B00B-4C62-A627-74DAE246E91A}"/>
   </bookViews>
@@ -1497,13 +1497,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13133E2-69F7-478D-A001-FD6CB4FB0C80}">
-  <dimension ref="A1:DX203"/>
+  <dimension ref="A1:DX204"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="CY166" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B175" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A203" sqref="A203"/>
+      <selection pane="bottomRight" activeCell="B204" sqref="B204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6555,8 +6555,8 @@
       <c r="H14">
         <v>0</v>
       </c>
-      <c r="I14" s="12" t="s">
-        <v>68</v>
+      <c r="I14" s="12">
+        <v>1</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -72639,8 +72639,8 @@
       <c r="AH185">
         <v>122</v>
       </c>
-      <c r="AI185">
-        <v>308</v>
+      <c r="AI185" t="s">
+        <v>68</v>
       </c>
       <c r="AJ185">
         <v>1981</v>
@@ -79868,6 +79868,392 @@
       </c>
       <c r="DX203">
         <v>12242</v>
+      </c>
+    </row>
+    <row r="204" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>44098</v>
+      </c>
+      <c r="B204">
+        <v>790823</v>
+      </c>
+      <c r="C204">
+        <v>2741</v>
+      </c>
+      <c r="D204">
+        <v>107933</v>
+      </c>
+      <c r="E204">
+        <v>66938</v>
+      </c>
+      <c r="F204">
+        <v>259008</v>
+      </c>
+      <c r="G204">
+        <v>28374</v>
+      </c>
+      <c r="H204">
+        <v>6453</v>
+      </c>
+      <c r="I204">
+        <v>5239</v>
+      </c>
+      <c r="J204">
+        <v>8036</v>
+      </c>
+      <c r="K204">
+        <v>8790</v>
+      </c>
+      <c r="L204">
+        <v>18129</v>
+      </c>
+      <c r="M204">
+        <v>3975</v>
+      </c>
+      <c r="N204">
+        <v>23366</v>
+      </c>
+      <c r="O204">
+        <v>31877</v>
+      </c>
+      <c r="P204">
+        <v>7689</v>
+      </c>
+      <c r="Q204">
+        <v>10204</v>
+      </c>
+      <c r="R204">
+        <v>14864</v>
+      </c>
+      <c r="S204">
+        <v>14138</v>
+      </c>
+      <c r="T204">
+        <v>17825</v>
+      </c>
+      <c r="U204">
+        <v>15001</v>
+      </c>
+      <c r="V204">
+        <v>3695</v>
+      </c>
+      <c r="W204">
+        <v>2948</v>
+      </c>
+      <c r="X204">
+        <v>10166</v>
+      </c>
+      <c r="Y204">
+        <v>29060</v>
+      </c>
+      <c r="Z204">
+        <v>13867</v>
+      </c>
+      <c r="AA204">
+        <v>11506</v>
+      </c>
+      <c r="AB204">
+        <v>59212</v>
+      </c>
+      <c r="AC204">
+        <v>2012</v>
+      </c>
+      <c r="AD204">
+        <v>1079</v>
+      </c>
+      <c r="AE204">
+        <v>733</v>
+      </c>
+      <c r="AF204">
+        <v>471</v>
+      </c>
+      <c r="AG204">
+        <v>736</v>
+      </c>
+      <c r="AH204">
+        <v>465</v>
+      </c>
+      <c r="AI204">
+        <v>657</v>
+      </c>
+      <c r="AJ204">
+        <v>2042</v>
+      </c>
+      <c r="AK204">
+        <v>5373</v>
+      </c>
+      <c r="AL204">
+        <v>37792</v>
+      </c>
+      <c r="AM204">
+        <v>9473</v>
+      </c>
+      <c r="AN204">
+        <v>2543</v>
+      </c>
+      <c r="AO204">
+        <v>45984</v>
+      </c>
+      <c r="AP204">
+        <v>1100</v>
+      </c>
+      <c r="AQ204">
+        <v>22693</v>
+      </c>
+      <c r="AR204">
+        <v>1524</v>
+      </c>
+      <c r="AS204">
+        <v>10186</v>
+      </c>
+      <c r="AT204">
+        <v>1657</v>
+      </c>
+      <c r="AU204">
+        <v>1603</v>
+      </c>
+      <c r="AV204">
+        <v>7954</v>
+      </c>
+      <c r="AW204">
+        <v>2001</v>
+      </c>
+      <c r="AX204">
+        <v>962</v>
+      </c>
+      <c r="AY204">
+        <v>2500</v>
+      </c>
+      <c r="AZ204">
+        <v>2677</v>
+      </c>
+      <c r="BA204">
+        <v>62599</v>
+      </c>
+      <c r="BB204">
+        <v>13947</v>
+      </c>
+      <c r="BC204">
+        <v>6050</v>
+      </c>
+      <c r="BD204">
+        <v>9644</v>
+      </c>
+      <c r="BE204">
+        <v>6835</v>
+      </c>
+      <c r="BF204">
+        <v>257</v>
+      </c>
+      <c r="BG204">
+        <v>1464</v>
+      </c>
+      <c r="BH204">
+        <v>2723</v>
+      </c>
+      <c r="BI204">
+        <v>743</v>
+      </c>
+      <c r="BJ204">
+        <v>2153</v>
+      </c>
+      <c r="BK204">
+        <v>9718</v>
+      </c>
+      <c r="BL204">
+        <v>9515</v>
+      </c>
+      <c r="BM204">
+        <v>10461</v>
+      </c>
+      <c r="BN204">
+        <v>14272</v>
+      </c>
+      <c r="BO204">
+        <v>1964</v>
+      </c>
+      <c r="BP204">
+        <v>899</v>
+      </c>
+      <c r="BQ204">
+        <v>13237</v>
+      </c>
+      <c r="BR204">
+        <v>10939</v>
+      </c>
+      <c r="BS204" s="4">
+        <v>12770</v>
+      </c>
+      <c r="BT204" s="4">
+        <v>2846</v>
+      </c>
+      <c r="BU204" s="4">
+        <v>2137</v>
+      </c>
+      <c r="BV204" s="4">
+        <v>5624</v>
+      </c>
+      <c r="BW204" s="4">
+        <v>4714</v>
+      </c>
+      <c r="BX204" s="4">
+        <v>2137</v>
+      </c>
+      <c r="BY204" s="4">
+        <v>5769</v>
+      </c>
+      <c r="BZ204" s="4">
+        <v>3575</v>
+      </c>
+      <c r="CA204" s="4">
+        <v>2126</v>
+      </c>
+      <c r="CB204" s="4">
+        <v>968</v>
+      </c>
+      <c r="CC204" s="4">
+        <v>2946</v>
+      </c>
+      <c r="CD204" s="4">
+        <v>2225</v>
+      </c>
+      <c r="CE204" s="4">
+        <v>1942</v>
+      </c>
+      <c r="CF204" s="4">
+        <v>1726</v>
+      </c>
+      <c r="CG204" s="4">
+        <v>6250</v>
+      </c>
+      <c r="CH204" s="4">
+        <v>2142</v>
+      </c>
+      <c r="CI204" s="4">
+        <v>1447</v>
+      </c>
+      <c r="CJ204" s="4">
+        <v>1777</v>
+      </c>
+      <c r="CK204" s="4">
+        <v>2095</v>
+      </c>
+      <c r="CL204" s="4">
+        <v>2161</v>
+      </c>
+      <c r="CM204" s="4">
+        <v>2543</v>
+      </c>
+      <c r="CN204" s="4">
+        <v>1667</v>
+      </c>
+      <c r="CO204" s="4">
+        <v>1213</v>
+      </c>
+      <c r="CP204" s="4">
+        <v>1209</v>
+      </c>
+      <c r="CQ204" s="4">
+        <v>976</v>
+      </c>
+      <c r="CR204" s="4">
+        <v>3392</v>
+      </c>
+      <c r="CS204" s="4">
+        <v>1456</v>
+      </c>
+      <c r="CT204" s="4">
+        <v>949</v>
+      </c>
+      <c r="CU204" s="4">
+        <v>1061</v>
+      </c>
+      <c r="CV204" s="4">
+        <v>1718</v>
+      </c>
+      <c r="CW204" s="4">
+        <v>1581</v>
+      </c>
+      <c r="CX204" s="4">
+        <v>806</v>
+      </c>
+      <c r="CY204" s="4">
+        <v>887</v>
+      </c>
+      <c r="CZ204" s="4">
+        <v>1304</v>
+      </c>
+      <c r="DA204" s="4">
+        <v>1633</v>
+      </c>
+      <c r="DB204" s="4">
+        <v>1511</v>
+      </c>
+      <c r="DC204" s="4">
+        <v>1568</v>
+      </c>
+      <c r="DD204" s="4">
+        <v>1226</v>
+      </c>
+      <c r="DE204" s="4">
+        <v>334</v>
+      </c>
+      <c r="DF204" s="4">
+        <v>368</v>
+      </c>
+      <c r="DG204" s="4">
+        <v>819</v>
+      </c>
+      <c r="DH204" s="4">
+        <v>766</v>
+      </c>
+      <c r="DI204" s="4">
+        <v>490</v>
+      </c>
+      <c r="DJ204" s="4">
+        <v>543</v>
+      </c>
+      <c r="DK204" s="4">
+        <v>381</v>
+      </c>
+      <c r="DL204" s="4">
+        <v>669</v>
+      </c>
+      <c r="DM204" s="4">
+        <v>751</v>
+      </c>
+      <c r="DN204" s="4">
+        <v>527</v>
+      </c>
+      <c r="DO204" s="4">
+        <v>492</v>
+      </c>
+      <c r="DP204" s="4">
+        <v>374</v>
+      </c>
+      <c r="DQ204" s="4">
+        <v>521</v>
+      </c>
+      <c r="DR204">
+        <v>135994</v>
+      </c>
+      <c r="DS204">
+        <v>334907</v>
+      </c>
+      <c r="DT204">
+        <v>18626</v>
+      </c>
+      <c r="DU204">
+        <v>145156</v>
+      </c>
+      <c r="DV204">
+        <v>89802</v>
+      </c>
+      <c r="DW204">
+        <v>44110</v>
+      </c>
+      <c r="DX204">
+        <v>12467</v>
       </c>
     </row>
   </sheetData>

--- a/CasosColombia.xlsx
+++ b/CasosColombia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Matlab\MATLAB_R2019a\fitVirusCV19_v07_v17\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF5B47BD-3C2F-45AB-9151-D0C8ECF32DE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBCF3385-2B8A-4408-BFBB-B6FB6453AA20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6C56C21C-B00B-4C62-A627-74DAE246E91A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="129">
   <si>
     <t>Fecha</t>
   </si>
@@ -1497,13 +1497,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13133E2-69F7-478D-A001-FD6CB4FB0C80}">
-  <dimension ref="A1:DX204"/>
+  <dimension ref="A1:DX205"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B175" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="CY185" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B204" sqref="B204"/>
+      <selection pane="bottomRight" activeCell="DX205" sqref="DX205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14931,8 +14931,8 @@
       <c r="CT35" s="4">
         <v>0</v>
       </c>
-      <c r="CU35" s="4" t="s">
-        <v>68</v>
+      <c r="CU35" s="4">
+        <v>8</v>
       </c>
       <c r="CV35" s="4">
         <v>0</v>
@@ -15317,8 +15317,8 @@
       <c r="CT36" s="4">
         <v>0</v>
       </c>
-      <c r="CU36" s="4" t="s">
-        <v>68</v>
+      <c r="CU36" s="4">
+        <v>8</v>
       </c>
       <c r="CV36" s="4">
         <v>0</v>
@@ -15703,8 +15703,8 @@
       <c r="CT37" s="4">
         <v>0</v>
       </c>
-      <c r="CU37" s="4" t="s">
-        <v>68</v>
+      <c r="CU37" s="4">
+        <v>8</v>
       </c>
       <c r="CV37" s="4">
         <v>0</v>
@@ -17633,8 +17633,8 @@
       <c r="CT42" s="4">
         <v>0</v>
       </c>
-      <c r="CU42" s="4" t="s">
-        <v>68</v>
+      <c r="CU42" s="4">
+        <v>12</v>
       </c>
       <c r="CV42" s="4">
         <v>1</v>
@@ -18019,8 +18019,8 @@
       <c r="CT43" s="4">
         <v>0</v>
       </c>
-      <c r="CU43" s="4" t="s">
-        <v>68</v>
+      <c r="CU43" s="4">
+        <v>12</v>
       </c>
       <c r="CV43" s="4">
         <v>1</v>
@@ -30371,8 +30371,8 @@
       <c r="CT75" s="4">
         <v>7</v>
       </c>
-      <c r="CU75" s="4">
-        <v>32</v>
+      <c r="CU75" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="CV75" s="4">
         <v>3</v>
@@ -39871,8 +39871,8 @@
       <c r="AV100">
         <v>45</v>
       </c>
-      <c r="AW100" s="8">
-        <v>105</v>
+      <c r="AW100" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="AX100">
         <v>305</v>
@@ -72446,7 +72446,7 @@
         <v>821</v>
       </c>
       <c r="CU184" s="4">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="CV184" s="4">
         <v>1376</v>
@@ -72832,7 +72832,7 @@
         <v>823</v>
       </c>
       <c r="CU185" s="4">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="CV185" s="4">
         <v>1402</v>
@@ -73218,7 +73218,7 @@
         <v>823</v>
       </c>
       <c r="CU186" s="4">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="CV186" s="4">
         <v>1435</v>
@@ -73604,7 +73604,7 @@
         <v>827</v>
       </c>
       <c r="CU187" s="4">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="CV187" s="4">
         <v>1478</v>
@@ -73990,7 +73990,7 @@
         <v>838</v>
       </c>
       <c r="CU188" s="4">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="CV188" s="4">
         <v>1519</v>
@@ -74376,7 +74376,7 @@
         <v>840</v>
       </c>
       <c r="CU189" s="4">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="CV189" s="4">
         <v>1537</v>
@@ -74762,7 +74762,7 @@
         <v>842</v>
       </c>
       <c r="CU190" s="4">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="CV190" s="4">
         <v>1544</v>
@@ -75148,7 +75148,7 @@
         <v>857</v>
       </c>
       <c r="CU191" s="4">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="CV191" s="4">
         <v>1602</v>
@@ -75534,7 +75534,7 @@
         <v>877</v>
       </c>
       <c r="CU192" s="4">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="CV192" s="4">
         <v>1621</v>
@@ -75920,7 +75920,7 @@
         <v>885</v>
       </c>
       <c r="CU193" s="4">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="CV193" s="4">
         <v>1627</v>
@@ -76306,7 +76306,7 @@
         <v>886</v>
       </c>
       <c r="CU194" s="4">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="CV194" s="4">
         <v>1630</v>
@@ -76692,7 +76692,7 @@
         <v>890</v>
       </c>
       <c r="CU195" s="4">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="CV195" s="4">
         <v>1638</v>
@@ -77078,7 +77078,7 @@
         <v>893</v>
       </c>
       <c r="CU196" s="4">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="CV196" s="4">
         <v>1641</v>
@@ -77464,7 +77464,7 @@
         <v>901</v>
       </c>
       <c r="CU197" s="4">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="CV197" s="4">
         <v>1650</v>
@@ -77850,7 +77850,7 @@
         <v>911</v>
       </c>
       <c r="CU198" s="4">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="CV198" s="4">
         <v>1656</v>
@@ -78236,7 +78236,7 @@
         <v>924</v>
       </c>
       <c r="CU199" s="4">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="CV199" s="4">
         <v>1678</v>
@@ -78622,7 +78622,7 @@
         <v>925</v>
       </c>
       <c r="CU200" s="4">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="CV200" s="4">
         <v>1681</v>
@@ -79008,7 +79008,7 @@
         <v>932</v>
       </c>
       <c r="CU201" s="4">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="CV201" s="4">
         <v>1689</v>
@@ -79394,7 +79394,7 @@
         <v>947</v>
       </c>
       <c r="CU202" s="4">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="CV202" s="4">
         <v>1710</v>
@@ -79780,7 +79780,7 @@
         <v>949</v>
       </c>
       <c r="CU203" s="4">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="CV203" s="4">
         <v>1718</v>
@@ -80254,6 +80254,392 @@
       </c>
       <c r="DX204">
         <v>12467</v>
+      </c>
+    </row>
+    <row r="205" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>44099</v>
+      </c>
+      <c r="B205">
+        <v>798317</v>
+      </c>
+      <c r="C205">
+        <v>2741</v>
+      </c>
+      <c r="D205">
+        <v>109231</v>
+      </c>
+      <c r="E205">
+        <v>67074</v>
+      </c>
+      <c r="F205">
+        <v>260557</v>
+      </c>
+      <c r="G205">
+        <v>28475</v>
+      </c>
+      <c r="H205">
+        <v>6609</v>
+      </c>
+      <c r="I205">
+        <v>5394</v>
+      </c>
+      <c r="J205">
+        <v>8202</v>
+      </c>
+      <c r="K205">
+        <v>8931</v>
+      </c>
+      <c r="L205">
+        <v>18563</v>
+      </c>
+      <c r="M205">
+        <v>3980</v>
+      </c>
+      <c r="N205">
+        <v>23514</v>
+      </c>
+      <c r="O205">
+        <v>32134</v>
+      </c>
+      <c r="P205">
+        <v>7769</v>
+      </c>
+      <c r="Q205">
+        <v>10516</v>
+      </c>
+      <c r="R205">
+        <v>15002</v>
+      </c>
+      <c r="S205">
+        <v>14386</v>
+      </c>
+      <c r="T205">
+        <v>17956</v>
+      </c>
+      <c r="U205">
+        <v>15146</v>
+      </c>
+      <c r="V205">
+        <v>3712</v>
+      </c>
+      <c r="W205">
+        <v>3142</v>
+      </c>
+      <c r="X205">
+        <v>10441</v>
+      </c>
+      <c r="Y205">
+        <v>29419</v>
+      </c>
+      <c r="Z205">
+        <v>13908</v>
+      </c>
+      <c r="AA205">
+        <v>11669</v>
+      </c>
+      <c r="AB205">
+        <v>59785</v>
+      </c>
+      <c r="AC205">
+        <v>2136</v>
+      </c>
+      <c r="AD205">
+        <v>1117</v>
+      </c>
+      <c r="AE205">
+        <v>750</v>
+      </c>
+      <c r="AF205">
+        <v>472</v>
+      </c>
+      <c r="AG205">
+        <v>743</v>
+      </c>
+      <c r="AH205">
+        <v>469</v>
+      </c>
+      <c r="AI205">
+        <v>711</v>
+      </c>
+      <c r="AJ205">
+        <v>2045</v>
+      </c>
+      <c r="AK205">
+        <v>5487</v>
+      </c>
+      <c r="AL205">
+        <v>37869</v>
+      </c>
+      <c r="AM205">
+        <v>9645</v>
+      </c>
+      <c r="AN205">
+        <v>2559</v>
+      </c>
+      <c r="AO205">
+        <v>46378</v>
+      </c>
+      <c r="AP205">
+        <v>1104</v>
+      </c>
+      <c r="AQ205">
+        <v>22743</v>
+      </c>
+      <c r="AR205">
+        <v>1526</v>
+      </c>
+      <c r="AS205">
+        <v>10272</v>
+      </c>
+      <c r="AT205">
+        <v>1664</v>
+      </c>
+      <c r="AU205">
+        <v>1606</v>
+      </c>
+      <c r="AV205">
+        <v>8097</v>
+      </c>
+      <c r="AW205">
+        <v>2005</v>
+      </c>
+      <c r="AX205">
+        <v>962</v>
+      </c>
+      <c r="AY205">
+        <v>2500</v>
+      </c>
+      <c r="AZ205">
+        <v>2687</v>
+      </c>
+      <c r="BA205">
+        <v>63306</v>
+      </c>
+      <c r="BB205">
+        <v>14015</v>
+      </c>
+      <c r="BC205">
+        <v>6302</v>
+      </c>
+      <c r="BD205">
+        <v>9734</v>
+      </c>
+      <c r="BE205">
+        <v>7022</v>
+      </c>
+      <c r="BF205">
+        <v>257</v>
+      </c>
+      <c r="BG205">
+        <v>1465</v>
+      </c>
+      <c r="BH205">
+        <v>2727</v>
+      </c>
+      <c r="BI205">
+        <v>743</v>
+      </c>
+      <c r="BJ205">
+        <v>2159</v>
+      </c>
+      <c r="BK205">
+        <v>9773</v>
+      </c>
+      <c r="BL205">
+        <v>9521</v>
+      </c>
+      <c r="BM205">
+        <v>10521</v>
+      </c>
+      <c r="BN205">
+        <v>14298</v>
+      </c>
+      <c r="BO205">
+        <v>1964</v>
+      </c>
+      <c r="BP205">
+        <v>904</v>
+      </c>
+      <c r="BQ205">
+        <v>13485</v>
+      </c>
+      <c r="BR205">
+        <v>11093</v>
+      </c>
+      <c r="BS205" s="4">
+        <v>12898</v>
+      </c>
+      <c r="BT205" s="4">
+        <v>2944</v>
+      </c>
+      <c r="BU205" s="4">
+        <v>2159</v>
+      </c>
+      <c r="BV205" s="4">
+        <v>5733</v>
+      </c>
+      <c r="BW205" s="4">
+        <v>4776</v>
+      </c>
+      <c r="BX205" s="4">
+        <v>2273</v>
+      </c>
+      <c r="BY205" s="4">
+        <v>5854</v>
+      </c>
+      <c r="BZ205" s="4">
+        <v>3659</v>
+      </c>
+      <c r="CA205" s="4">
+        <v>2184</v>
+      </c>
+      <c r="CB205" s="4">
+        <v>1005</v>
+      </c>
+      <c r="CC205" s="4">
+        <v>2976</v>
+      </c>
+      <c r="CD205" s="4">
+        <v>2229</v>
+      </c>
+      <c r="CE205" s="4">
+        <v>1968</v>
+      </c>
+      <c r="CF205" s="4">
+        <v>1788</v>
+      </c>
+      <c r="CG205" s="4">
+        <v>6394</v>
+      </c>
+      <c r="CH205" s="4">
+        <v>2154</v>
+      </c>
+      <c r="CI205" s="4">
+        <v>1454</v>
+      </c>
+      <c r="CJ205" s="4">
+        <v>1788</v>
+      </c>
+      <c r="CK205" s="4">
+        <v>2105</v>
+      </c>
+      <c r="CL205" s="4">
+        <v>2187</v>
+      </c>
+      <c r="CM205" s="4">
+        <v>2562</v>
+      </c>
+      <c r="CN205" s="4">
+        <v>1707</v>
+      </c>
+      <c r="CO205" s="4">
+        <v>1217</v>
+      </c>
+      <c r="CP205" s="4">
+        <v>1211</v>
+      </c>
+      <c r="CQ205" s="4">
+        <v>994</v>
+      </c>
+      <c r="CR205" s="4">
+        <v>3418</v>
+      </c>
+      <c r="CS205" s="4">
+        <v>1468</v>
+      </c>
+      <c r="CT205" s="4">
+        <v>956</v>
+      </c>
+      <c r="CU205" s="4">
+        <v>1077</v>
+      </c>
+      <c r="CV205" s="4">
+        <v>1724</v>
+      </c>
+      <c r="CW205" s="4">
+        <v>1588</v>
+      </c>
+      <c r="CX205" s="4">
+        <v>806</v>
+      </c>
+      <c r="CY205" s="4">
+        <v>890</v>
+      </c>
+      <c r="CZ205" s="4">
+        <v>1325</v>
+      </c>
+      <c r="DA205" s="4">
+        <v>1656</v>
+      </c>
+      <c r="DB205" s="4">
+        <v>1518</v>
+      </c>
+      <c r="DC205" s="4">
+        <v>1588</v>
+      </c>
+      <c r="DD205" s="4">
+        <v>1238</v>
+      </c>
+      <c r="DE205" s="4">
+        <v>334</v>
+      </c>
+      <c r="DF205" s="4">
+        <v>371</v>
+      </c>
+      <c r="DG205" s="4">
+        <v>829</v>
+      </c>
+      <c r="DH205" s="4">
+        <v>770</v>
+      </c>
+      <c r="DI205" s="4">
+        <v>493</v>
+      </c>
+      <c r="DJ205" s="4">
+        <v>543</v>
+      </c>
+      <c r="DK205" s="4">
+        <v>382</v>
+      </c>
+      <c r="DL205" s="4">
+        <v>670</v>
+      </c>
+      <c r="DM205" s="4">
+        <v>752</v>
+      </c>
+      <c r="DN205" s="4">
+        <v>527</v>
+      </c>
+      <c r="DO205" s="4">
+        <v>492</v>
+      </c>
+      <c r="DP205" s="4">
+        <v>374</v>
+      </c>
+      <c r="DQ205" s="4">
+        <v>522</v>
+      </c>
+      <c r="DR205">
+        <v>136883</v>
+      </c>
+      <c r="DS205">
+        <v>337592</v>
+      </c>
+      <c r="DT205">
+        <v>19250</v>
+      </c>
+      <c r="DU205">
+        <v>146643</v>
+      </c>
+      <c r="DV205">
+        <v>90652</v>
+      </c>
+      <c r="DW205">
+        <v>44614</v>
+      </c>
+      <c r="DX205">
+        <v>12657</v>
       </c>
     </row>
   </sheetData>

--- a/CasosColombia.xlsx
+++ b/CasosColombia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Matlab\MATLAB_R2019a\fitVirusCV19_v07_v17\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBCF3385-2B8A-4408-BFBB-B6FB6453AA20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{227FA5D9-59C3-4916-96EA-575F631915F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6C56C21C-B00B-4C62-A627-74DAE246E91A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="129">
   <si>
     <t>Fecha</t>
   </si>
@@ -1497,13 +1497,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13133E2-69F7-478D-A001-FD6CB4FB0C80}">
-  <dimension ref="A1:DX205"/>
+  <dimension ref="A1:DX206"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="CY185" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B171" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="DX205" sqref="DX205"/>
+      <selection pane="bottomRight" activeCell="B206" sqref="B206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7983,8 +7983,8 @@
       <c r="CT17" s="4">
         <v>0</v>
       </c>
-      <c r="CU17" s="12">
-        <v>1</v>
+      <c r="CU17" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="CV17" s="4">
         <v>0</v>
@@ -13378,8 +13378,8 @@
       <c r="CQ31" s="4">
         <v>1</v>
       </c>
-      <c r="CR31" s="13">
-        <v>1</v>
+      <c r="CR31" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="CS31" s="4">
         <v>4</v>
@@ -68001,8 +68001,8 @@
       <c r="AF173">
         <v>440</v>
       </c>
-      <c r="AG173">
-        <v>49</v>
+      <c r="AG173" t="s">
+        <v>68</v>
       </c>
       <c r="AH173">
         <v>29</v>
@@ -80640,6 +80640,392 @@
       </c>
       <c r="DX205">
         <v>12657</v>
+      </c>
+    </row>
+    <row r="206" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>44100</v>
+      </c>
+      <c r="B206">
+        <v>806038</v>
+      </c>
+      <c r="C206">
+        <v>2742</v>
+      </c>
+      <c r="D206">
+        <v>110451</v>
+      </c>
+      <c r="E206">
+        <v>67216</v>
+      </c>
+      <c r="F206">
+        <v>262954</v>
+      </c>
+      <c r="G206">
+        <v>28523</v>
+      </c>
+      <c r="H206">
+        <v>6672</v>
+      </c>
+      <c r="I206">
+        <v>5515</v>
+      </c>
+      <c r="J206">
+        <v>8370</v>
+      </c>
+      <c r="K206">
+        <v>9098</v>
+      </c>
+      <c r="L206">
+        <v>18887</v>
+      </c>
+      <c r="M206">
+        <v>3989</v>
+      </c>
+      <c r="N206">
+        <v>23628</v>
+      </c>
+      <c r="O206">
+        <v>32438</v>
+      </c>
+      <c r="P206">
+        <v>7910</v>
+      </c>
+      <c r="Q206">
+        <v>10754</v>
+      </c>
+      <c r="R206">
+        <v>15076</v>
+      </c>
+      <c r="S206">
+        <v>14563</v>
+      </c>
+      <c r="T206">
+        <v>18069</v>
+      </c>
+      <c r="U206">
+        <v>15323</v>
+      </c>
+      <c r="V206">
+        <v>3729</v>
+      </c>
+      <c r="W206">
+        <v>3267</v>
+      </c>
+      <c r="X206">
+        <v>10576</v>
+      </c>
+      <c r="Y206">
+        <v>29903</v>
+      </c>
+      <c r="Z206">
+        <v>13973</v>
+      </c>
+      <c r="AA206">
+        <v>11881</v>
+      </c>
+      <c r="AB206">
+        <v>60369</v>
+      </c>
+      <c r="AC206">
+        <v>2167</v>
+      </c>
+      <c r="AD206">
+        <v>1127</v>
+      </c>
+      <c r="AE206">
+        <v>750</v>
+      </c>
+      <c r="AF206">
+        <v>473</v>
+      </c>
+      <c r="AG206">
+        <v>750</v>
+      </c>
+      <c r="AH206">
+        <v>473</v>
+      </c>
+      <c r="AI206">
+        <v>736</v>
+      </c>
+      <c r="AJ206">
+        <v>2060</v>
+      </c>
+      <c r="AK206">
+        <v>5580</v>
+      </c>
+      <c r="AL206">
+        <v>37962</v>
+      </c>
+      <c r="AM206">
+        <v>9761</v>
+      </c>
+      <c r="AN206">
+        <v>2560</v>
+      </c>
+      <c r="AO206">
+        <v>46838</v>
+      </c>
+      <c r="AP206">
+        <v>1106</v>
+      </c>
+      <c r="AQ206">
+        <v>22773</v>
+      </c>
+      <c r="AR206">
+        <v>1526</v>
+      </c>
+      <c r="AS206">
+        <v>10368</v>
+      </c>
+      <c r="AT206">
+        <v>1669</v>
+      </c>
+      <c r="AU206">
+        <v>1606</v>
+      </c>
+      <c r="AV206">
+        <v>8265</v>
+      </c>
+      <c r="AW206">
+        <v>2011</v>
+      </c>
+      <c r="AX206">
+        <v>964</v>
+      </c>
+      <c r="AY206">
+        <v>2501</v>
+      </c>
+      <c r="AZ206">
+        <v>2687</v>
+      </c>
+      <c r="BA206">
+        <v>63932</v>
+      </c>
+      <c r="BB206">
+        <v>14065</v>
+      </c>
+      <c r="BC206">
+        <v>6445</v>
+      </c>
+      <c r="BD206">
+        <v>9800</v>
+      </c>
+      <c r="BE206">
+        <v>7103</v>
+      </c>
+      <c r="BF206">
+        <v>257</v>
+      </c>
+      <c r="BG206">
+        <v>1469</v>
+      </c>
+      <c r="BH206">
+        <v>2731</v>
+      </c>
+      <c r="BI206">
+        <v>744</v>
+      </c>
+      <c r="BJ206">
+        <v>2166</v>
+      </c>
+      <c r="BK206">
+        <v>9830</v>
+      </c>
+      <c r="BL206">
+        <v>9549</v>
+      </c>
+      <c r="BM206">
+        <v>10601</v>
+      </c>
+      <c r="BN206">
+        <v>14311</v>
+      </c>
+      <c r="BO206">
+        <v>1967</v>
+      </c>
+      <c r="BP206">
+        <v>904</v>
+      </c>
+      <c r="BQ206">
+        <v>13699</v>
+      </c>
+      <c r="BR206">
+        <v>11217</v>
+      </c>
+      <c r="BS206" s="4">
+        <v>13113</v>
+      </c>
+      <c r="BT206" s="4">
+        <v>3001</v>
+      </c>
+      <c r="BU206" s="4">
+        <v>2193</v>
+      </c>
+      <c r="BV206" s="4">
+        <v>5872</v>
+      </c>
+      <c r="BW206" s="4">
+        <v>4857</v>
+      </c>
+      <c r="BX206" s="4">
+        <v>2325</v>
+      </c>
+      <c r="BY206" s="4">
+        <v>5921</v>
+      </c>
+      <c r="BZ206" s="4">
+        <v>3715</v>
+      </c>
+      <c r="CA206" s="4">
+        <v>2211</v>
+      </c>
+      <c r="CB206" s="4">
+        <v>1013</v>
+      </c>
+      <c r="CC206" s="4">
+        <v>3020</v>
+      </c>
+      <c r="CD206" s="4">
+        <v>2243</v>
+      </c>
+      <c r="CE206" s="4">
+        <v>2006</v>
+      </c>
+      <c r="CF206" s="4">
+        <v>1804</v>
+      </c>
+      <c r="CG206" s="4">
+        <v>6522</v>
+      </c>
+      <c r="CH206" s="4">
+        <v>2185</v>
+      </c>
+      <c r="CI206" s="4">
+        <v>1467</v>
+      </c>
+      <c r="CJ206" s="4">
+        <v>1801</v>
+      </c>
+      <c r="CK206" s="4">
+        <v>2112</v>
+      </c>
+      <c r="CL206" s="4">
+        <v>2210</v>
+      </c>
+      <c r="CM206" s="4">
+        <v>2588</v>
+      </c>
+      <c r="CN206" s="4">
+        <v>1736</v>
+      </c>
+      <c r="CO206" s="4">
+        <v>1217</v>
+      </c>
+      <c r="CP206" s="4">
+        <v>1223</v>
+      </c>
+      <c r="CQ206" s="4">
+        <v>998</v>
+      </c>
+      <c r="CR206" s="4">
+        <v>3439</v>
+      </c>
+      <c r="CS206" s="4">
+        <v>1478</v>
+      </c>
+      <c r="CT206" s="4">
+        <v>967</v>
+      </c>
+      <c r="CU206" s="4">
+        <v>1112</v>
+      </c>
+      <c r="CV206" s="4">
+        <v>1736</v>
+      </c>
+      <c r="CW206" s="4">
+        <v>1603</v>
+      </c>
+      <c r="CX206" s="4">
+        <v>814</v>
+      </c>
+      <c r="CY206" s="4">
+        <v>893</v>
+      </c>
+      <c r="CZ206" s="4">
+        <v>1335</v>
+      </c>
+      <c r="DA206" s="4">
+        <v>1677</v>
+      </c>
+      <c r="DB206" s="4">
+        <v>1552</v>
+      </c>
+      <c r="DC206" s="4">
+        <v>1616</v>
+      </c>
+      <c r="DD206" s="4">
+        <v>1250</v>
+      </c>
+      <c r="DE206" s="4">
+        <v>334</v>
+      </c>
+      <c r="DF206" s="4">
+        <v>371</v>
+      </c>
+      <c r="DG206" s="4">
+        <v>832</v>
+      </c>
+      <c r="DH206" s="4">
+        <v>774</v>
+      </c>
+      <c r="DI206" s="4">
+        <v>495</v>
+      </c>
+      <c r="DJ206" s="4">
+        <v>544</v>
+      </c>
+      <c r="DK206" s="4">
+        <v>384</v>
+      </c>
+      <c r="DL206" s="4">
+        <v>670</v>
+      </c>
+      <c r="DM206" s="4">
+        <v>757</v>
+      </c>
+      <c r="DN206" s="4">
+        <v>527</v>
+      </c>
+      <c r="DO206" s="4">
+        <v>494</v>
+      </c>
+      <c r="DP206" s="4">
+        <v>374</v>
+      </c>
+      <c r="DQ206" s="4">
+        <v>524</v>
+      </c>
+      <c r="DR206">
+        <v>137612</v>
+      </c>
+      <c r="DS206">
+        <v>340983</v>
+      </c>
+      <c r="DT206">
+        <v>19631</v>
+      </c>
+      <c r="DU206">
+        <v>148042</v>
+      </c>
+      <c r="DV206">
+        <v>91525</v>
+      </c>
+      <c r="DW206">
+        <v>45275</v>
+      </c>
+      <c r="DX206">
+        <v>12849</v>
       </c>
     </row>
   </sheetData>

--- a/CasosColombia.xlsx
+++ b/CasosColombia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Matlab\MATLAB_R2019a\fitVirusCV19_v07_v17\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{227FA5D9-59C3-4916-96EA-575F631915F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C9E9239-6E6B-4989-BAC8-D83C63E1E3AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6C56C21C-B00B-4C62-A627-74DAE246E91A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="129">
   <si>
     <t>Fecha</t>
   </si>
@@ -1497,13 +1497,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13133E2-69F7-478D-A001-FD6CB4FB0C80}">
-  <dimension ref="A1:DX206"/>
+  <dimension ref="A1:DX207"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B171" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="CY166" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B206" sqref="B206"/>
+      <selection pane="bottomRight" activeCell="DX207" sqref="DX207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17019,8 +17019,8 @@
       <c r="V41">
         <v>0</v>
       </c>
-      <c r="W41" s="4">
-        <v>9</v>
+      <c r="W41" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="X41">
         <v>0</v>
@@ -17405,8 +17405,8 @@
       <c r="V42">
         <v>0</v>
       </c>
-      <c r="W42" s="4">
-        <v>9</v>
+      <c r="W42" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="X42">
         <v>0</v>
@@ -17791,8 +17791,8 @@
       <c r="V43">
         <v>0</v>
       </c>
-      <c r="W43">
-        <v>9</v>
+      <c r="W43" t="s">
+        <v>68</v>
       </c>
       <c r="X43">
         <v>0</v>
@@ -18117,8 +18117,8 @@
       <c r="B44">
         <v>3436</v>
       </c>
-      <c r="C44" s="9" t="s">
-        <v>68</v>
+      <c r="C44" s="9">
+        <v>1</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -20840,8 +20840,8 @@
       <c r="I51">
         <v>52</v>
       </c>
-      <c r="J51" t="s">
-        <v>68</v>
+      <c r="J51">
+        <v>2</v>
       </c>
       <c r="K51">
         <v>26</v>
@@ -21226,8 +21226,8 @@
       <c r="I52">
         <v>52</v>
       </c>
-      <c r="J52" t="s">
-        <v>68</v>
+      <c r="J52">
+        <v>2</v>
       </c>
       <c r="K52">
         <v>27</v>
@@ -21612,8 +21612,8 @@
       <c r="I53">
         <v>53</v>
       </c>
-      <c r="J53" t="s">
-        <v>68</v>
+      <c r="J53">
+        <v>2</v>
       </c>
       <c r="K53">
         <v>28</v>
@@ -21998,8 +21998,8 @@
       <c r="I54">
         <v>53</v>
       </c>
-      <c r="J54" t="s">
-        <v>68</v>
+      <c r="J54">
+        <v>2</v>
       </c>
       <c r="K54">
         <v>32</v>
@@ -23979,8 +23979,8 @@
       <c r="Z59">
         <v>1</v>
       </c>
-      <c r="AA59" s="10" t="s">
-        <v>68</v>
+      <c r="AA59" s="10">
+        <v>1</v>
       </c>
       <c r="AB59">
         <v>1057</v>
@@ -45158,8 +45158,8 @@
       <c r="I114">
         <v>243</v>
       </c>
-      <c r="J114" t="s">
-        <v>68</v>
+      <c r="J114">
+        <v>26</v>
       </c>
       <c r="K114">
         <v>320</v>
@@ -45544,8 +45544,8 @@
       <c r="I115">
         <v>244</v>
       </c>
-      <c r="J115" t="s">
-        <v>68</v>
+      <c r="J115">
+        <v>31</v>
       </c>
       <c r="K115">
         <v>329</v>
@@ -48707,8 +48707,8 @@
       <c r="AH123">
         <v>1</v>
       </c>
-      <c r="AI123" t="s">
-        <v>68</v>
+      <c r="AI123">
+        <v>8</v>
       </c>
       <c r="AJ123">
         <v>614</v>
@@ -61371,7 +61371,7 @@
         <v>1191</v>
       </c>
       <c r="J156">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="K156">
         <v>2491</v>
@@ -61757,7 +61757,7 @@
         <v>1216</v>
       </c>
       <c r="J157">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="K157">
         <v>2549</v>
@@ -62143,7 +62143,7 @@
         <v>1313</v>
       </c>
       <c r="J158">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="K158">
         <v>2654</v>
@@ -62529,7 +62529,7 @@
         <v>1384</v>
       </c>
       <c r="J159">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="K159">
         <v>2681</v>
@@ -62915,7 +62915,7 @@
         <v>1417</v>
       </c>
       <c r="J160">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="K160">
         <v>2775</v>
@@ -63301,7 +63301,7 @@
         <v>1456</v>
       </c>
       <c r="J161">
-        <v>2946</v>
+        <v>2945</v>
       </c>
       <c r="K161">
         <v>2810</v>
@@ -63687,7 +63687,7 @@
         <v>1486</v>
       </c>
       <c r="J162">
-        <v>3070</v>
+        <v>3069</v>
       </c>
       <c r="K162">
         <v>3013</v>
@@ -64073,7 +64073,7 @@
         <v>1547</v>
       </c>
       <c r="J163">
-        <v>3331</v>
+        <v>3330</v>
       </c>
       <c r="K163">
         <v>3153</v>
@@ -64459,7 +64459,7 @@
         <v>1599</v>
       </c>
       <c r="J164">
-        <v>3514</v>
+        <v>3513</v>
       </c>
       <c r="K164">
         <v>3222</v>
@@ -64845,7 +64845,7 @@
         <v>1658</v>
       </c>
       <c r="J165">
-        <v>3753</v>
+        <v>3752</v>
       </c>
       <c r="K165">
         <v>3300</v>
@@ -65231,7 +65231,7 @@
         <v>1687</v>
       </c>
       <c r="J166">
-        <v>3925</v>
+        <v>3926</v>
       </c>
       <c r="K166">
         <v>3334</v>
@@ -65617,7 +65617,7 @@
         <v>1736</v>
       </c>
       <c r="J167">
-        <v>4138</v>
+        <v>4141</v>
       </c>
       <c r="K167">
         <v>3435</v>
@@ -66003,7 +66003,7 @@
         <v>1823</v>
       </c>
       <c r="J168">
-        <v>4347</v>
+        <v>4350</v>
       </c>
       <c r="K168">
         <v>3512</v>
@@ -66389,7 +66389,7 @@
         <v>2024</v>
       </c>
       <c r="J169">
-        <v>4437</v>
+        <v>4440</v>
       </c>
       <c r="K169">
         <v>3703</v>
@@ -66775,7 +66775,7 @@
         <v>2120</v>
       </c>
       <c r="J170">
-        <v>4612</v>
+        <v>4615</v>
       </c>
       <c r="K170">
         <v>3837</v>
@@ -67161,7 +67161,7 @@
         <v>2232</v>
       </c>
       <c r="J171">
-        <v>4721</v>
+        <v>4724</v>
       </c>
       <c r="K171">
         <v>3993</v>
@@ -67547,7 +67547,7 @@
         <v>2301</v>
       </c>
       <c r="J172">
-        <v>4841</v>
+        <v>4844</v>
       </c>
       <c r="K172">
         <v>4190</v>
@@ -67933,7 +67933,7 @@
         <v>2386</v>
       </c>
       <c r="J173">
-        <v>5074</v>
+        <v>5077</v>
       </c>
       <c r="K173">
         <v>4329</v>
@@ -68319,7 +68319,7 @@
         <v>2474</v>
       </c>
       <c r="J174">
-        <v>5179</v>
+        <v>5183</v>
       </c>
       <c r="K174">
         <v>4408</v>
@@ -68705,7 +68705,7 @@
         <v>2547</v>
       </c>
       <c r="J175">
-        <v>5206</v>
+        <v>5210</v>
       </c>
       <c r="K175">
         <v>4542</v>
@@ -69091,7 +69091,7 @@
         <v>2614</v>
       </c>
       <c r="J176">
-        <v>5347</v>
+        <v>5351</v>
       </c>
       <c r="K176">
         <v>4651</v>
@@ -69477,7 +69477,7 @@
         <v>2707</v>
       </c>
       <c r="J177">
-        <v>5536</v>
+        <v>5540</v>
       </c>
       <c r="K177">
         <v>4740</v>
@@ -69863,7 +69863,7 @@
         <v>2804</v>
       </c>
       <c r="J178">
-        <v>5724</v>
+        <v>5729</v>
       </c>
       <c r="K178">
         <v>4983</v>
@@ -70249,7 +70249,7 @@
         <v>2888</v>
       </c>
       <c r="J179">
-        <v>5860</v>
+        <v>5866</v>
       </c>
       <c r="K179">
         <v>5247</v>
@@ -70635,7 +70635,7 @@
         <v>2964</v>
       </c>
       <c r="J180">
-        <v>6067</v>
+        <v>6073</v>
       </c>
       <c r="K180">
         <v>5285</v>
@@ -71021,7 +71021,7 @@
         <v>3022</v>
       </c>
       <c r="J181">
-        <v>6165</v>
+        <v>6171</v>
       </c>
       <c r="K181">
         <v>5406</v>
@@ -71407,7 +71407,7 @@
         <v>3088</v>
       </c>
       <c r="J182">
-        <v>6307</v>
+        <v>6313</v>
       </c>
       <c r="K182">
         <v>5649</v>
@@ -71793,7 +71793,7 @@
         <v>3152</v>
       </c>
       <c r="J183">
-        <v>6316</v>
+        <v>6322</v>
       </c>
       <c r="K183">
         <v>5839</v>
@@ -72179,7 +72179,7 @@
         <v>3242</v>
       </c>
       <c r="J184">
-        <v>6521</v>
+        <v>6527</v>
       </c>
       <c r="K184">
         <v>5900</v>
@@ -72565,7 +72565,7 @@
         <v>3330</v>
       </c>
       <c r="J185">
-        <v>6625</v>
+        <v>6631</v>
       </c>
       <c r="K185">
         <v>6141</v>
@@ -72951,7 +72951,7 @@
         <v>3396</v>
       </c>
       <c r="J186">
-        <v>6789</v>
+        <v>6795</v>
       </c>
       <c r="K186">
         <v>6397</v>
@@ -73337,7 +73337,7 @@
         <v>3466</v>
       </c>
       <c r="J187">
-        <v>6897</v>
+        <v>6903</v>
       </c>
       <c r="K187">
         <v>6409</v>
@@ -73723,7 +73723,7 @@
         <v>3546</v>
       </c>
       <c r="J188">
-        <v>7030</v>
+        <v>7035</v>
       </c>
       <c r="K188">
         <v>6647</v>
@@ -74109,7 +74109,7 @@
         <v>3621</v>
       </c>
       <c r="J189">
-        <v>7113</v>
+        <v>7114</v>
       </c>
       <c r="K189">
         <v>6825</v>
@@ -74495,7 +74495,7 @@
         <v>3671</v>
       </c>
       <c r="J190">
-        <v>7179</v>
+        <v>7180</v>
       </c>
       <c r="K190">
         <v>6922</v>
@@ -74881,7 +74881,7 @@
         <v>3805</v>
       </c>
       <c r="J191">
-        <v>7239</v>
+        <v>7240</v>
       </c>
       <c r="K191">
         <v>7012</v>
@@ -75267,7 +75267,7 @@
         <v>3884</v>
       </c>
       <c r="J192">
-        <v>7249</v>
+        <v>7250</v>
       </c>
       <c r="K192">
         <v>7186</v>
@@ -75653,7 +75653,7 @@
         <v>4010</v>
       </c>
       <c r="J193">
-        <v>7308</v>
+        <v>7309</v>
       </c>
       <c r="K193">
         <v>7283</v>
@@ -76039,7 +76039,7 @@
         <v>4078</v>
       </c>
       <c r="J194">
-        <v>7319</v>
+        <v>7320</v>
       </c>
       <c r="K194">
         <v>7348</v>
@@ -76425,7 +76425,7 @@
         <v>4191</v>
       </c>
       <c r="J195">
-        <v>7346</v>
+        <v>7347</v>
       </c>
       <c r="K195">
         <v>7439</v>
@@ -76811,7 +76811,7 @@
         <v>4276</v>
       </c>
       <c r="J196">
-        <v>7357</v>
+        <v>7358</v>
       </c>
       <c r="K196">
         <v>7704</v>
@@ -77197,7 +77197,7 @@
         <v>4380</v>
       </c>
       <c r="J197">
-        <v>7387</v>
+        <v>7388</v>
       </c>
       <c r="K197">
         <v>7866</v>
@@ -77583,7 +77583,7 @@
         <v>4455</v>
       </c>
       <c r="J198">
-        <v>7536</v>
+        <v>7537</v>
       </c>
       <c r="K198">
         <v>7976</v>
@@ -81026,6 +81026,392 @@
       </c>
       <c r="DX206">
         <v>12849</v>
+      </c>
+    </row>
+    <row r="207" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>44101</v>
+      </c>
+      <c r="B207">
+        <v>813056</v>
+      </c>
+      <c r="C207">
+        <v>2742</v>
+      </c>
+      <c r="D207">
+        <v>112052</v>
+      </c>
+      <c r="E207">
+        <v>67320</v>
+      </c>
+      <c r="F207">
+        <v>264271</v>
+      </c>
+      <c r="G207">
+        <v>28589</v>
+      </c>
+      <c r="H207">
+        <v>6808</v>
+      </c>
+      <c r="I207">
+        <v>5664</v>
+      </c>
+      <c r="J207">
+        <v>8429</v>
+      </c>
+      <c r="K207">
+        <v>9223</v>
+      </c>
+      <c r="L207">
+        <v>19462</v>
+      </c>
+      <c r="M207">
+        <v>3990</v>
+      </c>
+      <c r="N207">
+        <v>23688</v>
+      </c>
+      <c r="O207">
+        <v>32779</v>
+      </c>
+      <c r="P207">
+        <v>7985</v>
+      </c>
+      <c r="Q207">
+        <v>11036</v>
+      </c>
+      <c r="R207">
+        <v>15101</v>
+      </c>
+      <c r="S207">
+        <v>14761</v>
+      </c>
+      <c r="T207">
+        <v>18177</v>
+      </c>
+      <c r="U207">
+        <v>15507</v>
+      </c>
+      <c r="V207">
+        <v>3733</v>
+      </c>
+      <c r="W207">
+        <v>3328</v>
+      </c>
+      <c r="X207">
+        <v>10720</v>
+      </c>
+      <c r="Y207">
+        <v>30364</v>
+      </c>
+      <c r="Z207">
+        <v>13998</v>
+      </c>
+      <c r="AA207">
+        <v>11976</v>
+      </c>
+      <c r="AB207">
+        <v>61081</v>
+      </c>
+      <c r="AC207">
+        <v>2210</v>
+      </c>
+      <c r="AD207">
+        <v>1138</v>
+      </c>
+      <c r="AE207">
+        <v>754</v>
+      </c>
+      <c r="AF207">
+        <v>474</v>
+      </c>
+      <c r="AG207">
+        <v>767</v>
+      </c>
+      <c r="AH207">
+        <v>479</v>
+      </c>
+      <c r="AI207">
+        <v>741</v>
+      </c>
+      <c r="AJ207">
+        <v>2062</v>
+      </c>
+      <c r="AK207">
+        <v>5763</v>
+      </c>
+      <c r="AL207">
+        <v>38032</v>
+      </c>
+      <c r="AM207">
+        <v>9934</v>
+      </c>
+      <c r="AN207">
+        <v>2565</v>
+      </c>
+      <c r="AO207">
+        <v>47280</v>
+      </c>
+      <c r="AP207">
+        <v>1106</v>
+      </c>
+      <c r="AQ207">
+        <v>22815</v>
+      </c>
+      <c r="AR207">
+        <v>1527</v>
+      </c>
+      <c r="AS207">
+        <v>10484</v>
+      </c>
+      <c r="AT207">
+        <v>1674</v>
+      </c>
+      <c r="AU207">
+        <v>1606</v>
+      </c>
+      <c r="AV207">
+        <v>8340</v>
+      </c>
+      <c r="AW207">
+        <v>2015</v>
+      </c>
+      <c r="AX207">
+        <v>964</v>
+      </c>
+      <c r="AY207">
+        <v>2501</v>
+      </c>
+      <c r="AZ207">
+        <v>2688</v>
+      </c>
+      <c r="BA207">
+        <v>64947</v>
+      </c>
+      <c r="BB207">
+        <v>14101</v>
+      </c>
+      <c r="BC207">
+        <v>6595</v>
+      </c>
+      <c r="BD207">
+        <v>9862</v>
+      </c>
+      <c r="BE207">
+        <v>7204</v>
+      </c>
+      <c r="BF207">
+        <v>257</v>
+      </c>
+      <c r="BG207">
+        <v>1473</v>
+      </c>
+      <c r="BH207">
+        <v>2731</v>
+      </c>
+      <c r="BI207">
+        <v>744</v>
+      </c>
+      <c r="BJ207">
+        <v>2166</v>
+      </c>
+      <c r="BK207">
+        <v>9848</v>
+      </c>
+      <c r="BL207">
+        <v>9559</v>
+      </c>
+      <c r="BM207">
+        <v>10681</v>
+      </c>
+      <c r="BN207">
+        <v>14323</v>
+      </c>
+      <c r="BO207">
+        <v>1967</v>
+      </c>
+      <c r="BP207">
+        <v>904</v>
+      </c>
+      <c r="BQ207">
+        <v>13941</v>
+      </c>
+      <c r="BR207">
+        <v>11360</v>
+      </c>
+      <c r="BS207" s="4">
+        <v>13282</v>
+      </c>
+      <c r="BT207" s="4">
+        <v>3110</v>
+      </c>
+      <c r="BU207" s="4">
+        <v>2248</v>
+      </c>
+      <c r="BV207" s="4">
+        <v>5981</v>
+      </c>
+      <c r="BW207" s="4">
+        <v>4903</v>
+      </c>
+      <c r="BX207" s="4">
+        <v>2378</v>
+      </c>
+      <c r="BY207" s="4">
+        <v>6035</v>
+      </c>
+      <c r="BZ207" s="4">
+        <v>3799</v>
+      </c>
+      <c r="CA207" s="4">
+        <v>2231</v>
+      </c>
+      <c r="CB207" s="4">
+        <v>1072</v>
+      </c>
+      <c r="CC207" s="4">
+        <v>3042</v>
+      </c>
+      <c r="CD207" s="4">
+        <v>2244</v>
+      </c>
+      <c r="CE207" s="4">
+        <v>2027</v>
+      </c>
+      <c r="CF207" s="4">
+        <v>1849</v>
+      </c>
+      <c r="CG207" s="4">
+        <v>6571</v>
+      </c>
+      <c r="CH207" s="4">
+        <v>2216</v>
+      </c>
+      <c r="CI207" s="4">
+        <v>1482</v>
+      </c>
+      <c r="CJ207" s="4">
+        <v>1818</v>
+      </c>
+      <c r="CK207" s="4">
+        <v>2133</v>
+      </c>
+      <c r="CL207" s="4">
+        <v>2238</v>
+      </c>
+      <c r="CM207" s="4">
+        <v>2635</v>
+      </c>
+      <c r="CN207" s="4">
+        <v>1757</v>
+      </c>
+      <c r="CO207" s="4">
+        <v>1221</v>
+      </c>
+      <c r="CP207" s="4">
+        <v>1224</v>
+      </c>
+      <c r="CQ207" s="4">
+        <v>1050</v>
+      </c>
+      <c r="CR207" s="4">
+        <v>3454</v>
+      </c>
+      <c r="CS207" s="4">
+        <v>1492</v>
+      </c>
+      <c r="CT207" s="4">
+        <v>968</v>
+      </c>
+      <c r="CU207" s="4">
+        <v>1128</v>
+      </c>
+      <c r="CV207" s="4">
+        <v>1738</v>
+      </c>
+      <c r="CW207" s="4">
+        <v>1624</v>
+      </c>
+      <c r="CX207" s="4">
+        <v>814</v>
+      </c>
+      <c r="CY207" s="4">
+        <v>900</v>
+      </c>
+      <c r="CZ207" s="4">
+        <v>1354</v>
+      </c>
+      <c r="DA207" s="4">
+        <v>1689</v>
+      </c>
+      <c r="DB207" s="4">
+        <v>1568</v>
+      </c>
+      <c r="DC207" s="4">
+        <v>1640</v>
+      </c>
+      <c r="DD207" s="4">
+        <v>1260</v>
+      </c>
+      <c r="DE207" s="4">
+        <v>334</v>
+      </c>
+      <c r="DF207" s="4">
+        <v>371</v>
+      </c>
+      <c r="DG207" s="4">
+        <v>836</v>
+      </c>
+      <c r="DH207" s="4">
+        <v>775</v>
+      </c>
+      <c r="DI207" s="4">
+        <v>495</v>
+      </c>
+      <c r="DJ207" s="4">
+        <v>544</v>
+      </c>
+      <c r="DK207" s="4">
+        <v>386</v>
+      </c>
+      <c r="DL207" s="4">
+        <v>671</v>
+      </c>
+      <c r="DM207" s="4">
+        <v>760</v>
+      </c>
+      <c r="DN207" s="4">
+        <v>527</v>
+      </c>
+      <c r="DO207" s="4">
+        <v>505</v>
+      </c>
+      <c r="DP207" s="4">
+        <v>374</v>
+      </c>
+      <c r="DQ207" s="4">
+        <v>524</v>
+      </c>
+      <c r="DR207">
+        <v>138457</v>
+      </c>
+      <c r="DS207">
+        <v>343352</v>
+      </c>
+      <c r="DT207">
+        <v>19985</v>
+      </c>
+      <c r="DU207">
+        <v>149728</v>
+      </c>
+      <c r="DV207">
+        <v>92471</v>
+      </c>
+      <c r="DW207">
+        <v>45920</v>
+      </c>
+      <c r="DX207">
+        <v>12929</v>
       </c>
     </row>
   </sheetData>

--- a/CasosColombia.xlsx
+++ b/CasosColombia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Matlab\MATLAB_R2019a\fitVirusCV19_v07_v17\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C9E9239-6E6B-4989-BAC8-D83C63E1E3AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E4916B7-9F13-47FC-A236-B57421DE5812}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6C56C21C-B00B-4C62-A627-74DAE246E91A}"/>
+    <workbookView xWindow="0" yWindow="7875" windowWidth="28800" windowHeight="7875" xr2:uid="{6C56C21C-B00B-4C62-A627-74DAE246E91A}"/>
   </bookViews>
   <sheets>
     <sheet name="CasosColombia" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="129">
   <si>
     <t>Fecha</t>
   </si>
@@ -1497,13 +1497,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13133E2-69F7-478D-A001-FD6CB4FB0C80}">
-  <dimension ref="A1:DX207"/>
+  <dimension ref="A1:DX208"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="CY166" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="DG179" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="DX207" sqref="DX207"/>
+      <selection pane="bottomRight" activeCell="DR208" sqref="DR208:DX208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8306,8 +8306,8 @@
       <c r="BY18" s="4">
         <v>1</v>
       </c>
-      <c r="BZ18" s="12" t="s">
-        <v>68</v>
+      <c r="BZ18" s="12">
+        <v>2</v>
       </c>
       <c r="CA18" s="10">
         <v>0</v>
@@ -17019,8 +17019,8 @@
       <c r="V41">
         <v>0</v>
       </c>
-      <c r="W41" s="4" t="s">
-        <v>68</v>
+      <c r="W41" s="4">
+        <v>9</v>
       </c>
       <c r="X41">
         <v>0</v>
@@ -17405,8 +17405,8 @@
       <c r="V42">
         <v>0</v>
       </c>
-      <c r="W42" s="4" t="s">
-        <v>68</v>
+      <c r="W42" s="4">
+        <v>9</v>
       </c>
       <c r="X42">
         <v>0</v>
@@ -18117,8 +18117,8 @@
       <c r="B44">
         <v>3436</v>
       </c>
-      <c r="C44" s="9">
-        <v>1</v>
+      <c r="C44" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -28237,8 +28237,8 @@
       <c r="AD70">
         <v>15</v>
       </c>
-      <c r="AE70" t="s">
-        <v>68</v>
+      <c r="AE70">
+        <v>11</v>
       </c>
       <c r="AF70">
         <v>0</v>
@@ -28623,8 +28623,8 @@
       <c r="AD71">
         <v>15</v>
       </c>
-      <c r="AE71" t="s">
-        <v>68</v>
+      <c r="AE71">
+        <v>11</v>
       </c>
       <c r="AF71">
         <v>0</v>
@@ -29009,8 +29009,8 @@
       <c r="AD72">
         <v>15</v>
       </c>
-      <c r="AE72" t="s">
-        <v>68</v>
+      <c r="AE72">
+        <v>11</v>
       </c>
       <c r="AF72">
         <v>0</v>
@@ -41987,8 +41987,8 @@
       <c r="DF105" s="4">
         <v>18</v>
       </c>
-      <c r="DG105" s="4">
-        <v>11</v>
+      <c r="DG105" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="DH105" s="4">
         <v>13</v>
@@ -49093,8 +49093,8 @@
       <c r="AH124">
         <v>1</v>
       </c>
-      <c r="AI124" t="s">
-        <v>68</v>
+      <c r="AI124">
+        <v>8</v>
       </c>
       <c r="AJ124">
         <v>678</v>
@@ -49479,8 +49479,8 @@
       <c r="AH125">
         <v>1</v>
       </c>
-      <c r="AI125" t="s">
-        <v>68</v>
+      <c r="AI125">
+        <v>8</v>
       </c>
       <c r="AJ125">
         <v>716</v>
@@ -81412,6 +81412,392 @@
       </c>
       <c r="DX207">
         <v>12929</v>
+      </c>
+    </row>
+    <row r="208" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>44102</v>
+      </c>
+      <c r="B208">
+        <v>818203</v>
+      </c>
+      <c r="C208">
+        <v>2742</v>
+      </c>
+      <c r="D208">
+        <v>112469</v>
+      </c>
+      <c r="E208">
+        <v>67404</v>
+      </c>
+      <c r="F208">
+        <v>265574</v>
+      </c>
+      <c r="G208">
+        <v>28654</v>
+      </c>
+      <c r="H208">
+        <v>6950</v>
+      </c>
+      <c r="I208">
+        <v>5810</v>
+      </c>
+      <c r="J208">
+        <v>8457</v>
+      </c>
+      <c r="K208">
+        <v>9301</v>
+      </c>
+      <c r="L208">
+        <v>19551</v>
+      </c>
+      <c r="M208">
+        <v>3995</v>
+      </c>
+      <c r="N208">
+        <v>23888</v>
+      </c>
+      <c r="O208">
+        <v>32996</v>
+      </c>
+      <c r="P208">
+        <v>8030</v>
+      </c>
+      <c r="Q208">
+        <v>11187</v>
+      </c>
+      <c r="R208">
+        <v>15188</v>
+      </c>
+      <c r="S208">
+        <v>15045</v>
+      </c>
+      <c r="T208">
+        <v>18237</v>
+      </c>
+      <c r="U208">
+        <v>15587</v>
+      </c>
+      <c r="V208">
+        <v>3756</v>
+      </c>
+      <c r="W208">
+        <v>3500</v>
+      </c>
+      <c r="X208">
+        <v>10837</v>
+      </c>
+      <c r="Y208">
+        <v>30500</v>
+      </c>
+      <c r="Z208">
+        <v>14010</v>
+      </c>
+      <c r="AA208">
+        <v>12129</v>
+      </c>
+      <c r="AB208">
+        <v>61637</v>
+      </c>
+      <c r="AC208">
+        <v>2340</v>
+      </c>
+      <c r="AD208">
+        <v>1336</v>
+      </c>
+      <c r="AE208">
+        <v>765</v>
+      </c>
+      <c r="AF208">
+        <v>475</v>
+      </c>
+      <c r="AG208">
+        <v>862</v>
+      </c>
+      <c r="AH208">
+        <v>521</v>
+      </c>
+      <c r="AI208">
+        <v>757</v>
+      </c>
+      <c r="AJ208">
+        <v>2065</v>
+      </c>
+      <c r="AK208">
+        <v>5777</v>
+      </c>
+      <c r="AL208">
+        <v>38076</v>
+      </c>
+      <c r="AM208">
+        <v>9966</v>
+      </c>
+      <c r="AN208">
+        <v>2571</v>
+      </c>
+      <c r="AO208">
+        <v>47568</v>
+      </c>
+      <c r="AP208">
+        <v>1109</v>
+      </c>
+      <c r="AQ208">
+        <v>22858</v>
+      </c>
+      <c r="AR208">
+        <v>1530</v>
+      </c>
+      <c r="AS208">
+        <v>10537</v>
+      </c>
+      <c r="AT208">
+        <v>1674</v>
+      </c>
+      <c r="AU208">
+        <v>1607</v>
+      </c>
+      <c r="AV208">
+        <v>8477</v>
+      </c>
+      <c r="AW208">
+        <v>2030</v>
+      </c>
+      <c r="AX208">
+        <v>964</v>
+      </c>
+      <c r="AY208">
+        <v>2501</v>
+      </c>
+      <c r="AZ208">
+        <v>2688</v>
+      </c>
+      <c r="BA208">
+        <v>65132</v>
+      </c>
+      <c r="BB208">
+        <v>14189</v>
+      </c>
+      <c r="BC208">
+        <v>6660</v>
+      </c>
+      <c r="BD208">
+        <v>9881</v>
+      </c>
+      <c r="BE208">
+        <v>7286</v>
+      </c>
+      <c r="BF208">
+        <v>257</v>
+      </c>
+      <c r="BG208">
+        <v>1474</v>
+      </c>
+      <c r="BH208">
+        <v>2735</v>
+      </c>
+      <c r="BI208">
+        <v>744</v>
+      </c>
+      <c r="BJ208">
+        <v>2167</v>
+      </c>
+      <c r="BK208">
+        <v>9902</v>
+      </c>
+      <c r="BL208">
+        <v>9562</v>
+      </c>
+      <c r="BM208">
+        <v>10728</v>
+      </c>
+      <c r="BN208">
+        <v>14354</v>
+      </c>
+      <c r="BO208">
+        <v>1967</v>
+      </c>
+      <c r="BP208">
+        <v>904</v>
+      </c>
+      <c r="BQ208">
+        <v>14013</v>
+      </c>
+      <c r="BR208">
+        <v>11560</v>
+      </c>
+      <c r="BS208" s="4">
+        <v>13340</v>
+      </c>
+      <c r="BT208" s="4">
+        <v>3189</v>
+      </c>
+      <c r="BU208" s="4">
+        <v>2271</v>
+      </c>
+      <c r="BV208" s="4">
+        <v>6048</v>
+      </c>
+      <c r="BW208" s="4">
+        <v>4926</v>
+      </c>
+      <c r="BX208" s="4">
+        <v>2514</v>
+      </c>
+      <c r="BY208" s="4">
+        <v>6045</v>
+      </c>
+      <c r="BZ208" s="4">
+        <v>3811</v>
+      </c>
+      <c r="CA208" s="4">
+        <v>2249</v>
+      </c>
+      <c r="CB208" s="4">
+        <v>1207</v>
+      </c>
+      <c r="CC208" s="4">
+        <v>3051</v>
+      </c>
+      <c r="CD208" s="4">
+        <v>2244</v>
+      </c>
+      <c r="CE208" s="4">
+        <v>2043</v>
+      </c>
+      <c r="CF208" s="4">
+        <v>1876</v>
+      </c>
+      <c r="CG208" s="4">
+        <v>6596</v>
+      </c>
+      <c r="CH208" s="4">
+        <v>2226</v>
+      </c>
+      <c r="CI208" s="4">
+        <v>1491</v>
+      </c>
+      <c r="CJ208" s="4">
+        <v>1831</v>
+      </c>
+      <c r="CK208" s="4">
+        <v>2140</v>
+      </c>
+      <c r="CL208" s="4">
+        <v>2265</v>
+      </c>
+      <c r="CM208" s="4">
+        <v>2646</v>
+      </c>
+      <c r="CN208" s="4">
+        <v>1798</v>
+      </c>
+      <c r="CO208" s="4">
+        <v>1225</v>
+      </c>
+      <c r="CP208" s="4">
+        <v>1225</v>
+      </c>
+      <c r="CQ208" s="4">
+        <v>1082</v>
+      </c>
+      <c r="CR208" s="4">
+        <v>3460</v>
+      </c>
+      <c r="CS208" s="4">
+        <v>1506</v>
+      </c>
+      <c r="CT208" s="4">
+        <v>978</v>
+      </c>
+      <c r="CU208" s="4">
+        <v>1136</v>
+      </c>
+      <c r="CV208" s="4">
+        <v>1757</v>
+      </c>
+      <c r="CW208" s="4">
+        <v>1625</v>
+      </c>
+      <c r="CX208" s="4">
+        <v>814</v>
+      </c>
+      <c r="CY208" s="4">
+        <v>902</v>
+      </c>
+      <c r="CZ208" s="4">
+        <v>1361</v>
+      </c>
+      <c r="DA208" s="4">
+        <v>1697</v>
+      </c>
+      <c r="DB208" s="4">
+        <v>1610</v>
+      </c>
+      <c r="DC208" s="4">
+        <v>1646</v>
+      </c>
+      <c r="DD208" s="4">
+        <v>1260</v>
+      </c>
+      <c r="DE208" s="4">
+        <v>334</v>
+      </c>
+      <c r="DF208" s="4">
+        <v>371</v>
+      </c>
+      <c r="DG208" s="4">
+        <v>837</v>
+      </c>
+      <c r="DH208" s="4">
+        <v>779</v>
+      </c>
+      <c r="DI208" s="4">
+        <v>497</v>
+      </c>
+      <c r="DJ208" s="4">
+        <v>544</v>
+      </c>
+      <c r="DK208" s="4">
+        <v>386</v>
+      </c>
+      <c r="DL208" s="4">
+        <v>673</v>
+      </c>
+      <c r="DM208" s="4">
+        <v>760</v>
+      </c>
+      <c r="DN208" s="4">
+        <v>527</v>
+      </c>
+      <c r="DO208" s="4">
+        <v>507</v>
+      </c>
+      <c r="DP208" s="4">
+        <v>374</v>
+      </c>
+      <c r="DQ208" s="4">
+        <v>527</v>
+      </c>
+      <c r="DR208">
+        <v>138827</v>
+      </c>
+      <c r="DS208">
+        <v>345602</v>
+      </c>
+      <c r="DT208">
+        <v>20420</v>
+      </c>
+      <c r="DU208">
+        <v>150357</v>
+      </c>
+      <c r="DV208">
+        <v>93170</v>
+      </c>
+      <c r="DW208">
+        <v>46136</v>
+      </c>
+      <c r="DX208">
+        <v>13075</v>
       </c>
     </row>
   </sheetData>

--- a/CasosColombia.xlsx
+++ b/CasosColombia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Matlab\MATLAB_R2019a\fitVirusCV19_v07_v17\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E4916B7-9F13-47FC-A236-B57421DE5812}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3980C005-2EEC-4BE5-9A86-4DD41F8B1D5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7875" windowWidth="28800" windowHeight="7875" xr2:uid="{6C56C21C-B00B-4C62-A627-74DAE246E91A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6C56C21C-B00B-4C62-A627-74DAE246E91A}"/>
   </bookViews>
   <sheets>
     <sheet name="CasosColombia" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="130">
   <si>
     <t>Fecha</t>
   </si>
@@ -412,6 +412,9 @@
   </si>
   <si>
     <t>ColRisaralda</t>
+  </si>
+  <si>
+    <t>####</t>
   </si>
 </sst>
 </file>
@@ -1497,13 +1500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13133E2-69F7-478D-A001-FD6CB4FB0C80}">
-  <dimension ref="A1:DX208"/>
+  <dimension ref="A1:DX209"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="DG179" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="CY180" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="DR208" sqref="DR208:DX208"/>
+      <selection pane="bottomRight" activeCell="A209" sqref="A209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5975,8 +5978,8 @@
       <c r="BT12" s="10">
         <v>1</v>
       </c>
-      <c r="BU12" s="10">
-        <v>1</v>
+      <c r="BU12" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="BV12" s="4">
         <v>0</v>
@@ -15089,8 +15092,8 @@
       <c r="V36">
         <v>0</v>
       </c>
-      <c r="W36" s="4">
-        <v>1</v>
+      <c r="W36" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="X36">
         <v>0</v>
@@ -17791,8 +17794,8 @@
       <c r="V43">
         <v>0</v>
       </c>
-      <c r="W43" t="s">
-        <v>68</v>
+      <c r="W43">
+        <v>9</v>
       </c>
       <c r="X43">
         <v>0</v>
@@ -35299,8 +35302,8 @@
       <c r="BP88">
         <v>81</v>
       </c>
-      <c r="BQ88">
-        <v>188</v>
+      <c r="BQ88" t="s">
+        <v>68</v>
       </c>
       <c r="BR88">
         <v>6</v>
@@ -41601,8 +41604,8 @@
       <c r="DF104" s="4">
         <v>17</v>
       </c>
-      <c r="DG104" s="4">
-        <v>11</v>
+      <c r="DG104" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="DH104" s="4">
         <v>8</v>
@@ -45383,8 +45386,8 @@
       <c r="CF114" s="4">
         <v>47</v>
       </c>
-      <c r="CG114" s="4" t="s">
-        <v>68</v>
+      <c r="CG114" s="4">
+        <v>25</v>
       </c>
       <c r="CH114" s="4">
         <v>37</v>
@@ -45769,8 +45772,8 @@
       <c r="CF115" s="4">
         <v>52</v>
       </c>
-      <c r="CG115" s="4" t="s">
-        <v>68</v>
+      <c r="CG115" s="4">
+        <v>30</v>
       </c>
       <c r="CH115" s="4">
         <v>39</v>
@@ -47699,8 +47702,8 @@
       <c r="CF120" s="4">
         <v>61</v>
       </c>
-      <c r="CG120" s="4" t="s">
-        <v>68</v>
+      <c r="CG120" s="4">
+        <v>42</v>
       </c>
       <c r="CH120" s="4">
         <v>54</v>
@@ -48085,8 +48088,8 @@
       <c r="CF121" s="4">
         <v>64</v>
       </c>
-      <c r="CG121" s="4" t="s">
-        <v>68</v>
+      <c r="CG121" s="4">
+        <v>42</v>
       </c>
       <c r="CH121" s="4">
         <v>55</v>
@@ -50015,8 +50018,8 @@
       <c r="CF126" s="4">
         <v>77</v>
       </c>
-      <c r="CG126" s="4" t="s">
-        <v>68</v>
+      <c r="CG126" s="4">
+        <v>72</v>
       </c>
       <c r="CH126" s="4">
         <v>75</v>
@@ -50401,8 +50404,8 @@
       <c r="CF127" s="4">
         <v>81</v>
       </c>
-      <c r="CG127" s="4" t="s">
-        <v>68</v>
+      <c r="CG127" s="4">
+        <v>73</v>
       </c>
       <c r="CH127" s="4">
         <v>82</v>
@@ -51559,8 +51562,8 @@
       <c r="CF130" s="4">
         <v>91</v>
       </c>
-      <c r="CG130" s="10" t="s">
-        <v>68</v>
+      <c r="CG130" s="10">
+        <v>100</v>
       </c>
       <c r="CH130" s="4">
         <v>96</v>
@@ -53876,7 +53879,7 @@
         <v>131</v>
       </c>
       <c r="CG136" s="4">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="CH136" s="4">
         <v>137</v>
@@ -54262,7 +54265,7 @@
         <v>137</v>
       </c>
       <c r="CG137" s="4">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="CH137" s="4">
         <v>142</v>
@@ -55034,7 +55037,7 @@
         <v>145</v>
       </c>
       <c r="CG139" s="4">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="CH139" s="4">
         <v>153</v>
@@ -55420,7 +55423,7 @@
         <v>159</v>
       </c>
       <c r="CG140" s="4">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="CH140" s="4">
         <v>155</v>
@@ -55806,7 +55809,7 @@
         <v>165</v>
       </c>
       <c r="CG141" s="4">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="CH141" s="4">
         <v>167</v>
@@ -56192,7 +56195,7 @@
         <v>176</v>
       </c>
       <c r="CG142" s="4">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="CH142" s="4">
         <v>180</v>
@@ -56578,7 +56581,7 @@
         <v>182</v>
       </c>
       <c r="CG143" s="4">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="CH143" s="4">
         <v>203</v>
@@ -56964,7 +56967,7 @@
         <v>68</v>
       </c>
       <c r="CG144" s="4">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="CH144" s="4">
         <v>212</v>
@@ -57350,7 +57353,7 @@
         <v>211</v>
       </c>
       <c r="CG145" s="4">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="CH145" s="4">
         <v>218</v>
@@ -57580,7 +57583,7 @@
         <v>55</v>
       </c>
       <c r="AG146">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH146">
         <v>2</v>
@@ -57736,7 +57739,7 @@
         <v>223</v>
       </c>
       <c r="CG146" s="4">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="CH146" s="4">
         <v>243</v>
@@ -58122,7 +58125,7 @@
         <v>252</v>
       </c>
       <c r="CG147" s="4">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="CH147" s="4">
         <v>263</v>
@@ -58508,7 +58511,7 @@
         <v>267</v>
       </c>
       <c r="CG148" s="4">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="CH148" s="4">
         <v>279</v>
@@ -58894,7 +58897,7 @@
         <v>273</v>
       </c>
       <c r="CG149" s="4">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="CH149" s="4">
         <v>294</v>
@@ -59280,7 +59283,7 @@
         <v>293</v>
       </c>
       <c r="CG150" s="4">
-        <v>1023</v>
+        <v>1009</v>
       </c>
       <c r="CH150" s="4">
         <v>324</v>
@@ -59513,7 +59516,7 @@
         <v>14</v>
       </c>
       <c r="AH151">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI151">
         <v>95</v>
@@ -59666,7 +59669,7 @@
         <v>310</v>
       </c>
       <c r="CG151" s="4">
-        <v>1164</v>
+        <v>1150</v>
       </c>
       <c r="CH151" s="4">
         <v>338</v>
@@ -59899,7 +59902,7 @@
         <v>14</v>
       </c>
       <c r="AH152">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AI152">
         <v>98</v>
@@ -60052,7 +60055,7 @@
         <v>330</v>
       </c>
       <c r="CG152" s="4">
-        <v>1390</v>
+        <v>1310</v>
       </c>
       <c r="CH152" s="4">
         <v>354</v>
@@ -60285,7 +60288,7 @@
         <v>14</v>
       </c>
       <c r="AH153">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AI153">
         <v>98</v>
@@ -60438,7 +60441,7 @@
         <v>339</v>
       </c>
       <c r="CG153" s="4">
-        <v>1512</v>
+        <v>1432</v>
       </c>
       <c r="CH153" s="4">
         <v>378</v>
@@ -60824,7 +60827,7 @@
         <v>368</v>
       </c>
       <c r="CG154" s="4">
-        <v>1668</v>
+        <v>1581</v>
       </c>
       <c r="CH154" s="4">
         <v>404</v>
@@ -61057,7 +61060,7 @@
         <v>14</v>
       </c>
       <c r="AH155">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AI155">
         <v>108</v>
@@ -61210,7 +61213,7 @@
         <v>395</v>
       </c>
       <c r="CG155" s="4">
-        <v>1696</v>
+        <v>1609</v>
       </c>
       <c r="CH155" s="4">
         <v>451</v>
@@ -61440,7 +61443,7 @@
         <v>202</v>
       </c>
       <c r="AG156">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH156">
         <v>5</v>
@@ -61596,7 +61599,7 @@
         <v>404</v>
       </c>
       <c r="CG156" s="4">
-        <v>1867</v>
+        <v>1770</v>
       </c>
       <c r="CH156" s="4">
         <v>480</v>
@@ -61982,7 +61985,7 @@
         <v>434</v>
       </c>
       <c r="CG157" s="4">
-        <v>1958</v>
+        <v>1861</v>
       </c>
       <c r="CH157" s="4">
         <v>498</v>
@@ -62368,7 +62371,7 @@
         <v>445</v>
       </c>
       <c r="CG158" s="4">
-        <v>2251</v>
+        <v>2147</v>
       </c>
       <c r="CH158" s="4">
         <v>513</v>
@@ -62754,7 +62757,7 @@
         <v>464</v>
       </c>
       <c r="CG159" s="4">
-        <v>2332</v>
+        <v>2215</v>
       </c>
       <c r="CH159" s="4">
         <v>526</v>
@@ -62984,7 +62987,7 @@
         <v>380</v>
       </c>
       <c r="AG160">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AH160">
         <v>5</v>
@@ -63140,7 +63143,7 @@
         <v>476</v>
       </c>
       <c r="CG160" s="4">
-        <v>2472</v>
+        <v>2338</v>
       </c>
       <c r="CH160" s="4">
         <v>578</v>
@@ -63370,7 +63373,7 @@
         <v>382</v>
       </c>
       <c r="AG161">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AH161">
         <v>6</v>
@@ -63526,7 +63529,7 @@
         <v>492</v>
       </c>
       <c r="CG161" s="4">
-        <v>2609</v>
+        <v>2462</v>
       </c>
       <c r="CH161" s="4">
         <v>604</v>
@@ -63756,7 +63759,7 @@
         <v>421</v>
       </c>
       <c r="AG162">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AH162">
         <v>6</v>
@@ -63912,7 +63915,7 @@
         <v>505</v>
       </c>
       <c r="CG162" s="4">
-        <v>2687</v>
+        <v>2538</v>
       </c>
       <c r="CH162" s="4">
         <v>659</v>
@@ -64298,7 +64301,7 @@
         <v>538</v>
       </c>
       <c r="CG163" s="4">
-        <v>2840</v>
+        <v>2690</v>
       </c>
       <c r="CH163" s="4">
         <v>724</v>
@@ -64684,7 +64687,7 @@
         <v>552</v>
       </c>
       <c r="CG164" s="4">
-        <v>3013</v>
+        <v>2848</v>
       </c>
       <c r="CH164" s="4">
         <v>760</v>
@@ -64914,7 +64917,7 @@
         <v>432</v>
       </c>
       <c r="AG165">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH165">
         <v>6</v>
@@ -65070,7 +65073,7 @@
         <v>609</v>
       </c>
       <c r="CG165" s="4">
-        <v>3218</v>
+        <v>3033</v>
       </c>
       <c r="CH165" s="4">
         <v>789</v>
@@ -65300,7 +65303,7 @@
         <v>433</v>
       </c>
       <c r="AG166">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH166">
         <v>12</v>
@@ -65456,7 +65459,7 @@
         <v>624</v>
       </c>
       <c r="CG166" s="4">
-        <v>3324</v>
+        <v>3141</v>
       </c>
       <c r="CH166" s="4">
         <v>802</v>
@@ -65686,7 +65689,7 @@
         <v>434</v>
       </c>
       <c r="AG167">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH167">
         <v>14</v>
@@ -65842,7 +65845,7 @@
         <v>651</v>
       </c>
       <c r="CG167" s="4">
-        <v>3467</v>
+        <v>3274</v>
       </c>
       <c r="CH167" s="4">
         <v>862</v>
@@ -66072,7 +66075,7 @@
         <v>435</v>
       </c>
       <c r="AG168">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH168">
         <v>14</v>
@@ -66228,7 +66231,7 @@
         <v>670</v>
       </c>
       <c r="CG168" s="4">
-        <v>3650</v>
+        <v>3445</v>
       </c>
       <c r="CH168" s="4">
         <v>893</v>
@@ -66614,7 +66617,7 @@
         <v>696</v>
       </c>
       <c r="CG169" s="4">
-        <v>3724</v>
+        <v>3520</v>
       </c>
       <c r="CH169" s="4">
         <v>928</v>
@@ -67000,7 +67003,7 @@
         <v>720</v>
       </c>
       <c r="CG170" s="4">
-        <v>3866</v>
+        <v>3656</v>
       </c>
       <c r="CH170" s="4">
         <v>968</v>
@@ -67386,7 +67389,7 @@
         <v>744</v>
       </c>
       <c r="CG171" s="4">
-        <v>3929</v>
+        <v>3713</v>
       </c>
       <c r="CH171" s="4">
         <v>1013</v>
@@ -67772,7 +67775,7 @@
         <v>787</v>
       </c>
       <c r="CG172" s="4">
-        <v>4023</v>
+        <v>3806</v>
       </c>
       <c r="CH172" s="4">
         <v>1071</v>
@@ -68001,8 +68004,8 @@
       <c r="AF173">
         <v>440</v>
       </c>
-      <c r="AG173" t="s">
-        <v>68</v>
+      <c r="AG173">
+        <v>49</v>
       </c>
       <c r="AH173">
         <v>29</v>
@@ -68158,7 +68161,7 @@
         <v>829</v>
       </c>
       <c r="CG173" s="4">
-        <v>4224</v>
+        <v>3997</v>
       </c>
       <c r="CH173" s="4">
         <v>1117</v>
@@ -68544,7 +68547,7 @@
         <v>838</v>
       </c>
       <c r="CG174" s="4">
-        <v>4325</v>
+        <v>4088</v>
       </c>
       <c r="CH174" s="4">
         <v>1150</v>
@@ -68930,7 +68933,7 @@
         <v>851</v>
       </c>
       <c r="CG175" s="4">
-        <v>4348</v>
+        <v>4111</v>
       </c>
       <c r="CH175" s="4">
         <v>1187</v>
@@ -69316,7 +69319,7 @@
         <v>866</v>
       </c>
       <c r="CG176" s="4">
-        <v>4451</v>
+        <v>4214</v>
       </c>
       <c r="CH176" s="4">
         <v>1239</v>
@@ -69702,7 +69705,7 @@
         <v>896</v>
       </c>
       <c r="CG177" s="4">
-        <v>4559</v>
+        <v>4331</v>
       </c>
       <c r="CH177" s="4">
         <v>1289</v>
@@ -70088,7 +70091,7 @@
         <v>917</v>
       </c>
       <c r="CG178" s="4">
-        <v>4708</v>
+        <v>4467</v>
       </c>
       <c r="CH178" s="4">
         <v>1329</v>
@@ -70474,7 +70477,7 @@
         <v>941</v>
       </c>
       <c r="CG179" s="4">
-        <v>4815</v>
+        <v>4575</v>
       </c>
       <c r="CH179" s="4">
         <v>1362</v>
@@ -70860,7 +70863,7 @@
         <v>954</v>
       </c>
       <c r="CG180" s="4">
-        <v>4965</v>
+        <v>4724</v>
       </c>
       <c r="CH180" s="4">
         <v>1384</v>
@@ -71246,7 +71249,7 @@
         <v>967</v>
       </c>
       <c r="CG181" s="4">
-        <v>5041</v>
+        <v>4800</v>
       </c>
       <c r="CH181" s="4">
         <v>1468</v>
@@ -71632,7 +71635,7 @@
         <v>992</v>
       </c>
       <c r="CG182" s="4">
-        <v>5163</v>
+        <v>4920</v>
       </c>
       <c r="CH182" s="4">
         <v>1516</v>
@@ -72018,7 +72021,7 @@
         <v>1018</v>
       </c>
       <c r="CG183" s="4">
-        <v>5167</v>
+        <v>4924</v>
       </c>
       <c r="CH183" s="4">
         <v>1570</v>
@@ -72404,7 +72407,7 @@
         <v>1034</v>
       </c>
       <c r="CG184" s="4">
-        <v>5292</v>
+        <v>5048</v>
       </c>
       <c r="CH184" s="4">
         <v>1596</v>
@@ -72790,7 +72793,7 @@
         <v>1071</v>
       </c>
       <c r="CG185" s="4">
-        <v>5373</v>
+        <v>5115</v>
       </c>
       <c r="CH185" s="4">
         <v>1604</v>
@@ -73176,7 +73179,7 @@
         <v>1105</v>
       </c>
       <c r="CG186" s="4">
-        <v>5497</v>
+        <v>5238</v>
       </c>
       <c r="CH186" s="4">
         <v>1630</v>
@@ -73562,7 +73565,7 @@
         <v>1116</v>
       </c>
       <c r="CG187" s="4">
-        <v>5597</v>
+        <v>5322</v>
       </c>
       <c r="CH187" s="4">
         <v>1638</v>
@@ -73948,7 +73951,7 @@
         <v>1148</v>
       </c>
       <c r="CG188" s="4">
-        <v>5705</v>
+        <v>5428</v>
       </c>
       <c r="CH188" s="4">
         <v>1660</v>
@@ -74334,7 +74337,7 @@
         <v>1189</v>
       </c>
       <c r="CG189" s="4">
-        <v>5778</v>
+        <v>5492</v>
       </c>
       <c r="CH189" s="4">
         <v>1708</v>
@@ -74720,7 +74723,7 @@
         <v>1214</v>
       </c>
       <c r="CG190" s="4">
-        <v>5827</v>
+        <v>5541</v>
       </c>
       <c r="CH190" s="4">
         <v>1758</v>
@@ -75106,7 +75109,7 @@
         <v>1244</v>
       </c>
       <c r="CG191" s="4">
-        <v>5867</v>
+        <v>5580</v>
       </c>
       <c r="CH191" s="4">
         <v>1788</v>
@@ -75492,7 +75495,7 @@
         <v>1268</v>
       </c>
       <c r="CG192" s="4">
-        <v>5874</v>
+        <v>5587</v>
       </c>
       <c r="CH192" s="4">
         <v>1807</v>
@@ -75878,7 +75881,7 @@
         <v>1292</v>
       </c>
       <c r="CG193" s="4">
-        <v>5918</v>
+        <v>5631</v>
       </c>
       <c r="CH193" s="4">
         <v>1840</v>
@@ -76264,7 +76267,7 @@
         <v>1308</v>
       </c>
       <c r="CG194" s="4">
-        <v>5928</v>
+        <v>5641</v>
       </c>
       <c r="CH194" s="4">
         <v>1853</v>
@@ -76650,7 +76653,7 @@
         <v>1330</v>
       </c>
       <c r="CG195" s="4">
-        <v>5953</v>
+        <v>5666</v>
       </c>
       <c r="CH195" s="4">
         <v>1884</v>
@@ -77036,7 +77039,7 @@
         <v>1383</v>
       </c>
       <c r="CG196" s="4">
-        <v>5964</v>
+        <v>5677</v>
       </c>
       <c r="CH196" s="4">
         <v>1895</v>
@@ -77422,7 +77425,7 @@
         <v>1407</v>
       </c>
       <c r="CG197" s="4">
-        <v>5988</v>
+        <v>5701</v>
       </c>
       <c r="CH197" s="4">
         <v>1926</v>
@@ -77808,7 +77811,7 @@
         <v>1453</v>
       </c>
       <c r="CG198" s="4">
-        <v>6097</v>
+        <v>5810</v>
       </c>
       <c r="CH198" s="4">
         <v>1963</v>
@@ -81798,6 +81801,392 @@
       </c>
       <c r="DX208">
         <v>13075</v>
+      </c>
+    </row>
+    <row r="209" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>44103</v>
+      </c>
+      <c r="B209">
+        <v>824042</v>
+      </c>
+      <c r="C209">
+        <v>2742</v>
+      </c>
+      <c r="D209">
+        <v>113776</v>
+      </c>
+      <c r="E209">
+        <v>67496</v>
+      </c>
+      <c r="F209">
+        <v>267166</v>
+      </c>
+      <c r="G209">
+        <v>28810</v>
+      </c>
+      <c r="H209">
+        <v>7026</v>
+      </c>
+      <c r="I209">
+        <v>5867</v>
+      </c>
+      <c r="J209">
+        <v>8476</v>
+      </c>
+      <c r="K209">
+        <v>9403</v>
+      </c>
+      <c r="L209">
+        <v>19795</v>
+      </c>
+      <c r="M209">
+        <v>3996</v>
+      </c>
+      <c r="N209">
+        <v>23943</v>
+      </c>
+      <c r="O209">
+        <v>33105</v>
+      </c>
+      <c r="P209">
+        <v>8101</v>
+      </c>
+      <c r="Q209">
+        <v>11389</v>
+      </c>
+      <c r="R209">
+        <v>15320</v>
+      </c>
+      <c r="S209">
+        <v>15139</v>
+      </c>
+      <c r="T209">
+        <v>18321</v>
+      </c>
+      <c r="U209">
+        <v>15691</v>
+      </c>
+      <c r="V209">
+        <v>3771</v>
+      </c>
+      <c r="W209">
+        <v>3541</v>
+      </c>
+      <c r="X209">
+        <v>10906</v>
+      </c>
+      <c r="Y209">
+        <v>30927</v>
+      </c>
+      <c r="Z209">
+        <v>14071</v>
+      </c>
+      <c r="AA209">
+        <v>12227</v>
+      </c>
+      <c r="AB209">
+        <v>62119</v>
+      </c>
+      <c r="AC209">
+        <v>2354</v>
+      </c>
+      <c r="AD209">
+        <v>1424</v>
+      </c>
+      <c r="AE209">
+        <v>765</v>
+      </c>
+      <c r="AF209">
+        <v>476</v>
+      </c>
+      <c r="AG209">
+        <v>869</v>
+      </c>
+      <c r="AH209">
+        <v>527</v>
+      </c>
+      <c r="AI209">
+        <v>767</v>
+      </c>
+      <c r="AJ209">
+        <v>2069</v>
+      </c>
+      <c r="AK209">
+        <v>5869</v>
+      </c>
+      <c r="AL209">
+        <v>38137</v>
+      </c>
+      <c r="AM209" t="s">
+        <v>129</v>
+      </c>
+      <c r="AN209">
+        <v>2571</v>
+      </c>
+      <c r="AO209">
+        <v>47918</v>
+      </c>
+      <c r="AP209">
+        <v>1112</v>
+      </c>
+      <c r="AQ209">
+        <v>22973</v>
+      </c>
+      <c r="AR209">
+        <v>1534</v>
+      </c>
+      <c r="AS209">
+        <v>10591</v>
+      </c>
+      <c r="AT209">
+        <v>1679</v>
+      </c>
+      <c r="AU209">
+        <v>1609</v>
+      </c>
+      <c r="AV209">
+        <v>8552</v>
+      </c>
+      <c r="AW209">
+        <v>2035</v>
+      </c>
+      <c r="AX209">
+        <v>964</v>
+      </c>
+      <c r="AY209">
+        <v>2501</v>
+      </c>
+      <c r="AZ209">
+        <v>2692</v>
+      </c>
+      <c r="BA209">
+        <v>65868</v>
+      </c>
+      <c r="BB209">
+        <v>14211</v>
+      </c>
+      <c r="BC209">
+        <v>6789</v>
+      </c>
+      <c r="BD209">
+        <v>9933</v>
+      </c>
+      <c r="BE209">
+        <v>7338</v>
+      </c>
+      <c r="BF209">
+        <v>257</v>
+      </c>
+      <c r="BG209">
+        <v>1477</v>
+      </c>
+      <c r="BH209">
+        <v>2736</v>
+      </c>
+      <c r="BI209">
+        <v>744</v>
+      </c>
+      <c r="BJ209">
+        <v>2169</v>
+      </c>
+      <c r="BK209">
+        <v>9998</v>
+      </c>
+      <c r="BL209">
+        <v>9599</v>
+      </c>
+      <c r="BM209">
+        <v>10751</v>
+      </c>
+      <c r="BN209">
+        <v>14362</v>
+      </c>
+      <c r="BO209">
+        <v>1970</v>
+      </c>
+      <c r="BP209">
+        <v>907</v>
+      </c>
+      <c r="BQ209">
+        <v>14127</v>
+      </c>
+      <c r="BR209">
+        <v>11611</v>
+      </c>
+      <c r="BS209" s="4">
+        <v>13521</v>
+      </c>
+      <c r="BT209" s="4">
+        <v>3215</v>
+      </c>
+      <c r="BU209" s="4">
+        <v>2289</v>
+      </c>
+      <c r="BV209" s="4">
+        <v>6120</v>
+      </c>
+      <c r="BW209" s="4">
+        <v>4975</v>
+      </c>
+      <c r="BX209" s="4">
+        <v>2549</v>
+      </c>
+      <c r="BY209" s="4">
+        <v>6125</v>
+      </c>
+      <c r="BZ209" s="4">
+        <v>3856</v>
+      </c>
+      <c r="CA209" s="4">
+        <v>2259</v>
+      </c>
+      <c r="CB209" s="4">
+        <v>1248</v>
+      </c>
+      <c r="CC209" s="4">
+        <v>3081</v>
+      </c>
+      <c r="CD209" s="4">
+        <v>2249</v>
+      </c>
+      <c r="CE209" s="4">
+        <v>2079</v>
+      </c>
+      <c r="CF209" s="4">
+        <v>1912</v>
+      </c>
+      <c r="CG209" s="4">
+        <v>6605</v>
+      </c>
+      <c r="CH209" s="4">
+        <v>2259</v>
+      </c>
+      <c r="CI209" s="4">
+        <v>1505</v>
+      </c>
+      <c r="CJ209" s="4">
+        <v>1842</v>
+      </c>
+      <c r="CK209" s="4">
+        <v>2140</v>
+      </c>
+      <c r="CL209" s="4">
+        <v>2275</v>
+      </c>
+      <c r="CM209" s="4">
+        <v>2658</v>
+      </c>
+      <c r="CN209" s="4">
+        <v>1827</v>
+      </c>
+      <c r="CO209" s="4">
+        <v>1227</v>
+      </c>
+      <c r="CP209" s="4">
+        <v>1227</v>
+      </c>
+      <c r="CQ209" s="4">
+        <v>1091</v>
+      </c>
+      <c r="CR209" s="4">
+        <v>3471</v>
+      </c>
+      <c r="CS209" s="4">
+        <v>1507</v>
+      </c>
+      <c r="CT209" s="4">
+        <v>980</v>
+      </c>
+      <c r="CU209" s="4">
+        <v>1145</v>
+      </c>
+      <c r="CV209" s="4">
+        <v>1761</v>
+      </c>
+      <c r="CW209" s="4">
+        <v>1629</v>
+      </c>
+      <c r="CX209" s="4">
+        <v>815</v>
+      </c>
+      <c r="CY209" s="4">
+        <v>907</v>
+      </c>
+      <c r="CZ209" s="4">
+        <v>1373</v>
+      </c>
+      <c r="DA209" s="4">
+        <v>1713</v>
+      </c>
+      <c r="DB209" s="4">
+        <v>1677</v>
+      </c>
+      <c r="DC209" s="4">
+        <v>1657</v>
+      </c>
+      <c r="DD209" s="4">
+        <v>1271</v>
+      </c>
+      <c r="DE209" s="4">
+        <v>334</v>
+      </c>
+      <c r="DF209" s="4">
+        <v>372</v>
+      </c>
+      <c r="DG209" s="4">
+        <v>838</v>
+      </c>
+      <c r="DH209" s="4">
+        <v>786</v>
+      </c>
+      <c r="DI209" s="4">
+        <v>500</v>
+      </c>
+      <c r="DJ209" s="4">
+        <v>544</v>
+      </c>
+      <c r="DK209" s="4">
+        <v>389</v>
+      </c>
+      <c r="DL209" s="4">
+        <v>674</v>
+      </c>
+      <c r="DM209" s="4">
+        <v>760</v>
+      </c>
+      <c r="DN209" s="4">
+        <v>527</v>
+      </c>
+      <c r="DO209" s="4">
+        <v>507</v>
+      </c>
+      <c r="DP209" s="4">
+        <v>374</v>
+      </c>
+      <c r="DQ209" s="4">
+        <v>527</v>
+      </c>
+      <c r="DR209">
+        <v>139522</v>
+      </c>
+      <c r="DS209">
+        <v>347773</v>
+      </c>
+      <c r="DT209">
+        <v>20587</v>
+      </c>
+      <c r="DU209">
+        <v>151780</v>
+      </c>
+      <c r="DV209">
+        <v>93839</v>
+      </c>
+      <c r="DW209">
+        <v>46667</v>
+      </c>
+      <c r="DX209">
+        <v>13116</v>
       </c>
     </row>
   </sheetData>

--- a/CasosColombia.xlsx
+++ b/CasosColombia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Matlab\MATLAB_R2019a\fitVirusCV19_v07_v17\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3980C005-2EEC-4BE5-9A86-4DD41F8B1D5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{32D93F03-392C-4FCD-A592-20C69ACD367E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6C56C21C-B00B-4C62-A627-74DAE246E91A}"/>
+    <workbookView xWindow="0" yWindow="7875" windowWidth="28800" windowHeight="7875" xr2:uid="{6C56C21C-B00B-4C62-A627-74DAE246E91A}"/>
   </bookViews>
   <sheets>
     <sheet name="CasosColombia" sheetId="1" r:id="rId1"/>
@@ -1503,10 +1503,10 @@
   <dimension ref="A1:DX209"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="CY180" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B166" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A209" sqref="A209"/>
+      <selection pane="bottomRight" activeCell="B209" sqref="B209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/CasosColombia.xlsx
+++ b/CasosColombia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Matlab\MATLAB_R2019a\fitVirusCV19_v07_v17\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32D93F03-392C-4FCD-A592-20C69ACD367E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{53760243-4C88-4D97-951B-EF850D524586}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="7875" windowWidth="28800" windowHeight="7875" xr2:uid="{6C56C21C-B00B-4C62-A627-74DAE246E91A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="129">
   <si>
     <t>Fecha</t>
   </si>
@@ -412,9 +412,6 @@
   </si>
   <si>
     <t>ColRisaralda</t>
-  </si>
-  <si>
-    <t>####</t>
   </si>
 </sst>
 </file>
@@ -1506,7 +1503,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B166" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B209" sqref="B209"/>
+      <selection pane="bottomRight" activeCell="AM209" sqref="AM209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -81918,8 +81915,8 @@
       <c r="AL209">
         <v>38137</v>
       </c>
-      <c r="AM209" t="s">
-        <v>129</v>
+      <c r="AM209">
+        <v>10090</v>
       </c>
       <c r="AN209">
         <v>2571</v>

--- a/CasosColombia.xlsx
+++ b/CasosColombia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Matlab\MATLAB_R2019a\fitVirusCV19_v07_v17\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53760243-4C88-4D97-951B-EF850D524586}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{76AEAACF-65EE-4095-891E-0A49258E04AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7875" windowWidth="28800" windowHeight="7875" xr2:uid="{6C56C21C-B00B-4C62-A627-74DAE246E91A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6C56C21C-B00B-4C62-A627-74DAE246E91A}"/>
   </bookViews>
   <sheets>
     <sheet name="CasosColombia" sheetId="1" r:id="rId1"/>
@@ -1497,13 +1497,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13133E2-69F7-478D-A001-FD6CB4FB0C80}">
-  <dimension ref="A1:DX209"/>
+  <dimension ref="A1:DX214"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B166" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AM209" sqref="AM209"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -82186,6 +82186,1936 @@
         <v>13116</v>
       </c>
     </row>
+    <row r="210" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B210">
+        <v>829679</v>
+      </c>
+      <c r="C210">
+        <v>2744</v>
+      </c>
+      <c r="D210">
+        <v>114694</v>
+      </c>
+      <c r="E210">
+        <v>67554</v>
+      </c>
+      <c r="F210">
+        <v>269142</v>
+      </c>
+      <c r="G210">
+        <v>28879</v>
+      </c>
+      <c r="H210">
+        <v>7137</v>
+      </c>
+      <c r="I210">
+        <v>5947</v>
+      </c>
+      <c r="J210">
+        <v>8488</v>
+      </c>
+      <c r="K210">
+        <v>9490</v>
+      </c>
+      <c r="L210">
+        <v>20013</v>
+      </c>
+      <c r="M210">
+        <v>3997</v>
+      </c>
+      <c r="N210">
+        <v>23953</v>
+      </c>
+      <c r="O210">
+        <v>33306</v>
+      </c>
+      <c r="P210">
+        <v>8136</v>
+      </c>
+      <c r="Q210">
+        <v>11492</v>
+      </c>
+      <c r="R210">
+        <v>15339</v>
+      </c>
+      <c r="S210">
+        <v>15258</v>
+      </c>
+      <c r="T210">
+        <v>18420</v>
+      </c>
+      <c r="U210">
+        <v>15796</v>
+      </c>
+      <c r="V210">
+        <v>3790</v>
+      </c>
+      <c r="W210">
+        <v>3708</v>
+      </c>
+      <c r="X210">
+        <v>11002</v>
+      </c>
+      <c r="Y210">
+        <v>31229</v>
+      </c>
+      <c r="Z210">
+        <v>14081</v>
+      </c>
+      <c r="AA210">
+        <v>12297</v>
+      </c>
+      <c r="AB210">
+        <v>62704</v>
+      </c>
+      <c r="AC210">
+        <v>2439</v>
+      </c>
+      <c r="AD210">
+        <v>1478</v>
+      </c>
+      <c r="AE210">
+        <v>769</v>
+      </c>
+      <c r="AF210">
+        <v>477</v>
+      </c>
+      <c r="AG210">
+        <v>874</v>
+      </c>
+      <c r="AH210">
+        <v>529</v>
+      </c>
+      <c r="AI210">
+        <v>774</v>
+      </c>
+      <c r="AJ210">
+        <v>2071</v>
+      </c>
+      <c r="AK210">
+        <v>5921</v>
+      </c>
+      <c r="AL210">
+        <v>38163</v>
+      </c>
+      <c r="AM210">
+        <v>10181</v>
+      </c>
+      <c r="AN210">
+        <v>2574</v>
+      </c>
+      <c r="AO210">
+        <v>48345</v>
+      </c>
+      <c r="AP210">
+        <v>1116</v>
+      </c>
+      <c r="AQ210">
+        <v>23018</v>
+      </c>
+      <c r="AR210">
+        <v>1535</v>
+      </c>
+      <c r="AS210">
+        <v>10452</v>
+      </c>
+      <c r="AT210">
+        <v>1683</v>
+      </c>
+      <c r="AU210">
+        <v>1615</v>
+      </c>
+      <c r="AV210">
+        <v>8613</v>
+      </c>
+      <c r="AW210">
+        <v>2051</v>
+      </c>
+      <c r="AX210">
+        <v>965</v>
+      </c>
+      <c r="AY210">
+        <v>2503</v>
+      </c>
+      <c r="AZ210">
+        <v>2695</v>
+      </c>
+      <c r="BA210">
+        <v>66318</v>
+      </c>
+      <c r="BB210">
+        <v>14214</v>
+      </c>
+      <c r="BC210">
+        <v>6849</v>
+      </c>
+      <c r="BD210">
+        <v>9984</v>
+      </c>
+      <c r="BE210">
+        <v>7403</v>
+      </c>
+      <c r="BF210">
+        <v>257</v>
+      </c>
+      <c r="BG210">
+        <v>1465</v>
+      </c>
+      <c r="BH210">
+        <v>2737</v>
+      </c>
+      <c r="BI210">
+        <v>745</v>
+      </c>
+      <c r="BJ210">
+        <v>2169</v>
+      </c>
+      <c r="BK210">
+        <v>10001</v>
+      </c>
+      <c r="BL210">
+        <v>9601</v>
+      </c>
+      <c r="BM210">
+        <v>10761</v>
+      </c>
+      <c r="BN210">
+        <v>14381</v>
+      </c>
+      <c r="BO210">
+        <v>1972</v>
+      </c>
+      <c r="BP210">
+        <v>908</v>
+      </c>
+      <c r="BQ210">
+        <v>14241</v>
+      </c>
+      <c r="BR210">
+        <v>11666</v>
+      </c>
+      <c r="BS210" s="4">
+        <v>13633</v>
+      </c>
+      <c r="BT210" s="4">
+        <v>3274</v>
+      </c>
+      <c r="BU210" s="4">
+        <v>2305</v>
+      </c>
+      <c r="BV210" s="4">
+        <v>6198</v>
+      </c>
+      <c r="BW210" s="4">
+        <v>5025</v>
+      </c>
+      <c r="BX210" s="4">
+        <v>2632</v>
+      </c>
+      <c r="BY210" s="4">
+        <v>6230</v>
+      </c>
+      <c r="BZ210" s="4">
+        <v>3882</v>
+      </c>
+      <c r="CA210" s="4">
+        <v>2285</v>
+      </c>
+      <c r="CB210" s="4">
+        <v>1270</v>
+      </c>
+      <c r="CC210" s="4">
+        <v>3080</v>
+      </c>
+      <c r="CD210" s="4">
+        <v>2252</v>
+      </c>
+      <c r="CE210" s="4">
+        <v>2109</v>
+      </c>
+      <c r="CF210" s="4">
+        <v>1963</v>
+      </c>
+      <c r="CG210" s="4">
+        <v>6615</v>
+      </c>
+      <c r="CH210" s="4">
+        <v>2239</v>
+      </c>
+      <c r="CI210" s="4">
+        <v>1519</v>
+      </c>
+      <c r="CJ210" s="4">
+        <v>1850</v>
+      </c>
+      <c r="CK210" s="4">
+        <v>2151</v>
+      </c>
+      <c r="CL210" s="4">
+        <v>2308</v>
+      </c>
+      <c r="CM210" s="4">
+        <v>2682</v>
+      </c>
+      <c r="CN210" s="4">
+        <v>1838</v>
+      </c>
+      <c r="CO210" s="4">
+        <v>1231</v>
+      </c>
+      <c r="CP210" s="4">
+        <v>1231</v>
+      </c>
+      <c r="CQ210" s="4">
+        <v>1108</v>
+      </c>
+      <c r="CR210" s="4">
+        <v>3479</v>
+      </c>
+      <c r="CS210" s="4">
+        <v>1513</v>
+      </c>
+      <c r="CT210" s="4">
+        <v>980</v>
+      </c>
+      <c r="CU210" s="4">
+        <v>1156</v>
+      </c>
+      <c r="CV210" s="4">
+        <v>1761</v>
+      </c>
+      <c r="CW210" s="4">
+        <v>1637</v>
+      </c>
+      <c r="CX210" s="4">
+        <v>822</v>
+      </c>
+      <c r="CY210" s="4">
+        <v>918</v>
+      </c>
+      <c r="CZ210" s="4">
+        <v>1385</v>
+      </c>
+      <c r="DA210" s="4">
+        <v>1819</v>
+      </c>
+      <c r="DB210" s="4">
+        <v>1694</v>
+      </c>
+      <c r="DC210" s="4">
+        <v>1671</v>
+      </c>
+      <c r="DD210" s="4">
+        <v>1275</v>
+      </c>
+      <c r="DE210" s="4">
+        <v>334</v>
+      </c>
+      <c r="DF210" s="4">
+        <v>373</v>
+      </c>
+      <c r="DG210" s="4">
+        <v>840</v>
+      </c>
+      <c r="DH210" s="4">
+        <v>786</v>
+      </c>
+      <c r="DI210" s="4">
+        <v>502</v>
+      </c>
+      <c r="DJ210" s="4">
+        <v>544</v>
+      </c>
+      <c r="DK210" s="4">
+        <v>389</v>
+      </c>
+      <c r="DL210" s="4">
+        <v>686</v>
+      </c>
+      <c r="DM210" s="4">
+        <v>761</v>
+      </c>
+      <c r="DN210" s="4">
+        <v>530</v>
+      </c>
+      <c r="DO210" s="4">
+        <v>507</v>
+      </c>
+      <c r="DP210" s="4">
+        <v>374</v>
+      </c>
+      <c r="DQ210" s="4">
+        <v>527</v>
+      </c>
+      <c r="DR210">
+        <v>139921</v>
+      </c>
+      <c r="DS210">
+        <v>350353</v>
+      </c>
+      <c r="DT210">
+        <v>20930</v>
+      </c>
+      <c r="DU210">
+        <v>152718</v>
+      </c>
+      <c r="DV210">
+        <v>94611</v>
+      </c>
+      <c r="DW210">
+        <v>47074</v>
+      </c>
+      <c r="DX210">
+        <v>13152</v>
+      </c>
+    </row>
+    <row r="211" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>44105</v>
+      </c>
+      <c r="B211">
+        <v>835339</v>
+      </c>
+      <c r="C211">
+        <v>2744</v>
+      </c>
+      <c r="D211">
+        <v>115691</v>
+      </c>
+      <c r="E211">
+        <v>67664</v>
+      </c>
+      <c r="F211">
+        <v>270466</v>
+      </c>
+      <c r="G211">
+        <v>29137</v>
+      </c>
+      <c r="H211">
+        <v>7267</v>
+      </c>
+      <c r="I211">
+        <v>6042</v>
+      </c>
+      <c r="J211">
+        <v>8500</v>
+      </c>
+      <c r="K211">
+        <v>9623</v>
+      </c>
+      <c r="L211">
+        <v>20313</v>
+      </c>
+      <c r="M211">
+        <v>4003</v>
+      </c>
+      <c r="N211">
+        <v>24037</v>
+      </c>
+      <c r="O211">
+        <v>33496</v>
+      </c>
+      <c r="P211">
+        <v>8161</v>
+      </c>
+      <c r="Q211">
+        <v>11672</v>
+      </c>
+      <c r="R211">
+        <v>15384</v>
+      </c>
+      <c r="S211">
+        <v>15358</v>
+      </c>
+      <c r="T211">
+        <v>18531</v>
+      </c>
+      <c r="U211">
+        <v>16024</v>
+      </c>
+      <c r="V211">
+        <v>3803</v>
+      </c>
+      <c r="W211">
+        <v>3776</v>
+      </c>
+      <c r="X211">
+        <v>11137</v>
+      </c>
+      <c r="Y211">
+        <v>31510</v>
+      </c>
+      <c r="Z211">
+        <v>14115</v>
+      </c>
+      <c r="AA211">
+        <v>12395</v>
+      </c>
+      <c r="AB211">
+        <v>63267</v>
+      </c>
+      <c r="AC211">
+        <v>2458</v>
+      </c>
+      <c r="AD211">
+        <v>1478</v>
+      </c>
+      <c r="AE211">
+        <v>770</v>
+      </c>
+      <c r="AF211">
+        <v>478</v>
+      </c>
+      <c r="AG211">
+        <v>929</v>
+      </c>
+      <c r="AH211">
+        <v>533</v>
+      </c>
+      <c r="AI211">
+        <v>785</v>
+      </c>
+      <c r="AJ211">
+        <v>2076</v>
+      </c>
+      <c r="AK211">
+        <v>5966</v>
+      </c>
+      <c r="AL211">
+        <v>38231</v>
+      </c>
+      <c r="AM211">
+        <v>10280</v>
+      </c>
+      <c r="AN211">
+        <v>2578</v>
+      </c>
+      <c r="AO211">
+        <v>48737</v>
+      </c>
+      <c r="AP211">
+        <v>1121</v>
+      </c>
+      <c r="AQ211">
+        <v>23243</v>
+      </c>
+      <c r="AR211">
+        <v>1535</v>
+      </c>
+      <c r="AS211">
+        <v>10599</v>
+      </c>
+      <c r="AT211">
+        <v>1686</v>
+      </c>
+      <c r="AU211">
+        <v>1616</v>
+      </c>
+      <c r="AV211">
+        <v>8691</v>
+      </c>
+      <c r="AW211">
+        <v>2063</v>
+      </c>
+      <c r="AX211">
+        <v>966</v>
+      </c>
+      <c r="AY211">
+        <v>2503</v>
+      </c>
+      <c r="AZ211">
+        <v>2700</v>
+      </c>
+      <c r="BA211">
+        <v>66841</v>
+      </c>
+      <c r="BB211">
+        <v>14255</v>
+      </c>
+      <c r="BC211">
+        <v>6968</v>
+      </c>
+      <c r="BD211">
+        <v>10037</v>
+      </c>
+      <c r="BE211">
+        <v>7487</v>
+      </c>
+      <c r="BF211">
+        <v>257</v>
+      </c>
+      <c r="BG211">
+        <v>1467</v>
+      </c>
+      <c r="BH211">
+        <v>2743</v>
+      </c>
+      <c r="BI211">
+        <v>745</v>
+      </c>
+      <c r="BJ211">
+        <v>2177</v>
+      </c>
+      <c r="BK211">
+        <v>10028</v>
+      </c>
+      <c r="BL211">
+        <v>9604</v>
+      </c>
+      <c r="BM211">
+        <v>10791</v>
+      </c>
+      <c r="BN211">
+        <v>14395</v>
+      </c>
+      <c r="BO211">
+        <v>1975</v>
+      </c>
+      <c r="BP211">
+        <v>912</v>
+      </c>
+      <c r="BQ211">
+        <v>14337</v>
+      </c>
+      <c r="BR211">
+        <v>11699</v>
+      </c>
+      <c r="BS211" s="4">
+        <v>13735</v>
+      </c>
+      <c r="BT211" s="4">
+        <v>3327</v>
+      </c>
+      <c r="BU211" s="4">
+        <v>2329</v>
+      </c>
+      <c r="BV211" s="4">
+        <v>6283</v>
+      </c>
+      <c r="BW211" s="4">
+        <v>5077</v>
+      </c>
+      <c r="BX211" s="4">
+        <v>2676</v>
+      </c>
+      <c r="BY211" s="4">
+        <v>6275</v>
+      </c>
+      <c r="BZ211" s="4">
+        <v>3927</v>
+      </c>
+      <c r="CA211" s="4">
+        <v>2314</v>
+      </c>
+      <c r="CB211" s="4">
+        <v>1291</v>
+      </c>
+      <c r="CC211" s="4">
+        <v>3085</v>
+      </c>
+      <c r="CD211" s="4">
+        <v>2255</v>
+      </c>
+      <c r="CE211" s="4">
+        <v>2144</v>
+      </c>
+      <c r="CF211" s="4">
+        <v>2021</v>
+      </c>
+      <c r="CG211" s="4">
+        <v>6619</v>
+      </c>
+      <c r="CH211" s="4">
+        <v>2260</v>
+      </c>
+      <c r="CI211" s="4">
+        <v>1533</v>
+      </c>
+      <c r="CJ211" s="4">
+        <v>1868</v>
+      </c>
+      <c r="CK211" s="4">
+        <v>2154</v>
+      </c>
+      <c r="CL211" s="4">
+        <v>2324</v>
+      </c>
+      <c r="CM211" s="4">
+        <v>2698</v>
+      </c>
+      <c r="CN211" s="4">
+        <v>1869</v>
+      </c>
+      <c r="CO211" s="4">
+        <v>1231</v>
+      </c>
+      <c r="CP211" s="4">
+        <v>1233</v>
+      </c>
+      <c r="CQ211" s="4">
+        <v>1142</v>
+      </c>
+      <c r="CR211" s="4">
+        <v>3487</v>
+      </c>
+      <c r="CS211" s="4">
+        <v>1523</v>
+      </c>
+      <c r="CT211" s="4">
+        <v>985</v>
+      </c>
+      <c r="CU211" s="4">
+        <v>1183</v>
+      </c>
+      <c r="CV211" s="4">
+        <v>1767</v>
+      </c>
+      <c r="CW211" s="4">
+        <v>1644</v>
+      </c>
+      <c r="CX211" s="4">
+        <v>822</v>
+      </c>
+      <c r="CY211" s="4">
+        <v>922</v>
+      </c>
+      <c r="CZ211" s="4">
+        <v>1397</v>
+      </c>
+      <c r="DA211" s="4">
+        <v>1840</v>
+      </c>
+      <c r="DB211" s="4">
+        <v>1724</v>
+      </c>
+      <c r="DC211" s="4">
+        <v>1698</v>
+      </c>
+      <c r="DD211" s="4">
+        <v>1305</v>
+      </c>
+      <c r="DE211" s="4">
+        <v>335</v>
+      </c>
+      <c r="DF211" s="4">
+        <v>373</v>
+      </c>
+      <c r="DG211" s="4">
+        <v>841</v>
+      </c>
+      <c r="DH211" s="4">
+        <v>790</v>
+      </c>
+      <c r="DI211" s="4">
+        <v>509</v>
+      </c>
+      <c r="DJ211" s="4">
+        <v>544</v>
+      </c>
+      <c r="DK211" s="4">
+        <v>392</v>
+      </c>
+      <c r="DL211" s="4">
+        <v>698</v>
+      </c>
+      <c r="DM211" s="4">
+        <v>763</v>
+      </c>
+      <c r="DN211" s="4">
+        <v>532</v>
+      </c>
+      <c r="DO211" s="4">
+        <v>508</v>
+      </c>
+      <c r="DP211" s="4">
+        <v>374</v>
+      </c>
+      <c r="DQ211" s="4">
+        <v>527</v>
+      </c>
+      <c r="DR211">
+        <v>140659</v>
+      </c>
+      <c r="DS211">
+        <v>352375</v>
+      </c>
+      <c r="DT211">
+        <v>21228</v>
+      </c>
+      <c r="DU211">
+        <v>153833</v>
+      </c>
+      <c r="DV211">
+        <v>95424</v>
+      </c>
+      <c r="DW211">
+        <v>47583</v>
+      </c>
+      <c r="DX211">
+        <v>13232</v>
+      </c>
+    </row>
+    <row r="212" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>44106</v>
+      </c>
+      <c r="B212">
+        <v>841531</v>
+      </c>
+      <c r="C212">
+        <v>2744</v>
+      </c>
+      <c r="D212">
+        <v>116663</v>
+      </c>
+      <c r="E212">
+        <v>67748</v>
+      </c>
+      <c r="F212">
+        <v>271929</v>
+      </c>
+      <c r="G212">
+        <v>29305</v>
+      </c>
+      <c r="H212">
+        <v>7472</v>
+      </c>
+      <c r="I212">
+        <v>6144</v>
+      </c>
+      <c r="J212">
+        <v>8598</v>
+      </c>
+      <c r="K212">
+        <v>9724</v>
+      </c>
+      <c r="L212">
+        <v>20511</v>
+      </c>
+      <c r="M212">
+        <v>4023</v>
+      </c>
+      <c r="N212">
+        <v>24187</v>
+      </c>
+      <c r="O212">
+        <v>33840</v>
+      </c>
+      <c r="P212">
+        <v>8230</v>
+      </c>
+      <c r="Q212">
+        <v>11966</v>
+      </c>
+      <c r="R212">
+        <v>15470</v>
+      </c>
+      <c r="S212">
+        <v>15496</v>
+      </c>
+      <c r="T212">
+        <v>18602</v>
+      </c>
+      <c r="U212">
+        <v>16172</v>
+      </c>
+      <c r="V212">
+        <v>3822</v>
+      </c>
+      <c r="W212">
+        <v>3974</v>
+      </c>
+      <c r="X212">
+        <v>11294</v>
+      </c>
+      <c r="Y212">
+        <v>31727</v>
+      </c>
+      <c r="Z212">
+        <v>14127</v>
+      </c>
+      <c r="AA212">
+        <v>12505</v>
+      </c>
+      <c r="AB212">
+        <v>63784</v>
+      </c>
+      <c r="AC212">
+        <v>2512</v>
+      </c>
+      <c r="AD212">
+        <v>1497</v>
+      </c>
+      <c r="AE212">
+        <v>820</v>
+      </c>
+      <c r="AF212">
+        <v>479</v>
+      </c>
+      <c r="AG212">
+        <v>933</v>
+      </c>
+      <c r="AH212">
+        <v>533</v>
+      </c>
+      <c r="AI212">
+        <v>843</v>
+      </c>
+      <c r="AJ212">
+        <v>2078</v>
+      </c>
+      <c r="AK212">
+        <v>5999</v>
+      </c>
+      <c r="AL212">
+        <v>38287</v>
+      </c>
+      <c r="AM212">
+        <v>10351</v>
+      </c>
+      <c r="AN212">
+        <v>2579</v>
+      </c>
+      <c r="AO212">
+        <v>49096</v>
+      </c>
+      <c r="AP212">
+        <v>1125</v>
+      </c>
+      <c r="AQ212">
+        <v>23399</v>
+      </c>
+      <c r="AR212">
+        <v>1537</v>
+      </c>
+      <c r="AS212">
+        <v>10674</v>
+      </c>
+      <c r="AT212">
+        <v>1686</v>
+      </c>
+      <c r="AU212">
+        <v>1617</v>
+      </c>
+      <c r="AV212">
+        <v>8786</v>
+      </c>
+      <c r="AW212">
+        <v>2069</v>
+      </c>
+      <c r="AX212">
+        <v>966</v>
+      </c>
+      <c r="AY212">
+        <v>2503</v>
+      </c>
+      <c r="AZ212">
+        <v>2701</v>
+      </c>
+      <c r="BA212">
+        <v>67508</v>
+      </c>
+      <c r="BB212">
+        <v>14318</v>
+      </c>
+      <c r="BC212">
+        <v>7197</v>
+      </c>
+      <c r="BD212">
+        <v>10073</v>
+      </c>
+      <c r="BE212">
+        <v>7574</v>
+      </c>
+      <c r="BF212">
+        <v>257</v>
+      </c>
+      <c r="BG212">
+        <v>1468</v>
+      </c>
+      <c r="BH212">
+        <v>2757</v>
+      </c>
+      <c r="BI212">
+        <v>745</v>
+      </c>
+      <c r="BJ212">
+        <v>2180</v>
+      </c>
+      <c r="BK212">
+        <v>10069</v>
+      </c>
+      <c r="BL212">
+        <v>9607</v>
+      </c>
+      <c r="BM212">
+        <v>10836</v>
+      </c>
+      <c r="BN212">
+        <v>14404</v>
+      </c>
+      <c r="BO212">
+        <v>1976</v>
+      </c>
+      <c r="BP212">
+        <v>912</v>
+      </c>
+      <c r="BQ212">
+        <v>14441</v>
+      </c>
+      <c r="BR212">
+        <v>11807</v>
+      </c>
+      <c r="BS212" s="4">
+        <v>13820</v>
+      </c>
+      <c r="BT212" s="4">
+        <v>3391</v>
+      </c>
+      <c r="BU212" s="4">
+        <v>2367</v>
+      </c>
+      <c r="BV212" s="4">
+        <v>6360</v>
+      </c>
+      <c r="BW212" s="4">
+        <v>5121</v>
+      </c>
+      <c r="BX212" s="4">
+        <v>2795</v>
+      </c>
+      <c r="BY212" s="4">
+        <v>6301</v>
+      </c>
+      <c r="BZ212" s="4">
+        <v>3963</v>
+      </c>
+      <c r="CA212" s="4">
+        <v>2364</v>
+      </c>
+      <c r="CB212" s="4">
+        <v>1310</v>
+      </c>
+      <c r="CC212" s="4">
+        <v>3099</v>
+      </c>
+      <c r="CD212" s="4">
+        <v>2271</v>
+      </c>
+      <c r="CE212" s="4">
+        <v>2163</v>
+      </c>
+      <c r="CF212" s="4">
+        <v>2071</v>
+      </c>
+      <c r="CG212" s="4">
+        <v>6688</v>
+      </c>
+      <c r="CH212" s="4">
+        <v>2285</v>
+      </c>
+      <c r="CI212" s="4">
+        <v>1544</v>
+      </c>
+      <c r="CJ212" s="4">
+        <v>1899</v>
+      </c>
+      <c r="CK212" s="4">
+        <v>2187</v>
+      </c>
+      <c r="CL212" s="4">
+        <v>2345</v>
+      </c>
+      <c r="CM212" s="4">
+        <v>2766</v>
+      </c>
+      <c r="CN212" s="4">
+        <v>1885</v>
+      </c>
+      <c r="CO212" s="4">
+        <v>1231</v>
+      </c>
+      <c r="CP212" s="4">
+        <v>1237</v>
+      </c>
+      <c r="CQ212" s="4">
+        <v>1156</v>
+      </c>
+      <c r="CR212" s="4">
+        <v>3494</v>
+      </c>
+      <c r="CS212" s="4">
+        <v>1542</v>
+      </c>
+      <c r="CT212" s="4">
+        <v>999</v>
+      </c>
+      <c r="CU212" s="4">
+        <v>1192</v>
+      </c>
+      <c r="CV212" s="4">
+        <v>1775</v>
+      </c>
+      <c r="CW212" s="4">
+        <v>1652</v>
+      </c>
+      <c r="CX212" s="4">
+        <v>823</v>
+      </c>
+      <c r="CY212" s="4">
+        <v>927</v>
+      </c>
+      <c r="CZ212" s="4">
+        <v>1410</v>
+      </c>
+      <c r="DA212" s="4">
+        <v>1857</v>
+      </c>
+      <c r="DB212" s="4">
+        <v>1742</v>
+      </c>
+      <c r="DC212" s="4">
+        <v>1713</v>
+      </c>
+      <c r="DD212" s="4">
+        <v>1314</v>
+      </c>
+      <c r="DE212" s="4">
+        <v>335</v>
+      </c>
+      <c r="DF212" s="4">
+        <v>373</v>
+      </c>
+      <c r="DG212" s="4">
+        <v>841</v>
+      </c>
+      <c r="DH212" s="4">
+        <v>792</v>
+      </c>
+      <c r="DI212" s="4">
+        <v>511</v>
+      </c>
+      <c r="DJ212" s="4">
+        <v>544</v>
+      </c>
+      <c r="DK212" s="4">
+        <v>392</v>
+      </c>
+      <c r="DL212" s="4">
+        <v>699</v>
+      </c>
+      <c r="DM212" s="4">
+        <v>765</v>
+      </c>
+      <c r="DN212" s="4">
+        <v>534</v>
+      </c>
+      <c r="DO212" s="4">
+        <v>514</v>
+      </c>
+      <c r="DP212" s="4">
+        <v>374</v>
+      </c>
+      <c r="DQ212" s="4">
+        <v>527</v>
+      </c>
+      <c r="DR212">
+        <v>141264</v>
+      </c>
+      <c r="DS212">
+        <v>354929</v>
+      </c>
+      <c r="DT212">
+        <v>21685</v>
+      </c>
+      <c r="DU212">
+        <v>154967</v>
+      </c>
+      <c r="DV212">
+        <v>96133</v>
+      </c>
+      <c r="DW212">
+        <v>47948</v>
+      </c>
+      <c r="DX212">
+        <v>13353</v>
+      </c>
+    </row>
+    <row r="213" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>44107</v>
+      </c>
+      <c r="B213">
+        <v>848147</v>
+      </c>
+      <c r="C213">
+        <v>2746</v>
+      </c>
+      <c r="D213">
+        <v>117695</v>
+      </c>
+      <c r="E213">
+        <v>67859</v>
+      </c>
+      <c r="F213">
+        <v>273481</v>
+      </c>
+      <c r="G213">
+        <v>29376</v>
+      </c>
+      <c r="H213">
+        <v>7589</v>
+      </c>
+      <c r="I213">
+        <v>6360</v>
+      </c>
+      <c r="J213">
+        <v>8730</v>
+      </c>
+      <c r="K213">
+        <v>9911</v>
+      </c>
+      <c r="L213">
+        <v>20720</v>
+      </c>
+      <c r="M213">
+        <v>4030</v>
+      </c>
+      <c r="N213">
+        <v>24291</v>
+      </c>
+      <c r="O213">
+        <v>34097</v>
+      </c>
+      <c r="P213">
+        <v>8280</v>
+      </c>
+      <c r="Q213">
+        <v>12249</v>
+      </c>
+      <c r="R213">
+        <v>15533</v>
+      </c>
+      <c r="S213">
+        <v>15631</v>
+      </c>
+      <c r="T213">
+        <v>18732</v>
+      </c>
+      <c r="U213">
+        <v>16305</v>
+      </c>
+      <c r="V213">
+        <v>3863</v>
+      </c>
+      <c r="W213">
+        <v>4113</v>
+      </c>
+      <c r="X213">
+        <v>11441</v>
+      </c>
+      <c r="Y213">
+        <v>32249</v>
+      </c>
+      <c r="Z213">
+        <v>14158</v>
+      </c>
+      <c r="AA213">
+        <v>12557</v>
+      </c>
+      <c r="AB213">
+        <v>64462</v>
+      </c>
+      <c r="AC213">
+        <v>2581</v>
+      </c>
+      <c r="AD213">
+        <v>1505</v>
+      </c>
+      <c r="AE213">
+        <v>836</v>
+      </c>
+      <c r="AF213">
+        <v>480</v>
+      </c>
+      <c r="AG213">
+        <v>950</v>
+      </c>
+      <c r="AH213">
+        <v>556</v>
+      </c>
+      <c r="AI213">
+        <v>857</v>
+      </c>
+      <c r="AJ213">
+        <v>2087</v>
+      </c>
+      <c r="AK213">
+        <v>6142</v>
+      </c>
+      <c r="AL213">
+        <v>38335</v>
+      </c>
+      <c r="AM213">
+        <v>10481</v>
+      </c>
+      <c r="AN213">
+        <v>2580</v>
+      </c>
+      <c r="AO213">
+        <v>49533</v>
+      </c>
+      <c r="AP213">
+        <v>1127</v>
+      </c>
+      <c r="AQ213">
+        <v>23442</v>
+      </c>
+      <c r="AR213">
+        <v>1539</v>
+      </c>
+      <c r="AS213">
+        <v>10731</v>
+      </c>
+      <c r="AT213">
+        <v>1688</v>
+      </c>
+      <c r="AU213">
+        <v>1618</v>
+      </c>
+      <c r="AV213">
+        <v>8825</v>
+      </c>
+      <c r="AW213">
+        <v>2075</v>
+      </c>
+      <c r="AX213">
+        <v>966</v>
+      </c>
+      <c r="AY213">
+        <v>2504</v>
+      </c>
+      <c r="AZ213">
+        <v>2705</v>
+      </c>
+      <c r="BA213">
+        <v>67987</v>
+      </c>
+      <c r="BB213">
+        <v>14372</v>
+      </c>
+      <c r="BC213">
+        <v>7379</v>
+      </c>
+      <c r="BD213">
+        <v>10160</v>
+      </c>
+      <c r="BE213">
+        <v>7657</v>
+      </c>
+      <c r="BF213">
+        <v>257</v>
+      </c>
+      <c r="BG213">
+        <v>1471</v>
+      </c>
+      <c r="BH213">
+        <v>2762</v>
+      </c>
+      <c r="BI213">
+        <v>746</v>
+      </c>
+      <c r="BJ213">
+        <v>2187</v>
+      </c>
+      <c r="BK213">
+        <v>10103</v>
+      </c>
+      <c r="BL213">
+        <v>9623</v>
+      </c>
+      <c r="BM213">
+        <v>10863</v>
+      </c>
+      <c r="BN213">
+        <v>14428</v>
+      </c>
+      <c r="BO213">
+        <v>1977</v>
+      </c>
+      <c r="BP213">
+        <v>913</v>
+      </c>
+      <c r="BQ213">
+        <v>14558</v>
+      </c>
+      <c r="BR213">
+        <v>11898</v>
+      </c>
+      <c r="BS213" s="4">
+        <v>13987</v>
+      </c>
+      <c r="BT213" s="4">
+        <v>3559</v>
+      </c>
+      <c r="BU213" s="4">
+        <v>2416</v>
+      </c>
+      <c r="BV213" s="4">
+        <v>6513</v>
+      </c>
+      <c r="BW213" s="4">
+        <v>5204</v>
+      </c>
+      <c r="BX213" s="4">
+        <v>2889</v>
+      </c>
+      <c r="BY213" s="4">
+        <v>6358</v>
+      </c>
+      <c r="BZ213" s="4">
+        <v>4033</v>
+      </c>
+      <c r="CA213" s="4">
+        <v>2418</v>
+      </c>
+      <c r="CB213" s="4">
+        <v>1339</v>
+      </c>
+      <c r="CC213" s="4">
+        <v>3106</v>
+      </c>
+      <c r="CD213" s="4">
+        <v>2273</v>
+      </c>
+      <c r="CE213" s="4">
+        <v>2206</v>
+      </c>
+      <c r="CF213" s="4">
+        <v>2102</v>
+      </c>
+      <c r="CG213" s="4">
+        <v>6766</v>
+      </c>
+      <c r="CH213" s="4">
+        <v>2335</v>
+      </c>
+      <c r="CI213" s="4">
+        <v>1552</v>
+      </c>
+      <c r="CJ213" s="4">
+        <v>1914</v>
+      </c>
+      <c r="CK213" s="4">
+        <v>2202</v>
+      </c>
+      <c r="CL213" s="4">
+        <v>2370</v>
+      </c>
+      <c r="CM213" s="4">
+        <v>2827</v>
+      </c>
+      <c r="CN213" s="4">
+        <v>1906</v>
+      </c>
+      <c r="CO213" s="4">
+        <v>1245</v>
+      </c>
+      <c r="CP213" s="4">
+        <v>1242</v>
+      </c>
+      <c r="CQ213" s="4">
+        <v>1198</v>
+      </c>
+      <c r="CR213" s="4">
+        <v>3511</v>
+      </c>
+      <c r="CS213" s="4">
+        <v>1552</v>
+      </c>
+      <c r="CT213" s="4">
+        <v>1007</v>
+      </c>
+      <c r="CU213" s="4">
+        <v>1227</v>
+      </c>
+      <c r="CV213" s="4">
+        <v>1785</v>
+      </c>
+      <c r="CW213" s="4">
+        <v>1660</v>
+      </c>
+      <c r="CX213" s="4">
+        <v>824</v>
+      </c>
+      <c r="CY213" s="4">
+        <v>947</v>
+      </c>
+      <c r="CZ213" s="4">
+        <v>1422</v>
+      </c>
+      <c r="DA213" s="4">
+        <v>1888</v>
+      </c>
+      <c r="DB213" s="4">
+        <v>1771</v>
+      </c>
+      <c r="DC213" s="4">
+        <v>1744</v>
+      </c>
+      <c r="DD213" s="4">
+        <v>1339</v>
+      </c>
+      <c r="DE213" s="4">
+        <v>337</v>
+      </c>
+      <c r="DF213" s="4">
+        <v>373</v>
+      </c>
+      <c r="DG213" s="4">
+        <v>841</v>
+      </c>
+      <c r="DH213" s="4">
+        <v>796</v>
+      </c>
+      <c r="DI213" s="4">
+        <v>518</v>
+      </c>
+      <c r="DJ213" s="4">
+        <v>544</v>
+      </c>
+      <c r="DK213" s="4">
+        <v>394</v>
+      </c>
+      <c r="DL213" s="4">
+        <v>702</v>
+      </c>
+      <c r="DM213" s="4">
+        <v>767</v>
+      </c>
+      <c r="DN213" s="4">
+        <v>534</v>
+      </c>
+      <c r="DO213" s="4">
+        <v>515</v>
+      </c>
+      <c r="DP213" s="4">
+        <v>374</v>
+      </c>
+      <c r="DQ213" s="4">
+        <v>527</v>
+      </c>
+      <c r="DR213">
+        <v>141768</v>
+      </c>
+      <c r="DS213">
+        <v>357325</v>
+      </c>
+      <c r="DT213">
+        <v>22187</v>
+      </c>
+      <c r="DU213">
+        <v>156134</v>
+      </c>
+      <c r="DV213">
+        <v>97135</v>
+      </c>
+      <c r="DW213">
+        <v>48603</v>
+      </c>
+      <c r="DX213">
+        <v>13543</v>
+      </c>
+    </row>
+    <row r="214" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>44108</v>
+      </c>
+      <c r="B214">
+        <v>855052</v>
+      </c>
+      <c r="C214">
+        <v>2747</v>
+      </c>
+      <c r="D214">
+        <v>119806</v>
+      </c>
+      <c r="E214">
+        <v>67998</v>
+      </c>
+      <c r="F214">
+        <v>274829</v>
+      </c>
+      <c r="G214">
+        <v>29458</v>
+      </c>
+      <c r="H214">
+        <v>7745</v>
+      </c>
+      <c r="I214">
+        <v>6495</v>
+      </c>
+      <c r="J214">
+        <v>8748</v>
+      </c>
+      <c r="K214">
+        <v>9982</v>
+      </c>
+      <c r="L214">
+        <v>20933</v>
+      </c>
+      <c r="M214">
+        <v>4036</v>
+      </c>
+      <c r="N214">
+        <v>24392</v>
+      </c>
+      <c r="O214">
+        <v>34335</v>
+      </c>
+      <c r="P214">
+        <v>8316</v>
+      </c>
+      <c r="Q214">
+        <v>12453</v>
+      </c>
+      <c r="R214">
+        <v>15573</v>
+      </c>
+      <c r="S214">
+        <v>15799</v>
+      </c>
+      <c r="T214">
+        <v>18851</v>
+      </c>
+      <c r="U214">
+        <v>16537</v>
+      </c>
+      <c r="V214">
+        <v>3869</v>
+      </c>
+      <c r="W214">
+        <v>4165</v>
+      </c>
+      <c r="X214">
+        <v>11566</v>
+      </c>
+      <c r="Y214">
+        <v>32537</v>
+      </c>
+      <c r="Z214">
+        <v>14197</v>
+      </c>
+      <c r="AA214">
+        <v>12765</v>
+      </c>
+      <c r="AB214">
+        <v>65053</v>
+      </c>
+      <c r="AC214">
+        <v>2637</v>
+      </c>
+      <c r="AD214">
+        <v>1506</v>
+      </c>
+      <c r="AE214">
+        <v>863</v>
+      </c>
+      <c r="AF214">
+        <v>481</v>
+      </c>
+      <c r="AG214">
+        <v>961</v>
+      </c>
+      <c r="AH214">
+        <v>559</v>
+      </c>
+      <c r="AI214">
+        <v>913</v>
+      </c>
+      <c r="AJ214">
+        <v>2095</v>
+      </c>
+      <c r="AK214">
+        <v>6188</v>
+      </c>
+      <c r="AL214">
+        <v>38422</v>
+      </c>
+      <c r="AM214">
+        <v>10718</v>
+      </c>
+      <c r="AN214">
+        <v>2585</v>
+      </c>
+      <c r="AO214">
+        <v>49951</v>
+      </c>
+      <c r="AP214">
+        <v>1127</v>
+      </c>
+      <c r="AQ214">
+        <v>23498</v>
+      </c>
+      <c r="AR214">
+        <v>1539</v>
+      </c>
+      <c r="AS214">
+        <v>10866</v>
+      </c>
+      <c r="AT214">
+        <v>1693</v>
+      </c>
+      <c r="AU214">
+        <v>1624</v>
+      </c>
+      <c r="AV214">
+        <v>8999</v>
+      </c>
+      <c r="AW214">
+        <v>2083</v>
+      </c>
+      <c r="AX214">
+        <v>968</v>
+      </c>
+      <c r="AY214">
+        <v>2505</v>
+      </c>
+      <c r="AZ214">
+        <v>2705</v>
+      </c>
+      <c r="BA214">
+        <v>69175</v>
+      </c>
+      <c r="BB214">
+        <v>14442</v>
+      </c>
+      <c r="BC214">
+        <v>7540</v>
+      </c>
+      <c r="BD214">
+        <v>10226</v>
+      </c>
+      <c r="BE214">
+        <v>7734</v>
+      </c>
+      <c r="BF214">
+        <v>257</v>
+      </c>
+      <c r="BG214">
+        <v>1472</v>
+      </c>
+      <c r="BH214">
+        <v>2763</v>
+      </c>
+      <c r="BI214">
+        <v>746</v>
+      </c>
+      <c r="BJ214">
+        <v>2200</v>
+      </c>
+      <c r="BK214">
+        <v>10134</v>
+      </c>
+      <c r="BL214">
+        <v>9639</v>
+      </c>
+      <c r="BM214">
+        <v>10911</v>
+      </c>
+      <c r="BN214">
+        <v>14442</v>
+      </c>
+      <c r="BO214">
+        <v>1977</v>
+      </c>
+      <c r="BP214">
+        <v>913</v>
+      </c>
+      <c r="BQ214">
+        <v>14713</v>
+      </c>
+      <c r="BR214">
+        <v>11995</v>
+      </c>
+      <c r="BS214" s="4">
+        <v>14113</v>
+      </c>
+      <c r="BT214" s="4">
+        <v>3637</v>
+      </c>
+      <c r="BU214" s="4">
+        <v>2438</v>
+      </c>
+      <c r="BV214" s="4">
+        <v>6563</v>
+      </c>
+      <c r="BW214" s="4">
+        <v>5240</v>
+      </c>
+      <c r="BX214" s="4">
+        <v>2925</v>
+      </c>
+      <c r="BY214" s="4">
+        <v>6517</v>
+      </c>
+      <c r="BZ214" s="4">
+        <v>4161</v>
+      </c>
+      <c r="CA214" s="4">
+        <v>2450</v>
+      </c>
+      <c r="CB214" s="4">
+        <v>1364</v>
+      </c>
+      <c r="CC214" s="4">
+        <v>3118</v>
+      </c>
+      <c r="CD214" s="4">
+        <v>2276</v>
+      </c>
+      <c r="CE214" s="4">
+        <v>2244</v>
+      </c>
+      <c r="CF214" s="4">
+        <v>2146</v>
+      </c>
+      <c r="CG214" s="4">
+        <v>6772</v>
+      </c>
+      <c r="CH214" s="4">
+        <v>2360</v>
+      </c>
+      <c r="CI214" s="4">
+        <v>1558</v>
+      </c>
+      <c r="CJ214" s="4">
+        <v>1932</v>
+      </c>
+      <c r="CK214" s="4">
+        <v>2209</v>
+      </c>
+      <c r="CL214" s="4">
+        <v>2384</v>
+      </c>
+      <c r="CM214" s="4">
+        <v>2882</v>
+      </c>
+      <c r="CN214" s="4">
+        <v>1953</v>
+      </c>
+      <c r="CO214" s="4">
+        <v>1246</v>
+      </c>
+      <c r="CP214" s="4">
+        <v>1247</v>
+      </c>
+      <c r="CQ214" s="4">
+        <v>1225</v>
+      </c>
+      <c r="CR214" s="4">
+        <v>3525</v>
+      </c>
+      <c r="CS214" s="4">
+        <v>1563</v>
+      </c>
+      <c r="CT214" s="4">
+        <v>1020</v>
+      </c>
+      <c r="CU214" s="4">
+        <v>1259</v>
+      </c>
+      <c r="CV214" s="4">
+        <v>1787</v>
+      </c>
+      <c r="CW214" s="4">
+        <v>1674</v>
+      </c>
+      <c r="CX214" s="4">
+        <v>824</v>
+      </c>
+      <c r="CY214" s="4">
+        <v>948</v>
+      </c>
+      <c r="CZ214" s="4">
+        <v>1432</v>
+      </c>
+      <c r="DA214" s="4">
+        <v>1918</v>
+      </c>
+      <c r="DB214" s="4">
+        <v>1841</v>
+      </c>
+      <c r="DC214" s="4">
+        <v>1781</v>
+      </c>
+      <c r="DD214" s="4">
+        <v>1366</v>
+      </c>
+      <c r="DE214" s="4">
+        <v>337</v>
+      </c>
+      <c r="DF214" s="4">
+        <v>373</v>
+      </c>
+      <c r="DG214" s="4">
+        <v>843</v>
+      </c>
+      <c r="DH214" s="4">
+        <v>798</v>
+      </c>
+      <c r="DI214" s="4">
+        <v>520</v>
+      </c>
+      <c r="DJ214" s="4">
+        <v>544</v>
+      </c>
+      <c r="DK214" s="4">
+        <v>397</v>
+      </c>
+      <c r="DL214" s="4">
+        <v>703</v>
+      </c>
+      <c r="DM214" s="4">
+        <v>767</v>
+      </c>
+      <c r="DN214" s="4">
+        <v>536</v>
+      </c>
+      <c r="DO214" s="4">
+        <v>516</v>
+      </c>
+      <c r="DP214" s="4">
+        <v>379</v>
+      </c>
+      <c r="DQ214" s="4">
+        <v>530</v>
+      </c>
+      <c r="DR214">
+        <v>142278</v>
+      </c>
+      <c r="DS214">
+        <v>359647</v>
+      </c>
+      <c r="DT214">
+        <v>22499</v>
+      </c>
+      <c r="DU214">
+        <v>158385</v>
+      </c>
+      <c r="DV214">
+        <v>97922</v>
+      </c>
+      <c r="DW214">
+        <v>49123</v>
+      </c>
+      <c r="DX214">
+        <v>13578</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId1"/>

--- a/CasosColombia.xlsx
+++ b/CasosColombia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Matlab\MATLAB_R2019a\fitVirusCV19_v07_v17\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{36838353-FDE3-4816-9F24-A32F72518E49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{747A1A8C-0D57-4494-ABDC-79605D1DB7FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6C56C21C-B00B-4C62-A627-74DAE246E91A}"/>
   </bookViews>
@@ -1500,7 +1500,7 @@
   <dimension ref="A1:DX209"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B184" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="CY184" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A209" sqref="A209"/>

--- a/CasosColombia.xlsx
+++ b/CasosColombia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Matlab\MATLAB_R2019a\fitVirusCV19_v07_v17\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{747A1A8C-0D57-4494-ABDC-79605D1DB7FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{1BC3087D-069A-429E-8DDB-ADFE6FED7602}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6C56C21C-B00B-4C62-A627-74DAE246E91A}"/>
   </bookViews>
@@ -1497,13 +1497,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13133E2-69F7-478D-A001-FD6CB4FB0C80}">
-  <dimension ref="A1:DX209"/>
+  <dimension ref="A1:DX210"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="CY184" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="CH175" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A209" sqref="A209"/>
+      <selection pane="bottomRight" activeCell="A210" sqref="A210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -82186,6 +82186,392 @@
         <v>13116</v>
       </c>
     </row>
+    <row r="210" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B210">
+        <v>829679</v>
+      </c>
+      <c r="C210">
+        <v>2744</v>
+      </c>
+      <c r="D210">
+        <v>114694</v>
+      </c>
+      <c r="E210">
+        <v>67554</v>
+      </c>
+      <c r="F210">
+        <v>269142</v>
+      </c>
+      <c r="G210">
+        <v>28879</v>
+      </c>
+      <c r="H210">
+        <v>7137</v>
+      </c>
+      <c r="I210">
+        <v>5947</v>
+      </c>
+      <c r="J210">
+        <v>8488</v>
+      </c>
+      <c r="K210">
+        <v>9490</v>
+      </c>
+      <c r="L210">
+        <v>20013</v>
+      </c>
+      <c r="M210">
+        <v>3997</v>
+      </c>
+      <c r="N210">
+        <v>23953</v>
+      </c>
+      <c r="O210">
+        <v>33306</v>
+      </c>
+      <c r="P210">
+        <v>8136</v>
+      </c>
+      <c r="Q210">
+        <v>11492</v>
+      </c>
+      <c r="R210">
+        <v>15339</v>
+      </c>
+      <c r="S210">
+        <v>15258</v>
+      </c>
+      <c r="T210">
+        <v>18420</v>
+      </c>
+      <c r="U210">
+        <v>15796</v>
+      </c>
+      <c r="V210">
+        <v>3790</v>
+      </c>
+      <c r="W210">
+        <v>3708</v>
+      </c>
+      <c r="X210">
+        <v>11002</v>
+      </c>
+      <c r="Y210">
+        <v>31229</v>
+      </c>
+      <c r="Z210">
+        <v>14081</v>
+      </c>
+      <c r="AA210">
+        <v>12384</v>
+      </c>
+      <c r="AB210">
+        <v>62704</v>
+      </c>
+      <c r="AC210">
+        <v>2439</v>
+      </c>
+      <c r="AD210">
+        <v>1478</v>
+      </c>
+      <c r="AE210">
+        <v>769</v>
+      </c>
+      <c r="AF210">
+        <v>477</v>
+      </c>
+      <c r="AG210">
+        <v>874</v>
+      </c>
+      <c r="AH210">
+        <v>529</v>
+      </c>
+      <c r="AI210">
+        <v>774</v>
+      </c>
+      <c r="AJ210">
+        <v>2071</v>
+      </c>
+      <c r="AK210">
+        <v>5921</v>
+      </c>
+      <c r="AL210">
+        <v>38163</v>
+      </c>
+      <c r="AM210">
+        <v>10181</v>
+      </c>
+      <c r="AN210">
+        <v>2574</v>
+      </c>
+      <c r="AO210">
+        <v>48345</v>
+      </c>
+      <c r="AP210">
+        <v>1164</v>
+      </c>
+      <c r="AQ210">
+        <v>23018</v>
+      </c>
+      <c r="AR210">
+        <v>1535</v>
+      </c>
+      <c r="AS210">
+        <v>10452</v>
+      </c>
+      <c r="AT210">
+        <v>1683</v>
+      </c>
+      <c r="AU210">
+        <v>1615</v>
+      </c>
+      <c r="AV210">
+        <v>8613</v>
+      </c>
+      <c r="AW210">
+        <v>2051</v>
+      </c>
+      <c r="AX210">
+        <v>965</v>
+      </c>
+      <c r="AY210">
+        <v>2503</v>
+      </c>
+      <c r="AZ210">
+        <v>2695</v>
+      </c>
+      <c r="BA210">
+        <v>66318</v>
+      </c>
+      <c r="BB210">
+        <v>14214</v>
+      </c>
+      <c r="BC210">
+        <v>6849</v>
+      </c>
+      <c r="BD210">
+        <v>9984</v>
+      </c>
+      <c r="BE210">
+        <v>7403</v>
+      </c>
+      <c r="BF210">
+        <v>257</v>
+      </c>
+      <c r="BG210">
+        <v>1465</v>
+      </c>
+      <c r="BH210">
+        <v>2737</v>
+      </c>
+      <c r="BI210">
+        <v>745</v>
+      </c>
+      <c r="BJ210">
+        <v>2169</v>
+      </c>
+      <c r="BK210">
+        <v>10001</v>
+      </c>
+      <c r="BL210">
+        <v>9601</v>
+      </c>
+      <c r="BM210">
+        <v>10761</v>
+      </c>
+      <c r="BN210">
+        <v>14381</v>
+      </c>
+      <c r="BO210">
+        <v>1972</v>
+      </c>
+      <c r="BP210">
+        <v>908</v>
+      </c>
+      <c r="BQ210">
+        <v>14241</v>
+      </c>
+      <c r="BR210">
+        <v>11666</v>
+      </c>
+      <c r="BS210" s="4">
+        <v>13633</v>
+      </c>
+      <c r="BT210" s="4">
+        <v>3274</v>
+      </c>
+      <c r="BU210" s="4">
+        <v>2305</v>
+      </c>
+      <c r="BV210" s="4">
+        <v>6198</v>
+      </c>
+      <c r="BW210" s="4">
+        <v>5025</v>
+      </c>
+      <c r="BX210" s="4">
+        <v>2632</v>
+      </c>
+      <c r="BY210" s="4">
+        <v>6230</v>
+      </c>
+      <c r="BZ210" s="4">
+        <v>3882</v>
+      </c>
+      <c r="CA210" s="4">
+        <v>2285</v>
+      </c>
+      <c r="CB210" s="4">
+        <v>1270</v>
+      </c>
+      <c r="CC210" s="4">
+        <v>3080</v>
+      </c>
+      <c r="CD210" s="4">
+        <v>2252</v>
+      </c>
+      <c r="CE210" s="4">
+        <v>2109</v>
+      </c>
+      <c r="CF210" s="4">
+        <v>1963</v>
+      </c>
+      <c r="CG210" s="4">
+        <v>6615</v>
+      </c>
+      <c r="CH210" s="4">
+        <v>2239</v>
+      </c>
+      <c r="CI210" s="4">
+        <v>1519</v>
+      </c>
+      <c r="CJ210" s="4">
+        <v>1850</v>
+      </c>
+      <c r="CK210" s="4">
+        <v>2151</v>
+      </c>
+      <c r="CL210" s="4">
+        <v>2308</v>
+      </c>
+      <c r="CM210" s="4">
+        <v>2682</v>
+      </c>
+      <c r="CN210" s="4">
+        <v>1838</v>
+      </c>
+      <c r="CO210" s="4">
+        <v>1231</v>
+      </c>
+      <c r="CP210" s="4">
+        <v>1231</v>
+      </c>
+      <c r="CQ210" s="4">
+        <v>1108</v>
+      </c>
+      <c r="CR210" s="4">
+        <v>3479</v>
+      </c>
+      <c r="CS210" s="4">
+        <v>1513</v>
+      </c>
+      <c r="CT210" s="4">
+        <v>980</v>
+      </c>
+      <c r="CU210" s="4">
+        <v>1156</v>
+      </c>
+      <c r="CV210" s="4">
+        <v>1761</v>
+      </c>
+      <c r="CW210" s="4">
+        <v>1637</v>
+      </c>
+      <c r="CX210" s="4">
+        <v>822</v>
+      </c>
+      <c r="CY210" s="4">
+        <v>918</v>
+      </c>
+      <c r="CZ210" s="4">
+        <v>1385</v>
+      </c>
+      <c r="DA210" s="4">
+        <v>1819</v>
+      </c>
+      <c r="DB210" s="4">
+        <v>1694</v>
+      </c>
+      <c r="DC210" s="4">
+        <v>1671</v>
+      </c>
+      <c r="DD210" s="4">
+        <v>1275</v>
+      </c>
+      <c r="DE210" s="4">
+        <v>334</v>
+      </c>
+      <c r="DF210" s="4">
+        <v>373</v>
+      </c>
+      <c r="DG210" s="4">
+        <v>840</v>
+      </c>
+      <c r="DH210" s="4">
+        <v>786</v>
+      </c>
+      <c r="DI210" s="4">
+        <v>502</v>
+      </c>
+      <c r="DJ210" s="4">
+        <v>544</v>
+      </c>
+      <c r="DK210" s="4">
+        <v>389</v>
+      </c>
+      <c r="DL210" s="4">
+        <v>686</v>
+      </c>
+      <c r="DM210" s="4">
+        <v>761</v>
+      </c>
+      <c r="DN210" s="4">
+        <v>530</v>
+      </c>
+      <c r="DO210" s="4">
+        <v>507</v>
+      </c>
+      <c r="DP210" s="4">
+        <v>374</v>
+      </c>
+      <c r="DQ210" s="4">
+        <v>527</v>
+      </c>
+      <c r="DR210">
+        <v>139921</v>
+      </c>
+      <c r="DS210">
+        <v>350353</v>
+      </c>
+      <c r="DT210">
+        <v>20930</v>
+      </c>
+      <c r="DU210">
+        <v>152718</v>
+      </c>
+      <c r="DV210">
+        <v>94611</v>
+      </c>
+      <c r="DW210">
+        <v>47074</v>
+      </c>
+      <c r="DX210">
+        <v>13152</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId1"/>

--- a/CasosColombia.xlsx
+++ b/CasosColombia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Matlab\MATLAB_R2019a\fitVirusCV19_v07_v17\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{1BC3087D-069A-429E-8DDB-ADFE6FED7602}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{07284A05-9278-48BF-9B59-EB83B6A692B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6C56C21C-B00B-4C62-A627-74DAE246E91A}"/>
   </bookViews>
@@ -1497,13 +1497,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13133E2-69F7-478D-A001-FD6CB4FB0C80}">
-  <dimension ref="A1:DX210"/>
+  <dimension ref="A1:DX211"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="CH175" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="CH177" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A210" sqref="A210"/>
+      <selection pane="bottomRight" activeCell="CH189" sqref="CH189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -82572,6 +82572,392 @@
         <v>13152</v>
       </c>
     </row>
+    <row r="211" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>44105</v>
+      </c>
+      <c r="B211">
+        <v>835339</v>
+      </c>
+      <c r="C211">
+        <v>2744</v>
+      </c>
+      <c r="D211">
+        <v>115691</v>
+      </c>
+      <c r="E211">
+        <v>67664</v>
+      </c>
+      <c r="F211">
+        <v>270466</v>
+      </c>
+      <c r="G211">
+        <v>29137</v>
+      </c>
+      <c r="H211">
+        <v>7267</v>
+      </c>
+      <c r="I211">
+        <v>6042</v>
+      </c>
+      <c r="J211">
+        <v>8500</v>
+      </c>
+      <c r="K211">
+        <v>9623</v>
+      </c>
+      <c r="L211">
+        <v>20313</v>
+      </c>
+      <c r="M211">
+        <v>4003</v>
+      </c>
+      <c r="N211">
+        <v>24037</v>
+      </c>
+      <c r="O211">
+        <v>33496</v>
+      </c>
+      <c r="P211">
+        <v>8161</v>
+      </c>
+      <c r="Q211">
+        <v>11672</v>
+      </c>
+      <c r="R211">
+        <v>15384</v>
+      </c>
+      <c r="S211">
+        <v>15358</v>
+      </c>
+      <c r="T211">
+        <v>18531</v>
+      </c>
+      <c r="U211">
+        <v>16024</v>
+      </c>
+      <c r="V211">
+        <v>3803</v>
+      </c>
+      <c r="W211">
+        <v>3776</v>
+      </c>
+      <c r="X211">
+        <v>11137</v>
+      </c>
+      <c r="Y211">
+        <v>31510</v>
+      </c>
+      <c r="Z211">
+        <v>14115</v>
+      </c>
+      <c r="AA211">
+        <v>12482</v>
+      </c>
+      <c r="AB211">
+        <v>63267</v>
+      </c>
+      <c r="AC211">
+        <v>2458</v>
+      </c>
+      <c r="AD211">
+        <v>1478</v>
+      </c>
+      <c r="AE211">
+        <v>770</v>
+      </c>
+      <c r="AF211">
+        <v>478</v>
+      </c>
+      <c r="AG211">
+        <v>929</v>
+      </c>
+      <c r="AH211">
+        <v>533</v>
+      </c>
+      <c r="AI211">
+        <v>785</v>
+      </c>
+      <c r="AJ211">
+        <v>2076</v>
+      </c>
+      <c r="AK211">
+        <v>5966</v>
+      </c>
+      <c r="AL211">
+        <v>38231</v>
+      </c>
+      <c r="AM211">
+        <v>10280</v>
+      </c>
+      <c r="AN211">
+        <v>2578</v>
+      </c>
+      <c r="AO211">
+        <v>48737</v>
+      </c>
+      <c r="AP211">
+        <v>1169</v>
+      </c>
+      <c r="AQ211">
+        <v>23243</v>
+      </c>
+      <c r="AR211">
+        <v>1535</v>
+      </c>
+      <c r="AS211">
+        <v>10599</v>
+      </c>
+      <c r="AT211">
+        <v>1686</v>
+      </c>
+      <c r="AU211">
+        <v>1616</v>
+      </c>
+      <c r="AV211">
+        <v>8691</v>
+      </c>
+      <c r="AW211">
+        <v>2063</v>
+      </c>
+      <c r="AX211">
+        <v>966</v>
+      </c>
+      <c r="AY211">
+        <v>2503</v>
+      </c>
+      <c r="AZ211">
+        <v>2700</v>
+      </c>
+      <c r="BA211">
+        <v>66841</v>
+      </c>
+      <c r="BB211">
+        <v>14255</v>
+      </c>
+      <c r="BC211">
+        <v>6968</v>
+      </c>
+      <c r="BD211">
+        <v>10037</v>
+      </c>
+      <c r="BE211">
+        <v>7487</v>
+      </c>
+      <c r="BF211">
+        <v>257</v>
+      </c>
+      <c r="BG211">
+        <v>1467</v>
+      </c>
+      <c r="BH211">
+        <v>2743</v>
+      </c>
+      <c r="BI211">
+        <v>745</v>
+      </c>
+      <c r="BJ211">
+        <v>2177</v>
+      </c>
+      <c r="BK211">
+        <v>10028</v>
+      </c>
+      <c r="BL211">
+        <v>9604</v>
+      </c>
+      <c r="BM211">
+        <v>10791</v>
+      </c>
+      <c r="BN211">
+        <v>14395</v>
+      </c>
+      <c r="BO211">
+        <v>1975</v>
+      </c>
+      <c r="BP211">
+        <v>912</v>
+      </c>
+      <c r="BQ211">
+        <v>14337</v>
+      </c>
+      <c r="BR211">
+        <v>11699</v>
+      </c>
+      <c r="BS211" s="4">
+        <v>13735</v>
+      </c>
+      <c r="BT211" s="4">
+        <v>3327</v>
+      </c>
+      <c r="BU211" s="4">
+        <v>2329</v>
+      </c>
+      <c r="BV211" s="4">
+        <v>6283</v>
+      </c>
+      <c r="BW211" s="4">
+        <v>5077</v>
+      </c>
+      <c r="BX211" s="4">
+        <v>2676</v>
+      </c>
+      <c r="BY211" s="4">
+        <v>6275</v>
+      </c>
+      <c r="BZ211" s="4">
+        <v>3927</v>
+      </c>
+      <c r="CA211" s="4">
+        <v>2314</v>
+      </c>
+      <c r="CB211" s="4">
+        <v>1291</v>
+      </c>
+      <c r="CC211" s="4">
+        <v>3085</v>
+      </c>
+      <c r="CD211" s="4">
+        <v>2255</v>
+      </c>
+      <c r="CE211" s="4">
+        <v>2144</v>
+      </c>
+      <c r="CF211" s="4">
+        <v>2021</v>
+      </c>
+      <c r="CG211" s="4">
+        <v>6619</v>
+      </c>
+      <c r="CH211" s="4">
+        <v>2260</v>
+      </c>
+      <c r="CI211" s="4">
+        <v>1533</v>
+      </c>
+      <c r="CJ211" s="4">
+        <v>1868</v>
+      </c>
+      <c r="CK211" s="4">
+        <v>2154</v>
+      </c>
+      <c r="CL211" s="4">
+        <v>2324</v>
+      </c>
+      <c r="CM211" s="4">
+        <v>2698</v>
+      </c>
+      <c r="CN211" s="4">
+        <v>1869</v>
+      </c>
+      <c r="CO211" s="4">
+        <v>1231</v>
+      </c>
+      <c r="CP211" s="4">
+        <v>1233</v>
+      </c>
+      <c r="CQ211" s="4">
+        <v>1142</v>
+      </c>
+      <c r="CR211" s="4">
+        <v>3487</v>
+      </c>
+      <c r="CS211" s="4">
+        <v>1523</v>
+      </c>
+      <c r="CT211" s="4">
+        <v>985</v>
+      </c>
+      <c r="CU211" s="4">
+        <v>1183</v>
+      </c>
+      <c r="CV211" s="4">
+        <v>1767</v>
+      </c>
+      <c r="CW211" s="4">
+        <v>1644</v>
+      </c>
+      <c r="CX211" s="4">
+        <v>822</v>
+      </c>
+      <c r="CY211" s="4">
+        <v>922</v>
+      </c>
+      <c r="CZ211" s="4">
+        <v>1397</v>
+      </c>
+      <c r="DA211" s="4">
+        <v>1840</v>
+      </c>
+      <c r="DB211" s="4">
+        <v>1724</v>
+      </c>
+      <c r="DC211" s="4">
+        <v>1698</v>
+      </c>
+      <c r="DD211" s="4">
+        <v>1305</v>
+      </c>
+      <c r="DE211" s="4">
+        <v>335</v>
+      </c>
+      <c r="DF211" s="4">
+        <v>373</v>
+      </c>
+      <c r="DG211" s="4">
+        <v>841</v>
+      </c>
+      <c r="DH211" s="4">
+        <v>790</v>
+      </c>
+      <c r="DI211" s="4">
+        <v>509</v>
+      </c>
+      <c r="DJ211" s="4">
+        <v>544</v>
+      </c>
+      <c r="DK211" s="4">
+        <v>392</v>
+      </c>
+      <c r="DL211" s="4">
+        <v>698</v>
+      </c>
+      <c r="DM211" s="4">
+        <v>763</v>
+      </c>
+      <c r="DN211" s="4">
+        <v>532</v>
+      </c>
+      <c r="DO211" s="4">
+        <v>508</v>
+      </c>
+      <c r="DP211" s="4">
+        <v>374</v>
+      </c>
+      <c r="DQ211" s="4">
+        <v>527</v>
+      </c>
+      <c r="DR211">
+        <v>140659</v>
+      </c>
+      <c r="DS211">
+        <v>352375</v>
+      </c>
+      <c r="DT211">
+        <v>21228</v>
+      </c>
+      <c r="DU211">
+        <v>153833</v>
+      </c>
+      <c r="DV211">
+        <v>95424</v>
+      </c>
+      <c r="DW211">
+        <v>47583</v>
+      </c>
+      <c r="DX211">
+        <v>13232</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId1"/>

--- a/CasosColombia.xlsx
+++ b/CasosColombia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Matlab\MATLAB_R2019a\fitVirusCV19_v07_v17\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07284A05-9278-48BF-9B59-EB83B6A692B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{6AEB5EB8-B63D-4B92-B47D-B648C833FA40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6C56C21C-B00B-4C62-A627-74DAE246E91A}"/>
   </bookViews>
@@ -1497,13 +1497,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13133E2-69F7-478D-A001-FD6CB4FB0C80}">
-  <dimension ref="A1:DX211"/>
+  <dimension ref="A1:DX212"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="CH177" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="CH189" sqref="CH189"/>
+      <selection pane="bottomRight" activeCell="CI202" sqref="CI202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -82958,6 +82958,392 @@
         <v>13232</v>
       </c>
     </row>
+    <row r="212" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>44106</v>
+      </c>
+      <c r="B212">
+        <v>841531</v>
+      </c>
+      <c r="C212">
+        <v>2744</v>
+      </c>
+      <c r="D212">
+        <v>116663</v>
+      </c>
+      <c r="E212">
+        <v>67748</v>
+      </c>
+      <c r="F212">
+        <v>271929</v>
+      </c>
+      <c r="G212">
+        <v>29305</v>
+      </c>
+      <c r="H212">
+        <v>7472</v>
+      </c>
+      <c r="I212">
+        <v>6144</v>
+      </c>
+      <c r="J212">
+        <v>8598</v>
+      </c>
+      <c r="K212">
+        <v>9724</v>
+      </c>
+      <c r="L212">
+        <v>20511</v>
+      </c>
+      <c r="M212">
+        <v>4023</v>
+      </c>
+      <c r="N212">
+        <v>24187</v>
+      </c>
+      <c r="O212">
+        <v>33840</v>
+      </c>
+      <c r="P212">
+        <v>8230</v>
+      </c>
+      <c r="Q212">
+        <v>11966</v>
+      </c>
+      <c r="R212">
+        <v>15470</v>
+      </c>
+      <c r="S212">
+        <v>15496</v>
+      </c>
+      <c r="T212">
+        <v>18602</v>
+      </c>
+      <c r="U212">
+        <v>16172</v>
+      </c>
+      <c r="V212">
+        <v>3822</v>
+      </c>
+      <c r="W212">
+        <v>3974</v>
+      </c>
+      <c r="X212">
+        <v>11294</v>
+      </c>
+      <c r="Y212">
+        <v>31727</v>
+      </c>
+      <c r="Z212">
+        <v>14127</v>
+      </c>
+      <c r="AA212">
+        <v>12592</v>
+      </c>
+      <c r="AB212">
+        <v>63784</v>
+      </c>
+      <c r="AC212">
+        <v>2512</v>
+      </c>
+      <c r="AD212">
+        <v>1497</v>
+      </c>
+      <c r="AE212">
+        <v>820</v>
+      </c>
+      <c r="AF212">
+        <v>479</v>
+      </c>
+      <c r="AG212">
+        <v>933</v>
+      </c>
+      <c r="AH212">
+        <v>533</v>
+      </c>
+      <c r="AI212">
+        <v>843</v>
+      </c>
+      <c r="AJ212">
+        <v>2078</v>
+      </c>
+      <c r="AK212">
+        <v>5999</v>
+      </c>
+      <c r="AL212">
+        <v>38287</v>
+      </c>
+      <c r="AM212">
+        <v>10351</v>
+      </c>
+      <c r="AN212">
+        <v>2579</v>
+      </c>
+      <c r="AO212">
+        <v>49096</v>
+      </c>
+      <c r="AP212">
+        <v>1173</v>
+      </c>
+      <c r="AQ212">
+        <v>23399</v>
+      </c>
+      <c r="AR212">
+        <v>1537</v>
+      </c>
+      <c r="AS212">
+        <v>10674</v>
+      </c>
+      <c r="AT212">
+        <v>1686</v>
+      </c>
+      <c r="AU212">
+        <v>1617</v>
+      </c>
+      <c r="AV212">
+        <v>8786</v>
+      </c>
+      <c r="AW212">
+        <v>2069</v>
+      </c>
+      <c r="AX212">
+        <v>966</v>
+      </c>
+      <c r="AY212">
+        <v>2503</v>
+      </c>
+      <c r="AZ212">
+        <v>2701</v>
+      </c>
+      <c r="BA212">
+        <v>67508</v>
+      </c>
+      <c r="BB212">
+        <v>14318</v>
+      </c>
+      <c r="BC212">
+        <v>7197</v>
+      </c>
+      <c r="BD212">
+        <v>10073</v>
+      </c>
+      <c r="BE212">
+        <v>7574</v>
+      </c>
+      <c r="BF212">
+        <v>257</v>
+      </c>
+      <c r="BG212">
+        <v>1468</v>
+      </c>
+      <c r="BH212">
+        <v>2757</v>
+      </c>
+      <c r="BI212">
+        <v>745</v>
+      </c>
+      <c r="BJ212">
+        <v>2180</v>
+      </c>
+      <c r="BK212">
+        <v>10069</v>
+      </c>
+      <c r="BL212">
+        <v>9607</v>
+      </c>
+      <c r="BM212">
+        <v>10836</v>
+      </c>
+      <c r="BN212">
+        <v>14404</v>
+      </c>
+      <c r="BO212">
+        <v>1976</v>
+      </c>
+      <c r="BP212">
+        <v>912</v>
+      </c>
+      <c r="BQ212">
+        <v>14441</v>
+      </c>
+      <c r="BR212">
+        <v>11807</v>
+      </c>
+      <c r="BS212" s="4">
+        <v>13820</v>
+      </c>
+      <c r="BT212" s="4">
+        <v>3391</v>
+      </c>
+      <c r="BU212" s="4">
+        <v>2367</v>
+      </c>
+      <c r="BV212" s="4">
+        <v>6360</v>
+      </c>
+      <c r="BW212" s="4">
+        <v>5121</v>
+      </c>
+      <c r="BX212" s="4">
+        <v>2795</v>
+      </c>
+      <c r="BY212" s="4">
+        <v>6301</v>
+      </c>
+      <c r="BZ212" s="4">
+        <v>3963</v>
+      </c>
+      <c r="CA212" s="4">
+        <v>2364</v>
+      </c>
+      <c r="CB212" s="4">
+        <v>1310</v>
+      </c>
+      <c r="CC212" s="4">
+        <v>3099</v>
+      </c>
+      <c r="CD212" s="4">
+        <v>2271</v>
+      </c>
+      <c r="CE212" s="4">
+        <v>2163</v>
+      </c>
+      <c r="CF212" s="4">
+        <v>2071</v>
+      </c>
+      <c r="CG212" s="4">
+        <v>6688</v>
+      </c>
+      <c r="CH212" s="4">
+        <v>2285</v>
+      </c>
+      <c r="CI212" s="4">
+        <v>1544</v>
+      </c>
+      <c r="CJ212" s="4">
+        <v>1899</v>
+      </c>
+      <c r="CK212" s="4">
+        <v>2187</v>
+      </c>
+      <c r="CL212" s="4">
+        <v>2345</v>
+      </c>
+      <c r="CM212" s="4">
+        <v>2766</v>
+      </c>
+      <c r="CN212" s="4">
+        <v>1885</v>
+      </c>
+      <c r="CO212" s="4">
+        <v>1231</v>
+      </c>
+      <c r="CP212" s="4">
+        <v>1237</v>
+      </c>
+      <c r="CQ212" s="4">
+        <v>1156</v>
+      </c>
+      <c r="CR212" s="4">
+        <v>3494</v>
+      </c>
+      <c r="CS212" s="4">
+        <v>1542</v>
+      </c>
+      <c r="CT212" s="4">
+        <v>999</v>
+      </c>
+      <c r="CU212" s="4">
+        <v>1192</v>
+      </c>
+      <c r="CV212" s="4">
+        <v>1775</v>
+      </c>
+      <c r="CW212" s="4">
+        <v>1652</v>
+      </c>
+      <c r="CX212" s="4">
+        <v>823</v>
+      </c>
+      <c r="CY212" s="4">
+        <v>927</v>
+      </c>
+      <c r="CZ212" s="4">
+        <v>1410</v>
+      </c>
+      <c r="DA212" s="4">
+        <v>1857</v>
+      </c>
+      <c r="DB212" s="4">
+        <v>1742</v>
+      </c>
+      <c r="DC212" s="4">
+        <v>1713</v>
+      </c>
+      <c r="DD212" s="4">
+        <v>1314</v>
+      </c>
+      <c r="DE212" s="4">
+        <v>335</v>
+      </c>
+      <c r="DF212" s="4">
+        <v>373</v>
+      </c>
+      <c r="DG212" s="4">
+        <v>841</v>
+      </c>
+      <c r="DH212" s="4">
+        <v>792</v>
+      </c>
+      <c r="DI212" s="4">
+        <v>511</v>
+      </c>
+      <c r="DJ212" s="4">
+        <v>544</v>
+      </c>
+      <c r="DK212" s="4">
+        <v>392</v>
+      </c>
+      <c r="DL212" s="4">
+        <v>699</v>
+      </c>
+      <c r="DM212" s="4">
+        <v>765</v>
+      </c>
+      <c r="DN212" s="4">
+        <v>534</v>
+      </c>
+      <c r="DO212" s="4">
+        <v>514</v>
+      </c>
+      <c r="DP212" s="4">
+        <v>374</v>
+      </c>
+      <c r="DQ212" s="4">
+        <v>527</v>
+      </c>
+      <c r="DR212">
+        <v>141264</v>
+      </c>
+      <c r="DS212">
+        <v>354929</v>
+      </c>
+      <c r="DT212">
+        <v>21685</v>
+      </c>
+      <c r="DU212">
+        <v>154967</v>
+      </c>
+      <c r="DV212">
+        <v>96133</v>
+      </c>
+      <c r="DW212">
+        <v>47948</v>
+      </c>
+      <c r="DX212">
+        <v>13353</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId1"/>

--- a/CasosColombia.xlsx
+++ b/CasosColombia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Matlab\MATLAB_R2019a\fitVirusCV19_v07_v17\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{6AEB5EB8-B63D-4B92-B47D-B648C833FA40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{20EB0315-2070-4F5A-8A1A-7AFB451D3DD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6C56C21C-B00B-4C62-A627-74DAE246E91A}"/>
   </bookViews>
@@ -1497,13 +1497,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13133E2-69F7-478D-A001-FD6CB4FB0C80}">
-  <dimension ref="A1:DX212"/>
+  <dimension ref="A1:DX213"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="CH177" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B181" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="CI202" sqref="CI202"/>
+      <selection pane="bottomRight" activeCell="A209" sqref="A209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -83344,6 +83344,392 @@
         <v>13353</v>
       </c>
     </row>
+    <row r="213" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>44107</v>
+      </c>
+      <c r="B213">
+        <v>848147</v>
+      </c>
+      <c r="C213">
+        <v>2746</v>
+      </c>
+      <c r="D213">
+        <v>117695</v>
+      </c>
+      <c r="E213">
+        <v>67859</v>
+      </c>
+      <c r="F213">
+        <v>273481</v>
+      </c>
+      <c r="G213">
+        <v>29376</v>
+      </c>
+      <c r="H213">
+        <v>7589</v>
+      </c>
+      <c r="I213">
+        <v>6360</v>
+      </c>
+      <c r="J213">
+        <v>8730</v>
+      </c>
+      <c r="K213">
+        <v>9911</v>
+      </c>
+      <c r="L213">
+        <v>20720</v>
+      </c>
+      <c r="M213">
+        <v>4030</v>
+      </c>
+      <c r="N213">
+        <v>24291</v>
+      </c>
+      <c r="O213">
+        <v>34097</v>
+      </c>
+      <c r="P213">
+        <v>8280</v>
+      </c>
+      <c r="Q213">
+        <v>12249</v>
+      </c>
+      <c r="R213">
+        <v>15533</v>
+      </c>
+      <c r="S213">
+        <v>15631</v>
+      </c>
+      <c r="T213">
+        <v>18732</v>
+      </c>
+      <c r="U213">
+        <v>16305</v>
+      </c>
+      <c r="V213">
+        <v>3863</v>
+      </c>
+      <c r="W213">
+        <v>4113</v>
+      </c>
+      <c r="X213">
+        <v>11441</v>
+      </c>
+      <c r="Y213">
+        <v>32249</v>
+      </c>
+      <c r="Z213">
+        <v>14158</v>
+      </c>
+      <c r="AA213">
+        <v>12644</v>
+      </c>
+      <c r="AB213">
+        <v>64462</v>
+      </c>
+      <c r="AC213">
+        <v>2581</v>
+      </c>
+      <c r="AD213">
+        <v>1505</v>
+      </c>
+      <c r="AE213">
+        <v>836</v>
+      </c>
+      <c r="AF213">
+        <v>480</v>
+      </c>
+      <c r="AG213">
+        <v>950</v>
+      </c>
+      <c r="AH213">
+        <v>556</v>
+      </c>
+      <c r="AI213">
+        <v>857</v>
+      </c>
+      <c r="AJ213">
+        <v>2087</v>
+      </c>
+      <c r="AK213">
+        <v>6142</v>
+      </c>
+      <c r="AL213">
+        <v>38335</v>
+      </c>
+      <c r="AM213">
+        <v>10481</v>
+      </c>
+      <c r="AN213">
+        <v>2580</v>
+      </c>
+      <c r="AO213">
+        <v>49533</v>
+      </c>
+      <c r="AP213">
+        <v>1175</v>
+      </c>
+      <c r="AQ213">
+        <v>23442</v>
+      </c>
+      <c r="AR213">
+        <v>1539</v>
+      </c>
+      <c r="AS213">
+        <v>10731</v>
+      </c>
+      <c r="AT213">
+        <v>1688</v>
+      </c>
+      <c r="AU213">
+        <v>1618</v>
+      </c>
+      <c r="AV213">
+        <v>8825</v>
+      </c>
+      <c r="AW213">
+        <v>2075</v>
+      </c>
+      <c r="AX213">
+        <v>966</v>
+      </c>
+      <c r="AY213">
+        <v>2504</v>
+      </c>
+      <c r="AZ213">
+        <v>2705</v>
+      </c>
+      <c r="BA213">
+        <v>67987</v>
+      </c>
+      <c r="BB213">
+        <v>14372</v>
+      </c>
+      <c r="BC213">
+        <v>7379</v>
+      </c>
+      <c r="BD213">
+        <v>10160</v>
+      </c>
+      <c r="BE213">
+        <v>7657</v>
+      </c>
+      <c r="BF213">
+        <v>257</v>
+      </c>
+      <c r="BG213">
+        <v>1471</v>
+      </c>
+      <c r="BH213">
+        <v>2762</v>
+      </c>
+      <c r="BI213">
+        <v>746</v>
+      </c>
+      <c r="BJ213">
+        <v>2187</v>
+      </c>
+      <c r="BK213">
+        <v>10103</v>
+      </c>
+      <c r="BL213">
+        <v>9623</v>
+      </c>
+      <c r="BM213">
+        <v>10863</v>
+      </c>
+      <c r="BN213">
+        <v>14428</v>
+      </c>
+      <c r="BO213">
+        <v>1977</v>
+      </c>
+      <c r="BP213">
+        <v>913</v>
+      </c>
+      <c r="BQ213">
+        <v>14558</v>
+      </c>
+      <c r="BR213">
+        <v>11898</v>
+      </c>
+      <c r="BS213" s="4">
+        <v>13987</v>
+      </c>
+      <c r="BT213" s="4">
+        <v>3559</v>
+      </c>
+      <c r="BU213" s="4">
+        <v>2416</v>
+      </c>
+      <c r="BV213" s="4">
+        <v>6513</v>
+      </c>
+      <c r="BW213" s="4">
+        <v>5204</v>
+      </c>
+      <c r="BX213" s="4">
+        <v>2889</v>
+      </c>
+      <c r="BY213" s="4">
+        <v>6358</v>
+      </c>
+      <c r="BZ213" s="4">
+        <v>4033</v>
+      </c>
+      <c r="CA213" s="4">
+        <v>2418</v>
+      </c>
+      <c r="CB213" s="4">
+        <v>1339</v>
+      </c>
+      <c r="CC213" s="4">
+        <v>3106</v>
+      </c>
+      <c r="CD213" s="4">
+        <v>2273</v>
+      </c>
+      <c r="CE213" s="4">
+        <v>2206</v>
+      </c>
+      <c r="CF213" s="4">
+        <v>2102</v>
+      </c>
+      <c r="CG213" s="4">
+        <v>6766</v>
+      </c>
+      <c r="CH213" s="4">
+        <v>2335</v>
+      </c>
+      <c r="CI213" s="4">
+        <v>1552</v>
+      </c>
+      <c r="CJ213" s="4">
+        <v>1914</v>
+      </c>
+      <c r="CK213" s="4">
+        <v>2202</v>
+      </c>
+      <c r="CL213" s="4">
+        <v>2370</v>
+      </c>
+      <c r="CM213" s="4">
+        <v>2827</v>
+      </c>
+      <c r="CN213" s="4">
+        <v>1906</v>
+      </c>
+      <c r="CO213" s="4">
+        <v>1245</v>
+      </c>
+      <c r="CP213" s="4">
+        <v>1242</v>
+      </c>
+      <c r="CQ213" s="4">
+        <v>1198</v>
+      </c>
+      <c r="CR213" s="4">
+        <v>3511</v>
+      </c>
+      <c r="CS213" s="4">
+        <v>1552</v>
+      </c>
+      <c r="CT213" s="4">
+        <v>1007</v>
+      </c>
+      <c r="CU213" s="4">
+        <v>1227</v>
+      </c>
+      <c r="CV213" s="4">
+        <v>1785</v>
+      </c>
+      <c r="CW213" s="4">
+        <v>1660</v>
+      </c>
+      <c r="CX213" s="4">
+        <v>824</v>
+      </c>
+      <c r="CY213" s="4">
+        <v>947</v>
+      </c>
+      <c r="CZ213" s="4">
+        <v>1422</v>
+      </c>
+      <c r="DA213" s="4">
+        <v>1888</v>
+      </c>
+      <c r="DB213" s="4">
+        <v>1771</v>
+      </c>
+      <c r="DC213" s="4">
+        <v>1744</v>
+      </c>
+      <c r="DD213" s="4">
+        <v>1339</v>
+      </c>
+      <c r="DE213" s="4">
+        <v>337</v>
+      </c>
+      <c r="DF213" s="4">
+        <v>373</v>
+      </c>
+      <c r="DG213" s="4">
+        <v>841</v>
+      </c>
+      <c r="DH213" s="4">
+        <v>796</v>
+      </c>
+      <c r="DI213" s="4">
+        <v>518</v>
+      </c>
+      <c r="DJ213" s="4">
+        <v>544</v>
+      </c>
+      <c r="DK213" s="4">
+        <v>394</v>
+      </c>
+      <c r="DL213" s="4">
+        <v>702</v>
+      </c>
+      <c r="DM213" s="4">
+        <v>767</v>
+      </c>
+      <c r="DN213" s="4">
+        <v>534</v>
+      </c>
+      <c r="DO213" s="4">
+        <v>515</v>
+      </c>
+      <c r="DP213" s="4">
+        <v>374</v>
+      </c>
+      <c r="DQ213" s="4">
+        <v>527</v>
+      </c>
+      <c r="DR213">
+        <v>141768</v>
+      </c>
+      <c r="DS213">
+        <v>357325</v>
+      </c>
+      <c r="DT213">
+        <v>22187</v>
+      </c>
+      <c r="DU213">
+        <v>156134</v>
+      </c>
+      <c r="DV213">
+        <v>97135</v>
+      </c>
+      <c r="DW213">
+        <v>48603</v>
+      </c>
+      <c r="DX213">
+        <v>13543</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId1"/>

--- a/CasosColombia.xlsx
+++ b/CasosColombia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Matlab\MATLAB_R2019a\fitVirusCV19_v07_v17\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20EB0315-2070-4F5A-8A1A-7AFB451D3DD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{34FCDC27-3AA1-4888-89DD-F58A12BB2D26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6C56C21C-B00B-4C62-A627-74DAE246E91A}"/>
   </bookViews>
@@ -1497,13 +1497,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13133E2-69F7-478D-A001-FD6CB4FB0C80}">
-  <dimension ref="A1:DX213"/>
+  <dimension ref="A1:DX220"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B181" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B192" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A209" sqref="A209"/>
+      <selection pane="bottomRight" activeCell="V206" sqref="V206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -83730,6 +83730,2708 @@
         <v>13543</v>
       </c>
     </row>
+    <row r="214" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>44108</v>
+      </c>
+      <c r="B214">
+        <v>855052</v>
+      </c>
+      <c r="C214">
+        <v>2747</v>
+      </c>
+      <c r="D214">
+        <v>119806</v>
+      </c>
+      <c r="E214">
+        <v>67998</v>
+      </c>
+      <c r="F214">
+        <v>274829</v>
+      </c>
+      <c r="G214">
+        <v>29458</v>
+      </c>
+      <c r="H214">
+        <v>7745</v>
+      </c>
+      <c r="I214">
+        <v>6495</v>
+      </c>
+      <c r="J214">
+        <v>8748</v>
+      </c>
+      <c r="K214">
+        <v>9982</v>
+      </c>
+      <c r="L214">
+        <v>20933</v>
+      </c>
+      <c r="M214">
+        <v>4036</v>
+      </c>
+      <c r="N214">
+        <v>24392</v>
+      </c>
+      <c r="O214">
+        <v>34335</v>
+      </c>
+      <c r="P214">
+        <v>8316</v>
+      </c>
+      <c r="Q214">
+        <v>12453</v>
+      </c>
+      <c r="R214">
+        <v>15573</v>
+      </c>
+      <c r="S214">
+        <v>15799</v>
+      </c>
+      <c r="T214">
+        <v>18851</v>
+      </c>
+      <c r="U214">
+        <v>16537</v>
+      </c>
+      <c r="V214">
+        <v>3869</v>
+      </c>
+      <c r="W214">
+        <v>4165</v>
+      </c>
+      <c r="X214">
+        <v>11566</v>
+      </c>
+      <c r="Y214">
+        <v>32537</v>
+      </c>
+      <c r="Z214">
+        <v>14197</v>
+      </c>
+      <c r="AA214">
+        <v>12852</v>
+      </c>
+      <c r="AB214">
+        <v>65053</v>
+      </c>
+      <c r="AC214">
+        <v>2637</v>
+      </c>
+      <c r="AD214">
+        <v>1506</v>
+      </c>
+      <c r="AE214">
+        <v>863</v>
+      </c>
+      <c r="AF214">
+        <v>481</v>
+      </c>
+      <c r="AG214">
+        <v>961</v>
+      </c>
+      <c r="AH214">
+        <v>559</v>
+      </c>
+      <c r="AI214">
+        <v>913</v>
+      </c>
+      <c r="AJ214">
+        <v>2095</v>
+      </c>
+      <c r="AK214">
+        <v>6188</v>
+      </c>
+      <c r="AL214">
+        <v>38422</v>
+      </c>
+      <c r="AM214">
+        <v>10718</v>
+      </c>
+      <c r="AN214">
+        <v>2585</v>
+      </c>
+      <c r="AO214">
+        <v>49951</v>
+      </c>
+      <c r="AP214">
+        <v>1175</v>
+      </c>
+      <c r="AQ214">
+        <v>23498</v>
+      </c>
+      <c r="AR214">
+        <v>1539</v>
+      </c>
+      <c r="AS214">
+        <v>10866</v>
+      </c>
+      <c r="AT214">
+        <v>1693</v>
+      </c>
+      <c r="AU214">
+        <v>1624</v>
+      </c>
+      <c r="AV214">
+        <v>8999</v>
+      </c>
+      <c r="AW214">
+        <v>2083</v>
+      </c>
+      <c r="AX214">
+        <v>968</v>
+      </c>
+      <c r="AY214">
+        <v>2505</v>
+      </c>
+      <c r="AZ214">
+        <v>2705</v>
+      </c>
+      <c r="BA214">
+        <v>69175</v>
+      </c>
+      <c r="BB214">
+        <v>14442</v>
+      </c>
+      <c r="BC214">
+        <v>7540</v>
+      </c>
+      <c r="BD214">
+        <v>10226</v>
+      </c>
+      <c r="BE214">
+        <v>7734</v>
+      </c>
+      <c r="BF214">
+        <v>257</v>
+      </c>
+      <c r="BG214">
+        <v>1472</v>
+      </c>
+      <c r="BH214">
+        <v>2763</v>
+      </c>
+      <c r="BI214">
+        <v>746</v>
+      </c>
+      <c r="BJ214">
+        <v>2200</v>
+      </c>
+      <c r="BK214">
+        <v>10134</v>
+      </c>
+      <c r="BL214">
+        <v>9639</v>
+      </c>
+      <c r="BM214">
+        <v>10911</v>
+      </c>
+      <c r="BN214">
+        <v>14442</v>
+      </c>
+      <c r="BO214">
+        <v>1977</v>
+      </c>
+      <c r="BP214">
+        <v>913</v>
+      </c>
+      <c r="BQ214">
+        <v>14713</v>
+      </c>
+      <c r="BR214">
+        <v>11995</v>
+      </c>
+      <c r="BS214" s="4">
+        <v>14113</v>
+      </c>
+      <c r="BT214" s="4">
+        <v>3637</v>
+      </c>
+      <c r="BU214" s="4">
+        <v>2438</v>
+      </c>
+      <c r="BV214" s="4">
+        <v>6563</v>
+      </c>
+      <c r="BW214" s="4">
+        <v>5240</v>
+      </c>
+      <c r="BX214" s="4">
+        <v>2925</v>
+      </c>
+      <c r="BY214" s="4">
+        <v>6517</v>
+      </c>
+      <c r="BZ214" s="4">
+        <v>4161</v>
+      </c>
+      <c r="CA214" s="4">
+        <v>2450</v>
+      </c>
+      <c r="CB214" s="4">
+        <v>1364</v>
+      </c>
+      <c r="CC214" s="4">
+        <v>3118</v>
+      </c>
+      <c r="CD214" s="4">
+        <v>2276</v>
+      </c>
+      <c r="CE214" s="4">
+        <v>2244</v>
+      </c>
+      <c r="CF214" s="4">
+        <v>2146</v>
+      </c>
+      <c r="CG214" s="4">
+        <v>6772</v>
+      </c>
+      <c r="CH214" s="4">
+        <v>2360</v>
+      </c>
+      <c r="CI214" s="4">
+        <v>1558</v>
+      </c>
+      <c r="CJ214" s="4">
+        <v>1932</v>
+      </c>
+      <c r="CK214" s="4">
+        <v>2209</v>
+      </c>
+      <c r="CL214" s="4">
+        <v>2384</v>
+      </c>
+      <c r="CM214" s="4">
+        <v>2882</v>
+      </c>
+      <c r="CN214" s="4">
+        <v>1953</v>
+      </c>
+      <c r="CO214" s="4">
+        <v>1246</v>
+      </c>
+      <c r="CP214" s="4">
+        <v>1247</v>
+      </c>
+      <c r="CQ214" s="4">
+        <v>1225</v>
+      </c>
+      <c r="CR214" s="4">
+        <v>3525</v>
+      </c>
+      <c r="CS214" s="4">
+        <v>1563</v>
+      </c>
+      <c r="CT214" s="4">
+        <v>1020</v>
+      </c>
+      <c r="CU214" s="4">
+        <v>1259</v>
+      </c>
+      <c r="CV214" s="4">
+        <v>1787</v>
+      </c>
+      <c r="CW214" s="4">
+        <v>1674</v>
+      </c>
+      <c r="CX214" s="4">
+        <v>824</v>
+      </c>
+      <c r="CY214" s="4">
+        <v>948</v>
+      </c>
+      <c r="CZ214" s="4">
+        <v>1432</v>
+      </c>
+      <c r="DA214" s="4">
+        <v>1918</v>
+      </c>
+      <c r="DB214" s="4">
+        <v>1841</v>
+      </c>
+      <c r="DC214" s="4">
+        <v>1781</v>
+      </c>
+      <c r="DD214" s="4">
+        <v>1366</v>
+      </c>
+      <c r="DE214" s="4">
+        <v>337</v>
+      </c>
+      <c r="DF214" s="4">
+        <v>373</v>
+      </c>
+      <c r="DG214" s="4">
+        <v>843</v>
+      </c>
+      <c r="DH214" s="4">
+        <v>798</v>
+      </c>
+      <c r="DI214" s="4">
+        <v>520</v>
+      </c>
+      <c r="DJ214" s="4">
+        <v>544</v>
+      </c>
+      <c r="DK214" s="4">
+        <v>397</v>
+      </c>
+      <c r="DL214" s="4">
+        <v>703</v>
+      </c>
+      <c r="DM214" s="4">
+        <v>767</v>
+      </c>
+      <c r="DN214" s="4">
+        <v>536</v>
+      </c>
+      <c r="DO214" s="4">
+        <v>516</v>
+      </c>
+      <c r="DP214" s="4">
+        <v>379</v>
+      </c>
+      <c r="DQ214" s="4">
+        <v>530</v>
+      </c>
+      <c r="DR214">
+        <v>142278</v>
+      </c>
+      <c r="DS214">
+        <v>359647</v>
+      </c>
+      <c r="DT214">
+        <v>22499</v>
+      </c>
+      <c r="DU214">
+        <v>158385</v>
+      </c>
+      <c r="DV214">
+        <v>97922</v>
+      </c>
+      <c r="DW214">
+        <v>49123</v>
+      </c>
+      <c r="DX214">
+        <v>13578</v>
+      </c>
+    </row>
+    <row r="215" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>44109</v>
+      </c>
+      <c r="B215">
+        <v>862158</v>
+      </c>
+      <c r="C215">
+        <v>2747</v>
+      </c>
+      <c r="D215">
+        <v>120122</v>
+      </c>
+      <c r="E215">
+        <v>68148</v>
+      </c>
+      <c r="F215">
+        <v>276840</v>
+      </c>
+      <c r="G215">
+        <v>29738</v>
+      </c>
+      <c r="H215">
+        <v>7928</v>
+      </c>
+      <c r="I215">
+        <v>6609</v>
+      </c>
+      <c r="J215">
+        <v>8946</v>
+      </c>
+      <c r="K215">
+        <v>10196</v>
+      </c>
+      <c r="L215">
+        <v>21231</v>
+      </c>
+      <c r="M215">
+        <v>4042</v>
+      </c>
+      <c r="N215">
+        <v>24478</v>
+      </c>
+      <c r="O215">
+        <v>34683</v>
+      </c>
+      <c r="P215">
+        <v>8431</v>
+      </c>
+      <c r="Q215">
+        <v>12784</v>
+      </c>
+      <c r="R215">
+        <v>15623</v>
+      </c>
+      <c r="S215">
+        <v>16203</v>
+      </c>
+      <c r="T215">
+        <v>18947</v>
+      </c>
+      <c r="U215">
+        <v>16677</v>
+      </c>
+      <c r="V215">
+        <v>3914</v>
+      </c>
+      <c r="W215">
+        <v>4342</v>
+      </c>
+      <c r="X215">
+        <v>11760</v>
+      </c>
+      <c r="Y215">
+        <v>32759</v>
+      </c>
+      <c r="Z215">
+        <v>14255</v>
+      </c>
+      <c r="AA215">
+        <v>13100</v>
+      </c>
+      <c r="AB215">
+        <v>65733</v>
+      </c>
+      <c r="AC215">
+        <v>2673</v>
+      </c>
+      <c r="AD215">
+        <v>1507</v>
+      </c>
+      <c r="AE215">
+        <v>863</v>
+      </c>
+      <c r="AF215">
+        <v>482</v>
+      </c>
+      <c r="AG215">
+        <v>963</v>
+      </c>
+      <c r="AH215">
+        <v>604</v>
+      </c>
+      <c r="AI215">
+        <v>949</v>
+      </c>
+      <c r="AJ215">
+        <v>2096</v>
+      </c>
+      <c r="AK215">
+        <v>6192</v>
+      </c>
+      <c r="AL215">
+        <v>38545</v>
+      </c>
+      <c r="AM215">
+        <v>10745</v>
+      </c>
+      <c r="AN215">
+        <v>2587</v>
+      </c>
+      <c r="AO215">
+        <v>50466</v>
+      </c>
+      <c r="AP215">
+        <v>1184</v>
+      </c>
+      <c r="AQ215">
+        <v>23729</v>
+      </c>
+      <c r="AR215">
+        <v>1539</v>
+      </c>
+      <c r="AS215">
+        <v>10978</v>
+      </c>
+      <c r="AT215">
+        <v>1695</v>
+      </c>
+      <c r="AU215">
+        <v>1625</v>
+      </c>
+      <c r="AV215">
+        <v>9219</v>
+      </c>
+      <c r="AW215">
+        <v>2088</v>
+      </c>
+      <c r="AX215">
+        <v>968</v>
+      </c>
+      <c r="AY215">
+        <v>2505</v>
+      </c>
+      <c r="AZ215">
+        <v>2706</v>
+      </c>
+      <c r="BA215">
+        <v>69333</v>
+      </c>
+      <c r="BB215">
+        <v>14484</v>
+      </c>
+      <c r="BC215">
+        <v>7781</v>
+      </c>
+      <c r="BD215">
+        <v>10255</v>
+      </c>
+      <c r="BE215">
+        <v>7889</v>
+      </c>
+      <c r="BF215">
+        <v>257</v>
+      </c>
+      <c r="BG215">
+        <v>1474</v>
+      </c>
+      <c r="BH215">
+        <v>2769</v>
+      </c>
+      <c r="BI215">
+        <v>747</v>
+      </c>
+      <c r="BJ215">
+        <v>2202</v>
+      </c>
+      <c r="BK215">
+        <v>10172</v>
+      </c>
+      <c r="BL215">
+        <v>9664</v>
+      </c>
+      <c r="BM215">
+        <v>11011</v>
+      </c>
+      <c r="BN215">
+        <v>14449</v>
+      </c>
+      <c r="BO215">
+        <v>1980</v>
+      </c>
+      <c r="BP215">
+        <v>917</v>
+      </c>
+      <c r="BQ215">
+        <v>14867</v>
+      </c>
+      <c r="BR215">
+        <v>12329</v>
+      </c>
+      <c r="BS215" s="4">
+        <v>14221</v>
+      </c>
+      <c r="BT215" s="4">
+        <v>3715</v>
+      </c>
+      <c r="BU215" s="4">
+        <v>2475</v>
+      </c>
+      <c r="BV215" s="4">
+        <v>6752</v>
+      </c>
+      <c r="BW215" s="4">
+        <v>5284</v>
+      </c>
+      <c r="BX215" s="4">
+        <v>3078</v>
+      </c>
+      <c r="BY215" s="4">
+        <v>6535</v>
+      </c>
+      <c r="BZ215" s="4">
+        <v>4174</v>
+      </c>
+      <c r="CA215" s="4">
+        <v>2467</v>
+      </c>
+      <c r="CB215" s="4">
+        <v>1389</v>
+      </c>
+      <c r="CC215" s="4">
+        <v>3168</v>
+      </c>
+      <c r="CD215" s="4">
+        <v>2295</v>
+      </c>
+      <c r="CE215" s="4">
+        <v>2268</v>
+      </c>
+      <c r="CF215" s="4">
+        <v>2236</v>
+      </c>
+      <c r="CG215" s="4">
+        <v>6923</v>
+      </c>
+      <c r="CH215" s="4">
+        <v>2384</v>
+      </c>
+      <c r="CI215" s="4">
+        <v>1573</v>
+      </c>
+      <c r="CJ215" s="4">
+        <v>1947</v>
+      </c>
+      <c r="CK215" s="4">
+        <v>2224</v>
+      </c>
+      <c r="CL215" s="4">
+        <v>2419</v>
+      </c>
+      <c r="CM215" s="4">
+        <v>2920</v>
+      </c>
+      <c r="CN215" s="4">
+        <v>1967</v>
+      </c>
+      <c r="CO215" s="4">
+        <v>1246</v>
+      </c>
+      <c r="CP215" s="4">
+        <v>1249</v>
+      </c>
+      <c r="CQ215" s="4">
+        <v>1236</v>
+      </c>
+      <c r="CR215" s="4">
+        <v>3529</v>
+      </c>
+      <c r="CS215" s="4">
+        <v>1578</v>
+      </c>
+      <c r="CT215" s="4">
+        <v>1034</v>
+      </c>
+      <c r="CU215" s="4">
+        <v>1280</v>
+      </c>
+      <c r="CV215" s="4">
+        <v>1794</v>
+      </c>
+      <c r="CW215" s="4">
+        <v>1687</v>
+      </c>
+      <c r="CX215" s="4">
+        <v>825</v>
+      </c>
+      <c r="CY215" s="4">
+        <v>956</v>
+      </c>
+      <c r="CZ215" s="4">
+        <v>1450</v>
+      </c>
+      <c r="DA215" s="4">
+        <v>1925</v>
+      </c>
+      <c r="DB215" s="4">
+        <v>1846</v>
+      </c>
+      <c r="DC215" s="4">
+        <v>1783</v>
+      </c>
+      <c r="DD215" s="4">
+        <v>1377</v>
+      </c>
+      <c r="DE215" s="4">
+        <v>338</v>
+      </c>
+      <c r="DF215" s="4">
+        <v>373</v>
+      </c>
+      <c r="DG215" s="4">
+        <v>850</v>
+      </c>
+      <c r="DH215" s="4">
+        <v>799</v>
+      </c>
+      <c r="DI215" s="4">
+        <v>522</v>
+      </c>
+      <c r="DJ215" s="4">
+        <v>544</v>
+      </c>
+      <c r="DK215" s="4">
+        <v>399</v>
+      </c>
+      <c r="DL215" s="4">
+        <v>705</v>
+      </c>
+      <c r="DM215" s="4">
+        <v>767</v>
+      </c>
+      <c r="DN215" s="4">
+        <v>538</v>
+      </c>
+      <c r="DO215" s="4">
+        <v>516</v>
+      </c>
+      <c r="DP215" s="4">
+        <v>384</v>
+      </c>
+      <c r="DQ215" s="4">
+        <v>530</v>
+      </c>
+      <c r="DR215">
+        <v>143171</v>
+      </c>
+      <c r="DS215">
+        <v>363172</v>
+      </c>
+      <c r="DT215">
+        <v>22984</v>
+      </c>
+      <c r="DU215">
+        <v>158845</v>
+      </c>
+      <c r="DV215">
+        <v>98918</v>
+      </c>
+      <c r="DW215">
+        <v>49485</v>
+      </c>
+      <c r="DX215">
+        <v>13823</v>
+      </c>
+    </row>
+    <row r="216" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>44110</v>
+      </c>
+      <c r="B216">
+        <v>869808</v>
+      </c>
+      <c r="C216">
+        <v>2747</v>
+      </c>
+      <c r="D216">
+        <v>121317</v>
+      </c>
+      <c r="E216">
+        <v>68288</v>
+      </c>
+      <c r="F216">
+        <v>279249</v>
+      </c>
+      <c r="G216">
+        <v>29988</v>
+      </c>
+      <c r="H216">
+        <v>8147</v>
+      </c>
+      <c r="I216">
+        <v>6771</v>
+      </c>
+      <c r="J216">
+        <v>9109</v>
+      </c>
+      <c r="K216">
+        <v>10371</v>
+      </c>
+      <c r="L216">
+        <v>21343</v>
+      </c>
+      <c r="M216">
+        <v>4045</v>
+      </c>
+      <c r="N216">
+        <v>24596</v>
+      </c>
+      <c r="O216">
+        <v>34883</v>
+      </c>
+      <c r="P216">
+        <v>8462</v>
+      </c>
+      <c r="Q216">
+        <v>13066</v>
+      </c>
+      <c r="R216">
+        <v>15639</v>
+      </c>
+      <c r="S216">
+        <v>16511</v>
+      </c>
+      <c r="T216">
+        <v>19067</v>
+      </c>
+      <c r="U216">
+        <v>16890</v>
+      </c>
+      <c r="V216">
+        <v>3935</v>
+      </c>
+      <c r="W216">
+        <v>4453</v>
+      </c>
+      <c r="X216">
+        <v>11921</v>
+      </c>
+      <c r="Y216">
+        <v>33094</v>
+      </c>
+      <c r="Z216">
+        <v>14271</v>
+      </c>
+      <c r="AA216">
+        <v>13297</v>
+      </c>
+      <c r="AB216">
+        <v>66245</v>
+      </c>
+      <c r="AC216">
+        <v>2746</v>
+      </c>
+      <c r="AD216">
+        <v>1542</v>
+      </c>
+      <c r="AE216">
+        <v>863</v>
+      </c>
+      <c r="AF216">
+        <v>483</v>
+      </c>
+      <c r="AG216">
+        <v>978</v>
+      </c>
+      <c r="AH216">
+        <v>606</v>
+      </c>
+      <c r="AI216">
+        <v>990</v>
+      </c>
+      <c r="AJ216">
+        <v>2099</v>
+      </c>
+      <c r="AK216">
+        <v>6303</v>
+      </c>
+      <c r="AL216">
+        <v>38642</v>
+      </c>
+      <c r="AM216">
+        <v>10841</v>
+      </c>
+      <c r="AN216">
+        <v>2588</v>
+      </c>
+      <c r="AO216">
+        <v>50827</v>
+      </c>
+      <c r="AP216">
+        <v>1186</v>
+      </c>
+      <c r="AQ216">
+        <v>23941</v>
+      </c>
+      <c r="AR216">
+        <v>1541</v>
+      </c>
+      <c r="AS216">
+        <v>11096</v>
+      </c>
+      <c r="AT216">
+        <v>1696</v>
+      </c>
+      <c r="AU216">
+        <v>1626</v>
+      </c>
+      <c r="AV216">
+        <v>9384</v>
+      </c>
+      <c r="AW216">
+        <v>2096</v>
+      </c>
+      <c r="AX216">
+        <v>968</v>
+      </c>
+      <c r="AY216">
+        <v>2505</v>
+      </c>
+      <c r="AZ216">
+        <v>2706</v>
+      </c>
+      <c r="BA216">
+        <v>70110</v>
+      </c>
+      <c r="BB216">
+        <v>14556</v>
+      </c>
+      <c r="BC216">
+        <v>7925</v>
+      </c>
+      <c r="BD216">
+        <v>10334</v>
+      </c>
+      <c r="BE216">
+        <v>7984</v>
+      </c>
+      <c r="BF216">
+        <v>258</v>
+      </c>
+      <c r="BG216">
+        <v>1480</v>
+      </c>
+      <c r="BH216">
+        <v>2772</v>
+      </c>
+      <c r="BI216">
+        <v>748</v>
+      </c>
+      <c r="BJ216">
+        <v>2214</v>
+      </c>
+      <c r="BK216">
+        <v>10179</v>
+      </c>
+      <c r="BL216">
+        <v>9670</v>
+      </c>
+      <c r="BM216">
+        <v>11055</v>
+      </c>
+      <c r="BN216">
+        <v>14461</v>
+      </c>
+      <c r="BO216">
+        <v>1981</v>
+      </c>
+      <c r="BP216">
+        <v>931</v>
+      </c>
+      <c r="BQ216">
+        <v>14922</v>
+      </c>
+      <c r="BR216">
+        <v>12499</v>
+      </c>
+      <c r="BS216" s="4">
+        <v>14336</v>
+      </c>
+      <c r="BT216" s="4">
+        <v>3822</v>
+      </c>
+      <c r="BU216" s="4">
+        <v>2498</v>
+      </c>
+      <c r="BV216" s="4">
+        <v>6884</v>
+      </c>
+      <c r="BW216" s="4">
+        <v>5305</v>
+      </c>
+      <c r="BX216" s="4">
+        <v>3167</v>
+      </c>
+      <c r="BY216" s="4">
+        <v>6576</v>
+      </c>
+      <c r="BZ216" s="4">
+        <v>4235</v>
+      </c>
+      <c r="CA216" s="4">
+        <v>2499</v>
+      </c>
+      <c r="CB216" s="4">
+        <v>1418</v>
+      </c>
+      <c r="CC216" s="4">
+        <v>3180</v>
+      </c>
+      <c r="CD216" s="4">
+        <v>2299</v>
+      </c>
+      <c r="CE216" s="4">
+        <v>2298</v>
+      </c>
+      <c r="CF216" s="4">
+        <v>2322</v>
+      </c>
+      <c r="CG216" s="4">
+        <v>7055</v>
+      </c>
+      <c r="CH216" s="4">
+        <v>2410</v>
+      </c>
+      <c r="CI216" s="4">
+        <v>1591</v>
+      </c>
+      <c r="CJ216" s="4">
+        <v>1958</v>
+      </c>
+      <c r="CK216" s="4">
+        <v>2231</v>
+      </c>
+      <c r="CL216" s="4">
+        <v>2447</v>
+      </c>
+      <c r="CM216" s="4">
+        <v>2930</v>
+      </c>
+      <c r="CN216" s="4">
+        <v>2013</v>
+      </c>
+      <c r="CO216" s="4">
+        <v>1255</v>
+      </c>
+      <c r="CP216" s="4">
+        <v>1251</v>
+      </c>
+      <c r="CQ216" s="4">
+        <v>1239</v>
+      </c>
+      <c r="CR216" s="4">
+        <v>3537</v>
+      </c>
+      <c r="CS216" s="4">
+        <v>1583</v>
+      </c>
+      <c r="CT216" s="4">
+        <v>1041</v>
+      </c>
+      <c r="CU216" s="4">
+        <v>1301</v>
+      </c>
+      <c r="CV216" s="4">
+        <v>1795</v>
+      </c>
+      <c r="CW216" s="4">
+        <v>1692</v>
+      </c>
+      <c r="CX216" s="4">
+        <v>825</v>
+      </c>
+      <c r="CY216" s="4">
+        <v>963</v>
+      </c>
+      <c r="CZ216" s="4">
+        <v>1465</v>
+      </c>
+      <c r="DA216" s="4">
+        <v>1946</v>
+      </c>
+      <c r="DB216" s="4">
+        <v>1867</v>
+      </c>
+      <c r="DC216" s="4">
+        <v>1803</v>
+      </c>
+      <c r="DD216" s="4">
+        <v>1394</v>
+      </c>
+      <c r="DE216" s="4">
+        <v>340</v>
+      </c>
+      <c r="DF216" s="4">
+        <v>373</v>
+      </c>
+      <c r="DG216" s="4">
+        <v>852</v>
+      </c>
+      <c r="DH216" s="4">
+        <v>799</v>
+      </c>
+      <c r="DI216" s="4">
+        <v>525</v>
+      </c>
+      <c r="DJ216" s="4">
+        <v>544</v>
+      </c>
+      <c r="DK216" s="4">
+        <v>399</v>
+      </c>
+      <c r="DL216" s="4">
+        <v>706</v>
+      </c>
+      <c r="DM216" s="4">
+        <v>769</v>
+      </c>
+      <c r="DN216" s="4">
+        <v>542</v>
+      </c>
+      <c r="DO216" s="4">
+        <v>516</v>
+      </c>
+      <c r="DP216" s="4">
+        <v>384</v>
+      </c>
+      <c r="DQ216" s="4">
+        <v>531</v>
+      </c>
+      <c r="DR216">
+        <v>143720</v>
+      </c>
+      <c r="DS216">
+        <v>366787</v>
+      </c>
+      <c r="DT216">
+        <v>23418</v>
+      </c>
+      <c r="DU216">
+        <v>160174</v>
+      </c>
+      <c r="DV216">
+        <v>99728</v>
+      </c>
+      <c r="DW216">
+        <v>50033</v>
+      </c>
+      <c r="DX216">
+        <v>14022</v>
+      </c>
+    </row>
+    <row r="217" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>44111</v>
+      </c>
+      <c r="B217">
+        <v>877683</v>
+      </c>
+      <c r="C217">
+        <v>2748</v>
+      </c>
+      <c r="D217">
+        <v>122397</v>
+      </c>
+      <c r="E217">
+        <v>68466</v>
+      </c>
+      <c r="F217">
+        <v>281535</v>
+      </c>
+      <c r="G217">
+        <v>30120</v>
+      </c>
+      <c r="H217">
+        <v>8310</v>
+      </c>
+      <c r="I217">
+        <v>6924</v>
+      </c>
+      <c r="J217">
+        <v>9258</v>
+      </c>
+      <c r="K217">
+        <v>10482</v>
+      </c>
+      <c r="L217">
+        <v>21593</v>
+      </c>
+      <c r="M217">
+        <v>4050</v>
+      </c>
+      <c r="N217">
+        <v>24687</v>
+      </c>
+      <c r="O217">
+        <v>35298</v>
+      </c>
+      <c r="P217">
+        <v>8560</v>
+      </c>
+      <c r="Q217">
+        <v>13317</v>
+      </c>
+      <c r="R217">
+        <v>15704</v>
+      </c>
+      <c r="S217">
+        <v>16746</v>
+      </c>
+      <c r="T217">
+        <v>19164</v>
+      </c>
+      <c r="U217">
+        <v>17077</v>
+      </c>
+      <c r="V217">
+        <v>3957</v>
+      </c>
+      <c r="W217">
+        <v>4749</v>
+      </c>
+      <c r="X217">
+        <v>12121</v>
+      </c>
+      <c r="Y217">
+        <v>33461</v>
+      </c>
+      <c r="Z217">
+        <v>14397</v>
+      </c>
+      <c r="AA217">
+        <v>13498</v>
+      </c>
+      <c r="AB217">
+        <v>66796</v>
+      </c>
+      <c r="AC217">
+        <v>2858</v>
+      </c>
+      <c r="AD217">
+        <v>1545</v>
+      </c>
+      <c r="AE217">
+        <v>869</v>
+      </c>
+      <c r="AF217">
+        <v>484</v>
+      </c>
+      <c r="AG217">
+        <v>992</v>
+      </c>
+      <c r="AH217">
+        <v>611</v>
+      </c>
+      <c r="AI217">
+        <v>1009</v>
+      </c>
+      <c r="AJ217">
+        <v>2106</v>
+      </c>
+      <c r="AK217">
+        <v>6369</v>
+      </c>
+      <c r="AL217">
+        <v>38750</v>
+      </c>
+      <c r="AM217">
+        <v>10962</v>
+      </c>
+      <c r="AN217">
+        <v>2595</v>
+      </c>
+      <c r="AO217">
+        <v>51216</v>
+      </c>
+      <c r="AP217">
+        <v>1187</v>
+      </c>
+      <c r="AQ217">
+        <v>24052</v>
+      </c>
+      <c r="AR217">
+        <v>1542</v>
+      </c>
+      <c r="AS217">
+        <v>11222</v>
+      </c>
+      <c r="AT217">
+        <v>1702</v>
+      </c>
+      <c r="AU217">
+        <v>1629</v>
+      </c>
+      <c r="AV217">
+        <v>9533</v>
+      </c>
+      <c r="AW217">
+        <v>2110</v>
+      </c>
+      <c r="AX217">
+        <v>969</v>
+      </c>
+      <c r="AY217">
+        <v>2506</v>
+      </c>
+      <c r="AZ217">
+        <v>2710</v>
+      </c>
+      <c r="BA217">
+        <v>70700</v>
+      </c>
+      <c r="BB217">
+        <v>14598</v>
+      </c>
+      <c r="BC217">
+        <v>8123</v>
+      </c>
+      <c r="BD217">
+        <v>10370</v>
+      </c>
+      <c r="BE217">
+        <v>8133</v>
+      </c>
+      <c r="BF217">
+        <v>258</v>
+      </c>
+      <c r="BG217">
+        <v>1497</v>
+      </c>
+      <c r="BH217">
+        <v>2775</v>
+      </c>
+      <c r="BI217">
+        <v>749</v>
+      </c>
+      <c r="BJ217">
+        <v>2217</v>
+      </c>
+      <c r="BK217">
+        <v>10230</v>
+      </c>
+      <c r="BL217">
+        <v>9727</v>
+      </c>
+      <c r="BM217">
+        <v>11127</v>
+      </c>
+      <c r="BN217">
+        <v>14479</v>
+      </c>
+      <c r="BO217">
+        <v>1985</v>
+      </c>
+      <c r="BP217">
+        <v>934</v>
+      </c>
+      <c r="BQ217">
+        <v>15055</v>
+      </c>
+      <c r="BR217">
+        <v>12615</v>
+      </c>
+      <c r="BS217" s="4">
+        <v>14468</v>
+      </c>
+      <c r="BT217" s="4">
+        <v>3929</v>
+      </c>
+      <c r="BU217" s="4">
+        <v>2533</v>
+      </c>
+      <c r="BV217" s="4">
+        <v>6980</v>
+      </c>
+      <c r="BW217" s="4">
+        <v>5371</v>
+      </c>
+      <c r="BX217" s="4">
+        <v>3378</v>
+      </c>
+      <c r="BY217" s="4">
+        <v>6680</v>
+      </c>
+      <c r="BZ217" s="4">
+        <v>4309</v>
+      </c>
+      <c r="CA217" s="4">
+        <v>2531</v>
+      </c>
+      <c r="CB217" s="4">
+        <v>1438</v>
+      </c>
+      <c r="CC217" s="4">
+        <v>3218</v>
+      </c>
+      <c r="CD217" s="4">
+        <v>2302</v>
+      </c>
+      <c r="CE217" s="4">
+        <v>2338</v>
+      </c>
+      <c r="CF217" s="4">
+        <v>2356</v>
+      </c>
+      <c r="CG217" s="4">
+        <v>7172</v>
+      </c>
+      <c r="CH217" s="4">
+        <v>2451</v>
+      </c>
+      <c r="CI217" s="4">
+        <v>1596</v>
+      </c>
+      <c r="CJ217" s="4">
+        <v>1975</v>
+      </c>
+      <c r="CK217" s="4">
+        <v>2252</v>
+      </c>
+      <c r="CL217" s="4">
+        <v>2480</v>
+      </c>
+      <c r="CM217" s="4">
+        <v>2976</v>
+      </c>
+      <c r="CN217" s="4">
+        <v>2030</v>
+      </c>
+      <c r="CO217" s="4">
+        <v>1260</v>
+      </c>
+      <c r="CP217" s="4">
+        <v>1251</v>
+      </c>
+      <c r="CQ217" s="4">
+        <v>1260</v>
+      </c>
+      <c r="CR217" s="4">
+        <v>3541</v>
+      </c>
+      <c r="CS217" s="4">
+        <v>1599</v>
+      </c>
+      <c r="CT217" s="4">
+        <v>1045</v>
+      </c>
+      <c r="CU217" s="4">
+        <v>1306</v>
+      </c>
+      <c r="CV217" s="4">
+        <v>1804</v>
+      </c>
+      <c r="CW217" s="4">
+        <v>1704</v>
+      </c>
+      <c r="CX217" s="4">
+        <v>825</v>
+      </c>
+      <c r="CY217" s="4">
+        <v>971</v>
+      </c>
+      <c r="CZ217" s="4">
+        <v>1481</v>
+      </c>
+      <c r="DA217" s="4">
+        <v>1978</v>
+      </c>
+      <c r="DB217" s="4">
+        <v>1883</v>
+      </c>
+      <c r="DC217" s="4">
+        <v>1827</v>
+      </c>
+      <c r="DD217" s="4">
+        <v>1406</v>
+      </c>
+      <c r="DE217" s="4">
+        <v>340</v>
+      </c>
+      <c r="DF217" s="4">
+        <v>373</v>
+      </c>
+      <c r="DG217" s="4">
+        <v>860</v>
+      </c>
+      <c r="DH217" s="4">
+        <v>801</v>
+      </c>
+      <c r="DI217" s="4">
+        <v>529</v>
+      </c>
+      <c r="DJ217" s="4">
+        <v>544</v>
+      </c>
+      <c r="DK217" s="4">
+        <v>400</v>
+      </c>
+      <c r="DL217" s="4">
+        <v>708</v>
+      </c>
+      <c r="DM217" s="4">
+        <v>770</v>
+      </c>
+      <c r="DN217" s="4">
+        <v>542</v>
+      </c>
+      <c r="DO217" s="4">
+        <v>516</v>
+      </c>
+      <c r="DP217" s="4">
+        <v>390</v>
+      </c>
+      <c r="DQ217" s="4">
+        <v>531</v>
+      </c>
+      <c r="DR217">
+        <v>144443</v>
+      </c>
+      <c r="DS217">
+        <v>370338</v>
+      </c>
+      <c r="DT217">
+        <v>24067</v>
+      </c>
+      <c r="DU217">
+        <v>161471</v>
+      </c>
+      <c r="DV217">
+        <v>100492</v>
+      </c>
+      <c r="DW217">
+        <v>50587</v>
+      </c>
+      <c r="DX217">
+        <v>14207</v>
+      </c>
+    </row>
+    <row r="218" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>44112</v>
+      </c>
+      <c r="B218">
+        <v>886179</v>
+      </c>
+      <c r="C218">
+        <v>2750</v>
+      </c>
+      <c r="D218">
+        <v>124338</v>
+      </c>
+      <c r="E218">
+        <v>68622</v>
+      </c>
+      <c r="F218">
+        <v>282789</v>
+      </c>
+      <c r="G218">
+        <v>30336</v>
+      </c>
+      <c r="H218">
+        <v>8467</v>
+      </c>
+      <c r="I218">
+        <v>7255</v>
+      </c>
+      <c r="J218">
+        <v>9429</v>
+      </c>
+      <c r="K218">
+        <v>10570</v>
+      </c>
+      <c r="L218">
+        <v>21882</v>
+      </c>
+      <c r="M218">
+        <v>4053</v>
+      </c>
+      <c r="N218">
+        <v>24778</v>
+      </c>
+      <c r="O218">
+        <v>35672</v>
+      </c>
+      <c r="P218">
+        <v>8652</v>
+      </c>
+      <c r="Q218">
+        <v>13627</v>
+      </c>
+      <c r="R218">
+        <v>15803</v>
+      </c>
+      <c r="S218">
+        <v>17014</v>
+      </c>
+      <c r="T218">
+        <v>19267</v>
+      </c>
+      <c r="U218">
+        <v>17268</v>
+      </c>
+      <c r="V218">
+        <v>3974</v>
+      </c>
+      <c r="W218">
+        <v>4885</v>
+      </c>
+      <c r="X218">
+        <v>12496</v>
+      </c>
+      <c r="Y218">
+        <v>33821</v>
+      </c>
+      <c r="Z218">
+        <v>14485</v>
+      </c>
+      <c r="AA218">
+        <v>13790</v>
+      </c>
+      <c r="AB218">
+        <v>67553</v>
+      </c>
+      <c r="AC218">
+        <v>2932</v>
+      </c>
+      <c r="AD218">
+        <v>1572</v>
+      </c>
+      <c r="AE218">
+        <v>870</v>
+      </c>
+      <c r="AF218">
+        <v>485</v>
+      </c>
+      <c r="AG218">
+        <v>1020</v>
+      </c>
+      <c r="AH218">
+        <v>652</v>
+      </c>
+      <c r="AI218">
+        <v>1015</v>
+      </c>
+      <c r="AJ218">
+        <v>2112</v>
+      </c>
+      <c r="AK218">
+        <v>6471</v>
+      </c>
+      <c r="AL218">
+        <v>38867</v>
+      </c>
+      <c r="AM218">
+        <v>11145</v>
+      </c>
+      <c r="AN218">
+        <v>2596</v>
+      </c>
+      <c r="AO218">
+        <v>51751</v>
+      </c>
+      <c r="AP218">
+        <v>1192</v>
+      </c>
+      <c r="AQ218">
+        <v>24241</v>
+      </c>
+      <c r="AR218">
+        <v>1545</v>
+      </c>
+      <c r="AS218">
+        <v>11347</v>
+      </c>
+      <c r="AT218">
+        <v>1709</v>
+      </c>
+      <c r="AU218">
+        <v>1630</v>
+      </c>
+      <c r="AV218">
+        <v>9764</v>
+      </c>
+      <c r="AW218">
+        <v>2113</v>
+      </c>
+      <c r="AX218">
+        <v>972</v>
+      </c>
+      <c r="AY218">
+        <v>2508</v>
+      </c>
+      <c r="AZ218">
+        <v>2710</v>
+      </c>
+      <c r="BA218">
+        <v>71644</v>
+      </c>
+      <c r="BB218">
+        <v>14646</v>
+      </c>
+      <c r="BC218">
+        <v>8359</v>
+      </c>
+      <c r="BD218">
+        <v>10430</v>
+      </c>
+      <c r="BE218">
+        <v>8388</v>
+      </c>
+      <c r="BF218">
+        <v>258</v>
+      </c>
+      <c r="BG218">
+        <v>1499</v>
+      </c>
+      <c r="BH218">
+        <v>2777</v>
+      </c>
+      <c r="BI218">
+        <v>750</v>
+      </c>
+      <c r="BJ218">
+        <v>2220</v>
+      </c>
+      <c r="BK218">
+        <v>10282</v>
+      </c>
+      <c r="BL218">
+        <v>9764</v>
+      </c>
+      <c r="BM218">
+        <v>11218</v>
+      </c>
+      <c r="BN218">
+        <v>14494</v>
+      </c>
+      <c r="BO218">
+        <v>1985</v>
+      </c>
+      <c r="BP218">
+        <v>935</v>
+      </c>
+      <c r="BQ218">
+        <v>15201</v>
+      </c>
+      <c r="BR218">
+        <v>12789</v>
+      </c>
+      <c r="BS218" s="4">
+        <v>14566</v>
+      </c>
+      <c r="BT218" s="4">
+        <v>4135</v>
+      </c>
+      <c r="BU218" s="4">
+        <v>2567</v>
+      </c>
+      <c r="BV218" s="4">
+        <v>7036</v>
+      </c>
+      <c r="BW218" s="4">
+        <v>5422</v>
+      </c>
+      <c r="BX218" s="4">
+        <v>3479</v>
+      </c>
+      <c r="BY218" s="4">
+        <v>6846</v>
+      </c>
+      <c r="BZ218" s="4">
+        <v>4420</v>
+      </c>
+      <c r="CA218" s="4">
+        <v>2610</v>
+      </c>
+      <c r="CB218" s="4">
+        <v>1485</v>
+      </c>
+      <c r="CC218" s="4">
+        <v>3249</v>
+      </c>
+      <c r="CD218" s="4">
+        <v>2306</v>
+      </c>
+      <c r="CE218" s="4">
+        <v>2366</v>
+      </c>
+      <c r="CF218" s="4">
+        <v>2404</v>
+      </c>
+      <c r="CG218" s="4">
+        <v>7321</v>
+      </c>
+      <c r="CH218" s="4">
+        <v>2474</v>
+      </c>
+      <c r="CI218" s="4">
+        <v>1605</v>
+      </c>
+      <c r="CJ218" s="4">
+        <v>1984</v>
+      </c>
+      <c r="CK218" s="4">
+        <v>2284</v>
+      </c>
+      <c r="CL218" s="4">
+        <v>2531</v>
+      </c>
+      <c r="CM218" s="4">
+        <v>3010</v>
+      </c>
+      <c r="CN218" s="4">
+        <v>2095</v>
+      </c>
+      <c r="CO218" s="4">
+        <v>1260</v>
+      </c>
+      <c r="CP218" s="4">
+        <v>1258</v>
+      </c>
+      <c r="CQ218" s="4">
+        <v>1288</v>
+      </c>
+      <c r="CR218" s="4">
+        <v>3561</v>
+      </c>
+      <c r="CS218" s="4">
+        <v>1614</v>
+      </c>
+      <c r="CT218" s="4">
+        <v>1050</v>
+      </c>
+      <c r="CU218" s="4">
+        <v>1344</v>
+      </c>
+      <c r="CV218" s="4">
+        <v>1809</v>
+      </c>
+      <c r="CW218" s="4">
+        <v>1718</v>
+      </c>
+      <c r="CX218" s="4">
+        <v>826</v>
+      </c>
+      <c r="CY218" s="4">
+        <v>975</v>
+      </c>
+      <c r="CZ218" s="4">
+        <v>1507</v>
+      </c>
+      <c r="DA218" s="4">
+        <v>2020</v>
+      </c>
+      <c r="DB218" s="4">
+        <v>1914</v>
+      </c>
+      <c r="DC218" s="4">
+        <v>1852</v>
+      </c>
+      <c r="DD218" s="4">
+        <v>1439</v>
+      </c>
+      <c r="DE218" s="4">
+        <v>340</v>
+      </c>
+      <c r="DF218" s="4">
+        <v>375</v>
+      </c>
+      <c r="DG218" s="4">
+        <v>871</v>
+      </c>
+      <c r="DH218" s="4">
+        <v>813</v>
+      </c>
+      <c r="DI218" s="4">
+        <v>532</v>
+      </c>
+      <c r="DJ218" s="4">
+        <v>544</v>
+      </c>
+      <c r="DK218" s="4">
+        <v>403</v>
+      </c>
+      <c r="DL218" s="4">
+        <v>710</v>
+      </c>
+      <c r="DM218" s="4">
+        <v>773</v>
+      </c>
+      <c r="DN218" s="4">
+        <v>542</v>
+      </c>
+      <c r="DO218" s="4">
+        <v>517</v>
+      </c>
+      <c r="DP218" s="4">
+        <v>390</v>
+      </c>
+      <c r="DQ218" s="4">
+        <v>533</v>
+      </c>
+      <c r="DR218">
+        <v>145295</v>
+      </c>
+      <c r="DS218">
+        <v>372993</v>
+      </c>
+      <c r="DT218">
+        <v>24909</v>
+      </c>
+      <c r="DU218">
+        <v>163591</v>
+      </c>
+      <c r="DV218">
+        <v>101443</v>
+      </c>
+      <c r="DW218">
+        <v>51138</v>
+      </c>
+      <c r="DX218">
+        <v>14423</v>
+      </c>
+    </row>
+    <row r="219" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>44113</v>
+      </c>
+      <c r="B219">
+        <v>894300</v>
+      </c>
+      <c r="C219">
+        <v>2750</v>
+      </c>
+      <c r="D219">
+        <v>126708</v>
+      </c>
+      <c r="E219">
+        <v>68692</v>
+      </c>
+      <c r="F219">
+        <v>284824</v>
+      </c>
+      <c r="G219">
+        <v>30413</v>
+      </c>
+      <c r="H219">
+        <v>8712</v>
+      </c>
+      <c r="I219">
+        <v>7410</v>
+      </c>
+      <c r="J219">
+        <v>9485</v>
+      </c>
+      <c r="K219">
+        <v>10651</v>
+      </c>
+      <c r="L219">
+        <v>21958</v>
+      </c>
+      <c r="M219">
+        <v>4056</v>
+      </c>
+      <c r="N219">
+        <v>24821</v>
+      </c>
+      <c r="O219">
+        <v>35877</v>
+      </c>
+      <c r="P219">
+        <v>8701</v>
+      </c>
+      <c r="Q219">
+        <v>13943</v>
+      </c>
+      <c r="R219">
+        <v>15867</v>
+      </c>
+      <c r="S219">
+        <v>17177</v>
+      </c>
+      <c r="T219">
+        <v>19291</v>
+      </c>
+      <c r="U219">
+        <v>17426</v>
+      </c>
+      <c r="V219">
+        <v>3984</v>
+      </c>
+      <c r="W219">
+        <v>4991</v>
+      </c>
+      <c r="X219">
+        <v>12614</v>
+      </c>
+      <c r="Y219">
+        <v>34525</v>
+      </c>
+      <c r="Z219">
+        <v>14531</v>
+      </c>
+      <c r="AA219">
+        <v>13950</v>
+      </c>
+      <c r="AB219">
+        <v>68231</v>
+      </c>
+      <c r="AC219">
+        <v>2969</v>
+      </c>
+      <c r="AD219">
+        <v>1579</v>
+      </c>
+      <c r="AE219">
+        <v>892</v>
+      </c>
+      <c r="AF219">
+        <v>486</v>
+      </c>
+      <c r="AG219">
+        <v>1021</v>
+      </c>
+      <c r="AH219">
+        <v>665</v>
+      </c>
+      <c r="AI219">
+        <v>1023</v>
+      </c>
+      <c r="AJ219">
+        <v>2114</v>
+      </c>
+      <c r="AK219">
+        <v>6658</v>
+      </c>
+      <c r="AL219">
+        <v>38892</v>
+      </c>
+      <c r="AM219">
+        <v>11380</v>
+      </c>
+      <c r="AN219">
+        <v>2597</v>
+      </c>
+      <c r="AO219">
+        <v>52263</v>
+      </c>
+      <c r="AP219">
+        <v>1203</v>
+      </c>
+      <c r="AQ219">
+        <v>24291</v>
+      </c>
+      <c r="AR219">
+        <v>1548</v>
+      </c>
+      <c r="AS219">
+        <v>11444</v>
+      </c>
+      <c r="AT219">
+        <v>1711</v>
+      </c>
+      <c r="AU219">
+        <v>1633</v>
+      </c>
+      <c r="AV219">
+        <v>9876</v>
+      </c>
+      <c r="AW219">
+        <v>2121</v>
+      </c>
+      <c r="AX219">
+        <v>972</v>
+      </c>
+      <c r="AY219">
+        <v>2508</v>
+      </c>
+      <c r="AZ219">
+        <v>2713</v>
+      </c>
+      <c r="BA219">
+        <v>72982</v>
+      </c>
+      <c r="BB219">
+        <v>14674</v>
+      </c>
+      <c r="BC219">
+        <v>8630</v>
+      </c>
+      <c r="BD219">
+        <v>10486</v>
+      </c>
+      <c r="BE219">
+        <v>8461</v>
+      </c>
+      <c r="BF219">
+        <v>258</v>
+      </c>
+      <c r="BG219">
+        <v>1499</v>
+      </c>
+      <c r="BH219">
+        <v>2780</v>
+      </c>
+      <c r="BI219">
+        <v>750</v>
+      </c>
+      <c r="BJ219">
+        <v>2222</v>
+      </c>
+      <c r="BK219">
+        <v>10311</v>
+      </c>
+      <c r="BL219">
+        <v>9779</v>
+      </c>
+      <c r="BM219">
+        <v>11275</v>
+      </c>
+      <c r="BN219">
+        <v>14504</v>
+      </c>
+      <c r="BO219">
+        <v>1987</v>
+      </c>
+      <c r="BP219">
+        <v>937</v>
+      </c>
+      <c r="BQ219">
+        <v>15241</v>
+      </c>
+      <c r="BR219">
+        <v>12885</v>
+      </c>
+      <c r="BS219" s="4">
+        <v>14875</v>
+      </c>
+      <c r="BT219" s="4">
+        <v>4253</v>
+      </c>
+      <c r="BU219" s="4">
+        <v>2586</v>
+      </c>
+      <c r="BV219" s="4">
+        <v>7095</v>
+      </c>
+      <c r="BW219" s="4">
+        <v>5496</v>
+      </c>
+      <c r="BX219" s="4">
+        <v>3539</v>
+      </c>
+      <c r="BY219" s="4">
+        <v>6959</v>
+      </c>
+      <c r="BZ219" s="4">
+        <v>4540</v>
+      </c>
+      <c r="CA219" s="4">
+        <v>2642</v>
+      </c>
+      <c r="CB219" s="4">
+        <v>1501</v>
+      </c>
+      <c r="CC219" s="4">
+        <v>3251</v>
+      </c>
+      <c r="CD219" s="4">
+        <v>2309</v>
+      </c>
+      <c r="CE219" s="4">
+        <v>2395</v>
+      </c>
+      <c r="CF219" s="4">
+        <v>2495</v>
+      </c>
+      <c r="CG219" s="4">
+        <v>7356</v>
+      </c>
+      <c r="CH219" s="4">
+        <v>2536</v>
+      </c>
+      <c r="CI219" s="4">
+        <v>1621</v>
+      </c>
+      <c r="CJ219" s="4">
+        <v>2004</v>
+      </c>
+      <c r="CK219" s="4">
+        <v>2297</v>
+      </c>
+      <c r="CL219" s="4">
+        <v>2550</v>
+      </c>
+      <c r="CM219" s="4">
+        <v>3030</v>
+      </c>
+      <c r="CN219" s="4">
+        <v>2177</v>
+      </c>
+      <c r="CO219" s="4">
+        <v>1261</v>
+      </c>
+      <c r="CP219" s="4">
+        <v>1265</v>
+      </c>
+      <c r="CQ219" s="4">
+        <v>1308</v>
+      </c>
+      <c r="CR219" s="4">
+        <v>3571</v>
+      </c>
+      <c r="CS219" s="4">
+        <v>1627</v>
+      </c>
+      <c r="CT219" s="4">
+        <v>1052</v>
+      </c>
+      <c r="CU219" s="4">
+        <v>1385</v>
+      </c>
+      <c r="CV219" s="4">
+        <v>1810</v>
+      </c>
+      <c r="CW219" s="4">
+        <v>1719</v>
+      </c>
+      <c r="CX219" s="4">
+        <v>831</v>
+      </c>
+      <c r="CY219" s="4">
+        <v>986</v>
+      </c>
+      <c r="CZ219" s="4">
+        <v>1516</v>
+      </c>
+      <c r="DA219" s="4">
+        <v>2085</v>
+      </c>
+      <c r="DB219" s="4">
+        <v>1961</v>
+      </c>
+      <c r="DC219" s="4">
+        <v>1893</v>
+      </c>
+      <c r="DD219" s="4">
+        <v>1467</v>
+      </c>
+      <c r="DE219" s="4">
+        <v>340</v>
+      </c>
+      <c r="DF219" s="4">
+        <v>375</v>
+      </c>
+      <c r="DG219" s="4">
+        <v>874</v>
+      </c>
+      <c r="DH219" s="4">
+        <v>818</v>
+      </c>
+      <c r="DI219" s="4">
+        <v>534</v>
+      </c>
+      <c r="DJ219" s="4">
+        <v>544</v>
+      </c>
+      <c r="DK219" s="4">
+        <v>403</v>
+      </c>
+      <c r="DL219" s="4">
+        <v>712</v>
+      </c>
+      <c r="DM219" s="4">
+        <v>773</v>
+      </c>
+      <c r="DN219" s="4">
+        <v>542</v>
+      </c>
+      <c r="DO219" s="4">
+        <v>524</v>
+      </c>
+      <c r="DP219" s="4">
+        <v>391</v>
+      </c>
+      <c r="DQ219" s="4">
+        <v>534</v>
+      </c>
+      <c r="DR219">
+        <v>145631</v>
+      </c>
+      <c r="DS219">
+        <v>376117</v>
+      </c>
+      <c r="DT219">
+        <v>25288</v>
+      </c>
+      <c r="DU219">
+        <v>166050</v>
+      </c>
+      <c r="DV219">
+        <v>102229</v>
+      </c>
+      <c r="DW219">
+        <v>52000</v>
+      </c>
+      <c r="DX219">
+        <v>14490</v>
+      </c>
+    </row>
+    <row r="220" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>44114</v>
+      </c>
+      <c r="B220">
+        <v>902747</v>
+      </c>
+      <c r="C220">
+        <v>2750</v>
+      </c>
+      <c r="D220">
+        <v>129365</v>
+      </c>
+      <c r="E220">
+        <v>68838</v>
+      </c>
+      <c r="F220">
+        <v>286312</v>
+      </c>
+      <c r="G220">
+        <v>30540</v>
+      </c>
+      <c r="H220">
+        <v>8882</v>
+      </c>
+      <c r="I220">
+        <v>7594</v>
+      </c>
+      <c r="J220">
+        <v>9559</v>
+      </c>
+      <c r="K220">
+        <v>10771</v>
+      </c>
+      <c r="L220">
+        <v>22211</v>
+      </c>
+      <c r="M220">
+        <v>4057</v>
+      </c>
+      <c r="N220">
+        <v>24883</v>
+      </c>
+      <c r="O220">
+        <v>36181</v>
+      </c>
+      <c r="P220">
+        <v>8758</v>
+      </c>
+      <c r="Q220">
+        <v>14408</v>
+      </c>
+      <c r="R220">
+        <v>15926</v>
+      </c>
+      <c r="S220">
+        <v>17418</v>
+      </c>
+      <c r="T220">
+        <v>19416</v>
+      </c>
+      <c r="U220">
+        <v>17577</v>
+      </c>
+      <c r="V220">
+        <v>3993</v>
+      </c>
+      <c r="W220">
+        <v>5129</v>
+      </c>
+      <c r="X220">
+        <v>12824</v>
+      </c>
+      <c r="Y220">
+        <v>34809</v>
+      </c>
+      <c r="Z220">
+        <v>14573</v>
+      </c>
+      <c r="AA220">
+        <v>14181</v>
+      </c>
+      <c r="AB220">
+        <v>68910</v>
+      </c>
+      <c r="AC220">
+        <v>3027</v>
+      </c>
+      <c r="AD220">
+        <v>1610</v>
+      </c>
+      <c r="AE220">
+        <v>920</v>
+      </c>
+      <c r="AF220">
+        <v>487</v>
+      </c>
+      <c r="AG220">
+        <v>1024</v>
+      </c>
+      <c r="AH220">
+        <v>670</v>
+      </c>
+      <c r="AI220">
+        <v>1038</v>
+      </c>
+      <c r="AJ220">
+        <v>2118</v>
+      </c>
+      <c r="AK220">
+        <v>6704</v>
+      </c>
+      <c r="AL220">
+        <v>38995</v>
+      </c>
+      <c r="AM220">
+        <v>11614</v>
+      </c>
+      <c r="AN220">
+        <v>2601</v>
+      </c>
+      <c r="AO220">
+        <v>52673</v>
+      </c>
+      <c r="AP220">
+        <v>1208</v>
+      </c>
+      <c r="AQ220">
+        <v>24400</v>
+      </c>
+      <c r="AR220">
+        <v>1548</v>
+      </c>
+      <c r="AS220">
+        <v>11538</v>
+      </c>
+      <c r="AT220">
+        <v>1714</v>
+      </c>
+      <c r="AU220">
+        <v>1634</v>
+      </c>
+      <c r="AV220">
+        <v>10040</v>
+      </c>
+      <c r="AW220">
+        <v>2131</v>
+      </c>
+      <c r="AX220">
+        <v>972</v>
+      </c>
+      <c r="AY220">
+        <v>2508</v>
+      </c>
+      <c r="AZ220">
+        <v>2716</v>
+      </c>
+      <c r="BA220">
+        <v>74654</v>
+      </c>
+      <c r="BB220">
+        <v>14703</v>
+      </c>
+      <c r="BC220">
+        <v>8975</v>
+      </c>
+      <c r="BD220">
+        <v>10536</v>
+      </c>
+      <c r="BE220">
+        <v>8578</v>
+      </c>
+      <c r="BF220">
+        <v>258</v>
+      </c>
+      <c r="BG220">
+        <v>1501</v>
+      </c>
+      <c r="BH220">
+        <v>2781</v>
+      </c>
+      <c r="BI220">
+        <v>751</v>
+      </c>
+      <c r="BJ220">
+        <v>2226</v>
+      </c>
+      <c r="BK220">
+        <v>10356</v>
+      </c>
+      <c r="BL220">
+        <v>9798</v>
+      </c>
+      <c r="BM220">
+        <v>11328</v>
+      </c>
+      <c r="BN220">
+        <v>14522</v>
+      </c>
+      <c r="BO220">
+        <v>1988</v>
+      </c>
+      <c r="BP220">
+        <v>940</v>
+      </c>
+      <c r="BQ220">
+        <v>15358</v>
+      </c>
+      <c r="BR220">
+        <v>13024</v>
+      </c>
+      <c r="BS220" s="4">
+        <v>14996</v>
+      </c>
+      <c r="BT220" s="4">
+        <v>4383</v>
+      </c>
+      <c r="BU220" s="4">
+        <v>2620</v>
+      </c>
+      <c r="BV220" s="4">
+        <v>7184</v>
+      </c>
+      <c r="BW220" s="4">
+        <v>5559</v>
+      </c>
+      <c r="BX220" s="4">
+        <v>3659</v>
+      </c>
+      <c r="BY220" s="4">
+        <v>7151</v>
+      </c>
+      <c r="BZ220" s="4">
+        <v>4705</v>
+      </c>
+      <c r="CA220" s="4">
+        <v>2695</v>
+      </c>
+      <c r="CB220" s="4">
+        <v>1529</v>
+      </c>
+      <c r="CC220" s="4">
+        <v>3274</v>
+      </c>
+      <c r="CD220" s="4">
+        <v>2312</v>
+      </c>
+      <c r="CE220" s="4">
+        <v>2421</v>
+      </c>
+      <c r="CF220" s="4">
+        <v>2551</v>
+      </c>
+      <c r="CG220" s="4">
+        <v>7422</v>
+      </c>
+      <c r="CH220" s="4">
+        <v>2556</v>
+      </c>
+      <c r="CI220" s="4">
+        <v>1636</v>
+      </c>
+      <c r="CJ220" s="4">
+        <v>2025</v>
+      </c>
+      <c r="CK220" s="4">
+        <v>2313</v>
+      </c>
+      <c r="CL220" s="4">
+        <v>2573</v>
+      </c>
+      <c r="CM220" s="4">
+        <v>3048</v>
+      </c>
+      <c r="CN220" s="4">
+        <v>2206</v>
+      </c>
+      <c r="CO220" s="4">
+        <v>1261</v>
+      </c>
+      <c r="CP220" s="4">
+        <v>1268</v>
+      </c>
+      <c r="CQ220" s="4">
+        <v>1377</v>
+      </c>
+      <c r="CR220" s="4">
+        <v>3581</v>
+      </c>
+      <c r="CS220" s="4">
+        <v>1662</v>
+      </c>
+      <c r="CT220" s="4">
+        <v>1055</v>
+      </c>
+      <c r="CU220" s="4">
+        <v>1412</v>
+      </c>
+      <c r="CV220" s="4">
+        <v>1814</v>
+      </c>
+      <c r="CW220" s="4">
+        <v>1733</v>
+      </c>
+      <c r="CX220" s="4">
+        <v>835</v>
+      </c>
+      <c r="CY220" s="4">
+        <v>992</v>
+      </c>
+      <c r="CZ220" s="4">
+        <v>1530</v>
+      </c>
+      <c r="DA220" s="4">
+        <v>2157</v>
+      </c>
+      <c r="DB220" s="4">
+        <v>1999</v>
+      </c>
+      <c r="DC220" s="4">
+        <v>1926</v>
+      </c>
+      <c r="DD220" s="4">
+        <v>1510</v>
+      </c>
+      <c r="DE220" s="4">
+        <v>340</v>
+      </c>
+      <c r="DF220" s="4">
+        <v>375</v>
+      </c>
+      <c r="DG220" s="4">
+        <v>879</v>
+      </c>
+      <c r="DH220" s="4">
+        <v>826</v>
+      </c>
+      <c r="DI220" s="4">
+        <v>534</v>
+      </c>
+      <c r="DJ220" s="4">
+        <v>544</v>
+      </c>
+      <c r="DK220" s="4">
+        <v>404</v>
+      </c>
+      <c r="DL220" s="4">
+        <v>714</v>
+      </c>
+      <c r="DM220" s="4">
+        <v>773</v>
+      </c>
+      <c r="DN220" s="4">
+        <v>543</v>
+      </c>
+      <c r="DO220" s="4">
+        <v>528</v>
+      </c>
+      <c r="DP220" s="4">
+        <v>391</v>
+      </c>
+      <c r="DQ220" s="4">
+        <v>536</v>
+      </c>
+      <c r="DR220">
+        <v>146273</v>
+      </c>
+      <c r="DS220">
+        <v>379016</v>
+      </c>
+      <c r="DT220">
+        <v>25820</v>
+      </c>
+      <c r="DU220">
+        <v>168811</v>
+      </c>
+      <c r="DV220">
+        <v>103154</v>
+      </c>
+      <c r="DW220">
+        <v>52435</v>
+      </c>
+      <c r="DX220">
+        <v>14576</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId1"/>
